--- a/sql_dataset_real.xlsx
+++ b/sql_dataset_real.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D282"/>
+  <dimension ref="A1:E381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>ERROR_CLASS</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IS_FIXABLE</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -471,7 +476,14 @@
           <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -489,7 +501,14 @@
           <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -507,7 +526,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -525,7 +551,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -543,7 +576,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -561,7 +601,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -579,7 +626,14 @@
           <t>select * FROM sfd_hdfsgw_hdp.prx_pprb_platform_masspay_platform_masspay.com_sbt_salary_mp_entities_list_element_masspaymentrosterlistelement limit 100</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -597,7 +651,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -615,7 +676,14 @@
           <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,   COLUMN_NAME, COLUMN_TYPE, DATA_TYPE, TYPE_NAME,   PRECISION, LENGTH, SCALE, RADIX,   NULLABLE, REMARKS, COLUMN_DEF, SQL_DATA_TYPE, SQL_DATETIME_SUB,   CHAR_OCTET_LENGTH, ORDINAL_POSITION, IS_NULLABLE, SPECIFIC_NAME FROM system.jdbc.procedure_columns ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME, COLUMN_NAME LIMIT 0</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -633,7 +701,14 @@
           <t>select * from k808_rx_hdp.t_03406946_omega_sbrf_ru.v_is0929_raskovalov limit 10</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -651,7 +726,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -669,7 +751,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -687,7 +776,14 @@
           <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_1507_voskob_tb_zp_acc2" select a.*, t.opcode, t.opkind, t.externalkind, t.opno, t.opcash, t.balance, t.opday from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1507_voskob_tb_zp_acc" a join sfd_hdfsgw_hdp.prx_cod_deposit_data_opt_internal_cod52_deposit.depohist_opday t on a.b_id_mega=t.id_mega and a.id_major=t.deposit_major and a.id_minor=t.deposit_minor and t.opday_dd  between '2023-10-01' and '2023-10-31'  and t.opkind = 15 and t.opday between cast(a.d1 as date) and cast(a.d2 as date)</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -705,7 +801,14 @@
           <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -723,7 +826,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -741,7 +851,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -759,7 +876,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -777,7 +901,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -795,7 +926,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -813,7 +951,14 @@
           <t>COMMIT</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -831,7 +976,14 @@
           <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -849,7 +1001,14 @@
           <t>select t.* ,k.* from capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."13_net_sp14_travel" t left join  k808_rx_hdp.prx_net_km_custom_fin_pi_kpi.t_pi_kpi k on cast(k.epk_id as varchar) =t.epk_id and k.dat_start=cast(substring(t.creation_date,1,10) as date)</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -867,7 +1026,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -885,7 +1051,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -903,7 +1076,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -921,7 +1101,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -939,7 +1126,14 @@
           <t>select * from k808_rx_hdp.t_team_sva_oarb."42_Lazarev_508_ALL_TB1"  limit 100</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -957,7 +1151,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -975,7 +1176,14 @@
           <t>select cast(substr('2017-03-28 00:00:00', 1, 10) as date)</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -993,7 +1201,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1011,7 +1226,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1029,7 +1251,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1047,7 +1276,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1065,7 +1301,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1083,7 +1326,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1101,7 +1351,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1119,7 +1376,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1137,7 +1401,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1155,7 +1426,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1173,7 +1451,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1191,7 +1476,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1209,7 +1501,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1227,7 +1526,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1245,7 +1551,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1263,7 +1576,14 @@
           <t>alter table t_cars_kap.depart rename to t_cars_kap.depart_02102024</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1281,7 +1601,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1299,7 +1626,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1317,7 +1651,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1335,7 +1676,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1353,7 +1701,14 @@
           <t>INSERT INTO k808_rx_hdp.t_team_prfl_cdp.vma_temp_cx_lstdt SELECT      epk_id,     last_activity_dt,     first_active_product_dt,     '2022-08-31' FROM      rozn2_gp.s_grnplm_ld_rozn_electron_knlg_core.vma_temp_cx_lstdt</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1371,7 +1726,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1389,7 +1751,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1407,7 +1776,14 @@
           <t>INSERT INTO k808_rx_hdp.T_TEAM_PRFL_CDP.vma_dim_ecosys_dzo_client SELECT      epk_id,     ecosystem_activity_flag,     amount_ecosystem_products,     CAST(report_dt AS VARCHAR) FROM      rozn2_gp.S_GRNPLM_LD_ROZN_ELECTRON_KNLG_CORE.vma_dim_ecosys_dzo_client</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1425,7 +1801,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1443,7 +1826,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1461,7 +1851,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1479,7 +1876,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1497,7 +1901,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1515,7 +1926,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1533,7 +1951,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1551,7 +1976,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1569,7 +2001,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1587,7 +2026,14 @@
           <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1605,7 +2051,14 @@
           <t>select distinct document_type_code from prx_cars_s_internal_cars_cars.digital_document</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1623,7 +2076,14 @@
           <t>select  		count(distinct epk_id) from  		k808_rx_hdp.t_team_sva_oarb."44_lva_ck_mvs_custumers_sbol_connect_3" limit 100</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1641,7 +2101,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1659,7 +2126,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1677,7 +2151,14 @@
           <t>select * 	from sfd_hdfsgw_hdp.prx_hd_atm_host_main_240821_nrt_atmhost_cap.device_group   	limit 20</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1695,7 +2176,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1713,7 +2201,14 @@
           <t>--Вывести мин. и макс. даты популяционной таблицы SELECT  	min(p_report_dt) AS min_p_report_dt, 	max(p_report_dt) AS max_p_report_dt  FROM k808_rx_hdp.t_team_sberindexlab.t_temp_ppl_for_sampling  LIMIT 10</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1731,7 +2226,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1749,7 +2251,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1767,7 +2276,14 @@
           <t>drop table if exists em_tmp5</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1785,7 +2301,14 @@
           <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,   COLUMN_NAME, COLUMN_TYPE, DATA_TYPE, TYPE_NAME,   PRECISION, LENGTH, SCALE, RADIX,   NULLABLE, REMARKS, COLUMN_DEF, SQL_DATA_TYPE, SQL_DATETIME_SUB,   CHAR_OCTET_LENGTH, ORDINAL_POSITION, IS_NULLABLE, SPECIFIC_NAME FROM system.jdbc.procedure_columns ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME, COLUMN_NAME LIMIT 0</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1803,7 +2326,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1821,7 +2351,14 @@
           <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1839,7 +2376,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1857,7 +2401,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1875,7 +2426,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1893,7 +2451,14 @@
           <t>SELECT * FROM t_team_sva_audit_2.t38_siv_08_11_24__1121__10__sbol_sbp_aggregated__sum_full_over_15k__120_people_as_sen_and_receivers ORDER BY sender, receiver</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1911,7 +2476,14 @@
           <t>select count(*) counts from em_tmp2</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1929,7 +2501,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1947,7 +2526,14 @@
           <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1965,7 +2551,14 @@
           <t>select *  from  k808_rx_hdp.prx_zakup_seldon_1_external_seldon.tndrs limit 100</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1983,7 +2576,14 @@
           <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2001,7 +2601,14 @@
           <t>select 7500</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2019,7 +2626,14 @@
           <t>START TRANSACTION ISOLATION LEVEL READ UNCOMMITTED, READ WRITE</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2037,7 +2651,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2055,7 +2676,14 @@
           <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2073,7 +2701,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2091,7 +2726,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2109,7 +2751,14 @@
           <t>select substring('2023.01.03 21:01:41.162', 1, 7)</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2127,7 +2776,14 @@
           <t>select substring(timestampcolumn, 1, 7), count(id) from k808_rx_hdp.t_team_sva_oarb."42_rodygin_oarbvvb_1675_chat_history" t group by substring(timestampcolumn, 1, 7) order by substring(timestampcolumn, 1, 7)</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2145,7 +2801,14 @@
           <t>select length('abc_zakupkigovru_beginner_20240118_092653_001.json')-9</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2163,7 +2826,14 @@
           <t>select * from capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2181,7 +2851,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2199,7 +2876,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2217,7 +2901,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2235,7 +2926,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2253,7 +2951,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2271,7 +2976,14 @@
           <t>select count (distinct chat_room_id) from k808_rx_hdp.t_team_sva_oarb.messages_filtered</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2289,7 +3001,14 @@
           <t>drop table  k808_rx_hdp.t_team_sva_oarb."55_gsd_t_rq_main_result"</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2307,7 +3026,14 @@
           <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2325,7 +3051,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2343,7 +3076,14 @@
           <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2711_sbolpro_8636_114"</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2361,7 +3101,14 @@
           <t>select month_created from t_cars_kap.DASH_2_chanel_2024 group by month_created</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2379,7 +3126,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2397,7 +3151,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2415,7 +3176,14 @@
           <t>select tb, gosb, p_printerid, pmh_polldate, pmh_pagecount, (pmh_pagecount - LAG(pmh_pagecount) OVER (PARTITION BY tb, p_printerid ORDER BY pmh_polldate ASC)) AS diff FROM sfd_hdfsgw_hdp.prx_otpechatki_printerov_i_vsp_new_selfservice_mctp.SELFSERVICE_CUITA_PRINT limit 100</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2433,7 +3201,14 @@
           <t>select * from k808_rx_hdp.t_team_mp_cmpn_ds."230016_ns_df" limit 10</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2451,7 +3226,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2469,7 +3251,14 @@
           <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2811_duble_oper_itog_epk_id_efs"</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2487,7 +3276,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2505,7 +3301,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2523,7 +3326,14 @@
           <t>select 		count(*) from 		k808_rx_hdp.t_team_sva_oarb."44_ias_ck_intersections_oper_session_ss2" limit 100</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2541,7 +3351,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2559,7 +3376,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2577,7 +3401,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2595,7 +3426,14 @@
           <t>INSERT INTO k808_rx_hdp.team_digitcamp.ops_rgs_report (     num,     previous_working_day,     target,     target_time,     count_lot,     abk_difference,     insight_difference,     working_difference) VALUES (     '6',           -- varchar(3)     'За 3Q2024',   -- varchar(30)     '1',           -- varchar(30)     168,             -- bigint (можно оставить 0 если значение не может быть NULL)     558,          -- bigint     13.3,          -- double     1.439,          -- double     0.103          -- double    )</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2613,7 +3451,14 @@
           <t>create table k808_rx_hdp.t_team_sva_oarb."55_vos_pb_epk_sms_status" as select  device_id                   ,short_push_text             ,external_id                 ,cast(esb_msg_in_created_on as timestamp) as esb_msg_in_created_on ,cast(send_message_created_on as timestamp) as send_message_created_on ,client_id                   ,record_source               ,sms_text                    ,send_message_id             ,ucp_id                      ,esb_msg_in_guid             ,sending_counter             ,send_status                 ,msisdn                      ,msg_type_id                 ,epk                         ,bankir                      ,date_start                  ,date_end                    ,used_phone                  ,status_code                 ,error_msg                   ,sms_segment_delivered       ,cast(gate_msg_in_body_created_on as timestamp) as gate_msg_in_body_created_on ,sms_segment_undelivered     ,cast(created_on as timestamp) as created_on ,gate_msg_in_body_id         ,sms_segment_sent            ,sms_segment_total           ,cast(status_at as timestamp) as status_at ,sms_segment_unknown         ,cast(max_ as timestamp) as max_                        ,status_text                 ,error_discription            from capgp3_gp.s_grnplm_ld_audit_da_emitent.pb_55_epk_sms_status</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2631,7 +3476,14 @@
           <t>SELECT id, contract_idt, record_date_from, record_date_to, acnt_status, card_status, contr_status, status_category, ext_data, ftkp_node, ctl_validfrom, ctl_action, ctl_loading, ctl_filename FROM sfd_hdfsgw_hdp.prx_42_air_4dmf9_internal_way4dm_dtpprbf9.dwa_f9_contr_ext_attr limit 100</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2649,7 +3501,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2667,7 +3526,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2685,7 +3551,14 @@
           <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2703,7 +3576,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2721,7 +3601,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2739,7 +3626,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2757,7 +3651,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E129" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2775,7 +3676,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E130" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2793,7 +3701,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2811,7 +3726,14 @@
           <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2829,7 +3751,14 @@
           <t>START TRANSACTION ISOLATION LEVEL READ UNCOMMITTED, READ WRITE</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2847,7 +3776,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2865,7 +3801,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2883,7 +3826,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2901,7 +3851,14 @@
           <t>-- Список заявок для исключения из основной таблицы заявок select count(distinct entity_id)  from k808_rx_hdp.t_team_sva_oarb."55_elf_mc_03"</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2919,7 +3876,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2937,7 +3901,14 @@
           <t>INSERT INTO k808_rx_hdp.team_digitcamp.ops_rgs_report (     num,     previous_working_day,     target,     target_time,     count_lot,     abk_difference,     insight_difference,     working_difference) VALUES (     '4',           -- varchar(3)     'За 1Q2024',   -- varchar(30)     '1',           -- varchar(30)     0,             -- bigint (можно оставить 0 если значение не может быть NULL)     NULL,          -- bigint     NULL,          -- double     NULL,          -- double     NULL )</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2955,7 +3926,14 @@
           <t>START TRANSACTION ISOLATION LEVEL READ UNCOMMITTED, READ WRITE</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E140" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2973,7 +3951,14 @@
           <t>use k808_rx_hdp.t_team_pcpcuz</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2991,7 +3976,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E142" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3009,7 +4001,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E143" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3027,7 +4026,14 @@
           <t>SELECT partner_id, granularity, granularity_ru, date_start, scenario_name, connection, platform, scenario, partner_name, partner_inn, partner_aal, partner_type, oe_list, max(CASE WHEN scenario_step = 'start' THEN sessions_cnt END) AS start_, max(CASE WHEN scenario_step = 'success' THEN sessions_cnt END) AS success FROM k808_rx_hdp.t_team_sberid.metrics_conversion GROUP BY partner_id, granularity, granularity_ru, date_start, scenario_name, connection, platform, scenario, partner_name, partner_inn, partner_aal, partner_type, oe_list ORDER BY partner_id</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3045,7 +4051,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3063,7 +4076,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3081,7 +4101,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3099,7 +4126,14 @@
           <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,   COLUMN_NAME, COLUMN_TYPE, DATA_TYPE, TYPE_NAME,   PRECISION, LENGTH, SCALE, RADIX,   NULLABLE, REMARKS, COLUMN_DEF, SQL_DATA_TYPE, SQL_DATETIME_SUB,   CHAR_OCTET_LENGTH, ORDINAL_POSITION, IS_NULLABLE, SPECIFIC_NAME FROM system.jdbc.procedure_columns ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME, COLUMN_NAME LIMIT 0</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3117,7 +4151,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3135,7 +4176,14 @@
           <t>START TRANSACTION ISOLATION LEVEL READ UNCOMMITTED, READ WRITE</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3153,7 +4201,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3171,7 +4226,14 @@
           <t>INSERT INTO k808_rx_hdp.team_digitcamp.ops_rgs_report_sld (     previous_working_day,     all_count     ) VALUES (     'За 1Q2024',       null            )</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E152" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3189,7 +4251,14 @@
           <t>START TRANSACTION ISOLATION LEVEL READ UNCOMMITTED, READ WRITE</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E153" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3207,7 +4276,14 @@
           <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3225,7 +4301,14 @@
           <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1743_paket_podkl_fio_prime" SELECT a.*, b.start_date start_date_prime, b.fact_end_date fact_end_date_prime, b.end_date end_date_prime, b.application_datetime application_datetime_prime, b.current_payment_date current_payment_date_prime, b.next_pay_date next_pay_date_prime, b.description description_prime, b.name name_prime, b.status status_prime, b.status_reason status_reason_prime FROM k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1743_paket_podkl_fio" a   join sfd_hdfsgw_hdp.prx_1_bxb1062_pakety_uslug_fl_internal_pprbpu_beta_opf_management.private_service_package b on a.owner_id = b.owner_id and  not(b.start_date &gt; coalesce(cast(a.fact_end_date as date), date(a.end_date), date('9999-12-31')) and b.end_date &lt; a.start_date)  and b.name like '%СберПрайм+%' and b.name like '%СберПрайм%'</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3243,7 +4326,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3261,7 +4351,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3279,7 +4376,14 @@
           <t>select * from t_cars_kap.vklad_close_v_01 limit 1000</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E158" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3297,7 +4401,14 @@
           <t>create table k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1746_paket_otkl_fio_prime" as SELECT a.*, b.start_date start_date_prime, b.fact_end_date fact_end_date_prime, b.end_date end_date_prime, b.application_datetime application_datetime_prime, b.current_payment_date current_payment_date_prime, b.next_pay_date next_pay_date_prime, b.description description_prime, b.name name_prime, b.status status_prime, b.status_reason status_reason_prime FROM k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1746_paket_otkl_fio" a   join sfd_hdfsgw_hdp.prx_1_bxb1062_pakety_uslug_fl_internal_pprbpu_alpha_opf_management.private_service_package b on a.owner_id = b.owner_id and  not (b.start_date &gt; coalesce(cast(a.fact_end_date as date), date(a.end_date), date('9999-12-31')) or coalesce(cast(b.fact_end_date as date), date(b.end_date), date('9999-12-31')) &lt; a.start_date)  and b.name like '%СберПрайм+%' and b.name like '%СберПрайм%'</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E159" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3315,7 +4426,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3333,7 +4451,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E161" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3351,7 +4476,14 @@
           <t>select count(distinct epk_id) ,substring(data_dt,6,2) from k808_rx_hdp.t_team_sva_oarb."13_net_p2_epk_otkl" group by substring(data_dt,6,2)</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E162" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3369,7 +4501,14 @@
           <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2"</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E163" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3387,7 +4526,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E164" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3405,7 +4551,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E165" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3423,7 +4576,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E166" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3441,7 +4601,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E167" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3459,7 +4626,14 @@
           <t>--создание внешней таблы drop  table if exists k808_rx_hdp.team_digitcamp.t_ops_seldon_data</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E168" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3477,7 +4651,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E169" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3495,7 +4676,14 @@
           <t>--num	previous_working_day	target	difference_in_hours	sum_difference	target_time	count_entity_lot	count_lot	abk_difference	insight_difference	working_difference	result_difference	part_entity	part_lose       INSERT INTO k808_rx_hdp.team_digitcamp.ops_rgs_report (     num,     previous_working_day,     target,     target_time,     count_entity_lot,     abk_difference,     insight_difference,     working_difference,     part_entity,     part_lose) VALUES (     '6',           -- varchar(3) num     'За 3Q2024',   -- varchar(30) previous_working_day     '1',           -- varchar(30) target     168,             -- bigint target_time      558,         -- bigint count_entity_lot     13.3,          -- double     1.439,          -- double     0.103,          -- double     null,         -- part_entity     null          -- part_lose    )</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E170" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3513,7 +4701,14 @@
           <t>drop table k808_rx_hdp.team_digitcamp.ops_rgs_report_sld</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E171" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3531,7 +4726,14 @@
           <t>select * from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_efs_oct_2"  limit 100</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E172" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3549,7 +4751,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E173" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3567,7 +4776,14 @@
           <t>drop table t_cars_kap.undelivered_03_05_243_new_m09_02102024_temp</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E174" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3585,7 +4801,14 @@
           <t>drop table t_cars_kap.undelivered_strah_temp_m05_03062024</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E175" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3603,7 +4826,14 @@
           <t>drop table t_cars_kap.undelivered_0405_m04</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E176" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3621,7 +4851,14 @@
           <t>drop table t_cars_kap.undelivered_0405_m05_03062024</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E177" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3639,7 +4876,14 @@
           <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E178" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3657,7 +4901,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E179" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3675,7 +4926,14 @@
           <t>select count(distinct client_id) from k808_rx_hdp.t_team_sva_oarb."42_rrn_oarbvvb_1542_1777_crd_stream_no_suff_funds_no_success"</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E180" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3693,7 +4951,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E181" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3711,7 +4976,14 @@
           <t>select count(*) from t_cars_kap.document_removed_BOX_oad_1_4</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E182" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3729,7 +5001,14 @@
           <t>--923981 select count(distinct personnoepk) from k808_rx_hdp.t_team_sva_oarb."42_rrn_oarbvvb_1542_1777_crd_stream_no_suff_funds_no_success_dimcrdt"</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E183" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3747,7 +5026,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E184" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3765,7 +5051,14 @@
           <t>drop table k808_rx_hdp.t_team_sva_oarb."42_rrn_oarbvvb_1542_1777_crd_stream_no_suff_funds_no_success_dimcrdt2"</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E185" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3783,7 +5076,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E186" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3801,7 +5101,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E187" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3819,7 +5126,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E188" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3837,7 +5151,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E189" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3855,7 +5176,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E190" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3873,7 +5201,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E191" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3891,7 +5226,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E192" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -3909,7 +5251,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E193" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3927,7 +5276,14 @@
           <t>select count(*) from t_cars_kap.document_removed_BOX_cars_2_2</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E194" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3945,7 +5301,14 @@
           <t>select  try_cast(replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') as decimal(32,2)) suma, n.sms_text, substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8), replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_3" n</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E195" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -3963,7 +5326,14 @@
           <t>select position('\d+ \d\dр' in lower(n.sms_text)), try_cast(replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') as decimal(32,2)) suma, n.sms_text, substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8), replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2" n</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E196" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -3981,7 +5351,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E197" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -3999,7 +5376,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E198" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4017,7 +5401,14 @@
           <t>select distinct(affected_item_name) from k808_rx_hdp.prx_55_gev_servmgr_internal_servmgr_smprimary.sbimtaskm1</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E199" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4035,7 +5426,14 @@
           <t>delete from em_pay_history_oper</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E200" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4053,7 +5451,14 @@
           <t>delete from em_pay_history_oper</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E201" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4071,7 +5476,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E202" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4089,7 +5501,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E203" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4107,7 +5526,14 @@
           <t>drop table if exists em_tmp7</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E204" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4125,7 +5551,14 @@
           <t>SELECT * FROM sfd_hdfsgw_hdp.prx_elf_credit_preparation_2025_internal_ekp_reports_ibs.z_overdraft_mbk LIMIT 10</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E205" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4143,7 +5576,14 @@
           <t>select * FROM sfd_hdfsgw_hdp.prx_55_sis_epk_pprb_platform_ucprb.com_sbt_bm_ucp_customerknowledge_model_marker limit 100</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E206" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4161,7 +5601,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E207" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -4179,7 +5626,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E208" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -4197,7 +5651,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E209" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -4215,7 +5676,14 @@
           <t>SELECT  distinct offer_status FROM k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer --order by offer_start_date desc limit 111</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E210" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -4233,7 +5701,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E211" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -4251,7 +5726,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E212" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -4269,7 +5751,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E213" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -4287,7 +5776,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E214" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -4305,7 +5801,14 @@
           <t>drop table k808_rx_hdp.t_team_sva_oarb."42_gulynin_1712_6110_2381_1"</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E215" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -4323,7 +5826,14 @@
           <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_1712_6110_2381_spasibo" select distinct a.epk_id, a.evt_id, a.evt_posted_dttm, a.card_number, a.auth_code, a.ret_ref_number, a.mcc_code, a.trans_type, a.merchant_id, a.terminal_id, a.merchant_name, a.card_cat_cd, a.ipt_name, a.iso_crncy_cd, a.amt, a.acc_ccy_posted_amt, a.local_amt, a.evt_dttm, a.evt_dt, a.evt_posted_dt, a.trx_direction, a.day_part, a.source_system, a.evt_id6110, a.evt_posted_dttm6110, a.card_number6110, a.auth_code6110, a.ret_ref_number6110, a.mcc_code6110, a.trans_type6110, a.merchant_id6110, a.terminal_id6110, a.merchant_name6110, a.card_cat_cd6110, a.ipt_name6110, a.iso_crncy_cd6110, a.amt6110, a.acc_ccy_posted_amt6110, a.local_amt6110, b.paid_amount, b.bns_turn, b.bns_past, b.dtime, b.kop_wtime, b.origin_kop_id, b.skipped, b.mcc, b.ext_merch_id, b.merch_name, b.country, b.paysys, b.acqrr, b.pmacp, b.srctype, b.trantype, b.commentary, a.evt_dttm6110, a.evt_dt6110, a.evt_posted_dt6110, a.trx_direction6110, a.day_part6110, a.source_system6110 from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1712_6110_2381_1"  a join sfd_hdfsgw_hdp.prx_01889660_spasibo_custom_rb_spasibo.sb_sas_opers b on  a.epk_id = b.epk_id and cast(b.dtime as date) = cast(a.evt_dt6110 as date) and b.paid_amount = a.amt6110 * 100 and b.bns_turn &lt; 0 and b.day_part between '2024-03-01' and '2024-03-31'</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E216" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -4341,7 +5851,14 @@
           <t>SELECT t.merchantid, o.inn, t.pprbid, o.pprbid FROM k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_organization o 	inner join k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_tst t on (t.merchantid=o.inn) limit 10</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E217" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -4359,7 +5876,14 @@
           <t>START TRANSACTION ISOLATION LEVEL READ UNCOMMITTED, READ WRITE</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E218" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -4377,7 +5901,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E219" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -4395,7 +5926,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E220" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -4413,7 +5951,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E221" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -4431,7 +5976,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E222" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -4449,7 +6001,14 @@
           <t>--создание внешней таблы drop  table if exists k808_rx_hdp.team_digitcamp.t_ops_seldon_data</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E223" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -4467,7 +6026,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E224" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -4485,7 +6051,14 @@
           <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E225" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -4503,7 +6076,14 @@
           <t>DROP TABLE  capgp2_gp.s_grnplm_ld_audit_da_sandbox_oaofr.esa_efs_brok</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E226" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -4521,7 +6101,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E227" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -4539,7 +6126,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E228" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -4557,7 +6151,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E229" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -4575,7 +6176,14 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E230" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -4593,1062 +6201,1213 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E231" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>line 1:29: Function 'coutn' not registered</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>select date(ctl_validfrom), coutn(*) from k808_rx_hdp.prx_rgs_torg_external_zakupkigovru.beginner group by date(ctl_validfrom) order by ctl_validfrom desc limit 11</t>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>FunctionError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E232" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>line 40:108: mismatched input 'left'. Expecting: &lt;expression&gt;</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>select uuid ,timestampcolumn as date ,opened_at ,atm_id ,incident_id  ,auto_initiated ,user_status  ,CASE WHEN initiator_uuid = '798b18d6-fd6c-4ae7-a593-73bbeeaf68b1' 		THEN 'Automatization' 		ELSE 'Сотрудник' 		END AS initiator_uuid ,reason_type  ,reason  ,CASE WHEN component_id is null  		THEN 'Нет компоненты' 		ELSE component_id 		END AS component_id ,description  ,status  ,lmd ,CASE WHEN status = 'CLOSED' and lmd - opened_at &lt; 0 		THEN 0 		ELSE lmd - opened_at  		END AS recoveryperiod ,comments  ,CASE WHEN resolution_code is null 		THEN 'Нет кода закрытия'  		ELSE resolution_code 		END AS resolution_code ,scenario_step  ,scenario  ,CASE WHEN updater_uuid = '798b18d6-fd6c-4ae7-a593-73bbeeaf68b1' THEN 'Automatization'  		WHEN updater_uuid is not null then 'Неизвестно' else 'Сотрудник' 		END AS who_update ,businessprocess_id  ,current_stage  ,stage_attributes  ,event_object_timestamp  ,ld_group_id  ,case when (auto_initiated = 'True' and (businessprocess_id) IS NOT NULL and (ld_group_id) IS NOT NULL and left(replace(description, ' '), 31) = 'ИнцидентпообращениюизАССбердруг') then 'Сбердруг' end as source_incident from k808_rx_hdp.prx_hd_atm_host_main_231201_nrt_atmhost_cap.incident  atm limit 120</t>
+          <t>DROP TABLE  capgp2_gp.s_grnplm_ld_audit_da_sandbox_oaofr.esa_efs_brok</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E233" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>line 1:15: Cannot cast integer to char(1)</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>select concat(cast(kind as char ),cast (subkind as char)) from k808_rx_hdp.prx_55_krd_cod_platform_cod.cod_deposit_deposit</t>
+          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_alert_sms_3"  select * from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_alert_sms_confirm_2"</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>TypeError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E234" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>line 3:10: mismatched input ':'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>select * from hdfs://hdfsgw/sklsdpsdlog__sdlogging_v1-SDLOGGING-HDFSEVENTS/data/sdlogging/hdfsevents/loaded_date=2024-05-25/000010_0</t>
+          <t>START TRANSACTION ISOLATION LEVEL READ UNCOMMITTED, READ WRITE</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E235" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>line 1:68: mismatched input ':'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_krd_zp_12_click_test":</t>
+          <t>select * from k808_rx_hdp.prx_55_gev_nrt_efs_chat_nrt_efs_chat.chat_history limit 5</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E236" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_Lazarev_1294_1_NEW" as  SELECT a.* , Data1 FROM sfd_hdfsgw_hdp.prx_lazarev_clickstream_sbolweb_24_custom_rb_sbol_clickstream.sbol_events a  join k808_rx_hdp.t_team_sva_oarb."42_Lazarev_1294" b on a.epk_id  =  b.EPK and a.timestampcolumn = b.Data1</t>
+          <t>select * from sfd_hdfsgw_hdp.prx_svd_rb_vd_sbol_erib_efs_1_custom_rb_sbol.ft_sbol_oper_union limit 100</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E237" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>line 3:2: mismatched input '''. Expecting: &lt;expression&gt;</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>select --regexp_replace( regexp_extract('SwitchAllowVersion=1.56.0.1027;1.54.3.1003;1.54.0.935;Model=NH8600S;cim_model=BRM56;TID=60032377;bank_name=ПАО СБЕРБАНК;vsp_name=IШахта Угольная;address=ул Угольная  1;tel_tech_number=900;keysForStatusBar=456;keysForSupervisor=;wait_screen_url=https://localhost:9443/_BUILD_/bootstrap.html;lang=ru-RU;RemoteNominalChange=0;params_loading_required=1;AtmType=auto;wait_screen_refresh_every=1000;temp_directory=C:/Sberbank/LogsDbs;product_name=ATMoSphere;current_version.version=1.61.0.1142;current_version.date_planned=01.11.2019 0:00:00;current_version.date_actual=16.07.2024 2:11:22;device_type=RATM;vendor=Nautilus;os=win7;hardware_architecture=x86;state_machine_path=C:\\scs\\atm_h;InitialCountFileName=391;waitForStatusBar=5000;sop_url=http://localhost:5000/;status_url=http://localhost:5000?Mode=DevicesState;AddSpornoRetract=1;is_topmost=True;fullscr=False;xoffset=0;yoffset=0;xscreen=800;yscreen=600;preloader_timeout=2000;start_url=;notify_need_wait_screen_refresh=True;log_level=Trace;webplayer_mode=ATMS;js_plugins_directory=.;host=localhost;port=1313;start_page=TCR_Startup;left_start_page=TCR_Startup;right_start_page=TCR_Startup;left_start_url=;right_start_url=;!mainbus_pipename=\\\\.\\pipe\\TCR_webplayer;mainbus_connection_timeout=2000;vendor_diag_util=C:\\Hyosung\\Nextware\\EXE\\NHVDM\\NHVDM.exe;use_event_driven_view=True;has_title=False;has_frame=True;is_scrolled=False;need_block_new_window=True;has_frame_3d=True;is_keyboard_event=False;is_check_parent=False;need_to_reload=False;need_hide=True;need_blank=False;need_notify_on_load=True;need_notify_on_error=True;need_to_check_by_id=False;need_to_silent_dlg=True;need_clear_hist=False;is_enable_msg_box=False;is_fix_update=False;is_hide_cursor=True;window_keyboard=0;priority_flags=0;log_mask=31;key_map=;domains_filter=;_MainHWND=0;_MainProc=0;NdcConfigChannel_AfterDisconnectDelay=2000;NdcConfigChannel_ChannelType=4;NdcConfigChannel_ConnectTimeout=30000;NdcConfigChannel_KeepAlive=0;LocalAddress=;NdcConfigChannel_LocalPort=0;NdcConfigChannel_LogPolling=0;NdcConfigChannel_LogPreProcessing=1;NdcConfigChannel_LogTraffic=0;NdcConfigChannel_PingHostTimeout=31000;NdcConfigChannel_PingTimeout=900000;NdcConfigChannel_ReconnectTimeout=60000;NdcConfigChannel_RecvPacketTryCount=5;NdcConfigChannel_RecvTimeout=40000;NdcConfigChannel_SendTimeout=40000;NdcConfigChannel_LogTrafficPath=NDC\\RMS;HostAddress=10.103.99.79;HostPort=30654;Custom_Option4=1;Custom_Option9=1;Custom_Option24=1;NdcConfig_ActiveOperDaysMask=11;NdcConfig_BackgroundODopen=0;NdcConfig_BcrSendBarcodeType=0;NdcConfig_BioDLL=quorum_bio.dll;NdcConfig_BioidentificationMode=0;NdcConfig_BioverificationMode=0;NdcConfig_BnaRemoveMode=0;NdcConfig_BnaUseVirtualNotes=0;NdcConfig_Card_Type_masked=0;NdcConfig_CardlessAcceptType=231;NdcConfig_ConfigChangedEvent=Global\\NDCConfigChangedEvent;NdcConfig_ConfigPath=ConfigNDC;NdcConfig_ConnectionName=NDC;NdcConfig_CorrectCdmCounters=0;NdcConfig_CustomExitExtState=Z;NdcConfig_CustomExitState=f;NdcConfig_CustomPPD=0;NdcConfig_DISPLAY_TYPE=2;NdcConfig_DefLanguage=rus;NdcConfig_DefaultODnum=0;NdcConfig_DieboldMode=0;NdcConfig_DisAsyncDevStatMask=0;NdcConfig_DisablePtrOD=0;NdcConfig_DisableZeroFdk=1;NdcConfig_EdmDispenseMode=0;NdcConfig_EdmExists=0;NdcConfig_EmvPostProcessingMode=0;NdcConfig_ExchByNdc=0;NdcConfig_ExtAuth_ConfirmNdcTran=1;NdcConfig_ExtAuth_ForceSendCdmCounters=0;NdcConfig_ExtAuth_OldFormat=1;NdcConfig_ExtCardNumberDll=CustCard.dll;NdcConfig_ExternalBnaParams=4;NdcConfig_ExternalDepErrorState=255;NdcConfig_ExternalOperState=000;NdcConfig_FatalErrorScreenPath=;NdcConfig_FdkA=16;NdcConfig_FdkB=32;NdcConfig_FdkC=64;NdcConfig_FdkD=128;NdcConfig_FdkF=8;NdcConfig_FdkG=4;NdcConfig_FdkH=2;NdcConfig_FdkI=1;NdcConfig_ForceResetTimeout=0;NdcConfig_FraudMonitoring=1;NdcConfig_FrontDll=multi_front.dll;NdcConfig_FrontEnabled=1;NdcConfig_IccEmvClessConfig=DataNDC\\nfc_emv_NDC.cfg;NdcConfig_IccEmvClessDLL=NFCVivoKiosk2.dll;NdcConfig_IccEmvClessKernelType=0;NdcConfig_IccEmvClessMode=1;NdcConfig_IccEmvClessTerminalType=20;NdcConfig_IccEmvConfig=DataNDC\\emv_ndc.cfg;NdcConfig_IccEmvCustomConf=DataNDC\\emv_NDC_cust.cfg;NdcConfig_IccEmvCustomCvmTag=57169;NdcConfig_IccEmvDLL=scs_emv;NdcConfig_IccEmvMode=1;NdcConfig_IccEmvTerminalType=20;NdcConfig_IgnoreLastNonAsciiSymbols=0;NdcConfig_KeyIndexA=266;NdcConfig_KeyIndexB=267;NdcConfig_KeyIndexComm=523;NdcConfig_KeyIndexMac=522;NdcConfig_KeyIndexRsaEpp=17;NdcConfig_KeyIndexRsaHsm=18;NdcConfig_KeyIndexRsaRootHsm=19;NdcConfig_KeyIndexRsaSgn=16;NdcConfig_LastTSN=0000;NdcConfig_LeftFdk=0;NdcConfig_LockTimeout=7000;NdcConfig_LogInHexFormat=0;NdcConfig_MaxLogHistory=45;NdcConfig_MinLogFiles=10;NdcConfig_MsMandForOtherSys=0;NdcConfig_NdcEmvSimVersion=10;NdcConfig_NdcSimVersion=30;NdcConfig_NfcState=000;NdcConfig_NoPIN=0;NdcConfig_OpenSesionCashUnitViewMode=1;NdcConfig_PRR.DeviceStatus=0;NdcConfig_PinAutoCompletion=1;NdcConfig_PrintOnPrjMode=0;NdcConfig_PrintOnPrrMode=0;NdcConfig_SaveConfig=1;NdcConfig_SendUnsolStatus=1;NdcConfig_SetAcceptedBnaCounters=0;NdcConfig_SetHostTime=0;NdcConfig_SprayCdmOptions=0;NdcConfig_StJ_RecBeforeCard=0;NdcConfig_SupervisorUrl=http:/localhost:5000/;NdcConfig_Timer_77=90000;NdcConfig_Timer_BnaRemove=70000;NdcConfig_Timer_IccMinShowWait=2000;NdcConfig_Track1=;NdcConfig_Track2=;NdcConfig_Track3=;NdcConfig_UseCoinTI=1;NdcConfig_WaitAsyncOnAcceptTimeout=5000;NdcConfig_XmlTraceMode=2;NdcConfig_ZkMode=0;NdcConfig_receipt_title_02=;NdcConfig_receipt_title_03=УЛИЦА;NdcConfig_receipt_title_04=НОМЕР ТЕЛЕФОНА;NdcConfig_ParamSourceFormat=0;NdcConfig_zrs_mode=1;NdcConfig_FullBufferX=0;NdcConfig_IccEmvTracePath=NDC\\EMV;NdcConfig_LogPath=NDC\\NDC;NdcConfig_ReconnectOnTrReply=1;NdcConfig_FrontData_ParamName=FrontInfo_SessNumber;NdcConfig_SuspendTimeout=300000;NdcConfig_UnsolRecvTimeout=10000;NdcConfig_ReconnectDelay=5000;NdcConfig_UseCheckChannel=1;NdcConfig_RetrySendResp=1;NdcConfig_RecvTryCountOnTrReply=3;NdcConfig_EjLCP=0;NdcConfig_EjLCC=0;NdcConfig_EjTryCount=0;NdcConfig_EjLastDataSize=0;NdcConfig_EjCheckTimeout=10000;NdcConfig_StartUpOptions=0;NdcConfig_TraceRoot=c:\\scs\\logs;NdcConfig_HostPrintData_Enabled=0;NdcConfig_RemapNdc2Dev_COIN=0;NdcConfig_HostScreenData_Enabled=0;NdcConfig_DisableDepByOD=0;NdcConfig_KeyUsageB=0;NdcConfig_IsShutterEnabled=1;NdcConfig_IsTransitEnabled=1;NdcConfig_IsTSKDepositEnabled=0;NdcConfig_Timer_CashCount=2400000;NdcConfig_ExternalProtocolParams=16904;BacklightPinPad=4;NdcConfig_State_041_CheckPocketCaps=1;NdcConfig_NewIncasMenu=0;NdcConfig_ConfiguredDevices=3;NdcConfig_LUNO=377;NdcConfig_MaxMCN=63;NdcConfig_UseReadyB=17;NdcConfig_FromSupervisorToPrev=0;NdcConfig_UseTI=1;NdcConfig_UseSpecificReject=1;NdcConfig_UseReleaseID=1;NdcConfig_AmountLen=12;NdcConfig_SendTrStatus=1;NdcConfig_SendEdmStatus=0;NdcConfig_SendBnaCounters=335;NdcConfig_LastFitNumber=1312;NdcConfig_UseExtCdmHoppers=0;NdcConfig_UseExtCoinHoppers=0;NdcConfig_BcrConfig=0;NdcConfig_RollWidth=40;NdcConfig_LeftColumn=1;NdcConfig_EjMaxDataSize=200;NdcConfig_EjMaxTryCount=0;NdcConfig_Timer_00=150000;NdcConfig_Timer_01=90000;NdcConfig_Timer_02=2000;NdcConfig_Timer_03=60000;NdcConfig_Timer_04=30000;NdcConfig_Timer_05=20000;NdcConfig_Timer_07=1000;NdcConfig_Timer_60=255000;NdcConfig_Timer_61=60000;NdcConfig_Timer_78=90000;NdcConfig_Timer_94=30000;NdcConfig_Timer_50=30000;NdcConfig_Option_41=1;NdcConfig_Option_69=15;NdcConfig_Option_71=255;NdcConfig_Option_76=0;NdcConfig_SecurityFlags=1100000000;NdcConfig_MacTrRequest=1000100101110000000000000000000000000000000000100000;NdcConfig_MacTrReply=1001011100000000000000000000000000001;NdcConfig_MacSolStatus=00000000000;NdcConfig_MacOther=1101;NdcConfig_MacTrack1=000000;NdcConfig_MacTrack2=110000;NdcConfig_MacTrack3=00000000000;NdcConfig_MacEMV=11111;NdcConfig_CardlessState=Z53;NdcConfig_ConfigID=187;NdcConfig_UnsolDPAN=1;NdcConfig_TrxCounter=20919;NdcConfig_TerminalMode=4;ResetConfiguration_LoadFinishedTimeoutSec=180;ResetConfiguration_ResetTryCount=5;ResetConfiguration_RejectTryCount=5;ResetConfiguration_ReloadFunctionEnabled=1;ResetConfiguration_ResetMessageDelay=5;SparcParams_TurnOnSparcInitResultCheck=0;SparcParams_SparcInitTimeoutSec=20;SparcParams_SparcRebootTryCount=5;cim_update_presented_count_by_dispensed=False;cim_cashin_refuse_retract_area=RC;cdm_update_presented_count_by_dispensed=False;cdm_dispense_error_reset_area=RJ;hardware_list.CIM.logical_name=CashAcceptor;hardware_list.CIM.version_min.major=3;hardware_list.CIM.version_min.minor=10;hardware_list.CIM.version_max.major=255;hardware_list.CIM.version_max.minor=255;hardware_list.CIM.open_timeout=150;hardware_list.CIM.is_update_master_status_on_status_request=False;hardware_list.CIM.max_reset_count=3;hardware_list.CIM.interlive_reset_interval=300;hardware_list.CDM.logical_name=CashDispenser;hardware_list.CDM.version_min.major=3;hardware_list.CDM.version_min.minor=0;hardware_list.CDM.version_max.major=255;hardware_list.CDM.version_max.minor=255;hardware_list.CDM.open_timeout=150;hardware_list.CDM.is_update_master_status_on_status_request=False;hardware_list.CDM.max_reset_count=3;hardware_list.CDM.interlive_reset_interval=300;hardware_list.IDC.logical_name=CardReader;hardware_list.IDC.version_min.major=3;hardware_list.IDC.version_min.minor=0;hardware_list.IDC.version_max.major=255;hardware_list.IDC.version_max.minor=255;hardware_list.IDC.open_timeout=150;hardware_list.IDC.is_update_master_status_on_status_request=True;hardware_list.IDC.max_reset_count=3;hardware_list.IDC.interlive_reset_interval=300;hardware_list.PRR.logical_name=ReceiptPrinter;hardware_list.PRR.version_min.major=3;hardware_list.PRR.version_min.minor=0;hardware_list.PRR.version_max.major=255;hardware_list.PRR.version_max.minor=255;hardware_list.PRR.open_timeout=150;hardware_list.PRR.is_update_master_status_on_status_request=False;hardware_list.PRR.max_reset_count=3;hardware_list.PRR.interlive_reset_interval=300;retract_withdrawall_mode=1;disputed_notes_logic_version=0;request_timeouts.default_inf_rq_timeout=0;request_timeouts.default_exe_rq_timeout=0;request_timeouts.cim_replenish_rq_timeout=0;nfc_card_status_changed_event_reaction_time=2;lov_volume.volume_set=;lov_volume.jack_off_volume=;lov_volume.jack_on_volume=;exclude_level3_banknotes=False;brm_sensors_monitoring_enabled=True;default_nominals=;manual_enable_ex_deposit_cu=True;tsk_encashment_take_rejected=;cassettes.001.denomination=10000;cassettes.001.currency=643;cassettes.002.denomination=50000;cassettes.002.currency=643;cassettes.003.denomination=100000;cassettes.003.currency=643;cassettes.004.denomination=500000;cassettes.004.currency=643;ReceiptPrintStatus=2;MaxErrorLoginCount=5;Rotate.Logs.Path=[\r\n  "C:\\\\Sberbank\\\\LogsDbs\\\\logs\\\\Archive\\\\",\r\n  "C:\\\\scs\\\\LOGS_Archive\\\\PRJ\\\\"\r\n];Rotate.Logs.File=[\r\n  "*.zip"\r\n];Rotate.Keep.Unit=Year;Rotate.Keep.Value=1;Rotate.StorageThreshold.Free.Unit=Gb;Rotate.StorageThreshold.Free.Value=20;Rotate.StorageThreshold.Keep.Unit=Month;Rotate.StorageThreshold.Keep.Value=6;ClearAtmVersion.Days=7;ClearAtmVersion.Hours=8;ClearAtmVersion.Minutes=0;wdl_uniform_max_amt=100000;wdl_uniform_limit_643_100=10;wdl_uniform_remain_limit_643_100=1100;wdl_uniform_limit_643_200=10;wdl_uniform_remain_limit_643_200=1100;wdl_uniform_limit_643_500=20;wdl_uniform_remain_limit_643_500=1100;wdl_uniform_limit_643_1000=40;wdl_uniform_remain_limit_643_1000=1100;wdl_uniform_limit_643_2000=40;wdl_uniform_remain_limit_643_2000=1100;wdl_uniform_remain_limit_643_5000=1100;nda_BreakdownAmount=10000;nda_MaxNumberBill=10;nda_NewAlgorithmEnabled=False;fpsu_connection_status_enabled=1;cartidge_diagnostic_enable=1;planning_deploy_date=2024-08-07 11:54:18;scheduler_start_time=05:15;scheduler_work_time=30;scheduler_reset_period=21;scheduler_enabled=1;cash_found_outside_deposit_enabled=0;minimal_allowed_count_of_banknotes_100=200;minimal_allowed_count_of_banknotes_200=200;minimal_allowed_count_of_banknotes_500=200;minimal_allowed_count_of_banknotes_2000=200;minimal_allowed_count_of_banknotes_1000=200;minimal_allowed_count_of_banknotes_5000=200;target_count_of_banknotes_100=1000;target_count_of_banknotes_200=1000;target_count_of_banknotes_500=1000;target_count_of_banknotes_2000=1000;target_count_of_banknotes_1000=1000;target_count_of_banknotes_5000=500;maximal_allowed_count_of_banknotes_100=2000;maximal_allowed_count_of_banknotes_200=2000;maximal_allowed_count_of_banknotes_500=2000;maximal_allowed_count_of_banknotes_1000=2000;maximal_allowed_count_of_banknotes_2000=2000;maximal_allowed_count_of_banknotes_5000=2000;logical_weight_in_algo=1;specil_min_max_coef_in_algo=2;mask_for_remote_change_denom=1;new_reset_retained_cards_count_enabled=0;check_sn_cass_open_od=0;inventory_epp_sn=true;EPP_ID=OA162941;Logging.LogLevel.Default=Information;Service.Control.Logger.LogLevel=Information;Service.Control.Logger.File=SPA.log;Service.Control.SPArcMonitoring.TimeoutAfterInit_seconds=60;Service.Control.SPArcMonitoring.HeartBeatTimeout_seconds=60;launch_wait_timeout=15;launch_force_wait_timeout=20;isUniformCashOutAlgorithm=False;congratulationNewYear.isShowOnPgeAndMenu=True;congratulationNewYear.isShowOnInsertCard=True;congratulationNewYear.showStartAt=20.12.2023;congratulationNewYear.isShowAnimation1=True;congratulationNewYear.isShowAnimation2=True;congratulationNewYear.isShowAnimation3=True;congratulationMarch8.isShow=True;congratulationMarch8.showStartAt=14.02.2024;congratulationMarch8.showEndAt=09.03.2024;digitalCustomerPath=True;otherBankInfoLevel=0;selfEncashmentOptionalPrint=True;isWorkRedirectUrlBanner=True;withRedirectUrlBanner.ads=pop-up;pop-up-qr;pop-up-info;modules.bio.state=' ,'current_version.version=(\w+)|;)</t>
+          <t>SELECT TABLE_TYPE FROM system.jdbc.table_types ORDER BY TABLE_TYPE</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E238" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oakb.uvsk_claim_report as  select 	*  from k808_rx_hdp.t_team_sva_oakb."03489677_uvsk_claim_report"</t>
+          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,   COLUMN_NAME, COLUMN_TYPE, DATA_TYPE, TYPE_NAME,   PRECISION, LENGTH, SCALE, RADIX,   NULLABLE, REMARKS, COLUMN_DEF, SQL_DATA_TYPE, SQL_DATETIME_SUB,   CHAR_OCTET_LENGTH, ORDINAL_POSITION, IS_NULLABLE, SPECIFIC_NAME FROM system.jdbc.procedure_columns ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME, COLUMN_NAME LIMIT 0</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E239" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oakb.uvsk_claim_report as  select 	*  from k808_rx_hdp.t_team_sva_oakb."03489677_uvsk_claim_report"</t>
+          <t>drop table if exists em_tmp6</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E240" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Query exceeded distributed user memory limit of 27GB</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_not_cars_fio" as select distinct a.*, b.profile_sapid, b.profile_adid, b.tb, b.osb, b.vsp, epk.last_name, first_name, middle_name,  epk.birth_dt --e.emp_id from k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_no_cars" a left join k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_clerk2" b on a.external_id=b.external_id left join sfd_hdfsgw_hdp.prx_42_gulynin_epk5_custom_rb_epk.epk_client epk on epk.epk_id = cast(a.ucp_id as bigint) and row_actual_to='9999-12-31' --left join sfd_hdfsgw_hdp.prx_42_gulynin_sotr_1_custom_risk_employees.t_sbrf_employees e on upper(e.emp_full_name) = concat_ws (' ', coalesce (epk.last_name,''), coalesce (first_name,''), coalesce (middle_name,'')) --and cast(epk.birth_dt as date) = cast(e.birth_dt as date)</t>
+          <t>select * from	k808_rx_hdp.prx_kalitaprom_internal_kalita_kalita.dict_command</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E241" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Value cannot be cast to timestamp: 20247364831273202513</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>SELECT 	cast(concat_ws('',cast(TSK.body.systemparamsinfo.datecreateevent AS array&lt;varchar&gt;)) AS timestamp) 	--from_unixtime(concat_ws('',cast(TSK.body.systemparamsinfo.datecreateevent as array&lt;varchar&gt;)),'yyyyMMddHHmmssSSS') 	,cast(concat(cast(TSK.body.systemparamsinfo.datecreateevent[1] AS varchar) 			,'-' 			,cast(TSK.body.systemparamsinfo.datecreateevent[2] AS varchar) 			,'-' 			,cast(TSK.body.systemparamsinfo.datecreateevent[3] AS varchar) 			,' ' 			,cast(TSK.body.systemparamsinfo.datecreateevent[4] AS varchar) 			,':' 			,cast(TSK.body.systemparamsinfo.datecreateevent[5] AS varchar) 			,':' 			,cast(TSK.body.systemparamsinfo.datecreateevent[6] AS varchar) 			,'.' 			,cast(TSK.body.systemparamsinfo.datecreateevent[7] AS varchar) 			) AS timestamp) + interval '3' hour AS "EventDateTime" 	FROM sfd_hdfsgw_hdp.prx_parus_task_selfservice_parus_tasks.tasks_test_1 AS TSK</t>
+          <t>select  * FROM sfd_hdfsgw_hdp.prx_hd_atm_host_nrt_smsb2.atmhost_custatechangedevent_delta limit 100</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>TypeError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E242" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb.gulynin_epk_sms SELECT * FROM k808_rx_hdp.t_team_sva_oarb.epk_sms a</t>
+          <t>select * from t_cars_kap.ipoteka_temp</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E243" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Query exceeded distributed user memory limit of 27GB</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb.FIO as select a.epk_id, a.fullname, b.birth_date from sfd_hdfsgw_hdp.prx_epk_dqepk_1_custom_rozn_dqepk.epk_client_name a join sfd_hdfsgw_hdp.prx_epk_dqepk_1_custom_rozn_dqepk.epk_client b on a.epk_id= b.epk_id</t>
+          <t>START TRANSACTION ISOLATION LEVEL READ UNCOMMITTED, READ WRITE</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E244" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "17348432"</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>select b.* , a.* ,  q.task_answer , q.task_answer_full , q.req_answer , q.req_answer_full , q.task_text_sol  , q.task_owner , q.task_result From capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."40_kaluginvs_anofl_appeal_2024" a join  k808_rx_hdp.t_team_sva_oarb."42_Lazarev_B" b on cast (a.cust_epk_id as bigint  )  = cast (b.ucp_id as bigint  )  and cast (b.creation_date_dd as timestamp) &lt;= cast ( a.created as timestamp) limit 100</t>
+          <t>select  * from sfd_hdfsgw_hdp.prx_koa_efs_edinaya_istoriy_operac_internal_efs_ufs_ophistory_1."UOH_OPERATIONS_HISTORY" limit 10</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E245" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.shvets_ekb</t>
+          <t>select count(id), sum(C_SUMMA_DOG) from k808_rx_hdp.t_team_sva_oarb."55_sis_edu24_ekp" limit 100</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E246" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM (select b.epk_id, a.nsi_id from k808_rx_hdp.prx_custom_rozni_tag_custom_rozn_tag.ft_master_hshtg as a join k808_rx_hdp.t_team_sva_oarb."42_21608829_epk_bad_1610" as b on cast(a.epk_id as varchar) = b.epk_id ) dbvrcnt</t>
+          <t>drop table k808_rx_hdp.t_team_sva_oarb."42_air_240926_zadach_ipot_efs_otkaz_req_5_1"</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E247" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>line 1:1: mismatched input 'function'. Expecting: 'ALTER', 'ANALYZE', 'CALL', 'COMMENT', 'COMMIT', 'CREATE', 'DEALLOCATE', 'DELETE', 'DENY', 'DESC', 'DESCRIBE', 'DROP', 'EXECUTE', 'EXPLAIN', 'GRANT', 'INSERT', 'MERGE', 'PREPARE', 'REFRESH', 'RESET', 'REVOKE', 'ROLLBACK', 'SET', 'SHOW', 'START', 'TRUNCATE', 'UPDATE', 'USE', &lt;query&gt;</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>function t() begin select 'test'; end</t>
+          <t>drop table k808_rx_hdp.t_team_sva_oarb."42_air_241007_zay_tran_kk_tr_060"</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E248" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>---Ответы 2024 CREATE TABLE capgp2_gp.s_grnplm_ld_audit_da_sandbox_oaofr.sao_task_2024 AS (SELECT app_row_id, req_created, task_id, task_finished, task_num, task_answer, task_answer_full, task_text_sol, exp_queue, prev_queue, prev_queue_uber,     req_answer, req_answer_full FROM k808_rx_hdp.t_team_sva_audit_2."40_kaluginvs_appeal_anofl_task_2024")</t>
+          <t>drop table k808_rx_hdp.t_team_sva_oarb."42_air_241007_900_5"</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E249" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.shvets_inv</t>
+          <t>drop table k808_rx_hdp.t_team_sva_oarb."42_air_241014_rz_prom"</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E250" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>insert  	into 	capgp2_gp.s_grnplm_ld_audit_da_sandbox_oarb.s_gp_ivakhnovs_appeal_2024 select 	* from 	k808_rx_hdp.t_team_sva_oarb."40_ivakhnovs_appeal_full_2024"</t>
+          <t>drop table k808_rx_hdp.t_team_sva_oarb."42_air_241015_zay_ipot_riskz_st_pr"</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E251" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>line 1:22: mismatched input 'date'. Expecting: ')', ','</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>select ('2024-11-19' date) as p1</t>
+          <t>drop table k808_rx_hdp.t_team_sva_oarb."42_gulynin_3001_web_click"</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E252" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Query exceeded distributed user memory limit of 27GB</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_hd_atm_host_oper_240208_nrt_atmhost_operations.atmhost_operations ORDER BY body_sesstartdt</t>
+          <t>drop table if exists idlist</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E253" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>line 3:1: mismatched input ','. Expecting: 'FROM'</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>select date_parse(trim(substring('abc_zakupkigovru_beginner_20240118_092653_001.json', strpos('abc_zakupkigovru_beginner_20240118_092653_001.json', 'beginner_') + 9), '.json'), '%Y%m%d_%H%i%s%a'  select strpos('abc_zakupkigovru_beginner_20240118_092653_001.json', 'beginner_') + 9</t>
+          <t>--создание внешней таблы ABT drop  table if exists k808_rx_hdp.team_digitcamp.t_ops_seldon_data</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E254" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "07735561"</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr  select * from capgp2_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr</t>
+          <t>select 		* from 		k808_rx_hdp.prx_44_ias_pulse_hr_internal_saphcm_pulse.hparprd09 limit 100</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E255" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>line 1:8: mismatched input 'select'. Expecting: '*', 'ALL', 'DISTINCT', &lt;expression&gt;</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>select select request_id, count(distinct app_status) from sfd_hdfsgw_hdp.prx_55_gse_risk_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.t_st_main  group by request_id</t>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E256" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Query exceeded distributed user memory limit of 27GB</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>with cte_1 as ( select distinct a.* from t_team_sva_audit_2.t38_siv_19_11_24__1141__02__eps_pmt_for_november_2024__white_cluster a  ) select 'Уникальных строк', count(*) from cte_1</t>
+          <t>select 		* from 		k808_rx_hdp.prx_44_ias_pulse_hr_internal_saphcm_pulse_hist.hparprd09 limit 100</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E257" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "19685940"</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>create table rozn2_gp.s_grnplm_ld_rozn_electron_hq_core.pa_pprb_pu_history_t as ( select *, cast('alpha' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_alpha_opf_management.private_service_package_history       union all       select *, cast('beta' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_beta_opf_management.private_service_package_history       union all       select *, cast('delta' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_delta_opf_management.private_service_package_history       union all       select *, cast('gamma' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_gamma_opf_management.private_service_package_history )</t>
+          <t>SELECT creation_date_dd, count(uoh_id) c_id from k808_rx_hdp.t_team_sva_oarb_11."42_pb1_efs_ufs_ophistory_nrt_new" group by creation_date_dd</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E258" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_privatebanking_list_client_all_session_detail" as select 	* from k808_rx_hdp.t_team_sva_oarb."42_privatebanking_list_client_all_session_detail"</t>
+          <t>select p.* 	,n.* 	---,k.* 	from k808_rx_hdp.t_team_sva_oarb."13_nezn_for_premier"  p 	left join  k808_rx_hdp.t_team_sva_oarb."13_net_premier_900_1" n on cast(n.ucp_id as varchar) =p.owner_id 	and cast (n.esb_msg_in_created_on as date) between cast(p.fact_end_date as date) and cast(p.fact_end_date as date) + interval '7' day</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E259" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>SELECT * from t_cars_kap.Tolyan_26112024_3</t>
+          <t>select count (distinct z_pr_cred_c_num_dog) from k808_rx_hdp.t_team_sva_oarb."55_tdr_df_union_steps" --order by z_pr_cred_c_num_dog, date</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E260" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.Tolyan_26112024_33</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."13_net_card_curier"</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E261" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>line 2:89: mismatched input 'ф'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_rrn_oarbvvb_1542_1777_crd_stream_dc_success_polis" ф</t>
+          <t>SELECT COUNT(*) FROM (select * from k808_rx_hdp.t_team_sva_oarb."13_net_card_curier" ) dbvrcnt</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E262" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>line 1:33: mismatched input ')'. Expecting: 'AS'</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>select max(cast(creation_date_dd) as date) from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_efs_old"</t>
+          <t>START TRANSACTION ISOLATION LEVEL READ UNCOMMITTED, READ WRITE</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E263" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM (select * from k808_rx_hdp.prx_55_sai_custom_rb_card_custom_rb_card."scd_card_union" ) dbvrcnt</t>
+          <t>delete from em_pay_history_cred</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E264" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" as SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>select  		* from  		k808_rx_hdp.prx_44_lva_all_nadbavki_vklad_platform_b2c_cod_bonus.ru_sber_fp_db_model_entity_clientepk limit 100</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E265" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>select h.collection_id,h.c_change_date change_date,h.c_resume,h.c_date_beg resume from		plan_hist	h</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E266" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb4_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>SELECT losscontrid, id, losscontrid_new, id_new, paydate, payout, payoutrub, currency, currency_id, updatedate, decisionid, archive_name, file_name, ctl_pa_loading, ctl_action, ctl_validfrom, ctl_validto, ctl_loading FROM sfd_hdfsgw_hdp.prx_02184579_sbszh_702_selfservice_sbszh.losspayout limit 100</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E267" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>line 3:196: mismatched input 'б'. Expecting: ',', 'EXCEPT', 'FETCH', 'FROM', 'GROUP', 'HAVING', 'INTERSECT', 'LIMIT', 'OFFSET', 'ORDER', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>select   try_cast(replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') as decimal(32,2)) sumaб n.sms_text from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2" n</t>
+          <t>-- EKP - кредиты -- 0.5мин insert into em_pay_history_cred(id,dt,inn,client,ref,ac) with kd_list as (   select cast(prod.id as bigint) id,l.dt   ,cast(cred.c_client as bigint)     ref1   ,cast(cred.c_list_plan_pay as bigint) ref12 -- collection_id of plan operation   ,cast(cred.c_list_pay as bigint)   ref13    -- collection_id of fact operation   ,cast(prod.c_com_status as bigint) ref14   ,cast(cred.c_list_prol as bigint)  ref17 -- collection_id of restruct   ,cast(cred.c_zalog as bigint)      ref18 -- collection_id of obesp   ,cast(prod.c_filial as bigint)     ref31   from   idlist l   join   k808_rx_hdp.prx_ekp_pcp1_internal_ekp_reports_ibs.z_product  prod on prod.id=l.id   join   k808_rx_hdp.prx_ekp_pcp1_internal_ekp_reports_ibs.z_pr_cred  cred on cred.id=prod.id )   select kd.id,kd.dt,null,clnt.c_name,kd.ref13,'ekp'   from   kd_list        kd   join   k808_rx_hdp.prx_ekp_pcp_2_internal_ekp_reports_ibs.z_client  clnt on clnt.id=kd.ref1</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E268" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>line 1:40: mismatched input '&lt;EOF&gt;'. Expecting: ')'</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>select position('(\d+)' in 'fhg4jfh125'</t>
+          <t>drop  table if exists k808_rx_hdp.team_digitcamp.t_ops_seldon_miss</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E269" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>line 1:72: mismatched input '('. Expecting: 'IF', &lt;identifier&gt;</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>alter table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics add column( select video_origination_list  from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend )</t>
+          <t>with tab as ( select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_alpha_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_beta_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_delta_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_gamma_opf_management.private_service_package ) select distinct description from tab</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E270" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>line 26:1: mismatched input ')'. Expecting: '%', '*', '+', ',', '-', '.', '/', 'AND', 'AT', 'EXCEPT', 'FETCH', 'INTERSECT', 'LIMIT', 'OFFSET', 'OR', 'ORDER', 'UNION', '[', '||', &lt;EOF&gt;, &lt;predicate&gt;</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>insert into clist values ('C22928284',date'2024-01-21'), ('C54828516',date'2024-01-12'), ('C132776421',date'2024-01-18'), ('C45653488',date'2024-01-18'), ('C129179074',date'2024-01-24'), ('C35104445',date'2024-01-24'), ('C91963364',date'2024-01-24'), ('C13092638',date'2024-04-16'), ('C90332826',date'2024-01-25'), ('C111755880',date'2024-01-09'), ('C109891736',date'2024-01-26'), ('C125106118',date'2024-01-29'), ('C83116463',date'2024-01-29'), ('C139020419',date'2024-01-29'), ('C33698274',date'2024-01-29'), ('C5364134',date'2024-01-29'), ('C141046547',date'2024-01-30'), ('C16270447',date'2024-01-30'), ('C55289243',date'2024-01-30'), ('C138519942',date'2024-01-30'), ('C105970003',date'2024-01-31'), ('C115592010',date'2024-01-31'), ('C125057534',date'2024-02-14'), ('C129801742',date'2024-01-31') )  select c.ceshka,c.dt,dmc.client_id,dma.account_id,dca.client_role_id from   clist                         l join   prx_kalita_otchetnaya_1_internal_kalita_report_kalita_gg.dm_client         dmc on dmc.client_ext_id=l.ceshka join   prx_kalita_otchetnaya_1_internal_kalita_report_kalita_gg.dm_client_account dca on dca.client_id=dmc.client_id and dca.client_role_id in (1,2)</t>
+          <t>select * -----distinct clientsegment from sfd_hdfsgw_hdp.prx_42_slm_pla_uvsk_b2c_servi_call_platform_uvsk_b2c_service_call.ru_sbrf_cc_sbercrmb2c_proceed_jpa_client limit 100</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E271" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>line 1:27: mismatched input '.42'. Expecting: '.', &lt;EOF&gt;</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>drop table t_team_sva_oarb.42_rrn_oarbvvb_1542_1777_crd_stream_no_suff_funds_res</t>
+          <t>SELECT COUNT(*) FROM (SELECT epk_id, operation, created, device_info, min(created - logon_dt) AS delta FROM k808_rx_hdp.t_team_sva_oarb."55_gev_sberprime_multi_logon_oper_1" GROUP BY 1, 2, 3, 4 ) dbvrcnt</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E272" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>line 1:1: mismatched input 'favorKitConnectFlow_v2'. Expecting: 'ALTER', 'ANALYZE', 'CALL', 'COMMENT', 'COMMIT', 'CREATE', 'DEALLOCATE', 'DELETE', 'DENY', 'DESC', 'DESCRIBE', 'DROP', 'EXECUTE', 'EXPLAIN', 'GRANT', 'INSERT', 'MERGE', 'PREPARE', 'REFRESH', 'RESET', 'REVOKE', 'ROLLBACK', 'SET', 'SHOW', 'START', 'TRUNCATE', 'UPDATE', 'USE', &lt;query&gt;</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>favorKitConnectFlow_v2 CS				show												Статус с сообщением, что заявка "Готово!" на подкл пакета. есть код пакета 				favorKitListFlow CS						Show													Статус с сообщением, что заявка "Готово!" на подкл пакета. есть код пакета 				ServicePackages favorKitConnectFlow_v2 CE show - Статус о недоступности сервиса (технические проблемы на стороне backend) code packet 				ServicePackages favorKitListFlow CE Show - Статус о недоступности сервиса (технические проблемы на стороне backend) code packet 				ServicePackages favorKitListFlow CB Show - Статус о блокировке операции (фрод, стоп-листы) code packet 				ServicePackages favorKitConnectFlow_v2 CB show - Статус о блокировке операции (фрод, стоп-листы) code packet 				ServicePackages confirmClientIb favorKitInfoOffer PDF click  Карточка неподключенного тарифного плана, есть код пакета 				ServicePackages favorKitListFlow favorKitInfoOffer Show Карточка неподключенного тарифного плана, есть код пакета 				ServicePackages favorKitListFlow TechnicalError 				ServicePackages favorKitConnectFlow_v2 TechnicalError Пакеты услуг  ServicePackages favorKitListFlow TechnicalError  ServicePackages favorKitDisconnectFlow_v2 TechnicalError ServicePackages favorKitListFlow favorKitInfo_v2Offer Click ServicePackages favorKitListFlow favorKitInfo_v2Offer PDF Click</t>
+          <t>START TRANSACTION ISOLATION LEVEL READ UNCOMMITTED, READ WRITE</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E273" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb4_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>select * FROM prx_infpg_internal_cars_request_db_request.service limit 1</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E274" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>line 10:1: mismatched input 'from'. Expecting: '*', &lt;expression&gt;</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>select first_value (c.tb) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS tb, first_value (c.osb) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS osb, first_value (c.vsp) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS vsp, c.docnumber, c.name, first_value (c.openingdate) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS openingdate, first_value (c.closingdate) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS closingdate,  from t_cars_kap.vklad_close</t>
+          <t>select * FROM prx_infpg_internal_cars_dictionary_db_dictionary_storages.floor limit 1</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E275" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics  as select user_id, play_start_dttm, play_duration_sec, subscription_uid, serial_name, video_origination_list   from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend</t>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E276" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics  as select user_id, play_start_dttm, play_duration_sec, subscription_uid, serial_name, video_origination_list   from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend</t>
+          <t>drop table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms6"</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E277" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер%в сумме%' then split((split(sms_text,' в сумме')[1]),'на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
+          <t>drop table  k808_rx_hdp.t_team_sva_oarb."42_Lazarev_K_opf_management1"</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>TypeError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E278" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>SUCCES</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер % в сумме%' then split((split(sms_text,' в сумме')[1]),'на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
+          <t>select 		* from 		k808_rx_hdp.t_team_sva_oarb."44_ias_ck_kate_epk" 		--k808_rx_hdp.t_team_sva_oarb."44_ias_ck_suo_sbolpro" limit 100</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>TypeError</t>
-        </is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E279" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -5659,18 +7418,21 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
+          <t>line 1:29: Function 'coutn' not registered</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер % в сумме%' then split((split(sms_text,' в сумме')[1]),'Автоплатёж на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
+          <t>select date(ctl_validfrom), coutn(*) from k808_rx_hdp.prx_rgs_torg_external_zakupkigovru.beginner group by date(ctl_validfrom) order by ctl_validfrom desc limit 11</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>TypeError</t>
-        </is>
+          <t>FunctionError</t>
+        </is>
+      </c>
+      <c r="E280" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -5681,18 +7443,21 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Access Denied: Cannot access catalog system</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."p_vp_sb_pk_and_pt_pi_pr_pp" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp"</t>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>ResourceError</t>
-        </is>
+          <t>PermissionError</t>
+        </is>
+      </c>
+      <c r="E281" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -5703,18 +7468,2496 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
+          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/40_gradusov_epk_podpiska_sberprime_7_7t_inf_sberprime_v/part-00000-8c4626d8-c491-4a33-8e0b-bd0471ecfe5a-c000.snappy.parquet (offset=0, length=2640514): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6478339264_5439855311 file=/user/team/team_sva_oarb/hive/40_gradusov_epk_podpiska_sberprime_7_7t_inf_sberprime_v/part-00000-8c4626d8-c491-4a33-8e0b-bd0471ecfe5a-c000.snappy.parquet</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>SELECT * FROM k808_rx_hdp.t_team_sva_oarb."40_gradusov_epk_podpiska_sberprime_7_7t_inf_sberprime_v"</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E282" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/42_danilovich_zp10_m_ryzh/000047_0 (offset=33554432, length=33554432): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6465640656_5426886653 file=/user/team/team_sva_oarb/hive/42_danilovich_zp10_m_ryzh/000047_0</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>CREATE TABLE  k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh_tarif_1" as SELECT a.*,  plan.id plan_id,  plan.indtariffagreementid,  plan.indtariffagreementnumber,              plan.restorationdate,                  plan.startdate,  plan.suspensiondate,        plan.tariffrates,  substring(plan.tariffrates,0,36) as  tariffrates2,               plan.tariffratesidvalue,  plan.usedyntariff, rate.additionalinfo,  rate.enrollmenttype,  rate.id as rate_id,  rate.isdyntariff,  rate.isenrollmentotherbank,  rate.tariffintervalidvalue,  rate.tariffintervalrates,  rate.tariffplan rate_tariffplan  FROM k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh"  as a  left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffplan as plan on plan.id=   substring(a.tariffplan,49,36) left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffrate  as rate  on rate.id= substring(plan.tariffrates,0,36)</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E283" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>\</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>CREATE TABLE  k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh_tarif_1" as SELECT a.*,  plan.id plan_id,  plan.indtariffagreementid,  plan.indtariffagreementnumber,              plan.restorationdate,                  plan.startdate,  plan.suspensiondate,        plan.tariffrates,  substring(plan.tariffrates,0,36) as  tariffrates2,               plan.tariffratesidvalue,  plan.usedyntariff, rate.additionalinfo,  rate.enrollmenttype,  rate.id as rate_id,  rate.isdyntariff,  rate.isenrollmentotherbank,  rate.tariffintervalidvalue,  rate.tariffintervalrates,  rate.tariffplan rate_tariffplan  FROM k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh"  as a  left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffplan as plan on plan.id=   substring(a.tariffplan,49,36) left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffrate  as rate  on rate.id= substring(plan.tariffrates,0,36)</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E284" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Failed to list directory: hdfs://hdfsgw/sklsdpp1164si__SI_dannye_PKAP-CUSTOM_T_P1164SI-DWH_LUN_SERVER_RELATIONS_W/data/custom/t/p1164si/pa/dwh_lun_server_relations_w/cbap_validfrom=2023_48</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>select * from sfd_hdfsgw_hdp.prx_si_dannye_pkap_custom_t_p1164si.dwh_lun_server_relations_w limit 100</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E285" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-4404588d-9d36-44a5-8927-db142981a352-c000.snappy.parquet (offset=0, length=4115): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6556385924_5519523244 file=/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-4404588d-9d36-44a5-8927-db142981a352-c000.snappy.parquet</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) FROM (select  * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2706_print_pm_mega_70"  ) dbvrcnt</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E286" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-cfd86e3d-a39c-42d8-bdab-4023127ed322-c000.snappy.parquet (offset=0, length=1618): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6556016331_5519149119 file=/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-cfd86e3d-a39c-42d8-bdab-4023127ed322-c000.snappy.parquet</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>select  * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2706_print_pm_mega_70"</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>line 40:108: mismatched input 'left'. Expecting: &lt;expression&gt;</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>select uuid ,timestampcolumn as date ,opened_at ,atm_id ,incident_id  ,auto_initiated ,user_status  ,CASE WHEN initiator_uuid = '798b18d6-fd6c-4ae7-a593-73bbeeaf68b1' 		THEN 'Automatization' 		ELSE 'Сотрудник' 		END AS initiator_uuid ,reason_type  ,reason  ,CASE WHEN component_id is null  		THEN 'Нет компоненты' 		ELSE component_id 		END AS component_id ,description  ,status  ,lmd ,CASE WHEN status = 'CLOSED' and lmd - opened_at &lt; 0 		THEN 0 		ELSE lmd - opened_at  		END AS recoveryperiod ,comments  ,CASE WHEN resolution_code is null 		THEN 'Нет кода закрытия'  		ELSE resolution_code 		END AS resolution_code ,scenario_step  ,scenario  ,CASE WHEN updater_uuid = '798b18d6-fd6c-4ae7-a593-73bbeeaf68b1' THEN 'Automatization'  		WHEN updater_uuid is not null then 'Неизвестно' else 'Сотрудник' 		END AS who_update ,businessprocess_id  ,current_stage  ,stage_attributes  ,event_object_timestamp  ,ld_group_id  ,case when (auto_initiated = 'True' and (businessprocess_id) IS NOT NULL and (ld_group_id) IS NOT NULL and left(replace(description, ' '), 31) = 'ИнцидентпообращениюизАССбердруг') then 'Сбердруг' end as source_incident from k808_rx_hdp.prx_hd_atm_host_main_231201_nrt_atmhost_cap.incident  atm limit 120</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E288" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>line 1:15: Cannot cast integer to char(1)</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>select concat(cast(kind as char ),cast (subkind as char)) from k808_rx_hdp.prx_55_krd_cod_platform_cod.cod_deposit_deposit</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>TypeError</t>
+        </is>
+      </c>
+      <c r="E289" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>line 5:82: Column 't.person_major' cannot be resolved</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_gulynin_2307_lider_epk" as select a.*, d.epkid from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2307_lider_" a join sfd_hdfsgw_hdp.prx_42_gul_cod_internal_cod13_client.person n on  n.id_major=t.person_major and n.id_minor = t.person_minor and n.id_mega=t.id_mega join sfd_hdfsgw_hdp.prx_42_gul_cod_internal_cod13_client.epkid d on d.untb=n.untb and d.id_mega=t.id_mega</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>MissingColumnError</t>
+        </is>
+      </c>
+      <c r="E290" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>org.postgresql.util.PSQLException: ERROR: role "22022198" does not exist</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>select * from sfd_gpgw_gp.s_grnplm_vd_rozn_soc_sal_sol_espd.t_4_25 limit 10</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>MissingObjectError</t>
+        </is>
+      </c>
+      <c r="E291" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>line 3:10: mismatched input ':'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>select * from hdfs://hdfsgw/sklsdpsdlog__sdlogging_v1-SDLOGGING-HDFSEVENTS/data/sdlogging/hdfsevents/loaded_date=2024-05-25/000010_0</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E292" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>This connector does not support truncating tables</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>truncate table k808_rx_hdp.t_team_sva_oarb."42_gulynin_2407_zp"</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>line 1:68: mismatched input ':'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_krd_zp_12_click_test":</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E294" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_Lazarev_1294_1_NEW" as  SELECT a.* , Data1 FROM sfd_hdfsgw_hdp.prx_lazarev_clickstream_sbolweb_24_custom_rb_sbol_clickstream.sbol_events a  join k808_rx_hdp.t_team_sva_oarb."42_Lazarev_1294" b on a.epk_id  =  b.EPK and a.timestampcolumn = b.Data1</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E295" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>target of repeat operator is not specified</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>select regexp_extract('Description=Microsoft Windows 10 Enterprise 2016 LTSB;', '(\W+)({6}.)')</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E296" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>line 3:2: mismatched input '''. Expecting: &lt;expression&gt;</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>select --regexp_replace( regexp_extract('SwitchAllowVersion=1.56.0.1027;1.54.3.1003;1.54.0.935;Model=NH8600S;cim_model=BRM56;TID=60032377;bank_name=ПАО СБЕРБАНК;vsp_name=IШахта Угольная;address=ул Угольная  1;tel_tech_number=900;keysForStatusBar=456;keysForSupervisor=;wait_screen_url=https://localhost:9443/_BUILD_/bootstrap.html;lang=ru-RU;RemoteNominalChange=0;params_loading_required=1;AtmType=auto;wait_screen_refresh_every=1000;temp_directory=C:/Sberbank/LogsDbs;product_name=ATMoSphere;current_version.version=1.61.0.1142;current_version.date_planned=01.11.2019 0:00:00;current_version.date_actual=16.07.2024 2:11:22;device_type=RATM;vendor=Nautilus;os=win7;hardware_architecture=x86;state_machine_path=C:\\scs\\atm_h;InitialCountFileName=391;waitForStatusBar=5000;sop_url=http://localhost:5000/;status_url=http://localhost:5000?Mode=DevicesState;AddSpornoRetract=1;is_topmost=True;fullscr=False;xoffset=0;yoffset=0;xscreen=800;yscreen=600;preloader_timeout=2000;start_url=;notify_need_wait_screen_refresh=True;log_level=Trace;webplayer_mode=ATMS;js_plugins_directory=.;host=localhost;port=1313;start_page=TCR_Startup;left_start_page=TCR_Startup;right_start_page=TCR_Startup;left_start_url=;right_start_url=;!mainbus_pipename=\\\\.\\pipe\\TCR_webplayer;mainbus_connection_timeout=2000;vendor_diag_util=C:\\Hyosung\\Nextware\\EXE\\NHVDM\\NHVDM.exe;use_event_driven_view=True;has_title=False;has_frame=True;is_scrolled=False;need_block_new_window=True;has_frame_3d=True;is_keyboard_event=False;is_check_parent=False;need_to_reload=False;need_hide=True;need_blank=False;need_notify_on_load=True;need_notify_on_error=True;need_to_check_by_id=False;need_to_silent_dlg=True;need_clear_hist=False;is_enable_msg_box=False;is_fix_update=False;is_hide_cursor=True;window_keyboard=0;priority_flags=0;log_mask=31;key_map=;domains_filter=;_MainHWND=0;_MainProc=0;NdcConfigChannel_AfterDisconnectDelay=2000;NdcConfigChannel_ChannelType=4;NdcConfigChannel_ConnectTimeout=30000;NdcConfigChannel_KeepAlive=0;LocalAddress=;NdcConfigChannel_LocalPort=0;NdcConfigChannel_LogPolling=0;NdcConfigChannel_LogPreProcessing=1;NdcConfigChannel_LogTraffic=0;NdcConfigChannel_PingHostTimeout=31000;NdcConfigChannel_PingTimeout=900000;NdcConfigChannel_ReconnectTimeout=60000;NdcConfigChannel_RecvPacketTryCount=5;NdcConfigChannel_RecvTimeout=40000;NdcConfigChannel_SendTimeout=40000;NdcConfigChannel_LogTrafficPath=NDC\\RMS;HostAddress=10.103.99.79;HostPort=30654;Custom_Option4=1;Custom_Option9=1;Custom_Option24=1;NdcConfig_ActiveOperDaysMask=11;NdcConfig_BackgroundODopen=0;NdcConfig_BcrSendBarcodeType=0;NdcConfig_BioDLL=quorum_bio.dll;NdcConfig_BioidentificationMode=0;NdcConfig_BioverificationMode=0;NdcConfig_BnaRemoveMode=0;NdcConfig_BnaUseVirtualNotes=0;NdcConfig_Card_Type_masked=0;NdcConfig_CardlessAcceptType=231;NdcConfig_ConfigChangedEvent=Global\\NDCConfigChangedEvent;NdcConfig_ConfigPath=ConfigNDC;NdcConfig_ConnectionName=NDC;NdcConfig_CorrectCdmCounters=0;NdcConfig_CustomExitExtState=Z;NdcConfig_CustomExitState=f;NdcConfig_CustomPPD=0;NdcConfig_DISPLAY_TYPE=2;NdcConfig_DefLanguage=rus;NdcConfig_DefaultODnum=0;NdcConfig_DieboldMode=0;NdcConfig_DisAsyncDevStatMask=0;NdcConfig_DisablePtrOD=0;NdcConfig_DisableZeroFdk=1;NdcConfig_EdmDispenseMode=0;NdcConfig_EdmExists=0;NdcConfig_EmvPostProcessingMode=0;NdcConfig_ExchByNdc=0;NdcConfig_ExtAuth_ConfirmNdcTran=1;NdcConfig_ExtAuth_ForceSendCdmCounters=0;NdcConfig_ExtAuth_OldFormat=1;NdcConfig_ExtCardNumberDll=CustCard.dll;NdcConfig_ExternalBnaParams=4;NdcConfig_ExternalDepErrorState=255;NdcConfig_ExternalOperState=000;NdcConfig_FatalErrorScreenPath=;NdcConfig_FdkA=16;NdcConfig_FdkB=32;NdcConfig_FdkC=64;NdcConfig_FdkD=128;NdcConfig_FdkF=8;NdcConfig_FdkG=4;NdcConfig_FdkH=2;NdcConfig_FdkI=1;NdcConfig_ForceResetTimeout=0;NdcConfig_FraudMonitoring=1;NdcConfig_FrontDll=multi_front.dll;NdcConfig_FrontEnabled=1;NdcConfig_IccEmvClessConfig=DataNDC\\nfc_emv_NDC.cfg;NdcConfig_IccEmvClessDLL=NFCVivoKiosk2.dll;NdcConfig_IccEmvClessKernelType=0;NdcConfig_IccEmvClessMode=1;NdcConfig_IccEmvClessTerminalType=20;NdcConfig_IccEmvConfig=DataNDC\\emv_ndc.cfg;NdcConfig_IccEmvCustomConf=DataNDC\\emv_NDC_cust.cfg;NdcConfig_IccEmvCustomCvmTag=57169;NdcConfig_IccEmvDLL=scs_emv;NdcConfig_IccEmvMode=1;NdcConfig_IccEmvTerminalType=20;NdcConfig_IgnoreLastNonAsciiSymbols=0;NdcConfig_KeyIndexA=266;NdcConfig_KeyIndexB=267;NdcConfig_KeyIndexComm=523;NdcConfig_KeyIndexMac=522;NdcConfig_KeyIndexRsaEpp=17;NdcConfig_KeyIndexRsaHsm=18;NdcConfig_KeyIndexRsaRootHsm=19;NdcConfig_KeyIndexRsaSgn=16;NdcConfig_LastTSN=0000;NdcConfig_LeftFdk=0;NdcConfig_LockTimeout=7000;NdcConfig_LogInHexFormat=0;NdcConfig_MaxLogHistory=45;NdcConfig_MinLogFiles=10;NdcConfig_MsMandForOtherSys=0;NdcConfig_NdcEmvSimVersion=10;NdcConfig_NdcSimVersion=30;NdcConfig_NfcState=000;NdcConfig_NoPIN=0;NdcConfig_OpenSesionCashUnitViewMode=1;NdcConfig_PRR.DeviceStatus=0;NdcConfig_PinAutoCompletion=1;NdcConfig_PrintOnPrjMode=0;NdcConfig_PrintOnPrrMode=0;NdcConfig_SaveConfig=1;NdcConfig_SendUnsolStatus=1;NdcConfig_SetAcceptedBnaCounters=0;NdcConfig_SetHostTime=0;NdcConfig_SprayCdmOptions=0;NdcConfig_StJ_RecBeforeCard=0;NdcConfig_SupervisorUrl=http:/localhost:5000/;NdcConfig_Timer_77=90000;NdcConfig_Timer_BnaRemove=70000;NdcConfig_Timer_IccMinShowWait=2000;NdcConfig_Track1=;NdcConfig_Track2=;NdcConfig_Track3=;NdcConfig_UseCoinTI=1;NdcConfig_WaitAsyncOnAcceptTimeout=5000;NdcConfig_XmlTraceMode=2;NdcConfig_ZkMode=0;NdcConfig_receipt_title_02=;NdcConfig_receipt_title_03=УЛИЦА;NdcConfig_receipt_title_04=НОМЕР ТЕЛЕФОНА;NdcConfig_ParamSourceFormat=0;NdcConfig_zrs_mode=1;NdcConfig_FullBufferX=0;NdcConfig_IccEmvTracePath=NDC\\EMV;NdcConfig_LogPath=NDC\\NDC;NdcConfig_ReconnectOnTrReply=1;NdcConfig_FrontData_ParamName=FrontInfo_SessNumber;NdcConfig_SuspendTimeout=300000;NdcConfig_UnsolRecvTimeout=10000;NdcConfig_ReconnectDelay=5000;NdcConfig_UseCheckChannel=1;NdcConfig_RetrySendResp=1;NdcConfig_RecvTryCountOnTrReply=3;NdcConfig_EjLCP=0;NdcConfig_EjLCC=0;NdcConfig_EjTryCount=0;NdcConfig_EjLastDataSize=0;NdcConfig_EjCheckTimeout=10000;NdcConfig_StartUpOptions=0;NdcConfig_TraceRoot=c:\\scs\\logs;NdcConfig_HostPrintData_Enabled=0;NdcConfig_RemapNdc2Dev_COIN=0;NdcConfig_HostScreenData_Enabled=0;NdcConfig_DisableDepByOD=0;NdcConfig_KeyUsageB=0;NdcConfig_IsShutterEnabled=1;NdcConfig_IsTransitEnabled=1;NdcConfig_IsTSKDepositEnabled=0;NdcConfig_Timer_CashCount=2400000;NdcConfig_ExternalProtocolParams=16904;BacklightPinPad=4;NdcConfig_State_041_CheckPocketCaps=1;NdcConfig_NewIncasMenu=0;NdcConfig_ConfiguredDevices=3;NdcConfig_LUNO=377;NdcConfig_MaxMCN=63;NdcConfig_UseReadyB=17;NdcConfig_FromSupervisorToPrev=0;NdcConfig_UseTI=1;NdcConfig_UseSpecificReject=1;NdcConfig_UseReleaseID=1;NdcConfig_AmountLen=12;NdcConfig_SendTrStatus=1;NdcConfig_SendEdmStatus=0;NdcConfig_SendBnaCounters=335;NdcConfig_LastFitNumber=1312;NdcConfig_UseExtCdmHoppers=0;NdcConfig_UseExtCoinHoppers=0;NdcConfig_BcrConfig=0;NdcConfig_RollWidth=40;NdcConfig_LeftColumn=1;NdcConfig_EjMaxDataSize=200;NdcConfig_EjMaxTryCount=0;NdcConfig_Timer_00=150000;NdcConfig_Timer_01=90000;NdcConfig_Timer_02=2000;NdcConfig_Timer_03=60000;NdcConfig_Timer_04=30000;NdcConfig_Timer_05=20000;NdcConfig_Timer_07=1000;NdcConfig_Timer_60=255000;NdcConfig_Timer_61=60000;NdcConfig_Timer_78=90000;NdcConfig_Timer_94=30000;NdcConfig_Timer_50=30000;NdcConfig_Option_41=1;NdcConfig_Option_69=15;NdcConfig_Option_71=255;NdcConfig_Option_76=0;NdcConfig_SecurityFlags=1100000000;NdcConfig_MacTrRequest=1000100101110000000000000000000000000000000000100000;NdcConfig_MacTrReply=1001011100000000000000000000000000001;NdcConfig_MacSolStatus=00000000000;NdcConfig_MacOther=1101;NdcConfig_MacTrack1=000000;NdcConfig_MacTrack2=110000;NdcConfig_MacTrack3=00000000000;NdcConfig_MacEMV=11111;NdcConfig_CardlessState=Z53;NdcConfig_ConfigID=187;NdcConfig_UnsolDPAN=1;NdcConfig_TrxCounter=20919;NdcConfig_TerminalMode=4;ResetConfiguration_LoadFinishedTimeoutSec=180;ResetConfiguration_ResetTryCount=5;ResetConfiguration_RejectTryCount=5;ResetConfiguration_ReloadFunctionEnabled=1;ResetConfiguration_ResetMessageDelay=5;SparcParams_TurnOnSparcInitResultCheck=0;SparcParams_SparcInitTimeoutSec=20;SparcParams_SparcRebootTryCount=5;cim_update_presented_count_by_dispensed=False;cim_cashin_refuse_retract_area=RC;cdm_update_presented_count_by_dispensed=False;cdm_dispense_error_reset_area=RJ;hardware_list.CIM.logical_name=CashAcceptor;hardware_list.CIM.version_min.major=3;hardware_list.CIM.version_min.minor=10;hardware_list.CIM.version_max.major=255;hardware_list.CIM.version_max.minor=255;hardware_list.CIM.open_timeout=150;hardware_list.CIM.is_update_master_status_on_status_request=False;hardware_list.CIM.max_reset_count=3;hardware_list.CIM.interlive_reset_interval=300;hardware_list.CDM.logical_name=CashDispenser;hardware_list.CDM.version_min.major=3;hardware_list.CDM.version_min.minor=0;hardware_list.CDM.version_max.major=255;hardware_list.CDM.version_max.minor=255;hardware_list.CDM.open_timeout=150;hardware_list.CDM.is_update_master_status_on_status_request=False;hardware_list.CDM.max_reset_count=3;hardware_list.CDM.interlive_reset_interval=300;hardware_list.IDC.logical_name=CardReader;hardware_list.IDC.version_min.major=3;hardware_list.IDC.version_min.minor=0;hardware_list.IDC.version_max.major=255;hardware_list.IDC.version_max.minor=255;hardware_list.IDC.open_timeout=150;hardware_list.IDC.is_update_master_status_on_status_request=True;hardware_list.IDC.max_reset_count=3;hardware_list.IDC.interlive_reset_interval=300;hardware_list.PRR.logical_name=ReceiptPrinter;hardware_list.PRR.version_min.major=3;hardware_list.PRR.version_min.minor=0;hardware_list.PRR.version_max.major=255;hardware_list.PRR.version_max.minor=255;hardware_list.PRR.open_timeout=150;hardware_list.PRR.is_update_master_status_on_status_request=False;hardware_list.PRR.max_reset_count=3;hardware_list.PRR.interlive_reset_interval=300;retract_withdrawall_mode=1;disputed_notes_logic_version=0;request_timeouts.default_inf_rq_timeout=0;request_timeouts.default_exe_rq_timeout=0;request_timeouts.cim_replenish_rq_timeout=0;nfc_card_status_changed_event_reaction_time=2;lov_volume.volume_set=;lov_volume.jack_off_volume=;lov_volume.jack_on_volume=;exclude_level3_banknotes=False;brm_sensors_monitoring_enabled=True;default_nominals=;manual_enable_ex_deposit_cu=True;tsk_encashment_take_rejected=;cassettes.001.denomination=10000;cassettes.001.currency=643;cassettes.002.denomination=50000;cassettes.002.currency=643;cassettes.003.denomination=100000;cassettes.003.currency=643;cassettes.004.denomination=500000;cassettes.004.currency=643;ReceiptPrintStatus=2;MaxErrorLoginCount=5;Rotate.Logs.Path=[\r\n  "C:\\\\Sberbank\\\\LogsDbs\\\\logs\\\\Archive\\\\",\r\n  "C:\\\\scs\\\\LOGS_Archive\\\\PRJ\\\\"\r\n];Rotate.Logs.File=[\r\n  "*.zip"\r\n];Rotate.Keep.Unit=Year;Rotate.Keep.Value=1;Rotate.StorageThreshold.Free.Unit=Gb;Rotate.StorageThreshold.Free.Value=20;Rotate.StorageThreshold.Keep.Unit=Month;Rotate.StorageThreshold.Keep.Value=6;ClearAtmVersion.Days=7;ClearAtmVersion.Hours=8;ClearAtmVersion.Minutes=0;wdl_uniform_max_amt=100000;wdl_uniform_limit_643_100=10;wdl_uniform_remain_limit_643_100=1100;wdl_uniform_limit_643_200=10;wdl_uniform_remain_limit_643_200=1100;wdl_uniform_limit_643_500=20;wdl_uniform_remain_limit_643_500=1100;wdl_uniform_limit_643_1000=40;wdl_uniform_remain_limit_643_1000=1100;wdl_uniform_limit_643_2000=40;wdl_uniform_remain_limit_643_2000=1100;wdl_uniform_remain_limit_643_5000=1100;nda_BreakdownAmount=10000;nda_MaxNumberBill=10;nda_NewAlgorithmEnabled=False;fpsu_connection_status_enabled=1;cartidge_diagnostic_enable=1;planning_deploy_date=2024-08-07 11:54:18;scheduler_start_time=05:15;scheduler_work_time=30;scheduler_reset_period=21;scheduler_enabled=1;cash_found_outside_deposit_enabled=0;minimal_allowed_count_of_banknotes_100=200;minimal_allowed_count_of_banknotes_200=200;minimal_allowed_count_of_banknotes_500=200;minimal_allowed_count_of_banknotes_2000=200;minimal_allowed_count_of_banknotes_1000=200;minimal_allowed_count_of_banknotes_5000=200;target_count_of_banknotes_100=1000;target_count_of_banknotes_200=1000;target_count_of_banknotes_500=1000;target_count_of_banknotes_2000=1000;target_count_of_banknotes_1000=1000;target_count_of_banknotes_5000=500;maximal_allowed_count_of_banknotes_100=2000;maximal_allowed_count_of_banknotes_200=2000;maximal_allowed_count_of_banknotes_500=2000;maximal_allowed_count_of_banknotes_1000=2000;maximal_allowed_count_of_banknotes_2000=2000;maximal_allowed_count_of_banknotes_5000=2000;logical_weight_in_algo=1;specil_min_max_coef_in_algo=2;mask_for_remote_change_denom=1;new_reset_retained_cards_count_enabled=0;check_sn_cass_open_od=0;inventory_epp_sn=true;EPP_ID=OA162941;Logging.LogLevel.Default=Information;Service.Control.Logger.LogLevel=Information;Service.Control.Logger.File=SPA.log;Service.Control.SPArcMonitoring.TimeoutAfterInit_seconds=60;Service.Control.SPArcMonitoring.HeartBeatTimeout_seconds=60;launch_wait_timeout=15;launch_force_wait_timeout=20;isUniformCashOutAlgorithm=False;congratulationNewYear.isShowOnPgeAndMenu=True;congratulationNewYear.isShowOnInsertCard=True;congratulationNewYear.showStartAt=20.12.2023;congratulationNewYear.isShowAnimation1=True;congratulationNewYear.isShowAnimation2=True;congratulationNewYear.isShowAnimation3=True;congratulationMarch8.isShow=True;congratulationMarch8.showStartAt=14.02.2024;congratulationMarch8.showEndAt=09.03.2024;digitalCustomerPath=True;otherBankInfoLevel=0;selfEncashmentOptionalPrint=True;isWorkRedirectUrlBanner=True;withRedirectUrlBanner.ads=pop-up;pop-up-qr;pop-up-info;modules.bio.state=' ,'current_version.version=(\w+)|;)</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E297" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oakb.uvsk_claim_report as  select 	*  from k808_rx_hdp.t_team_sva_oakb."03489677_uvsk_claim_report"</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E298" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>line 3:12: Catalog 'capgp2' does not exist</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>SELECT * FROM k808_rx_hdp.t_team_sva_oarb."40_mxs_20240906_2432" AS t1 INNER JOIN capgp2.s_grnplm_ld_audit_da_sandbox_oarb."40_mxs_20240906_2432_v2" AS t2     ON t1.id = t2.id LIMIT 10</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>MissingObjectError</t>
+        </is>
+      </c>
+      <c r="E299" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Partition location does not exist: hdfs://hdfsgw/sklsdpk2hdfs__HD_ATM_HOST_MAIN_240821-NRT_ATMHOST_CAP-CLOSED_TICKETS/data/core/nrt/atmhost_cap/pa/snp/atmhost_envelopeevent/nrt_atmhost_cap.closed_tickets/timestampcolumn=2022-04-28</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.prx_hd_atm_host_main_240821_nrt_atmhost_cap.closed_tickets  limit 100</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>MissingObjectError</t>
+        </is>
+      </c>
+      <c r="E300" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oakb.uvsk_claim_report as  select 	*  from k808_rx_hdp.t_team_sva_oakb."03489677_uvsk_claim_report"</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E301" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Query exceeded distributed user memory limit of 27GB</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_not_cars_fio" as select distinct a.*, b.profile_sapid, b.profile_adid, b.tb, b.osb, b.vsp, epk.last_name, first_name, middle_name,  epk.birth_dt --e.emp_id from k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_no_cars" a left join k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_clerk2" b on a.external_id=b.external_id left join sfd_hdfsgw_hdp.prx_42_gulynin_epk5_custom_rb_epk.epk_client epk on epk.epk_id = cast(a.ucp_id as bigint) and row_actual_to='9999-12-31' --left join sfd_hdfsgw_hdp.prx_42_gulynin_sotr_1_custom_risk_employees.t_sbrf_employees e on upper(e.emp_full_name) = concat_ws (' ', coalesce (epk.last_name,''), coalesce (first_name,''), coalesce (middle_name,'')) --and cast(epk.birth_dt as date) = cast(e.birth_dt as date)</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E302" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>line 2:2: Column '_col0' cannot be resolved</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>select 	_col0 from (values('2024-09-19', '2024-09-19')) as a</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>MissingColumnError</t>
+        </is>
+      </c>
+      <c r="E303" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Value cannot be cast to timestamp: 20247364831273202513</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>SELECT 	cast(concat_ws('',cast(TSK.body.systemparamsinfo.datecreateevent AS array&lt;varchar&gt;)) AS timestamp) 	--from_unixtime(concat_ws('',cast(TSK.body.systemparamsinfo.datecreateevent as array&lt;varchar&gt;)),'yyyyMMddHHmmssSSS') 	,cast(concat(cast(TSK.body.systemparamsinfo.datecreateevent[1] AS varchar) 			,'-' 			,cast(TSK.body.systemparamsinfo.datecreateevent[2] AS varchar) 			,'-' 			,cast(TSK.body.systemparamsinfo.datecreateevent[3] AS varchar) 			,' ' 			,cast(TSK.body.systemparamsinfo.datecreateevent[4] AS varchar) 			,':' 			,cast(TSK.body.systemparamsinfo.datecreateevent[5] AS varchar) 			,':' 			,cast(TSK.body.systemparamsinfo.datecreateevent[6] AS varchar) 			,'.' 			,cast(TSK.body.systemparamsinfo.datecreateevent[7] AS varchar) 			) AS timestamp) + interval '3' hour AS "EventDateTime" 	FROM sfd_hdfsgw_hdp.prx_parus_task_selfservice_parus_tasks.tasks_test_1 AS TSK</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>TypeError</t>
+        </is>
+      </c>
+      <c r="E304" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb.gulynin_epk_sms SELECT * FROM k808_rx_hdp.t_team_sva_oarb.epk_sms a</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E305" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Query exceeded distributed user memory limit of 27GB</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>create table k808_rx_hdp.t_team_sva_oarb.FIO as select a.epk_id, a.fullname, b.birth_date from sfd_hdfsgw_hdp.prx_epk_dqepk_1_custom_rozn_dqepk.epk_client_name a join sfd_hdfsgw_hdp.prx_epk_dqepk_1_custom_rozn_dqepk.epk_client b on a.epk_id= b.epk_id</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E306" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>FATAL: terminating connection due to administrator command</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>INSERT INTO k808_rx_hdp.t_team_prfl_cdp.vma_t_4_25_buf SELECT      epk_id,     CAST(amount AS VARCHAR),     CAST(inn_organization AS VARCHAR),     payment_type_case,     '2023-12-31' FROM      rozn2_gp.s_grnplm_ld_rozn_electron_knlg_core.vma_t_4_25</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E307" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>FATAL: terminating connection due to administrator command</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>INSERT INTO k808_rx_hdp.t_team_prfl_cdp.vma_temp_cx_lstdt SELECT      epk_id,     last_activity_dt,     first_active_product_dt,     '2022-11-30' FROM      rozn2_gp.s_grnplm_ld_rozn_electron_knlg_core.vma_temp_cx_lstdt</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E308" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "17348432"</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>select b.* , a.* ,  q.task_answer , q.task_answer_full , q.req_answer , q.req_answer_full , q.task_text_sol  , q.task_owner , q.task_result From capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."40_kaluginvs_anofl_appeal_2024" a join  k808_rx_hdp.t_team_sva_oarb."42_Lazarev_B" b on cast (a.cust_epk_id as bigint  )  = cast (b.ucp_id as bigint  )  and cast (b.creation_date_dd as timestamp) &lt;= cast ( a.created as timestamp) limit 100</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>TooManyConnectionsError</t>
+        </is>
+      </c>
+      <c r="E309" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>select * from t_cars_kap.shvets_ekb</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E310" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) FROM (select b.epk_id, a.nsi_id from k808_rx_hdp.prx_custom_rozni_tag_custom_rozn_tag.ft_master_hshtg as a join k808_rx_hdp.t_team_sva_oarb."42_21608829_epk_bad_1610" as b on cast(a.epk_id as varchar) = b.epk_id ) dbvrcnt</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E311" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Query text length (1149974) exceeds the maximum length (1000000)</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>insert into idlist values  (3991304550258,null), (3714704870790,null), (2847647877143,null), (2899143132044,null), (3940196359112,null), (4279521330446,null), (3707725340230,null), (2912508314316,null), (3749205993550,null), (3973637356064,null), (3322833304912,null), (2905575860086,null), (4114405835456,null), (3452423952960,null), (3974841956176,null), (4036071918508,null), (3260327240036,null), (2803376037254,null), (2889345030593,null), (4375003587556,null), (2668742899596,null), (3426310266848,null), (2740977504102,null), (3851856535852,null), (3337106788080,null), (2784630312637,null), (3692076786630,null), (2878943993404,null), (3225038170236,null), (2969029238160,null), (4833809592572,null), (2917184090847,null), (3722985190794,null), (3491104925362,null), (3776469701946,null), (3994655653526,null), (2837024799518,null), (4201204787000,null), (4134416301570,null), (2877783192395,null), (4186794384122,null), (2880289950351,null), (2768449371487,null), (3974906084192,null), (4261346264484,null), (3358542804200,null), (3305200609336,null), (2954265562911,null), (4315059357576,null), (3585602713882,null), (4344455009456,null), (2832651738189,null), (3663482853974,null), (2767563407785,null), (2844656527822,null), (3870137827000,null), (4086363855188,null), (4246495286820,null), (2847617205734,null), (2934434696761,null), (3074739799455,null), (2796214884991,null), (2461667993865,null), (2875310204954,null), (2505530750802,null), (3229674694852,null), (2900661022706,null), (3769573689938,null), (3701749954176,null), (3934099560704,null), (3182639313274,null), (3004957536789,null), (2530349224696,null), (3594778806696,null), (3500581482988,null), (3399911117554,null), (3765629510010,null), (2967602789730,null), (2495797014437,null), (2843706541495,null), (4250083482628,null), (4244966173154,null), (3135504012866,null), (3818383979216,null), (2666616881741,null), (2851587939545,null), (4240140682072,null), (3688216343736,null), (2648536217497,null), (3206027076194,null), (2511626989298,null), (3313373467150,null), (2881061958072,null), (3943002206842,null), (3958086261694,null), (4310135956628,null), (4611007030702,null), (4088566228598,null), (2873336630081,null), (3909870586894,null), (3508510334874,null), (2746000895113,null), (2779804102098,null), (3997125564542,null), (4201758046936,null), (3159438844168,null), (2859059368414,null), (2883981533997,null), (2997935603087,null), (3254554370450,null), (4113197597636,null), (4360146858162,null), (3772980704828,null), (2876951064376,null), (3317149661988,null), (3381727702954,null), (2831449490610,null), (3982443883038,null), (2927316050436,null), (2884721767281,null), (3918140068100,null), (4256581852902,null), (3853214988372,null), (3279614456664,null), (2860617433411,null), (3426323882672,null), (3875251122824,null), (3684828682824,null), (3179455703762,null), (4287289801866,null), (3929013754028,null), (4114423545378,null), (2986020500672,null), (2935235702407,null), (2674770803856,null), (4111979769700,null), (4249667082182,null), (4325811313698,null), (2916530289895,null), (3447885329900,null), (2759601417167,null), (2819209153637,null), (4282551002732,null), (2795685265298,null), (3371057899090,null), (3598788799916,null), (3429914325082,null), (2838574980730,null), (2855057519327,null), (2795763143659,null), (3626504472384,null), (3748249309940,null), (4186242211832,null), (2984137911365,null), (4277886205880,null), (3092665785760,null), (2901815853636,null), (4224127977282,null), (2791661140791,null), (2881165562924,null), (4261520275590,null), (3254342060362,null), (4098330244400,null), (3397430334838,null), (3142687825751,null), (2873553209821,null), (2947911324072,null), (4237686456938,null), (2927330301344,null), (2924726706374,null), (3372913966198,null), (3819371640834,null), (4297286526202,null), (3864745670970,null), (4437371856048,null), (4009702264904,null), (3082465464536,null), (2968391247154,null), (3714292070452,null), (3745643255062,null), (3697368946686,null), (3738611820324,null), (4273021012166,null), (2534702779959,null), (3658297201430,null), (3276346428338,null), (4288584128282,null), (4303311420266,null), (3750101534672,null), (4252624303298,null), (3474200624030,null), (4293990917550,null), (2531129135133,null), (4322842611122,null), (3982472098046,null), (3766960478384,null), (2922764136869,null), (2869831954374,null), (4313746365266,null), (3981490231980,null), (3781592546374,null), (3776922453458,null), (4285802126542,null), (3502502853700,null), (4132678431728,null), (2682229827120,null), (3691525512098,null), (3405001741938,null), (3756149409912,null), (3825921648924,null), (3699646064536,null), (3199697308682,null), (3374606368264,null), (4222084292438,null), (4452684439148,null), (2804738155971,null), (2999302515019,null), (4275051247854,null), (4227933376998,null), (3739826129036,null), (4065009215096,null), (4255220693360,null), (3917554946718,null), (3917266202548,null), (3040440932865,null), (3708145094452,null), (4116779089142,null), (4308996819470,null), (4241673610358,null), (4280508064224,null), (4240913767470,null), (3814073926754,null), (3627717830156,null), (2950047362721,null), (2814915969624,null), (3646794344948,null), (3900544659766,null), (3001670072206,null), (2763351389259,null), (2833226608160,null), (3678532461072,null), (3821138509040,null), (2915982439640,null), (3636668557354,null), (3830831980476,null), (3725912359890,null), (4211647082906,null), (2955470809224,null), (3628306761820,null), (2779506223621,null), (4271016393654,null), (3201779757066,null), (3274744463126,null), (4072287155304,null), (4322210519328,null), (4288687906566,null), (4238355335090,null), (2953294826378,null), (3370560284038,null), (3722695014818,null), (4211682471104,null), (4269782901732,null), (2871471044220,null), (2948991429473,null), (3977137041628,null), (3263100238182,null), (3073284102358,null), (3087621562156,null), (3138216606040,null), (3286897184918,null), (3864286700202,null), (2864370652379,null), (4130717465020,null), (4310787918216,null), (3935036243622,null), (3795090613458,null), (3080735900221,null), (2874248221188,null), (3632708506216,null), (4316517014900,null), (4323394629906,null), (3095635484803,null), (2986106828402,null), (3526130046790,null), (3488918651744,null), (4246117823376,null), (4315001028960,null), (3064253150208,null), (2925283537556,null), (3675452086340,null), (4247724264368,null), (2848240920393,null), (3116242094967,null), (2897699335049,null), (3711308751432,null), (4230587245746,null), (3473776674802,null), (4115796709844,null), (2868749870864,null), (3993132497040,null), (4664709675188,null), (4130899623776,null), (4328057807450,null), (3628279686170,null), (3989563365866,null), (4254520285270,null), (3496734049530,null), (3736642841508,null), (2877154018572,null), (2921843129219,null), (4298991191068,null), (4311756787454,null), (2848180420927,null), (3280546683644,null), (3348224796652,null), (4490845099704,null), (3949300736858,null), (4166285392616,null), (2950299312677,null), (4077270494932,null), (2930374985916,null), (3730494201650,null), (3951109246810,null), (3475697248932,null), (2983956293159,null), (3171669587192,null), (4235333988948,null), (4051437811850,null), (2928139259814,null), (2810602142560,null), (4313412447682,null), (3401850284026,null), (4321842785258,null), (4288208183038,null), (4198226398068,null), (3687265280864,null), (3684884893836,null), (4324202405734,null), (3151462504017,null), (3397103839314,null), (3037743570153,null), (3328748180918,null), (2964135581673,null), (4492046145582,null), (3692635644856,null), (4142797282316,null), (4227705706852,null), (4286214917060,null), (3259740418136,null), (3644094895020,null), (3663535654136,null), (3923695567184,null), (4224586219168,null), (3725682286762,null), (4214942859320,null), (4262732672144,null), (3888795949876,null), (3769832076606,null), (3987707840204,null), (3335653269590,null), (3325519475302,null), (2987786246412,null), (4192157639042,null), (3762444170312,null), (2861686095551,null), (3045618074853,null), (4260731127420,null), (3736469730882,null), (3718509913308,null), (3429928831370,null), (3202490420286,null), (4097817323064,null), (2938070041125,null), (3589036953010,null), (2877524667848,null), (3512850913474,null), (4277602232786,null), (4322404626084,null), (3943650025488,null), (4088575616784,null), (2721024464654,null), (3848584644246,null), (3990285006964,null), (3499956714228,null), (3340619052314,null), (4304958170078,null), (3758392931064,null), (3084514817870,null), (3716639724466,null), (4312282999098,null), (4013001997540,null), (4299621373710,null), (4458201805110,null), (4077256045006,null), (3309590539698,null), (2970762297512,null), (3344368742166,null), (4001809724594,null), (3787428455028,null), (2703611345253,null), (3780480807504,null), (3402474631344,null), (3772147659390,null), (2956491529628,null), (4108363061300,null), (4090754480164,null), (3911684774778,null), (3966408467596,null), (3953024433746,null), (4088531401528,null), (3063303027109,null), (2675979194412,null), (4318739771826,null), (3833392005958,null), (3807830082418,null), (4299807567110,null), (3046614956826,null), (3146079437068,null), (4011471782076,null), (2867985980286,null), (3753862139512,null), (3408199280418,null), (3944139716428,null), (3952099308464,null), (3504706103636,null), (3306780961020,null), (4258787781030,null), (4324258747364,null), (4013872788382,null), (2981520773861,null), (3112425210402,null), (3716534555284,null), (4039155531476,null), (3730685378812,null), (3338780967766,null), (3308614330434,null), (4252193581132,null), (2986460195167,null), (3643113747254,null), (4367900551224,null), (3961068444318,null), (2957273414745,null), (4086438104216,null), (4311895062440,null), (3323197829468,null), (3264225381430,null), (3962898503460,null), (3976979664996,null), (4029658090942,null), (4454180095258,null), (3768858527910,null), (2976070323887,null), (4664302814874,null), (4283200585744,null), (3769655855390,null), (4264974043438,null), (3852392826822,null), (3723761967792,null), (4274704851714,null), (2889213810649,null), (3207585020150,null), (2839032971244,null), (2988373515657,null), (4468372051458,null), (4202671534002,null), (3046394847789,null), (3958401364166,null), (3955995343492,null), (4003596323520,null), (3934756373638,null), (3758915188970,null), (4145891583970,null), (2743628911981,null), (2825894691274,null), (3486712015518,null), (3603953718164,null), (2918298303061,null), (3949102273266,null), (4277903829396,null), (4174743499190,null), (4027758437894,null), (3351400883772,null), (4051686914352,null), (4045202593246,null), (3542030257806,null), (2839458449318,null), (2958728999164,null), (3702700877122,null), (3993362589592,null), (3972921507042,null), (3941222170702,null), (3267116036826,null), (3391730848806,null), (3064370730616,null), (2969199199175,null), (3237457255710,null), (3032879735392,null), (3903408633162,null), (3164599447926,null), (3940826556244,null), (4417345697522,null), (2668964431636,null), (4233940890002,null), (4431948494340,null), (3991311825838,null), (3421306915810,null), (4010597910696,null), (3872184822000,null), (3642406657998,null), (3401082378646,null), (3949438609530,null), (3332468845766,null), (4027467756778,null), (3339126416230,null), (2913196595720,null), (3952052319612,null), (3706213160188,null), (4045212564498,null), (3252478810190,null), (4202180873486,null), (3783589904646,null), (3977002062008,null), (2845895622096,null), (4028478299474,null), (3791011856312,null), (3147185228670,null), (4298196328600,null), (3932285223990,null), (3387979900246,null), (4067762305186,null), (3154259996727,null), (3955769536806,null), (3220354845366,null), (2891384923432,null), (3764318091668,null), (4003417638256,null), (4373468223238,null), (3955641373500,null), (3292384114770,null), (3754419316710,null), (4178046292502,null), (4142270995998,null), (2922409284404,null), (3260149637828,null), (2974922952495,null), (4072624012814,null), (3601631564848,null), (4322178147478,null), (3145289308626,null), (2863854880252,null), (3478799266662,null), (4080768661682,null), (3872150082982,null), (4211258598790,null), (3483411544918,null), (3309402531134,null), (3777016870424,null), (4054257874414,null), (4307065893026,null), (2987533254545,null), (2951098778957,null), (3950785178192,null), (4059132563038,null), (3752554005404,null), (3287532361910,null), (3862266352114,null), (2815053472629,null), (4296460927028,null), (2821897572571,null), (4847904014600,null), (3926747721554,null), (3055487487716,null), (4353912827665,null), (4207213625830,null), (3066329481575,null), (3323731400250,null), (3682795138054,null), (3709923788212,null), (3985187790788,null), (3060209648692,null), (3910757771622,null), (2953217153276,null), (2843104187485,null), (4213230685678,null), (4319584670338,null), (3766443132438,null), (2508043485149,null), (3159242875266,null), (3140783998153,null), (3646721523020,null), (3973062829032,null), (2934606371454,null), (3640626475282,null), (2953500978778,null), (4400925702146,null), (3233530782204,null), (3636366686386,null), (4258714088280,null), (2917415699215,null), (3918412224748,null), (3280981643770,null), (2879651354395,null), (4204670287904,null), (3927086899146,null), (4488263150674,null), (2979571915494,null), (3146693988686,null), (3405153707250,null), (3749144487136,null), (3718154956142,null), (3685256627822,null), (2770120316219,null), (3763787419322,null), (3450875456938,null), (3449801707066,null), (4006716172642,null), (4318283000640,null), (3805466738500,null), (3181875666574,null), (3573235476782,null), (3943165180658,null), (3720246576248,null), (3554125786068,null), (3750762077366,null), (4065358849934,null), (3464701406086,null), (4129806770868,null), (4172121577572,null), (4278546187224,null), (4287099591388,null), (4507616527270,null), (4720023650984,null), (3489128363084,null), (3255405721284,null), (4088484498462,null), (2877096893537,null), (3876701330402,null), (3475611147496,null), (2851894931460,null), (3448111397700,null), (3890505531118,null), (4811882917796,null), (3144104485294,null), (2565883891758,null), (4306832123204,null), (4633775386332,null), (3813289598280,null), (3301738463396,null), (3718577401920,null), (2914787931591,null), (4096391791864,null), (3202796028450,null), (4207394509602,null), (3451859726634,null), (2521472942038,null), (4108331538882,null), (4598401664506,null), (2879681548900,null), (3686982702094,null), (2967570528929,null), (3979581678284,null), (3673432009368,null), (3975186593068,null), (4304768451954,null), (4106213389268,null), (4292297167508,null), (4772129039396,null), (2884394061850,null), (2442593315742,null), (3702105754614,null), (3977312030124,null), (3868414755652,null), (3170020193906,null), (3975042682100,null), (3866646233520,null), (2922480948072,null), (4112695414600,null), (4283623340668,null), (2948128065155,null), (3392138900940,null), (4246484271144,null), (3744019052250,null), (3659492506464,null), (3727905657112,null), (3714335901956,null), (3188663025140,null), (4090315427688,null), (3953243018112,null), (2778971636365,null), (3377452065150,null), (3981038664484,null), (2839038758818,null), (3046225738083,null), (4326187761278,null), (2805013086733,null), (2907865113550,null), (4102468766206,null), (4364073612672,null), (3902413041922,null), (4294419888560,null), (4204748939840,null), (4538922713608,null), (3530039822752,null), (2793937165232,null), (3424120649980,null), (3179180457232,null), (2912241076475,null), (2910447386412,null), (2840303605217,null), (3590447079410,null), (4174710854766,null), (4213234204782,null), (4317452900784,null), (4043289353528,null), (4127438353060,null), (4321931991206,null), (3154719866006,null), (2984611708604,null), (4048844796758,null), (3710104253530,null), (2949665516134,null), (2717127775283,null), (2719778733198,null), (4250135134556,null), (2873556120535,null), (3679027665346,null), (3884544589034,null), (4297486734394,null), (3934062219888,null), (3394350043822,null), (4300251934054,null), (4305616292778,null), (2881518051842,null), (2924874135480,null), (2698579506390,null), (2992310181026,null), (3150601562143,null), (3004339553214,null), (4266385215334,null), (3307037825706,null), (3874476747178,null), (4283904417070,null), (3492818669170,null), (2916459453271,null), (2798560975390,null), (2888954224183,null), (4862644297382,null), (3717033993776,null), (4525080680130,null), (2814091213369,null), (3400304214400,null), (3724829487022,null), (4221022072804,null), (3711207867580,null), (3686355897688,null), (3973203729750,null), (3181964978464,null), (2924494247920,null), (3324503982312,null), (2894150911578,null), (4170812679922,null), (3498999656690,null), (4286015527388,null), (3257290580094,null), (2340848245408,null), (3778764535250,null), (2468770269943,null), (2946539757567,null), (3929127558122,null), (4316731044912,null), (3717616977042,null), (2988887783829,null), (3594337985058,null), (4035435779794,null), (3621628578376,null), (3949286984260,null), (3106101522948,null), (4108704539720,null), (2755773484783,null), (4281239393008,null), (3040512196959,null), (4285971630250,null), (2827824027084,null), (3651493912630,null), (3296673874440,null), (3227788882680,null), (2923255541082,null), (3695086035500,null), (3640724986076,null), (3955290857014,null), (4326682353146,null), (4198277369434,null), (2922089557542,null), (3980020819656,null), (3018597469913,null), (2859134722629,null), (3986311487884,null), (3856899894472,null), (3931697809316,null), (3398642088742,null), (2921818789273,null), (4210069220256,null), (3633854818534,null), (2849554013728,null), (4116477905302,null), (3441210750724,null), (2539025902216,null), (3220378237456,null), (2980047119085,null), (3163146674596,null), (2874849448781,null), (2931252383953,null), (3707671904854,null), (4278777045912,null), (3140959360533,null), (3153535637693,null), (3986663698262,null), (4326016862488,null), (4284873860298,null), (4274041448126,null), (3778248261358,null), (2786434637801,null), (2990335663068,null), (3836590414128,null), (3949985770890,null), (2922835430401,null), (3097989641318,null), (3394342112990,null), (2981418891401,null), (3733341211868,null), (2939585458273,null), (4099809142902,null), (3622953514586,null), (3065679105244,null), (3683679207460,null), (3731302036692,null), (2780454877241,null), (2922203974552,null), (2530114095671,null), (4317325201988,null), (4341705109912,null), (4087846768084,null), (2919266719437,null), (3890951068184,null), (3982626509582,null), (2901154399731,null), (2923904309805,null), (4724066726960,null), (2890716777235,null), (3781274068492,null), (3629732535782,null), (3986659348366,null), (3512063393930,null), (4296494809296,null), (2930545001667,null), (3758908596188,null), (4199007521410,null), (2821226673891,null), (3213986246912,null), (2927095692489,null), (2799043254635,null), (3493844932650,null), (3182040424544,null), (3632692145086,null), (2837728781133,null), (3495706943282,null), (3753014877892,null), (2770148860232,null), (3475394120890,null), (3398415448244,null), (4284825222838,null), (3685122816384,null), (3207899661658,null), (3903466014770,null), (2849031570762,null), (4200413721786,null), (2922456371444,null), (4198310400454,null), (3932808258488,null), (4282180290656,null), (4268748969818,null), (3955219791300,null), (3111692693843,null), (2681124250269,null), (3769373892710,null), (2691336275196,null), (3321365224768,null), (3662394145438,null), (4203329569142,null), (2801346458185,null), (3738697777788,null), (4124923904746,null), (3434266346840,null), (4502622470882,null), (3321067699288,null), (4463130977802,null), (2872622872417,null), (3710307769520,null), (3659080749854,null), (3626406014416,null), (2793891434835,null), (3688719556000,null), (4291460027928,null), (3686681469022,null), (2923600455053,null), (3771862946294,null), (4278662046802,null), (2920002181089,null), (3716692165328,null), (2972260339408,null), (4261727781700,null), (4321670540864,null), (2819813402839,null), (4108588167634,null), (4294633198878,null), (3856559067878,null), (4152178867756,null), (3298944844804,null), (3563024929776,null), (3897147095534,null), (3341081102960,null), (2816362854091,null), (4431231392768,null), (4280815803690,null), (3588836788890,null), (4321952192592,null), (3267910641618,null), (3807310567224,null), (3730435345062,null), (4090250310070,null), (4080189786010,null), (3745706314936,null), (2885692395869,null), (3736381513524,null), (2821801611117,null), (3603080590436,null), (3323045470268,null), (2840839705509,null), (4150675754682,null), (3313575108636,null), (4243071263140,null), (4832465102648,null), (4232668997362,null), (2946772450863,null), (4122305120382,null), (4765169677042,null), (4006646949080,null), (3721178820870,null), (3886947362720,null), (3522683224874,null), (3458025231434,null), (3723785163518,null), (4151828422368,null), (4083677863464,null), (2803760445597,null), (3754235204788,null), (4210268060758,null), (3982651500982,null), (3052684620773,null), (2858386944473,null), (4291403019662,null), (3743908173452,null), (3736420744734,null), (3692639419038,null), (2842257343492,null), (2912220884354,null), (2980488105349,null), (3764696697018,null), (4263873104720,null), (3907254618162,null), (3630699905052,null), (2811273223135,null), (3318949314350,null), (4085545392722,null), (2917685946992,null), (3046254002039,null), (3649466178466,null), (3915853854350,null), (3396955544070,null), (3407700530680,null), (4116025092226,null), (3744689546756,null), (4289712159106,null), (3151095718908,null), (3991792809440,null), (3716107166042,null), (2826110490699,null), (3178644508802,null), (3811575160820,null), (3451693277378,null), (3693055959944,null), (4211047516206,null), (3160735241744,null), (3189811207216,null), (3509441684828,null), (2983074887678,null), (4291508823702,null), (4258744456910,null), (4093932186454,null), (4282615388348,null), (4287093717228,null), (4235818974502,null), (3461252656634,null), (2762332023537,null), (3886309809948,null), (3446831411042,null), (2845819936371,null), (3408463470276,null), (2970592950746,null), (3964106194406,null), (3020901700320,null), (4382471764762,null), (4011910355240,null), (3073979481272,null), (2958067826226,null), (3917198057612,null), (3087537897528,null), (2917286541349,null), (3338782080808,null), (2824487100121,null), (3910536399362,null), (4310934674400,null), (3271576289258,null), (3396935294088,null), (4300384456992,null), (3029753648408,null), (3434438667072,null), (3209195867956,null), (2822026008393,null), (4296077742578,null), (3706745418028,null), (3163589526834,null), (3148288529418,null), (4100043792088,null), (2845452720697,null), (3697268342194,null), (3989601682140,null), (3334392549826,null), (3740391709482,null), (3436914437738,null), (4322299780528,null), (3734229708946,null), (3756648822708,null), (2794763197456,null), (3772083931686,null), (3780591782644,null), (3270733319032,null), (4200470055112,null), (3774917590822,null), (3654569685870,null), (3778973364538,null), (3136460771452,null), (3772122670238,null), (3264690158134,null), (3210931343720,null), (4185431910596,null), (3955250970026,null), (3688518303254,null), (3741325837188,null), (3385091989620,null), (4011846177522,null), (3987138457134,null), (3661395828486,null), (3706542435272,null), (4114438608074,null), (3983019071668,null), (3991293126776,null), (3768218902050,null), (3143237585307,null), (4236615127878,null), (3740106968884,null), (2820316298613,null), (3109867114356,null), (3771853446768,null), (3205997098088,null), (2886502682912,null), (3994103785440,null), (2790005359274,null), (4085834248084,null), (4198342495422,null), (4252972831316,null), (3687705949582,null), (4232374719028,null), (2991445799865,null), (3396554498262,null), (4794503515886,null), (3786182904520,null), (2956463701571,null), (3877015641578,null), (3703762335694,null), (3286980126340,null), (3245458608988,null), (3414841972240,null), (3370908471814,null), (3400759394394,null), (3432856539600,null), (3371871655144,null), (3394771714050,null), (4253100643536,null), (3985450246232,null), (2956520616820,null), (2382071628835,null), (4207746174560,null), (4093276880242,null), (3767621993246,null), (4623192914694,null), (2809402927672,null), (3071973254523,null), (2795581281362,null), (3562803121810,null), (3686646260024,null), (4049713136024,null), (2805449400265,null), (3788972614760,null), (3446408649876,null), (3417995075654,null), (3005094146329,null), (3373723317952,null), (4637265073612,null), (4326711056498,null), (3743907383568,null), (3469833105920,null), (4023238955600,null), (3923475150528,null), (2776372625011,null), (2834134606210,null), (3332237266098,null), (3954115369724,null), (3419112544188,null), (3439747095158,null), (3789708120170,null), (4023344772126,null), (3663829245426,null), (3427176267404,null), (3425509201614,null), (3944485038606,null), (3255537849844,null), (4025394739430,null), (3269368270520,null), (4328198661324,null), (4161902885018,null), (3337565515060,null), (4172473696788,null), (3963393325956,null), (4531074128656,null), (3734562757578,null), (2743506402931,null), (3988951421362,null), (3685183365190,null), (3858935308854,null), (4228196830300,null), (4486744794906,null), (3737974393424,null), (3912957320090,null), (3463117949958,null), (3994672846848,null), (4078014297260,null), (3772029524528,null), (3956900056826,null), (3396545693640,null), (3725845491080,null), (4452451228900,null), (4258322514868,null), (2991462011142,null), (3932339488636,null), (4058836050996,null), (3321591067574,null), (3658696624310,null), (3449646421792,null), (4156306151770,null), (3721786233652,null), (3938411524314,null), (3830408265424,null), (4193953554668,null), (3666625556988,null), (2824995289514,null), (3622364919760,null), (4456327861170,null), (3312864437352,null), (4224240584714,null), (3842787595058,null), (3952269824054,null), (4017711455110,null), (4018893281104,null), (2850019288595,null), (2872518992549,null), (3685005045198,null), (3924157351666,null), (3996972458448,null), (3964224803672,null), (3649530441398,null), (3463052314192,null), (2872585091611,null), (3383517281274,null), (3779009499844,null), (3106500389788,null), (2912533064352,null), (2963896573026,null), (3636325686328,null), (3767804672810,null), (3950659005622,null), (4311643482302,null), (3335265989972,null), (4283463977258,null), (4201903866070,null), (4278471085288,null), (4045541094260,null), (3990388349632,null), (2448561501509,null), (3948905934944,null), (4299683328628,null), (3269674829118,null), (4525859753378,null), (3953010907670,null), (4496309524046,null), (3972894290374,null), (2392215968414,null), (3954251211548,null), (2703013280820,null), (3398459085874,null), (3970149318340,null), (2848594324617,null), (4298831310580,null), (3299292926118,null), (3053467683141,null), (4280385319846,null), (3451432669914,null), (3998720377522,null), (4493185424948,null), (3914473620606,null), (4284748349254,null), (4038533521320,null), (2825022262571,null), (2797120086285,null), (4398436567876,null), (2520071428002,null), (4049240464442,null), (4000050570876,null), (2737287647644,null), (3760923595512,null), (3941995572546,null), (2906146006045,null), (3898116212056,null), (2931659170602,null), (4375950618814,null), (4269024710554,null), (4354856430832,null), (4315727393056,null), (3688283511920,null), (4314580481212,null), (4317124587694,null), (3145588047209,null), (2854918960412,null), (4444616928574,null), (4265584313938,null), (3946904860670,null), (4045249381760,null), (3121326913495,null), (3768653199862,null), (3774225820970,null), (3348110238944,null), (3716858617860,null), (2992306991409,null), (4241155149334,null), (4063508829914,null), (4039239447066,null), (3985019689016,null), (2987894065731,null), (2973827360307,null), (3946549288278,null), (3863218957802,null), (3141010730501,null), (3410630233902,null), (3936064269088,null), (4037943658094,null), (4052520660926,null), (3586921008588,null), (4333391262790,null), (3414471950630,null), (3508664873590,null), (2968153112081,null), (3371562563062,null), (3984732020952,null), (3490282352178,null), (3795060582582,null), (3988046230128,null), (4297229096070,null), (4230343100994,null), (3323815551626,null), (3821410874164,null), (3116886444429,null), (2851602731602,null), (3888732653924,null), (4480206012050,null), (3975259466574,null), (3168218919180,null), (2801963867959,null), (3934176039976,null), (2698383204197,null), (4088687629682,null), (3159504607914,null), (3769199701050,null), (2357124613990,null), (3733996028002,null), (2800804281890,null), (2962398004808,null), (3730434392000,null), (2508783370633,null), (4045625276292,null), (3507364941946,null), (4300835553034,null), (4304482947300,null), (3421742165490,null), (4023016537508,null), (2956758843648,null), (3352479469196,null), (3524332053678,null), (3265130319938,null), (3726123704706,null), (3677416354290,null), (3006816051239,null), (3444749665572,null), (4074194765466,null), (2782974155165,null), (3659180933520,null), (4061971652242,null), (3897330928832,null), (3732471040626,null), (3831970484140,null), (4311776128610,null), (4089281013930,null), (4478346457894,null), (4296878822128,null), (3938290643480,null), (3780880474762,null), (2818080105861,null), (4652808343322,null), (4171181580164,null), (3988811936690,null), (3933116966006,null), (3579629000874,null), (3567192657452,null), (3867293194948,null), (3542961306778,null), (3435222402428,null), (2924987466784,null), (3156800582596,null), (4004111149866,null), (3971186130162,null), (2811555753361,null), (3708169890950,null), (2696399028883,null), (3986920198524,null), (3202200441714,null), (2973341497029,null), (3922432336386,null), (4165504264400,null), (2847168349090,null), (3434709845798,null), (3989883842032,null), (4054856773296,null), (3276529001828,null), (3872081441056,null), (3854195910688,null), (3316856388644,null), (4216165503350,null), (4311488121948,null), (4245611449690,null), (4318603140530,null), (3714863688832,null), (4022542881978,null), (4322573201726,null), (3969861672094,null), (4277230364286,null), (3437180674846,null), (3457966642472,null), (3343457639536,null), (4238157280270,null), (3890171477338,null), (3688165170208,null), (3934738907956,null), (4234827795970,null), (4051017828004,null), (4538662533230,null), (3796158589666,null), (2787153898200,null), (3951395193452,null), (3126567108235,null), (4277880839420,null), (3421839574836,null), (3002144363137,null), (4129717085326,null), (4053270331708,null), (4146351307162,null), (3835417336762,null), (3783397966260,null), (3738337672966,null), (4156819190760,null), (3088734294372,null), (3971404550102,null), (3407447998526,null), (4139234805928,null), (2916670070325,null), (3888757913242,null), (2887689442133,null), (3971659791548,null), (3255427686036,null), (3933827670234,null), (3496275803936,null), (4302185061734,null), (3147800661818,null), (3486353031264,null), (4316282874016,null), (4038511260562,null), (2781489164719,null), (4211755164590,null), (4227455673788,null), (4070098062074,null), (4227492010322,null), (3003460302357,null), (4006933547422,null), (4413080213824,null), (3950745884412,null), (4341147910728,null), (4224491686306,null), (3777010395046,null), (4287696311482,null), (4185889560562,null), (2917191318627,null), (2768430083316,null), (4154432092972,null), (3271022556262,null), (4299738656658,null), (4044441568042,null), (4262637150616,null), (3990098188672,null), (3945080075508,null), (4230890791766,null), (3424311045224,null), (4102355734970,null), (4307377293322,null), (2843825541250,null), (3110015541208,null), (4165979490128,null), (4256462846586,null), (3936415255504,null), (4163527958724,null), (3952344752696,null), (4289468696488,null), (3317354272418,null), (3485901254680,null), (4040502617494,null), (3500052630082,null), (3318777025134,null), (3400983496838,null), (4002837631474,null), (2749022361292,null), (3414913297942,null), (4330374602606,null), (4016415955678,null), (3649051207014,null), (3945042175724,null), (4066556349086,null), (2972100323703,null), (4829823499416,null), (3817176275322,null), (4235292830350,null), (3809813531570,null), (3911043792410,null), (3168290932568,null), (4079826685072,null), (3993878605580,null), (3398430401650,null), (4330041350148,null), (4224542217028,null), (4222245352620,null), (4388366073528,null), (3446646150622,null), (4046881514394,null), (3897009126318,null), (4299563089420,null), (4367703101156,null), (4149579363766,null), (4023745398222,null), (4093807082372,null), (4122008198716,null), (4069253867362,null), (4281068144198,null), (326</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>QueryTooLargeError</t>
+        </is>
+      </c>
+      <c r="E312" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>line 1:1: mismatched input 'function'. Expecting: 'ALTER', 'ANALYZE', 'CALL', 'COMMENT', 'COMMIT', 'CREATE', 'DEALLOCATE', 'DELETE', 'DENY', 'DESC', 'DESCRIBE', 'DROP', 'EXECUTE', 'EXPLAIN', 'GRANT', 'INSERT', 'MERGE', 'PREPARE', 'REFRESH', 'RESET', 'REVOKE', 'ROLLBACK', 'SET', 'SHOW', 'START', 'TRUNCATE', 'UPDATE', 'USE', &lt;query&gt;</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>function t() begin select 'test'; end</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E313" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>---Ответы 2024 CREATE TABLE capgp2_gp.s_grnplm_ld_audit_da_sandbox_oaofr.sao_task_2024 AS (SELECT app_row_id, req_created, task_id, task_finished, task_num, task_answer, task_answer_full, task_text_sol, exp_queue, prev_queue, prev_queue_uber,     req_answer, req_answer_full FROM k808_rx_hdp.t_team_sva_audit_2."40_kaluginvs_appeal_anofl_task_2024")</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E314" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>select * from t_cars_kap.shvets_inv</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E315" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Failed to list directory: hdfs://hdfsgw/arnsdpxdata__zzvukk-DZO_OOOZVUK_RB-CLTV_USERS/data/core/dzo/ooozvuk_rb/pa/snp/cltv_users/ctl_loading=43229322</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>SELECT * FROM k808_rx_hdp.prx_zzvukk_dzo_ooozvuk_rb.cltv_users</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E316" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Could not communicate with the remote task. The node may have crashed or be under too much load. This is probably a transient issue, so please retry your query in a few minutes. (pvlos-ldtrn0002.cloud.df.sbrf.ru:8443)</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>select cust.client_name, doc_serial, doc_number, client_birth_day, claim_number, claim_date_time, claim_type_name, product_type_name,product_type_name_full from k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.cust as cust  join  k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.agr as agr on cust.client_id = agr.client_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.appl as appl  on agr.product_id = appl.product_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.prod as prod on appl.product_type_id = prod.product_type_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.appltype as appltype  on appl.claim_type_id = appltype.claim_type_id</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E317" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>insert  	into 	capgp2_gp.s_grnplm_ld_audit_da_sandbox_oarb.s_gp_ivakhnovs_appeal_2024 select 	* from 	k808_rx_hdp.t_team_sva_oarb."40_ivakhnovs_appeal_full_2024"</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E318" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>line 1:22: mismatched input 'date'. Expecting: ')', ','</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>select ('2024-11-19' date) as p1</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E319" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Query exceeded distributed user memory limit of 27GB</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_hd_atm_host_oper_240208_nrt_atmhost_operations.atmhost_operations ORDER BY body_sesstartdt</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E320" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>line 3:1: mismatched input ','. Expecting: 'FROM'</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>select date_parse(trim(substring('abc_zakupkigovru_beginner_20240118_092653_001.json', strpos('abc_zakupkigovru_beginner_20240118_092653_001.json', 'beginner_') + 9), '.json'), '%Y%m%d_%H%i%s%a'  select strpos('abc_zakupkigovru_beginner_20240118_092653_001.json', 'beginner_') + 9</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E321" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "07735561"</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr  select * from capgp2_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>TooManyConnectionsError</t>
+        </is>
+      </c>
+      <c r="E322" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>line 1:35: Column 'app_status' cannot be resolved</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>select request_id, count(distinct app_status) from k808_rx_hdp.t_team_sva_oarb."55_gsd_ts_result_main_temp_epk_dec_3" group by request_id</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>MissingColumnError</t>
+        </is>
+      </c>
+      <c r="E323" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Partition location does not exist: hdfs://arnsdpsbx/user/team/team_curus_dm/datamart/pa/dm04_operations_history/timestampcolumn=2024-07-23</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>SELECT timestampcolumn, count(*) FROM k808_rx_hdp.t_team_curus_dm.dm04_operations_history  group by timestampcolumn</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>MissingObjectError</t>
+        </is>
+      </c>
+      <c r="E324" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>line 1:8: mismatched input 'select'. Expecting: '*', 'ALL', 'DISTINCT', &lt;expression&gt;</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>select select request_id, count(distinct app_status) from sfd_hdfsgw_hdp.prx_55_gse_risk_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.t_st_main  group by request_id</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E325" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Tried to access metastore after transaction has been committed/aborted</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E326" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Tried to access metastore after transaction has been committed/aborted</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E327" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Tried to access metastore after transaction has been committed/aborted</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E328" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Tried to access metastore after transaction has been committed/aborted</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_op2</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E329" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Query exceeded distributed user memory limit of 27GB</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>with cte_1 as ( select distinct a.* from t_team_sva_audit_2.t38_siv_19_11_24__1141__02__eps_pmt_for_november_2024__white_cluster a  ) select 'Уникальных строк', count(*) from cte_1</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E330" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Could not communicate with the remote task. The node may have crashed or be under too much load. This is probably a transient issue, so please retry your query in a few minutes. (pvlos-ldtrn0002.cloud.df.sbrf.ru:8443)</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi_1_id_mega" as  select distinct a.epk_id, a.operation_ts_dat, CRD_OTF_TRNF_ORG_RUB_AMT, CRD_OTF_TRNF_PERS_RUB_AMT from k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi_1_id" a join sfd_hdfsgw_hdp.prx_42_gulynin_mega_1_custom_rozn_client_aggr.ft_client_aggr_mnth b on a.epk_id=b.epk_id and date(b.report_dt)=last_day_of_month(a.operation_ts_dat) and b.report_dt='2024-07-31'</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E331" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Tried to access metastore after transaction has been committed/aborted</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E332" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "19685940"</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>create table rozn2_gp.s_grnplm_ld_rozn_electron_hq_core.pa_pprb_pu_history_t as ( select *, cast('alpha' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_alpha_opf_management.private_service_package_history       union all       select *, cast('beta' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_beta_opf_management.private_service_package_history       union all       select *, cast('delta' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_delta_opf_management.private_service_package_history       union all       select *, cast('gamma' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_gamma_opf_management.private_service_package_history )</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>TooManyConnectionsError</t>
+        </is>
+      </c>
+      <c r="E333" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_privatebanking_list_client_all_session_detail" as select 	* from k808_rx_hdp.t_team_sva_oarb."42_privatebanking_list_client_all_session_detail"</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E334" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>SELECT * from t_cars_kap.Tolyan_26112024_3</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E335" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Tried to access metastore after transaction has been committed/aborted</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E336" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>line 1:12: Column 'date_end' cannot be resolved</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>select max(date_end) from k808_rx_hdp.prx_55_gev_crm_acq_internal_crm_rb2_siebel.cx_acq_srv_req</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>MissingColumnError</t>
+        </is>
+      </c>
+      <c r="E337" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>select * from t_cars_kap.Tolyan_26112024_33</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E338" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>line 2:89: mismatched input 'ф'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_rrn_oarbvvb_1542_1777_crd_stream_dc_success_polis" ф</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E339" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Query text length (1051638) exceeds the maximum length (1000000)</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>insert into idlist values (24284927820300,date'2023-11-03'), (3540617786182,date'2021-11-10'), (3710951187724,date'2022-02-15'), (10816370250,date'2022-02-15'), (3568401148548,date'2023-04-29'), (2815338303181,date'2022-04-07'), (2076044641381,date'2022-05-18'), (2881075686820,date'2022-02-16'), (4390041699050,date'2023-05-15'), (23037963295200,date'2023-07-27'), (1677625593167,date'2023-02-04'), (4647000523024,date'2023-05-15'), (2544742336610,date'2022-01-25'), (2364268651905,date'2023-04-22'), (12516096640,date'2023-04-22'), (3068488868561,date'2023-04-22'), (3564357179800,date'2023-04-22'), (1475551294291,date'2021-02-05'), (1020181820,date'2021-02-05'), (1446394650682,date'2021-02-05'), (1623441245975,date'2021-06-17'), (1509193737259,date'2021-07-14'), (613042550,date'2021-07-14'), (4164774812823,date'2021-08-11'), (3915128578122,date'2021-08-11'), (4183861410843,date'2021-08-12'), (1053273770,date'2021-08-15'), (1506499157188,date'2021-08-15'), (1544175893089,date'2021-08-26'), (1295840407722,date'2021-08-31'), (502741045,date'2021-08-31'), (2239806204654,date'2021-09-08'), (4569685063215,date'2021-09-20'), (514096348,date'2021-09-29'), (3248590436482,date'2021-09-29'), (4175521923363,date'2021-10-08'), (4174231888699,date'2021-10-14'), (1446410254077,date'2021-10-14'), (1544250503037,date'2021-10-14'), (2427079050,date'2021-11-08'), (2419342924848,date'2021-11-08'), (4569676678567,date'2021-10-31'), (4569691101895,date'2021-10-31'), (4569679565503,date'2021-10-31'), (30645474793,date'2021-03-26'), (37128675549,date'2021-03-26'), (4569235062406,date'2020-12-15'), (4249798913376,date'2020-10-31'), (4243257261543,date'2020-10-31'), (4780893960,date'2020-10-31'), (3031472102027,date'2023-03-17'), (,date'2023-03-17'), (69233176747832,date'2024-04-09'), (4003484653982,date'2024-01-27'), (874447599575,date'2020-12-21'), (1715661970266,date'2020-10-15'), (2602944651863,date'2020-10-15'), (416121296,date'2020-10-15'), (1544206179280,date'2020-11-27'), (1844054940,date'2020-11-27'), (3865509919209,date'2023-04-14'), (3685643598870,date'2022-06-10'), (4522713452990,date'2022-06-10'), (3271433678655,date'2022-11-15'), (3114113706529,date'2022-11-15'), (3109751635170,date'2022-11-15'), (3167919177038,date'2022-11-15'), (3114113706529,date'2022-11-15'), (3109751635170,date'2022-11-15'), (3167919177038,date'2022-11-15'), (19914369425100,date'2024-03-05'), (5269078322874,date'2024-01-18'), (41743416067500,date'2024-01-18'), (2867081933506,date'2024-01-18'), (4834237958596,date'2024-01-18'), (614512667,date'2024-01-18'), (5379429910,date'2024-01-29'), (2705398956451,date'2024-01-29'), (2671416575933,date'2024-03-06'), (4755179622748,date'2024-01-29'), (12358757420,date'2024-01-29'), (4670186275140,date'2024-01-29'), (4249796017704,date'2024-01-29'), (311572994500,date'2024-01-31'), (8803630750,date'2024-01-31'), (2399405273542,date'2024-03-06'), (1759855210,date'2024-03-06'), (3706383595966,date'2024-03-07'), (3077953782212,date'2024-03-05'), (2995853883509,date'2024-03-05'), (3320072801730,date'2022-02-13'), (3008217240071,date'2022-02-13'), (2627195066362,date'2022-02-13'), (485551157,date'2022-02-13'), (2953263192345,date'2024-02-06'), (13838450160,date'2024-02-06'), (3471698486416,date'2024-03-06'), (2601807556389,date'2024-03-05'), (9120511404375,date'2024-03-05'), (2000000010252500,date'2024-03-05'), (1962955979246,date'2024-03-05'), (2000000004720530,date'2024-03-07'), (1398475880774,date'2024-03-07'), (4269385519983,date'2024-03-07'), (4473687431504,date'2024-02-08'), (5029104750,date'2024-02-08'), (,date'2022-01-21'), (2482501040038,date'2022-01-21'), (,date'2022-01-21'), (14026758360,date'2022-01-21'), (3622041150286,date'2024-03-05'), (13040262290,date'2024-03-05'), (3001328617132,date'2024-03-06'), (3661728445374,date'2022-12-22'), (12740205030,date'2022-12-22'), (2831784590969,date'2022-12-22'), (3465658379090,date'2022-12-22'), (1000000000509930,date'2024-03-06'), (5002490040590,date'2024-03-06'), (5440929259734,date'2024-03-06'), (2831852734684,date'2021-11-15'), (9737553253600,date'2024-03-06'), (3991972520,date'2024-03-06'), (3856082204356,date'2024-03-06'), (13701320550,date'2024-03-05'), (2426728070,date'2024-03-05'), (4698873424178,date'2024-03-05'), (2498627085354,date'2024-01-19'), (387601881,date'2024-01-19'), (5306167318094,date'2024-03-07'), (2000000004243500,date'2024-03-07'), (5406097135186,date'2024-03-07'), (12856673420,date'2021-11-16'), (1563495798006,date'2021-11-16'), (3870179484908,date'2024-03-05'), (3796731904808,date'2024-02-05'), (5295264390720,date'2024-02-05'), (1000000007025330,date'2024-02-05'), (4888483758202,date'2024-02-05'), (4233287400,date'2024-03-05'), (2932080286651,date'2024-03-05'), (8992143469100,date'2024-03-05'), (4564068888294,date'2024-03-05'), (3712648493054,date'2024-03-05'), (1938635470,date'2024-03-05'), (2208320974148,date'2024-03-05'), (2913068810473,date'2021-11-11'), (5290490733990,date'2024-03-07'), (9507549634559,date'2024-03-07'), (4369892561964,date'2024-03-07'), (4055065509508,date'2024-03-07'), (2000000004806060,date'2024-03-07'), (2434287214066,date'2021-11-12'), (384943246,date'2021-11-12'), (4221651262120,date'2024-03-07'), (10629089320,date'2024-03-07'), (4542016740440,date'2024-03-07'), (3077151067217,date'2024-03-07'), (7096273345281,date'2021-11-19'), (7253176424246,date'2021-11-19'), (1446307232746,date'2021-11-19'), (2519848129329,date'2021-11-19'), (9164969040,date'2024-01-19'), (4718156461952,date'2024-01-19'), (4999726847294,date'2024-01-19'), (2006283343718,date'2021-11-10'), (439385776,date'2021-11-10'), (3472779018878,date'2024-03-07'), (2186377271375,date'2024-03-07'), (6945381180,date'2024-03-07'), (3806334988814,date'2024-03-07'), (4153869539910,date'2024-03-07'), (3950267651794,date'2024-03-07'), (2000000007106170,date'2024-03-06'), (4020585453186,date'2024-03-06'), (1742108965725,date'2024-03-06'), (4178838024312,date'2021-11-11'), (887429415022,date'2021-11-11'), (3311638782347,date'2021-11-11'), (626848037,date'2021-11-11'), (2510438051887,date'2024-03-06'), (5171723599428,date'2024-03-06'), (4428219982892,date'2024-03-06'), (16259957730,date'2024-03-06'), (3046443097810,date'2024-03-06'), (4620199767374,date'2024-02-01'), (3733303791612,date'2024-02-01'), (3766345147324,date'2024-02-01'), (3843649840430,date'2024-02-01'), (3642063528692,date'2024-02-01'), (3694525546614,date'2024-02-01'), (9996150690,date'2024-02-01'), (3506887911608,date'2024-02-01'), (4980515021508,date'2024-03-06'), (16730515430,date'2024-03-06'), (4806328410934,date'2024-03-06'), (1578560881301,date'2024-03-06'), (1578577768459,date'2024-03-06'), (1578564445905,date'2024-03-06'), (1736358120,date'2024-03-06'), (11813002987000,date'2024-02-06'), (1000000004799460,date'2024-02-06'), (7093875841700,date'2024-02-06'), (583602862,date'2024-01-29'), (3657299433436,date'2024-01-29'), (8421123950,date'2024-03-05'), (3092052788097,date'2024-03-05'), (3855263091812,date'2024-03-05'), (1431456450017,date'2021-11-18'), (1623381196916,date'2024-03-05'), (3032392929012,date'2024-03-05'), (4000000005291770,date'2024-03-05'), (4488388439072,date'2024-03-05'), (4683878157608,date'2024-03-05'), (620358788,date'2024-01-29'), (1623310078951,date'2024-01-29'), (4139960451634,date'2021-11-11'), (3378086476690,date'2021-11-11'), (12308114330,date'2021-11-11'), (3652213627316,date'2021-11-11'), (2984363870646,date'2023-11-13'), (5685707980,date'2023-11-13'), (4227594707881,date'2021-11-02'), (4227586416482,date'2021-11-02'), (46555855255800,date'2024-01-22'), (2000000009800610,date'2024-01-22'), (40180420795700,date'2024-01-22'), (2736427220017,date'2024-01-22'), (43528892014100,date'2024-01-22'), (48495117046631,date'2024-01-22'), (832974080092,date'2023-12-01'), (,date'2023-09-20'), (,date'2023-09-20'), (1577055091960,date'2023-09-20'), (615597603,date'2023-12-04'), (1623011302015,date'2023-12-04'), (,date'2023-12-04'), (,date'2023-12-04'), (8046668224217,date'2023-11-07'), (3490040633402,date'2023-11-07'), (2054509394950,date'2023-11-07'), (3783406080898,date'2023-11-07'), (14028490340,date'2023-11-07'), (3584197590330,date'2023-11-07'), (1779572598406,date'2023-05-10'), (1623450757109,date'2023-02-07'), (1996683113863,date'2020-07-15'), (233230212,date'2020-07-15'), (1623450757109,date'2023-02-07'), (4555183101890,date'2022-01-25'), (4154838010470,date'2023-01-24'), (4163487602194,date'2022-10-21'), (4161699440454,date'2022-10-21'), (3025387819794,date'2021-12-14'), (1605048578246,date'2021-10-19'), (2702159954415,date'2024-06-04'), (192274354,date'2021-12-28'), (2952581533850,date'2021-12-28'), (82052622101,date'2021-12-28'), (4670466082752,date'2023-04-14'), (3867612063966,date'2023-12-06'), (4304186118950,date'2023-11-10'), (4836966772078,date'2024-07-17'), (4466971195444,date'2024-07-17'), (4874557902090,date'2024-06-24'), (4452557553862,date'2024-02-12'), (7161180369100,date'2023-02-11'), (3681544655140,date'2024-07-08'), (10344134056600,date'2024-05-10'), (5339851997882,date'2024-05-13'), (1543924296240,date'2022-09-12'), (2345665281310,date'2024-05-13'), (3614904021228,date'2024-06-26'), (7603720509599,date'2024-10-08'), (7523040400951,date'2024-10-08'), (8173998370945,date'2024-10-08'), (39787704957,date'2023-05-18'), (3329840132273,date'2023-07-14'), (4189543269113,date'2023-07-14'), (4217593640232,date'2023-07-14'), (4113782574778,date'2023-07-14'), (4609894705542,date'2023-05-19'), (1446422427422,date'2021-11-10'), (1776176211275,date'2021-11-10'), (3271619880,date'2021-11-10'), (7450567630,date'2021-11-12'), (2968943591587,date'2021-11-12'), (1623447635524,date'2021-11-12'), (1751123800787,date'2021-11-12'), (2918494542775,date'2021-11-15'), (4160694850512,date'2021-11-15'), (4153859538388,date'2021-11-15'), (3000000006111706,date'2021-11-16'), (1515932853498,date'2021-11-16'), (1578638575185,date'2021-11-16'), (1515999962846,date'2021-11-16'), (8000000005441938,date'2021-11-16'), (1533501866890,date'2021-12-28'), (2674634854539,date'2021-11-16'), (4000000006787560,date'2021-11-16'), (1407579542444,date'2021-11-17'), (1655403880,date'2021-11-17'), (3010175482088,date'2021-11-15'), (1438223288279,date'2021-11-19'), (2620654990,date'2021-11-19'), (1623461822395,date'2021-11-19'), (3038003459795,date'2021-11-19'), (9867051260,date'2021-11-19'), (2981759329249,date'2021-11-19'), (2843024657456,date'2021-11-19'), (2832152946429,date'2021-11-22'), (3522537959168,date'2021-11-22'), (2843678296086,date'2021-11-22'), (7528238903653,date'2021-11-22'), (4000000007836372,date'2021-11-22'), (3104293487190,date'2021-11-22'), (6745908853372,date'2021-11-22'), (6617701410444,date'2021-11-22'), (313818769443,date'2021-11-22'), (3098666270,date'2021-11-22'), (2899291248971,date'2021-11-22'), (2396708204693,date'2021-11-23'), (1578328640614,date'2021-11-23'), (3451368130,date'2021-11-23'), (,date'2021-11-23'), (3073147013703,date'2021-11-23'), (2610102671258,date'2021-11-23'), (2462269382464,date'2021-11-24'), (334453815530,date'2021-11-24'), (,date'2021-11-24'), (,date'2021-11-24'), (1428546229294,date'2021-11-24'), (516097527,date'2021-11-24'), (,date'2021-11-24'), (305974651618,date'2021-11-24'), (44399657686,date'2021-11-24'), (2158266880619,date'2021-11-24'), (1087979390,date'2021-11-25'), (3039406397307,date'2021-11-25'), (2959125911135,date'2021-11-25'), (1544300741249,date'2021-11-25'), (2076273426380,date'2021-11-25'), (1677277855696,date'2021-11-25'), (12926646410,date'2021-11-26'), (2997112171767,date'2021-11-26'), (434197933,date'2021-11-26'), (1714484525396,date'2021-11-26'), (1905100197582,date'2021-11-26'), (2722577966350,date'2021-11-26'), (589347793,date'2021-11-26'), (7129835360302,date'2021-11-26'), (6000000001653717,date'2021-11-26'), (3999033206952,date'2021-11-26'), (2837957383801,date'2021-11-26'), (2996401203393,date'2021-11-29'), (979698340,date'2021-11-29'), (2799008926100,date'2021-11-29'), (1806215904645,date'2021-11-29'), (4218861635606,date'2021-11-29'), (105568821,date'2021-11-29'), (3929039746862,date'2021-11-29'), (2717026102402,date'2021-11-29'), (2811466076240,date'2021-11-29'), (3294226639228,date'2021-11-29'), (4112863539986,date'2021-11-30'), (3591783610,date'2021-11-30'), (3900638052832,date'2021-11-30'), (4569708686335,date'2021-12-01'), (4370733561434,date'2021-12-01'), (3787872448868,date'2021-12-01'), (4090755541026,date'2021-12-01'), (1769232392858,date'2021-12-01'), (13914961860,date'2021-12-01'), (,date'2021-12-02'), (3077240291318,date'2021-12-02'), (8158492360,date'2021-12-02'), (2615486925450,date'2021-12-02'), (10520449710,date'2021-12-02'), (2419189618343,date'2021-12-02'), (8000000006792541,date'2021-12-06'), (7325486072048,date'2021-12-06'), (6341143955552,date'2021-12-06'), (7182126176165,date'2021-12-06'), (7190880421732,date'2021-12-06'), (6897845815317,date'2021-12-06'), (7125574748899,date'2021-12-06'), (7255932405818,date'2021-12-06'), (8000000006632400,date'2021-12-06'), (290429451398,date'2021-12-06'), (2499783150329,date'2021-12-06'), (7000000005575743,date'2021-12-06'), (2352872216492,date'2021-12-06'), (2659014170914,date'2021-12-06'), (2952246084725,date'2021-12-06'), (2231066319211,date'2021-12-06'), (13160855020,date'2021-12-07'), (3000000006561651,date'2021-12-07'), (1568880692730,date'2021-12-07'), (1470003532209,date'2021-12-07'), (4569718048698,date'2021-12-07'), (1000000011218358,date'2021-12-07'), (4569707226485,date'2021-12-07'), (2598422044141,date'2021-12-07'), (1789341532300,date'2021-12-08'), (2000000011735969,date'2021-12-08'), (2492834523438,date'2021-12-08'), (4000000006834961,date'2021-12-08'), (2365513604460,date'2021-12-09'), (3292380290302,date'2021-12-09'), (8000000005658879,date'2021-12-09'), (2828971311489,date'2021-12-09'), (3144505780731,date'2021-12-10'), (6000000002738939,date'2021-12-10'), (1748017581828,date'2021-12-10'), (9326687400,date'2021-12-10'), (2861518320891,date'2021-12-10'), (3939351275086,date'2021-12-10'), (2854719248614,date'2021-12-13'), (2466613937398,date'2021-12-13'), (1578555080378,date'2021-12-14'), (8000000005686457,date'2021-12-14'), (2439666027747,date'2021-12-14'), (2416422192396,date'2021-12-15'), (2485430990048,date'2021-12-15'), (2686472881001,date'2021-12-15'), (4000000006620822,date'2021-12-15'), (459983032,date'2021-12-15'), (1751106667742,date'2021-12-15'), (1751109040624,date'2021-12-15'), (,date'2021-12-15'), (1677078959926,date'2021-12-15'), (2560267620,date'2021-12-15'), (2772607220,date'2021-12-15'), (2948972732324,date'2021-12-15'), (3067925046092,date'2021-12-15'), (197971476394,date'2021-12-15'), (2400603299563,date'2021-12-15'), (1544147983621,date'2021-12-15'), (,date'2021-12-15'), (6000000002837148,date'2021-12-15'), (,date'2021-12-15'), (7429797460,date'2021-12-15'), (2895233412494,date'2021-12-15'), (3131124114711,date'2021-12-15'), (2744556860258,date'2021-12-16'), (4180008810895,date'2021-12-16'), (8000000005618145,date'2021-12-16'), (1622853848584,date'2021-12-16'), (3951076612432,date'2021-12-17'), (3093335690847,date'2021-12-17'), (592540301,date'2021-12-17'), (331585239369,date'2021-12-17'), (1677134188720,date'2021-12-17'), (2768910609144,date'2021-12-17'), (3100598849525,date'2021-12-17'), (2849958848907,date'2021-12-17'), (1544042317271,date'2021-12-17'), (1622833391718,date'2021-12-20'), (,date'2021-12-20'), (1685428494822,date'2021-12-20'), (2635895959032,date'2021-12-20'), (2670371613508,date'2021-12-20'), (2479049268108,date'2021-12-20'), (11577145420,date'2021-12-20'), (1621758412819,date'2021-12-21'), (2230292369550,date'2021-12-22'), (,date'2021-12-22'), (919863610638,date'2021-12-23'), (1400757233343,date'2021-12-23'), (,date'2021-12-23'), (8000000005524348,date'2021-12-23'), (,date'2021-12-23'), (2150461666629,date'2021-12-23'), (,date'2021-12-23'), (,date'2021-12-24'), (,date'2021-12-24'), (2500045439265,date'2021-12-24'), (7429423695972,date'2021-12-24'), (1953343088310,date'2021-12-24'), (3000000006203152,date'2021-12-24'), (6910267306410,date'2021-12-24'), (7429422468710,date'2021-12-24'), (6979150725905,date'2021-12-24'), (2993192399592,date'2021-12-24'), (472887076,date'2021-12-24'), (,date'2021-12-24'), (,date'2021-12-24'), (1515993477633,date'2021-12-24'), (,date'2021-12-24'), (,date'2021-12-24'), (3312556822442,date'2021-12-24'), (6000000002868319,date'2021-12-24'), (5876201753415,date'2021-12-24'), (2549662130643,date'2021-12-24'), (4569703704391,date'2021-12-26'), (1543908399649,date'2021-12-26'), (1543908414433,date'2021-12-26'), (333769519501,date'2021-12-28'), (3000000007523263,date'2021-12-28'), (3969531337328,date'2021-12-28'), (3619443719612,date'2021-12-28'), (4301389212926,date'2021-12-28'), (2793231963947,date'2021-12-29'), (10752477410,date'2021-12-29'), (4106207480,date'2021-12-29'), (1814746560282,date'2021-12-29'), (2000000011782521,date'2021-12-29'), (2350017724856,date'2021-12-29'), (2817539716167,date'2021-12-29'), (6000000002748501,date'2021-12-29'), (2606500281866,date'2021-12-29'), (1000000011287281,date'2021-12-29'), (1991812320960,date'2021-12-29'), (1508790360762,date'2021-12-30'), (715467230,date'2021-12-30'), (2159736198094,date'2021-12-30'), (9934589940,date'2022-01-10'), (2692213806317,date'2022-01-10'), (,date'2022-01-10'), (,date'2022-01-10'), (3245884238816,date'2022-01-10'), (13575337870,date'2022-01-10'), (3003442933175,date'2022-01-10'), (3068794715799,date'2022-01-10'), (1736970289252,date'2022-01-10'), (2773129550,date'2022-01-10'), (3466662605468,date'2022-01-11'), (1494084652990,date'2022-01-11'), (2472611408941,date'2022-01-11'), (3020080391073,date'2022-01-28'), (2557229006637,date'2022-01-12'), (445777298,date'2022-01-12'), (2184482126529,date'2022-01-12'), (1111304011524,date'2022-01-12'), (329724609018,date'2022-01-12'), (2000000011727960,date'2022-01-12'), (9534161420,date'2022-01-12'), (2872495246216,date'2022-01-12'), (5000000002843901,date'2022-01-13'), (1422345330901,date'2022-01-13'), (156314829375,date'2022-01-14'), (528097914,date'2022-01-14'), (1623369954625,date'2022-01-14'), (1514518997358,date'2022-01-14'), (2783937594196,date'2022-01-17'), (3939786930638,date'2022-01-17'), (17747407590,date'2022-01-17'), (3859628651956,date'2022-01-17'), (3013467266135,date'2022-01-17'), (2863952763268,date'2022-01-18'), (,date'2022-01-18'), (8000000005521690,date'2022-01-18'), (6186172560,date'2022-01-19'), (3863457011608,date'2022-01-19'), (3170913767654,date'2022-01-19'), (3117034290298,date'2022-01-19'), (1579645204667,date'2022-01-19'), (,date'2022-01-20'), (,date'2022-01-20'), (,date'2022-01-20'), (,date'2022-01-20'), (2780307144366,date'2022-01-20'), (4190378406042,date'2022-01-21'), (8000000005478587,date'2022-01-21'), (898879172934,date'2022-01-21'), (4273399280682,date'2022-01-21'), (507337224,date'2022-01-21'), (3023464360613,date'2022-01-21'), (2624615076555,date'2022-01-21'), (4266375133712,date'2022-01-21'), (2341991183920,date'2022-01-21'), (2022812915940,date'2022-01-21'), (2444037076208,date'2022-01-21'), (1544144476610,date'2022-01-24'), (1441552358870,date'2022-01-24'), (1441552358870,date'2022-01-24'), (4784180890,date'2022-01-24'), (2069659643812,date'2022-01-24'), (3563120138498,date'2022-01-25'), (7153853740,date'2022-01-25'), (2153976808534,date'2022-01-25'), (1731442243112,date'2022-01-25'), (5109730329864,date'2022-01-25'), (1600448852698,date'2022-01-26'), (7000000005588277,date'2022-01-26'), (1694171371508,date'2022-01-26'), (2630936772105,date'2022-01-26'), (,date'2022-01-27'), (1578567154136,date'2022-01-27'), (4569259572286,date'2022-01-27'), (,date'2022-01-27'), (4569259508828,date'2022-01-27'), (2104601650799,date'2022-01-27'), (,date'2022-01-27'), (2734063171222,date'2022-01-27'), (2662817471183,date'2022-01-27'), (3101762441825,date'2022-01-28'), (3338722484712,date'2022-01-28'), (2195159380,date'2022-01-28'), (4980122337716,date'2022-01-28'), (1594487213515,date'2022-01-28'), (12555428080,date'2022-01-31'), (3871943616170,date'2022-01-31'), (3978803032538,date'2022-01-31'), (3886600865408,date'2022-01-31'), (4000000006496620,date'2022-01-31'), (1676861770296,date'2022-01-31'), (3796927327362,date'2022-01-31'), (3745409311662,date'2022-01-31'), (3142731325225,date'2022-01-31'), (3645307770148,date'2022-01-31'), (3847942933834,date'2022-01-31'), (2850202703503,date'2022-01-31'), (2716560918081,date'2022-01-31'), (1977282509375,date'2022-01-31'), (3098880835799,date'2022-02-01'), (170828330875,date'2022-02-01'), (1927596470682,date'2022-02-02'), (2508284588082,date'2022-02-02'), (10514238730,date'2022-02-02'), (209734358879,date'2022-02-02'), (3000000006100600,date'2022-02-02'), (2151575235789,date'2022-02-02'), (427630497,date'2022-02-03'), (1543925158836,date'2022-02-03'), (1812170631432,date'2022-02-03'), (1623306548242,date'2022-02-03'), (2000000011876938,date'2022-02-03'), (7253802450996,date'2022-02-03'), (7381756315623,date'2022-02-03'), (2973629888452,date'2022-02-03'), (7339928836839,date'2022-02-03'), (7319743010738,date'2022-02-03'), (15022168320,date'2022-02-03'), (3063371280188,date'2022-02-03'), (1657280098981,date'2022-02-03'), (2776670560987,date'2022-02-03'), (3224068447630,date'2022-02-03'), (4760199460,date'2022-02-03'), (2705062067150,date'2022-02-03'), (2113103305442,date'2022-02-03'), (199508422,date'2022-02-04'), (271357995945,date'2022-02-04'), (2656776671294,date'2022-02-04'), (4761894830,date'2022-02-04'), (2741410072548,date'2022-02-04'), (3776787953604,date'2022-02-04'), (1446325730113,date'2022-02-05'), (1446292181840,date'2022-02-05'), (8000000006462207,date'2022-02-05'), (1446307502370,date'2022-02-05'), (1446329175295,date'2022-02-05'), (1446311952129,date'2022-02-05'), (1446299180583,date'2022-02-05'), (1446402525466,date'2022-02-05'), (2828581355034,date'2022-02-07'), (11411711540,date'2022-02-07'), (1944485090,date'2022-02-07'), (1543929699422,date'2022-02-07'), (,date'2022-02-07'), (6336529655174,date'2022-02-07'), (6338769683263,date'2022-02-07'), (6381039332127,date'2022-02-07'), (4000000006681574,date'2022-02-07'), (,date'2022-02-07'), (2658948982978,date'2022-02-07'), (4333420898844,date'2022-02-07'), (4102474064050,date'2022-02-07'), (3766525231936,date'2022-02-07'), (4307997620,date'2022-02-07'), (1622711786638,date'2022-02-07'), (4000000006626232,date'2022-02-07'), (3104475911544,date'2022-02-07'), (2453907849411,date'2022-02-07'), (,date'2022-02-07'), (4569689331315,date'2022-02-07'), (4569685696805,date'2022-02-07'), (4307447867509,date'2022-02-07'), (4307431562241,date'2022-02-07'), (2780492260935,date'2022-02-08'), (3847718175166,date'2022-02-08'), (4431441626450,date'2022-02-08'), (4434927795686,date'2022-02-08'), (4118194420930,date'2022-02-08'), (3066721472623,date'2022-02-08'), (4432624555378,date'2022-02-08'), (5000000002851052,date'2022-02-08'), (3797232751682,date'2022-02-08'), (7407490121543,date'2022-02-08'), (2949269885826,date'2022-02-08'), (,date'2022-02-08'), (1544284691267,date'2022-02-08'), (2668000605852,date'2022-02-08'), (1466833770,date'2022-02-08'), (2987791183420,date'2022-02-09'), (2000000011723384,date'2022-02-09'), (2548397971794,date'2022-02-09'), (4073714070,date'2022-02-09'), (2685484818243,date'2022-02-10'), (13215655920,date'2022-02-10'), (4000000006736383,date'2022-02-10'), (7387451219496,date'2022-02-10'), (278114844263,date'2022-02-10'), (,date'2022-02-10'), (469759192,date'2022-02-10'), (4098512213302,date'2022-02-10'), (2926327510333,date'2022-02-10'), (4107307937250,date'2022-02-10'), (1528681149943,date'2022-02-10'), (4103642001154,date'2022-02-10'), (3997006910708,date'2022-02-10'), (6928766398812,date'2022-02-10'), (3018310428004,date'2022-02-10'), (1622959075399,date'2022-02-10'), (4129398715314,date'2022-02-10'), (6196381342079,date'2022-02-10'), (3294506223366,date'2022-02-10'), (3412410784424,date'2022-02-10'), (3506458154684,date'2022-02-10'), (6992987880,date'2022-02-10'), (4436354179566,date'2022-02-10'), (5000000002777523,date'2022-02-10'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (3431796811284,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (7000000005425805,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (4207524566858,date'2022-02-11'), (3343651485608,date'2022-02-11'), (4319193283908,date'2022-02-11'), (4455587522724,date'2022-02-11'), (4506717093674,date'2022-02-11'), (4495089724704,date'2022-02-11'), (1544297139603,date'2022-02-11'), (7465363930,date'2022-02-11'), (885024362378,date'2022-02-12'), (890886764615,date'2022-02-12'), (420303845,date'2022-02-12'), (197292582,date'2022-02-12'), (2681476345877,date'2022-02-12'), (4350849804320,date'2022-02-12'), (3820694534762,date'2022-02-12'), (2921306837373,date'2022-02-14'), (3048657952646,date'2022-02-14'), (2468496653920,date'2022-02-14'), (3147203636210,date'2022-02-14'), (2400831213231,date'2022-02-15'), (3296866298312,date'2022-02-16'), (3110001256513,date'2022-02-16'), (3214236644788,date'2022-02-16'), (1093529270,date'2022-02-16'), (3359783762422,date'2022-02-16'), (3489627107020,date'2022-02-16'), (4164990825674,date'2022-02-16'), (1000000000370935,date'2022-02-17'), (3037181046970,date'2022-02-17'), (4300484303968,date'2022-02-17'), (16079950300,date'2022-02-17'), (1623369954625,date'2022-02-17'), (3037839723622,date'2022-02-18'), (3145807563446,date'2022-02-18'), (614678234,date'2022-02-18'), (1431386595856,date'2022-02-18'), (2719877841589,date'2022-02-19'), (3535606652454,date'2022-02-19'), (2895718477592,date'2022-02-19'), (3712211992212,date'2022-02-19'), (,date'2022-02-19'), (1663087385367,date'2022-02-19'), (2635741204394,date'2022-02-19'), (2840278443452,date'2022-02-20'), (2903605337376,date'2022-02-20'), (6000000002886179,date'2022-02-20'), (2716807328609,date'2022-02-20'), (4336145957450,date'2022-02-20'), (4448760185062,date'2022-02-20'), (3301170953144,date'2022-02-20'), (1465322151551,date'2022-02-20'), (1492876698130,date'2022-02-20'), (3924443758166,date'2022-02-20'), (10733195500,date'2022-02-20'), (3000000006422539,date'2022-02-21'), (2928353479280,date'2022-02-21'), (2837984084492,date'2022-02-21'), (4255763714178,date'2022-02-21'), (2481338113743,date'2022-02-21'), (3105419235100,date'2022-02-22'), (1942649605871,date'2022-02-22'), (5289607102748,date'2022-02-22'), (3264635212230,date'2022-02-22'), (3023737609304,date'2022-02-22'), (11347340470,date'2022-02-22'), (3116791405093,date'2022-02-22'), (7184447492441,date'2022-02-24'), (3174826377024,date'2022-02-24'), (3343175048232,date'2022-02-24'), (1000000011210761,date'2022-02-24'), (8471115828023,date'2022-02-24'), (2907502586682,date'2022-02-24'), (3459476197978,date'2022-02-24'), (4000000006698463,date'2022-02-24'), (1571375368727,date'2022-02-24'), (616133521,date'2022-02-24'), (2827871071577,date'2022-02-24'), (2439187415280,date'2022-02-24'), (3850069614472,date'2022-02-24'), (3306184664928,date'2022-02-24'), (1959401664754,date'2022-02-24'), (1767085296685,date'2022-02-25'), (6074470720,date'2022-02-25'), (1477968420,date'2022-02-25'), (1766259827709,date'2022-02-25'), (2365586667780,date'2022-02-25'), (40737905907400,date'2022-02-25'), (2639371699973,date'2022-02-26'), (6779087100,date'2022-02-26'), (2596631299448,date'2022-02-26'), (8794232980,date'2022-02-26'), (4020981096952,date'2022-02-26'), (1016566700,date'2022-02-28'), (1476397080261,date'2022-02-28'), (1767085296685,date'2022-02-28'), (914738905853,date'2022-03-01'), (5000000002774093,date'2022-03-01'), (180661729351,date'2022-03-01'), (8000000005731773,date'2022-03-01'), (1971587994313,date'2022-03-01'), (1542502158135,date'2022-03-01'), (2670377065207,date'2022-03-30'), (6102989000,date'2022-03-01'), (2205212722237,date'2022-03-01'), (2479754672414,date'2022-03-01'), (4424288105734,date'2022-03-02'), (4378921423006,date'2022-03-02'), (2081646631908,date'2022-03-03'), (3310809410,date'2022-03-03'), (1631927436791,date'2022-03-03'), (2571608629956,date'2022-03-04'), (3610240306908,date'2022-03-04'), (4537457032192,date'2022-03-04'), (3105913130670,date'2022-03-04'), (7000000005946145,date'2022-03-04'), (311930773259,date'2022-03-04'), (13219858690,date'2022-03-05'), (2832948010865,date'2022-03-05'), (3267715907964,date'2022-03-05'), (1578511060150,date'2022-03-05'), (3955417656636,date'2022-03-05'), (2765334757454,date'2022-03-05'), (736350160,date'2022-03-05'), (2934323836529,date'2022-03-05'), (3015806912708,date'2022-03-05'), (4133751474730,date'2022-03-05'), (3945088215598,date'2022-03-05'), (3987404499992,date'2022-03-05'), (16215347250,date'2022-03-05'), (2435349045783,date'2022-03-06'), (278114844263,date'2022-03-07'), (7216865416278,date'2022-03-07'), (6842476206830,date'2022-03-07'), (1543924460,date'2022-03-07'), (6000000002810229,date'2022-03-09'), (2779384522649,date'2022-03-09'), (1911096055820,date'2022-03-10'), (211132836,date'2022-03-10'), (4221363759222,date'2022-03-10'), (1677203301346,date'2022-03-10'), (,date'2022-03-10'), (2582216783435,date'2022-03-10'), (1198328040,date'2022-03-10'), (4314969121946,date'2022-03-11'), (2779875472484,date'2022-03-11'), (2576724013347,date'2022-03-11'), (7276633619534,date'2022-03-14'), (15101472770,date'2022-03-14'), (2743349619819,date'2022-03-14'), (1825970501329,date'2022-03-14'), (1426864833741,date'2022-03-14'), (1476352208281,date'2022-03-14'), (4604655296256,date'2022-03-15'), (4603827663570,date'2022-03-15'), (891208260178,date'2022-03-15'), (299131428,date'2022-03-15'), (2974887100813,date'2022-03-15'), (1000000011202175,date'2022-03-15'), (6000000002756192,date'2022-03-15'), (5236310349046,date'2022-03-15'), (,date'2022-03-16'), (,date'2022-03-16'), (3683797723052,date'2022-03-16'), (1623218931019,date'2022-03-17'), (14682615560,date'2022-03-17'), (2974749622286,date'2022-03-17'), (3099723204335,date'2022-03-17'), (1720923231861,date'2022-03-17'), (7000000005859196,date'2022-03-17'), (1932387575213,date'2022-03-17'), (1515978382451,date'2022-03-17'), (1677044912548,date'2022-03-17'), (1705352135386,date'2022-03-17'), (5535969710,date'2022-03-17'), (3764011343046,date'2022-03-17'), (3716897461358,date'2022-03-17'), (3557110768768,date'2022-03-17'), (3913354977996,date'2022-03-17'), (3857041122032,date'2022-03-17'), (3817020410138,date'2022-03-17'), (2921188937323,date'2022-03-17'), (13561680210,date'2022-03-17'), (10174687000,date'2022-03-18'), (2325079169012,date'2022-03-18'), (1630717174545,date'2022-03-18'), (2486767840,date'2022-03-18'), (3118352106919,date'2022-03-21'), (4235702676578,date'2022-03-21'), (4137360592150,date'2022-03-21'), (1578475871254,date'2022-03-21'), (2855875104890,date'2022-03-21'), (2297544152161,date'2022-03-21'), (8000000005397317,date'2022-03-21'), (2178772142284,date'2022-03-21'), (11646844540,date'2022-03-21'), (3127448422668,date'2022-03-21'), (546460097,date'2022-03-21'), (2707158229601,date'2022-03-21'), (,date'2022-03-21'), (2806016147428,date'2022-03-21'), (267598241637,date'2022-03-21'), (,date'2022-03-21'), (3440000776820,date'2022-03-21'), (3648905601790,date'2022-03-21'), (3941983330794,date'2022-03-21'), (3581248431766,date'2022-03-21'), (1945312870,date'2022-03-21'), (1578341346033,date'2022-03-21'), (5000000003504152,date'2022-03-21'), (2834524625353,date'2022-03-21'), (2668082908253,date'2022-03-21'), (3911933089236,date'2022-03-24'), (4390431271828,date'2022-03-24'), (4436751091228,date'2022-03-24'), (4070764749040,date'2022-03-24'), (9326639310,date'2022-03-24'), (891018394699,date'2022-03-22'), (4138036402348,date'2022-03-22'), (4204837591526,date'2022-03-22'), (3047533649306,date'2022-03-22'), (4000000006675769,date'2022-03-22'), (3115012337393,date'2022-03-22'), (1594300130146,date'2022-03-22'), (3046664280420,date'2022-03-22'), (2617970946746,date'2022-03-22'), (13215211420,date'2022-03-22'), (2794015529634,date'2022-03-22'), (2368153486949,date'2022-03-22'), (,date'2022-03-22'), (2931086213199,date'2022-03-22'), (1622846545155,date'2022-03-22'), (4116406755858,date'2022-03-22'), (2135020992406,date'2022-03-23'), (2049236096348,date'2022-03-23'), (2225606458226,date'2022-03-23'), (161858202,date'2022-03-23'), (3599767913556,date'2022-03-23'), (2703969577336,date'2022-03-24'), (3136317597836,date'2022-03-24'), (3000000006157345,date'2022-03-24'), (2466169779380,date'2022-03-24'), (5315964250,date'2022-03-24'), (1623186164241,date'2022-03-24'), (2629001201653,date'2022-03-24'), (5000000003083473,date'2022-03-24'), (,date'2022-03-24'), (,date'2022-03-25'), (3020960667144,date'2022-03-25'), (,date'2022-03-25'), (2958076886452,date'2022-03-25'), (1570467056884,date'2022-03-25'), (2845514292956,date'2022-03-25'), (4431012807614,date'2022-03-25'), (,date'2022-03-25'), (4000000006701356,date'2022-03-25'), (1578490253575,date'2022-03-26'), (1578512938041,date'2022-03-26'), (1578552551209,date'2022-03-26'), (8000000005539577,da</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>QueryTooLargeError</t>
+        </is>
+      </c>
+      <c r="E340" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>line 2:6: Schema 'arnsdpsbx_t_team_sva_oarb' does not exist</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>select* from k808_rx_hdp.arnsdpsbx_t_team_sva_oarb."40_pev_mkk_obr_191224_part_2" limit 10</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>MissingSchemaError</t>
+        </is>
+      </c>
+      <c r="E341" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>line 1:33: mismatched input ')'. Expecting: 'AS'</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>select max(cast(creation_date_dd) as date) from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_efs_old"</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E342" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) FROM (select * from k808_rx_hdp.prx_55_sai_custom_rb_card_custom_rb_card."scd_card_union" ) dbvrcnt</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E343" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>line 1:1: Destination table 'capgp3_gp.s_grnplm_ld_audit_da_emitent.42_pb1_divrstat_session_detail' already exists</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" as SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>ObjectAlreadyExistsError</t>
+        </is>
+      </c>
+      <c r="E344" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" as SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>TooManyConnectionsError</t>
+        </is>
+      </c>
+      <c r="E345" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Current transaction is aborted, commands ignored until end of transaction block</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>SELECT * FROM k808_rx_hdp.prx_kap_prime_dzo_epfb2c_sprm.subscription</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E346" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>TooManyConnectionsError</t>
+        </is>
+      </c>
+      <c r="E347" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>line 1:1: Table 'k808_rx_hdp.t_cars_kap.document_removed_box_cars_1_1' does not exist</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>drop table t_cars_kap.document_removed_BOX_cars_1_1</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>MissingObjectError</t>
+        </is>
+      </c>
+      <c r="E348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb4_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>TooManyConnectionsError</t>
+        </is>
+      </c>
+      <c r="E349" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>line 3:196: mismatched input 'б'. Expecting: ',', 'EXCEPT', 'FETCH', 'FROM', 'GROUP', 'HAVING', 'INTERSECT', 'LIMIT', 'OFFSET', 'ORDER', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>select   try_cast(replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') as decimal(32,2)) sumaб n.sms_text from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2" n</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E350" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>line 1:40: mismatched input '&lt;EOF&gt;'. Expecting: ')'</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>select position('(\d+)' in 'fhg4jfh125'</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E351" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>line 1:72: mismatched input '('. Expecting: 'IF', &lt;identifier&gt;</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>alter table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics add column( select video_origination_list  from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend )</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E352" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>line 26:1: mismatched input ')'. Expecting: '%', '*', '+', ',', '-', '.', '/', 'AND', 'AT', 'EXCEPT', 'FETCH', 'INTERSECT', 'LIMIT', 'OFFSET', 'OR', 'ORDER', 'UNION', '[', '||', &lt;EOF&gt;, &lt;predicate&gt;</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>insert into clist values ('C22928284',date'2024-01-21'), ('C54828516',date'2024-01-12'), ('C132776421',date'2024-01-18'), ('C45653488',date'2024-01-18'), ('C129179074',date'2024-01-24'), ('C35104445',date'2024-01-24'), ('C91963364',date'2024-01-24'), ('C13092638',date'2024-04-16'), ('C90332826',date'2024-01-25'), ('C111755880',date'2024-01-09'), ('C109891736',date'2024-01-26'), ('C125106118',date'2024-01-29'), ('C83116463',date'2024-01-29'), ('C139020419',date'2024-01-29'), ('C33698274',date'2024-01-29'), ('C5364134',date'2024-01-29'), ('C141046547',date'2024-01-30'), ('C16270447',date'2024-01-30'), ('C55289243',date'2024-01-30'), ('C138519942',date'2024-01-30'), ('C105970003',date'2024-01-31'), ('C115592010',date'2024-01-31'), ('C125057534',date'2024-02-14'), ('C129801742',date'2024-01-31') )  select c.ceshka,c.dt,dmc.client_id,dma.account_id,dca.client_role_id from   clist                         l join   prx_kalita_otchetnaya_1_internal_kalita_report_kalita_gg.dm_client         dmc on dmc.client_ext_id=l.ceshka join   prx_kalita_otchetnaya_1_internal_kalita_report_kalita_gg.dm_client_account dca on dca.client_id=dmc.client_id and dca.client_role_id in (1,2)</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E353" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>line 1:27: mismatched input '.42'. Expecting: '.', &lt;EOF&gt;</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>drop table t_team_sva_oarb.42_rrn_oarbvvb_1542_1777_crd_stream_no_suff_funds_res</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E354" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>line 1:1: mismatched input 'favorKitConnectFlow_v2'. Expecting: 'ALTER', 'ANALYZE', 'CALL', 'COMMENT', 'COMMIT', 'CREATE', 'DEALLOCATE', 'DELETE', 'DENY', 'DESC', 'DESCRIBE', 'DROP', 'EXECUTE', 'EXPLAIN', 'GRANT', 'INSERT', 'MERGE', 'PREPARE', 'REFRESH', 'RESET', 'REVOKE', 'ROLLBACK', 'SET', 'SHOW', 'START', 'TRUNCATE', 'UPDATE', 'USE', &lt;query&gt;</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>favorKitConnectFlow_v2 CS				show												Статус с сообщением, что заявка "Готово!" на подкл пакета. есть код пакета 				favorKitListFlow CS						Show													Статус с сообщением, что заявка "Готово!" на подкл пакета. есть код пакета 				ServicePackages favorKitConnectFlow_v2 CE show - Статус о недоступности сервиса (технические проблемы на стороне backend) code packet 				ServicePackages favorKitListFlow CE Show - Статус о недоступности сервиса (технические проблемы на стороне backend) code packet 				ServicePackages favorKitListFlow CB Show - Статус о блокировке операции (фрод, стоп-листы) code packet 				ServicePackages favorKitConnectFlow_v2 CB show - Статус о блокировке операции (фрод, стоп-листы) code packet 				ServicePackages confirmClientIb favorKitInfoOffer PDF click  Карточка неподключенного тарифного плана, есть код пакета 				ServicePackages favorKitListFlow favorKitInfoOffer Show Карточка неподключенного тарифного плана, есть код пакета 				ServicePackages favorKitListFlow TechnicalError 				ServicePackages favorKitConnectFlow_v2 TechnicalError Пакеты услуг  ServicePackages favorKitListFlow TechnicalError  ServicePackages favorKitDisconnectFlow_v2 TechnicalError ServicePackages favorKitListFlow favorKitInfo_v2Offer Click ServicePackages favorKitListFlow favorKitInfo_v2Offer PDF Click</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E355" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb4_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>TooManyConnectionsError</t>
+        </is>
+      </c>
+      <c r="E356" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>line 10:1: mismatched input 'from'. Expecting: '*', &lt;expression&gt;</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>select first_value (c.tb) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS tb, first_value (c.osb) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS osb, first_value (c.vsp) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS vsp, c.docnumber, c.name, first_value (c.openingdate) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS openingdate, first_value (c.closingdate) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS closingdate,  from t_cars_kap.vklad_close</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E357" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>create table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics  as select user_id, play_start_dttm, play_duration_sec, subscription_uid, serial_name, video_origination_list   from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E358" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>create table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics  as select user_id, play_start_dttm, play_duration_sec, subscription_uid, serial_name, video_origination_list   from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E359" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер%в сумме%' then split((split(sms_text,' в сумме')[1]),'на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>TypeError</t>
+        </is>
+      </c>
+      <c r="E360" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер % в сумме%' then split((split(sms_text,' в сумме')[1]),'на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>TypeError</t>
+        </is>
+      </c>
+      <c r="E361" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер % в сумме%' then split((split(sms_text,' в сумме')[1]),'Автоплатёж на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>TypeError</t>
+        </is>
+      </c>
+      <c r="E362" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."p_vp_sb_pk_and_pt_pi_pr_pp" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp"</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E363" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
           <t>Value cannot be cast to date: 2023-10-28 16:23:37</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
+      <c r="C364" t="inlineStr">
         <is>
           <t>select c.sbercrm_alpha_id, c.offer_status, CAST(c.created_date AS date) AS created_date, date_parse(updated_date, '%Y-%m-%d %H:%i:%s') AS updated_date     from  k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer  c   limit 10</t>
         </is>
       </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>TypeError</t>
-        </is>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>CastError</t>
+        </is>
+      </c>
+      <c r="E364" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Value cannot be cast to date: 2023-10-28 16:23:37</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>select c.sbercrm_alpha_id, c.offer_status, CAST(c.created_date AS date) AS created_date, date_parse(updated_date, '%Y-%m-%d %H:%i:%s') AS updated_date     from  k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer  c   limit 10</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>CastError</t>
+        </is>
+      </c>
+      <c r="E365" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."p_vp_sb_pk_and_pt_pi_pr_pp" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp"</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E366" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp_two_ac" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp_two_ac"</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E367" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>create table k808_rx_hdp.t_team_cxdata.gptable_test3 as select * from sfd_gpgw_gp.prx_trino_sbb_test_v1_s_grnplm_vd_rozn_mpp_daas_h_6fu.ft_sbol_csa_token_ahd_view</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E368" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Could not communicate with the remote task. The node may have crashed or be under too much load. This is probably a transient issue, so please retry your query in a few minutes. (pvlos-ldtrn0002.cloud.df.sbrf.ru:8443)</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>SELECT * FROM k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_agreement a 	inner join k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_tst t on (t.agreement_short_foreign_key=a.id) order by accountnumber limit 10</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>line 1:1: Table 'k808_rx_hdp.prx_22085832_eks_rosstat_selfservice_acsbar_rosstat.ip_main' does not exist</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>desc k808_rx_hdp.prx_22085832_eks_rosstat_selfservice_acsbar_rosstat.ip_main</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>MissingObjectError</t>
+        </is>
+      </c>
+      <c r="E370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>line 3:6: Table 'sfd_hdfsgw_hdp.prx_lazarev_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.scd_stoplist' does not exist</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_lazarev_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.scd_stoplist limit 100</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>MissingObjectError</t>
+        </is>
+      </c>
+      <c r="E371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_project_12."42_zay_kf_kk_" select  * from k808_rx_hdp.t_team_sva_oarb."01889660_1701_zay_tran_kk_rz_st"</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E372" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>line 2:33: mismatched input '.42'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb.42_rrn_oarbvvb_1542_1897_base limit 100</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E373" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>line 23:1: mismatched input 'from'. Expecting: '*', &lt;expression&gt;</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>select udate_v, case 	 		when length(time_v)=6 then time_v 		when length(time_v)=5 then concat('0',time_v) 		when length(time_v)=4 then concat('00',time_v) 		when length(time_v)=3 then concat('000',time_v) 		when length(time_v)=2 then concat('0000',time_v) 		when length(time_v)=1 then concat('00000',time_v) 	end time_v, case 	 		when length(switch_date_v)=6 then switch_date_v 		when length(switch_date_v)=5 then concat('0',switch_date_v) end  switch_date_v, case 	 		when length(switch_time_v)=6 then switch_time_v 		when length(switch_time_v)=5 then concat('0',switch_time_v) 		when length(switch_time_v)=4 then concat('00',switch_time_v) 		when length(switch_time_v)=3 then concat('000',switch_time_v) 		when length(switch_time_v)=2 then concat('0000',switch_time_v) 		when length(switch_time_v)=1 then concat('00000',switch_time_v) 	end switch_time_v, from ( select  cast(cast(udateas bigint) as varchar) udate_v, cast(cast(time as bigint) as varchar) time_v, cast(cast(switch_date as bigint) as varchar) switch_date_v, cast(cast(switch_time as bigint) as varchar) switch_time_v from k808_rx_hdp.t_team_sva_oarb."42_lyubi_transport_resp_sv") sv</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E374" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb" as  select * from k808_rx_hdp.t_team_sva_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb"</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E375" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "21608829"</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb" as  select * from k808_rx_hdp.t_team_sva_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb"</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>TooManyConnectionsError</t>
+        </is>
+      </c>
+      <c r="E376" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Query exceeded per-node memory limit of 10GB [Allocated: 9.99GB, Delta: 9.33MB, Top Consumers: {HashAggregationOperator=9.94GB, ExchangeOperator=43.04MB, LazyOutputBuffer=10.79MB}]</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>select  	array_agg(covrd_risk_name),  	prod_module_name from k808_rx_hdp.prx_55_lys_ub_base_custom_fin_dmmidub.t_base_policy_insrbl_covrg_feat group by prod_module_name  limit 1</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E377" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."55_grin_credit_decl_db" as ( 	SELECT * 	FROM k808_rx_hdp.t_team_sva_oarb."55_grin_credit_requests_full_new_cl" c 		left join k808_rx_hdp.t_team_sva_oarb."55_osa_z_decl_on_get_cred_for_liza" d 		on (c.app_number = d."z_decl_on_get_cred%c_num_decl" or c.app_number = d."z_decl_on_get_cred%c_tab_number") 	)</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E378" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>line 2:1: mismatched input 'FROM'. Expecting: 'ALTER', 'ANALYZE', 'CALL', 'COMMENT', 'COMMIT', 'CREATE', 'DEALLOCATE', 'DELETE', 'DENY', 'DESC', 'DESCRIBE', 'DROP', 'EXECUTE', 'EXPLAIN', 'GRANT', 'INSERT', 'MERGE', 'PREPARE', 'REFRESH', 'RESET', 'REVOKE', 'ROLLBACK', 'SET', 'SHOW', 'START', 'TRUNCATE', 'UPDATE', 'USE', &lt;query&gt;</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>FROM k808_rx_hdp.a</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E379" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>line 2:7: Schema 'arnsdpsbx_t_team_compliance_prototype' does not exist</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>select *  from k808_rx_hdp.arnsdpsbx_t_team_compliance_prototype.t_tab</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>MissingSchemaError</t>
+        </is>
+      </c>
+      <c r="E380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Query exceeded the maximum execution time limit of 120.00s</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E381" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/sql_dataset_real.xlsx
+++ b/sql_dataset_real.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>select * FROM sfd_hdfsgw_hdp.prx_pprb_platform_masspay_platform_masspay.com_sbt_salary_mp_entities_list_element_masspaymentrosterlistelement limit 100</t>
+          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,   COLUMN_NAME, COLUMN_TYPE, DATA_TYPE, TYPE_NAME,   PRECISION, LENGTH, SCALE, RADIX,   NULLABLE, REMARKS, COLUMN_DEF, SQL_DATA_TYPE, SQL_DATETIME_SUB,   CHAR_OCTET_LENGTH, ORDINAL_POSITION, IS_NULLABLE, SPECIFIC_NAME FROM system.jdbc.procedure_columns ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME, COLUMN_NAME LIMIT 0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,   COLUMN_NAME, COLUMN_TYPE, DATA_TYPE, TYPE_NAME,   PRECISION, LENGTH, SCALE, RADIX,   NULLABLE, REMARKS, COLUMN_DEF, SQL_DATA_TYPE, SQL_DATETIME_SUB,   CHAR_OCTET_LENGTH, ORDINAL_POSITION, IS_NULLABLE, SPECIFIC_NAME FROM system.jdbc.procedure_columns ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME, COLUMN_NAME LIMIT 0</t>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_03406946_omega_sbrf_ru.v_is0929_raskovalov limit 10</t>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_1507_voskob_tb_zp_acc2" select a.*, t.opcode, t.opkind, t.externalkind, t.opno, t.opcash, t.balance, t.opday from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1507_voskob_tb_zp_acc" a join sfd_hdfsgw_hdp.prx_cod_deposit_data_opt_internal_cod52_deposit.depohist_opday t on a.b_id_mega=t.id_mega and a.id_major=t.deposit_major and a.id_minor=t.deposit_minor and t.opday_dd  between '2023-10-01' and '2023-10-31'  and t.opkind = 15 and t.opday between cast(a.d1 as date) and cast(a.d2 as date)</t>
+          <t>select cast(substr('2017-03-28 00:00:00', 1, 10) as date)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>alter table t_cars_kap.depart rename to t_cars_kap.depart_02102024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>INSERT INTO k808_rx_hdp.t_team_prfl_cdp.vma_temp_cx_lstdt SELECT      epk_id,     last_activity_dt,     first_active_product_dt,     '2022-08-31' FROM      rozn2_gp.s_grnplm_ld_rozn_electron_knlg_core.vma_temp_cx_lstdt</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>select t.* ,k.* from capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."13_net_sp14_travel" t left join  k808_rx_hdp.prx_net_km_custom_fin_pi_kpi.t_pi_kpi k on cast(k.epk_id as varchar) =t.epk_id and k.dat_start=cast(substring(t.creation_date,1,10) as date)</t>
+          <t>INSERT INTO k808_rx_hdp.T_TEAM_PRFL_CDP.vma_dim_ecosys_dzo_client SELECT      epk_id,     ecosystem_activity_flag,     amount_ecosystem_products,     CAST(report_dt AS VARCHAR) FROM      rozn2_gp.S_GRNPLM_LD_ROZN_ELECTRON_KNLG_CORE.vma_dim_ecosys_dzo_client</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_Lazarev_508_ALL_TB1"  limit 100</t>
+          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>select cast(substr('2017-03-28 00:00:00', 1, 10) as date)</t>
+          <t>select distinct document_type_code from prx_cars_s_internal_cars_cars.digital_document</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>alter table t_cars_kap.depart rename to t_cars_kap.depart_02102024</t>
+          <t>select  		count(distinct epk_id) from  		k808_rx_hdp.t_team_sva_oarb."44_lva_ck_mvs_custumers_sbol_connect_3" limit 100</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>INSERT INTO k808_rx_hdp.t_team_prfl_cdp.vma_temp_cx_lstdt SELECT      epk_id,     last_activity_dt,     first_active_product_dt,     '2022-08-31' FROM      rozn2_gp.s_grnplm_ld_rozn_electron_knlg_core.vma_temp_cx_lstdt</t>
+          <t>--Вывести мин. и макс. даты популяционной таблицы SELECT  	min(p_report_dt) AS min_p_report_dt, 	max(p_report_dt) AS max_p_report_dt  FROM k808_rx_hdp.t_team_sberindexlab.t_temp_ppl_for_sampling  LIMIT 10</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>INSERT INTO k808_rx_hdp.T_TEAM_PRFL_CDP.vma_dim_ecosys_dzo_client SELECT      epk_id,     ecosystem_activity_flag,     amount_ecosystem_products,     CAST(report_dt AS VARCHAR) FROM      rozn2_gp.S_GRNPLM_LD_ROZN_ELECTRON_KNLG_CORE.vma_dim_ecosys_dzo_client</t>
+          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,   COLUMN_NAME, COLUMN_TYPE, DATA_TYPE, TYPE_NAME,   PRECISION, LENGTH, SCALE, RADIX,   NULLABLE, REMARKS, COLUMN_DEF, SQL_DATA_TYPE, SQL_DATETIME_SUB,   CHAR_OCTET_LENGTH, ORDINAL_POSITION, IS_NULLABLE, SPECIFIC_NAME FROM system.jdbc.procedure_columns ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME, COLUMN_NAME LIMIT 0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>select distinct document_type_code from prx_cars_s_internal_cars_cars.digital_document</t>
+          <t>select count(*) counts from em_tmp2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>select  		count(distinct epk_id) from  		k808_rx_hdp.t_team_sva_oarb."44_lva_ck_mvs_custumers_sbol_connect_3" limit 100</t>
+          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>select * 	from sfd_hdfsgw_hdp.prx_hd_atm_host_main_240821_nrt_atmhost_cap.device_group   	limit 20</t>
+          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>--Вывести мин. и макс. даты популяционной таблицы SELECT  	min(p_report_dt) AS min_p_report_dt, 	max(p_report_dt) AS max_p_report_dt  FROM k808_rx_hdp.t_team_sberindexlab.t_temp_ppl_for_sampling  LIMIT 10</t>
+          <t>select 7500</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,   COLUMN_NAME, COLUMN_TYPE, DATA_TYPE, TYPE_NAME,   PRECISION, LENGTH, SCALE, RADIX,   NULLABLE, REMARKS, COLUMN_DEF, SQL_DATA_TYPE, SQL_DATETIME_SUB,   CHAR_OCTET_LENGTH, ORDINAL_POSITION, IS_NULLABLE, SPECIFIC_NAME FROM system.jdbc.procedure_columns ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME, COLUMN_NAME LIMIT 0</t>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select substring('2023.01.03 21:01:41.162', 1, 7)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SELECT * FROM t_team_sva_audit_2.t38_siv_08_11_24__1121__10__sbol_sbp_aggregated__sum_full_over_15k__120_people_as_sen_and_receivers ORDER BY sender, receiver</t>
+          <t>select substring(timestampcolumn, 1, 7), count(id) from k808_rx_hdp.t_team_sva_oarb."42_rodygin_oarbvvb_1675_chat_history" t group by substring(timestampcolumn, 1, 7) order by substring(timestampcolumn, 1, 7)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>select count(*) counts from em_tmp2</t>
+          <t>select length('abc_zakupkigovru_beginner_20240118_092653_001.json')-9</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
+          <t>select count (distinct chat_room_id) from k808_rx_hdp.t_team_sva_oarb.messages_filtered</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>select *  from  k808_rx_hdp.prx_zakup_seldon_1_external_seldon.tndrs limit 100</t>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
+          <t>select month_created from t_cars_kap.DASH_2_chanel_2024 group by month_created</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>select 7500</t>
+          <t>select tb, gosb, p_printerid, pmh_polldate, pmh_pagecount, (pmh_pagecount - LAG(pmh_pagecount) OVER (PARTITION BY tb, p_printerid ORDER BY pmh_polldate ASC)) AS diff FROM sfd_hdfsgw_hdp.prx_otpechatki_printerov_i_vsp_new_selfservice_mctp.SELFSERVICE_CUITA_PRINT limit 100</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select 		count(*) from 		k808_rx_hdp.t_team_sva_oarb."44_ias_ck_intersections_oper_session_ss2" limit 100</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>select substring('2023.01.03 21:01:41.162', 1, 7)</t>
+          <t>INSERT INTO k808_rx_hdp.team_digitcamp.ops_rgs_report (     num,     previous_working_day,     target,     target_time,     count_lot,     abk_difference,     insight_difference,     working_difference) VALUES (     '6',           -- varchar(3)     'За 3Q2024',   -- varchar(30)     '1',           -- varchar(30)     168,             -- bigint (можно оставить 0 если значение не может быть NULL)     558,          -- bigint     13.3,          -- double     1.439,          -- double     0.103          -- double    )</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>select substring(timestampcolumn, 1, 7), count(id) from k808_rx_hdp.t_team_sva_oarb."42_rodygin_oarbvvb_1675_chat_history" t group by substring(timestampcolumn, 1, 7) order by substring(timestampcolumn, 1, 7)</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."55_vos_pb_epk_sms_status" as select  device_id                   ,short_push_text             ,external_id                 ,cast(esb_msg_in_created_on as timestamp) as esb_msg_in_created_on ,cast(send_message_created_on as timestamp) as send_message_created_on ,client_id                   ,record_source               ,sms_text                    ,send_message_id             ,ucp_id                      ,esb_msg_in_guid             ,sending_counter             ,send_status                 ,msisdn                      ,msg_type_id                 ,epk                         ,bankir                      ,date_start                  ,date_end                    ,used_phone                  ,status_code                 ,error_msg                   ,sms_segment_delivered       ,cast(gate_msg_in_body_created_on as timestamp) as gate_msg_in_body_created_on ,sms_segment_undelivered     ,cast(created_on as timestamp) as created_on ,gate_msg_in_body_id         ,sms_segment_sent            ,sms_segment_total           ,cast(status_at as timestamp) as status_at ,sms_segment_unknown         ,cast(max_ as timestamp) as max_                        ,status_text                 ,error_discription            from capgp3_gp.s_grnplm_ld_audit_da_emitent.pb_55_epk_sms_status</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>select length('abc_zakupkigovru_beginner_20240118_092653_001.json')-9</t>
+          <t>SELECT id, contract_idt, record_date_from, record_date_to, acnt_status, card_status, contr_status, status_category, ext_data, ftkp_node, ctl_validfrom, ctl_action, ctl_loading, ctl_filename FROM sfd_hdfsgw_hdp.prx_42_air_4dmf9_internal_way4dm_dtpprbf9.dwa_f9_contr_ext_attr limit 100</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>select * from capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr</t>
+          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>select count (distinct chat_room_id) from k808_rx_hdp.t_team_sva_oarb.messages_filtered</t>
+          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>-- Список заявок для исключения из основной таблицы заявок select count(distinct entity_id)  from k808_rx_hdp.t_team_sva_oarb."55_elf_mc_03"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2711_sbolpro_8636_114"</t>
+          <t>INSERT INTO k808_rx_hdp.team_digitcamp.ops_rgs_report (     num,     previous_working_day,     target,     target_time,     count_lot,     abk_difference,     insight_difference,     working_difference) VALUES (     '4',           -- varchar(3)     'За 1Q2024',   -- varchar(30)     '1',           -- varchar(30)     0,             -- bigint (можно оставить 0 если значение не может быть NULL)     NULL,          -- bigint     NULL,          -- double     NULL,          -- double     NULL )</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>select month_created from t_cars_kap.DASH_2_chanel_2024 group by month_created</t>
+          <t>SELECT partner_id, granularity, granularity_ru, date_start, scenario_name, connection, platform, scenario, partner_name, partner_inn, partner_aal, partner_type, oe_list, max(CASE WHEN scenario_step = 'start' THEN sessions_cnt END) AS start_, max(CASE WHEN scenario_step = 'success' THEN sessions_cnt END) AS success FROM k808_rx_hdp.t_team_sberid.metrics_conversion GROUP BY partner_id, granularity, granularity_ru, date_start, scenario_name, connection, platform, scenario, partner_name, partner_inn, partner_aal, partner_type, oe_list ORDER BY partner_id</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>select tb, gosb, p_printerid, pmh_polldate, pmh_pagecount, (pmh_pagecount - LAG(pmh_pagecount) OVER (PARTITION BY tb, p_printerid ORDER BY pmh_polldate ASC)) AS diff FROM sfd_hdfsgw_hdp.prx_otpechatki_printerov_i_vsp_new_selfservice_mctp.SELFSERVICE_CUITA_PRINT limit 100</t>
+          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,   COLUMN_NAME, COLUMN_TYPE, DATA_TYPE, TYPE_NAME,   PRECISION, LENGTH, SCALE, RADIX,   NULLABLE, REMARKS, COLUMN_DEF, SQL_DATA_TYPE, SQL_DATETIME_SUB,   CHAR_OCTET_LENGTH, ORDINAL_POSITION, IS_NULLABLE, SPECIFIC_NAME FROM system.jdbc.procedure_columns ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME, COLUMN_NAME LIMIT 0</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_mp_cmpn_ds."230016_ns_df" limit 10</t>
+          <t>INSERT INTO k808_rx_hdp.team_digitcamp.ops_rgs_report_sld (     previous_working_day,     all_count     ) VALUES (     'За 1Q2024',       null            )</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2811_duble_oper_itog_epk_id_efs"</t>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>select 		count(*) from 		k808_rx_hdp.t_team_sva_oarb."44_ias_ck_intersections_oper_session_ss2" limit 100</t>
+          <t>select count(distinct epk_id) ,substring(data_dt,6,2) from k808_rx_hdp.t_team_sva_oarb."13_net_p2_epk_otkl" group by substring(data_dt,6,2)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>INSERT INTO k808_rx_hdp.team_digitcamp.ops_rgs_report (     num,     previous_working_day,     target,     target_time,     count_lot,     abk_difference,     insight_difference,     working_difference) VALUES (     '6',           -- varchar(3)     'За 3Q2024',   -- varchar(30)     '1',           -- varchar(30)     168,             -- bigint (можно оставить 0 если значение не может быть NULL)     558,          -- bigint     13.3,          -- double     1.439,          -- double     0.103          -- double    )</t>
+          <t>--num	previous_working_day	target	difference_in_hours	sum_difference	target_time	count_entity_lot	count_lot	abk_difference	insight_difference	working_difference	result_difference	part_entity	part_lose       INSERT INTO k808_rx_hdp.team_digitcamp.ops_rgs_report (     num,     previous_working_day,     target,     target_time,     count_entity_lot,     abk_difference,     insight_difference,     working_difference,     part_entity,     part_lose) VALUES (     '6',           -- varchar(3) num     'За 3Q2024',   -- varchar(30) previous_working_day     '1',           -- varchar(30) target     168,             -- bigint target_time      558,         -- bigint count_entity_lot     13.3,          -- double     1.439,          -- double     0.103,          -- double     null,         -- part_entity     null          -- part_lose    )</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."55_vos_pb_epk_sms_status" as select  device_id                   ,short_push_text             ,external_id                 ,cast(esb_msg_in_created_on as timestamp) as esb_msg_in_created_on ,cast(send_message_created_on as timestamp) as send_message_created_on ,client_id                   ,record_source               ,sms_text                    ,send_message_id             ,ucp_id                      ,esb_msg_in_guid             ,sending_counter             ,send_status                 ,msisdn                      ,msg_type_id                 ,epk                         ,bankir                      ,date_start                  ,date_end                    ,used_phone                  ,status_code                 ,error_msg                   ,sms_segment_delivered       ,cast(gate_msg_in_body_created_on as timestamp) as gate_msg_in_body_created_on ,sms_segment_undelivered     ,cast(created_on as timestamp) as created_on ,gate_msg_in_body_id         ,sms_segment_sent            ,sms_segment_total           ,cast(status_at as timestamp) as status_at ,sms_segment_unknown         ,cast(max_ as timestamp) as max_                        ,status_text                 ,error_discription            from capgp3_gp.s_grnplm_ld_audit_da_emitent.pb_55_epk_sms_status</t>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SELECT id, contract_idt, record_date_from, record_date_to, acnt_status, card_status, contr_status, status_category, ext_data, ftkp_node, ctl_validfrom, ctl_action, ctl_loading, ctl_filename FROM sfd_hdfsgw_hdp.prx_42_air_4dmf9_internal_way4dm_dtpprbf9.dwa_f9_contr_ext_attr limit 100</t>
+          <t>select count(distinct client_id) from k808_rx_hdp.t_team_sva_oarb."42_rrn_oarbvvb_1542_1777_crd_stream_no_suff_funds_no_success"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
+          <t>select count(*) from t_cars_kap.document_removed_BOX_oad_1_4</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
+          <t>--923981 select count(distinct personnoepk) from k808_rx_hdp.t_team_sva_oarb."42_rrn_oarbvvb_1542_1777_crd_stream_no_suff_funds_no_success_dimcrdt"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-- Список заявок для исключения из основной таблицы заявок select count(distinct entity_id)  from k808_rx_hdp.t_team_sva_oarb."55_elf_mc_03"</t>
+          <t>select count(*) from t_cars_kap.document_removed_BOX_cars_2_2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>INSERT INTO k808_rx_hdp.team_digitcamp.ops_rgs_report (     num,     previous_working_day,     target,     target_time,     count_lot,     abk_difference,     insight_difference,     working_difference) VALUES (     '4',           -- varchar(3)     'За 1Q2024',   -- varchar(30)     '1',           -- varchar(30)     0,             -- bigint (можно оставить 0 если значение не может быть NULL)     NULL,          -- bigint     NULL,          -- double     NULL,          -- double     NULL )</t>
+          <t>select  try_cast(replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') as decimal(32,2)) suma, n.sms_text, substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8), replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_3" n</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SELECT partner_id, granularity, granularity_ru, date_start, scenario_name, connection, platform, scenario, partner_name, partner_inn, partner_aal, partner_type, oe_list, max(CASE WHEN scenario_step = 'start' THEN sessions_cnt END) AS start_, max(CASE WHEN scenario_step = 'success' THEN sessions_cnt END) AS success FROM k808_rx_hdp.t_team_sberid.metrics_conversion GROUP BY partner_id, granularity, granularity_ru, date_start, scenario_name, connection, platform, scenario, partner_name, partner_inn, partner_aal, partner_type, oe_list ORDER BY partner_id</t>
+          <t>select position('\d+ \d\dр' in lower(n.sms_text)), try_cast(replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') as decimal(32,2)) suma, n.sms_text, substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8), replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2" n</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,   COLUMN_NAME, COLUMN_TYPE, DATA_TYPE, TYPE_NAME,   PRECISION, LENGTH, SCALE, RADIX,   NULLABLE, REMARKS, COLUMN_DEF, SQL_DATA_TYPE, SQL_DATETIME_SUB,   CHAR_OCTET_LENGTH, ORDINAL_POSITION, IS_NULLABLE, SPECIFIC_NAME FROM system.jdbc.procedure_columns ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME, COLUMN_NAME LIMIT 0</t>
+          <t>select distinct(affected_item_name) from k808_rx_hdp.prx_55_gev_servmgr_internal_servmgr_smprimary.sbimtaskm1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>INSERT INTO k808_rx_hdp.team_digitcamp.ops_rgs_report_sld (     previous_working_day,     all_count     ) VALUES (     'За 1Q2024',       null            )</t>
+          <t>delete from em_pay_history_oper</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>delete from em_pay_history_oper</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1743_paket_podkl_fio_prime" SELECT a.*, b.start_date start_date_prime, b.fact_end_date fact_end_date_prime, b.end_date end_date_prime, b.application_datetime application_datetime_prime, b.current_payment_date current_payment_date_prime, b.next_pay_date next_pay_date_prime, b.description description_prime, b.name name_prime, b.status status_prime, b.status_reason status_reason_prime FROM k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1743_paket_podkl_fio" a   join sfd_hdfsgw_hdp.prx_1_bxb1062_pakety_uslug_fl_internal_pprbpu_beta_opf_management.private_service_package b on a.owner_id = b.owner_id and  not(b.start_date &gt; coalesce(cast(a.fact_end_date as date), date(a.end_date), date('9999-12-31')) and b.end_date &lt; a.start_date)  and b.name like '%СберПрайм+%' and b.name like '%СберПрайм%'</t>
+          <t>SELECT  distinct offer_status FROM k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer --order by offer_start_date desc limit 111</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.vklad_close_v_01 limit 1000</t>
+          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_1712_6110_2381_spasibo" select distinct a.epk_id, a.evt_id, a.evt_posted_dttm, a.card_number, a.auth_code, a.ret_ref_number, a.mcc_code, a.trans_type, a.merchant_id, a.terminal_id, a.merchant_name, a.card_cat_cd, a.ipt_name, a.iso_crncy_cd, a.amt, a.acc_ccy_posted_amt, a.local_amt, a.evt_dttm, a.evt_dt, a.evt_posted_dt, a.trx_direction, a.day_part, a.source_system, a.evt_id6110, a.evt_posted_dttm6110, a.card_number6110, a.auth_code6110, a.ret_ref_number6110, a.mcc_code6110, a.trans_type6110, a.merchant_id6110, a.terminal_id6110, a.merchant_name6110, a.card_cat_cd6110, a.ipt_name6110, a.iso_crncy_cd6110, a.amt6110, a.acc_ccy_posted_amt6110, a.local_amt6110, b.paid_amount, b.bns_turn, b.bns_past, b.dtime, b.kop_wtime, b.origin_kop_id, b.skipped, b.mcc, b.ext_merch_id, b.merch_name, b.country, b.paysys, b.acqrr, b.pmacp, b.srctype, b.trantype, b.commentary, a.evt_dttm6110, a.evt_dt6110, a.evt_posted_dt6110, a.trx_direction6110, a.day_part6110, a.source_system6110 from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1712_6110_2381_1"  a join sfd_hdfsgw_hdp.prx_01889660_spasibo_custom_rb_spasibo.sb_sas_opers b on  a.epk_id = b.epk_id and cast(b.dtime as date) = cast(a.evt_dt6110 as date) and b.paid_amount = a.amt6110 * 100 and b.bns_turn &lt; 0 and b.day_part between '2024-03-01' and '2024-03-31'</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1746_paket_otkl_fio_prime" as SELECT a.*, b.start_date start_date_prime, b.fact_end_date fact_end_date_prime, b.end_date end_date_prime, b.application_datetime application_datetime_prime, b.current_payment_date current_payment_date_prime, b.next_pay_date next_pay_date_prime, b.description description_prime, b.name name_prime, b.status status_prime, b.status_reason status_reason_prime FROM k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1746_paket_otkl_fio" a   join sfd_hdfsgw_hdp.prx_1_bxb1062_pakety_uslug_fl_internal_pprbpu_alpha_opf_management.private_service_package b on a.owner_id = b.owner_id and  not (b.start_date &gt; coalesce(cast(a.fact_end_date as date), date(a.end_date), date('9999-12-31')) or coalesce(cast(b.fact_end_date as date), date(b.end_date), date('9999-12-31')) &lt; a.start_date)  and b.name like '%СберПрайм+%' and b.name like '%СберПрайм%'</t>
+          <t>SELECT t.merchantid, o.inn, t.pprbid, o.pprbid FROM k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_organization o 	inner join k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_tst t on (t.merchantid=o.inn) limit 10</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>select count(distinct epk_id) ,substring(data_dt,6,2) from k808_rx_hdp.t_team_sva_oarb."13_net_p2_epk_otkl" group by substring(data_dt,6,2)</t>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2"</t>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>--num	previous_working_day	target	difference_in_hours	sum_difference	target_time	count_entity_lot	count_lot	abk_difference	insight_difference	working_difference	result_difference	part_entity	part_lose       INSERT INTO k808_rx_hdp.team_digitcamp.ops_rgs_report (     num,     previous_working_day,     target,     target_time,     count_entity_lot,     abk_difference,     insight_difference,     working_difference,     part_entity,     part_lose) VALUES (     '6',           -- varchar(3) num     'За 3Q2024',   -- varchar(30) previous_working_day     '1',           -- varchar(30) target     168,             -- bigint target_time      558,         -- bigint count_entity_lot     13.3,          -- double     1.439,          -- double     0.103,          -- double     null,         -- part_entity     null          -- part_lose    )</t>
+          <t>SELECT TABLE_TYPE FROM system.jdbc.table_types ORDER BY TABLE_TYPE</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_efs_oct_2"  limit 100</t>
+          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,   COLUMN_NAME, COLUMN_TYPE, DATA_TYPE, TYPE_NAME,   PRECISION, LENGTH, SCALE, RADIX,   NULLABLE, REMARKS, COLUMN_DEF, SQL_DATA_TYPE, SQL_DATETIME_SUB,   CHAR_OCTET_LENGTH, ORDINAL_POSITION, IS_NULLABLE, SPECIFIC_NAME FROM system.jdbc.procedure_columns ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME, COLUMN_NAME LIMIT 0</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select count(id), sum(C_SUMMA_DOG) from k808_rx_hdp.t_team_sva_oarb."55_sis_edu24_ekp" limit 100</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>select count(distinct client_id) from k808_rx_hdp.t_team_sva_oarb."42_rrn_oarbvvb_1542_1777_crd_stream_no_suff_funds_no_success"</t>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>select count(*) from t_cars_kap.document_removed_BOX_oad_1_4</t>
+          <t>SELECT creation_date_dd, count(uoh_id) c_id from k808_rx_hdp.t_team_sva_oarb_11."42_pb1_efs_ufs_ophistory_nrt_new" group by creation_date_dd</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>--923981 select count(distinct personnoepk) from k808_rx_hdp.t_team_sva_oarb."42_rrn_oarbvvb_1542_1777_crd_stream_no_suff_funds_no_success_dimcrdt"</t>
+          <t>select count (distinct z_pr_cred_c_num_dog) from k808_rx_hdp.t_team_sva_oarb."55_tdr_df_union_steps" --order by z_pr_cred_c_num_dog, date</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>select count(*) from t_cars_kap.document_removed_BOX_cars_2_2</t>
+          <t>delete from em_pay_history_cred</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>select  try_cast(replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') as decimal(32,2)) suma, n.sms_text, substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8), replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_3" n</t>
+          <t>select h.collection_id,h.c_change_date change_date,h.c_resume,h.c_date_beg resume from		plan_hist	h</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>select position('\d+ \d\dр' in lower(n.sms_text)), try_cast(replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') as decimal(32,2)) suma, n.sms_text, substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8), replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2" n</t>
+          <t>SELECT losscontrid, id, losscontrid_new, id_new, paydate, payout, payoutrub, currency, currency_id, updatedate, decisionid, archive_name, file_name, ctl_pa_loading, ctl_action, ctl_validfrom, ctl_validto, ctl_loading FROM sfd_hdfsgw_hdp.prx_02184579_sbszh_702_selfservice_sbszh.losspayout limit 100</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>select distinct(affected_item_name) from k808_rx_hdp.prx_55_gev_servmgr_internal_servmgr_smprimary.sbimtaskm1</t>
+          <t>-- EKP - кредиты -- 0.5мин insert into em_pay_history_cred(id,dt,inn,client,ref,ac) with kd_list as (   select cast(prod.id as bigint) id,l.dt   ,cast(cred.c_client as bigint)     ref1   ,cast(cred.c_list_plan_pay as bigint) ref12 -- collection_id of plan operation   ,cast(cred.c_list_pay as bigint)   ref13    -- collection_id of fact operation   ,cast(prod.c_com_status as bigint) ref14   ,cast(cred.c_list_prol as bigint)  ref17 -- collection_id of restruct   ,cast(cred.c_zalog as bigint)      ref18 -- collection_id of obesp   ,cast(prod.c_filial as bigint)     ref31   from   idlist l   join   k808_rx_hdp.prx_ekp_pcp1_internal_ekp_reports_ibs.z_product  prod on prod.id=l.id   join   k808_rx_hdp.prx_ekp_pcp1_internal_ekp_reports_ibs.z_pr_cred  cred on cred.id=prod.id )   select kd.id,kd.dt,null,clnt.c_name,kd.ref13,'ekp'   from   kd_list        kd   join   k808_rx_hdp.prx_ekp_pcp_2_internal_ekp_reports_ibs.z_client  clnt on clnt.id=kd.ref1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>delete from em_pay_history_oper</t>
+          <t>SELECT COUNT(*) FROM (SELECT epk_id, operation, created, device_info, min(created - logon_dt) AS delta FROM k808_rx_hdp.t_team_sva_oarb."55_gev_sberprime_multi_logon_oper_1" GROUP BY 1, 2, 3, 4 ) dbvrcnt</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>delete from em_pay_history_oper</t>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2163,22 +2163,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>line 1:29: Function 'coutn' not registered</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_elf_credit_preparation_2025_internal_ekp_reports_ibs.z_overdraft_mbk LIMIT 10</t>
+          <t>select date(ctl_validfrom), coutn(*) from k808_rx_hdp.prx_rgs_torg_external_zakupkigovru.beginner group by date(ctl_validfrom) order by ctl_validfrom desc limit 11</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>FunctionError</t>
         </is>
       </c>
       <c r="E70" t="b">
@@ -2188,197 +2188,197 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Access Denied: Cannot access catalog system</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>select * FROM sfd_hdfsgw_hdp.prx_55_sis_epk_pprb_platform_ucprb.com_sbt_bm_ucp_customerknowledge_model_marker limit 100</t>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>PermissionError</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/40_gradusov_epk_podpiska_sberprime_7_7t_inf_sberprime_v/part-00000-8c4626d8-c491-4a33-8e0b-bd0471ecfe5a-c000.snappy.parquet (offset=0, length=2640514): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6478339264_5439855311 file=/user/team/team_sva_oarb/hive/40_gradusov_epk_podpiska_sberprime_7_7t_inf_sberprime_v/part-00000-8c4626d8-c491-4a33-8e0b-bd0471ecfe5a-c000.snappy.parquet</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SELECT  distinct offer_status FROM k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer --order by offer_start_date desc limit 111</t>
+          <t>SELECT * FROM k808_rx_hdp.t_team_sva_oarb."40_gradusov_epk_podpiska_sberprime_7_7t_inf_sberprime_v"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/42_danilovich_zp10_m_ryzh/000047_0 (offset=33554432, length=33554432): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6465640656_5426886653 file=/user/team/team_sva_oarb/hive/42_danilovich_zp10_m_ryzh/000047_0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_1712_6110_2381_spasibo" select distinct a.epk_id, a.evt_id, a.evt_posted_dttm, a.card_number, a.auth_code, a.ret_ref_number, a.mcc_code, a.trans_type, a.merchant_id, a.terminal_id, a.merchant_name, a.card_cat_cd, a.ipt_name, a.iso_crncy_cd, a.amt, a.acc_ccy_posted_amt, a.local_amt, a.evt_dttm, a.evt_dt, a.evt_posted_dt, a.trx_direction, a.day_part, a.source_system, a.evt_id6110, a.evt_posted_dttm6110, a.card_number6110, a.auth_code6110, a.ret_ref_number6110, a.mcc_code6110, a.trans_type6110, a.merchant_id6110, a.terminal_id6110, a.merchant_name6110, a.card_cat_cd6110, a.ipt_name6110, a.iso_crncy_cd6110, a.amt6110, a.acc_ccy_posted_amt6110, a.local_amt6110, b.paid_amount, b.bns_turn, b.bns_past, b.dtime, b.kop_wtime, b.origin_kop_id, b.skipped, b.mcc, b.ext_merch_id, b.merch_name, b.country, b.paysys, b.acqrr, b.pmacp, b.srctype, b.trantype, b.commentary, a.evt_dttm6110, a.evt_dt6110, a.evt_posted_dt6110, a.trx_direction6110, a.day_part6110, a.source_system6110 from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1712_6110_2381_1"  a join sfd_hdfsgw_hdp.prx_01889660_spasibo_custom_rb_spasibo.sb_sas_opers b on  a.epk_id = b.epk_id and cast(b.dtime as date) = cast(a.evt_dt6110 as date) and b.paid_amount = a.amt6110 * 100 and b.bns_turn &lt; 0 and b.day_part between '2024-03-01' and '2024-03-31'</t>
+          <t>CREATE TABLE  k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh_tarif_1" as SELECT a.*,  plan.id plan_id,  plan.indtariffagreementid,  plan.indtariffagreementnumber,              plan.restorationdate,                  plan.startdate,  plan.suspensiondate,        plan.tariffrates,  substring(plan.tariffrates,0,36) as  tariffrates2,               plan.tariffratesidvalue,  plan.usedyntariff, rate.additionalinfo,  rate.enrollmenttype,  rate.id as rate_id,  rate.isdyntariff,  rate.isenrollmentotherbank,  rate.tariffintervalidvalue,  rate.tariffintervalrates,  rate.tariffplan rate_tariffplan  FROM k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh"  as a  left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffplan as plan on plan.id=   substring(a.tariffplan,49,36) left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffrate  as rate  on rate.id= substring(plan.tariffrates,0,36)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>\</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SELECT t.merchantid, o.inn, t.pprbid, o.pprbid FROM k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_organization o 	inner join k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_tst t on (t.merchantid=o.inn) limit 10</t>
+          <t>CREATE TABLE  k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh_tarif_1" as SELECT a.*,  plan.id plan_id,  plan.indtariffagreementid,  plan.indtariffagreementnumber,              plan.restorationdate,                  plan.startdate,  plan.suspensiondate,        plan.tariffrates,  substring(plan.tariffrates,0,36) as  tariffrates2,               plan.tariffratesidvalue,  plan.usedyntariff, rate.additionalinfo,  rate.enrollmenttype,  rate.id as rate_id,  rate.isdyntariff,  rate.isenrollmentotherbank,  rate.tariffintervalidvalue,  rate.tariffintervalrates,  rate.tariffplan rate_tariffplan  FROM k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh"  as a  left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffplan as plan on plan.id=   substring(a.tariffplan,49,36) left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffrate  as rate  on rate.id= substring(plan.tariffrates,0,36)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Failed to list directory: hdfs://hdfsgw/sklsdpp1164si__SI_dannye_PKAP-CUSTOM_T_P1164SI-DWH_LUN_SERVER_RELATIONS_W/data/custom/t/p1164si/pa/dwh_lun_server_relations_w/cbap_validfrom=2023_48</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select * from sfd_hdfsgw_hdp.prx_si_dannye_pkap_custom_t_p1164si.dwh_lun_server_relations_w limit 100</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-4404588d-9d36-44a5-8927-db142981a352-c000.snappy.parquet (offset=0, length=4115): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6556385924_5519523244 file=/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-4404588d-9d36-44a5-8927-db142981a352-c000.snappy.parquet</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>SELECT COUNT(*) FROM (select  * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2706_print_pm_mega_70"  ) dbvrcnt</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-cfd86e3d-a39c-42d8-bdab-4023127ed322-c000.snappy.parquet (offset=0, length=1618): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6556016331_5519149119 file=/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-cfd86e3d-a39c-42d8-bdab-4023127ed322-c000.snappy.parquet</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_alert_sms_3"  select * from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_alert_sms_confirm_2"</t>
+          <t>select  * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2706_print_pm_mega_70"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>line 40:108: mismatched input 'left'. Expecting: &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.prx_55_gev_nrt_efs_chat_nrt_efs_chat.chat_history limit 5</t>
+          <t>select uuid ,timestampcolumn as date ,opened_at ,atm_id ,incident_id  ,auto_initiated ,user_status  ,CASE WHEN initiator_uuid = '798b18d6-fd6c-4ae7-a593-73bbeeaf68b1' 		THEN 'Automatization' 		ELSE 'Сотрудник' 		END AS initiator_uuid ,reason_type  ,reason  ,CASE WHEN component_id is null  		THEN 'Нет компоненты' 		ELSE component_id 		END AS component_id ,description  ,status  ,lmd ,CASE WHEN status = 'CLOSED' and lmd - opened_at &lt; 0 		THEN 0 		ELSE lmd - opened_at  		END AS recoveryperiod ,comments  ,CASE WHEN resolution_code is null 		THEN 'Нет кода закрытия'  		ELSE resolution_code 		END AS resolution_code ,scenario_step  ,scenario  ,CASE WHEN updater_uuid = '798b18d6-fd6c-4ae7-a593-73bbeeaf68b1' THEN 'Automatization'  		WHEN updater_uuid is not null then 'Неизвестно' else 'Сотрудник' 		END AS who_update ,businessprocess_id  ,current_stage  ,stage_attributes  ,event_object_timestamp  ,ld_group_id  ,case when (auto_initiated = 'True' and (businessprocess_id) IS NOT NULL and (ld_group_id) IS NOT NULL and left(replace(description, ' '), 31) = 'ИнцидентпообращениюизАССбердруг') then 'Сбердруг' end as source_incident from k808_rx_hdp.prx_hd_atm_host_main_231201_nrt_atmhost_cap.incident  atm limit 120</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E78" t="b">
@@ -2388,22 +2388,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>line 1:15: Cannot cast integer to char(1)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>select * from sfd_hdfsgw_hdp.prx_svd_rb_vd_sbol_erib_efs_1_custom_rb_sbol.ft_sbol_oper_union limit 100</t>
+          <t>select concat(cast(kind as char ),cast (subkind as char)) from k808_rx_hdp.prx_55_krd_cod_platform_cod.cod_deposit_deposit</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>TypeError</t>
         </is>
       </c>
       <c r="E79" t="b">
@@ -2413,72 +2413,72 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>line 5:82: Column 't.person_major' cannot be resolved</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SELECT TABLE_TYPE FROM system.jdbc.table_types ORDER BY TABLE_TYPE</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_gulynin_2307_lider_epk" as select a.*, d.epkid from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2307_lider_" a join sfd_hdfsgw_hdp.prx_42_gul_cod_internal_cod13_client.person n on  n.id_major=t.person_major and n.id_minor = t.person_minor and n.id_mega=t.id_mega join sfd_hdfsgw_hdp.prx_42_gul_cod_internal_cod13_client.epkid d on d.untb=n.untb and d.id_mega=t.id_mega</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>MissingColumnError</t>
         </is>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>org.postgresql.util.PSQLException: ERROR: role "22022198" does not exist</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,   COLUMN_NAME, COLUMN_TYPE, DATA_TYPE, TYPE_NAME,   PRECISION, LENGTH, SCALE, RADIX,   NULLABLE, REMARKS, COLUMN_DEF, SQL_DATA_TYPE, SQL_DATETIME_SUB,   CHAR_OCTET_LENGTH, ORDINAL_POSITION, IS_NULLABLE, SPECIFIC_NAME FROM system.jdbc.procedure_columns ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME, COLUMN_NAME LIMIT 0</t>
+          <t>select * from sfd_gpgw_gp.s_grnplm_vd_rozn_soc_sal_sol_espd.t_4_25 limit 10</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>MissingObjectError</t>
         </is>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>line 3:10: mismatched input ':'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>select * from	k808_rx_hdp.prx_kalitaprom_internal_kalita_kalita.dict_command</t>
+          <t>select * from hdfs://hdfsgw/sklsdpsdlog__sdlogging_v1-SDLOGGING-HDFSEVENTS/data/sdlogging/hdfsevents/loaded_date=2024-05-25/000010_0</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E82" t="b">
@@ -2488,22 +2488,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>line 1:68: mismatched input ':'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>select  * FROM sfd_hdfsgw_hdp.prx_hd_atm_host_nrt_smsb2.atmhost_custatechangedevent_delta limit 100</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_krd_zp_12_click_test":</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E83" t="b">
@@ -2513,22 +2513,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.ipoteka_temp</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_Lazarev_1294_1_NEW" as  SELECT a.* , Data1 FROM sfd_hdfsgw_hdp.prx_lazarev_clickstream_sbolweb_24_custom_rb_sbol_clickstream.sbol_events a  join k808_rx_hdp.t_team_sva_oarb."42_Lazarev_1294" b on a.epk_id  =  b.EPK and a.timestampcolumn = b.Data1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E84" t="b">
@@ -2538,47 +2538,47 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>target of repeat operator is not specified</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>select  * from sfd_hdfsgw_hdp.prx_koa_efs_edinaya_istoriy_operac_internal_efs_ufs_ophistory_1."UOH_OPERATIONS_HISTORY" limit 10</t>
+          <t>select regexp_extract('Description=Microsoft Windows 10 Enterprise 2016 LTSB;', '(\W+)({6}.)')</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>line 3:2: mismatched input '''. Expecting: &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>select count(id), sum(C_SUMMA_DOG) from k808_rx_hdp.t_team_sva_oarb."55_sis_edu24_ekp" limit 100</t>
+          <t>select --regexp_replace( regexp_extract('SwitchAllowVersion=1.56.0.1027;1.54.3.1003;1.54.0.935;Model=NH8600S;cim_model=BRM56;TID=60032377;bank_name=ПАО СБЕРБАНК;vsp_name=IШахта Угольная;address=ул Угольная  1;tel_tech_number=900;keysForStatusBar=456;keysForSupervisor=;wait_screen_url=https://localhost:9443/_BUILD_/bootstrap.html;lang=ru-RU;RemoteNominalChange=0;params_loading_required=1;AtmType=auto;wait_screen_refresh_every=1000;temp_directory=C:/Sberbank/LogsDbs;product_name=ATMoSphere;current_version.version=1.61.0.1142;current_version.date_planned=01.11.2019 0:00:00;current_version.date_actual=16.07.2024 2:11:22;device_type=RATM;vendor=Nautilus;os=win7;hardware_architecture=x86;state_machine_path=C:\\scs\\atm_h;InitialCountFileName=391;waitForStatusBar=5000;sop_url=http://localhost:5000/;status_url=http://localhost:5000?Mode=DevicesState;AddSpornoRetract=1;is_topmost=True;fullscr=False;xoffset=0;yoffset=0;xscreen=800;yscreen=600;preloader_timeout=2000;start_url=;notify_need_wait_screen_refresh=True;log_level=Trace;webplayer_mode=ATMS;js_plugins_directory=.;host=localhost;port=1313;start_page=TCR_Startup;left_start_page=TCR_Startup;right_start_page=TCR_Startup;left_start_url=;right_start_url=;!mainbus_pipename=\\\\.\\pipe\\TCR_webplayer;mainbus_connection_timeout=2000;vendor_diag_util=C:\\Hyosung\\Nextware\\EXE\\NHVDM\\NHVDM.exe;use_event_driven_view=True;has_title=False;has_frame=True;is_scrolled=False;need_block_new_window=True;has_frame_3d=True;is_keyboard_event=False;is_check_parent=False;need_to_reload=False;need_hide=True;need_blank=False;need_notify_on_load=True;need_notify_on_error=True;need_to_check_by_id=False;need_to_silent_dlg=True;need_clear_hist=False;is_enable_msg_box=False;is_fix_update=False;is_hide_cursor=True;window_keyboard=0;priority_flags=0;log_mask=31;key_map=;domains_filter=;_MainHWND=0;_MainProc=0;NdcConfigChannel_AfterDisconnectDelay=2000;NdcConfigChannel_ChannelType=4;NdcConfigChannel_ConnectTimeout=30000;NdcConfigChannel_KeepAlive=0;LocalAddress=;NdcConfigChannel_LocalPort=0;NdcConfigChannel_LogPolling=0;NdcConfigChannel_LogPreProcessing=1;NdcConfigChannel_LogTraffic=0;NdcConfigChannel_PingHostTimeout=31000;NdcConfigChannel_PingTimeout=900000;NdcConfigChannel_ReconnectTimeout=60000;NdcConfigChannel_RecvPacketTryCount=5;NdcConfigChannel_RecvTimeout=40000;NdcConfigChannel_SendTimeout=40000;NdcConfigChannel_LogTrafficPath=NDC\\RMS;HostAddress=10.103.99.79;HostPort=30654;Custom_Option4=1;Custom_Option9=1;Custom_Option24=1;NdcConfig_ActiveOperDaysMask=11;NdcConfig_BackgroundODopen=0;NdcConfig_BcrSendBarcodeType=0;NdcConfig_BioDLL=quorum_bio.dll;NdcConfig_BioidentificationMode=0;NdcConfig_BioverificationMode=0;NdcConfig_BnaRemoveMode=0;NdcConfig_BnaUseVirtualNotes=0;NdcConfig_Card_Type_masked=0;NdcConfig_CardlessAcceptType=231;NdcConfig_ConfigChangedEvent=Global\\NDCConfigChangedEvent;NdcConfig_ConfigPath=ConfigNDC;NdcConfig_ConnectionName=NDC;NdcConfig_CorrectCdmCounters=0;NdcConfig_CustomExitExtState=Z;NdcConfig_CustomExitState=f;NdcConfig_CustomPPD=0;NdcConfig_DISPLAY_TYPE=2;NdcConfig_DefLanguage=rus;NdcConfig_DefaultODnum=0;NdcConfig_DieboldMode=0;NdcConfig_DisAsyncDevStatMask=0;NdcConfig_DisablePtrOD=0;NdcConfig_DisableZeroFdk=1;NdcConfig_EdmDispenseMode=0;NdcConfig_EdmExists=0;NdcConfig_EmvPostProcessingMode=0;NdcConfig_ExchByNdc=0;NdcConfig_ExtAuth_ConfirmNdcTran=1;NdcConfig_ExtAuth_ForceSendCdmCounters=0;NdcConfig_ExtAuth_OldFormat=1;NdcConfig_ExtCardNumberDll=CustCard.dll;NdcConfig_ExternalBnaParams=4;NdcConfig_ExternalDepErrorState=255;NdcConfig_ExternalOperState=000;NdcConfig_FatalErrorScreenPath=;NdcConfig_FdkA=16;NdcConfig_FdkB=32;NdcConfig_FdkC=64;NdcConfig_FdkD=128;NdcConfig_FdkF=8;NdcConfig_FdkG=4;NdcConfig_FdkH=2;NdcConfig_FdkI=1;NdcConfig_ForceResetTimeout=0;NdcConfig_FraudMonitoring=1;NdcConfig_FrontDll=multi_front.dll;NdcConfig_FrontEnabled=1;NdcConfig_IccEmvClessConfig=DataNDC\\nfc_emv_NDC.cfg;NdcConfig_IccEmvClessDLL=NFCVivoKiosk2.dll;NdcConfig_IccEmvClessKernelType=0;NdcConfig_IccEmvClessMode=1;NdcConfig_IccEmvClessTerminalType=20;NdcConfig_IccEmvConfig=DataNDC\\emv_ndc.cfg;NdcConfig_IccEmvCustomConf=DataNDC\\emv_NDC_cust.cfg;NdcConfig_IccEmvCustomCvmTag=57169;NdcConfig_IccEmvDLL=scs_emv;NdcConfig_IccEmvMode=1;NdcConfig_IccEmvTerminalType=20;NdcConfig_IgnoreLastNonAsciiSymbols=0;NdcConfig_KeyIndexA=266;NdcConfig_KeyIndexB=267;NdcConfig_KeyIndexComm=523;NdcConfig_KeyIndexMac=522;NdcConfig_KeyIndexRsaEpp=17;NdcConfig_KeyIndexRsaHsm=18;NdcConfig_KeyIndexRsaRootHsm=19;NdcConfig_KeyIndexRsaSgn=16;NdcConfig_LastTSN=0000;NdcConfig_LeftFdk=0;NdcConfig_LockTimeout=7000;NdcConfig_LogInHexFormat=0;NdcConfig_MaxLogHistory=45;NdcConfig_MinLogFiles=10;NdcConfig_MsMandForOtherSys=0;NdcConfig_NdcEmvSimVersion=10;NdcConfig_NdcSimVersion=30;NdcConfig_NfcState=000;NdcConfig_NoPIN=0;NdcConfig_OpenSesionCashUnitViewMode=1;NdcConfig_PRR.DeviceStatus=0;NdcConfig_PinAutoCompletion=1;NdcConfig_PrintOnPrjMode=0;NdcConfig_PrintOnPrrMode=0;NdcConfig_SaveConfig=1;NdcConfig_SendUnsolStatus=1;NdcConfig_SetAcceptedBnaCounters=0;NdcConfig_SetHostTime=0;NdcConfig_SprayCdmOptions=0;NdcConfig_StJ_RecBeforeCard=0;NdcConfig_SupervisorUrl=http:/localhost:5000/;NdcConfig_Timer_77=90000;NdcConfig_Timer_BnaRemove=70000;NdcConfig_Timer_IccMinShowWait=2000;NdcConfig_Track1=;NdcConfig_Track2=;NdcConfig_Track3=;NdcConfig_UseCoinTI=1;NdcConfig_WaitAsyncOnAcceptTimeout=5000;NdcConfig_XmlTraceMode=2;NdcConfig_ZkMode=0;NdcConfig_receipt_title_02=;NdcConfig_receipt_title_03=УЛИЦА;NdcConfig_receipt_title_04=НОМЕР ТЕЛЕФОНА;NdcConfig_ParamSourceFormat=0;NdcConfig_zrs_mode=1;NdcConfig_FullBufferX=0;NdcConfig_IccEmvTracePath=NDC\\EMV;NdcConfig_LogPath=NDC\\NDC;NdcConfig_ReconnectOnTrReply=1;NdcConfig_FrontData_ParamName=FrontInfo_SessNumber;NdcConfig_SuspendTimeout=300000;NdcConfig_UnsolRecvTimeout=10000;NdcConfig_ReconnectDelay=5000;NdcConfig_UseCheckChannel=1;NdcConfig_RetrySendResp=1;NdcConfig_RecvTryCountOnTrReply=3;NdcConfig_EjLCP=0;NdcConfig_EjLCC=0;NdcConfig_EjTryCount=0;NdcConfig_EjLastDataSize=0;NdcConfig_EjCheckTimeout=10000;NdcConfig_StartUpOptions=0;NdcConfig_TraceRoot=c:\\scs\\logs;NdcConfig_HostPrintData_Enabled=0;NdcConfig_RemapNdc2Dev_COIN=0;NdcConfig_HostScreenData_Enabled=0;NdcConfig_DisableDepByOD=0;NdcConfig_KeyUsageB=0;NdcConfig_IsShutterEnabled=1;NdcConfig_IsTransitEnabled=1;NdcConfig_IsTSKDepositEnabled=0;NdcConfig_Timer_CashCount=2400000;NdcConfig_ExternalProtocolParams=16904;BacklightPinPad=4;NdcConfig_State_041_CheckPocketCaps=1;NdcConfig_NewIncasMenu=0;NdcConfig_ConfiguredDevices=3;NdcConfig_LUNO=377;NdcConfig_MaxMCN=63;NdcConfig_UseReadyB=17;NdcConfig_FromSupervisorToPrev=0;NdcConfig_UseTI=1;NdcConfig_UseSpecificReject=1;NdcConfig_UseReleaseID=1;NdcConfig_AmountLen=12;NdcConfig_SendTrStatus=1;NdcConfig_SendEdmStatus=0;NdcConfig_SendBnaCounters=335;NdcConfig_LastFitNumber=1312;NdcConfig_UseExtCdmHoppers=0;NdcConfig_UseExtCoinHoppers=0;NdcConfig_BcrConfig=0;NdcConfig_RollWidth=40;NdcConfig_LeftColumn=1;NdcConfig_EjMaxDataSize=200;NdcConfig_EjMaxTryCount=0;NdcConfig_Timer_00=150000;NdcConfig_Timer_01=90000;NdcConfig_Timer_02=2000;NdcConfig_Timer_03=60000;NdcConfig_Timer_04=30000;NdcConfig_Timer_05=20000;NdcConfig_Timer_07=1000;NdcConfig_Timer_60=255000;NdcConfig_Timer_61=60000;NdcConfig_Timer_78=90000;NdcConfig_Timer_94=30000;NdcConfig_Timer_50=30000;NdcConfig_Option_41=1;NdcConfig_Option_69=15;NdcConfig_Option_71=255;NdcConfig_Option_76=0;NdcConfig_SecurityFlags=1100000000;NdcConfig_MacTrRequest=1000100101110000000000000000000000000000000000100000;NdcConfig_MacTrReply=1001011100000000000000000000000000001;NdcConfig_MacSolStatus=00000000000;NdcConfig_MacOther=1101;NdcConfig_MacTrack1=000000;NdcConfig_MacTrack2=110000;NdcConfig_MacTrack3=00000000000;NdcConfig_MacEMV=11111;NdcConfig_CardlessState=Z53;NdcConfig_ConfigID=187;NdcConfig_UnsolDPAN=1;NdcConfig_TrxCounter=20919;NdcConfig_TerminalMode=4;ResetConfiguration_LoadFinishedTimeoutSec=180;ResetConfiguration_ResetTryCount=5;ResetConfiguration_RejectTryCount=5;ResetConfiguration_ReloadFunctionEnabled=1;ResetConfiguration_ResetMessageDelay=5;SparcParams_TurnOnSparcInitResultCheck=0;SparcParams_SparcInitTimeoutSec=20;SparcParams_SparcRebootTryCount=5;cim_update_presented_count_by_dispensed=False;cim_cashin_refuse_retract_area=RC;cdm_update_presented_count_by_dispensed=False;cdm_dispense_error_reset_area=RJ;hardware_list.CIM.logical_name=CashAcceptor;hardware_list.CIM.version_min.major=3;hardware_list.CIM.version_min.minor=10;hardware_list.CIM.version_max.major=255;hardware_list.CIM.version_max.minor=255;hardware_list.CIM.open_timeout=150;hardware_list.CIM.is_update_master_status_on_status_request=False;hardware_list.CIM.max_reset_count=3;hardware_list.CIM.interlive_reset_interval=300;hardware_list.CDM.logical_name=CashDispenser;hardware_list.CDM.version_min.major=3;hardware_list.CDM.version_min.minor=0;hardware_list.CDM.version_max.major=255;hardware_list.CDM.version_max.minor=255;hardware_list.CDM.open_timeout=150;hardware_list.CDM.is_update_master_status_on_status_request=False;hardware_list.CDM.max_reset_count=3;hardware_list.CDM.interlive_reset_interval=300;hardware_list.IDC.logical_name=CardReader;hardware_list.IDC.version_min.major=3;hardware_list.IDC.version_min.minor=0;hardware_list.IDC.version_max.major=255;hardware_list.IDC.version_max.minor=255;hardware_list.IDC.open_timeout=150;hardware_list.IDC.is_update_master_status_on_status_request=True;hardware_list.IDC.max_reset_count=3;hardware_list.IDC.interlive_reset_interval=300;hardware_list.PRR.logical_name=ReceiptPrinter;hardware_list.PRR.version_min.major=3;hardware_list.PRR.version_min.minor=0;hardware_list.PRR.version_max.major=255;hardware_list.PRR.version_max.minor=255;hardware_list.PRR.open_timeout=150;hardware_list.PRR.is_update_master_status_on_status_request=False;hardware_list.PRR.max_reset_count=3;hardware_list.PRR.interlive_reset_interval=300;retract_withdrawall_mode=1;disputed_notes_logic_version=0;request_timeouts.default_inf_rq_timeout=0;request_timeouts.default_exe_rq_timeout=0;request_timeouts.cim_replenish_rq_timeout=0;nfc_card_status_changed_event_reaction_time=2;lov_volume.volume_set=;lov_volume.jack_off_volume=;lov_volume.jack_on_volume=;exclude_level3_banknotes=False;brm_sensors_monitoring_enabled=True;default_nominals=;manual_enable_ex_deposit_cu=True;tsk_encashment_take_rejected=;cassettes.001.denomination=10000;cassettes.001.currency=643;cassettes.002.denomination=50000;cassettes.002.currency=643;cassettes.003.denomination=100000;cassettes.003.currency=643;cassettes.004.denomination=500000;cassettes.004.currency=643;ReceiptPrintStatus=2;MaxErrorLoginCount=5;Rotate.Logs.Path=[\r\n  "C:\\\\Sberbank\\\\LogsDbs\\\\logs\\\\Archive\\\\",\r\n  "C:\\\\scs\\\\LOGS_Archive\\\\PRJ\\\\"\r\n];Rotate.Logs.File=[\r\n  "*.zip"\r\n];Rotate.Keep.Unit=Year;Rotate.Keep.Value=1;Rotate.StorageThreshold.Free.Unit=Gb;Rotate.StorageThreshold.Free.Value=20;Rotate.StorageThreshold.Keep.Unit=Month;Rotate.StorageThreshold.Keep.Value=6;ClearAtmVersion.Days=7;ClearAtmVersion.Hours=8;ClearAtmVersion.Minutes=0;wdl_uniform_max_amt=100000;wdl_uniform_limit_643_100=10;wdl_uniform_remain_limit_643_100=1100;wdl_uniform_limit_643_200=10;wdl_uniform_remain_limit_643_200=1100;wdl_uniform_limit_643_500=20;wdl_uniform_remain_limit_643_500=1100;wdl_uniform_limit_643_1000=40;wdl_uniform_remain_limit_643_1000=1100;wdl_uniform_limit_643_2000=40;wdl_uniform_remain_limit_643_2000=1100;wdl_uniform_remain_limit_643_5000=1100;nda_BreakdownAmount=10000;nda_MaxNumberBill=10;nda_NewAlgorithmEnabled=False;fpsu_connection_status_enabled=1;cartidge_diagnostic_enable=1;planning_deploy_date=2024-08-07 11:54:18;scheduler_start_time=05:15;scheduler_work_time=30;scheduler_reset_period=21;scheduler_enabled=1;cash_found_outside_deposit_enabled=0;minimal_allowed_count_of_banknotes_100=200;minimal_allowed_count_of_banknotes_200=200;minimal_allowed_count_of_banknotes_500=200;minimal_allowed_count_of_banknotes_2000=200;minimal_allowed_count_of_banknotes_1000=200;minimal_allowed_count_of_banknotes_5000=200;target_count_of_banknotes_100=1000;target_count_of_banknotes_200=1000;target_count_of_banknotes_500=1000;target_count_of_banknotes_2000=1000;target_count_of_banknotes_1000=1000;target_count_of_banknotes_5000=500;maximal_allowed_count_of_banknotes_100=2000;maximal_allowed_count_of_banknotes_200=2000;maximal_allowed_count_of_banknotes_500=2000;maximal_allowed_count_of_banknotes_1000=2000;maximal_allowed_count_of_banknotes_2000=2000;maximal_allowed_count_of_banknotes_5000=2000;logical_weight_in_algo=1;specil_min_max_coef_in_algo=2;mask_for_remote_change_denom=1;new_reset_retained_cards_count_enabled=0;check_sn_cass_open_od=0;inventory_epp_sn=true;EPP_ID=OA162941;Logging.LogLevel.Default=Information;Service.Control.Logger.LogLevel=Information;Service.Control.Logger.File=SPA.log;Service.Control.SPArcMonitoring.TimeoutAfterInit_seconds=60;Service.Control.SPArcMonitoring.HeartBeatTimeout_seconds=60;launch_wait_timeout=15;launch_force_wait_timeout=20;isUniformCashOutAlgorithm=False;congratulationNewYear.isShowOnPgeAndMenu=True;congratulationNewYear.isShowOnInsertCard=True;congratulationNewYear.showStartAt=20.12.2023;congratulationNewYear.isShowAnimation1=True;congratulationNewYear.isShowAnimation2=True;congratulationNewYear.isShowAnimation3=True;congratulationMarch8.isShow=True;congratulationMarch8.showStartAt=14.02.2024;congratulationMarch8.showEndAt=09.03.2024;digitalCustomerPath=True;otherBankInfoLevel=0;selfEncashmentOptionalPrint=True;isWorkRedirectUrlBanner=True;withRedirectUrlBanner.ads=pop-up;pop-up-qr;pop-up-info;modules.bio.state=' ,'current_version.version=(\w+)|;)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E86" t="b">
@@ -2588,22 +2588,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>select 		* from 		k808_rx_hdp.prx_44_ias_pulse_hr_internal_saphcm_pulse.hparprd09 limit 100</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oakb.uvsk_claim_report as  select 	*  from k808_rx_hdp.t_team_sva_oakb."03489677_uvsk_claim_report"</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E87" t="b">
@@ -2613,72 +2613,72 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>line 3:12: Catalog 'capgp2' does not exist</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>SELECT * FROM k808_rx_hdp.t_team_sva_oarb."40_mxs_20240906_2432" AS t1 INNER JOIN capgp2.s_grnplm_ld_audit_da_sandbox_oarb."40_mxs_20240906_2432_v2" AS t2     ON t1.id = t2.id LIMIT 10</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>MissingObjectError</t>
         </is>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Partition location does not exist: hdfs://hdfsgw/sklsdpk2hdfs__HD_ATM_HOST_MAIN_240821-NRT_ATMHOST_CAP-CLOSED_TICKETS/data/core/nrt/atmhost_cap/pa/snp/atmhost_envelopeevent/nrt_atmhost_cap.closed_tickets/timestampcolumn=2022-04-28</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>select 		* from 		k808_rx_hdp.prx_44_ias_pulse_hr_internal_saphcm_pulse_hist.hparprd09 limit 100</t>
+          <t>select * from k808_rx_hdp.prx_hd_atm_host_main_240821_nrt_atmhost_cap.closed_tickets  limit 100</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>MissingObjectError</t>
         </is>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SELECT creation_date_dd, count(uoh_id) c_id from k808_rx_hdp.t_team_sva_oarb_11."42_pb1_efs_ufs_ophistory_nrt_new" group by creation_date_dd</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oakb.uvsk_claim_report as  select 	*  from k808_rx_hdp.t_team_sva_oakb."03489677_uvsk_claim_report"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E90" t="b">
@@ -2688,22 +2688,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Query exceeded distributed user memory limit of 27GB</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>select p.* 	,n.* 	---,k.* 	from k808_rx_hdp.t_team_sva_oarb."13_nezn_for_premier"  p 	left join  k808_rx_hdp.t_team_sva_oarb."13_net_premier_900_1" n on cast(n.ucp_id as varchar) =p.owner_id 	and cast (n.esb_msg_in_created_on as date) between cast(p.fact_end_date as date) and cast(p.fact_end_date as date) + interval '7' day</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_not_cars_fio" as select distinct a.*, b.profile_sapid, b.profile_adid, b.tb, b.osb, b.vsp, epk.last_name, first_name, middle_name,  epk.birth_dt --e.emp_id from k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_no_cars" a left join k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_clerk2" b on a.external_id=b.external_id left join sfd_hdfsgw_hdp.prx_42_gulynin_epk5_custom_rb_epk.epk_client epk on epk.epk_id = cast(a.ucp_id as bigint) and row_actual_to='9999-12-31' --left join sfd_hdfsgw_hdp.prx_42_gulynin_sotr_1_custom_risk_employees.t_sbrf_employees e on upper(e.emp_full_name) = concat_ws (' ', coalesce (epk.last_name,''), coalesce (first_name,''), coalesce (middle_name,'')) --and cast(epk.birth_dt as date) = cast(e.birth_dt as date)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E91" t="b">
@@ -2713,47 +2713,47 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>line 2:2: Column '_col0' cannot be resolved</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>select count (distinct z_pr_cred_c_num_dog) from k808_rx_hdp.t_team_sva_oarb."55_tdr_df_union_steps" --order by z_pr_cred_c_num_dog, date</t>
+          <t>select 	_col0 from (values('2024-09-19', '2024-09-19')) as a</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>MissingColumnError</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Value cannot be cast to timestamp: 20247364831273202513</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."13_net_card_curier"</t>
+          <t>SELECT 	cast(concat_ws('',cast(TSK.body.systemparamsinfo.datecreateevent AS array&lt;varchar&gt;)) AS timestamp) 	--from_unixtime(concat_ws('',cast(TSK.body.systemparamsinfo.datecreateevent as array&lt;varchar&gt;)),'yyyyMMddHHmmssSSS') 	,cast(concat(cast(TSK.body.systemparamsinfo.datecreateevent[1] AS varchar) 			,'-' 			,cast(TSK.body.systemparamsinfo.datecreateevent[2] AS varchar) 			,'-' 			,cast(TSK.body.systemparamsinfo.datecreateevent[3] AS varchar) 			,' ' 			,cast(TSK.body.systemparamsinfo.datecreateevent[4] AS varchar) 			,':' 			,cast(TSK.body.systemparamsinfo.datecreateevent[5] AS varchar) 			,':' 			,cast(TSK.body.systemparamsinfo.datecreateevent[6] AS varchar) 			,'.' 			,cast(TSK.body.systemparamsinfo.datecreateevent[7] AS varchar) 			) AS timestamp) + interval '3' hour AS "EventDateTime" 	FROM sfd_hdfsgw_hdp.prx_parus_task_selfservice_parus_tasks.tasks_test_1 AS TSK</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>TypeError</t>
         </is>
       </c>
       <c r="E93" t="b">
@@ -2763,22 +2763,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM (select * from k808_rx_hdp.t_team_sva_oarb."13_net_card_curier" ) dbvrcnt</t>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb.gulynin_epk_sms SELECT * FROM k808_rx_hdp.t_team_sva_oarb.epk_sms a</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E94" t="b">
@@ -2788,22 +2788,22 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Query exceeded distributed user memory limit of 27GB</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>delete from em_pay_history_cred</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb.FIO as select a.epk_id, a.fullname, b.birth_date from sfd_hdfsgw_hdp.prx_epk_dqepk_1_custom_rozn_dqepk.epk_client_name a join sfd_hdfsgw_hdp.prx_epk_dqepk_1_custom_rozn_dqepk.epk_client b on a.epk_id= b.epk_id</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E95" t="b">
@@ -2813,72 +2813,72 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>FATAL: terminating connection due to administrator command</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>select  		* from  		k808_rx_hdp.prx_44_lva_all_nadbavki_vklad_platform_b2c_cod_bonus.ru_sber_fp_db_model_entity_clientepk limit 100</t>
+          <t>INSERT INTO k808_rx_hdp.t_team_prfl_cdp.vma_t_4_25_buf SELECT      epk_id,     CAST(amount AS VARCHAR),     CAST(inn_organization AS VARCHAR),     payment_type_case,     '2023-12-31' FROM      rozn2_gp.s_grnplm_ld_rozn_electron_knlg_core.vma_t_4_25</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>FATAL: terminating connection due to administrator command</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>select h.collection_id,h.c_change_date change_date,h.c_resume,h.c_date_beg resume from		plan_hist	h</t>
+          <t>INSERT INTO k808_rx_hdp.t_team_prfl_cdp.vma_temp_cx_lstdt SELECT      epk_id,     last_activity_dt,     first_active_product_dt,     '2022-11-30' FROM      rozn2_gp.s_grnplm_ld_rozn_electron_knlg_core.vma_temp_cx_lstdt</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "17348432"</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SELECT losscontrid, id, losscontrid_new, id_new, paydate, payout, payoutrub, currency, currency_id, updatedate, decisionid, archive_name, file_name, ctl_pa_loading, ctl_action, ctl_validfrom, ctl_validto, ctl_loading FROM sfd_hdfsgw_hdp.prx_02184579_sbszh_702_selfservice_sbszh.losspayout limit 100</t>
+          <t>select b.* , a.* ,  q.task_answer , q.task_answer_full , q.req_answer , q.req_answer_full , q.task_text_sol  , q.task_owner , q.task_result From capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."40_kaluginvs_anofl_appeal_2024" a join  k808_rx_hdp.t_team_sva_oarb."42_Lazarev_B" b on cast (a.cust_epk_id as bigint  )  = cast (b.ucp_id as bigint  )  and cast (b.creation_date_dd as timestamp) &lt;= cast ( a.created as timestamp) limit 100</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>TooManyConnectionsError</t>
         </is>
       </c>
       <c r="E98" t="b">
@@ -2888,22 +2888,22 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-- EKP - кредиты -- 0.5мин insert into em_pay_history_cred(id,dt,inn,client,ref,ac) with kd_list as (   select cast(prod.id as bigint) id,l.dt   ,cast(cred.c_client as bigint)     ref1   ,cast(cred.c_list_plan_pay as bigint) ref12 -- collection_id of plan operation   ,cast(cred.c_list_pay as bigint)   ref13    -- collection_id of fact operation   ,cast(prod.c_com_status as bigint) ref14   ,cast(cred.c_list_prol as bigint)  ref17 -- collection_id of restruct   ,cast(cred.c_zalog as bigint)      ref18 -- collection_id of obesp   ,cast(prod.c_filial as bigint)     ref31   from   idlist l   join   k808_rx_hdp.prx_ekp_pcp1_internal_ekp_reports_ibs.z_product  prod on prod.id=l.id   join   k808_rx_hdp.prx_ekp_pcp1_internal_ekp_reports_ibs.z_pr_cred  cred on cred.id=prod.id )   select kd.id,kd.dt,null,clnt.c_name,kd.ref13,'ekp'   from   kd_list        kd   join   k808_rx_hdp.prx_ekp_pcp_2_internal_ekp_reports_ibs.z_client  clnt on clnt.id=kd.ref1</t>
+          <t>select * from t_cars_kap.shvets_ekb</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E99" t="b">
@@ -2913,22 +2913,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>with tab as ( select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_alpha_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_beta_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_delta_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_gamma_opf_management.private_service_package ) select distinct description from tab</t>
+          <t>SELECT COUNT(*) FROM (select b.epk_id, a.nsi_id from k808_rx_hdp.prx_custom_rozni_tag_custom_rozn_tag.ft_master_hshtg as a join k808_rx_hdp.t_team_sva_oarb."42_21608829_epk_bad_1610" as b on cast(a.epk_id as varchar) = b.epk_id ) dbvrcnt</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E100" t="b">
@@ -2938,22 +2938,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Query text length (1149974) exceeds the maximum length (1000000)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>select * -----distinct clientsegment from sfd_hdfsgw_hdp.prx_42_slm_pla_uvsk_b2c_servi_call_platform_uvsk_b2c_service_call.ru_sbrf_cc_sbercrmb2c_proceed_jpa_client limit 100</t>
+          <t>insert into idlist values  (3991304550258,null), (3714704870790,null), (2847647877143,null), (2899143132044,null), (3940196359112,null), (4279521330446,null), (3707725340230,null), (2912508314316,null), (3749205993550,null), (3973637356064,null), (3322833304912,null), (2905575860086,null), (4114405835456,null), (3452423952960,null), (3974841956176,null), (4036071918508,null), (3260327240036,null), (2803376037254,null), (2889345030593,null), (4375003587556,null), (2668742899596,null), (3426310266848,null), (2740977504102,null), (3851856535852,null), (3337106788080,null), (2784630312637,null), (3692076786630,null), (2878943993404,null), (3225038170236,null), (2969029238160,null), (4833809592572,null), (2917184090847,null), (3722985190794,null), (3491104925362,null), (3776469701946,null), (3994655653526,null), (2837024799518,null), (4201204787000,null), (4134416301570,null), (2877783192395,null), (4186794384122,null), (2880289950351,null), (2768449371487,null), (3974906084192,null), (4261346264484,null), (3358542804200,null), (3305200609336,null), (2954265562911,null), (4315059357576,null), (3585602713882,null), (4344455009456,null), (2832651738189,null), (3663482853974,null), (2767563407785,null), (2844656527822,null), (3870137827000,null), (4086363855188,null), (4246495286820,null), (2847617205734,null), (2934434696761,null), (3074739799455,null), (2796214884991,null), (2461667993865,null), (2875310204954,null), (2505530750802,null), (3229674694852,null), (2900661022706,null), (3769573689938,null), (3701749954176,null), (3934099560704,null), (3182639313274,null), (3004957536789,null), (2530349224696,null), (3594778806696,null), (3500581482988,null), (3399911117554,null), (3765629510010,null), (2967602789730,null), (2495797014437,null), (2843706541495,null), (4250083482628,null), (4244966173154,null), (3135504012866,null), (3818383979216,null), (2666616881741,null), (2851587939545,null), (4240140682072,null), (3688216343736,null), (2648536217497,null), (3206027076194,null), (2511626989298,null), (3313373467150,null), (2881061958072,null), (3943002206842,null), (3958086261694,null), (4310135956628,null), (4611007030702,null), (4088566228598,null), (2873336630081,null), (3909870586894,null), (3508510334874,null), (2746000895113,null), (2779804102098,null), (3997125564542,null), (4201758046936,null), (3159438844168,null), (2859059368414,null), (2883981533997,null), (2997935603087,null), (3254554370450,null), (4113197597636,null), (4360146858162,null), (3772980704828,null), (2876951064376,null), (3317149661988,null), (3381727702954,null), (2831449490610,null), (3982443883038,null), (2927316050436,null), (2884721767281,null), (3918140068100,null), (4256581852902,null), (3853214988372,null), (3279614456664,null), (2860617433411,null), (3426323882672,null), (3875251122824,null), (3684828682824,null), (3179455703762,null), (4287289801866,null), (3929013754028,null), (4114423545378,null), (2986020500672,null), (2935235702407,null), (2674770803856,null), (4111979769700,null), (4249667082182,null), (4325811313698,null), (2916530289895,null), (3447885329900,null), (2759601417167,null), (2819209153637,null), (4282551002732,null), (2795685265298,null), (3371057899090,null), (3598788799916,null), (3429914325082,null), (2838574980730,null), (2855057519327,null), (2795763143659,null), (3626504472384,null), (3748249309940,null), (4186242211832,null), (2984137911365,null), (4277886205880,null), (3092665785760,null), (2901815853636,null), (4224127977282,null), (2791661140791,null), (2881165562924,null), (4261520275590,null), (3254342060362,null), (4098330244400,null), (3397430334838,null), (3142687825751,null), (2873553209821,null), (2947911324072,null), (4237686456938,null), (2927330301344,null), (2924726706374,null), (3372913966198,null), (3819371640834,null), (4297286526202,null), (3864745670970,null), (4437371856048,null), (4009702264904,null), (3082465464536,null), (2968391247154,null), (3714292070452,null), (3745643255062,null), (3697368946686,null), (3738611820324,null), (4273021012166,null), (2534702779959,null), (3658297201430,null), (3276346428338,null), (4288584128282,null), (4303311420266,null), (3750101534672,null), (4252624303298,null), (3474200624030,null), (4293990917550,null), (2531129135133,null), (4322842611122,null), (3982472098046,null), (3766960478384,null), (2922764136869,null), (2869831954374,null), (4313746365266,null), (3981490231980,null), (3781592546374,null), (3776922453458,null), (4285802126542,null), (3502502853700,null), (4132678431728,null), (2682229827120,null), (3691525512098,null), (3405001741938,null), (3756149409912,null), (3825921648924,null), (3699646064536,null), (3199697308682,null), (3374606368264,null), (4222084292438,null), (4452684439148,null), (2804738155971,null), (2999302515019,null), (4275051247854,null), (4227933376998,null), (3739826129036,null), (4065009215096,null), (4255220693360,null), (3917554946718,null), (3917266202548,null), (3040440932865,null), (3708145094452,null), (4116779089142,null), (4308996819470,null), (4241673610358,null), (4280508064224,null), (4240913767470,null), (3814073926754,null), (3627717830156,null), (2950047362721,null), (2814915969624,null), (3646794344948,null), (3900544659766,null), (3001670072206,null), (2763351389259,null), (2833226608160,null), (3678532461072,null), (3821138509040,null), (2915982439640,null), (3636668557354,null), (3830831980476,null), (3725912359890,null), (4211647082906,null), (2955470809224,null), (3628306761820,null), (2779506223621,null), (4271016393654,null), (3201779757066,null), (3274744463126,null), (4072287155304,null), (4322210519328,null), (4288687906566,null), (4238355335090,null), (2953294826378,null), (3370560284038,null), (3722695014818,null), (4211682471104,null), (4269782901732,null), (2871471044220,null), (2948991429473,null), (3977137041628,null), (3263100238182,null), (3073284102358,null), (3087621562156,null), (3138216606040,null), (3286897184918,null), (3864286700202,null), (2864370652379,null), (4130717465020,null), (4310787918216,null), (3935036243622,null), (3795090613458,null), (3080735900221,null), (2874248221188,null), (3632708506216,null), (4316517014900,null), (4323394629906,null), (3095635484803,null), (2986106828402,null), (3526130046790,null), (3488918651744,null), (4246117823376,null), (4315001028960,null), (3064253150208,null), (2925283537556,null), (3675452086340,null), (4247724264368,null), (2848240920393,null), (3116242094967,null), (2897699335049,null), (3711308751432,null), (4230587245746,null), (3473776674802,null), (4115796709844,null), (2868749870864,null), (3993132497040,null), (4664709675188,null), (4130899623776,null), (4328057807450,null), (3628279686170,null), (3989563365866,null), (4254520285270,null), (3496734049530,null), (3736642841508,null), (2877154018572,null), (2921843129219,null), (4298991191068,null), (4311756787454,null), (2848180420927,null), (3280546683644,null), (3348224796652,null), (4490845099704,null), (3949300736858,null), (4166285392616,null), (2950299312677,null), (4077270494932,null), (2930374985916,null), (3730494201650,null), (3951109246810,null), (3475697248932,null), (2983956293159,null), (3171669587192,null), (4235333988948,null), (4051437811850,null), (2928139259814,null), (2810602142560,null), (4313412447682,null), (3401850284026,null), (4321842785258,null), (4288208183038,null), (4198226398068,null), (3687265280864,null), (3684884893836,null), (4324202405734,null), (3151462504017,null), (3397103839314,null), (3037743570153,null), (3328748180918,null), (2964135581673,null), (4492046145582,null), (3692635644856,null), (4142797282316,null), (4227705706852,null), (4286214917060,null), (3259740418136,null), (3644094895020,null), (3663535654136,null), (3923695567184,null), (4224586219168,null), (3725682286762,null), (4214942859320,null), (4262732672144,null), (3888795949876,null), (3769832076606,null), (3987707840204,null), (3335653269590,null), (3325519475302,null), (2987786246412,null), (4192157639042,null), (3762444170312,null), (2861686095551,null), (3045618074853,null), (4260731127420,null), (3736469730882,null), (3718509913308,null), (3429928831370,null), (3202490420286,null), (4097817323064,null), (2938070041125,null), (3589036953010,null), (2877524667848,null), (3512850913474,null), (4277602232786,null), (4322404626084,null), (3943650025488,null), (4088575616784,null), (2721024464654,null), (3848584644246,null), (3990285006964,null), (3499956714228,null), (3340619052314,null), (4304958170078,null), (3758392931064,null), (3084514817870,null), (3716639724466,null), (4312282999098,null), (4013001997540,null), (4299621373710,null), (4458201805110,null), (4077256045006,null), (3309590539698,null), (2970762297512,null), (3344368742166,null), (4001809724594,null), (3787428455028,null), (2703611345253,null), (3780480807504,null), (3402474631344,null), (3772147659390,null), (2956491529628,null), (4108363061300,null), (4090754480164,null), (3911684774778,null), (3966408467596,null), (3953024433746,null), (4088531401528,null), (3063303027109,null), (2675979194412,null), (4318739771826,null), (3833392005958,null), (3807830082418,null), (4299807567110,null), (3046614956826,null), (3146079437068,null), (4011471782076,null), (2867985980286,null), (3753862139512,null), (3408199280418,null), (3944139716428,null), (3952099308464,null), (3504706103636,null), (3306780961020,null), (4258787781030,null), (4324258747364,null), (4013872788382,null), (2981520773861,null), (3112425210402,null), (3716534555284,null), (4039155531476,null), (3730685378812,null), (3338780967766,null), (3308614330434,null), (4252193581132,null), (2986460195167,null), (3643113747254,null), (4367900551224,null), (3961068444318,null), (2957273414745,null), (4086438104216,null), (4311895062440,null), (3323197829468,null), (3264225381430,null), (3962898503460,null), (3976979664996,null), (4029658090942,null), (4454180095258,null), (3768858527910,null), (2976070323887,null), (4664302814874,null), (4283200585744,null), (3769655855390,null), (4264974043438,null), (3852392826822,null), (3723761967792,null), (4274704851714,null), (2889213810649,null), (3207585020150,null), (2839032971244,null), (2988373515657,null), (4468372051458,null), (4202671534002,null), (3046394847789,null), (3958401364166,null), (3955995343492,null), (4003596323520,null), (3934756373638,null), (3758915188970,null), (4145891583970,null), (2743628911981,null), (2825894691274,null), (3486712015518,null), (3603953718164,null), (2918298303061,null), (3949102273266,null), (4277903829396,null), (4174743499190,null), (4027758437894,null), (3351400883772,null), (4051686914352,null), (4045202593246,null), (3542030257806,null), (2839458449318,null), (2958728999164,null), (3702700877122,null), (3993362589592,null), (3972921507042,null), (3941222170702,null), (3267116036826,null), (3391730848806,null), (3064370730616,null), (2969199199175,null), (3237457255710,null), (3032879735392,null), (3903408633162,null), (3164599447926,null), (3940826556244,null), (4417345697522,null), (2668964431636,null), (4233940890002,null), (4431948494340,null), (3991311825838,null), (3421306915810,null), (4010597910696,null), (3872184822000,null), (3642406657998,null), (3401082378646,null), (3949438609530,null), (3332468845766,null), (4027467756778,null), (3339126416230,null), (2913196595720,null), (3952052319612,null), (3706213160188,null), (4045212564498,null), (3252478810190,null), (4202180873486,null), (3783589904646,null), (3977002062008,null), (2845895622096,null), (4028478299474,null), (3791011856312,null), (3147185228670,null), (4298196328600,null), (3932285223990,null), (3387979900246,null), (4067762305186,null), (3154259996727,null), (3955769536806,null), (3220354845366,null), (2891384923432,null), (3764318091668,null), (4003417638256,null), (4373468223238,null), (3955641373500,null), (3292384114770,null), (3754419316710,null), (4178046292502,null), (4142270995998,null), (2922409284404,null), (3260149637828,null), (2974922952495,null), (4072624012814,null), (3601631564848,null), (4322178147478,null), (3145289308626,null), (2863854880252,null), (3478799266662,null), (4080768661682,null), (3872150082982,null), (4211258598790,null), (3483411544918,null), (3309402531134,null), (3777016870424,null), (4054257874414,null), (4307065893026,null), (2987533254545,null), (2951098778957,null), (3950785178192,null), (4059132563038,null), (3752554005404,null), (3287532361910,null), (3862266352114,null), (2815053472629,null), (4296460927028,null), (2821897572571,null), (4847904014600,null), (3926747721554,null), (3055487487716,null), (4353912827665,null), (4207213625830,null), (3066329481575,null), (3323731400250,null), (3682795138054,null), (3709923788212,null), (3985187790788,null), (3060209648692,null), (3910757771622,null), (2953217153276,null), (2843104187485,null), (4213230685678,null), (4319584670338,null), (3766443132438,null), (2508043485149,null), (3159242875266,null), (3140783998153,null), (3646721523020,null), (3973062829032,null), (2934606371454,null), (3640626475282,null), (2953500978778,null), (4400925702146,null), (3233530782204,null), (3636366686386,null), (4258714088280,null), (2917415699215,null), (3918412224748,null), (3280981643770,null), (2879651354395,null), (4204670287904,null), (3927086899146,null), (4488263150674,null), (2979571915494,null), (3146693988686,null), (3405153707250,null), (3749144487136,null), (3718154956142,null), (3685256627822,null), (2770120316219,null), (3763787419322,null), (3450875456938,null), (3449801707066,null), (4006716172642,null), (4318283000640,null), (3805466738500,null), (3181875666574,null), (3573235476782,null), (3943165180658,null), (3720246576248,null), (3554125786068,null), (3750762077366,null), (4065358849934,null), (3464701406086,null), (4129806770868,null), (4172121577572,null), (4278546187224,null), (4287099591388,null), (4507616527270,null), (4720023650984,null), (3489128363084,null), (3255405721284,null), (4088484498462,null), (2877096893537,null), (3876701330402,null), (3475611147496,null), (2851894931460,null), (3448111397700,null), (3890505531118,null), (4811882917796,null), (3144104485294,null), (2565883891758,null), (4306832123204,null), (4633775386332,null), (3813289598280,null), (3301738463396,null), (3718577401920,null), (2914787931591,null), (4096391791864,null), (3202796028450,null), (4207394509602,null), (3451859726634,null), (2521472942038,null), (4108331538882,null), (4598401664506,null), (2879681548900,null), (3686982702094,null), (2967570528929,null), (3979581678284,null), (3673432009368,null), (3975186593068,null), (4304768451954,null), (4106213389268,null), (4292297167508,null), (4772129039396,null), (2884394061850,null), (2442593315742,null), (3702105754614,null), (3977312030124,null), (3868414755652,null), (3170020193906,null), (3975042682100,null), (3866646233520,null), (2922480948072,null), (4112695414600,null), (4283623340668,null), (2948128065155,null), (3392138900940,null), (4246484271144,null), (3744019052250,null), (3659492506464,null), (3727905657112,null), (3714335901956,null), (3188663025140,null), (4090315427688,null), (3953243018112,null), (2778971636365,null), (3377452065150,null), (3981038664484,null), (2839038758818,null), (3046225738083,null), (4326187761278,null), (2805013086733,null), (2907865113550,null), (4102468766206,null), (4364073612672,null), (3902413041922,null), (4294419888560,null), (4204748939840,null), (4538922713608,null), (3530039822752,null), (2793937165232,null), (3424120649980,null), (3179180457232,null), (2912241076475,null), (2910447386412,null), (2840303605217,null), (3590447079410,null), (4174710854766,null), (4213234204782,null), (4317452900784,null), (4043289353528,null), (4127438353060,null), (4321931991206,null), (3154719866006,null), (2984611708604,null), (4048844796758,null), (3710104253530,null), (2949665516134,null), (2717127775283,null), (2719778733198,null), (4250135134556,null), (2873556120535,null), (3679027665346,null), (3884544589034,null), (4297486734394,null), (3934062219888,null), (3394350043822,null), (4300251934054,null), (4305616292778,null), (2881518051842,null), (2924874135480,null), (2698579506390,null), (2992310181026,null), (3150601562143,null), (3004339553214,null), (4266385215334,null), (3307037825706,null), (3874476747178,null), (4283904417070,null), (3492818669170,null), (2916459453271,null), (2798560975390,null), (2888954224183,null), (4862644297382,null), (3717033993776,null), (4525080680130,null), (2814091213369,null), (3400304214400,null), (3724829487022,null), (4221022072804,null), (3711207867580,null), (3686355897688,null), (3973203729750,null), (3181964978464,null), (2924494247920,null), (3324503982312,null), (2894150911578,null), (4170812679922,null), (3498999656690,null), (4286015527388,null), (3257290580094,null), (2340848245408,null), (3778764535250,null), (2468770269943,null), (2946539757567,null), (3929127558122,null), (4316731044912,null), (3717616977042,null), (2988887783829,null), (3594337985058,null), (4035435779794,null), (3621628578376,null), (3949286984260,null), (3106101522948,null), (4108704539720,null), (2755773484783,null), (4281239393008,null), (3040512196959,null), (4285971630250,null), (2827824027084,null), (3651493912630,null), (3296673874440,null), (3227788882680,null), (2923255541082,null), (3695086035500,null), (3640724986076,null), (3955290857014,null), (4326682353146,null), (4198277369434,null), (2922089557542,null), (3980020819656,null), (3018597469913,null), (2859134722629,null), (3986311487884,null), (3856899894472,null), (3931697809316,null), (3398642088742,null), (2921818789273,null), (4210069220256,null), (3633854818534,null), (2849554013728,null), (4116477905302,null), (3441210750724,null), (2539025902216,null), (3220378237456,null), (2980047119085,null), (3163146674596,null), (2874849448781,null), (2931252383953,null), (3707671904854,null), (4278777045912,null), (3140959360533,null), (3153535637693,null), (3986663698262,null), (4326016862488,null), (4284873860298,null), (4274041448126,null), (3778248261358,null), (2786434637801,null), (2990335663068,null), (3836590414128,null), (3949985770890,null), (2922835430401,null), (3097989641318,null), (3394342112990,null), (2981418891401,null), (3733341211868,null), (2939585458273,null), (4099809142902,null), (3622953514586,null), (3065679105244,null), (3683679207460,null), (3731302036692,null), (2780454877241,null), (2922203974552,null), (2530114095671,null), (4317325201988,null), (4341705109912,null), (4087846768084,null), (2919266719437,null), (3890951068184,null), (3982626509582,null), (2901154399731,null), (2923904309805,null), (4724066726960,null), (2890716777235,null), (3781274068492,null), (3629732535782,null), (3986659348366,null), (3512063393930,null), (4296494809296,null), (2930545001667,null), (3758908596188,null), (4199007521410,null), (2821226673891,null), (3213986246912,null), (2927095692489,null), (2799043254635,null), (3493844932650,null), (3182040424544,null), (3632692145086,null), (2837728781133,null), (3495706943282,null), (3753014877892,null), (2770148860232,null), (3475394120890,null), (3398415448244,null), (4284825222838,null), (3685122816384,null), (3207899661658,null), (3903466014770,null), (2849031570762,null), (4200413721786,null), (2922456371444,null), (4198310400454,null), (3932808258488,null), (4282180290656,null), (4268748969818,null), (3955219791300,null), (3111692693843,null), (2681124250269,null), (3769373892710,null), (2691336275196,null), (3321365224768,null), (3662394145438,null), (4203329569142,null), (2801346458185,null), (3738697777788,null), (4124923904746,null), (3434266346840,null), (4502622470882,null), (3321067699288,null), (4463130977802,null), (2872622872417,null), (3710307769520,null), (3659080749854,null), (3626406014416,null), (2793891434835,null), (3688719556000,null), (4291460027928,null), (3686681469022,null), (2923600455053,null), (3771862946294,null), (4278662046802,null), (2920002181089,null), (3716692165328,null), (2972260339408,null), (4261727781700,null), (4321670540864,null), (2819813402839,null), (4108588167634,null), (4294633198878,null), (3856559067878,null), (4152178867756,null), (3298944844804,null), (3563024929776,null), (3897147095534,null), (3341081102960,null), (2816362854091,null), (4431231392768,null), (4280815803690,null), (3588836788890,null), (4321952192592,null), (3267910641618,null), (3807310567224,null), (3730435345062,null), (4090250310070,null), (4080189786010,null), (3745706314936,null), (2885692395869,null), (3736381513524,null), (2821801611117,null), (3603080590436,null), (3323045470268,null), (2840839705509,null), (4150675754682,null), (3313575108636,null), (4243071263140,null), (4832465102648,null), (4232668997362,null), (2946772450863,null), (4122305120382,null), (4765169677042,null), (4006646949080,null), (3721178820870,null), (3886947362720,null), (3522683224874,null), (3458025231434,null), (3723785163518,null), (4151828422368,null), (4083677863464,null), (2803760445597,null), (3754235204788,null), (4210268060758,null), (3982651500982,null), (3052684620773,null), (2858386944473,null), (4291403019662,null), (3743908173452,null), (3736420744734,null), (3692639419038,null), (2842257343492,null), (2912220884354,null), (2980488105349,null), (3764696697018,null), (4263873104720,null), (3907254618162,null), (3630699905052,null), (2811273223135,null), (3318949314350,null), (4085545392722,null), (2917685946992,null), (3046254002039,null), (3649466178466,null), (3915853854350,null), (3396955544070,null), (3407700530680,null), (4116025092226,null), (3744689546756,null), (4289712159106,null), (3151095718908,null), (3991792809440,null), (3716107166042,null), (2826110490699,null), (3178644508802,null), (3811575160820,null), (3451693277378,null), (3693055959944,null), (4211047516206,null), (3160735241744,null), (3189811207216,null), (3509441684828,null), (2983074887678,null), (4291508823702,null), (4258744456910,null), (4093932186454,null), (4282615388348,null), (4287093717228,null), (4235818974502,null), (3461252656634,null), (2762332023537,null), (3886309809948,null), (3446831411042,null), (2845819936371,null), (3408463470276,null), (2970592950746,null), (3964106194406,null), (3020901700320,null), (4382471764762,null), (4011910355240,null), (3073979481272,null), (2958067826226,null), (3917198057612,null), (3087537897528,null), (2917286541349,null), (3338782080808,null), (2824487100121,null), (3910536399362,null), (4310934674400,null), (3271576289258,null), (3396935294088,null), (4300384456992,null), (3029753648408,null), (3434438667072,null), (3209195867956,null), (2822026008393,null), (4296077742578,null), (3706745418028,null), (3163589526834,null), (3148288529418,null), (4100043792088,null), (2845452720697,null), (3697268342194,null), (3989601682140,null), (3334392549826,null), (3740391709482,null), (3436914437738,null), (4322299780528,null), (3734229708946,null), (3756648822708,null), (2794763197456,null), (3772083931686,null), (3780591782644,null), (3270733319032,null), (4200470055112,null), (3774917590822,null), (3654569685870,null), (3778973364538,null), (3136460771452,null), (3772122670238,null), (3264690158134,null), (3210931343720,null), (4185431910596,null), (3955250970026,null), (3688518303254,null), (3741325837188,null), (3385091989620,null), (4011846177522,null), (3987138457134,null), (3661395828486,null), (3706542435272,null), (4114438608074,null), (3983019071668,null), (3991293126776,null), (3768218902050,null), (3143237585307,null), (4236615127878,null), (3740106968884,null), (2820316298613,null), (3109867114356,null), (3771853446768,null), (3205997098088,null), (2886502682912,null), (3994103785440,null), (2790005359274,null), (4085834248084,null), (4198342495422,null), (4252972831316,null), (3687705949582,null), (4232374719028,null), (2991445799865,null), (3396554498262,null), (4794503515886,null), (3786182904520,null), (2956463701571,null), (3877015641578,null), (3703762335694,null), (3286980126340,null), (3245458608988,null), (3414841972240,null), (3370908471814,null), (3400759394394,null), (3432856539600,null), (3371871655144,null), (3394771714050,null), (4253100643536,null), (3985450246232,null), (2956520616820,null), (2382071628835,null), (4207746174560,null), (4093276880242,null), (3767621993246,null), (4623192914694,null), (2809402927672,null), (3071973254523,null), (2795581281362,null), (3562803121810,null), (3686646260024,null), (4049713136024,null), (2805449400265,null), (3788972614760,null), (3446408649876,null), (3417995075654,null), (3005094146329,null), (3373723317952,null), (4637265073612,null), (4326711056498,null), (3743907383568,null), (3469833105920,null), (4023238955600,null), (3923475150528,null), (2776372625011,null), (2834134606210,null), (3332237266098,null), (3954115369724,null), (3419112544188,null), (3439747095158,null), (3789708120170,null), (4023344772126,null), (3663829245426,null), (3427176267404,null), (3425509201614,null), (3944485038606,null), (3255537849844,null), (4025394739430,null), (3269368270520,null), (4328198661324,null), (4161902885018,null), (3337565515060,null), (4172473696788,null), (3963393325956,null), (4531074128656,null), (3734562757578,null), (2743506402931,null), (3988951421362,null), (3685183365190,null), (3858935308854,null), (4228196830300,null), (4486744794906,null), (3737974393424,null), (3912957320090,null), (3463117949958,null), (3994672846848,null), (4078014297260,null), (3772029524528,null), (3956900056826,null), (3396545693640,null), (3725845491080,null), (4452451228900,null), (4258322514868,null), (2991462011142,null), (3932339488636,null), (4058836050996,null), (3321591067574,null), (3658696624310,null), (3449646421792,null), (4156306151770,null), (3721786233652,null), (3938411524314,null), (3830408265424,null), (4193953554668,null), (3666625556988,null), (2824995289514,null), (3622364919760,null), (4456327861170,null), (3312864437352,null), (4224240584714,null), (3842787595058,null), (3952269824054,null), (4017711455110,null), (4018893281104,null), (2850019288595,null), (2872518992549,null), (3685005045198,null), (3924157351666,null), (3996972458448,null), (3964224803672,null), (3649530441398,null), (3463052314192,null), (2872585091611,null), (3383517281274,null), (3779009499844,null), (3106500389788,null), (2912533064352,null), (2963896573026,null), (3636325686328,null), (3767804672810,null), (3950659005622,null), (4311643482302,null), (3335265989972,null), (4283463977258,null), (4201903866070,null), (4278471085288,null), (4045541094260,null), (3990388349632,null), (2448561501509,null), (3948905934944,null), (4299683328628,null), (3269674829118,null), (4525859753378,null), (3953010907670,null), (4496309524046,null), (3972894290374,null), (2392215968414,null), (3954251211548,null), (2703013280820,null), (3398459085874,null), (3970149318340,null), (2848594324617,null), (4298831310580,null), (3299292926118,null), (3053467683141,null), (4280385319846,null), (3451432669914,null), (3998720377522,null), (4493185424948,null), (3914473620606,null), (4284748349254,null), (4038533521320,null), (2825022262571,null), (2797120086285,null), (4398436567876,null), (2520071428002,null), (4049240464442,null), (4000050570876,null), (2737287647644,null), (3760923595512,null), (3941995572546,null), (2906146006045,null), (3898116212056,null), (2931659170602,null), (4375950618814,null), (4269024710554,null), (4354856430832,null), (4315727393056,null), (3688283511920,null), (4314580481212,null), (4317124587694,null), (3145588047209,null), (2854918960412,null), (4444616928574,null), (4265584313938,null), (3946904860670,null), (4045249381760,null), (3121326913495,null), (3768653199862,null), (3774225820970,null), (3348110238944,null), (3716858617860,null), (2992306991409,null), (4241155149334,null), (4063508829914,null), (4039239447066,null), (3985019689016,null), (2987894065731,null), (2973827360307,null), (3946549288278,null), (3863218957802,null), (3141010730501,null), (3410630233902,null), (3936064269088,null), (4037943658094,null), (4052520660926,null), (3586921008588,null), (4333391262790,null), (3414471950630,null), (3508664873590,null), (2968153112081,null), (3371562563062,null), (3984732020952,null), (3490282352178,null), (3795060582582,null), (3988046230128,null), (4297229096070,null), (4230343100994,null), (3323815551626,null), (3821410874164,null), (3116886444429,null), (2851602731602,null), (3888732653924,null), (4480206012050,null), (3975259466574,null), (3168218919180,null), (2801963867959,null), (3934176039976,null), (2698383204197,null), (4088687629682,null), (3159504607914,null), (3769199701050,null), (2357124613990,null), (3733996028002,null), (2800804281890,null), (2962398004808,null), (3730434392000,null), (2508783370633,null), (4045625276292,null), (3507364941946,null), (4300835553034,null), (4304482947300,null), (3421742165490,null), (4023016537508,null), (2956758843648,null), (3352479469196,null), (3524332053678,null), (3265130319938,null), (3726123704706,null), (3677416354290,null), (3006816051239,null), (3444749665572,null), (4074194765466,null), (2782974155165,null), (3659180933520,null), (4061971652242,null), (3897330928832,null), (3732471040626,null), (3831970484140,null), (4311776128610,null), (4089281013930,null), (4478346457894,null), (4296878822128,null), (3938290643480,null), (3780880474762,null), (2818080105861,null), (4652808343322,null), (4171181580164,null), (3988811936690,null), (3933116966006,null), (3579629000874,null), (3567192657452,null), (3867293194948,null), (3542961306778,null), (3435222402428,null), (2924987466784,null), (3156800582596,null), (4004111149866,null), (3971186130162,null), (2811555753361,null), (3708169890950,null), (2696399028883,null), (3986920198524,null), (3202200441714,null), (2973341497029,null), (3922432336386,null), (4165504264400,null), (2847168349090,null), (3434709845798,null), (3989883842032,null), (4054856773296,null), (3276529001828,null), (3872081441056,null), (3854195910688,null), (3316856388644,null), (4216165503350,null), (4311488121948,null), (4245611449690,null), (4318603140530,null), (3714863688832,null), (4022542881978,null), (4322573201726,null), (3969861672094,null), (4277230364286,null), (3437180674846,null), (3457966642472,null), (3343457639536,null), (4238157280270,null), (3890171477338,null), (3688165170208,null), (3934738907956,null), (4234827795970,null), (4051017828004,null), (4538662533230,null), (3796158589666,null), (2787153898200,null), (3951395193452,null), (3126567108235,null), (4277880839420,null), (3421839574836,null), (3002144363137,null), (4129717085326,null), (4053270331708,null), (4146351307162,null), (3835417336762,null), (3783397966260,null), (3738337672966,null), (4156819190760,null), (3088734294372,null), (3971404550102,null), (3407447998526,null), (4139234805928,null), (2916670070325,null), (3888757913242,null), (2887689442133,null), (3971659791548,null), (3255427686036,null), (3933827670234,null), (3496275803936,null), (4302185061734,null), (3147800661818,null), (3486353031264,null), (4316282874016,null), (4038511260562,null), (2781489164719,null), (4211755164590,null), (4227455673788,null), (4070098062074,null), (4227492010322,null), (3003460302357,null), (4006933547422,null), (4413080213824,null), (3950745884412,null), (4341147910728,null), (4224491686306,null), (3777010395046,null), (4287696311482,null), (4185889560562,null), (2917191318627,null), (2768430083316,null), (4154432092972,null), (3271022556262,null), (4299738656658,null), (4044441568042,null), (4262637150616,null), (3990098188672,null), (3945080075508,null), (4230890791766,null), (3424311045224,null), (4102355734970,null), (4307377293322,null), (2843825541250,null), (3110015541208,null), (4165979490128,null), (4256462846586,null), (3936415255504,null), (4163527958724,null), (3952344752696,null), (4289468696488,null), (3317354272418,null), (3485901254680,null), (4040502617494,null), (3500052630082,null), (3318777025134,null), (3400983496838,null), (4002837631474,null), (2749022361292,null), (3414913297942,null), (4330374602606,null), (4016415955678,null), (3649051207014,null), (3945042175724,null), (4066556349086,null), (2972100323703,null), (4829823499416,null), (3817176275322,null), (4235292830350,null), (3809813531570,null), (3911043792410,null), (3168290932568,null), (4079826685072,null), (3993878605580,null), (3398430401650,null), (4330041350148,null), (4224542217028,null), (4222245352620,null), (4388366073528,null), (3446646150622,null), (4046881514394,null), (3897009126318,null), (4299563089420,null), (4367703101156,null), (4149579363766,null), (4023745398222,null), (4093807082372,null), (4122008198716,null), (4069253867362,null), (4281068144198,null), (326</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>QueryTooLargeError</t>
         </is>
       </c>
       <c r="E101" t="b">
@@ -2963,22 +2963,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>line 1:1: mismatched input 'function'. Expecting: 'ALTER', 'ANALYZE', 'CALL', 'COMMENT', 'COMMIT', 'CREATE', 'DEALLOCATE', 'DELETE', 'DENY', 'DESC', 'DESCRIBE', 'DROP', 'EXECUTE', 'EXPLAIN', 'GRANT', 'INSERT', 'MERGE', 'PREPARE', 'REFRESH', 'RESET', 'REVOKE', 'ROLLBACK', 'SET', 'SHOW', 'START', 'TRUNCATE', 'UPDATE', 'USE', &lt;query&gt;</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM (SELECT epk_id, operation, created, device_info, min(created - logon_dt) AS delta FROM k808_rx_hdp.t_team_sva_oarb."55_gev_sberprime_multi_logon_oper_1" GROUP BY 1, 2, 3, 4 ) dbvrcnt</t>
+          <t>function t() begin select 'test'; end</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -2988,22 +2988,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>select * FROM prx_infpg_internal_cars_request_db_request.service limit 1</t>
+          <t>---Ответы 2024 CREATE TABLE capgp2_gp.s_grnplm_ld_audit_da_sandbox_oaofr.sao_task_2024 AS (SELECT app_row_id, req_created, task_id, task_finished, task_num, task_answer, task_answer_full, task_text_sol, exp_queue, prev_queue, prev_queue_uber,     req_answer, req_answer_full FROM k808_rx_hdp.t_team_sva_audit_2."40_kaluginvs_appeal_anofl_task_2024")</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E103" t="b">
@@ -3013,22 +3013,22 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>select * FROM prx_infpg_internal_cars_dictionary_db_dictionary_storages.floor limit 1</t>
+          <t>select * from t_cars_kap.shvets_inv</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E104" t="b">
@@ -3038,51 +3038,51 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Failed to list directory: hdfs://hdfsgw/arnsdpxdata__zzvukk-DZO_OOOZVUK_RB-CLTV_USERS/data/core/dzo/ooozvuk_rb/pa/snp/cltv_users/ctl_loading=43229322</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>SELECT * FROM k808_rx_hdp.prx_zzvukk_dzo_ooozvuk_rb.cltv_users</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Could not communicate with the remote task. The node may have crashed or be under too much load. This is probably a transient issue, so please retry your query in a few minutes. (pvlos-ldtrn0002.cloud.df.sbrf.ru:8443)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>select 		* from 		k808_rx_hdp.t_team_sva_oarb."44_ias_ck_kate_epk" 		--k808_rx_hdp.t_team_sva_oarb."44_ias_ck_suo_sbolpro" limit 100</t>
+          <t>select cust.client_name, doc_serial, doc_number, client_birth_day, claim_number, claim_date_time, claim_type_name, product_type_name,product_type_name_full from k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.cust as cust  join  k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.agr as agr on cust.client_id = agr.client_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.appl as appl  on agr.product_id = appl.product_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.prod as prod on appl.product_type_id = prod.product_type_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.appltype as appltype  on appl.claim_type_id = appltype.claim_type_id</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -3093,17 +3093,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>line 1:29: Function 'coutn' not registered</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>select date(ctl_validfrom), coutn(*) from k808_rx_hdp.prx_rgs_torg_external_zakupkigovru.beginner group by date(ctl_validfrom) order by ctl_validfrom desc limit 11</t>
+          <t>insert  	into 	capgp2_gp.s_grnplm_ld_audit_da_sandbox_oarb.s_gp_ivakhnovs_appeal_2024 select 	* from 	k808_rx_hdp.t_team_sva_oarb."40_ivakhnovs_appeal_full_2024"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>FunctionError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E107" t="b">
@@ -3118,21 +3118,21 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Access Denied: Cannot access catalog system</t>
+          <t>line 1:22: mismatched input 'date'. Expecting: ')', ','</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select ('2024-11-19' date) as p1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>PermissionError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3143,21 +3143,21 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/40_gradusov_epk_podpiska_sberprime_7_7t_inf_sberprime_v/part-00000-8c4626d8-c491-4a33-8e0b-bd0471ecfe5a-c000.snappy.parquet (offset=0, length=2640514): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6478339264_5439855311 file=/user/team/team_sva_oarb/hive/40_gradusov_epk_podpiska_sberprime_7_7t_inf_sberprime_v/part-00000-8c4626d8-c491-4a33-8e0b-bd0471ecfe5a-c000.snappy.parquet</t>
+          <t>Query exceeded distributed user memory limit of 27GB</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_team_sva_oarb."40_gradusov_epk_podpiska_sberprime_7_7t_inf_sberprime_v"</t>
+          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_hd_atm_host_oper_240208_nrt_atmhost_operations.atmhost_operations ORDER BY body_sesstartdt</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3168,21 +3168,21 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/42_danilovich_zp10_m_ryzh/000047_0 (offset=33554432, length=33554432): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6465640656_5426886653 file=/user/team/team_sva_oarb/hive/42_danilovich_zp10_m_ryzh/000047_0</t>
+          <t>line 3:1: mismatched input ','. Expecting: 'FROM'</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CREATE TABLE  k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh_tarif_1" as SELECT a.*,  plan.id plan_id,  plan.indtariffagreementid,  plan.indtariffagreementnumber,              plan.restorationdate,                  plan.startdate,  plan.suspensiondate,        plan.tariffrates,  substring(plan.tariffrates,0,36) as  tariffrates2,               plan.tariffratesidvalue,  plan.usedyntariff, rate.additionalinfo,  rate.enrollmenttype,  rate.id as rate_id,  rate.isdyntariff,  rate.isenrollmentotherbank,  rate.tariffintervalidvalue,  rate.tariffintervalrates,  rate.tariffplan rate_tariffplan  FROM k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh"  as a  left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffplan as plan on plan.id=   substring(a.tariffplan,49,36) left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffrate  as rate  on rate.id= substring(plan.tariffrates,0,36)</t>
+          <t>select date_parse(trim(substring('abc_zakupkigovru_beginner_20240118_092653_001.json', strpos('abc_zakupkigovru_beginner_20240118_092653_001.json', 'beginner_') + 9), '.json'), '%Y%m%d_%H%i%s%a'  select strpos('abc_zakupkigovru_beginner_20240118_092653_001.json', 'beginner_') + 9</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3193,21 +3193,21 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "07735561"</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CREATE TABLE  k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh_tarif_1" as SELECT a.*,  plan.id plan_id,  plan.indtariffagreementid,  plan.indtariffagreementnumber,              plan.restorationdate,                  plan.startdate,  plan.suspensiondate,        plan.tariffrates,  substring(plan.tariffrates,0,36) as  tariffrates2,               plan.tariffratesidvalue,  plan.usedyntariff, rate.additionalinfo,  rate.enrollmenttype,  rate.id as rate_id,  rate.isdyntariff,  rate.isenrollmentotherbank,  rate.tariffintervalidvalue,  rate.tariffintervalrates,  rate.tariffplan rate_tariffplan  FROM k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh"  as a  left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffplan as plan on plan.id=   substring(a.tariffplan,49,36) left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffrate  as rate  on rate.id= substring(plan.tariffrates,0,36)</t>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr  select * from capgp2_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TooManyConnectionsError</t>
         </is>
       </c>
       <c r="E111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3218,17 +3218,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Failed to list directory: hdfs://hdfsgw/sklsdpp1164si__SI_dannye_PKAP-CUSTOM_T_P1164SI-DWH_LUN_SERVER_RELATIONS_W/data/custom/t/p1164si/pa/dwh_lun_server_relations_w/cbap_validfrom=2023_48</t>
+          <t>line 1:35: Column 'app_status' cannot be resolved</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>select * from sfd_hdfsgw_hdp.prx_si_dannye_pkap_custom_t_p1164si.dwh_lun_server_relations_w limit 100</t>
+          <t>select request_id, count(distinct app_status) from k808_rx_hdp.t_team_sva_oarb."55_gsd_ts_result_main_temp_epk_dec_3" group by request_id</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>MissingColumnError</t>
         </is>
       </c>
       <c r="E112" t="b">
@@ -3243,17 +3243,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-4404588d-9d36-44a5-8927-db142981a352-c000.snappy.parquet (offset=0, length=4115): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6556385924_5519523244 file=/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-4404588d-9d36-44a5-8927-db142981a352-c000.snappy.parquet</t>
+          <t>Partition location does not exist: hdfs://arnsdpsbx/user/team/team_curus_dm/datamart/pa/dm04_operations_history/timestampcolumn=2024-07-23</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM (select  * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2706_print_pm_mega_70"  ) dbvrcnt</t>
+          <t>SELECT timestampcolumn, count(*) FROM k808_rx_hdp.t_team_curus_dm.dm04_operations_history  group by timestampcolumn</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>MissingObjectError</t>
         </is>
       </c>
       <c r="E113" t="b">
@@ -3268,21 +3268,21 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-cfd86e3d-a39c-42d8-bdab-4023127ed322-c000.snappy.parquet (offset=0, length=1618): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6556016331_5519149119 file=/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-cfd86e3d-a39c-42d8-bdab-4023127ed322-c000.snappy.parquet</t>
+          <t>line 1:8: mismatched input 'select'. Expecting: '*', 'ALL', 'DISTINCT', &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>select  * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2706_print_pm_mega_70"</t>
+          <t>select select request_id, count(distinct app_status) from sfd_hdfsgw_hdp.prx_55_gse_risk_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.t_st_main  group by request_id</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3293,21 +3293,21 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>line 40:108: mismatched input 'left'. Expecting: &lt;expression&gt;</t>
+          <t>Tried to access metastore after transaction has been committed/aborted</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>select uuid ,timestampcolumn as date ,opened_at ,atm_id ,incident_id  ,auto_initiated ,user_status  ,CASE WHEN initiator_uuid = '798b18d6-fd6c-4ae7-a593-73bbeeaf68b1' 		THEN 'Automatization' 		ELSE 'Сотрудник' 		END AS initiator_uuid ,reason_type  ,reason  ,CASE WHEN component_id is null  		THEN 'Нет компоненты' 		ELSE component_id 		END AS component_id ,description  ,status  ,lmd ,CASE WHEN status = 'CLOSED' and lmd - opened_at &lt; 0 		THEN 0 		ELSE lmd - opened_at  		END AS recoveryperiod ,comments  ,CASE WHEN resolution_code is null 		THEN 'Нет кода закрытия'  		ELSE resolution_code 		END AS resolution_code ,scenario_step  ,scenario  ,CASE WHEN updater_uuid = '798b18d6-fd6c-4ae7-a593-73bbeeaf68b1' THEN 'Automatization'  		WHEN updater_uuid is not null then 'Неизвестно' else 'Сотрудник' 		END AS who_update ,businessprocess_id  ,current_stage  ,stage_attributes  ,event_object_timestamp  ,ld_group_id  ,case when (auto_initiated = 'True' and (businessprocess_id) IS NOT NULL and (ld_group_id) IS NOT NULL and left(replace(description, ' '), 31) = 'ИнцидентпообращениюизАССбердруг') then 'Сбердруг' end as source_incident from k808_rx_hdp.prx_hd_atm_host_main_231201_nrt_atmhost_cap.incident  atm limit 120</t>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3318,21 +3318,21 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>line 1:15: Cannot cast integer to char(1)</t>
+          <t>Tried to access metastore after transaction has been committed/aborted</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>select concat(cast(kind as char ),cast (subkind as char)) from k808_rx_hdp.prx_55_krd_cod_platform_cod.cod_deposit_deposit</t>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>TypeError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3343,17 +3343,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>line 5:82: Column 't.person_major' cannot be resolved</t>
+          <t>Tried to access metastore after transaction has been committed/aborted</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_gulynin_2307_lider_epk" as select a.*, d.epkid from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2307_lider_" a join sfd_hdfsgw_hdp.prx_42_gul_cod_internal_cod13_client.person n on  n.id_major=t.person_major and n.id_minor = t.person_minor and n.id_mega=t.id_mega join sfd_hdfsgw_hdp.prx_42_gul_cod_internal_cod13_client.epkid d on d.untb=n.untb and d.id_mega=t.id_mega</t>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>MissingColumnError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E117" t="b">
@@ -3368,17 +3368,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: ERROR: role "22022198" does not exist</t>
+          <t>Tried to access metastore after transaction has been committed/aborted</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>select * from sfd_gpgw_gp.s_grnplm_vd_rozn_soc_sal_sol_espd.t_4_25 limit 10</t>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_op2</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>MissingObjectError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E118" t="b">
@@ -3393,17 +3393,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>line 3:10: mismatched input ':'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+          <t>Query exceeded distributed user memory limit of 27GB</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>select * from hdfs://hdfsgw/sklsdpsdlog__sdlogging_v1-SDLOGGING-HDFSEVENTS/data/sdlogging/hdfsevents/loaded_date=2024-05-25/000010_0</t>
+          <t>with cte_1 as ( select distinct a.* from t_team_sva_audit_2.t38_siv_19_11_24__1141__02__eps_pmt_for_november_2024__white_cluster a  ) select 'Уникальных строк', count(*) from cte_1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E119" t="b">
@@ -3418,21 +3418,21 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>line 1:68: mismatched input ':'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+          <t>Could not communicate with the remote task. The node may have crashed or be under too much load. This is probably a transient issue, so please retry your query in a few minutes. (pvlos-ldtrn0002.cloud.df.sbrf.ru:8443)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_krd_zp_12_click_test":</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi_1_id_mega" as  select distinct a.epk_id, a.operation_ts_dat, CRD_OTF_TRNF_ORG_RUB_AMT, CRD_OTF_TRNF_PERS_RUB_AMT from k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi_1_id" a join sfd_hdfsgw_hdp.prx_42_gulynin_mega_1_custom_rozn_client_aggr.ft_client_aggr_mnth b on a.epk_id=b.epk_id and date(b.report_dt)=last_day_of_month(a.operation_ts_dat) and b.report_dt='2024-07-31'</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3443,21 +3443,21 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Tried to access metastore after transaction has been committed/aborted</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_Lazarev_1294_1_NEW" as  SELECT a.* , Data1 FROM sfd_hdfsgw_hdp.prx_lazarev_clickstream_sbolweb_24_custom_rb_sbol_clickstream.sbol_events a  join k808_rx_hdp.t_team_sva_oarb."42_Lazarev_1294" b on a.epk_id  =  b.EPK and a.timestampcolumn = b.Data1</t>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3468,21 +3468,21 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>target of repeat operator is not specified</t>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "19685940"</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>select regexp_extract('Description=Microsoft Windows 10 Enterprise 2016 LTSB;', '(\W+)({6}.)')</t>
+          <t>create table rozn2_gp.s_grnplm_ld_rozn_electron_hq_core.pa_pprb_pu_history_t as ( select *, cast('alpha' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_alpha_opf_management.private_service_package_history       union all       select *, cast('beta' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_beta_opf_management.private_service_package_history       union all       select *, cast('delta' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_delta_opf_management.private_service_package_history       union all       select *, cast('gamma' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_gamma_opf_management.private_service_package_history )</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TooManyConnectionsError</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -3493,17 +3493,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>line 3:2: mismatched input '''. Expecting: &lt;expression&gt;</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>select --regexp_replace( regexp_extract('SwitchAllowVersion=1.56.0.1027;1.54.3.1003;1.54.0.935;Model=NH8600S;cim_model=BRM56;TID=60032377;bank_name=ПАО СБЕРБАНК;vsp_name=IШахта Угольная;address=ул Угольная  1;tel_tech_number=900;keysForStatusBar=456;keysForSupervisor=;wait_screen_url=https://localhost:9443/_BUILD_/bootstrap.html;lang=ru-RU;RemoteNominalChange=0;params_loading_required=1;AtmType=auto;wait_screen_refresh_every=1000;temp_directory=C:/Sberbank/LogsDbs;product_name=ATMoSphere;current_version.version=1.61.0.1142;current_version.date_planned=01.11.2019 0:00:00;current_version.date_actual=16.07.2024 2:11:22;device_type=RATM;vendor=Nautilus;os=win7;hardware_architecture=x86;state_machine_path=C:\\scs\\atm_h;InitialCountFileName=391;waitForStatusBar=5000;sop_url=http://localhost:5000/;status_url=http://localhost:5000?Mode=DevicesState;AddSpornoRetract=1;is_topmost=True;fullscr=False;xoffset=0;yoffset=0;xscreen=800;yscreen=600;preloader_timeout=2000;start_url=;notify_need_wait_screen_refresh=True;log_level=Trace;webplayer_mode=ATMS;js_plugins_directory=.;host=localhost;port=1313;start_page=TCR_Startup;left_start_page=TCR_Startup;right_start_page=TCR_Startup;left_start_url=;right_start_url=;!mainbus_pipename=\\\\.\\pipe\\TCR_webplayer;mainbus_connection_timeout=2000;vendor_diag_util=C:\\Hyosung\\Nextware\\EXE\\NHVDM\\NHVDM.exe;use_event_driven_view=True;has_title=False;has_frame=True;is_scrolled=False;need_block_new_window=True;has_frame_3d=True;is_keyboard_event=False;is_check_parent=False;need_to_reload=False;need_hide=True;need_blank=False;need_notify_on_load=True;need_notify_on_error=True;need_to_check_by_id=False;need_to_silent_dlg=True;need_clear_hist=False;is_enable_msg_box=False;is_fix_update=False;is_hide_cursor=True;window_keyboard=0;priority_flags=0;log_mask=31;key_map=;domains_filter=;_MainHWND=0;_MainProc=0;NdcConfigChannel_AfterDisconnectDelay=2000;NdcConfigChannel_ChannelType=4;NdcConfigChannel_ConnectTimeout=30000;NdcConfigChannel_KeepAlive=0;LocalAddress=;NdcConfigChannel_LocalPort=0;NdcConfigChannel_LogPolling=0;NdcConfigChannel_LogPreProcessing=1;NdcConfigChannel_LogTraffic=0;NdcConfigChannel_PingHostTimeout=31000;NdcConfigChannel_PingTimeout=900000;NdcConfigChannel_ReconnectTimeout=60000;NdcConfigChannel_RecvPacketTryCount=5;NdcConfigChannel_RecvTimeout=40000;NdcConfigChannel_SendTimeout=40000;NdcConfigChannel_LogTrafficPath=NDC\\RMS;HostAddress=10.103.99.79;HostPort=30654;Custom_Option4=1;Custom_Option9=1;Custom_Option24=1;NdcConfig_ActiveOperDaysMask=11;NdcConfig_BackgroundODopen=0;NdcConfig_BcrSendBarcodeType=0;NdcConfig_BioDLL=quorum_bio.dll;NdcConfig_BioidentificationMode=0;NdcConfig_BioverificationMode=0;NdcConfig_BnaRemoveMode=0;NdcConfig_BnaUseVirtualNotes=0;NdcConfig_Card_Type_masked=0;NdcConfig_CardlessAcceptType=231;NdcConfig_ConfigChangedEvent=Global\\NDCConfigChangedEvent;NdcConfig_ConfigPath=ConfigNDC;NdcConfig_ConnectionName=NDC;NdcConfig_CorrectCdmCounters=0;NdcConfig_CustomExitExtState=Z;NdcConfig_CustomExitState=f;NdcConfig_CustomPPD=0;NdcConfig_DISPLAY_TYPE=2;NdcConfig_DefLanguage=rus;NdcConfig_DefaultODnum=0;NdcConfig_DieboldMode=0;NdcConfig_DisAsyncDevStatMask=0;NdcConfig_DisablePtrOD=0;NdcConfig_DisableZeroFdk=1;NdcConfig_EdmDispenseMode=0;NdcConfig_EdmExists=0;NdcConfig_EmvPostProcessingMode=0;NdcConfig_ExchByNdc=0;NdcConfig_ExtAuth_ConfirmNdcTran=1;NdcConfig_ExtAuth_ForceSendCdmCounters=0;NdcConfig_ExtAuth_OldFormat=1;NdcConfig_ExtCardNumberDll=CustCard.dll;NdcConfig_ExternalBnaParams=4;NdcConfig_ExternalDepErrorState=255;NdcConfig_ExternalOperState=000;NdcConfig_FatalErrorScreenPath=;NdcConfig_FdkA=16;NdcConfig_FdkB=32;NdcConfig_FdkC=64;NdcConfig_FdkD=128;NdcConfig_FdkF=8;NdcConfig_FdkG=4;NdcConfig_FdkH=2;NdcConfig_FdkI=1;NdcConfig_ForceResetTimeout=0;NdcConfig_FraudMonitoring=1;NdcConfig_FrontDll=multi_front.dll;NdcConfig_FrontEnabled=1;NdcConfig_IccEmvClessConfig=DataNDC\\nfc_emv_NDC.cfg;NdcConfig_IccEmvClessDLL=NFCVivoKiosk2.dll;NdcConfig_IccEmvClessKernelType=0;NdcConfig_IccEmvClessMode=1;NdcConfig_IccEmvClessTerminalType=20;NdcConfig_IccEmvConfig=DataNDC\\emv_ndc.cfg;NdcConfig_IccEmvCustomConf=DataNDC\\emv_NDC_cust.cfg;NdcConfig_IccEmvCustomCvmTag=57169;NdcConfig_IccEmvDLL=scs_emv;NdcConfig_IccEmvMode=1;NdcConfig_IccEmvTerminalType=20;NdcConfig_IgnoreLastNonAsciiSymbols=0;NdcConfig_KeyIndexA=266;NdcConfig_KeyIndexB=267;NdcConfig_KeyIndexComm=523;NdcConfig_KeyIndexMac=522;NdcConfig_KeyIndexRsaEpp=17;NdcConfig_KeyIndexRsaHsm=18;NdcConfig_KeyIndexRsaRootHsm=19;NdcConfig_KeyIndexRsaSgn=16;NdcConfig_LastTSN=0000;NdcConfig_LeftFdk=0;NdcConfig_LockTimeout=7000;NdcConfig_LogInHexFormat=0;NdcConfig_MaxLogHistory=45;NdcConfig_MinLogFiles=10;NdcConfig_MsMandForOtherSys=0;NdcConfig_NdcEmvSimVersion=10;NdcConfig_NdcSimVersion=30;NdcConfig_NfcState=000;NdcConfig_NoPIN=0;NdcConfig_OpenSesionCashUnitViewMode=1;NdcConfig_PRR.DeviceStatus=0;NdcConfig_PinAutoCompletion=1;NdcConfig_PrintOnPrjMode=0;NdcConfig_PrintOnPrrMode=0;NdcConfig_SaveConfig=1;NdcConfig_SendUnsolStatus=1;NdcConfig_SetAcceptedBnaCounters=0;NdcConfig_SetHostTime=0;NdcConfig_SprayCdmOptions=0;NdcConfig_StJ_RecBeforeCard=0;NdcConfig_SupervisorUrl=http:/localhost:5000/;NdcConfig_Timer_77=90000;NdcConfig_Timer_BnaRemove=70000;NdcConfig_Timer_IccMinShowWait=2000;NdcConfig_Track1=;NdcConfig_Track2=;NdcConfig_Track3=;NdcConfig_UseCoinTI=1;NdcConfig_WaitAsyncOnAcceptTimeout=5000;NdcConfig_XmlTraceMode=2;NdcConfig_ZkMode=0;NdcConfig_receipt_title_02=;NdcConfig_receipt_title_03=УЛИЦА;NdcConfig_receipt_title_04=НОМЕР ТЕЛЕФОНА;NdcConfig_ParamSourceFormat=0;NdcConfig_zrs_mode=1;NdcConfig_FullBufferX=0;NdcConfig_IccEmvTracePath=NDC\\EMV;NdcConfig_LogPath=NDC\\NDC;NdcConfig_ReconnectOnTrReply=1;NdcConfig_FrontData_ParamName=FrontInfo_SessNumber;NdcConfig_SuspendTimeout=300000;NdcConfig_UnsolRecvTimeout=10000;NdcConfig_ReconnectDelay=5000;NdcConfig_UseCheckChannel=1;NdcConfig_RetrySendResp=1;NdcConfig_RecvTryCountOnTrReply=3;NdcConfig_EjLCP=0;NdcConfig_EjLCC=0;NdcConfig_EjTryCount=0;NdcConfig_EjLastDataSize=0;NdcConfig_EjCheckTimeout=10000;NdcConfig_StartUpOptions=0;NdcConfig_TraceRoot=c:\\scs\\logs;NdcConfig_HostPrintData_Enabled=0;NdcConfig_RemapNdc2Dev_COIN=0;NdcConfig_HostScreenData_Enabled=0;NdcConfig_DisableDepByOD=0;NdcConfig_KeyUsageB=0;NdcConfig_IsShutterEnabled=1;NdcConfig_IsTransitEnabled=1;NdcConfig_IsTSKDepositEnabled=0;NdcConfig_Timer_CashCount=2400000;NdcConfig_ExternalProtocolParams=16904;BacklightPinPad=4;NdcConfig_State_041_CheckPocketCaps=1;NdcConfig_NewIncasMenu=0;NdcConfig_ConfiguredDevices=3;NdcConfig_LUNO=377;NdcConfig_MaxMCN=63;NdcConfig_UseReadyB=17;NdcConfig_FromSupervisorToPrev=0;NdcConfig_UseTI=1;NdcConfig_UseSpecificReject=1;NdcConfig_UseReleaseID=1;NdcConfig_AmountLen=12;NdcConfig_SendTrStatus=1;NdcConfig_SendEdmStatus=0;NdcConfig_SendBnaCounters=335;NdcConfig_LastFitNumber=1312;NdcConfig_UseExtCdmHoppers=0;NdcConfig_UseExtCoinHoppers=0;NdcConfig_BcrConfig=0;NdcConfig_RollWidth=40;NdcConfig_LeftColumn=1;NdcConfig_EjMaxDataSize=200;NdcConfig_EjMaxTryCount=0;NdcConfig_Timer_00=150000;NdcConfig_Timer_01=90000;NdcConfig_Timer_02=2000;NdcConfig_Timer_03=60000;NdcConfig_Timer_04=30000;NdcConfig_Timer_05=20000;NdcConfig_Timer_07=1000;NdcConfig_Timer_60=255000;NdcConfig_Timer_61=60000;NdcConfig_Timer_78=90000;NdcConfig_Timer_94=30000;NdcConfig_Timer_50=30000;NdcConfig_Option_41=1;NdcConfig_Option_69=15;NdcConfig_Option_71=255;NdcConfig_Option_76=0;NdcConfig_SecurityFlags=1100000000;NdcConfig_MacTrRequest=1000100101110000000000000000000000000000000000100000;NdcConfig_MacTrReply=1001011100000000000000000000000000001;NdcConfig_MacSolStatus=00000000000;NdcConfig_MacOther=1101;NdcConfig_MacTrack1=000000;NdcConfig_MacTrack2=110000;NdcConfig_MacTrack3=00000000000;NdcConfig_MacEMV=11111;NdcConfig_CardlessState=Z53;NdcConfig_ConfigID=187;NdcConfig_UnsolDPAN=1;NdcConfig_TrxCounter=20919;NdcConfig_TerminalMode=4;ResetConfiguration_LoadFinishedTimeoutSec=180;ResetConfiguration_ResetTryCount=5;ResetConfiguration_RejectTryCount=5;ResetConfiguration_ReloadFunctionEnabled=1;ResetConfiguration_ResetMessageDelay=5;SparcParams_TurnOnSparcInitResultCheck=0;SparcParams_SparcInitTimeoutSec=20;SparcParams_SparcRebootTryCount=5;cim_update_presented_count_by_dispensed=False;cim_cashin_refuse_retract_area=RC;cdm_update_presented_count_by_dispensed=False;cdm_dispense_error_reset_area=RJ;hardware_list.CIM.logical_name=CashAcceptor;hardware_list.CIM.version_min.major=3;hardware_list.CIM.version_min.minor=10;hardware_list.CIM.version_max.major=255;hardware_list.CIM.version_max.minor=255;hardware_list.CIM.open_timeout=150;hardware_list.CIM.is_update_master_status_on_status_request=False;hardware_list.CIM.max_reset_count=3;hardware_list.CIM.interlive_reset_interval=300;hardware_list.CDM.logical_name=CashDispenser;hardware_list.CDM.version_min.major=3;hardware_list.CDM.version_min.minor=0;hardware_list.CDM.version_max.major=255;hardware_list.CDM.version_max.minor=255;hardware_list.CDM.open_timeout=150;hardware_list.CDM.is_update_master_status_on_status_request=False;hardware_list.CDM.max_reset_count=3;hardware_list.CDM.interlive_reset_interval=300;hardware_list.IDC.logical_name=CardReader;hardware_list.IDC.version_min.major=3;hardware_list.IDC.version_min.minor=0;hardware_list.IDC.version_max.major=255;hardware_list.IDC.version_max.minor=255;hardware_list.IDC.open_timeout=150;hardware_list.IDC.is_update_master_status_on_status_request=True;hardware_list.IDC.max_reset_count=3;hardware_list.IDC.interlive_reset_interval=300;hardware_list.PRR.logical_name=ReceiptPrinter;hardware_list.PRR.version_min.major=3;hardware_list.PRR.version_min.minor=0;hardware_list.PRR.version_max.major=255;hardware_list.PRR.version_max.minor=255;hardware_list.PRR.open_timeout=150;hardware_list.PRR.is_update_master_status_on_status_request=False;hardware_list.PRR.max_reset_count=3;hardware_list.PRR.interlive_reset_interval=300;retract_withdrawall_mode=1;disputed_notes_logic_version=0;request_timeouts.default_inf_rq_timeout=0;request_timeouts.default_exe_rq_timeout=0;request_timeouts.cim_replenish_rq_timeout=0;nfc_card_status_changed_event_reaction_time=2;lov_volume.volume_set=;lov_volume.jack_off_volume=;lov_volume.jack_on_volume=;exclude_level3_banknotes=False;brm_sensors_monitoring_enabled=True;default_nominals=;manual_enable_ex_deposit_cu=True;tsk_encashment_take_rejected=;cassettes.001.denomination=10000;cassettes.001.currency=643;cassettes.002.denomination=50000;cassettes.002.currency=643;cassettes.003.denomination=100000;cassettes.003.currency=643;cassettes.004.denomination=500000;cassettes.004.currency=643;ReceiptPrintStatus=2;MaxErrorLoginCount=5;Rotate.Logs.Path=[\r\n  "C:\\\\Sberbank\\\\LogsDbs\\\\logs\\\\Archive\\\\",\r\n  "C:\\\\scs\\\\LOGS_Archive\\\\PRJ\\\\"\r\n];Rotate.Logs.File=[\r\n  "*.zip"\r\n];Rotate.Keep.Unit=Year;Rotate.Keep.Value=1;Rotate.StorageThreshold.Free.Unit=Gb;Rotate.StorageThreshold.Free.Value=20;Rotate.StorageThreshold.Keep.Unit=Month;Rotate.StorageThreshold.Keep.Value=6;ClearAtmVersion.Days=7;ClearAtmVersion.Hours=8;ClearAtmVersion.Minutes=0;wdl_uniform_max_amt=100000;wdl_uniform_limit_643_100=10;wdl_uniform_remain_limit_643_100=1100;wdl_uniform_limit_643_200=10;wdl_uniform_remain_limit_643_200=1100;wdl_uniform_limit_643_500=20;wdl_uniform_remain_limit_643_500=1100;wdl_uniform_limit_643_1000=40;wdl_uniform_remain_limit_643_1000=1100;wdl_uniform_limit_643_2000=40;wdl_uniform_remain_limit_643_2000=1100;wdl_uniform_remain_limit_643_5000=1100;nda_BreakdownAmount=10000;nda_MaxNumberBill=10;nda_NewAlgorithmEnabled=False;fpsu_connection_status_enabled=1;cartidge_diagnostic_enable=1;planning_deploy_date=2024-08-07 11:54:18;scheduler_start_time=05:15;scheduler_work_time=30;scheduler_reset_period=21;scheduler_enabled=1;cash_found_outside_deposit_enabled=0;minimal_allowed_count_of_banknotes_100=200;minimal_allowed_count_of_banknotes_200=200;minimal_allowed_count_of_banknotes_500=200;minimal_allowed_count_of_banknotes_2000=200;minimal_allowed_count_of_banknotes_1000=200;minimal_allowed_count_of_banknotes_5000=200;target_count_of_banknotes_100=1000;target_count_of_banknotes_200=1000;target_count_of_banknotes_500=1000;target_count_of_banknotes_2000=1000;target_count_of_banknotes_1000=1000;target_count_of_banknotes_5000=500;maximal_allowed_count_of_banknotes_100=2000;maximal_allowed_count_of_banknotes_200=2000;maximal_allowed_count_of_banknotes_500=2000;maximal_allowed_count_of_banknotes_1000=2000;maximal_allowed_count_of_banknotes_2000=2000;maximal_allowed_count_of_banknotes_5000=2000;logical_weight_in_algo=1;specil_min_max_coef_in_algo=2;mask_for_remote_change_denom=1;new_reset_retained_cards_count_enabled=0;check_sn_cass_open_od=0;inventory_epp_sn=true;EPP_ID=OA162941;Logging.LogLevel.Default=Information;Service.Control.Logger.LogLevel=Information;Service.Control.Logger.File=SPA.log;Service.Control.SPArcMonitoring.TimeoutAfterInit_seconds=60;Service.Control.SPArcMonitoring.HeartBeatTimeout_seconds=60;launch_wait_timeout=15;launch_force_wait_timeout=20;isUniformCashOutAlgorithm=False;congratulationNewYear.isShowOnPgeAndMenu=True;congratulationNewYear.isShowOnInsertCard=True;congratulationNewYear.showStartAt=20.12.2023;congratulationNewYear.isShowAnimation1=True;congratulationNewYear.isShowAnimation2=True;congratulationNewYear.isShowAnimation3=True;congratulationMarch8.isShow=True;congratulationMarch8.showStartAt=14.02.2024;congratulationMarch8.showEndAt=09.03.2024;digitalCustomerPath=True;otherBankInfoLevel=0;selfEncashmentOptionalPrint=True;isWorkRedirectUrlBanner=True;withRedirectUrlBanner.ads=pop-up;pop-up-qr;pop-up-info;modules.bio.state=' ,'current_version.version=(\w+)|;)</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_privatebanking_list_client_all_session_detail" as select 	* from k808_rx_hdp.t_team_sva_oarb."42_privatebanking_list_client_all_session_detail"</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E123" t="b">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oakb.uvsk_claim_report as  select 	*  from k808_rx_hdp.t_team_sva_oakb."03489677_uvsk_claim_report"</t>
+          <t>SELECT * from t_cars_kap.Tolyan_26112024_3</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3543,17 +3543,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>line 3:12: Catalog 'capgp2' does not exist</t>
+          <t>Tried to access metastore after transaction has been committed/aborted</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_team_sva_oarb."40_mxs_20240906_2432" AS t1 INNER JOIN capgp2.s_grnplm_ld_audit_da_sandbox_oarb."40_mxs_20240906_2432_v2" AS t2     ON t1.id = t2.id LIMIT 10</t>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>MissingObjectError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E125" t="b">
@@ -3568,17 +3568,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Partition location does not exist: hdfs://hdfsgw/sklsdpk2hdfs__HD_ATM_HOST_MAIN_240821-NRT_ATMHOST_CAP-CLOSED_TICKETS/data/core/nrt/atmhost_cap/pa/snp/atmhost_envelopeevent/nrt_atmhost_cap.closed_tickets/timestampcolumn=2022-04-28</t>
+          <t>line 1:12: Column 'date_end' cannot be resolved</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.prx_hd_atm_host_main_240821_nrt_atmhost_cap.closed_tickets  limit 100</t>
+          <t>select max(date_end) from k808_rx_hdp.prx_55_gev_crm_acq_internal_crm_rb2_siebel.cx_acq_srv_req</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>MissingObjectError</t>
+          <t>MissingColumnError</t>
         </is>
       </c>
       <c r="E126" t="b">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oakb.uvsk_claim_report as  select 	*  from k808_rx_hdp.t_team_sva_oakb."03489677_uvsk_claim_report"</t>
+          <t>select * from t_cars_kap.Tolyan_26112024_33</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3618,17 +3618,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Query exceeded distributed user memory limit of 27GB</t>
+          <t>line 2:89: mismatched input 'ф'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_not_cars_fio" as select distinct a.*, b.profile_sapid, b.profile_adid, b.tb, b.osb, b.vsp, epk.last_name, first_name, middle_name,  epk.birth_dt --e.emp_id from k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_no_cars" a left join k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_clerk2" b on a.external_id=b.external_id left join sfd_hdfsgw_hdp.prx_42_gulynin_epk5_custom_rb_epk.epk_client epk on epk.epk_id = cast(a.ucp_id as bigint) and row_actual_to='9999-12-31' --left join sfd_hdfsgw_hdp.prx_42_gulynin_sotr_1_custom_risk_employees.t_sbrf_employees e on upper(e.emp_full_name) = concat_ws (' ', coalesce (epk.last_name,''), coalesce (first_name,''), coalesce (middle_name,'')) --and cast(epk.birth_dt as date) = cast(e.birth_dt as date)</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_rrn_oarbvvb_1542_1777_crd_stream_dc_success_polis" ф</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E128" t="b">
@@ -3643,21 +3643,21 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>line 2:2: Column '_col0' cannot be resolved</t>
+          <t>Query text length (1051638) exceeds the maximum length (1000000)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>select 	_col0 from (values('2024-09-19', '2024-09-19')) as a</t>
+          <t>insert into idlist values (24284927820300,date'2023-11-03'), (3540617786182,date'2021-11-10'), (3710951187724,date'2022-02-15'), (10816370250,date'2022-02-15'), (3568401148548,date'2023-04-29'), (2815338303181,date'2022-04-07'), (2076044641381,date'2022-05-18'), (2881075686820,date'2022-02-16'), (4390041699050,date'2023-05-15'), (23037963295200,date'2023-07-27'), (1677625593167,date'2023-02-04'), (4647000523024,date'2023-05-15'), (2544742336610,date'2022-01-25'), (2364268651905,date'2023-04-22'), (12516096640,date'2023-04-22'), (3068488868561,date'2023-04-22'), (3564357179800,date'2023-04-22'), (1475551294291,date'2021-02-05'), (1020181820,date'2021-02-05'), (1446394650682,date'2021-02-05'), (1623441245975,date'2021-06-17'), (1509193737259,date'2021-07-14'), (613042550,date'2021-07-14'), (4164774812823,date'2021-08-11'), (3915128578122,date'2021-08-11'), (4183861410843,date'2021-08-12'), (1053273770,date'2021-08-15'), (1506499157188,date'2021-08-15'), (1544175893089,date'2021-08-26'), (1295840407722,date'2021-08-31'), (502741045,date'2021-08-31'), (2239806204654,date'2021-09-08'), (4569685063215,date'2021-09-20'), (514096348,date'2021-09-29'), (3248590436482,date'2021-09-29'), (4175521923363,date'2021-10-08'), (4174231888699,date'2021-10-14'), (1446410254077,date'2021-10-14'), (1544250503037,date'2021-10-14'), (2427079050,date'2021-11-08'), (2419342924848,date'2021-11-08'), (4569676678567,date'2021-10-31'), (4569691101895,date'2021-10-31'), (4569679565503,date'2021-10-31'), (30645474793,date'2021-03-26'), (37128675549,date'2021-03-26'), (4569235062406,date'2020-12-15'), (4249798913376,date'2020-10-31'), (4243257261543,date'2020-10-31'), (4780893960,date'2020-10-31'), (3031472102027,date'2023-03-17'), (,date'2023-03-17'), (69233176747832,date'2024-04-09'), (4003484653982,date'2024-01-27'), (874447599575,date'2020-12-21'), (1715661970266,date'2020-10-15'), (2602944651863,date'2020-10-15'), (416121296,date'2020-10-15'), (1544206179280,date'2020-11-27'), (1844054940,date'2020-11-27'), (3865509919209,date'2023-04-14'), (3685643598870,date'2022-06-10'), (4522713452990,date'2022-06-10'), (3271433678655,date'2022-11-15'), (3114113706529,date'2022-11-15'), (3109751635170,date'2022-11-15'), (3167919177038,date'2022-11-15'), (3114113706529,date'2022-11-15'), (3109751635170,date'2022-11-15'), (3167919177038,date'2022-11-15'), (19914369425100,date'2024-03-05'), (5269078322874,date'2024-01-18'), (41743416067500,date'2024-01-18'), (2867081933506,date'2024-01-18'), (4834237958596,date'2024-01-18'), (614512667,date'2024-01-18'), (5379429910,date'2024-01-29'), (2705398956451,date'2024-01-29'), (2671416575933,date'2024-03-06'), (4755179622748,date'2024-01-29'), (12358757420,date'2024-01-29'), (4670186275140,date'2024-01-29'), (4249796017704,date'2024-01-29'), (311572994500,date'2024-01-31'), (8803630750,date'2024-01-31'), (2399405273542,date'2024-03-06'), (1759855210,date'2024-03-06'), (3706383595966,date'2024-03-07'), (3077953782212,date'2024-03-05'), (2995853883509,date'2024-03-05'), (3320072801730,date'2022-02-13'), (3008217240071,date'2022-02-13'), (2627195066362,date'2022-02-13'), (485551157,date'2022-02-13'), (2953263192345,date'2024-02-06'), (13838450160,date'2024-02-06'), (3471698486416,date'2024-03-06'), (2601807556389,date'2024-03-05'), (9120511404375,date'2024-03-05'), (2000000010252500,date'2024-03-05'), (1962955979246,date'2024-03-05'), (2000000004720530,date'2024-03-07'), (1398475880774,date'2024-03-07'), (4269385519983,date'2024-03-07'), (4473687431504,date'2024-02-08'), (5029104750,date'2024-02-08'), (,date'2022-01-21'), (2482501040038,date'2022-01-21'), (,date'2022-01-21'), (14026758360,date'2022-01-21'), (3622041150286,date'2024-03-05'), (13040262290,date'2024-03-05'), (3001328617132,date'2024-03-06'), (3661728445374,date'2022-12-22'), (12740205030,date'2022-12-22'), (2831784590969,date'2022-12-22'), (3465658379090,date'2022-12-22'), (1000000000509930,date'2024-03-06'), (5002490040590,date'2024-03-06'), (5440929259734,date'2024-03-06'), (2831852734684,date'2021-11-15'), (9737553253600,date'2024-03-06'), (3991972520,date'2024-03-06'), (3856082204356,date'2024-03-06'), (13701320550,date'2024-03-05'), (2426728070,date'2024-03-05'), (4698873424178,date'2024-03-05'), (2498627085354,date'2024-01-19'), (387601881,date'2024-01-19'), (5306167318094,date'2024-03-07'), (2000000004243500,date'2024-03-07'), (5406097135186,date'2024-03-07'), (12856673420,date'2021-11-16'), (1563495798006,date'2021-11-16'), (3870179484908,date'2024-03-05'), (3796731904808,date'2024-02-05'), (5295264390720,date'2024-02-05'), (1000000007025330,date'2024-02-05'), (4888483758202,date'2024-02-05'), (4233287400,date'2024-03-05'), (2932080286651,date'2024-03-05'), (8992143469100,date'2024-03-05'), (4564068888294,date'2024-03-05'), (3712648493054,date'2024-03-05'), (1938635470,date'2024-03-05'), (2208320974148,date'2024-03-05'), (2913068810473,date'2021-11-11'), (5290490733990,date'2024-03-07'), (9507549634559,date'2024-03-07'), (4369892561964,date'2024-03-07'), (4055065509508,date'2024-03-07'), (2000000004806060,date'2024-03-07'), (2434287214066,date'2021-11-12'), (384943246,date'2021-11-12'), (4221651262120,date'2024-03-07'), (10629089320,date'2024-03-07'), (4542016740440,date'2024-03-07'), (3077151067217,date'2024-03-07'), (7096273345281,date'2021-11-19'), (7253176424246,date'2021-11-19'), (1446307232746,date'2021-11-19'), (2519848129329,date'2021-11-19'), (9164969040,date'2024-01-19'), (4718156461952,date'2024-01-19'), (4999726847294,date'2024-01-19'), (2006283343718,date'2021-11-10'), (439385776,date'2021-11-10'), (3472779018878,date'2024-03-07'), (2186377271375,date'2024-03-07'), (6945381180,date'2024-03-07'), (3806334988814,date'2024-03-07'), (4153869539910,date'2024-03-07'), (3950267651794,date'2024-03-07'), (2000000007106170,date'2024-03-06'), (4020585453186,date'2024-03-06'), (1742108965725,date'2024-03-06'), (4178838024312,date'2021-11-11'), (887429415022,date'2021-11-11'), (3311638782347,date'2021-11-11'), (626848037,date'2021-11-11'), (2510438051887,date'2024-03-06'), (5171723599428,date'2024-03-06'), (4428219982892,date'2024-03-06'), (16259957730,date'2024-03-06'), (3046443097810,date'2024-03-06'), (4620199767374,date'2024-02-01'), (3733303791612,date'2024-02-01'), (3766345147324,date'2024-02-01'), (3843649840430,date'2024-02-01'), (3642063528692,date'2024-02-01'), (3694525546614,date'2024-02-01'), (9996150690,date'2024-02-01'), (3506887911608,date'2024-02-01'), (4980515021508,date'2024-03-06'), (16730515430,date'2024-03-06'), (4806328410934,date'2024-03-06'), (1578560881301,date'2024-03-06'), (1578577768459,date'2024-03-06'), (1578564445905,date'2024-03-06'), (1736358120,date'2024-03-06'), (11813002987000,date'2024-02-06'), (1000000004799460,date'2024-02-06'), (7093875841700,date'2024-02-06'), (583602862,date'2024-01-29'), (3657299433436,date'2024-01-29'), (8421123950,date'2024-03-05'), (3092052788097,date'2024-03-05'), (3855263091812,date'2024-03-05'), (1431456450017,date'2021-11-18'), (1623381196916,date'2024-03-05'), (3032392929012,date'2024-03-05'), (4000000005291770,date'2024-03-05'), (4488388439072,date'2024-03-05'), (4683878157608,date'2024-03-05'), (620358788,date'2024-01-29'), (1623310078951,date'2024-01-29'), (4139960451634,date'2021-11-11'), (3378086476690,date'2021-11-11'), (12308114330,date'2021-11-11'), (3652213627316,date'2021-11-11'), (2984363870646,date'2023-11-13'), (5685707980,date'2023-11-13'), (4227594707881,date'2021-11-02'), (4227586416482,date'2021-11-02'), (46555855255800,date'2024-01-22'), (2000000009800610,date'2024-01-22'), (40180420795700,date'2024-01-22'), (2736427220017,date'2024-01-22'), (43528892014100,date'2024-01-22'), (48495117046631,date'2024-01-22'), (832974080092,date'2023-12-01'), (,date'2023-09-20'), (,date'2023-09-20'), (1577055091960,date'2023-09-20'), (615597603,date'2023-12-04'), (1623011302015,date'2023-12-04'), (,date'2023-12-04'), (,date'2023-12-04'), (8046668224217,date'2023-11-07'), (3490040633402,date'2023-11-07'), (2054509394950,date'2023-11-07'), (3783406080898,date'2023-11-07'), (14028490340,date'2023-11-07'), (3584197590330,date'2023-11-07'), (1779572598406,date'2023-05-10'), (1623450757109,date'2023-02-07'), (1996683113863,date'2020-07-15'), (233230212,date'2020-07-15'), (1623450757109,date'2023-02-07'), (4555183101890,date'2022-01-25'), (4154838010470,date'2023-01-24'), (4163487602194,date'2022-10-21'), (4161699440454,date'2022-10-21'), (3025387819794,date'2021-12-14'), (1605048578246,date'2021-10-19'), (2702159954415,date'2024-06-04'), (192274354,date'2021-12-28'), (2952581533850,date'2021-12-28'), (82052622101,date'2021-12-28'), (4670466082752,date'2023-04-14'), (3867612063966,date'2023-12-06'), (4304186118950,date'2023-11-10'), (4836966772078,date'2024-07-17'), (4466971195444,date'2024-07-17'), (4874557902090,date'2024-06-24'), (4452557553862,date'2024-02-12'), (7161180369100,date'2023-02-11'), (3681544655140,date'2024-07-08'), (10344134056600,date'2024-05-10'), (5339851997882,date'2024-05-13'), (1543924296240,date'2022-09-12'), (2345665281310,date'2024-05-13'), (3614904021228,date'2024-06-26'), (7603720509599,date'2024-10-08'), (7523040400951,date'2024-10-08'), (8173998370945,date'2024-10-08'), (39787704957,date'2023-05-18'), (3329840132273,date'2023-07-14'), (4189543269113,date'2023-07-14'), (4217593640232,date'2023-07-14'), (4113782574778,date'2023-07-14'), (4609894705542,date'2023-05-19'), (1446422427422,date'2021-11-10'), (1776176211275,date'2021-11-10'), (3271619880,date'2021-11-10'), (7450567630,date'2021-11-12'), (2968943591587,date'2021-11-12'), (1623447635524,date'2021-11-12'), (1751123800787,date'2021-11-12'), (2918494542775,date'2021-11-15'), (4160694850512,date'2021-11-15'), (4153859538388,date'2021-11-15'), (3000000006111706,date'2021-11-16'), (1515932853498,date'2021-11-16'), (1578638575185,date'2021-11-16'), (1515999962846,date'2021-11-16'), (8000000005441938,date'2021-11-16'), (1533501866890,date'2021-12-28'), (2674634854539,date'2021-11-16'), (4000000006787560,date'2021-11-16'), (1407579542444,date'2021-11-17'), (1655403880,date'2021-11-17'), (3010175482088,date'2021-11-15'), (1438223288279,date'2021-11-19'), (2620654990,date'2021-11-19'), (1623461822395,date'2021-11-19'), (3038003459795,date'2021-11-19'), (9867051260,date'2021-11-19'), (2981759329249,date'2021-11-19'), (2843024657456,date'2021-11-19'), (2832152946429,date'2021-11-22'), (3522537959168,date'2021-11-22'), (2843678296086,date'2021-11-22'), (7528238903653,date'2021-11-22'), (4000000007836372,date'2021-11-22'), (3104293487190,date'2021-11-22'), (6745908853372,date'2021-11-22'), (6617701410444,date'2021-11-22'), (313818769443,date'2021-11-22'), (3098666270,date'2021-11-22'), (2899291248971,date'2021-11-22'), (2396708204693,date'2021-11-23'), (1578328640614,date'2021-11-23'), (3451368130,date'2021-11-23'), (,date'2021-11-23'), (3073147013703,date'2021-11-23'), (2610102671258,date'2021-11-23'), (2462269382464,date'2021-11-24'), (334453815530,date'2021-11-24'), (,date'2021-11-24'), (,date'2021-11-24'), (1428546229294,date'2021-11-24'), (516097527,date'2021-11-24'), (,date'2021-11-24'), (305974651618,date'2021-11-24'), (44399657686,date'2021-11-24'), (2158266880619,date'2021-11-24'), (1087979390,date'2021-11-25'), (3039406397307,date'2021-11-25'), (2959125911135,date'2021-11-25'), (1544300741249,date'2021-11-25'), (2076273426380,date'2021-11-25'), (1677277855696,date'2021-11-25'), (12926646410,date'2021-11-26'), (2997112171767,date'2021-11-26'), (434197933,date'2021-11-26'), (1714484525396,date'2021-11-26'), (1905100197582,date'2021-11-26'), (2722577966350,date'2021-11-26'), (589347793,date'2021-11-26'), (7129835360302,date'2021-11-26'), (6000000001653717,date'2021-11-26'), (3999033206952,date'2021-11-26'), (2837957383801,date'2021-11-26'), (2996401203393,date'2021-11-29'), (979698340,date'2021-11-29'), (2799008926100,date'2021-11-29'), (1806215904645,date'2021-11-29'), (4218861635606,date'2021-11-29'), (105568821,date'2021-11-29'), (3929039746862,date'2021-11-29'), (2717026102402,date'2021-11-29'), (2811466076240,date'2021-11-29'), (3294226639228,date'2021-11-29'), (4112863539986,date'2021-11-30'), (3591783610,date'2021-11-30'), (3900638052832,date'2021-11-30'), (4569708686335,date'2021-12-01'), (4370733561434,date'2021-12-01'), (3787872448868,date'2021-12-01'), (4090755541026,date'2021-12-01'), (1769232392858,date'2021-12-01'), (13914961860,date'2021-12-01'), (,date'2021-12-02'), (3077240291318,date'2021-12-02'), (8158492360,date'2021-12-02'), (2615486925450,date'2021-12-02'), (10520449710,date'2021-12-02'), (2419189618343,date'2021-12-02'), (8000000006792541,date'2021-12-06'), (7325486072048,date'2021-12-06'), (6341143955552,date'2021-12-06'), (7182126176165,date'2021-12-06'), (7190880421732,date'2021-12-06'), (6897845815317,date'2021-12-06'), (7125574748899,date'2021-12-06'), (7255932405818,date'2021-12-06'), (8000000006632400,date'2021-12-06'), (290429451398,date'2021-12-06'), (2499783150329,date'2021-12-06'), (7000000005575743,date'2021-12-06'), (2352872216492,date'2021-12-06'), (2659014170914,date'2021-12-06'), (2952246084725,date'2021-12-06'), (2231066319211,date'2021-12-06'), (13160855020,date'2021-12-07'), (3000000006561651,date'2021-12-07'), (1568880692730,date'2021-12-07'), (1470003532209,date'2021-12-07'), (4569718048698,date'2021-12-07'), (1000000011218358,date'2021-12-07'), (4569707226485,date'2021-12-07'), (2598422044141,date'2021-12-07'), (1789341532300,date'2021-12-08'), (2000000011735969,date'2021-12-08'), (2492834523438,date'2021-12-08'), (4000000006834961,date'2021-12-08'), (2365513604460,date'2021-12-09'), (3292380290302,date'2021-12-09'), (8000000005658879,date'2021-12-09'), (2828971311489,date'2021-12-09'), (3144505780731,date'2021-12-10'), (6000000002738939,date'2021-12-10'), (1748017581828,date'2021-12-10'), (9326687400,date'2021-12-10'), (2861518320891,date'2021-12-10'), (3939351275086,date'2021-12-10'), (2854719248614,date'2021-12-13'), (2466613937398,date'2021-12-13'), (1578555080378,date'2021-12-14'), (8000000005686457,date'2021-12-14'), (2439666027747,date'2021-12-14'), (2416422192396,date'2021-12-15'), (2485430990048,date'2021-12-15'), (2686472881001,date'2021-12-15'), (4000000006620822,date'2021-12-15'), (459983032,date'2021-12-15'), (1751106667742,date'2021-12-15'), (1751109040624,date'2021-12-15'), (,date'2021-12-15'), (1677078959926,date'2021-12-15'), (2560267620,date'2021-12-15'), (2772607220,date'2021-12-15'), (2948972732324,date'2021-12-15'), (3067925046092,date'2021-12-15'), (197971476394,date'2021-12-15'), (2400603299563,date'2021-12-15'), (1544147983621,date'2021-12-15'), (,date'2021-12-15'), (6000000002837148,date'2021-12-15'), (,date'2021-12-15'), (7429797460,date'2021-12-15'), (2895233412494,date'2021-12-15'), (3131124114711,date'2021-12-15'), (2744556860258,date'2021-12-16'), (4180008810895,date'2021-12-16'), (8000000005618145,date'2021-12-16'), (1622853848584,date'2021-12-16'), (3951076612432,date'2021-12-17'), (3093335690847,date'2021-12-17'), (592540301,date'2021-12-17'), (331585239369,date'2021-12-17'), (1677134188720,date'2021-12-17'), (2768910609144,date'2021-12-17'), (3100598849525,date'2021-12-17'), (2849958848907,date'2021-12-17'), (1544042317271,date'2021-12-17'), (1622833391718,date'2021-12-20'), (,date'2021-12-20'), (1685428494822,date'2021-12-20'), (2635895959032,date'2021-12-20'), (2670371613508,date'2021-12-20'), (2479049268108,date'2021-12-20'), (11577145420,date'2021-12-20'), (1621758412819,date'2021-12-21'), (2230292369550,date'2021-12-22'), (,date'2021-12-22'), (919863610638,date'2021-12-23'), (1400757233343,date'2021-12-23'), (,date'2021-12-23'), (8000000005524348,date'2021-12-23'), (,date'2021-12-23'), (2150461666629,date'2021-12-23'), (,date'2021-12-23'), (,date'2021-12-24'), (,date'2021-12-24'), (2500045439265,date'2021-12-24'), (7429423695972,date'2021-12-24'), (1953343088310,date'2021-12-24'), (3000000006203152,date'2021-12-24'), (6910267306410,date'2021-12-24'), (7429422468710,date'2021-12-24'), (6979150725905,date'2021-12-24'), (2993192399592,date'2021-12-24'), (472887076,date'2021-12-24'), (,date'2021-12-24'), (,date'2021-12-24'), (1515993477633,date'2021-12-24'), (,date'2021-12-24'), (,date'2021-12-24'), (3312556822442,date'2021-12-24'), (6000000002868319,date'2021-12-24'), (5876201753415,date'2021-12-24'), (2549662130643,date'2021-12-24'), (4569703704391,date'2021-12-26'), (1543908399649,date'2021-12-26'), (1543908414433,date'2021-12-26'), (333769519501,date'2021-12-28'), (3000000007523263,date'2021-12-28'), (3969531337328,date'2021-12-28'), (3619443719612,date'2021-12-28'), (4301389212926,date'2021-12-28'), (2793231963947,date'2021-12-29'), (10752477410,date'2021-12-29'), (4106207480,date'2021-12-29'), (1814746560282,date'2021-12-29'), (2000000011782521,date'2021-12-29'), (2350017724856,date'2021-12-29'), (2817539716167,date'2021-12-29'), (6000000002748501,date'2021-12-29'), (2606500281866,date'2021-12-29'), (1000000011287281,date'2021-12-29'), (1991812320960,date'2021-12-29'), (1508790360762,date'2021-12-30'), (715467230,date'2021-12-30'), (2159736198094,date'2021-12-30'), (9934589940,date'2022-01-10'), (2692213806317,date'2022-01-10'), (,date'2022-01-10'), (,date'2022-01-10'), (3245884238816,date'2022-01-10'), (13575337870,date'2022-01-10'), (3003442933175,date'2022-01-10'), (3068794715799,date'2022-01-10'), (1736970289252,date'2022-01-10'), (2773129550,date'2022-01-10'), (3466662605468,date'2022-01-11'), (1494084652990,date'2022-01-11'), (2472611408941,date'2022-01-11'), (3020080391073,date'2022-01-28'), (2557229006637,date'2022-01-12'), (445777298,date'2022-01-12'), (2184482126529,date'2022-01-12'), (1111304011524,date'2022-01-12'), (329724609018,date'2022-01-12'), (2000000011727960,date'2022-01-12'), (9534161420,date'2022-01-12'), (2872495246216,date'2022-01-12'), (5000000002843901,date'2022-01-13'), (1422345330901,date'2022-01-13'), (156314829375,date'2022-01-14'), (528097914,date'2022-01-14'), (1623369954625,date'2022-01-14'), (1514518997358,date'2022-01-14'), (2783937594196,date'2022-01-17'), (3939786930638,date'2022-01-17'), (17747407590,date'2022-01-17'), (3859628651956,date'2022-01-17'), (3013467266135,date'2022-01-17'), (2863952763268,date'2022-01-18'), (,date'2022-01-18'), (8000000005521690,date'2022-01-18'), (6186172560,date'2022-01-19'), (3863457011608,date'2022-01-19'), (3170913767654,date'2022-01-19'), (3117034290298,date'2022-01-19'), (1579645204667,date'2022-01-19'), (,date'2022-01-20'), (,date'2022-01-20'), (,date'2022-01-20'), (,date'2022-01-20'), (2780307144366,date'2022-01-20'), (4190378406042,date'2022-01-21'), (8000000005478587,date'2022-01-21'), (898879172934,date'2022-01-21'), (4273399280682,date'2022-01-21'), (507337224,date'2022-01-21'), (3023464360613,date'2022-01-21'), (2624615076555,date'2022-01-21'), (4266375133712,date'2022-01-21'), (2341991183920,date'2022-01-21'), (2022812915940,date'2022-01-21'), (2444037076208,date'2022-01-21'), (1544144476610,date'2022-01-24'), (1441552358870,date'2022-01-24'), (1441552358870,date'2022-01-24'), (4784180890,date'2022-01-24'), (2069659643812,date'2022-01-24'), (3563120138498,date'2022-01-25'), (7153853740,date'2022-01-25'), (2153976808534,date'2022-01-25'), (1731442243112,date'2022-01-25'), (5109730329864,date'2022-01-25'), (1600448852698,date'2022-01-26'), (7000000005588277,date'2022-01-26'), (1694171371508,date'2022-01-26'), (2630936772105,date'2022-01-26'), (,date'2022-01-27'), (1578567154136,date'2022-01-27'), (4569259572286,date'2022-01-27'), (,date'2022-01-27'), (4569259508828,date'2022-01-27'), (2104601650799,date'2022-01-27'), (,date'2022-01-27'), (2734063171222,date'2022-01-27'), (2662817471183,date'2022-01-27'), (3101762441825,date'2022-01-28'), (3338722484712,date'2022-01-28'), (2195159380,date'2022-01-28'), (4980122337716,date'2022-01-28'), (1594487213515,date'2022-01-28'), (12555428080,date'2022-01-31'), (3871943616170,date'2022-01-31'), (3978803032538,date'2022-01-31'), (3886600865408,date'2022-01-31'), (4000000006496620,date'2022-01-31'), (1676861770296,date'2022-01-31'), (3796927327362,date'2022-01-31'), (3745409311662,date'2022-01-31'), (3142731325225,date'2022-01-31'), (3645307770148,date'2022-01-31'), (3847942933834,date'2022-01-31'), (2850202703503,date'2022-01-31'), (2716560918081,date'2022-01-31'), (1977282509375,date'2022-01-31'), (3098880835799,date'2022-02-01'), (170828330875,date'2022-02-01'), (1927596470682,date'2022-02-02'), (2508284588082,date'2022-02-02'), (10514238730,date'2022-02-02'), (209734358879,date'2022-02-02'), (3000000006100600,date'2022-02-02'), (2151575235789,date'2022-02-02'), (427630497,date'2022-02-03'), (1543925158836,date'2022-02-03'), (1812170631432,date'2022-02-03'), (1623306548242,date'2022-02-03'), (2000000011876938,date'2022-02-03'), (7253802450996,date'2022-02-03'), (7381756315623,date'2022-02-03'), (2973629888452,date'2022-02-03'), (7339928836839,date'2022-02-03'), (7319743010738,date'2022-02-03'), (15022168320,date'2022-02-03'), (3063371280188,date'2022-02-03'), (1657280098981,date'2022-02-03'), (2776670560987,date'2022-02-03'), (3224068447630,date'2022-02-03'), (4760199460,date'2022-02-03'), (2705062067150,date'2022-02-03'), (2113103305442,date'2022-02-03'), (199508422,date'2022-02-04'), (271357995945,date'2022-02-04'), (2656776671294,date'2022-02-04'), (4761894830,date'2022-02-04'), (2741410072548,date'2022-02-04'), (3776787953604,date'2022-02-04'), (1446325730113,date'2022-02-05'), (1446292181840,date'2022-02-05'), (8000000006462207,date'2022-02-05'), (1446307502370,date'2022-02-05'), (1446329175295,date'2022-02-05'), (1446311952129,date'2022-02-05'), (1446299180583,date'2022-02-05'), (1446402525466,date'2022-02-05'), (2828581355034,date'2022-02-07'), (11411711540,date'2022-02-07'), (1944485090,date'2022-02-07'), (1543929699422,date'2022-02-07'), (,date'2022-02-07'), (6336529655174,date'2022-02-07'), (6338769683263,date'2022-02-07'), (6381039332127,date'2022-02-07'), (4000000006681574,date'2022-02-07'), (,date'2022-02-07'), (2658948982978,date'2022-02-07'), (4333420898844,date'2022-02-07'), (4102474064050,date'2022-02-07'), (3766525231936,date'2022-02-07'), (4307997620,date'2022-02-07'), (1622711786638,date'2022-02-07'), (4000000006626232,date'2022-02-07'), (3104475911544,date'2022-02-07'), (2453907849411,date'2022-02-07'), (,date'2022-02-07'), (4569689331315,date'2022-02-07'), (4569685696805,date'2022-02-07'), (4307447867509,date'2022-02-07'), (4307431562241,date'2022-02-07'), (2780492260935,date'2022-02-08'), (3847718175166,date'2022-02-08'), (4431441626450,date'2022-02-08'), (4434927795686,date'2022-02-08'), (4118194420930,date'2022-02-08'), (3066721472623,date'2022-02-08'), (4432624555378,date'2022-02-08'), (5000000002851052,date'2022-02-08'), (3797232751682,date'2022-02-08'), (7407490121543,date'2022-02-08'), (2949269885826,date'2022-02-08'), (,date'2022-02-08'), (1544284691267,date'2022-02-08'), (2668000605852,date'2022-02-08'), (1466833770,date'2022-02-08'), (2987791183420,date'2022-02-09'), (2000000011723384,date'2022-02-09'), (2548397971794,date'2022-02-09'), (4073714070,date'2022-02-09'), (2685484818243,date'2022-02-10'), (13215655920,date'2022-02-10'), (4000000006736383,date'2022-02-10'), (7387451219496,date'2022-02-10'), (278114844263,date'2022-02-10'), (,date'2022-02-10'), (469759192,date'2022-02-10'), (4098512213302,date'2022-02-10'), (2926327510333,date'2022-02-10'), (4107307937250,date'2022-02-10'), (1528681149943,date'2022-02-10'), (4103642001154,date'2022-02-10'), (3997006910708,date'2022-02-10'), (6928766398812,date'2022-02-10'), (3018310428004,date'2022-02-10'), (1622959075399,date'2022-02-10'), (4129398715314,date'2022-02-10'), (6196381342079,date'2022-02-10'), (3294506223366,date'2022-02-10'), (3412410784424,date'2022-02-10'), (3506458154684,date'2022-02-10'), (6992987880,date'2022-02-10'), (4436354179566,date'2022-02-10'), (5000000002777523,date'2022-02-10'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (3431796811284,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (7000000005425805,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (4207524566858,date'2022-02-11'), (3343651485608,date'2022-02-11'), (4319193283908,date'2022-02-11'), (4455587522724,date'2022-02-11'), (4506717093674,date'2022-02-11'), (4495089724704,date'2022-02-11'), (1544297139603,date'2022-02-11'), (7465363930,date'2022-02-11'), (885024362378,date'2022-02-12'), (890886764615,date'2022-02-12'), (420303845,date'2022-02-12'), (197292582,date'2022-02-12'), (2681476345877,date'2022-02-12'), (4350849804320,date'2022-02-12'), (3820694534762,date'2022-02-12'), (2921306837373,date'2022-02-14'), (3048657952646,date'2022-02-14'), (2468496653920,date'2022-02-14'), (3147203636210,date'2022-02-14'), (2400831213231,date'2022-02-15'), (3296866298312,date'2022-02-16'), (3110001256513,date'2022-02-16'), (3214236644788,date'2022-02-16'), (1093529270,date'2022-02-16'), (3359783762422,date'2022-02-16'), (3489627107020,date'2022-02-16'), (4164990825674,date'2022-02-16'), (1000000000370935,date'2022-02-17'), (3037181046970,date'2022-02-17'), (4300484303968,date'2022-02-17'), (16079950300,date'2022-02-17'), (1623369954625,date'2022-02-17'), (3037839723622,date'2022-02-18'), (3145807563446,date'2022-02-18'), (614678234,date'2022-02-18'), (1431386595856,date'2022-02-18'), (2719877841589,date'2022-02-19'), (3535606652454,date'2022-02-19'), (2895718477592,date'2022-02-19'), (3712211992212,date'2022-02-19'), (,date'2022-02-19'), (1663087385367,date'2022-02-19'), (2635741204394,date'2022-02-19'), (2840278443452,date'2022-02-20'), (2903605337376,date'2022-02-20'), (6000000002886179,date'2022-02-20'), (2716807328609,date'2022-02-20'), (4336145957450,date'2022-02-20'), (4448760185062,date'2022-02-20'), (3301170953144,date'2022-02-20'), (1465322151551,date'2022-02-20'), (1492876698130,date'2022-02-20'), (3924443758166,date'2022-02-20'), (10733195500,date'2022-02-20'), (3000000006422539,date'2022-02-21'), (2928353479280,date'2022-02-21'), (2837984084492,date'2022-02-21'), (4255763714178,date'2022-02-21'), (2481338113743,date'2022-02-21'), (3105419235100,date'2022-02-22'), (1942649605871,date'2022-02-22'), (5289607102748,date'2022-02-22'), (3264635212230,date'2022-02-22'), (3023737609304,date'2022-02-22'), (11347340470,date'2022-02-22'), (3116791405093,date'2022-02-22'), (7184447492441,date'2022-02-24'), (3174826377024,date'2022-02-24'), (3343175048232,date'2022-02-24'), (1000000011210761,date'2022-02-24'), (8471115828023,date'2022-02-24'), (2907502586682,date'2022-02-24'), (3459476197978,date'2022-02-24'), (4000000006698463,date'2022-02-24'), (1571375368727,date'2022-02-24'), (616133521,date'2022-02-24'), (2827871071577,date'2022-02-24'), (2439187415280,date'2022-02-24'), (3850069614472,date'2022-02-24'), (3306184664928,date'2022-02-24'), (1959401664754,date'2022-02-24'), (1767085296685,date'2022-02-25'), (6074470720,date'2022-02-25'), (1477968420,date'2022-02-25'), (1766259827709,date'2022-02-25'), (2365586667780,date'2022-02-25'), (40737905907400,date'2022-02-25'), (2639371699973,date'2022-02-26'), (6779087100,date'2022-02-26'), (2596631299448,date'2022-02-26'), (8794232980,date'2022-02-26'), (4020981096952,date'2022-02-26'), (1016566700,date'2022-02-28'), (1476397080261,date'2022-02-28'), (1767085296685,date'2022-02-28'), (914738905853,date'2022-03-01'), (5000000002774093,date'2022-03-01'), (180661729351,date'2022-03-01'), (8000000005731773,date'2022-03-01'), (1971587994313,date'2022-03-01'), (1542502158135,date'2022-03-01'), (2670377065207,date'2022-03-30'), (6102989000,date'2022-03-01'), (2205212722237,date'2022-03-01'), (2479754672414,date'2022-03-01'), (4424288105734,date'2022-03-02'), (4378921423006,date'2022-03-02'), (2081646631908,date'2022-03-03'), (3310809410,date'2022-03-03'), (1631927436791,date'2022-03-03'), (2571608629956,date'2022-03-04'), (3610240306908,date'2022-03-04'), (4537457032192,date'2022-03-04'), (3105913130670,date'2022-03-04'), (7000000005946145,date'2022-03-04'), (311930773259,date'2022-03-04'), (13219858690,date'2022-03-05'), (2832948010865,date'2022-03-05'), (3267715907964,date'2022-03-05'), (1578511060150,date'2022-03-05'), (3955417656636,date'2022-03-05'), (2765334757454,date'2022-03-05'), (736350160,date'2022-03-05'), (2934323836529,date'2022-03-05'), (3015806912708,date'2022-03-05'), (4133751474730,date'2022-03-05'), (3945088215598,date'2022-03-05'), (3987404499992,date'2022-03-05'), (16215347250,date'2022-03-05'), (2435349045783,date'2022-03-06'), (278114844263,date'2022-03-07'), (7216865416278,date'2022-03-07'), (6842476206830,date'2022-03-07'), (1543924460,date'2022-03-07'), (6000000002810229,date'2022-03-09'), (2779384522649,date'2022-03-09'), (1911096055820,date'2022-03-10'), (211132836,date'2022-03-10'), (4221363759222,date'2022-03-10'), (1677203301346,date'2022-03-10'), (,date'2022-03-10'), (2582216783435,date'2022-03-10'), (1198328040,date'2022-03-10'), (4314969121946,date'2022-03-11'), (2779875472484,date'2022-03-11'), (2576724013347,date'2022-03-11'), (7276633619534,date'2022-03-14'), (15101472770,date'2022-03-14'), (2743349619819,date'2022-03-14'), (1825970501329,date'2022-03-14'), (1426864833741,date'2022-03-14'), (1476352208281,date'2022-03-14'), (4604655296256,date'2022-03-15'), (4603827663570,date'2022-03-15'), (891208260178,date'2022-03-15'), (299131428,date'2022-03-15'), (2974887100813,date'2022-03-15'), (1000000011202175,date'2022-03-15'), (6000000002756192,date'2022-03-15'), (5236310349046,date'2022-03-15'), (,date'2022-03-16'), (,date'2022-03-16'), (3683797723052,date'2022-03-16'), (1623218931019,date'2022-03-17'), (14682615560,date'2022-03-17'), (2974749622286,date'2022-03-17'), (3099723204335,date'2022-03-17'), (1720923231861,date'2022-03-17'), (7000000005859196,date'2022-03-17'), (1932387575213,date'2022-03-17'), (1515978382451,date'2022-03-17'), (1677044912548,date'2022-03-17'), (1705352135386,date'2022-03-17'), (5535969710,date'2022-03-17'), (3764011343046,date'2022-03-17'), (3716897461358,date'2022-03-17'), (3557110768768,date'2022-03-17'), (3913354977996,date'2022-03-17'), (3857041122032,date'2022-03-17'), (3817020410138,date'2022-03-17'), (2921188937323,date'2022-03-17'), (13561680210,date'2022-03-17'), (10174687000,date'2022-03-18'), (2325079169012,date'2022-03-18'), (1630717174545,date'2022-03-18'), (2486767840,date'2022-03-18'), (3118352106919,date'2022-03-21'), (4235702676578,date'2022-03-21'), (4137360592150,date'2022-03-21'), (1578475871254,date'2022-03-21'), (2855875104890,date'2022-03-21'), (2297544152161,date'2022-03-21'), (8000000005397317,date'2022-03-21'), (2178772142284,date'2022-03-21'), (11646844540,date'2022-03-21'), (3127448422668,date'2022-03-21'), (546460097,date'2022-03-21'), (2707158229601,date'2022-03-21'), (,date'2022-03-21'), (2806016147428,date'2022-03-21'), (267598241637,date'2022-03-21'), (,date'2022-03-21'), (3440000776820,date'2022-03-21'), (3648905601790,date'2022-03-21'), (3941983330794,date'2022-03-21'), (3581248431766,date'2022-03-21'), (1945312870,date'2022-03-21'), (1578341346033,date'2022-03-21'), (5000000003504152,date'2022-03-21'), (2834524625353,date'2022-03-21'), (2668082908253,date'2022-03-21'), (3911933089236,date'2022-03-24'), (4390431271828,date'2022-03-24'), (4436751091228,date'2022-03-24'), (4070764749040,date'2022-03-24'), (9326639310,date'2022-03-24'), (891018394699,date'2022-03-22'), (4138036402348,date'2022-03-22'), (4204837591526,date'2022-03-22'), (3047533649306,date'2022-03-22'), (4000000006675769,date'2022-03-22'), (3115012337393,date'2022-03-22'), (1594300130146,date'2022-03-22'), (3046664280420,date'2022-03-22'), (2617970946746,date'2022-03-22'), (13215211420,date'2022-03-22'), (2794015529634,date'2022-03-22'), (2368153486949,date'2022-03-22'), (,date'2022-03-22'), (2931086213199,date'2022-03-22'), (1622846545155,date'2022-03-22'), (4116406755858,date'2022-03-22'), (2135020992406,date'2022-03-23'), (2049236096348,date'2022-03-23'), (2225606458226,date'2022-03-23'), (161858202,date'2022-03-23'), (3599767913556,date'2022-03-23'), (2703969577336,date'2022-03-24'), (3136317597836,date'2022-03-24'), (3000000006157345,date'2022-03-24'), (2466169779380,date'2022-03-24'), (5315964250,date'2022-03-24'), (1623186164241,date'2022-03-24'), (2629001201653,date'2022-03-24'), (5000000003083473,date'2022-03-24'), (,date'2022-03-24'), (,date'2022-03-25'), (3020960667144,date'2022-03-25'), (,date'2022-03-25'), (2958076886452,date'2022-03-25'), (1570467056884,date'2022-03-25'), (2845514292956,date'2022-03-25'), (4431012807614,date'2022-03-25'), (,date'2022-03-25'), (4000000006701356,date'2022-03-25'), (1578490253575,date'2022-03-26'), (1578512938041,date'2022-03-26'), (1578552551209,date'2022-03-26'), (8000000005539577,da</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>MissingColumnError</t>
+          <t>QueryTooLargeError</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3668,21 +3668,21 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Value cannot be cast to timestamp: 20247364831273202513</t>
+          <t>line 2:6: Schema 'arnsdpsbx_t_team_sva_oarb' does not exist</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SELECT 	cast(concat_ws('',cast(TSK.body.systemparamsinfo.datecreateevent AS array&lt;varchar&gt;)) AS timestamp) 	--from_unixtime(concat_ws('',cast(TSK.body.systemparamsinfo.datecreateevent as array&lt;varchar&gt;)),'yyyyMMddHHmmssSSS') 	,cast(concat(cast(TSK.body.systemparamsinfo.datecreateevent[1] AS varchar) 			,'-' 			,cast(TSK.body.systemparamsinfo.datecreateevent[2] AS varchar) 			,'-' 			,cast(TSK.body.systemparamsinfo.datecreateevent[3] AS varchar) 			,' ' 			,cast(TSK.body.systemparamsinfo.datecreateevent[4] AS varchar) 			,':' 			,cast(TSK.body.systemparamsinfo.datecreateevent[5] AS varchar) 			,':' 			,cast(TSK.body.systemparamsinfo.datecreateevent[6] AS varchar) 			,'.' 			,cast(TSK.body.systemparamsinfo.datecreateevent[7] AS varchar) 			) AS timestamp) + interval '3' hour AS "EventDateTime" 	FROM sfd_hdfsgw_hdp.prx_parus_task_selfservice_parus_tasks.tasks_test_1 AS TSK</t>
+          <t>select* from k808_rx_hdp.arnsdpsbx_t_team_sva_oarb."40_pev_mkk_obr_191224_part_2" limit 10</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>TypeError</t>
+          <t>MissingSchemaError</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -3693,17 +3693,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>line 1:33: mismatched input ')'. Expecting: 'AS'</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb.gulynin_epk_sms SELECT * FROM k808_rx_hdp.t_team_sva_oarb.epk_sms a</t>
+          <t>select max(cast(creation_date_dd) as date) from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_efs_old"</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E131" t="b">
@@ -3718,12 +3718,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Query exceeded distributed user memory limit of 27GB</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb.FIO as select a.epk_id, a.fullname, b.birth_date from sfd_hdfsgw_hdp.prx_epk_dqepk_1_custom_rozn_dqepk.epk_client_name a join sfd_hdfsgw_hdp.prx_epk_dqepk_1_custom_rozn_dqepk.epk_client b on a.epk_id= b.epk_id</t>
+          <t>SELECT COUNT(*) FROM (select * from k808_rx_hdp.prx_55_sai_custom_rb_card_custom_rb_card."scd_card_union" ) dbvrcnt</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3743,21 +3743,21 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FATAL: terminating connection due to administrator command</t>
+          <t>line 1:1: Destination table 'capgp3_gp.s_grnplm_ld_audit_da_emitent.42_pb1_divrstat_session_detail' already exists</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>INSERT INTO k808_rx_hdp.t_team_prfl_cdp.vma_t_4_25_buf SELECT      epk_id,     CAST(amount AS VARCHAR),     CAST(inn_organization AS VARCHAR),     payment_type_case,     '2023-12-31' FROM      rozn2_gp.s_grnplm_ld_rozn_electron_knlg_core.vma_t_4_25</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" as SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ObjectAlreadyExistsError</t>
         </is>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -3768,21 +3768,21 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FATAL: terminating connection due to administrator command</t>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>INSERT INTO k808_rx_hdp.t_team_prfl_cdp.vma_temp_cx_lstdt SELECT      epk_id,     last_activity_dt,     first_active_product_dt,     '2022-11-30' FROM      rozn2_gp.s_grnplm_ld_rozn_electron_knlg_core.vma_temp_cx_lstdt</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" as SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TooManyConnectionsError</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -3793,21 +3793,21 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "17348432"</t>
+          <t>Current transaction is aborted, commands ignored until end of transaction block</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>select b.* , a.* ,  q.task_answer , q.task_answer_full , q.req_answer , q.req_answer_full , q.task_text_sol  , q.task_owner , q.task_result From capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."40_kaluginvs_anofl_appeal_2024" a join  k808_rx_hdp.t_team_sva_oarb."42_Lazarev_B" b on cast (a.cust_epk_id as bigint  )  = cast (b.ucp_id as bigint  )  and cast (b.creation_date_dd as timestamp) &lt;= cast ( a.created as timestamp) limit 100</t>
+          <t>SELECT * FROM k808_rx_hdp.prx_kap_prime_dzo_epfb2c_sprm.subscription</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -3818,17 +3818,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.shvets_ekb</t>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>TooManyConnectionsError</t>
         </is>
       </c>
       <c r="E136" t="b">
@@ -3843,17 +3843,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM (select b.epk_id, a.nsi_id from k808_rx_hdp.prx_custom_rozni_tag_custom_rozn_tag.ft_master_hshtg as a join k808_rx_hdp.t_team_sva_oarb."42_21608829_epk_bad_1610" as b on cast(a.epk_id as varchar) = b.epk_id ) dbvrcnt</t>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb4_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>TooManyConnectionsError</t>
         </is>
       </c>
       <c r="E137" t="b">
@@ -3868,17 +3868,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Query text length (1149974) exceeds the maximum length (1000000)</t>
+          <t>line 3:196: mismatched input 'б'. Expecting: ',', 'EXCEPT', 'FETCH', 'FROM', 'GROUP', 'HAVING', 'INTERSECT', 'LIMIT', 'OFFSET', 'ORDER', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>insert into idlist values  (3991304550258,null), (3714704870790,null), (2847647877143,null), (2899143132044,null), (3940196359112,null), (4279521330446,null), (3707725340230,null), (2912508314316,null), (3749205993550,null), (3973637356064,null), (3322833304912,null), (2905575860086,null), (4114405835456,null), (3452423952960,null), (3974841956176,null), (4036071918508,null), (3260327240036,null), (2803376037254,null), (2889345030593,null), (4375003587556,null), (2668742899596,null), (3426310266848,null), (2740977504102,null), (3851856535852,null), (3337106788080,null), (2784630312637,null), (3692076786630,null), (2878943993404,null), (3225038170236,null), (2969029238160,null), (4833809592572,null), (2917184090847,null), (3722985190794,null), (3491104925362,null), (3776469701946,null), (3994655653526,null), (2837024799518,null), (4201204787000,null), (4134416301570,null), (2877783192395,null), (4186794384122,null), (2880289950351,null), (2768449371487,null), (3974906084192,null), (4261346264484,null), (3358542804200,null), (3305200609336,null), (2954265562911,null), (4315059357576,null), (3585602713882,null), (4344455009456,null), (2832651738189,null), (3663482853974,null), (2767563407785,null), (2844656527822,null), (3870137827000,null), (4086363855188,null), (4246495286820,null), (2847617205734,null), (2934434696761,null), (3074739799455,null), (2796214884991,null), (2461667993865,null), (2875310204954,null), (2505530750802,null), (3229674694852,null), (2900661022706,null), (3769573689938,null), (3701749954176,null), (3934099560704,null), (3182639313274,null), (3004957536789,null), (2530349224696,null), (3594778806696,null), (3500581482988,null), (3399911117554,null), (3765629510010,null), (2967602789730,null), (2495797014437,null), (2843706541495,null), (4250083482628,null), (4244966173154,null), (3135504012866,null), (3818383979216,null), (2666616881741,null), (2851587939545,null), (4240140682072,null), (3688216343736,null), (2648536217497,null), (3206027076194,null), (2511626989298,null), (3313373467150,null), (2881061958072,null), (3943002206842,null), (3958086261694,null), (4310135956628,null), (4611007030702,null), (4088566228598,null), (2873336630081,null), (3909870586894,null), (3508510334874,null), (2746000895113,null), (2779804102098,null), (3997125564542,null), (4201758046936,null), (3159438844168,null), (2859059368414,null), (2883981533997,null), (2997935603087,null), (3254554370450,null), (4113197597636,null), (4360146858162,null), (3772980704828,null), (2876951064376,null), (3317149661988,null), (3381727702954,null), (2831449490610,null), (3982443883038,null), (2927316050436,null), (2884721767281,null), (3918140068100,null), (4256581852902,null), (3853214988372,null), (3279614456664,null), (2860617433411,null), (3426323882672,null), (3875251122824,null), (3684828682824,null), (3179455703762,null), (4287289801866,null), (3929013754028,null), (4114423545378,null), (2986020500672,null), (2935235702407,null), (2674770803856,null), (4111979769700,null), (4249667082182,null), (4325811313698,null), (2916530289895,null), (3447885329900,null), (2759601417167,null), (2819209153637,null), (4282551002732,null), (2795685265298,null), (3371057899090,null), (3598788799916,null), (3429914325082,null), (2838574980730,null), (2855057519327,null), (2795763143659,null), (3626504472384,null), (3748249309940,null), (4186242211832,null), (2984137911365,null), (4277886205880,null), (3092665785760,null), (2901815853636,null), (4224127977282,null), (2791661140791,null), (2881165562924,null), (4261520275590,null), (3254342060362,null), (4098330244400,null), (3397430334838,null), (3142687825751,null), (2873553209821,null), (2947911324072,null), (4237686456938,null), (2927330301344,null), (2924726706374,null), (3372913966198,null), (3819371640834,null), (4297286526202,null), (3864745670970,null), (4437371856048,null), (4009702264904,null), (3082465464536,null), (2968391247154,null), (3714292070452,null), (3745643255062,null), (3697368946686,null), (3738611820324,null), (4273021012166,null), (2534702779959,null), (3658297201430,null), (3276346428338,null), (4288584128282,null), (4303311420266,null), (3750101534672,null), (4252624303298,null), (3474200624030,null), (4293990917550,null), (2531129135133,null), (4322842611122,null), (3982472098046,null), (3766960478384,null), (2922764136869,null), (2869831954374,null), (4313746365266,null), (3981490231980,null), (3781592546374,null), (3776922453458,null), (4285802126542,null), (3502502853700,null), (4132678431728,null), (2682229827120,null), (3691525512098,null), (3405001741938,null), (3756149409912,null), (3825921648924,null), (3699646064536,null), (3199697308682,null), (3374606368264,null), (4222084292438,null), (4452684439148,null), (2804738155971,null), (2999302515019,null), (4275051247854,null), (4227933376998,null), (3739826129036,null), (4065009215096,null), (4255220693360,null), (3917554946718,null), (3917266202548,null), (3040440932865,null), (3708145094452,null), (4116779089142,null), (4308996819470,null), (4241673610358,null), (4280508064224,null), (4240913767470,null), (3814073926754,null), (3627717830156,null), (2950047362721,null), (2814915969624,null), (3646794344948,null), (3900544659766,null), (3001670072206,null), (2763351389259,null), (2833226608160,null), (3678532461072,null), (3821138509040,null), (2915982439640,null), (3636668557354,null), (3830831980476,null), (3725912359890,null), (4211647082906,null), (2955470809224,null), (3628306761820,null), (2779506223621,null), (4271016393654,null), (3201779757066,null), (3274744463126,null), (4072287155304,null), (4322210519328,null), (4288687906566,null), (4238355335090,null), (2953294826378,null), (3370560284038,null), (3722695014818,null), (4211682471104,null), (4269782901732,null), (2871471044220,null), (2948991429473,null), (3977137041628,null), (3263100238182,null), (3073284102358,null), (3087621562156,null), (3138216606040,null), (3286897184918,null), (3864286700202,null), (2864370652379,null), (4130717465020,null), (4310787918216,null), (3935036243622,null), (3795090613458,null), (3080735900221,null), (2874248221188,null), (3632708506216,null), (4316517014900,null), (4323394629906,null), (3095635484803,null), (2986106828402,null), (3526130046790,null), (3488918651744,null), (4246117823376,null), (4315001028960,null), (3064253150208,null), (2925283537556,null), (3675452086340,null), (4247724264368,null), (2848240920393,null), (3116242094967,null), (2897699335049,null), (3711308751432,null), (4230587245746,null), (3473776674802,null), (4115796709844,null), (2868749870864,null), (3993132497040,null), (4664709675188,null), (4130899623776,null), (4328057807450,null), (3628279686170,null), (3989563365866,null), (4254520285270,null), (3496734049530,null), (3736642841508,null), (2877154018572,null), (2921843129219,null), (4298991191068,null), (4311756787454,null), (2848180420927,null), (3280546683644,null), (3348224796652,null), (4490845099704,null), (3949300736858,null), (4166285392616,null), (2950299312677,null), (4077270494932,null), (2930374985916,null), (3730494201650,null), (3951109246810,null), (3475697248932,null), (2983956293159,null), (3171669587192,null), (4235333988948,null), (4051437811850,null), (2928139259814,null), (2810602142560,null), (4313412447682,null), (3401850284026,null), (4321842785258,null), (4288208183038,null), (4198226398068,null), (3687265280864,null), (3684884893836,null), (4324202405734,null), (3151462504017,null), (3397103839314,null), (3037743570153,null), (3328748180918,null), (2964135581673,null), (4492046145582,null), (3692635644856,null), (4142797282316,null), (4227705706852,null), (4286214917060,null), (3259740418136,null), (3644094895020,null), (3663535654136,null), (3923695567184,null), (4224586219168,null), (3725682286762,null), (4214942859320,null), (4262732672144,null), (3888795949876,null), (3769832076606,null), (3987707840204,null), (3335653269590,null), (3325519475302,null), (2987786246412,null), (4192157639042,null), (3762444170312,null), (2861686095551,null), (3045618074853,null), (4260731127420,null), (3736469730882,null), (3718509913308,null), (3429928831370,null), (3202490420286,null), (4097817323064,null), (2938070041125,null), (3589036953010,null), (2877524667848,null), (3512850913474,null), (4277602232786,null), (4322404626084,null), (3943650025488,null), (4088575616784,null), (2721024464654,null), (3848584644246,null), (3990285006964,null), (3499956714228,null), (3340619052314,null), (4304958170078,null), (3758392931064,null), (3084514817870,null), (3716639724466,null), (4312282999098,null), (4013001997540,null), (4299621373710,null), (4458201805110,null), (4077256045006,null), (3309590539698,null), (2970762297512,null), (3344368742166,null), (4001809724594,null), (3787428455028,null), (2703611345253,null), (3780480807504,null), (3402474631344,null), (3772147659390,null), (2956491529628,null), (4108363061300,null), (4090754480164,null), (3911684774778,null), (3966408467596,null), (3953024433746,null), (4088531401528,null), (3063303027109,null), (2675979194412,null), (4318739771826,null), (3833392005958,null), (3807830082418,null), (4299807567110,null), (3046614956826,null), (3146079437068,null), (4011471782076,null), (2867985980286,null), (3753862139512,null), (3408199280418,null), (3944139716428,null), (3952099308464,null), (3504706103636,null), (3306780961020,null), (4258787781030,null), (4324258747364,null), (4013872788382,null), (2981520773861,null), (3112425210402,null), (3716534555284,null), (4039155531476,null), (3730685378812,null), (3338780967766,null), (3308614330434,null), (4252193581132,null), (2986460195167,null), (3643113747254,null), (4367900551224,null), (3961068444318,null), (2957273414745,null), (4086438104216,null), (4311895062440,null), (3323197829468,null), (3264225381430,null), (3962898503460,null), (3976979664996,null), (4029658090942,null), (4454180095258,null), (3768858527910,null), (2976070323887,null), (4664302814874,null), (4283200585744,null), (3769655855390,null), (4264974043438,null), (3852392826822,null), (3723761967792,null), (4274704851714,null), (2889213810649,null), (3207585020150,null), (2839032971244,null), (2988373515657,null), (4468372051458,null), (4202671534002,null), (3046394847789,null), (3958401364166,null), (3955995343492,null), (4003596323520,null), (3934756373638,null), (3758915188970,null), (4145891583970,null), (2743628911981,null), (2825894691274,null), (3486712015518,null), (3603953718164,null), (2918298303061,null), (3949102273266,null), (4277903829396,null), (4174743499190,null), (4027758437894,null), (3351400883772,null), (4051686914352,null), (4045202593246,null), (3542030257806,null), (2839458449318,null), (2958728999164,null), (3702700877122,null), (3993362589592,null), (3972921507042,null), (3941222170702,null), (3267116036826,null), (3391730848806,null), (3064370730616,null), (2969199199175,null), (3237457255710,null), (3032879735392,null), (3903408633162,null), (3164599447926,null), (3940826556244,null), (4417345697522,null), (2668964431636,null), (4233940890002,null), (4431948494340,null), (3991311825838,null), (3421306915810,null), (4010597910696,null), (3872184822000,null), (3642406657998,null), (3401082378646,null), (3949438609530,null), (3332468845766,null), (4027467756778,null), (3339126416230,null), (2913196595720,null), (3952052319612,null), (3706213160188,null), (4045212564498,null), (3252478810190,null), (4202180873486,null), (3783589904646,null), (3977002062008,null), (2845895622096,null), (4028478299474,null), (3791011856312,null), (3147185228670,null), (4298196328600,null), (3932285223990,null), (3387979900246,null), (4067762305186,null), (3154259996727,null), (3955769536806,null), (3220354845366,null), (2891384923432,null), (3764318091668,null), (4003417638256,null), (4373468223238,null), (3955641373500,null), (3292384114770,null), (3754419316710,null), (4178046292502,null), (4142270995998,null), (2922409284404,null), (3260149637828,null), (2974922952495,null), (4072624012814,null), (3601631564848,null), (4322178147478,null), (3145289308626,null), (2863854880252,null), (3478799266662,null), (4080768661682,null), (3872150082982,null), (4211258598790,null), (3483411544918,null), (3309402531134,null), (3777016870424,null), (4054257874414,null), (4307065893026,null), (2987533254545,null), (2951098778957,null), (3950785178192,null), (4059132563038,null), (3752554005404,null), (3287532361910,null), (3862266352114,null), (2815053472629,null), (4296460927028,null), (2821897572571,null), (4847904014600,null), (3926747721554,null), (3055487487716,null), (4353912827665,null), (4207213625830,null), (3066329481575,null), (3323731400250,null), (3682795138054,null), (3709923788212,null), (3985187790788,null), (3060209648692,null), (3910757771622,null), (2953217153276,null), (2843104187485,null), (4213230685678,null), (4319584670338,null), (3766443132438,null), (2508043485149,null), (3159242875266,null), (3140783998153,null), (3646721523020,null), (3973062829032,null), (2934606371454,null), (3640626475282,null), (2953500978778,null), (4400925702146,null), (3233530782204,null), (3636366686386,null), (4258714088280,null), (2917415699215,null), (3918412224748,null), (3280981643770,null), (2879651354395,null), (4204670287904,null), (3927086899146,null), (4488263150674,null), (2979571915494,null), (3146693988686,null), (3405153707250,null), (3749144487136,null), (3718154956142,null), (3685256627822,null), (2770120316219,null), (3763787419322,null), (3450875456938,null), (3449801707066,null), (4006716172642,null), (4318283000640,null), (3805466738500,null), (3181875666574,null), (3573235476782,null), (3943165180658,null), (3720246576248,null), (3554125786068,null), (3750762077366,null), (4065358849934,null), (3464701406086,null), (4129806770868,null), (4172121577572,null), (4278546187224,null), (4287099591388,null), (4507616527270,null), (4720023650984,null), (3489128363084,null), (3255405721284,null), (4088484498462,null), (2877096893537,null), (3876701330402,null), (3475611147496,null), (2851894931460,null), (3448111397700,null), (3890505531118,null), (4811882917796,null), (3144104485294,null), (2565883891758,null), (4306832123204,null), (4633775386332,null), (3813289598280,null), (3301738463396,null), (3718577401920,null), (2914787931591,null), (4096391791864,null), (3202796028450,null), (4207394509602,null), (3451859726634,null), (2521472942038,null), (4108331538882,null), (4598401664506,null), (2879681548900,null), (3686982702094,null), (2967570528929,null), (3979581678284,null), (3673432009368,null), (3975186593068,null), (4304768451954,null), (4106213389268,null), (4292297167508,null), (4772129039396,null), (2884394061850,null), (2442593315742,null), (3702105754614,null), (3977312030124,null), (3868414755652,null), (3170020193906,null), (3975042682100,null), (3866646233520,null), (2922480948072,null), (4112695414600,null), (4283623340668,null), (2948128065155,null), (3392138900940,null), (4246484271144,null), (3744019052250,null), (3659492506464,null), (3727905657112,null), (3714335901956,null), (3188663025140,null), (4090315427688,null), (3953243018112,null), (2778971636365,null), (3377452065150,null), (3981038664484,null), (2839038758818,null), (3046225738083,null), (4326187761278,null), (2805013086733,null), (2907865113550,null), (4102468766206,null), (4364073612672,null), (3902413041922,null), (4294419888560,null), (4204748939840,null), (4538922713608,null), (3530039822752,null), (2793937165232,null), (3424120649980,null), (3179180457232,null), (2912241076475,null), (2910447386412,null), (2840303605217,null), (3590447079410,null), (4174710854766,null), (4213234204782,null), (4317452900784,null), (4043289353528,null), (4127438353060,null), (4321931991206,null), (3154719866006,null), (2984611708604,null), (4048844796758,null), (3710104253530,null), (2949665516134,null), (2717127775283,null), (2719778733198,null), (4250135134556,null), (2873556120535,null), (3679027665346,null), (3884544589034,null), (4297486734394,null), (3934062219888,null), (3394350043822,null), (4300251934054,null), (4305616292778,null), (2881518051842,null), (2924874135480,null), (2698579506390,null), (2992310181026,null), (3150601562143,null), (3004339553214,null), (4266385215334,null), (3307037825706,null), (3874476747178,null), (4283904417070,null), (3492818669170,null), (2916459453271,null), (2798560975390,null), (2888954224183,null), (4862644297382,null), (3717033993776,null), (4525080680130,null), (2814091213369,null), (3400304214400,null), (3724829487022,null), (4221022072804,null), (3711207867580,null), (3686355897688,null), (3973203729750,null), (3181964978464,null), (2924494247920,null), (3324503982312,null), (2894150911578,null), (4170812679922,null), (3498999656690,null), (4286015527388,null), (3257290580094,null), (2340848245408,null), (3778764535250,null), (2468770269943,null), (2946539757567,null), (3929127558122,null), (4316731044912,null), (3717616977042,null), (2988887783829,null), (3594337985058,null), (4035435779794,null), (3621628578376,null), (3949286984260,null), (3106101522948,null), (4108704539720,null), (2755773484783,null), (4281239393008,null), (3040512196959,null), (4285971630250,null), (2827824027084,null), (3651493912630,null), (3296673874440,null), (3227788882680,null), (2923255541082,null), (3695086035500,null), (3640724986076,null), (3955290857014,null), (4326682353146,null), (4198277369434,null), (2922089557542,null), (3980020819656,null), (3018597469913,null), (2859134722629,null), (3986311487884,null), (3856899894472,null), (3931697809316,null), (3398642088742,null), (2921818789273,null), (4210069220256,null), (3633854818534,null), (2849554013728,null), (4116477905302,null), (3441210750724,null), (2539025902216,null), (3220378237456,null), (2980047119085,null), (3163146674596,null), (2874849448781,null), (2931252383953,null), (3707671904854,null), (4278777045912,null), (3140959360533,null), (3153535637693,null), (3986663698262,null), (4326016862488,null), (4284873860298,null), (4274041448126,null), (3778248261358,null), (2786434637801,null), (2990335663068,null), (3836590414128,null), (3949985770890,null), (2922835430401,null), (3097989641318,null), (3394342112990,null), (2981418891401,null), (3733341211868,null), (2939585458273,null), (4099809142902,null), (3622953514586,null), (3065679105244,null), (3683679207460,null), (3731302036692,null), (2780454877241,null), (2922203974552,null), (2530114095671,null), (4317325201988,null), (4341705109912,null), (4087846768084,null), (2919266719437,null), (3890951068184,null), (3982626509582,null), (2901154399731,null), (2923904309805,null), (4724066726960,null), (2890716777235,null), (3781274068492,null), (3629732535782,null), (3986659348366,null), (3512063393930,null), (4296494809296,null), (2930545001667,null), (3758908596188,null), (4199007521410,null), (2821226673891,null), (3213986246912,null), (2927095692489,null), (2799043254635,null), (3493844932650,null), (3182040424544,null), (3632692145086,null), (2837728781133,null), (3495706943282,null), (3753014877892,null), (2770148860232,null), (3475394120890,null), (3398415448244,null), (4284825222838,null), (3685122816384,null), (3207899661658,null), (3903466014770,null), (2849031570762,null), (4200413721786,null), (2922456371444,null), (4198310400454,null), (3932808258488,null), (4282180290656,null), (4268748969818,null), (3955219791300,null), (3111692693843,null), (2681124250269,null), (3769373892710,null), (2691336275196,null), (3321365224768,null), (3662394145438,null), (4203329569142,null), (2801346458185,null), (3738697777788,null), (4124923904746,null), (3434266346840,null), (4502622470882,null), (3321067699288,null), (4463130977802,null), (2872622872417,null), (3710307769520,null), (3659080749854,null), (3626406014416,null), (2793891434835,null), (3688719556000,null), (4291460027928,null), (3686681469022,null), (2923600455053,null), (3771862946294,null), (4278662046802,null), (2920002181089,null), (3716692165328,null), (2972260339408,null), (4261727781700,null), (4321670540864,null), (2819813402839,null), (4108588167634,null), (4294633198878,null), (3856559067878,null), (4152178867756,null), (3298944844804,null), (3563024929776,null), (3897147095534,null), (3341081102960,null), (2816362854091,null), (4431231392768,null), (4280815803690,null), (3588836788890,null), (4321952192592,null), (3267910641618,null), (3807310567224,null), (3730435345062,null), (4090250310070,null), (4080189786010,null), (3745706314936,null), (2885692395869,null), (3736381513524,null), (2821801611117,null), (3603080590436,null), (3323045470268,null), (2840839705509,null), (4150675754682,null), (3313575108636,null), (4243071263140,null), (4832465102648,null), (4232668997362,null), (2946772450863,null), (4122305120382,null), (4765169677042,null), (4006646949080,null), (3721178820870,null), (3886947362720,null), (3522683224874,null), (3458025231434,null), (3723785163518,null), (4151828422368,null), (4083677863464,null), (2803760445597,null), (3754235204788,null), (4210268060758,null), (3982651500982,null), (3052684620773,null), (2858386944473,null), (4291403019662,null), (3743908173452,null), (3736420744734,null), (3692639419038,null), (2842257343492,null), (2912220884354,null), (2980488105349,null), (3764696697018,null), (4263873104720,null), (3907254618162,null), (3630699905052,null), (2811273223135,null), (3318949314350,null), (4085545392722,null), (2917685946992,null), (3046254002039,null), (3649466178466,null), (3915853854350,null), (3396955544070,null), (3407700530680,null), (4116025092226,null), (3744689546756,null), (4289712159106,null), (3151095718908,null), (3991792809440,null), (3716107166042,null), (2826110490699,null), (3178644508802,null), (3811575160820,null), (3451693277378,null), (3693055959944,null), (4211047516206,null), (3160735241744,null), (3189811207216,null), (3509441684828,null), (2983074887678,null), (4291508823702,null), (4258744456910,null), (4093932186454,null), (4282615388348,null), (4287093717228,null), (4235818974502,null), (3461252656634,null), (2762332023537,null), (3886309809948,null), (3446831411042,null), (2845819936371,null), (3408463470276,null), (2970592950746,null), (3964106194406,null), (3020901700320,null), (4382471764762,null), (4011910355240,null), (3073979481272,null), (2958067826226,null), (3917198057612,null), (3087537897528,null), (2917286541349,null), (3338782080808,null), (2824487100121,null), (3910536399362,null), (4310934674400,null), (3271576289258,null), (3396935294088,null), (4300384456992,null), (3029753648408,null), (3434438667072,null), (3209195867956,null), (2822026008393,null), (4296077742578,null), (3706745418028,null), (3163589526834,null), (3148288529418,null), (4100043792088,null), (2845452720697,null), (3697268342194,null), (3989601682140,null), (3334392549826,null), (3740391709482,null), (3436914437738,null), (4322299780528,null), (3734229708946,null), (3756648822708,null), (2794763197456,null), (3772083931686,null), (3780591782644,null), (3270733319032,null), (4200470055112,null), (3774917590822,null), (3654569685870,null), (3778973364538,null), (3136460771452,null), (3772122670238,null), (3264690158134,null), (3210931343720,null), (4185431910596,null), (3955250970026,null), (3688518303254,null), (3741325837188,null), (3385091989620,null), (4011846177522,null), (3987138457134,null), (3661395828486,null), (3706542435272,null), (4114438608074,null), (3983019071668,null), (3991293126776,null), (3768218902050,null), (3143237585307,null), (4236615127878,null), (3740106968884,null), (2820316298613,null), (3109867114356,null), (3771853446768,null), (3205997098088,null), (2886502682912,null), (3994103785440,null), (2790005359274,null), (4085834248084,null), (4198342495422,null), (4252972831316,null), (3687705949582,null), (4232374719028,null), (2991445799865,null), (3396554498262,null), (4794503515886,null), (3786182904520,null), (2956463701571,null), (3877015641578,null), (3703762335694,null), (3286980126340,null), (3245458608988,null), (3414841972240,null), (3370908471814,null), (3400759394394,null), (3432856539600,null), (3371871655144,null), (3394771714050,null), (4253100643536,null), (3985450246232,null), (2956520616820,null), (2382071628835,null), (4207746174560,null), (4093276880242,null), (3767621993246,null), (4623192914694,null), (2809402927672,null), (3071973254523,null), (2795581281362,null), (3562803121810,null), (3686646260024,null), (4049713136024,null), (2805449400265,null), (3788972614760,null), (3446408649876,null), (3417995075654,null), (3005094146329,null), (3373723317952,null), (4637265073612,null), (4326711056498,null), (3743907383568,null), (3469833105920,null), (4023238955600,null), (3923475150528,null), (2776372625011,null), (2834134606210,null), (3332237266098,null), (3954115369724,null), (3419112544188,null), (3439747095158,null), (3789708120170,null), (4023344772126,null), (3663829245426,null), (3427176267404,null), (3425509201614,null), (3944485038606,null), (3255537849844,null), (4025394739430,null), (3269368270520,null), (4328198661324,null), (4161902885018,null), (3337565515060,null), (4172473696788,null), (3963393325956,null), (4531074128656,null), (3734562757578,null), (2743506402931,null), (3988951421362,null), (3685183365190,null), (3858935308854,null), (4228196830300,null), (4486744794906,null), (3737974393424,null), (3912957320090,null), (3463117949958,null), (3994672846848,null), (4078014297260,null), (3772029524528,null), (3956900056826,null), (3396545693640,null), (3725845491080,null), (4452451228900,null), (4258322514868,null), (2991462011142,null), (3932339488636,null), (4058836050996,null), (3321591067574,null), (3658696624310,null), (3449646421792,null), (4156306151770,null), (3721786233652,null), (3938411524314,null), (3830408265424,null), (4193953554668,null), (3666625556988,null), (2824995289514,null), (3622364919760,null), (4456327861170,null), (3312864437352,null), (4224240584714,null), (3842787595058,null), (3952269824054,null), (4017711455110,null), (4018893281104,null), (2850019288595,null), (2872518992549,null), (3685005045198,null), (3924157351666,null), (3996972458448,null), (3964224803672,null), (3649530441398,null), (3463052314192,null), (2872585091611,null), (3383517281274,null), (3779009499844,null), (3106500389788,null), (2912533064352,null), (2963896573026,null), (3636325686328,null), (3767804672810,null), (3950659005622,null), (4311643482302,null), (3335265989972,null), (4283463977258,null), (4201903866070,null), (4278471085288,null), (4045541094260,null), (3990388349632,null), (2448561501509,null), (3948905934944,null), (4299683328628,null), (3269674829118,null), (4525859753378,null), (3953010907670,null), (4496309524046,null), (3972894290374,null), (2392215968414,null), (3954251211548,null), (2703013280820,null), (3398459085874,null), (3970149318340,null), (2848594324617,null), (4298831310580,null), (3299292926118,null), (3053467683141,null), (4280385319846,null), (3451432669914,null), (3998720377522,null), (4493185424948,null), (3914473620606,null), (4284748349254,null), (4038533521320,null), (2825022262571,null), (2797120086285,null), (4398436567876,null), (2520071428002,null), (4049240464442,null), (4000050570876,null), (2737287647644,null), (3760923595512,null), (3941995572546,null), (2906146006045,null), (3898116212056,null), (2931659170602,null), (4375950618814,null), (4269024710554,null), (4354856430832,null), (4315727393056,null), (3688283511920,null), (4314580481212,null), (4317124587694,null), (3145588047209,null), (2854918960412,null), (4444616928574,null), (4265584313938,null), (3946904860670,null), (4045249381760,null), (3121326913495,null), (3768653199862,null), (3774225820970,null), (3348110238944,null), (3716858617860,null), (2992306991409,null), (4241155149334,null), (4063508829914,null), (4039239447066,null), (3985019689016,null), (2987894065731,null), (2973827360307,null), (3946549288278,null), (3863218957802,null), (3141010730501,null), (3410630233902,null), (3936064269088,null), (4037943658094,null), (4052520660926,null), (3586921008588,null), (4333391262790,null), (3414471950630,null), (3508664873590,null), (2968153112081,null), (3371562563062,null), (3984732020952,null), (3490282352178,null), (3795060582582,null), (3988046230128,null), (4297229096070,null), (4230343100994,null), (3323815551626,null), (3821410874164,null), (3116886444429,null), (2851602731602,null), (3888732653924,null), (4480206012050,null), (3975259466574,null), (3168218919180,null), (2801963867959,null), (3934176039976,null), (2698383204197,null), (4088687629682,null), (3159504607914,null), (3769199701050,null), (2357124613990,null), (3733996028002,null), (2800804281890,null), (2962398004808,null), (3730434392000,null), (2508783370633,null), (4045625276292,null), (3507364941946,null), (4300835553034,null), (4304482947300,null), (3421742165490,null), (4023016537508,null), (2956758843648,null), (3352479469196,null), (3524332053678,null), (3265130319938,null), (3726123704706,null), (3677416354290,null), (3006816051239,null), (3444749665572,null), (4074194765466,null), (2782974155165,null), (3659180933520,null), (4061971652242,null), (3897330928832,null), (3732471040626,null), (3831970484140,null), (4311776128610,null), (4089281013930,null), (4478346457894,null), (4296878822128,null), (3938290643480,null), (3780880474762,null), (2818080105861,null), (4652808343322,null), (4171181580164,null), (3988811936690,null), (3933116966006,null), (3579629000874,null), (3567192657452,null), (3867293194948,null), (3542961306778,null), (3435222402428,null), (2924987466784,null), (3156800582596,null), (4004111149866,null), (3971186130162,null), (2811555753361,null), (3708169890950,null), (2696399028883,null), (3986920198524,null), (3202200441714,null), (2973341497029,null), (3922432336386,null), (4165504264400,null), (2847168349090,null), (3434709845798,null), (3989883842032,null), (4054856773296,null), (3276529001828,null), (3872081441056,null), (3854195910688,null), (3316856388644,null), (4216165503350,null), (4311488121948,null), (4245611449690,null), (4318603140530,null), (3714863688832,null), (4022542881978,null), (4322573201726,null), (3969861672094,null), (4277230364286,null), (3437180674846,null), (3457966642472,null), (3343457639536,null), (4238157280270,null), (3890171477338,null), (3688165170208,null), (3934738907956,null), (4234827795970,null), (4051017828004,null), (4538662533230,null), (3796158589666,null), (2787153898200,null), (3951395193452,null), (3126567108235,null), (4277880839420,null), (3421839574836,null), (3002144363137,null), (4129717085326,null), (4053270331708,null), (4146351307162,null), (3835417336762,null), (3783397966260,null), (3738337672966,null), (4156819190760,null), (3088734294372,null), (3971404550102,null), (3407447998526,null), (4139234805928,null), (2916670070325,null), (3888757913242,null), (2887689442133,null), (3971659791548,null), (3255427686036,null), (3933827670234,null), (3496275803936,null), (4302185061734,null), (3147800661818,null), (3486353031264,null), (4316282874016,null), (4038511260562,null), (2781489164719,null), (4211755164590,null), (4227455673788,null), (4070098062074,null), (4227492010322,null), (3003460302357,null), (4006933547422,null), (4413080213824,null), (3950745884412,null), (4341147910728,null), (4224491686306,null), (3777010395046,null), (4287696311482,null), (4185889560562,null), (2917191318627,null), (2768430083316,null), (4154432092972,null), (3271022556262,null), (4299738656658,null), (4044441568042,null), (4262637150616,null), (3990098188672,null), (3945080075508,null), (4230890791766,null), (3424311045224,null), (4102355734970,null), (4307377293322,null), (2843825541250,null), (3110015541208,null), (4165979490128,null), (4256462846586,null), (3936415255504,null), (4163527958724,null), (3952344752696,null), (4289468696488,null), (3317354272418,null), (3485901254680,null), (4040502617494,null), (3500052630082,null), (3318777025134,null), (3400983496838,null), (4002837631474,null), (2749022361292,null), (3414913297942,null), (4330374602606,null), (4016415955678,null), (3649051207014,null), (3945042175724,null), (4066556349086,null), (2972100323703,null), (4829823499416,null), (3817176275322,null), (4235292830350,null), (3809813531570,null), (3911043792410,null), (3168290932568,null), (4079826685072,null), (3993878605580,null), (3398430401650,null), (4330041350148,null), (4224542217028,null), (4222245352620,null), (4388366073528,null), (3446646150622,null), (4046881514394,null), (3897009126318,null), (4299563089420,null), (4367703101156,null), (4149579363766,null), (4023745398222,null), (4093807082372,null), (4122008198716,null), (4069253867362,null), (4281068144198,null), (326</t>
+          <t>select   try_cast(replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') as decimal(32,2)) sumaб n.sms_text from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2" n</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>QueryTooLargeError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E138" t="b">
@@ -3893,12 +3893,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>line 1:1: mismatched input 'function'. Expecting: 'ALTER', 'ANALYZE', 'CALL', 'COMMENT', 'COMMIT', 'CREATE', 'DEALLOCATE', 'DELETE', 'DENY', 'DESC', 'DESCRIBE', 'DROP', 'EXECUTE', 'EXPLAIN', 'GRANT', 'INSERT', 'MERGE', 'PREPARE', 'REFRESH', 'RESET', 'REVOKE', 'ROLLBACK', 'SET', 'SHOW', 'START', 'TRUNCATE', 'UPDATE', 'USE', &lt;query&gt;</t>
+          <t>line 1:40: mismatched input '&lt;EOF&gt;'. Expecting: ')'</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>function t() begin select 'test'; end</t>
+          <t>select position('(\d+)' in 'fhg4jfh125'</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3918,17 +3918,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>line 1:72: mismatched input '('. Expecting: 'IF', &lt;identifier&gt;</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>---Ответы 2024 CREATE TABLE capgp2_gp.s_grnplm_ld_audit_da_sandbox_oaofr.sao_task_2024 AS (SELECT app_row_id, req_created, task_id, task_finished, task_num, task_answer, task_answer_full, task_text_sol, exp_queue, prev_queue, prev_queue_uber,     req_answer, req_answer_full FROM k808_rx_hdp.t_team_sva_audit_2."40_kaluginvs_appeal_anofl_task_2024")</t>
+          <t>alter table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics add column( select video_origination_list  from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend )</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E140" t="b">
@@ -3943,17 +3943,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>line 26:1: mismatched input ')'. Expecting: '%', '*', '+', ',', '-', '.', '/', 'AND', 'AT', 'EXCEPT', 'FETCH', 'INTERSECT', 'LIMIT', 'OFFSET', 'OR', 'ORDER', 'UNION', '[', '||', &lt;EOF&gt;, &lt;predicate&gt;</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.shvets_inv</t>
+          <t>insert into clist values ('C22928284',date'2024-01-21'), ('C54828516',date'2024-01-12'), ('C132776421',date'2024-01-18'), ('C45653488',date'2024-01-18'), ('C129179074',date'2024-01-24'), ('C35104445',date'2024-01-24'), ('C91963364',date'2024-01-24'), ('C13092638',date'2024-04-16'), ('C90332826',date'2024-01-25'), ('C111755880',date'2024-01-09'), ('C109891736',date'2024-01-26'), ('C125106118',date'2024-01-29'), ('C83116463',date'2024-01-29'), ('C139020419',date'2024-01-29'), ('C33698274',date'2024-01-29'), ('C5364134',date'2024-01-29'), ('C141046547',date'2024-01-30'), ('C16270447',date'2024-01-30'), ('C55289243',date'2024-01-30'), ('C138519942',date'2024-01-30'), ('C105970003',date'2024-01-31'), ('C115592010',date'2024-01-31'), ('C125057534',date'2024-02-14'), ('C129801742',date'2024-01-31') )  select c.ceshka,c.dt,dmc.client_id,dma.account_id,dca.client_role_id from   clist                         l join   prx_kalita_otchetnaya_1_internal_kalita_report_kalita_gg.dm_client         dmc on dmc.client_ext_id=l.ceshka join   prx_kalita_otchetnaya_1_internal_kalita_report_kalita_gg.dm_client_account dca on dca.client_id=dmc.client_id and dca.client_role_id in (1,2)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E141" t="b">
@@ -3968,21 +3968,21 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Failed to list directory: hdfs://hdfsgw/arnsdpxdata__zzvukk-DZO_OOOZVUK_RB-CLTV_USERS/data/core/dzo/ooozvuk_rb/pa/snp/cltv_users/ctl_loading=43229322</t>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.prx_zzvukk_dzo_ooozvuk_rb.cltv_users</t>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb4_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TooManyConnectionsError</t>
         </is>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -3993,21 +3993,21 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Could not communicate with the remote task. The node may have crashed or be under too much load. This is probably a transient issue, so please retry your query in a few minutes. (pvlos-ldtrn0002.cloud.df.sbrf.ru:8443)</t>
+          <t>line 10:1: mismatched input 'from'. Expecting: '*', &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>select cust.client_name, doc_serial, doc_number, client_birth_day, claim_number, claim_date_time, claim_type_name, product_type_name,product_type_name_full from k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.cust as cust  join  k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.agr as agr on cust.client_id = agr.client_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.appl as appl  on agr.product_id = appl.product_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.prod as prod on appl.product_type_id = prod.product_type_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.appltype as appltype  on appl.claim_type_id = appltype.claim_type_id</t>
+          <t>select first_value (c.tb) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS tb, first_value (c.osb) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS osb, first_value (c.vsp) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS vsp, c.docnumber, c.name, first_value (c.openingdate) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS openingdate, first_value (c.closingdate) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS closingdate,  from t_cars_kap.vklad_close</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>insert  	into 	capgp2_gp.s_grnplm_ld_audit_da_sandbox_oarb.s_gp_ivakhnovs_appeal_2024 select 	* from 	k808_rx_hdp.t_team_sva_oarb."40_ivakhnovs_appeal_full_2024"</t>
+          <t>create table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics  as select user_id, play_start_dttm, play_duration_sec, subscription_uid, serial_name, video_origination_list   from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4043,17 +4043,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>line 1:22: mismatched input 'date'. Expecting: ')', ','</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>select ('2024-11-19' date) as p1</t>
+          <t>create table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics  as select user_id, play_start_dttm, play_duration_sec, subscription_uid, serial_name, video_origination_list   from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E145" t="b">
@@ -4068,17 +4068,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Query exceeded distributed user memory limit of 27GB</t>
+          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_hd_atm_host_oper_240208_nrt_atmhost_operations.atmhost_operations ORDER BY body_sesstartdt</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер%в сумме%' then split((split(sms_text,' в сумме')[1]),'на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>TypeError</t>
         </is>
       </c>
       <c r="E146" t="b">
@@ -4093,17 +4093,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>line 3:1: mismatched input ','. Expecting: 'FROM'</t>
+          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>select date_parse(trim(substring('abc_zakupkigovru_beginner_20240118_092653_001.json', strpos('abc_zakupkigovru_beginner_20240118_092653_001.json', 'beginner_') + 9), '.json'), '%Y%m%d_%H%i%s%a'  select strpos('abc_zakupkigovru_beginner_20240118_092653_001.json', 'beginner_') + 9</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер % в сумме%' then split((split(sms_text,' в сумме')[1]),'на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>TypeError</t>
         </is>
       </c>
       <c r="E147" t="b">
@@ -4118,17 +4118,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "07735561"</t>
+          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr  select * from capgp2_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер % в сумме%' then split((split(sms_text,' в сумме')[1]),'Автоплатёж на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>TypeError</t>
         </is>
       </c>
       <c r="E148" t="b">
@@ -4143,21 +4143,21 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>line 1:35: Column 'app_status' cannot be resolved</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>select request_id, count(distinct app_status) from k808_rx_hdp.t_team_sva_oarb."55_gsd_ts_result_main_temp_epk_dec_3" group by request_id</t>
+          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."p_vp_sb_pk_and_pt_pi_pr_pp" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp"</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>MissingColumnError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -4168,21 +4168,21 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Partition location does not exist: hdfs://arnsdpsbx/user/team/team_curus_dm/datamart/pa/dm04_operations_history/timestampcolumn=2024-07-23</t>
+          <t>Value cannot be cast to date: 2023-10-28 16:23:37</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SELECT timestampcolumn, count(*) FROM k808_rx_hdp.t_team_curus_dm.dm04_operations_history  group by timestampcolumn</t>
+          <t>select c.sbercrm_alpha_id, c.offer_status, CAST(c.created_date AS date) AS created_date, date_parse(updated_date, '%Y-%m-%d %H:%i:%s') AS updated_date     from  k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer  c   limit 10</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>MissingObjectError</t>
+          <t>CastError</t>
         </is>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -4193,17 +4193,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>line 1:8: mismatched input 'select'. Expecting: '*', 'ALL', 'DISTINCT', &lt;expression&gt;</t>
+          <t>Value cannot be cast to date: 2023-10-28 16:23:37</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>select select request_id, count(distinct app_status) from sfd_hdfsgw_hdp.prx_55_gse_risk_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.t_st_main  group by request_id</t>
+          <t>select c.sbercrm_alpha_id, c.offer_status, CAST(c.created_date AS date) AS created_date, date_parse(updated_date, '%Y-%m-%d %H:%i:%s') AS updated_date     from  k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer  c   limit 10</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>CastError</t>
         </is>
       </c>
       <c r="E151" t="b">
@@ -4218,21 +4218,21 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tried to access metastore after transaction has been committed/aborted</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."p_vp_sb_pk_and_pt_pi_pr_pp" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp"</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -4243,21 +4243,21 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Tried to access metastore after transaction has been committed/aborted</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp_two_ac" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp_two_ac"</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -4268,21 +4268,21 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tried to access metastore after transaction has been committed/aborted</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+          <t>create table k808_rx_hdp.t_team_cxdata.gptable_test3 as select * from sfd_gpgw_gp.prx_trino_sbb_test_v1_s_grnplm_vd_rozn_mpp_daas_h_6fu.ft_sbol_csa_token_ahd_view</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -4293,12 +4293,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Tried to access metastore after transaction has been committed/aborted</t>
+          <t>Could not communicate with the remote task. The node may have crashed or be under too much load. This is probably a transient issue, so please retry your query in a few minutes. (pvlos-ldtrn0002.cloud.df.sbrf.ru:8443)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_op2</t>
+          <t>SELECT * FROM k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_agreement a 	inner join k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_tst t on (t.agreement_short_foreign_key=a.id) order by accountnumber limit 10</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4318,21 +4318,21 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Query exceeded distributed user memory limit of 27GB</t>
+          <t>line 3:6: Table 'sfd_hdfsgw_hdp.prx_lazarev_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.scd_stoplist' does not exist</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>with cte_1 as ( select distinct a.* from t_team_sva_audit_2.t38_siv_19_11_24__1141__02__eps_pmt_for_november_2024__white_cluster a  ) select 'Уникальных строк', count(*) from cte_1</t>
+          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_lazarev_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.scd_stoplist limit 100</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>MissingObjectError</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -4343,21 +4343,21 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Could not communicate with the remote task. The node may have crashed or be under too much load. This is probably a transient issue, so please retry your query in a few minutes. (pvlos-ldtrn0002.cloud.df.sbrf.ru:8443)</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi_1_id_mega" as  select distinct a.epk_id, a.operation_ts_dat, CRD_OTF_TRNF_ORG_RUB_AMT, CRD_OTF_TRNF_PERS_RUB_AMT from k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi_1_id" a join sfd_hdfsgw_hdp.prx_42_gulynin_mega_1_custom_rozn_client_aggr.ft_client_aggr_mnth b on a.epk_id=b.epk_id and date(b.report_dt)=last_day_of_month(a.operation_ts_dat) and b.report_dt='2024-07-31'</t>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_project_12."42_zay_kf_kk_" select  * from k808_rx_hdp.t_team_sva_oarb."01889660_1701_zay_tran_kk_rz_st"</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -4368,21 +4368,21 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Tried to access metastore after transaction has been committed/aborted</t>
+          <t>line 2:33: mismatched input '.42'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb.42_rrn_oarbvvb_1542_1897_base limit 100</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -4393,17 +4393,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "19685940"</t>
+          <t>line 23:1: mismatched input 'from'. Expecting: '*', &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>create table rozn2_gp.s_grnplm_ld_rozn_electron_hq_core.pa_pprb_pu_history_t as ( select *, cast('alpha' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_alpha_opf_management.private_service_package_history       union all       select *, cast('beta' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_beta_opf_management.private_service_package_history       union all       select *, cast('delta' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_delta_opf_management.private_service_package_history       union all       select *, cast('gamma' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_gamma_opf_management.private_service_package_history )</t>
+          <t>select udate_v, case 	 		when length(time_v)=6 then time_v 		when length(time_v)=5 then concat('0',time_v) 		when length(time_v)=4 then concat('00',time_v) 		when length(time_v)=3 then concat('000',time_v) 		when length(time_v)=2 then concat('0000',time_v) 		when length(time_v)=1 then concat('00000',time_v) 	end time_v, case 	 		when length(switch_date_v)=6 then switch_date_v 		when length(switch_date_v)=5 then concat('0',switch_date_v) end  switch_date_v, case 	 		when length(switch_time_v)=6 then switch_time_v 		when length(switch_time_v)=5 then concat('0',switch_time_v) 		when length(switch_time_v)=4 then concat('00',switch_time_v) 		when length(switch_time_v)=3 then concat('000',switch_time_v) 		when length(switch_time_v)=2 then concat('0000',switch_time_v) 		when length(switch_time_v)=1 then concat('00000',switch_time_v) 	end switch_time_v, from ( select  cast(cast(udateas bigint) as varchar) udate_v, cast(cast(time as bigint) as varchar) time_v, cast(cast(switch_date as bigint) as varchar) switch_date_v, cast(cast(switch_time as bigint) as varchar) switch_time_v from k808_rx_hdp.t_team_sva_oarb."42_lyubi_transport_resp_sv") sv</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E159" t="b">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_privatebanking_list_client_all_session_detail" as select 	* from k808_rx_hdp.t_team_sva_oarb."42_privatebanking_list_client_all_session_detail"</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb" as  select * from k808_rx_hdp.t_team_sva_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb"</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4443,17 +4443,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "21608829"</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SELECT * from t_cars_kap.Tolyan_26112024_3</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb" as  select * from k808_rx_hdp.t_team_sva_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb"</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>TooManyConnectionsError</t>
         </is>
       </c>
       <c r="E161" t="b">
@@ -4468,21 +4468,21 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tried to access metastore after transaction has been committed/aborted</t>
+          <t>Query exceeded per-node memory limit of 10GB [Allocated: 9.99GB, Delta: 9.33MB, Top Consumers: {HashAggregationOperator=9.94GB, ExchangeOperator=43.04MB, LazyOutputBuffer=10.79MB}]</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+          <t>select  	array_agg(covrd_risk_name),  	prod_module_name from k808_rx_hdp.prx_55_lys_ub_base_custom_fin_dmmidub.t_base_policy_insrbl_covrg_feat group by prod_module_name  limit 1</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -4493,21 +4493,21 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>line 1:12: Column 'date_end' cannot be resolved</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>select max(date_end) from k808_rx_hdp.prx_55_gev_crm_acq_internal_crm_rb2_siebel.cx_acq_srv_req</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."55_grin_credit_decl_db" as ( 	SELECT * 	FROM k808_rx_hdp.t_team_sva_oarb."55_grin_credit_requests_full_new_cl" c 		left join k808_rx_hdp.t_team_sva_oarb."55_osa_z_decl_on_get_cred_for_liza" d 		on (c.app_number = d."z_decl_on_get_cred%c_num_decl" or c.app_number = d."z_decl_on_get_cred%c_tab_number") 	)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>MissingColumnError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -4518,17 +4518,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>line 2:1: mismatched input 'FROM'. Expecting: 'ALTER', 'ANALYZE', 'CALL', 'COMMENT', 'COMMIT', 'CREATE', 'DEALLOCATE', 'DELETE', 'DENY', 'DESC', 'DESCRIBE', 'DROP', 'EXECUTE', 'EXPLAIN', 'GRANT', 'INSERT', 'MERGE', 'PREPARE', 'REFRESH', 'RESET', 'REVOKE', 'ROLLBACK', 'SET', 'SHOW', 'START', 'TRUNCATE', 'UPDATE', 'USE', &lt;query&gt;</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.Tolyan_26112024_33</t>
+          <t>FROM k808_rx_hdp.a</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E164" t="b">
@@ -4543,21 +4543,21 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>line 2:89: mismatched input 'ф'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+          <t>line 2:7: Schema 'arnsdpsbx_t_team_compliance_prototype' does not exist</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_rrn_oarbvvb_1542_1777_crd_stream_dc_success_polis" ф</t>
+          <t>select *  from k808_rx_hdp.arnsdpsbx_t_team_compliance_prototype.t_tab</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>MissingSchemaError</t>
         </is>
       </c>
       <c r="E165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -4568,17 +4568,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Query text length (1051638) exceeds the maximum length (1000000)</t>
+          <t>Query exceeded the maximum execution time limit of 120.00s</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>insert into idlist values (24284927820300,date'2023-11-03'), (3540617786182,date'2021-11-10'), (3710951187724,date'2022-02-15'), (10816370250,date'2022-02-15'), (3568401148548,date'2023-04-29'), (2815338303181,date'2022-04-07'), (2076044641381,date'2022-05-18'), (2881075686820,date'2022-02-16'), (4390041699050,date'2023-05-15'), (23037963295200,date'2023-07-27'), (1677625593167,date'2023-02-04'), (4647000523024,date'2023-05-15'), (2544742336610,date'2022-01-25'), (2364268651905,date'2023-04-22'), (12516096640,date'2023-04-22'), (3068488868561,date'2023-04-22'), (3564357179800,date'2023-04-22'), (1475551294291,date'2021-02-05'), (1020181820,date'2021-02-05'), (1446394650682,date'2021-02-05'), (1623441245975,date'2021-06-17'), (1509193737259,date'2021-07-14'), (613042550,date'2021-07-14'), (4164774812823,date'2021-08-11'), (3915128578122,date'2021-08-11'), (4183861410843,date'2021-08-12'), (1053273770,date'2021-08-15'), (1506499157188,date'2021-08-15'), (1544175893089,date'2021-08-26'), (1295840407722,date'2021-08-31'), (502741045,date'2021-08-31'), (2239806204654,date'2021-09-08'), (4569685063215,date'2021-09-20'), (514096348,date'2021-09-29'), (3248590436482,date'2021-09-29'), (4175521923363,date'2021-10-08'), (4174231888699,date'2021-10-14'), (1446410254077,date'2021-10-14'), (1544250503037,date'2021-10-14'), (2427079050,date'2021-11-08'), (2419342924848,date'2021-11-08'), (4569676678567,date'2021-10-31'), (4569691101895,date'2021-10-31'), (4569679565503,date'2021-10-31'), (30645474793,date'2021-03-26'), (37128675549,date'2021-03-26'), (4569235062406,date'2020-12-15'), (4249798913376,date'2020-10-31'), (4243257261543,date'2020-10-31'), (4780893960,date'2020-10-31'), (3031472102027,date'2023-03-17'), (,date'2023-03-17'), (69233176747832,date'2024-04-09'), (4003484653982,date'2024-01-27'), (874447599575,date'2020-12-21'), (1715661970266,date'2020-10-15'), (2602944651863,date'2020-10-15'), (416121296,date'2020-10-15'), (1544206179280,date'2020-11-27'), (1844054940,date'2020-11-27'), (3865509919209,date'2023-04-14'), (3685643598870,date'2022-06-10'), (4522713452990,date'2022-06-10'), (3271433678655,date'2022-11-15'), (3114113706529,date'2022-11-15'), (3109751635170,date'2022-11-15'), (3167919177038,date'2022-11-15'), (3114113706529,date'2022-11-15'), (3109751635170,date'2022-11-15'), (3167919177038,date'2022-11-15'), (19914369425100,date'2024-03-05'), (5269078322874,date'2024-01-18'), (41743416067500,date'2024-01-18'), (2867081933506,date'2024-01-18'), (4834237958596,date'2024-01-18'), (614512667,date'2024-01-18'), (5379429910,date'2024-01-29'), (2705398956451,date'2024-01-29'), (2671416575933,date'2024-03-06'), (4755179622748,date'2024-01-29'), (12358757420,date'2024-01-29'), (4670186275140,date'2024-01-29'), (4249796017704,date'2024-01-29'), (311572994500,date'2024-01-31'), (8803630750,date'2024-01-31'), (2399405273542,date'2024-03-06'), (1759855210,date'2024-03-06'), (3706383595966,date'2024-03-07'), (3077953782212,date'2024-03-05'), (2995853883509,date'2024-03-05'), (3320072801730,date'2022-02-13'), (3008217240071,date'2022-02-13'), (2627195066362,date'2022-02-13'), (485551157,date'2022-02-13'), (2953263192345,date'2024-02-06'), (13838450160,date'2024-02-06'), (3471698486416,date'2024-03-06'), (2601807556389,date'2024-03-05'), (9120511404375,date'2024-03-05'), (2000000010252500,date'2024-03-05'), (1962955979246,date'2024-03-05'), (2000000004720530,date'2024-03-07'), (1398475880774,date'2024-03-07'), (4269385519983,date'2024-03-07'), (4473687431504,date'2024-02-08'), (5029104750,date'2024-02-08'), (,date'2022-01-21'), (2482501040038,date'2022-01-21'), (,date'2022-01-21'), (14026758360,date'2022-01-21'), (3622041150286,date'2024-03-05'), (13040262290,date'2024-03-05'), (3001328617132,date'2024-03-06'), (3661728445374,date'2022-12-22'), (12740205030,date'2022-12-22'), (2831784590969,date'2022-12-22'), (3465658379090,date'2022-12-22'), (1000000000509930,date'2024-03-06'), (5002490040590,date'2024-03-06'), (5440929259734,date'2024-03-06'), (2831852734684,date'2021-11-15'), (9737553253600,date'2024-03-06'), (3991972520,date'2024-03-06'), (3856082204356,date'2024-03-06'), (13701320550,date'2024-03-05'), (2426728070,date'2024-03-05'), (4698873424178,date'2024-03-05'), (2498627085354,date'2024-01-19'), (387601881,date'2024-01-19'), (5306167318094,date'2024-03-07'), (2000000004243500,date'2024-03-07'), (5406097135186,date'2024-03-07'), (12856673420,date'2021-11-16'), (1563495798006,date'2021-11-16'), (3870179484908,date'2024-03-05'), (3796731904808,date'2024-02-05'), (5295264390720,date'2024-02-05'), (1000000007025330,date'2024-02-05'), (4888483758202,date'2024-02-05'), (4233287400,date'2024-03-05'), (2932080286651,date'2024-03-05'), (8992143469100,date'2024-03-05'), (4564068888294,date'2024-03-05'), (3712648493054,date'2024-03-05'), (1938635470,date'2024-03-05'), (2208320974148,date'2024-03-05'), (2913068810473,date'2021-11-11'), (5290490733990,date'2024-03-07'), (9507549634559,date'2024-03-07'), (4369892561964,date'2024-03-07'), (4055065509508,date'2024-03-07'), (2000000004806060,date'2024-03-07'), (2434287214066,date'2021-11-12'), (384943246,date'2021-11-12'), (4221651262120,date'2024-03-07'), (10629089320,date'2024-03-07'), (4542016740440,date'2024-03-07'), (3077151067217,date'2024-03-07'), (7096273345281,date'2021-11-19'), (7253176424246,date'2021-11-19'), (1446307232746,date'2021-11-19'), (2519848129329,date'2021-11-19'), (9164969040,date'2024-01-19'), (4718156461952,date'2024-01-19'), (4999726847294,date'2024-01-19'), (2006283343718,date'2021-11-10'), (439385776,date'2021-11-10'), (3472779018878,date'2024-03-07'), (2186377271375,date'2024-03-07'), (6945381180,date'2024-03-07'), (3806334988814,date'2024-03-07'), (4153869539910,date'2024-03-07'), (3950267651794,date'2024-03-07'), (2000000007106170,date'2024-03-06'), (4020585453186,date'2024-03-06'), (1742108965725,date'2024-03-06'), (4178838024312,date'2021-11-11'), (887429415022,date'2021-11-11'), (3311638782347,date'2021-11-11'), (626848037,date'2021-11-11'), (2510438051887,date'2024-03-06'), (5171723599428,date'2024-03-06'), (4428219982892,date'2024-03-06'), (16259957730,date'2024-03-06'), (3046443097810,date'2024-03-06'), (4620199767374,date'2024-02-01'), (3733303791612,date'2024-02-01'), (3766345147324,date'2024-02-01'), (3843649840430,date'2024-02-01'), (3642063528692,date'2024-02-01'), (3694525546614,date'2024-02-01'), (9996150690,date'2024-02-01'), (3506887911608,date'2024-02-01'), (4980515021508,date'2024-03-06'), (16730515430,date'2024-03-06'), (4806328410934,date'2024-03-06'), (1578560881301,date'2024-03-06'), (1578577768459,date'2024-03-06'), (1578564445905,date'2024-03-06'), (1736358120,date'2024-03-06'), (11813002987000,date'2024-02-06'), (1000000004799460,date'2024-02-06'), (7093875841700,date'2024-02-06'), (583602862,date'2024-01-29'), (3657299433436,date'2024-01-29'), (8421123950,date'2024-03-05'), (3092052788097,date'2024-03-05'), (3855263091812,date'2024-03-05'), (1431456450017,date'2021-11-18'), (1623381196916,date'2024-03-05'), (3032392929012,date'2024-03-05'), (4000000005291770,date'2024-03-05'), (4488388439072,date'2024-03-05'), (4683878157608,date'2024-03-05'), (620358788,date'2024-01-29'), (1623310078951,date'2024-01-29'), (4139960451634,date'2021-11-11'), (3378086476690,date'2021-11-11'), (12308114330,date'2021-11-11'), (3652213627316,date'2021-11-11'), (2984363870646,date'2023-11-13'), (5685707980,date'2023-11-13'), (4227594707881,date'2021-11-02'), (4227586416482,date'2021-11-02'), (46555855255800,date'2024-01-22'), (2000000009800610,date'2024-01-22'), (40180420795700,date'2024-01-22'), (2736427220017,date'2024-01-22'), (43528892014100,date'2024-01-22'), (48495117046631,date'2024-01-22'), (832974080092,date'2023-12-01'), (,date'2023-09-20'), (,date'2023-09-20'), (1577055091960,date'2023-09-20'), (615597603,date'2023-12-04'), (1623011302015,date'2023-12-04'), (,date'2023-12-04'), (,date'2023-12-04'), (8046668224217,date'2023-11-07'), (3490040633402,date'2023-11-07'), (2054509394950,date'2023-11-07'), (3783406080898,date'2023-11-07'), (14028490340,date'2023-11-07'), (3584197590330,date'2023-11-07'), (1779572598406,date'2023-05-10'), (1623450757109,date'2023-02-07'), (1996683113863,date'2020-07-15'), (233230212,date'2020-07-15'), (1623450757109,date'2023-02-07'), (4555183101890,date'2022-01-25'), (4154838010470,date'2023-01-24'), (4163487602194,date'2022-10-21'), (4161699440454,date'2022-10-21'), (3025387819794,date'2021-12-14'), (1605048578246,date'2021-10-19'), (2702159954415,date'2024-06-04'), (192274354,date'2021-12-28'), (2952581533850,date'2021-12-28'), (82052622101,date'2021-12-28'), (4670466082752,date'2023-04-14'), (3867612063966,date'2023-12-06'), (4304186118950,date'2023-11-10'), (4836966772078,date'2024-07-17'), (4466971195444,date'2024-07-17'), (4874557902090,date'2024-06-24'), (4452557553862,date'2024-02-12'), (7161180369100,date'2023-02-11'), (3681544655140,date'2024-07-08'), (10344134056600,date'2024-05-10'), (5339851997882,date'2024-05-13'), (1543924296240,date'2022-09-12'), (2345665281310,date'2024-05-13'), (3614904021228,date'2024-06-26'), (7603720509599,date'2024-10-08'), (7523040400951,date'2024-10-08'), (8173998370945,date'2024-10-08'), (39787704957,date'2023-05-18'), (3329840132273,date'2023-07-14'), (4189543269113,date'2023-07-14'), (4217593640232,date'2023-07-14'), (4113782574778,date'2023-07-14'), (4609894705542,date'2023-05-19'), (1446422427422,date'2021-11-10'), (1776176211275,date'2021-11-10'), (3271619880,date'2021-11-10'), (7450567630,date'2021-11-12'), (2968943591587,date'2021-11-12'), (1623447635524,date'2021-11-12'), (1751123800787,date'2021-11-12'), (2918494542775,date'2021-11-15'), (4160694850512,date'2021-11-15'), (4153859538388,date'2021-11-15'), (3000000006111706,date'2021-11-16'), (1515932853498,date'2021-11-16'), (1578638575185,date'2021-11-16'), (1515999962846,date'2021-11-16'), (8000000005441938,date'2021-11-16'), (1533501866890,date'2021-12-28'), (2674634854539,date'2021-11-16'), (4000000006787560,date'2021-11-16'), (1407579542444,date'2021-11-17'), (1655403880,date'2021-11-17'), (3010175482088,date'2021-11-15'), (1438223288279,date'2021-11-19'), (2620654990,date'2021-11-19'), (1623461822395,date'2021-11-19'), (3038003459795,date'2021-11-19'), (9867051260,date'2021-11-19'), (2981759329249,date'2021-11-19'), (2843024657456,date'2021-11-19'), (2832152946429,date'2021-11-22'), (3522537959168,date'2021-11-22'), (2843678296086,date'2021-11-22'), (7528238903653,date'2021-11-22'), (4000000007836372,date'2021-11-22'), (3104293487190,date'2021-11-22'), (6745908853372,date'2021-11-22'), (6617701410444,date'2021-11-22'), (313818769443,date'2021-11-22'), (3098666270,date'2021-11-22'), (2899291248971,date'2021-11-22'), (2396708204693,date'2021-11-23'), (1578328640614,date'2021-11-23'), (3451368130,date'2021-11-23'), (,date'2021-11-23'), (3073147013703,date'2021-11-23'), (2610102671258,date'2021-11-23'), (2462269382464,date'2021-11-24'), (334453815530,date'2021-11-24'), (,date'2021-11-24'), (,date'2021-11-24'), (1428546229294,date'2021-11-24'), (516097527,date'2021-11-24'), (,date'2021-11-24'), (305974651618,date'2021-11-24'), (44399657686,date'2021-11-24'), (2158266880619,date'2021-11-24'), (1087979390,date'2021-11-25'), (3039406397307,date'2021-11-25'), (2959125911135,date'2021-11-25'), (1544300741249,date'2021-11-25'), (2076273426380,date'2021-11-25'), (1677277855696,date'2021-11-25'), (12926646410,date'2021-11-26'), (2997112171767,date'2021-11-26'), (434197933,date'2021-11-26'), (1714484525396,date'2021-11-26'), (1905100197582,date'2021-11-26'), (2722577966350,date'2021-11-26'), (589347793,date'2021-11-26'), (7129835360302,date'2021-11-26'), (6000000001653717,date'2021-11-26'), (3999033206952,date'2021-11-26'), (2837957383801,date'2021-11-26'), (2996401203393,date'2021-11-29'), (979698340,date'2021-11-29'), (2799008926100,date'2021-11-29'), (1806215904645,date'2021-11-29'), (4218861635606,date'2021-11-29'), (105568821,date'2021-11-29'), (3929039746862,date'2021-11-29'), (2717026102402,date'2021-11-29'), (2811466076240,date'2021-11-29'), (3294226639228,date'2021-11-29'), (4112863539986,date'2021-11-30'), (3591783610,date'2021-11-30'), (3900638052832,date'2021-11-30'), (4569708686335,date'2021-12-01'), (4370733561434,date'2021-12-01'), (3787872448868,date'2021-12-01'), (4090755541026,date'2021-12-01'), (1769232392858,date'2021-12-01'), (13914961860,date'2021-12-01'), (,date'2021-12-02'), (3077240291318,date'2021-12-02'), (8158492360,date'2021-12-02'), (2615486925450,date'2021-12-02'), (10520449710,date'2021-12-02'), (2419189618343,date'2021-12-02'), (8000000006792541,date'2021-12-06'), (7325486072048,date'2021-12-06'), (6341143955552,date'2021-12-06'), (7182126176165,date'2021-12-06'), (7190880421732,date'2021-12-06'), (6897845815317,date'2021-12-06'), (7125574748899,date'2021-12-06'), (7255932405818,date'2021-12-06'), (8000000006632400,date'2021-12-06'), (290429451398,date'2021-12-06'), (2499783150329,date'2021-12-06'), (7000000005575743,date'2021-12-06'), (2352872216492,date'2021-12-06'), (2659014170914,date'2021-12-06'), (2952246084725,date'2021-12-06'), (2231066319211,date'2021-12-06'), (13160855020,date'2021-12-07'), (3000000006561651,date'2021-12-07'), (1568880692730,date'2021-12-07'), (1470003532209,date'2021-12-07'), (4569718048698,date'2021-12-07'), (1000000011218358,date'2021-12-07'), (4569707226485,date'2021-12-07'), (2598422044141,date'2021-12-07'), (1789341532300,date'2021-12-08'), (2000000011735969,date'2021-12-08'), (2492834523438,date'2021-12-08'), (4000000006834961,date'2021-12-08'), (2365513604460,date'2021-12-09'), (3292380290302,date'2021-12-09'), (8000000005658879,date'2021-12-09'), (2828971311489,date'2021-12-09'), (3144505780731,date'2021-12-10'), (6000000002738939,date'2021-12-10'), (1748017581828,date'2021-12-10'), (9326687400,date'2021-12-10'), (2861518320891,date'2021-12-10'), (3939351275086,date'2021-12-10'), (2854719248614,date'2021-12-13'), (2466613937398,date'2021-12-13'), (1578555080378,date'2021-12-14'), (8000000005686457,date'2021-12-14'), (2439666027747,date'2021-12-14'), (2416422192396,date'2021-12-15'), (2485430990048,date'2021-12-15'), (2686472881001,date'2021-12-15'), (4000000006620822,date'2021-12-15'), (459983032,date'2021-12-15'), (1751106667742,date'2021-12-15'), (1751109040624,date'2021-12-15'), (,date'2021-12-15'), (1677078959926,date'2021-12-15'), (2560267620,date'2021-12-15'), (2772607220,date'2021-12-15'), (2948972732324,date'2021-12-15'), (3067925046092,date'2021-12-15'), (197971476394,date'2021-12-15'), (2400603299563,date'2021-12-15'), (1544147983621,date'2021-12-15'), (,date'2021-12-15'), (6000000002837148,date'2021-12-15'), (,date'2021-12-15'), (7429797460,date'2021-12-15'), (2895233412494,date'2021-12-15'), (3131124114711,date'2021-12-15'), (2744556860258,date'2021-12-16'), (4180008810895,date'2021-12-16'), (8000000005618145,date'2021-12-16'), (1622853848584,date'2021-12-16'), (3951076612432,date'2021-12-17'), (3093335690847,date'2021-12-17'), (592540301,date'2021-12-17'), (331585239369,date'2021-12-17'), (1677134188720,date'2021-12-17'), (2768910609144,date'2021-12-17'), (3100598849525,date'2021-12-17'), (2849958848907,date'2021-12-17'), (1544042317271,date'2021-12-17'), (1622833391718,date'2021-12-20'), (,date'2021-12-20'), (1685428494822,date'2021-12-20'), (2635895959032,date'2021-12-20'), (2670371613508,date'2021-12-20'), (2479049268108,date'2021-12-20'), (11577145420,date'2021-12-20'), (1621758412819,date'2021-12-21'), (2230292369550,date'2021-12-22'), (,date'2021-12-22'), (919863610638,date'2021-12-23'), (1400757233343,date'2021-12-23'), (,date'2021-12-23'), (8000000005524348,date'2021-12-23'), (,date'2021-12-23'), (2150461666629,date'2021-12-23'), (,date'2021-12-23'), (,date'2021-12-24'), (,date'2021-12-24'), (2500045439265,date'2021-12-24'), (7429423695972,date'2021-12-24'), (1953343088310,date'2021-12-24'), (3000000006203152,date'2021-12-24'), (6910267306410,date'2021-12-24'), (7429422468710,date'2021-12-24'), (6979150725905,date'2021-12-24'), (2993192399592,date'2021-12-24'), (472887076,date'2021-12-24'), (,date'2021-12-24'), (,date'2021-12-24'), (1515993477633,date'2021-12-24'), (,date'2021-12-24'), (,date'2021-12-24'), (3312556822442,date'2021-12-24'), (6000000002868319,date'2021-12-24'), (5876201753415,date'2021-12-24'), (2549662130643,date'2021-12-24'), (4569703704391,date'2021-12-26'), (1543908399649,date'2021-12-26'), (1543908414433,date'2021-12-26'), (333769519501,date'2021-12-28'), (3000000007523263,date'2021-12-28'), (3969531337328,date'2021-12-28'), (3619443719612,date'2021-12-28'), (4301389212926,date'2021-12-28'), (2793231963947,date'2021-12-29'), (10752477410,date'2021-12-29'), (4106207480,date'2021-12-29'), (1814746560282,date'2021-12-29'), (2000000011782521,date'2021-12-29'), (2350017724856,date'2021-12-29'), (2817539716167,date'2021-12-29'), (6000000002748501,date'2021-12-29'), (2606500281866,date'2021-12-29'), (1000000011287281,date'2021-12-29'), (1991812320960,date'2021-12-29'), (1508790360762,date'2021-12-30'), (715467230,date'2021-12-30'), (2159736198094,date'2021-12-30'), (9934589940,date'2022-01-10'), (2692213806317,date'2022-01-10'), (,date'2022-01-10'), (,date'2022-01-10'), (3245884238816,date'2022-01-10'), (13575337870,date'2022-01-10'), (3003442933175,date'2022-01-10'), (3068794715799,date'2022-01-10'), (1736970289252,date'2022-01-10'), (2773129550,date'2022-01-10'), (3466662605468,date'2022-01-11'), (1494084652990,date'2022-01-11'), (2472611408941,date'2022-01-11'), (3020080391073,date'2022-01-28'), (2557229006637,date'2022-01-12'), (445777298,date'2022-01-12'), (2184482126529,date'2022-01-12'), (1111304011524,date'2022-01-12'), (329724609018,date'2022-01-12'), (2000000011727960,date'2022-01-12'), (9534161420,date'2022-01-12'), (2872495246216,date'2022-01-12'), (5000000002843901,date'2022-01-13'), (1422345330901,date'2022-01-13'), (156314829375,date'2022-01-14'), (528097914,date'2022-01-14'), (1623369954625,date'2022-01-14'), (1514518997358,date'2022-01-14'), (2783937594196,date'2022-01-17'), (3939786930638,date'2022-01-17'), (17747407590,date'2022-01-17'), (3859628651956,date'2022-01-17'), (3013467266135,date'2022-01-17'), (2863952763268,date'2022-01-18'), (,date'2022-01-18'), (8000000005521690,date'2022-01-18'), (6186172560,date'2022-01-19'), (3863457011608,date'2022-01-19'), (3170913767654,date'2022-01-19'), (3117034290298,date'2022-01-19'), (1579645204667,date'2022-01-19'), (,date'2022-01-20'), (,date'2022-01-20'), (,date'2022-01-20'), (,date'2022-01-20'), (2780307144366,date'2022-01-20'), (4190378406042,date'2022-01-21'), (8000000005478587,date'2022-01-21'), (898879172934,date'2022-01-21'), (4273399280682,date'2022-01-21'), (507337224,date'2022-01-21'), (3023464360613,date'2022-01-21'), (2624615076555,date'2022-01-21'), (4266375133712,date'2022-01-21'), (2341991183920,date'2022-01-21'), (2022812915940,date'2022-01-21'), (2444037076208,date'2022-01-21'), (1544144476610,date'2022-01-24'), (1441552358870,date'2022-01-24'), (1441552358870,date'2022-01-24'), (4784180890,date'2022-01-24'), (2069659643812,date'2022-01-24'), (3563120138498,date'2022-01-25'), (7153853740,date'2022-01-25'), (2153976808534,date'2022-01-25'), (1731442243112,date'2022-01-25'), (5109730329864,date'2022-01-25'), (1600448852698,date'2022-01-26'), (7000000005588277,date'2022-01-26'), (1694171371508,date'2022-01-26'), (2630936772105,date'2022-01-26'), (,date'2022-01-27'), (1578567154136,date'2022-01-27'), (4569259572286,date'2022-01-27'), (,date'2022-01-27'), (4569259508828,date'2022-01-27'), (2104601650799,date'2022-01-27'), (,date'2022-01-27'), (2734063171222,date'2022-01-27'), (2662817471183,date'2022-01-27'), (3101762441825,date'2022-01-28'), (3338722484712,date'2022-01-28'), (2195159380,date'2022-01-28'), (4980122337716,date'2022-01-28'), (1594487213515,date'2022-01-28'), (12555428080,date'2022-01-31'), (3871943616170,date'2022-01-31'), (3978803032538,date'2022-01-31'), (3886600865408,date'2022-01-31'), (4000000006496620,date'2022-01-31'), (1676861770296,date'2022-01-31'), (3796927327362,date'2022-01-31'), (3745409311662,date'2022-01-31'), (3142731325225,date'2022-01-31'), (3645307770148,date'2022-01-31'), (3847942933834,date'2022-01-31'), (2850202703503,date'2022-01-31'), (2716560918081,date'2022-01-31'), (1977282509375,date'2022-01-31'), (3098880835799,date'2022-02-01'), (170828330875,date'2022-02-01'), (1927596470682,date'2022-02-02'), (2508284588082,date'2022-02-02'), (10514238730,date'2022-02-02'), (209734358879,date'2022-02-02'), (3000000006100600,date'2022-02-02'), (2151575235789,date'2022-02-02'), (427630497,date'2022-02-03'), (1543925158836,date'2022-02-03'), (1812170631432,date'2022-02-03'), (1623306548242,date'2022-02-03'), (2000000011876938,date'2022-02-03'), (7253802450996,date'2022-02-03'), (7381756315623,date'2022-02-03'), (2973629888452,date'2022-02-03'), (7339928836839,date'2022-02-03'), (7319743010738,date'2022-02-03'), (15022168320,date'2022-02-03'), (3063371280188,date'2022-02-03'), (1657280098981,date'2022-02-03'), (2776670560987,date'2022-02-03'), (3224068447630,date'2022-02-03'), (4760199460,date'2022-02-03'), (2705062067150,date'2022-02-03'), (2113103305442,date'2022-02-03'), (199508422,date'2022-02-04'), (271357995945,date'2022-02-04'), (2656776671294,date'2022-02-04'), (4761894830,date'2022-02-04'), (2741410072548,date'2022-02-04'), (3776787953604,date'2022-02-04'), (1446325730113,date'2022-02-05'), (1446292181840,date'2022-02-05'), (8000000006462207,date'2022-02-05'), (1446307502370,date'2022-02-05'), (1446329175295,date'2022-02-05'), (1446311952129,date'2022-02-05'), (1446299180583,date'2022-02-05'), (1446402525466,date'2022-02-05'), (2828581355034,date'2022-02-07'), (11411711540,date'2022-02-07'), (1944485090,date'2022-02-07'), (1543929699422,date'2022-02-07'), (,date'2022-02-07'), (6336529655174,date'2022-02-07'), (6338769683263,date'2022-02-07'), (6381039332127,date'2022-02-07'), (4000000006681574,date'2022-02-07'), (,date'2022-02-07'), (2658948982978,date'2022-02-07'), (4333420898844,date'2022-02-07'), (4102474064050,date'2022-02-07'), (3766525231936,date'2022-02-07'), (4307997620,date'2022-02-07'), (1622711786638,date'2022-02-07'), (4000000006626232,date'2022-02-07'), (3104475911544,date'2022-02-07'), (2453907849411,date'2022-02-07'), (,date'2022-02-07'), (4569689331315,date'2022-02-07'), (4569685696805,date'2022-02-07'), (4307447867509,date'2022-02-07'), (4307431562241,date'2022-02-07'), (2780492260935,date'2022-02-08'), (3847718175166,date'2022-02-08'), (4431441626450,date'2022-02-08'), (4434927795686,date'2022-02-08'), (4118194420930,date'2022-02-08'), (3066721472623,date'2022-02-08'), (4432624555378,date'2022-02-08'), (5000000002851052,date'2022-02-08'), (3797232751682,date'2022-02-08'), (7407490121543,date'2022-02-08'), (2949269885826,date'2022-02-08'), (,date'2022-02-08'), (1544284691267,date'2022-02-08'), (2668000605852,date'2022-02-08'), (1466833770,date'2022-02-08'), (2987791183420,date'2022-02-09'), (2000000011723384,date'2022-02-09'), (2548397971794,date'2022-02-09'), (4073714070,date'2022-02-09'), (2685484818243,date'2022-02-10'), (13215655920,date'2022-02-10'), (4000000006736383,date'2022-02-10'), (7387451219496,date'2022-02-10'), (278114844263,date'2022-02-10'), (,date'2022-02-10'), (469759192,date'2022-02-10'), (4098512213302,date'2022-02-10'), (2926327510333,date'2022-02-10'), (4107307937250,date'2022-02-10'), (1528681149943,date'2022-02-10'), (4103642001154,date'2022-02-10'), (3997006910708,date'2022-02-10'), (6928766398812,date'2022-02-10'), (3018310428004,date'2022-02-10'), (1622959075399,date'2022-02-10'), (4129398715314,date'2022-02-10'), (6196381342079,date'2022-02-10'), (3294506223366,date'2022-02-10'), (3412410784424,date'2022-02-10'), (3506458154684,date'2022-02-10'), (6992987880,date'2022-02-10'), (4436354179566,date'2022-02-10'), (5000000002777523,date'2022-02-10'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (3431796811284,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (7000000005425805,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (4207524566858,date'2022-02-11'), (3343651485608,date'2022-02-11'), (4319193283908,date'2022-02-11'), (4455587522724,date'2022-02-11'), (4506717093674,date'2022-02-11'), (4495089724704,date'2022-02-11'), (1544297139603,date'2022-02-11'), (7465363930,date'2022-02-11'), (885024362378,date'2022-02-12'), (890886764615,date'2022-02-12'), (420303845,date'2022-02-12'), (197292582,date'2022-02-12'), (2681476345877,date'2022-02-12'), (4350849804320,date'2022-02-12'), (3820694534762,date'2022-02-12'), (2921306837373,date'2022-02-14'), (3048657952646,date'2022-02-14'), (2468496653920,date'2022-02-14'), (3147203636210,date'2022-02-14'), (2400831213231,date'2022-02-15'), (3296866298312,date'2022-02-16'), (3110001256513,date'2022-02-16'), (3214236644788,date'2022-02-16'), (1093529270,date'2022-02-16'), (3359783762422,date'2022-02-16'), (3489627107020,date'2022-02-16'), (4164990825674,date'2022-02-16'), (1000000000370935,date'2022-02-17'), (3037181046970,date'2022-02-17'), (4300484303968,date'2022-02-17'), (16079950300,date'2022-02-17'), (1623369954625,date'2022-02-17'), (3037839723622,date'2022-02-18'), (3145807563446,date'2022-02-18'), (614678234,date'2022-02-18'), (1431386595856,date'2022-02-18'), (2719877841589,date'2022-02-19'), (3535606652454,date'2022-02-19'), (2895718477592,date'2022-02-19'), (3712211992212,date'2022-02-19'), (,date'2022-02-19'), (1663087385367,date'2022-02-19'), (2635741204394,date'2022-02-19'), (2840278443452,date'2022-02-20'), (2903605337376,date'2022-02-20'), (6000000002886179,date'2022-02-20'), (2716807328609,date'2022-02-20'), (4336145957450,date'2022-02-20'), (4448760185062,date'2022-02-20'), (3301170953144,date'2022-02-20'), (1465322151551,date'2022-02-20'), (1492876698130,date'2022-02-20'), (3924443758166,date'2022-02-20'), (10733195500,date'2022-02-20'), (3000000006422539,date'2022-02-21'), (2928353479280,date'2022-02-21'), (2837984084492,date'2022-02-21'), (4255763714178,date'2022-02-21'), (2481338113743,date'2022-02-21'), (3105419235100,date'2022-02-22'), (1942649605871,date'2022-02-22'), (5289607102748,date'2022-02-22'), (3264635212230,date'2022-02-22'), (3023737609304,date'2022-02-22'), (11347340470,date'2022-02-22'), (3116791405093,date'2022-02-22'), (7184447492441,date'2022-02-24'), (3174826377024,date'2022-02-24'), (3343175048232,date'2022-02-24'), (1000000011210761,date'2022-02-24'), (8471115828023,date'2022-02-24'), (2907502586682,date'2022-02-24'), (3459476197978,date'2022-02-24'), (4000000006698463,date'2022-02-24'), (1571375368727,date'2022-02-24'), (616133521,date'2022-02-24'), (2827871071577,date'2022-02-24'), (2439187415280,date'2022-02-24'), (3850069614472,date'2022-02-24'), (3306184664928,date'2022-02-24'), (1959401664754,date'2022-02-24'), (1767085296685,date'2022-02-25'), (6074470720,date'2022-02-25'), (1477968420,date'2022-02-25'), (1766259827709,date'2022-02-25'), (2365586667780,date'2022-02-25'), (40737905907400,date'2022-02-25'), (2639371699973,date'2022-02-26'), (6779087100,date'2022-02-26'), (2596631299448,date'2022-02-26'), (8794232980,date'2022-02-26'), (4020981096952,date'2022-02-26'), (1016566700,date'2022-02-28'), (1476397080261,date'2022-02-28'), (1767085296685,date'2022-02-28'), (914738905853,date'2022-03-01'), (5000000002774093,date'2022-03-01'), (180661729351,date'2022-03-01'), (8000000005731773,date'2022-03-01'), (1971587994313,date'2022-03-01'), (1542502158135,date'2022-03-01'), (2670377065207,date'2022-03-30'), (6102989000,date'2022-03-01'), (2205212722237,date'2022-03-01'), (2479754672414,date'2022-03-01'), (4424288105734,date'2022-03-02'), (4378921423006,date'2022-03-02'), (2081646631908,date'2022-03-03'), (3310809410,date'2022-03-03'), (1631927436791,date'2022-03-03'), (2571608629956,date'2022-03-04'), (3610240306908,date'2022-03-04'), (4537457032192,date'2022-03-04'), (3105913130670,date'2022-03-04'), (7000000005946145,date'2022-03-04'), (311930773259,date'2022-03-04'), (13219858690,date'2022-03-05'), (2832948010865,date'2022-03-05'), (3267715907964,date'2022-03-05'), (1578511060150,date'2022-03-05'), (3955417656636,date'2022-03-05'), (2765334757454,date'2022-03-05'), (736350160,date'2022-03-05'), (2934323836529,date'2022-03-05'), (3015806912708,date'2022-03-05'), (4133751474730,date'2022-03-05'), (3945088215598,date'2022-03-05'), (3987404499992,date'2022-03-05'), (16215347250,date'2022-03-05'), (2435349045783,date'2022-03-06'), (278114844263,date'2022-03-07'), (7216865416278,date'2022-03-07'), (6842476206830,date'2022-03-07'), (1543924460,date'2022-03-07'), (6000000002810229,date'2022-03-09'), (2779384522649,date'2022-03-09'), (1911096055820,date'2022-03-10'), (211132836,date'2022-03-10'), (4221363759222,date'2022-03-10'), (1677203301346,date'2022-03-10'), (,date'2022-03-10'), (2582216783435,date'2022-03-10'), (1198328040,date'2022-03-10'), (4314969121946,date'2022-03-11'), (2779875472484,date'2022-03-11'), (2576724013347,date'2022-03-11'), (7276633619534,date'2022-03-14'), (15101472770,date'2022-03-14'), (2743349619819,date'2022-03-14'), (1825970501329,date'2022-03-14'), (1426864833741,date'2022-03-14'), (1476352208281,date'2022-03-14'), (4604655296256,date'2022-03-15'), (4603827663570,date'2022-03-15'), (891208260178,date'2022-03-15'), (299131428,date'2022-03-15'), (2974887100813,date'2022-03-15'), (1000000011202175,date'2022-03-15'), (6000000002756192,date'2022-03-15'), (5236310349046,date'2022-03-15'), (,date'2022-03-16'), (,date'2022-03-16'), (3683797723052,date'2022-03-16'), (1623218931019,date'2022-03-17'), (14682615560,date'2022-03-17'), (2974749622286,date'2022-03-17'), (3099723204335,date'2022-03-17'), (1720923231861,date'2022-03-17'), (7000000005859196,date'2022-03-17'), (1932387575213,date'2022-03-17'), (1515978382451,date'2022-03-17'), (1677044912548,date'2022-03-17'), (1705352135386,date'2022-03-17'), (5535969710,date'2022-03-17'), (3764011343046,date'2022-03-17'), (3716897461358,date'2022-03-17'), (3557110768768,date'2022-03-17'), (3913354977996,date'2022-03-17'), (3857041122032,date'2022-03-17'), (3817020410138,date'2022-03-17'), (2921188937323,date'2022-03-17'), (13561680210,date'2022-03-17'), (10174687000,date'2022-03-18'), (2325079169012,date'2022-03-18'), (1630717174545,date'2022-03-18'), (2486767840,date'2022-03-18'), (3118352106919,date'2022-03-21'), (4235702676578,date'2022-03-21'), (4137360592150,date'2022-03-21'), (1578475871254,date'2022-03-21'), (2855875104890,date'2022-03-21'), (2297544152161,date'2022-03-21'), (8000000005397317,date'2022-03-21'), (2178772142284,date'2022-03-21'), (11646844540,date'2022-03-21'), (3127448422668,date'2022-03-21'), (546460097,date'2022-03-21'), (2707158229601,date'2022-03-21'), (,date'2022-03-21'), (2806016147428,date'2022-03-21'), (267598241637,date'2022-03-21'), (,date'2022-03-21'), (3440000776820,date'2022-03-21'), (3648905601790,date'2022-03-21'), (3941983330794,date'2022-03-21'), (3581248431766,date'2022-03-21'), (1945312870,date'2022-03-21'), (1578341346033,date'2022-03-21'), (5000000003504152,date'2022-03-21'), (2834524625353,date'2022-03-21'), (2668082908253,date'2022-03-21'), (3911933089236,date'2022-03-24'), (4390431271828,date'2022-03-24'), (4436751091228,date'2022-03-24'), (4070764749040,date'2022-03-24'), (9326639310,date'2022-03-24'), (891018394699,date'2022-03-22'), (4138036402348,date'2022-03-22'), (4204837591526,date'2022-03-22'), (3047533649306,date'2022-03-22'), (4000000006675769,date'2022-03-22'), (3115012337393,date'2022-03-22'), (1594300130146,date'2022-03-22'), (3046664280420,date'2022-03-22'), (2617970946746,date'2022-03-22'), (13215211420,date'2022-03-22'), (2794015529634,date'2022-03-22'), (2368153486949,date'2022-03-22'), (,date'2022-03-22'), (2931086213199,date'2022-03-22'), (1622846545155,date'2022-03-22'), (4116406755858,date'2022-03-22'), (2135020992406,date'2022-03-23'), (2049236096348,date'2022-03-23'), (2225606458226,date'2022-03-23'), (161858202,date'2022-03-23'), (3599767913556,date'2022-03-23'), (2703969577336,date'2022-03-24'), (3136317597836,date'2022-03-24'), (3000000006157345,date'2022-03-24'), (2466169779380,date'2022-03-24'), (5315964250,date'2022-03-24'), (1623186164241,date'2022-03-24'), (2629001201653,date'2022-03-24'), (5000000003083473,date'2022-03-24'), (,date'2022-03-24'), (,date'2022-03-25'), (3020960667144,date'2022-03-25'), (,date'2022-03-25'), (2958076886452,date'2022-03-25'), (1570467056884,date'2022-03-25'), (2845514292956,date'2022-03-25'), (4431012807614,date'2022-03-25'), (,date'2022-03-25'), (4000000006701356,date'2022-03-25'), (1578490253575,date'2022-03-26'), (1578512938041,date'2022-03-26'), (1578552551209,date'2022-03-26'), (8000000005539577,da</t>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>QueryTooLargeError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E166" t="b">
@@ -4593,17 +4593,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>line 2:6: Schema 'arnsdpsbx_t_team_sva_oarb' does not exist</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>select* from k808_rx_hdp.arnsdpsbx_t_team_sva_oarb."40_pev_mkk_obr_191224_part_2" limit 10</t>
+          <t>select * FROM sfd_hdfsgw_hdp.prx_pprb_platform_masspay_platform_masspay.com_sbt_salary_mp_entities_list_element_masspaymentrosterlistelement limit 100</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>MissingSchemaError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E167" t="b">
@@ -4618,21 +4618,21 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>line 1:33: mismatched input ')'. Expecting: 'AS'</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>select max(cast(creation_date_dd) as date) from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_efs_old"</t>
+          <t>select * from k808_rx_hdp.t_03406946_omega_sbrf_ru.v_is0929_raskovalov limit 10</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -4643,21 +4643,21 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM (select * from k808_rx_hdp.prx_55_sai_custom_rb_card_custom_rb_card."scd_card_union" ) dbvrcnt</t>
+          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_1507_voskob_tb_zp_acc2" select a.*, t.opcode, t.opkind, t.externalkind, t.opno, t.opcash, t.balance, t.opday from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1507_voskob_tb_zp_acc" a join sfd_hdfsgw_hdp.prx_cod_deposit_data_opt_internal_cod52_deposit.depohist_opday t on a.b_id_mega=t.id_mega and a.id_major=t.deposit_major and a.id_minor=t.deposit_minor and t.opday_dd  between '2023-10-01' and '2023-10-31'  and t.opkind = 15 and t.opday between cast(a.d1 as date) and cast(a.d2 as date)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -4668,21 +4668,21 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>line 1:1: Destination table 'capgp3_gp.s_grnplm_ld_audit_da_emitent.42_pb1_divrstat_session_detail' already exists</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" as SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>select t.* ,k.* from capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."13_net_sp14_travel" t left join  k808_rx_hdp.prx_net_km_custom_fin_pi_kpi.t_pi_kpi k on cast(k.epk_id as varchar) =t.epk_id and k.dat_start=cast(substring(t.creation_date,1,10) as date)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>ObjectAlreadyExistsError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -4693,21 +4693,21 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" as SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_Lazarev_508_ALL_TB1"  limit 100</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -4718,12 +4718,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Current transaction is aborted, commands ignored until end of transaction block</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.prx_kap_prime_dzo_epfb2c_sprm.subscription</t>
+          <t>select * 	from sfd_hdfsgw_hdp.prx_hd_atm_host_main_240821_nrt_atmhost_cap.device_group   	limit 20</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4743,21 +4743,21 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>SELECT * FROM t_team_sva_audit_2.t38_siv_08_11_24__1121__10__sbol_sbp_aggregated__sum_full_over_15k__120_people_as_sen_and_receivers ORDER BY sender, receiver</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -4768,21 +4768,21 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb4_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>select *  from  k808_rx_hdp.prx_zakup_seldon_1_external_seldon.tndrs limit 100</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -4793,21 +4793,21 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>line 3:196: mismatched input 'б'. Expecting: ',', 'EXCEPT', 'FETCH', 'FROM', 'GROUP', 'HAVING', 'INTERSECT', 'LIMIT', 'OFFSET', 'ORDER', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>select   try_cast(replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') as decimal(32,2)) sumaб n.sms_text from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2" n</t>
+          <t>select * from capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4818,21 +4818,21 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>line 1:40: mismatched input '&lt;EOF&gt;'. Expecting: ')'</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>select position('(\d+)' in 'fhg4jfh125'</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2711_sbolpro_8636_114"</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -4843,21 +4843,21 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>line 1:72: mismatched input '('. Expecting: 'IF', &lt;identifier&gt;</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>alter table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics add column( select video_origination_list  from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend )</t>
+          <t>select * from k808_rx_hdp.t_team_mp_cmpn_ds."230016_ns_df" limit 10</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -4868,21 +4868,21 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>line 26:1: mismatched input ')'. Expecting: '%', '*', '+', ',', '-', '.', '/', 'AND', 'AT', 'EXCEPT', 'FETCH', 'INTERSECT', 'LIMIT', 'OFFSET', 'OR', 'ORDER', 'UNION', '[', '||', &lt;EOF&gt;, &lt;predicate&gt;</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>insert into clist values ('C22928284',date'2024-01-21'), ('C54828516',date'2024-01-12'), ('C132776421',date'2024-01-18'), ('C45653488',date'2024-01-18'), ('C129179074',date'2024-01-24'), ('C35104445',date'2024-01-24'), ('C91963364',date'2024-01-24'), ('C13092638',date'2024-04-16'), ('C90332826',date'2024-01-25'), ('C111755880',date'2024-01-09'), ('C109891736',date'2024-01-26'), ('C125106118',date'2024-01-29'), ('C83116463',date'2024-01-29'), ('C139020419',date'2024-01-29'), ('C33698274',date'2024-01-29'), ('C5364134',date'2024-01-29'), ('C141046547',date'2024-01-30'), ('C16270447',date'2024-01-30'), ('C55289243',date'2024-01-30'), ('C138519942',date'2024-01-30'), ('C105970003',date'2024-01-31'), ('C115592010',date'2024-01-31'), ('C125057534',date'2024-02-14'), ('C129801742',date'2024-01-31') )  select c.ceshka,c.dt,dmc.client_id,dma.account_id,dca.client_role_id from   clist                         l join   prx_kalita_otchetnaya_1_internal_kalita_report_kalita_gg.dm_client         dmc on dmc.client_ext_id=l.ceshka join   prx_kalita_otchetnaya_1_internal_kalita_report_kalita_gg.dm_client_account dca on dca.client_id=dmc.client_id and dca.client_role_id in (1,2)</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2811_duble_oper_itog_epk_id_efs"</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -4893,21 +4893,21 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb4_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1743_paket_podkl_fio_prime" SELECT a.*, b.start_date start_date_prime, b.fact_end_date fact_end_date_prime, b.end_date end_date_prime, b.application_datetime application_datetime_prime, b.current_payment_date current_payment_date_prime, b.next_pay_date next_pay_date_prime, b.description description_prime, b.name name_prime, b.status status_prime, b.status_reason status_reason_prime FROM k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1743_paket_podkl_fio" a   join sfd_hdfsgw_hdp.prx_1_bxb1062_pakety_uslug_fl_internal_pprbpu_beta_opf_management.private_service_package b on a.owner_id = b.owner_id and  not(b.start_date &gt; coalesce(cast(a.fact_end_date as date), date(a.end_date), date('9999-12-31')) and b.end_date &lt; a.start_date)  and b.name like '%СберПрайм+%' and b.name like '%СберПрайм%'</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -4918,21 +4918,21 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>line 10:1: mismatched input 'from'. Expecting: '*', &lt;expression&gt;</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>select first_value (c.tb) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS tb, first_value (c.osb) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS osb, first_value (c.vsp) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS vsp, c.docnumber, c.name, first_value (c.openingdate) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS openingdate, first_value (c.closingdate) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS closingdate,  from t_cars_kap.vklad_close</t>
+          <t>select * from t_cars_kap.vklad_close_v_01 limit 1000</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -4943,21 +4943,21 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics  as select user_id, play_start_dttm, play_duration_sec, subscription_uid, serial_name, video_origination_list   from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1746_paket_otkl_fio_prime" as SELECT a.*, b.start_date start_date_prime, b.fact_end_date fact_end_date_prime, b.end_date end_date_prime, b.application_datetime application_datetime_prime, b.current_payment_date current_payment_date_prime, b.next_pay_date next_pay_date_prime, b.description description_prime, b.name name_prime, b.status status_prime, b.status_reason status_reason_prime FROM k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1746_paket_otkl_fio" a   join sfd_hdfsgw_hdp.prx_1_bxb1062_pakety_uslug_fl_internal_pprbpu_alpha_opf_management.private_service_package b on a.owner_id = b.owner_id and  not (b.start_date &gt; coalesce(cast(a.fact_end_date as date), date(a.end_date), date('9999-12-31')) or coalesce(cast(b.fact_end_date as date), date(b.end_date), date('9999-12-31')) &lt; a.start_date)  and b.name like '%СберПрайм+%' and b.name like '%СберПрайм%'</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -4968,21 +4968,21 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics  as select user_id, play_start_dttm, play_duration_sec, subscription_uid, serial_name, video_origination_list   from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2"</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -4993,21 +4993,21 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер%в сумме%' then split((split(sms_text,' в сумме')[1]),'на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_efs_oct_2"  limit 100</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>TypeError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -5018,21 +5018,21 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер % в сумме%' then split((split(sms_text,' в сумме')[1]),'на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
+          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_elf_credit_preparation_2025_internal_ekp_reports_ibs.z_overdraft_mbk LIMIT 10</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>TypeError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -5043,21 +5043,21 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер % в сумме%' then split((split(sms_text,' в сумме')[1]),'Автоплатёж на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
+          <t>select * FROM sfd_hdfsgw_hdp.prx_55_sis_epk_pprb_platform_ucprb.com_sbt_bm_ucp_customerknowledge_model_marker limit 100</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>TypeError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -5068,21 +5068,21 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."p_vp_sb_pk_and_pt_pi_pr_pp" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp"</t>
+          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_alert_sms_3"  select * from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_alert_sms_confirm_2"</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -5093,21 +5093,21 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Value cannot be cast to date: 2023-10-28 16:23:37</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>select c.sbercrm_alpha_id, c.offer_status, CAST(c.created_date AS date) AS created_date, date_parse(updated_date, '%Y-%m-%d %H:%i:%s') AS updated_date     from  k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer  c   limit 10</t>
+          <t>select * from k808_rx_hdp.prx_55_gev_nrt_efs_chat_nrt_efs_chat.chat_history limit 5</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>CastError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -5118,21 +5118,21 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Value cannot be cast to date: 2023-10-28 16:23:37</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>select c.sbercrm_alpha_id, c.offer_status, CAST(c.created_date AS date) AS created_date, date_parse(updated_date, '%Y-%m-%d %H:%i:%s') AS updated_date     from  k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer  c   limit 10</t>
+          <t>select * from sfd_hdfsgw_hdp.prx_svd_rb_vd_sbol_erib_efs_1_custom_rb_sbol.ft_sbol_oper_union limit 100</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>CastError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -5143,21 +5143,21 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."p_vp_sb_pk_and_pt_pi_pr_pp" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp"</t>
+          <t>select * from	k808_rx_hdp.prx_kalitaprom_internal_kalita_kalita.dict_command</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -5168,21 +5168,21 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp_two_ac" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp_two_ac"</t>
+          <t>select  * FROM sfd_hdfsgw_hdp.prx_hd_atm_host_nrt_smsb2.atmhost_custatechangedevent_delta limit 100</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -5193,21 +5193,21 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_cxdata.gptable_test3 as select * from sfd_gpgw_gp.prx_trino_sbb_test_v1_s_grnplm_vd_rozn_mpp_daas_h_6fu.ft_sbol_csa_token_ahd_view</t>
+          <t>select * from t_cars_kap.ipoteka_temp</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -5218,12 +5218,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Could not communicate with the remote task. The node may have crashed or be under too much load. This is probably a transient issue, so please retry your query in a few minutes. (pvlos-ldtrn0002.cloud.df.sbrf.ru:8443)</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_agreement a 	inner join k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_tst t on (t.agreement_short_foreign_key=a.id) order by accountnumber limit 10</t>
+          <t>select  * from sfd_hdfsgw_hdp.prx_koa_efs_edinaya_istoriy_operac_internal_efs_ufs_ophistory_1."UOH_OPERATIONS_HISTORY" limit 10</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5243,17 +5243,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>line 3:6: Table 'sfd_hdfsgw_hdp.prx_lazarev_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.scd_stoplist' does not exist</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_lazarev_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.scd_stoplist limit 100</t>
+          <t>select 		* from 		k808_rx_hdp.prx_44_ias_pulse_hr_internal_saphcm_pulse.hparprd09 limit 100</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>MissingObjectError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E193" t="b">
@@ -5268,21 +5268,21 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_project_12."42_zay_kf_kk_" select  * from k808_rx_hdp.t_team_sva_oarb."01889660_1701_zay_tran_kk_rz_st"</t>
+          <t>select 		* from 		k808_rx_hdp.prx_44_ias_pulse_hr_internal_saphcm_pulse_hist.hparprd09 limit 100</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -5293,21 +5293,21 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>line 2:33: mismatched input '.42'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb.42_rrn_oarbvvb_1542_1897_base limit 100</t>
+          <t>select p.* 	,n.* 	---,k.* 	from k808_rx_hdp.t_team_sva_oarb."13_nezn_for_premier"  p 	left join  k808_rx_hdp.t_team_sva_oarb."13_net_premier_900_1" n on cast(n.ucp_id as varchar) =p.owner_id 	and cast (n.esb_msg_in_created_on as date) between cast(p.fact_end_date as date) and cast(p.fact_end_date as date) + interval '7' day</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -5318,21 +5318,21 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>line 23:1: mismatched input 'from'. Expecting: '*', &lt;expression&gt;</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>select udate_v, case 	 		when length(time_v)=6 then time_v 		when length(time_v)=5 then concat('0',time_v) 		when length(time_v)=4 then concat('00',time_v) 		when length(time_v)=3 then concat('000',time_v) 		when length(time_v)=2 then concat('0000',time_v) 		when length(time_v)=1 then concat('00000',time_v) 	end time_v, case 	 		when length(switch_date_v)=6 then switch_date_v 		when length(switch_date_v)=5 then concat('0',switch_date_v) end  switch_date_v, case 	 		when length(switch_time_v)=6 then switch_time_v 		when length(switch_time_v)=5 then concat('0',switch_time_v) 		when length(switch_time_v)=4 then concat('00',switch_time_v) 		when length(switch_time_v)=3 then concat('000',switch_time_v) 		when length(switch_time_v)=2 then concat('0000',switch_time_v) 		when length(switch_time_v)=1 then concat('00000',switch_time_v) 	end switch_time_v, from ( select  cast(cast(udateas bigint) as varchar) udate_v, cast(cast(time as bigint) as varchar) time_v, cast(cast(switch_date as bigint) as varchar) switch_date_v, cast(cast(switch_time as bigint) as varchar) switch_time_v from k808_rx_hdp.t_team_sva_oarb."42_lyubi_transport_resp_sv") sv</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."13_net_card_curier"</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -5343,21 +5343,21 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb" as  select * from k808_rx_hdp.t_team_sva_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb"</t>
+          <t>SELECT COUNT(*) FROM (select * from k808_rx_hdp.t_team_sva_oarb."13_net_card_curier" ) dbvrcnt</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -5368,21 +5368,21 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "21608829"</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb" as  select * from k808_rx_hdp.t_team_sva_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb"</t>
+          <t>select  		* from  		k808_rx_hdp.prx_44_lva_all_nadbavki_vklad_platform_b2c_cod_bonus.ru_sber_fp_db_model_entity_clientepk limit 100</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -5393,21 +5393,21 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Query exceeded per-node memory limit of 10GB [Allocated: 9.99GB, Delta: 9.33MB, Top Consumers: {HashAggregationOperator=9.94GB, ExchangeOperator=43.04MB, LazyOutputBuffer=10.79MB}]</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>select  	array_agg(covrd_risk_name),  	prod_module_name from k808_rx_hdp.prx_55_lys_ub_base_custom_fin_dmmidub.t_base_policy_insrbl_covrg_feat group by prod_module_name  limit 1</t>
+          <t>with tab as ( select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_alpha_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_beta_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_delta_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_gamma_opf_management.private_service_package ) select distinct description from tab</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -5418,21 +5418,21 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."55_grin_credit_decl_db" as ( 	SELECT * 	FROM k808_rx_hdp.t_team_sva_oarb."55_grin_credit_requests_full_new_cl" c 		left join k808_rx_hdp.t_team_sva_oarb."55_osa_z_decl_on_get_cred_for_liza" d 		on (c.app_number = d."z_decl_on_get_cred%c_num_decl" or c.app_number = d."z_decl_on_get_cred%c_tab_number") 	)</t>
+          <t>select * -----distinct clientsegment from sfd_hdfsgw_hdp.prx_42_slm_pla_uvsk_b2c_servi_call_platform_uvsk_b2c_service_call.ru_sbrf_cc_sbercrmb2c_proceed_jpa_client limit 100</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -5443,21 +5443,21 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>line 2:1: mismatched input 'FROM'. Expecting: 'ALTER', 'ANALYZE', 'CALL', 'COMMENT', 'COMMIT', 'CREATE', 'DEALLOCATE', 'DELETE', 'DENY', 'DESC', 'DESCRIBE', 'DROP', 'EXECUTE', 'EXPLAIN', 'GRANT', 'INSERT', 'MERGE', 'PREPARE', 'REFRESH', 'RESET', 'REVOKE', 'ROLLBACK', 'SET', 'SHOW', 'START', 'TRUNCATE', 'UPDATE', 'USE', &lt;query&gt;</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>FROM k808_rx_hdp.a</t>
+          <t>select * FROM prx_infpg_internal_cars_request_db_request.service limit 1</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -5468,17 +5468,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>line 2:7: Schema 'arnsdpsbx_t_team_compliance_prototype' does not exist</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>select *  from k808_rx_hdp.arnsdpsbx_t_team_compliance_prototype.t_tab</t>
+          <t>select * FROM prx_infpg_internal_cars_dictionary_db_dictionary_storages.floor limit 1</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>MissingSchemaError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E202" t="b">
@@ -5493,21 +5493,21 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Query exceeded the maximum execution time limit of 120.00s</t>
+          <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select 		* from 		k808_rx_hdp.t_team_sva_oarb."44_ias_ck_kate_epk" 		--k808_rx_hdp.t_team_sva_oarb."44_ias_ck_suo_sbolpro" limit 100</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sql_dataset_real.xlsx
+++ b/sql_dataset_real.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E203"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2168,17 +2168,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>line 1:29: Function 'coutn' not registered</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>select date(ctl_validfrom), coutn(*) from k808_rx_hdp.prx_rgs_torg_external_zakupkigovru.beginner group by date(ctl_validfrom) order by ctl_validfrom desc limit 11</t>
+          <t>SELECT atm,  --tb_code, osb_code, osb_name, "model",  ticket, ticket_work_type_name, ticket_work_name, ticket_created_atm_human, ticket_completed_atm_human, dt, hr, ticket_description, ticket_resolution, ticket_resolution_code, repaired_modul, modul_replacement FROM k808_rx_hdp.t_team_curus_ds.dscurus1431_tickets ORDER BY atm</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>FunctionError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E70" t="b">
@@ -2193,21 +2193,21 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Access Denied: Cannot access catalog system</t>
+          <t>line 1:29: Function 'coutn' not registered</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select date(ctl_validfrom), coutn(*) from k808_rx_hdp.prx_rgs_torg_external_zakupkigovru.beginner group by date(ctl_validfrom) order by ctl_validfrom desc limit 11</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PermissionError</t>
+          <t>FunctionError</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2218,17 +2218,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/40_gradusov_epk_podpiska_sberprime_7_7t_inf_sberprime_v/part-00000-8c4626d8-c491-4a33-8e0b-bd0471ecfe5a-c000.snappy.parquet (offset=0, length=2640514): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6478339264_5439855311 file=/user/team/team_sva_oarb/hive/40_gradusov_epk_podpiska_sberprime_7_7t_inf_sberprime_v/part-00000-8c4626d8-c491-4a33-8e0b-bd0471ecfe5a-c000.snappy.parquet</t>
+          <t>Access Denied: Cannot access catalog system</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_team_sva_oarb."40_gradusov_epk_podpiska_sberprime_7_7t_inf_sberprime_v"</t>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>PermissionError</t>
         </is>
       </c>
       <c r="E72" t="b">
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/42_danilovich_zp10_m_ryzh/000047_0 (offset=33554432, length=33554432): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6465640656_5426886653 file=/user/team/team_sva_oarb/hive/42_danilovich_zp10_m_ryzh/000047_0</t>
+          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/40_gradusov_epk_podpiska_sberprime_7_7t_inf_sberprime_v/part-00000-8c4626d8-c491-4a33-8e0b-bd0471ecfe5a-c000.snappy.parquet (offset=0, length=2640514): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6478339264_5439855311 file=/user/team/team_sva_oarb/hive/40_gradusov_epk_podpiska_sberprime_7_7t_inf_sberprime_v/part-00000-8c4626d8-c491-4a33-8e0b-bd0471ecfe5a-c000.snappy.parquet</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CREATE TABLE  k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh_tarif_1" as SELECT a.*,  plan.id plan_id,  plan.indtariffagreementid,  plan.indtariffagreementnumber,              plan.restorationdate,                  plan.startdate,  plan.suspensiondate,        plan.tariffrates,  substring(plan.tariffrates,0,36) as  tariffrates2,               plan.tariffratesidvalue,  plan.usedyntariff, rate.additionalinfo,  rate.enrollmenttype,  rate.id as rate_id,  rate.isdyntariff,  rate.isenrollmentotherbank,  rate.tariffintervalidvalue,  rate.tariffintervalrates,  rate.tariffplan rate_tariffplan  FROM k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh"  as a  left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffplan as plan on plan.id=   substring(a.tariffplan,49,36) left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffrate  as rate  on rate.id= substring(plan.tariffrates,0,36)</t>
+          <t>SELECT * FROM k808_rx_hdp.t_team_sva_oarb."40_gradusov_epk_podpiska_sberprime_7_7t_inf_sberprime_v"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2268,21 +2268,21 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CREATE TABLE  k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh_tarif_1" as SELECT a.*,  plan.id plan_id,  plan.indtariffagreementid,  plan.indtariffagreementnumber,              plan.restorationdate,                  plan.startdate,  plan.suspensiondate,        plan.tariffrates,  substring(plan.tariffrates,0,36) as  tariffrates2,               plan.tariffratesidvalue,  plan.usedyntariff, rate.additionalinfo,  rate.enrollmenttype,  rate.id as rate_id,  rate.isdyntariff,  rate.isenrollmentotherbank,  rate.tariffintervalidvalue,  rate.tariffintervalrates,  rate.tariffplan rate_tariffplan  FROM k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh"  as a  left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffplan as plan on plan.id=   substring(a.tariffplan,49,36) left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffrate  as rate  on rate.id= substring(plan.tariffrates,0,36)</t>
+          <t>SELECT atm, tb_code, osb_code, osb_name, model_hl, ticket, ticket_work_type_name, ticket_created_atm_human, ticket_completed_atm_human, repaired_modul, modul_replacement, cashin, cashout, tr_1, tr_5, rn FROM k808_rx_hdp.t_team_curus_ds.dscurus1431_res</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2293,12 +2293,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Failed to list directory: hdfs://hdfsgw/sklsdpp1164si__SI_dannye_PKAP-CUSTOM_T_P1164SI-DWH_LUN_SERVER_RELATIONS_W/data/custom/t/p1164si/pa/dwh_lun_server_relations_w/cbap_validfrom=2023_48</t>
+          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/42_danilovich_zp10_m_ryzh/000047_0 (offset=33554432, length=33554432): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6465640656_5426886653 file=/user/team/team_sva_oarb/hive/42_danilovich_zp10_m_ryzh/000047_0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>select * from sfd_hdfsgw_hdp.prx_si_dannye_pkap_custom_t_p1164si.dwh_lun_server_relations_w limit 100</t>
+          <t>CREATE TABLE  k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh_tarif_1" as SELECT a.*,  plan.id plan_id,  plan.indtariffagreementid,  plan.indtariffagreementnumber,              plan.restorationdate,                  plan.startdate,  plan.suspensiondate,        plan.tariffrates,  substring(plan.tariffrates,0,36) as  tariffrates2,               plan.tariffratesidvalue,  plan.usedyntariff, rate.additionalinfo,  rate.enrollmenttype,  rate.id as rate_id,  rate.isdyntariff,  rate.isenrollmentotherbank,  rate.tariffintervalidvalue,  rate.tariffintervalrates,  rate.tariffplan rate_tariffplan  FROM k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh"  as a  left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffplan as plan on plan.id=   substring(a.tariffplan,49,36) left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffrate  as rate  on rate.id= substring(plan.tariffrates,0,36)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-4404588d-9d36-44a5-8927-db142981a352-c000.snappy.parquet (offset=0, length=4115): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6556385924_5519523244 file=/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-4404588d-9d36-44a5-8927-db142981a352-c000.snappy.parquet</t>
+          <t>\</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM (select  * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2706_print_pm_mega_70"  ) dbvrcnt</t>
+          <t>CREATE TABLE  k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh_tarif_1" as SELECT a.*,  plan.id plan_id,  plan.indtariffagreementid,  plan.indtariffagreementnumber,              plan.restorationdate,                  plan.startdate,  plan.suspensiondate,        plan.tariffrates,  substring(plan.tariffrates,0,36) as  tariffrates2,               plan.tariffratesidvalue,  plan.usedyntariff, rate.additionalinfo,  rate.enrollmenttype,  rate.id as rate_id,  rate.isdyntariff,  rate.isenrollmentotherbank,  rate.tariffintervalidvalue,  rate.tariffintervalrates,  rate.tariffplan rate_tariffplan  FROM k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh"  as a  left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffplan as plan on plan.id=   substring(a.tariffplan,49,36) left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffrate  as rate  on rate.id= substring(plan.tariffrates,0,36)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-cfd86e3d-a39c-42d8-bdab-4023127ed322-c000.snappy.parquet (offset=0, length=1618): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6556016331_5519149119 file=/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-cfd86e3d-a39c-42d8-bdab-4023127ed322-c000.snappy.parquet</t>
+          <t>Failed to list directory: hdfs://hdfsgw/sklsdpp1164si__SI_dannye_PKAP-CUSTOM_T_P1164SI-DWH_LUN_SERVER_RELATIONS_W/data/custom/t/p1164si/pa/dwh_lun_server_relations_w/cbap_validfrom=2023_48</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>select  * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2706_print_pm_mega_70"</t>
+          <t>select * from sfd_hdfsgw_hdp.prx_si_dannye_pkap_custom_t_p1164si.dwh_lun_server_relations_w limit 100</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2368,21 +2368,21 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>line 40:108: mismatched input 'left'. Expecting: &lt;expression&gt;</t>
+          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-4404588d-9d36-44a5-8927-db142981a352-c000.snappy.parquet (offset=0, length=4115): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6556385924_5519523244 file=/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-4404588d-9d36-44a5-8927-db142981a352-c000.snappy.parquet</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>select uuid ,timestampcolumn as date ,opened_at ,atm_id ,incident_id  ,auto_initiated ,user_status  ,CASE WHEN initiator_uuid = '798b18d6-fd6c-4ae7-a593-73bbeeaf68b1' 		THEN 'Automatization' 		ELSE 'Сотрудник' 		END AS initiator_uuid ,reason_type  ,reason  ,CASE WHEN component_id is null  		THEN 'Нет компоненты' 		ELSE component_id 		END AS component_id ,description  ,status  ,lmd ,CASE WHEN status = 'CLOSED' and lmd - opened_at &lt; 0 		THEN 0 		ELSE lmd - opened_at  		END AS recoveryperiod ,comments  ,CASE WHEN resolution_code is null 		THEN 'Нет кода закрытия'  		ELSE resolution_code 		END AS resolution_code ,scenario_step  ,scenario  ,CASE WHEN updater_uuid = '798b18d6-fd6c-4ae7-a593-73bbeeaf68b1' THEN 'Automatization'  		WHEN updater_uuid is not null then 'Неизвестно' else 'Сотрудник' 		END AS who_update ,businessprocess_id  ,current_stage  ,stage_attributes  ,event_object_timestamp  ,ld_group_id  ,case when (auto_initiated = 'True' and (businessprocess_id) IS NOT NULL and (ld_group_id) IS NOT NULL and left(replace(description, ' '), 31) = 'ИнцидентпообращениюизАССбердруг') then 'Сбердруг' end as source_incident from k808_rx_hdp.prx_hd_atm_host_main_231201_nrt_atmhost_cap.incident  atm limit 120</t>
+          <t>SELECT COUNT(*) FROM (select  * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2706_print_pm_mega_70"  ) dbvrcnt</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2393,21 +2393,21 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>line 1:15: Cannot cast integer to char(1)</t>
+          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-cfd86e3d-a39c-42d8-bdab-4023127ed322-c000.snappy.parquet (offset=0, length=1618): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6556016331_5519149119 file=/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-cfd86e3d-a39c-42d8-bdab-4023127ed322-c000.snappy.parquet</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>select concat(cast(kind as char ),cast (subkind as char)) from k808_rx_hdp.prx_55_krd_cod_platform_cod.cod_deposit_deposit</t>
+          <t>select  * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2706_print_pm_mega_70"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>TypeError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2418,21 +2418,21 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>line 5:82: Column 't.person_major' cannot be resolved</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_gulynin_2307_lider_epk" as select a.*, d.epkid from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2307_lider_" a join sfd_hdfsgw_hdp.prx_42_gul_cod_internal_cod13_client.person n on  n.id_major=t.person_major and n.id_minor = t.person_minor and n.id_mega=t.id_mega join sfd_hdfsgw_hdp.prx_42_gul_cod_internal_cod13_client.epkid d on d.untb=n.untb and d.id_mega=t.id_mega</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_golovkova_KR2_score_pm_2"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>MissingColumnError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2443,21 +2443,21 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: ERROR: role "22022198" does not exist</t>
+          <t>line 40:108: mismatched input 'left'. Expecting: &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>select * from sfd_gpgw_gp.s_grnplm_vd_rozn_soc_sal_sol_espd.t_4_25 limit 10</t>
+          <t>select uuid ,timestampcolumn as date ,opened_at ,atm_id ,incident_id  ,auto_initiated ,user_status  ,CASE WHEN initiator_uuid = '798b18d6-fd6c-4ae7-a593-73bbeeaf68b1' 		THEN 'Automatization' 		ELSE 'Сотрудник' 		END AS initiator_uuid ,reason_type  ,reason  ,CASE WHEN component_id is null  		THEN 'Нет компоненты' 		ELSE component_id 		END AS component_id ,description  ,status  ,lmd ,CASE WHEN status = 'CLOSED' and lmd - opened_at &lt; 0 		THEN 0 		ELSE lmd - opened_at  		END AS recoveryperiod ,comments  ,CASE WHEN resolution_code is null 		THEN 'Нет кода закрытия'  		ELSE resolution_code 		END AS resolution_code ,scenario_step  ,scenario  ,CASE WHEN updater_uuid = '798b18d6-fd6c-4ae7-a593-73bbeeaf68b1' THEN 'Automatization'  		WHEN updater_uuid is not null then 'Неизвестно' else 'Сотрудник' 		END AS who_update ,businessprocess_id  ,current_stage  ,stage_attributes  ,event_object_timestamp  ,ld_group_id  ,case when (auto_initiated = 'True' and (businessprocess_id) IS NOT NULL and (ld_group_id) IS NOT NULL and left(replace(description, ' '), 31) = 'ИнцидентпообращениюизАССбердруг') then 'Сбердруг' end as source_incident from k808_rx_hdp.prx_hd_atm_host_main_231201_nrt_atmhost_cap.incident  atm limit 120</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>MissingObjectError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2468,17 +2468,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>line 3:10: mismatched input ':'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+          <t>line 1:15: Cannot cast integer to char(1)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>select * from hdfs://hdfsgw/sklsdpsdlog__sdlogging_v1-SDLOGGING-HDFSEVENTS/data/sdlogging/hdfsevents/loaded_date=2024-05-25/000010_0</t>
+          <t>select concat(cast(kind as char ),cast (subkind as char)) from k808_rx_hdp.prx_55_krd_cod_platform_cod.cod_deposit_deposit</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>TypeError</t>
         </is>
       </c>
       <c r="E82" t="b">
@@ -2493,21 +2493,21 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>line 1:68: mismatched input ':'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+          <t>line 5:82: Column 't.person_major' cannot be resolved</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_krd_zp_12_click_test":</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_gulynin_2307_lider_epk" as select a.*, d.epkid from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2307_lider_" a join sfd_hdfsgw_hdp.prx_42_gul_cod_internal_cod13_client.person n on  n.id_major=t.person_major and n.id_minor = t.person_minor and n.id_mega=t.id_mega join sfd_hdfsgw_hdp.prx_42_gul_cod_internal_cod13_client.epkid d on d.untb=n.untb and d.id_mega=t.id_mega</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>MissingColumnError</t>
         </is>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2518,21 +2518,21 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>org.postgresql.util.PSQLException: ERROR: role "22022198" does not exist</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_Lazarev_1294_1_NEW" as  SELECT a.* , Data1 FROM sfd_hdfsgw_hdp.prx_lazarev_clickstream_sbolweb_24_custom_rb_sbol_clickstream.sbol_events a  join k808_rx_hdp.t_team_sva_oarb."42_Lazarev_1294" b on a.epk_id  =  b.EPK and a.timestampcolumn = b.Data1</t>
+          <t>select * from sfd_gpgw_gp.s_grnplm_vd_rozn_soc_sal_sol_espd.t_4_25 limit 10</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>MissingObjectError</t>
         </is>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2543,21 +2543,21 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>target of repeat operator is not specified</t>
+          <t>line 3:10: mismatched input ':'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>select regexp_extract('Description=Microsoft Windows 10 Enterprise 2016 LTSB;', '(\W+)({6}.)')</t>
+          <t>select * from hdfs://hdfsgw/sklsdpsdlog__sdlogging_v1-SDLOGGING-HDFSEVENTS/data/sdlogging/hdfsevents/loaded_date=2024-05-25/000010_0</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2568,17 +2568,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>line 3:2: mismatched input '''. Expecting: &lt;expression&gt;</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>select --regexp_replace( regexp_extract('SwitchAllowVersion=1.56.0.1027;1.54.3.1003;1.54.0.935;Model=NH8600S;cim_model=BRM56;TID=60032377;bank_name=ПАО СБЕРБАНК;vsp_name=IШахта Угольная;address=ул Угольная  1;tel_tech_number=900;keysForStatusBar=456;keysForSupervisor=;wait_screen_url=https://localhost:9443/_BUILD_/bootstrap.html;lang=ru-RU;RemoteNominalChange=0;params_loading_required=1;AtmType=auto;wait_screen_refresh_every=1000;temp_directory=C:/Sberbank/LogsDbs;product_name=ATMoSphere;current_version.version=1.61.0.1142;current_version.date_planned=01.11.2019 0:00:00;current_version.date_actual=16.07.2024 2:11:22;device_type=RATM;vendor=Nautilus;os=win7;hardware_architecture=x86;state_machine_path=C:\\scs\\atm_h;InitialCountFileName=391;waitForStatusBar=5000;sop_url=http://localhost:5000/;status_url=http://localhost:5000?Mode=DevicesState;AddSpornoRetract=1;is_topmost=True;fullscr=False;xoffset=0;yoffset=0;xscreen=800;yscreen=600;preloader_timeout=2000;start_url=;notify_need_wait_screen_refresh=True;log_level=Trace;webplayer_mode=ATMS;js_plugins_directory=.;host=localhost;port=1313;start_page=TCR_Startup;left_start_page=TCR_Startup;right_start_page=TCR_Startup;left_start_url=;right_start_url=;!mainbus_pipename=\\\\.\\pipe\\TCR_webplayer;mainbus_connection_timeout=2000;vendor_diag_util=C:\\Hyosung\\Nextware\\EXE\\NHVDM\\NHVDM.exe;use_event_driven_view=True;has_title=False;has_frame=True;is_scrolled=False;need_block_new_window=True;has_frame_3d=True;is_keyboard_event=False;is_check_parent=False;need_to_reload=False;need_hide=True;need_blank=False;need_notify_on_load=True;need_notify_on_error=True;need_to_check_by_id=False;need_to_silent_dlg=True;need_clear_hist=False;is_enable_msg_box=False;is_fix_update=False;is_hide_cursor=True;window_keyboard=0;priority_flags=0;log_mask=31;key_map=;domains_filter=;_MainHWND=0;_MainProc=0;NdcConfigChannel_AfterDisconnectDelay=2000;NdcConfigChannel_ChannelType=4;NdcConfigChannel_ConnectTimeout=30000;NdcConfigChannel_KeepAlive=0;LocalAddress=;NdcConfigChannel_LocalPort=0;NdcConfigChannel_LogPolling=0;NdcConfigChannel_LogPreProcessing=1;NdcConfigChannel_LogTraffic=0;NdcConfigChannel_PingHostTimeout=31000;NdcConfigChannel_PingTimeout=900000;NdcConfigChannel_ReconnectTimeout=60000;NdcConfigChannel_RecvPacketTryCount=5;NdcConfigChannel_RecvTimeout=40000;NdcConfigChannel_SendTimeout=40000;NdcConfigChannel_LogTrafficPath=NDC\\RMS;HostAddress=10.103.99.79;HostPort=30654;Custom_Option4=1;Custom_Option9=1;Custom_Option24=1;NdcConfig_ActiveOperDaysMask=11;NdcConfig_BackgroundODopen=0;NdcConfig_BcrSendBarcodeType=0;NdcConfig_BioDLL=quorum_bio.dll;NdcConfig_BioidentificationMode=0;NdcConfig_BioverificationMode=0;NdcConfig_BnaRemoveMode=0;NdcConfig_BnaUseVirtualNotes=0;NdcConfig_Card_Type_masked=0;NdcConfig_CardlessAcceptType=231;NdcConfig_ConfigChangedEvent=Global\\NDCConfigChangedEvent;NdcConfig_ConfigPath=ConfigNDC;NdcConfig_ConnectionName=NDC;NdcConfig_CorrectCdmCounters=0;NdcConfig_CustomExitExtState=Z;NdcConfig_CustomExitState=f;NdcConfig_CustomPPD=0;NdcConfig_DISPLAY_TYPE=2;NdcConfig_DefLanguage=rus;NdcConfig_DefaultODnum=0;NdcConfig_DieboldMode=0;NdcConfig_DisAsyncDevStatMask=0;NdcConfig_DisablePtrOD=0;NdcConfig_DisableZeroFdk=1;NdcConfig_EdmDispenseMode=0;NdcConfig_EdmExists=0;NdcConfig_EmvPostProcessingMode=0;NdcConfig_ExchByNdc=0;NdcConfig_ExtAuth_ConfirmNdcTran=1;NdcConfig_ExtAuth_ForceSendCdmCounters=0;NdcConfig_ExtAuth_OldFormat=1;NdcConfig_ExtCardNumberDll=CustCard.dll;NdcConfig_ExternalBnaParams=4;NdcConfig_ExternalDepErrorState=255;NdcConfig_ExternalOperState=000;NdcConfig_FatalErrorScreenPath=;NdcConfig_FdkA=16;NdcConfig_FdkB=32;NdcConfig_FdkC=64;NdcConfig_FdkD=128;NdcConfig_FdkF=8;NdcConfig_FdkG=4;NdcConfig_FdkH=2;NdcConfig_FdkI=1;NdcConfig_ForceResetTimeout=0;NdcConfig_FraudMonitoring=1;NdcConfig_FrontDll=multi_front.dll;NdcConfig_FrontEnabled=1;NdcConfig_IccEmvClessConfig=DataNDC\\nfc_emv_NDC.cfg;NdcConfig_IccEmvClessDLL=NFCVivoKiosk2.dll;NdcConfig_IccEmvClessKernelType=0;NdcConfig_IccEmvClessMode=1;NdcConfig_IccEmvClessTerminalType=20;NdcConfig_IccEmvConfig=DataNDC\\emv_ndc.cfg;NdcConfig_IccEmvCustomConf=DataNDC\\emv_NDC_cust.cfg;NdcConfig_IccEmvCustomCvmTag=57169;NdcConfig_IccEmvDLL=scs_emv;NdcConfig_IccEmvMode=1;NdcConfig_IccEmvTerminalType=20;NdcConfig_IgnoreLastNonAsciiSymbols=0;NdcConfig_KeyIndexA=266;NdcConfig_KeyIndexB=267;NdcConfig_KeyIndexComm=523;NdcConfig_KeyIndexMac=522;NdcConfig_KeyIndexRsaEpp=17;NdcConfig_KeyIndexRsaHsm=18;NdcConfig_KeyIndexRsaRootHsm=19;NdcConfig_KeyIndexRsaSgn=16;NdcConfig_LastTSN=0000;NdcConfig_LeftFdk=0;NdcConfig_LockTimeout=7000;NdcConfig_LogInHexFormat=0;NdcConfig_MaxLogHistory=45;NdcConfig_MinLogFiles=10;NdcConfig_MsMandForOtherSys=0;NdcConfig_NdcEmvSimVersion=10;NdcConfig_NdcSimVersion=30;NdcConfig_NfcState=000;NdcConfig_NoPIN=0;NdcConfig_OpenSesionCashUnitViewMode=1;NdcConfig_PRR.DeviceStatus=0;NdcConfig_PinAutoCompletion=1;NdcConfig_PrintOnPrjMode=0;NdcConfig_PrintOnPrrMode=0;NdcConfig_SaveConfig=1;NdcConfig_SendUnsolStatus=1;NdcConfig_SetAcceptedBnaCounters=0;NdcConfig_SetHostTime=0;NdcConfig_SprayCdmOptions=0;NdcConfig_StJ_RecBeforeCard=0;NdcConfig_SupervisorUrl=http:/localhost:5000/;NdcConfig_Timer_77=90000;NdcConfig_Timer_BnaRemove=70000;NdcConfig_Timer_IccMinShowWait=2000;NdcConfig_Track1=;NdcConfig_Track2=;NdcConfig_Track3=;NdcConfig_UseCoinTI=1;NdcConfig_WaitAsyncOnAcceptTimeout=5000;NdcConfig_XmlTraceMode=2;NdcConfig_ZkMode=0;NdcConfig_receipt_title_02=;NdcConfig_receipt_title_03=УЛИЦА;NdcConfig_receipt_title_04=НОМЕР ТЕЛЕФОНА;NdcConfig_ParamSourceFormat=0;NdcConfig_zrs_mode=1;NdcConfig_FullBufferX=0;NdcConfig_IccEmvTracePath=NDC\\EMV;NdcConfig_LogPath=NDC\\NDC;NdcConfig_ReconnectOnTrReply=1;NdcConfig_FrontData_ParamName=FrontInfo_SessNumber;NdcConfig_SuspendTimeout=300000;NdcConfig_UnsolRecvTimeout=10000;NdcConfig_ReconnectDelay=5000;NdcConfig_UseCheckChannel=1;NdcConfig_RetrySendResp=1;NdcConfig_RecvTryCountOnTrReply=3;NdcConfig_EjLCP=0;NdcConfig_EjLCC=0;NdcConfig_EjTryCount=0;NdcConfig_EjLastDataSize=0;NdcConfig_EjCheckTimeout=10000;NdcConfig_StartUpOptions=0;NdcConfig_TraceRoot=c:\\scs\\logs;NdcConfig_HostPrintData_Enabled=0;NdcConfig_RemapNdc2Dev_COIN=0;NdcConfig_HostScreenData_Enabled=0;NdcConfig_DisableDepByOD=0;NdcConfig_KeyUsageB=0;NdcConfig_IsShutterEnabled=1;NdcConfig_IsTransitEnabled=1;NdcConfig_IsTSKDepositEnabled=0;NdcConfig_Timer_CashCount=2400000;NdcConfig_ExternalProtocolParams=16904;BacklightPinPad=4;NdcConfig_State_041_CheckPocketCaps=1;NdcConfig_NewIncasMenu=0;NdcConfig_ConfiguredDevices=3;NdcConfig_LUNO=377;NdcConfig_MaxMCN=63;NdcConfig_UseReadyB=17;NdcConfig_FromSupervisorToPrev=0;NdcConfig_UseTI=1;NdcConfig_UseSpecificReject=1;NdcConfig_UseReleaseID=1;NdcConfig_AmountLen=12;NdcConfig_SendTrStatus=1;NdcConfig_SendEdmStatus=0;NdcConfig_SendBnaCounters=335;NdcConfig_LastFitNumber=1312;NdcConfig_UseExtCdmHoppers=0;NdcConfig_UseExtCoinHoppers=0;NdcConfig_BcrConfig=0;NdcConfig_RollWidth=40;NdcConfig_LeftColumn=1;NdcConfig_EjMaxDataSize=200;NdcConfig_EjMaxTryCount=0;NdcConfig_Timer_00=150000;NdcConfig_Timer_01=90000;NdcConfig_Timer_02=2000;NdcConfig_Timer_03=60000;NdcConfig_Timer_04=30000;NdcConfig_Timer_05=20000;NdcConfig_Timer_07=1000;NdcConfig_Timer_60=255000;NdcConfig_Timer_61=60000;NdcConfig_Timer_78=90000;NdcConfig_Timer_94=30000;NdcConfig_Timer_50=30000;NdcConfig_Option_41=1;NdcConfig_Option_69=15;NdcConfig_Option_71=255;NdcConfig_Option_76=0;NdcConfig_SecurityFlags=1100000000;NdcConfig_MacTrRequest=1000100101110000000000000000000000000000000000100000;NdcConfig_MacTrReply=1001011100000000000000000000000000001;NdcConfig_MacSolStatus=00000000000;NdcConfig_MacOther=1101;NdcConfig_MacTrack1=000000;NdcConfig_MacTrack2=110000;NdcConfig_MacTrack3=00000000000;NdcConfig_MacEMV=11111;NdcConfig_CardlessState=Z53;NdcConfig_ConfigID=187;NdcConfig_UnsolDPAN=1;NdcConfig_TrxCounter=20919;NdcConfig_TerminalMode=4;ResetConfiguration_LoadFinishedTimeoutSec=180;ResetConfiguration_ResetTryCount=5;ResetConfiguration_RejectTryCount=5;ResetConfiguration_ReloadFunctionEnabled=1;ResetConfiguration_ResetMessageDelay=5;SparcParams_TurnOnSparcInitResultCheck=0;SparcParams_SparcInitTimeoutSec=20;SparcParams_SparcRebootTryCount=5;cim_update_presented_count_by_dispensed=False;cim_cashin_refuse_retract_area=RC;cdm_update_presented_count_by_dispensed=False;cdm_dispense_error_reset_area=RJ;hardware_list.CIM.logical_name=CashAcceptor;hardware_list.CIM.version_min.major=3;hardware_list.CIM.version_min.minor=10;hardware_list.CIM.version_max.major=255;hardware_list.CIM.version_max.minor=255;hardware_list.CIM.open_timeout=150;hardware_list.CIM.is_update_master_status_on_status_request=False;hardware_list.CIM.max_reset_count=3;hardware_list.CIM.interlive_reset_interval=300;hardware_list.CDM.logical_name=CashDispenser;hardware_list.CDM.version_min.major=3;hardware_list.CDM.version_min.minor=0;hardware_list.CDM.version_max.major=255;hardware_list.CDM.version_max.minor=255;hardware_list.CDM.open_timeout=150;hardware_list.CDM.is_update_master_status_on_status_request=False;hardware_list.CDM.max_reset_count=3;hardware_list.CDM.interlive_reset_interval=300;hardware_list.IDC.logical_name=CardReader;hardware_list.IDC.version_min.major=3;hardware_list.IDC.version_min.minor=0;hardware_list.IDC.version_max.major=255;hardware_list.IDC.version_max.minor=255;hardware_list.IDC.open_timeout=150;hardware_list.IDC.is_update_master_status_on_status_request=True;hardware_list.IDC.max_reset_count=3;hardware_list.IDC.interlive_reset_interval=300;hardware_list.PRR.logical_name=ReceiptPrinter;hardware_list.PRR.version_min.major=3;hardware_list.PRR.version_min.minor=0;hardware_list.PRR.version_max.major=255;hardware_list.PRR.version_max.minor=255;hardware_list.PRR.open_timeout=150;hardware_list.PRR.is_update_master_status_on_status_request=False;hardware_list.PRR.max_reset_count=3;hardware_list.PRR.interlive_reset_interval=300;retract_withdrawall_mode=1;disputed_notes_logic_version=0;request_timeouts.default_inf_rq_timeout=0;request_timeouts.default_exe_rq_timeout=0;request_timeouts.cim_replenish_rq_timeout=0;nfc_card_status_changed_event_reaction_time=2;lov_volume.volume_set=;lov_volume.jack_off_volume=;lov_volume.jack_on_volume=;exclude_level3_banknotes=False;brm_sensors_monitoring_enabled=True;default_nominals=;manual_enable_ex_deposit_cu=True;tsk_encashment_take_rejected=;cassettes.001.denomination=10000;cassettes.001.currency=643;cassettes.002.denomination=50000;cassettes.002.currency=643;cassettes.003.denomination=100000;cassettes.003.currency=643;cassettes.004.denomination=500000;cassettes.004.currency=643;ReceiptPrintStatus=2;MaxErrorLoginCount=5;Rotate.Logs.Path=[\r\n  "C:\\\\Sberbank\\\\LogsDbs\\\\logs\\\\Archive\\\\",\r\n  "C:\\\\scs\\\\LOGS_Archive\\\\PRJ\\\\"\r\n];Rotate.Logs.File=[\r\n  "*.zip"\r\n];Rotate.Keep.Unit=Year;Rotate.Keep.Value=1;Rotate.StorageThreshold.Free.Unit=Gb;Rotate.StorageThreshold.Free.Value=20;Rotate.StorageThreshold.Keep.Unit=Month;Rotate.StorageThreshold.Keep.Value=6;ClearAtmVersion.Days=7;ClearAtmVersion.Hours=8;ClearAtmVersion.Minutes=0;wdl_uniform_max_amt=100000;wdl_uniform_limit_643_100=10;wdl_uniform_remain_limit_643_100=1100;wdl_uniform_limit_643_200=10;wdl_uniform_remain_limit_643_200=1100;wdl_uniform_limit_643_500=20;wdl_uniform_remain_limit_643_500=1100;wdl_uniform_limit_643_1000=40;wdl_uniform_remain_limit_643_1000=1100;wdl_uniform_limit_643_2000=40;wdl_uniform_remain_limit_643_2000=1100;wdl_uniform_remain_limit_643_5000=1100;nda_BreakdownAmount=10000;nda_MaxNumberBill=10;nda_NewAlgorithmEnabled=False;fpsu_connection_status_enabled=1;cartidge_diagnostic_enable=1;planning_deploy_date=2024-08-07 11:54:18;scheduler_start_time=05:15;scheduler_work_time=30;scheduler_reset_period=21;scheduler_enabled=1;cash_found_outside_deposit_enabled=0;minimal_allowed_count_of_banknotes_100=200;minimal_allowed_count_of_banknotes_200=200;minimal_allowed_count_of_banknotes_500=200;minimal_allowed_count_of_banknotes_2000=200;minimal_allowed_count_of_banknotes_1000=200;minimal_allowed_count_of_banknotes_5000=200;target_count_of_banknotes_100=1000;target_count_of_banknotes_200=1000;target_count_of_banknotes_500=1000;target_count_of_banknotes_2000=1000;target_count_of_banknotes_1000=1000;target_count_of_banknotes_5000=500;maximal_allowed_count_of_banknotes_100=2000;maximal_allowed_count_of_banknotes_200=2000;maximal_allowed_count_of_banknotes_500=2000;maximal_allowed_count_of_banknotes_1000=2000;maximal_allowed_count_of_banknotes_2000=2000;maximal_allowed_count_of_banknotes_5000=2000;logical_weight_in_algo=1;specil_min_max_coef_in_algo=2;mask_for_remote_change_denom=1;new_reset_retained_cards_count_enabled=0;check_sn_cass_open_od=0;inventory_epp_sn=true;EPP_ID=OA162941;Logging.LogLevel.Default=Information;Service.Control.Logger.LogLevel=Information;Service.Control.Logger.File=SPA.log;Service.Control.SPArcMonitoring.TimeoutAfterInit_seconds=60;Service.Control.SPArcMonitoring.HeartBeatTimeout_seconds=60;launch_wait_timeout=15;launch_force_wait_timeout=20;isUniformCashOutAlgorithm=False;congratulationNewYear.isShowOnPgeAndMenu=True;congratulationNewYear.isShowOnInsertCard=True;congratulationNewYear.showStartAt=20.12.2023;congratulationNewYear.isShowAnimation1=True;congratulationNewYear.isShowAnimation2=True;congratulationNewYear.isShowAnimation3=True;congratulationMarch8.isShow=True;congratulationMarch8.showStartAt=14.02.2024;congratulationMarch8.showEndAt=09.03.2024;digitalCustomerPath=True;otherBankInfoLevel=0;selfEncashmentOptionalPrint=True;isWorkRedirectUrlBanner=True;withRedirectUrlBanner.ads=pop-up;pop-up-qr;pop-up-info;modules.bio.state=' ,'current_version.version=(\w+)|;)</t>
+          <t>select * from capgp1_gp.s_grnplm_ld_salesntwrk_pcap_sn_dsa.ffd_dim_office</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E86" t="b">
@@ -2593,17 +2593,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>line 1:68: mismatched input ':'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oakb.uvsk_claim_report as  select 	*  from k808_rx_hdp.t_team_sva_oakb."03489677_uvsk_claim_report"</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_krd_zp_12_click_test":</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E87" t="b">
@@ -2618,21 +2618,21 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>line 3:12: Catalog 'capgp2' does not exist</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_team_sva_oarb."40_mxs_20240906_2432" AS t1 INNER JOIN capgp2.s_grnplm_ld_audit_da_sandbox_oarb."40_mxs_20240906_2432_v2" AS t2     ON t1.id = t2.id LIMIT 10</t>
+          <t>select * from rozn2_gp.s_grnplm_ld_rozn_electron_cbp_core.bmg_epks_flg limit 10</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>MissingObjectError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2643,21 +2643,21 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Partition location does not exist: hdfs://hdfsgw/sklsdpk2hdfs__HD_ATM_HOST_MAIN_240821-NRT_ATMHOST_CAP-CLOSED_TICKETS/data/core/nrt/atmhost_cap/pa/snp/atmhost_envelopeevent/nrt_atmhost_cap.closed_tickets/timestampcolumn=2022-04-28</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.prx_hd_atm_host_main_240821_nrt_atmhost_cap.closed_tickets  limit 100</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_Lazarev_1294_1_NEW" as  SELECT a.* , Data1 FROM sfd_hdfsgw_hdp.prx_lazarev_clickstream_sbolweb_24_custom_rb_sbol_clickstream.sbol_events a  join k808_rx_hdp.t_team_sva_oarb."42_Lazarev_1294" b on a.epk_id  =  b.EPK and a.timestampcolumn = b.Data1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>MissingObjectError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2668,17 +2668,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oakb.uvsk_claim_report as  select 	*  from k808_rx_hdp.t_team_sva_oakb."03489677_uvsk_claim_report"</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_gulynin_1408_login_ucp_id_pro" as select  a.*,  b.profile_sessionid, b.profile_deviceid, b.profile_partnerid, b.profile_appid, b.profile_sapid, b.profile_adid, b.profile_clientblock, b.data_eventcategory, b.data_eventaction, b.data_eventtype, b.data_value, b.data_timestamp, b.data_properties, b.meta_dt_msk, b.data_dt, b.data_dt_msk, b.epk_id, b.ctl_loading, b.timestampcolumn from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1408_login_ucp_id" a join sfd_hdfsgw_hdp.prx_42_gulynin_pro2_custom_rozn_sbolpro.sbolpro_events b on a.ucp_id=cast(b.epk_id as varchar) and b.timestampcolumn=a.dat and b.timestampcolumn in ('2024-01-18' ,'2024-01-23' ,'2024-01-24' ,'2024-01-25' ,'2024-01-26')</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E90" t="b">
@@ -2693,17 +2693,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Query exceeded distributed user memory limit of 27GB</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_not_cars_fio" as select distinct a.*, b.profile_sapid, b.profile_adid, b.tb, b.osb, b.vsp, epk.last_name, first_name, middle_name,  epk.birth_dt --e.emp_id from k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_no_cars" a left join k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_clerk2" b on a.external_id=b.external_id left join sfd_hdfsgw_hdp.prx_42_gulynin_epk5_custom_rb_epk.epk_client epk on epk.epk_id = cast(a.ucp_id as bigint) and row_actual_to='9999-12-31' --left join sfd_hdfsgw_hdp.prx_42_gulynin_sotr_1_custom_risk_employees.t_sbrf_employees e on upper(e.emp_full_name) = concat_ws (' ', coalesce (epk.last_name,''), coalesce (first_name,''), coalesce (middle_name,'')) --and cast(epk.birth_dt as date) = cast(e.birth_dt as date)</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."40_ape_zp18_nondetach_step1"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E91" t="b">
@@ -2718,17 +2718,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>line 2:2: Column '_col0' cannot be resolved</t>
+          <t>target of repeat operator is not specified</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>select 	_col0 from (values('2024-09-19', '2024-09-19')) as a</t>
+          <t>select regexp_extract('Description=Microsoft Windows 10 Enterprise 2016 LTSB;', '(\W+)({6}.)')</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>MissingColumnError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E92" t="b">
@@ -2743,17 +2743,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Value cannot be cast to timestamp: 20247364831273202513</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SELECT 	cast(concat_ws('',cast(TSK.body.systemparamsinfo.datecreateevent AS array&lt;varchar&gt;)) AS timestamp) 	--from_unixtime(concat_ws('',cast(TSK.body.systemparamsinfo.datecreateevent as array&lt;varchar&gt;)),'yyyyMMddHHmmssSSS') 	,cast(concat(cast(TSK.body.systemparamsinfo.datecreateevent[1] AS varchar) 			,'-' 			,cast(TSK.body.systemparamsinfo.datecreateevent[2] AS varchar) 			,'-' 			,cast(TSK.body.systemparamsinfo.datecreateevent[3] AS varchar) 			,' ' 			,cast(TSK.body.systemparamsinfo.datecreateevent[4] AS varchar) 			,':' 			,cast(TSK.body.systemparamsinfo.datecreateevent[5] AS varchar) 			,':' 			,cast(TSK.body.systemparamsinfo.datecreateevent[6] AS varchar) 			,'.' 			,cast(TSK.body.systemparamsinfo.datecreateevent[7] AS varchar) 			) AS timestamp) + interval '3' hour AS "EventDateTime" 	FROM sfd_hdfsgw_hdp.prx_parus_task_selfservice_parus_tasks.tasks_test_1 AS TSK</t>
+          <t>select "timestamp", atmid, json_extract_scalar(item, '$.id') as id, json_extract_scalar(item, '$.code') as code, json_extract_scalar(item, '$.name') as name, cast(json_extract_scalar(item, '$.priority') as INTEGER) as priority, json_extract_scalar(item, '$.manageBy') as manageBy FROM k808_rx_hdp.prx_mv_nrt_smsb2_nrt_smsb2.srvsendtechstatus cross join unnest (cast(json_parse(businessstatuses) AS array (json))) as t(item)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>TypeError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E93" t="b">
@@ -2768,17 +2768,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb.gulynin_epk_sms SELECT * FROM k808_rx_hdp.t_team_sva_oarb.epk_sms a</t>
+          <t>create table rozn2_gp.s_grnplm_ld_rozn_electron_cbp_core.pshk_yegor_refused_smm as select cast(cust_sid as bigint) as epk_id from k808_rx_hdp.t_team_cbpml.saa_bnpl_202408</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E94" t="b">
@@ -2793,17 +2793,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Query exceeded distributed user memory limit of 27GB</t>
+          <t>line 3:2: mismatched input '''. Expecting: &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb.FIO as select a.epk_id, a.fullname, b.birth_date from sfd_hdfsgw_hdp.prx_epk_dqepk_1_custom_rozn_dqepk.epk_client_name a join sfd_hdfsgw_hdp.prx_epk_dqepk_1_custom_rozn_dqepk.epk_client b on a.epk_id= b.epk_id</t>
+          <t>select --regexp_replace( regexp_extract('SwitchAllowVersion=1.56.0.1027;1.54.3.1003;1.54.0.935;Model=NH8600S;cim_model=BRM56;TID=60032377;bank_name=ПАО СБЕРБАНК;vsp_name=IШахта Угольная;address=ул Угольная  1;tel_tech_number=900;keysForStatusBar=456;keysForSupervisor=;wait_screen_url=https://localhost:9443/_BUILD_/bootstrap.html;lang=ru-RU;RemoteNominalChange=0;params_loading_required=1;AtmType=auto;wait_screen_refresh_every=1000;temp_directory=C:/Sberbank/LogsDbs;product_name=ATMoSphere;current_version.version=1.61.0.1142;current_version.date_planned=01.11.2019 0:00:00;current_version.date_actual=16.07.2024 2:11:22;device_type=RATM;vendor=Nautilus;os=win7;hardware_architecture=x86;state_machine_path=C:\\scs\\atm_h;InitialCountFileName=391;waitForStatusBar=5000;sop_url=http://localhost:5000/;status_url=http://localhost:5000?Mode=DevicesState;AddSpornoRetract=1;is_topmost=True;fullscr=False;xoffset=0;yoffset=0;xscreen=800;yscreen=600;preloader_timeout=2000;start_url=;notify_need_wait_screen_refresh=True;log_level=Trace;webplayer_mode=ATMS;js_plugins_directory=.;host=localhost;port=1313;start_page=TCR_Startup;left_start_page=TCR_Startup;right_start_page=TCR_Startup;left_start_url=;right_start_url=;!mainbus_pipename=\\\\.\\pipe\\TCR_webplayer;mainbus_connection_timeout=2000;vendor_diag_util=C:\\Hyosung\\Nextware\\EXE\\NHVDM\\NHVDM.exe;use_event_driven_view=True;has_title=False;has_frame=True;is_scrolled=False;need_block_new_window=True;has_frame_3d=True;is_keyboard_event=False;is_check_parent=False;need_to_reload=False;need_hide=True;need_blank=False;need_notify_on_load=True;need_notify_on_error=True;need_to_check_by_id=False;need_to_silent_dlg=True;need_clear_hist=False;is_enable_msg_box=False;is_fix_update=False;is_hide_cursor=True;window_keyboard=0;priority_flags=0;log_mask=31;key_map=;domains_filter=;_MainHWND=0;_MainProc=0;NdcConfigChannel_AfterDisconnectDelay=2000;NdcConfigChannel_ChannelType=4;NdcConfigChannel_ConnectTimeout=30000;NdcConfigChannel_KeepAlive=0;LocalAddress=;NdcConfigChannel_LocalPort=0;NdcConfigChannel_LogPolling=0;NdcConfigChannel_LogPreProcessing=1;NdcConfigChannel_LogTraffic=0;NdcConfigChannel_PingHostTimeout=31000;NdcConfigChannel_PingTimeout=900000;NdcConfigChannel_ReconnectTimeout=60000;NdcConfigChannel_RecvPacketTryCount=5;NdcConfigChannel_RecvTimeout=40000;NdcConfigChannel_SendTimeout=40000;NdcConfigChannel_LogTrafficPath=NDC\\RMS;HostAddress=10.103.99.79;HostPort=30654;Custom_Option4=1;Custom_Option9=1;Custom_Option24=1;NdcConfig_ActiveOperDaysMask=11;NdcConfig_BackgroundODopen=0;NdcConfig_BcrSendBarcodeType=0;NdcConfig_BioDLL=quorum_bio.dll;NdcConfig_BioidentificationMode=0;NdcConfig_BioverificationMode=0;NdcConfig_BnaRemoveMode=0;NdcConfig_BnaUseVirtualNotes=0;NdcConfig_Card_Type_masked=0;NdcConfig_CardlessAcceptType=231;NdcConfig_ConfigChangedEvent=Global\\NDCConfigChangedEvent;NdcConfig_ConfigPath=ConfigNDC;NdcConfig_ConnectionName=NDC;NdcConfig_CorrectCdmCounters=0;NdcConfig_CustomExitExtState=Z;NdcConfig_CustomExitState=f;NdcConfig_CustomPPD=0;NdcConfig_DISPLAY_TYPE=2;NdcConfig_DefLanguage=rus;NdcConfig_DefaultODnum=0;NdcConfig_DieboldMode=0;NdcConfig_DisAsyncDevStatMask=0;NdcConfig_DisablePtrOD=0;NdcConfig_DisableZeroFdk=1;NdcConfig_EdmDispenseMode=0;NdcConfig_EdmExists=0;NdcConfig_EmvPostProcessingMode=0;NdcConfig_ExchByNdc=0;NdcConfig_ExtAuth_ConfirmNdcTran=1;NdcConfig_ExtAuth_ForceSendCdmCounters=0;NdcConfig_ExtAuth_OldFormat=1;NdcConfig_ExtCardNumberDll=CustCard.dll;NdcConfig_ExternalBnaParams=4;NdcConfig_ExternalDepErrorState=255;NdcConfig_ExternalOperState=000;NdcConfig_FatalErrorScreenPath=;NdcConfig_FdkA=16;NdcConfig_FdkB=32;NdcConfig_FdkC=64;NdcConfig_FdkD=128;NdcConfig_FdkF=8;NdcConfig_FdkG=4;NdcConfig_FdkH=2;NdcConfig_FdkI=1;NdcConfig_ForceResetTimeout=0;NdcConfig_FraudMonitoring=1;NdcConfig_FrontDll=multi_front.dll;NdcConfig_FrontEnabled=1;NdcConfig_IccEmvClessConfig=DataNDC\\nfc_emv_NDC.cfg;NdcConfig_IccEmvClessDLL=NFCVivoKiosk2.dll;NdcConfig_IccEmvClessKernelType=0;NdcConfig_IccEmvClessMode=1;NdcConfig_IccEmvClessTerminalType=20;NdcConfig_IccEmvConfig=DataNDC\\emv_ndc.cfg;NdcConfig_IccEmvCustomConf=DataNDC\\emv_NDC_cust.cfg;NdcConfig_IccEmvCustomCvmTag=57169;NdcConfig_IccEmvDLL=scs_emv;NdcConfig_IccEmvMode=1;NdcConfig_IccEmvTerminalType=20;NdcConfig_IgnoreLastNonAsciiSymbols=0;NdcConfig_KeyIndexA=266;NdcConfig_KeyIndexB=267;NdcConfig_KeyIndexComm=523;NdcConfig_KeyIndexMac=522;NdcConfig_KeyIndexRsaEpp=17;NdcConfig_KeyIndexRsaHsm=18;NdcConfig_KeyIndexRsaRootHsm=19;NdcConfig_KeyIndexRsaSgn=16;NdcConfig_LastTSN=0000;NdcConfig_LeftFdk=0;NdcConfig_LockTimeout=7000;NdcConfig_LogInHexFormat=0;NdcConfig_MaxLogHistory=45;NdcConfig_MinLogFiles=10;NdcConfig_MsMandForOtherSys=0;NdcConfig_NdcEmvSimVersion=10;NdcConfig_NdcSimVersion=30;NdcConfig_NfcState=000;NdcConfig_NoPIN=0;NdcConfig_OpenSesionCashUnitViewMode=1;NdcConfig_PRR.DeviceStatus=0;NdcConfig_PinAutoCompletion=1;NdcConfig_PrintOnPrjMode=0;NdcConfig_PrintOnPrrMode=0;NdcConfig_SaveConfig=1;NdcConfig_SendUnsolStatus=1;NdcConfig_SetAcceptedBnaCounters=0;NdcConfig_SetHostTime=0;NdcConfig_SprayCdmOptions=0;NdcConfig_StJ_RecBeforeCard=0;NdcConfig_SupervisorUrl=http:/localhost:5000/;NdcConfig_Timer_77=90000;NdcConfig_Timer_BnaRemove=70000;NdcConfig_Timer_IccMinShowWait=2000;NdcConfig_Track1=;NdcConfig_Track2=;NdcConfig_Track3=;NdcConfig_UseCoinTI=1;NdcConfig_WaitAsyncOnAcceptTimeout=5000;NdcConfig_XmlTraceMode=2;NdcConfig_ZkMode=0;NdcConfig_receipt_title_02=;NdcConfig_receipt_title_03=УЛИЦА;NdcConfig_receipt_title_04=НОМЕР ТЕЛЕФОНА;NdcConfig_ParamSourceFormat=0;NdcConfig_zrs_mode=1;NdcConfig_FullBufferX=0;NdcConfig_IccEmvTracePath=NDC\\EMV;NdcConfig_LogPath=NDC\\NDC;NdcConfig_ReconnectOnTrReply=1;NdcConfig_FrontData_ParamName=FrontInfo_SessNumber;NdcConfig_SuspendTimeout=300000;NdcConfig_UnsolRecvTimeout=10000;NdcConfig_ReconnectDelay=5000;NdcConfig_UseCheckChannel=1;NdcConfig_RetrySendResp=1;NdcConfig_RecvTryCountOnTrReply=3;NdcConfig_EjLCP=0;NdcConfig_EjLCC=0;NdcConfig_EjTryCount=0;NdcConfig_EjLastDataSize=0;NdcConfig_EjCheckTimeout=10000;NdcConfig_StartUpOptions=0;NdcConfig_TraceRoot=c:\\scs\\logs;NdcConfig_HostPrintData_Enabled=0;NdcConfig_RemapNdc2Dev_COIN=0;NdcConfig_HostScreenData_Enabled=0;NdcConfig_DisableDepByOD=0;NdcConfig_KeyUsageB=0;NdcConfig_IsShutterEnabled=1;NdcConfig_IsTransitEnabled=1;NdcConfig_IsTSKDepositEnabled=0;NdcConfig_Timer_CashCount=2400000;NdcConfig_ExternalProtocolParams=16904;BacklightPinPad=4;NdcConfig_State_041_CheckPocketCaps=1;NdcConfig_NewIncasMenu=0;NdcConfig_ConfiguredDevices=3;NdcConfig_LUNO=377;NdcConfig_MaxMCN=63;NdcConfig_UseReadyB=17;NdcConfig_FromSupervisorToPrev=0;NdcConfig_UseTI=1;NdcConfig_UseSpecificReject=1;NdcConfig_UseReleaseID=1;NdcConfig_AmountLen=12;NdcConfig_SendTrStatus=1;NdcConfig_SendEdmStatus=0;NdcConfig_SendBnaCounters=335;NdcConfig_LastFitNumber=1312;NdcConfig_UseExtCdmHoppers=0;NdcConfig_UseExtCoinHoppers=0;NdcConfig_BcrConfig=0;NdcConfig_RollWidth=40;NdcConfig_LeftColumn=1;NdcConfig_EjMaxDataSize=200;NdcConfig_EjMaxTryCount=0;NdcConfig_Timer_00=150000;NdcConfig_Timer_01=90000;NdcConfig_Timer_02=2000;NdcConfig_Timer_03=60000;NdcConfig_Timer_04=30000;NdcConfig_Timer_05=20000;NdcConfig_Timer_07=1000;NdcConfig_Timer_60=255000;NdcConfig_Timer_61=60000;NdcConfig_Timer_78=90000;NdcConfig_Timer_94=30000;NdcConfig_Timer_50=30000;NdcConfig_Option_41=1;NdcConfig_Option_69=15;NdcConfig_Option_71=255;NdcConfig_Option_76=0;NdcConfig_SecurityFlags=1100000000;NdcConfig_MacTrRequest=1000100101110000000000000000000000000000000000100000;NdcConfig_MacTrReply=1001011100000000000000000000000000001;NdcConfig_MacSolStatus=00000000000;NdcConfig_MacOther=1101;NdcConfig_MacTrack1=000000;NdcConfig_MacTrack2=110000;NdcConfig_MacTrack3=00000000000;NdcConfig_MacEMV=11111;NdcConfig_CardlessState=Z53;NdcConfig_ConfigID=187;NdcConfig_UnsolDPAN=1;NdcConfig_TrxCounter=20919;NdcConfig_TerminalMode=4;ResetConfiguration_LoadFinishedTimeoutSec=180;ResetConfiguration_ResetTryCount=5;ResetConfiguration_RejectTryCount=5;ResetConfiguration_ReloadFunctionEnabled=1;ResetConfiguration_ResetMessageDelay=5;SparcParams_TurnOnSparcInitResultCheck=0;SparcParams_SparcInitTimeoutSec=20;SparcParams_SparcRebootTryCount=5;cim_update_presented_count_by_dispensed=False;cim_cashin_refuse_retract_area=RC;cdm_update_presented_count_by_dispensed=False;cdm_dispense_error_reset_area=RJ;hardware_list.CIM.logical_name=CashAcceptor;hardware_list.CIM.version_min.major=3;hardware_list.CIM.version_min.minor=10;hardware_list.CIM.version_max.major=255;hardware_list.CIM.version_max.minor=255;hardware_list.CIM.open_timeout=150;hardware_list.CIM.is_update_master_status_on_status_request=False;hardware_list.CIM.max_reset_count=3;hardware_list.CIM.interlive_reset_interval=300;hardware_list.CDM.logical_name=CashDispenser;hardware_list.CDM.version_min.major=3;hardware_list.CDM.version_min.minor=0;hardware_list.CDM.version_max.major=255;hardware_list.CDM.version_max.minor=255;hardware_list.CDM.open_timeout=150;hardware_list.CDM.is_update_master_status_on_status_request=False;hardware_list.CDM.max_reset_count=3;hardware_list.CDM.interlive_reset_interval=300;hardware_list.IDC.logical_name=CardReader;hardware_list.IDC.version_min.major=3;hardware_list.IDC.version_min.minor=0;hardware_list.IDC.version_max.major=255;hardware_list.IDC.version_max.minor=255;hardware_list.IDC.open_timeout=150;hardware_list.IDC.is_update_master_status_on_status_request=True;hardware_list.IDC.max_reset_count=3;hardware_list.IDC.interlive_reset_interval=300;hardware_list.PRR.logical_name=ReceiptPrinter;hardware_list.PRR.version_min.major=3;hardware_list.PRR.version_min.minor=0;hardware_list.PRR.version_max.major=255;hardware_list.PRR.version_max.minor=255;hardware_list.PRR.open_timeout=150;hardware_list.PRR.is_update_master_status_on_status_request=False;hardware_list.PRR.max_reset_count=3;hardware_list.PRR.interlive_reset_interval=300;retract_withdrawall_mode=1;disputed_notes_logic_version=0;request_timeouts.default_inf_rq_timeout=0;request_timeouts.default_exe_rq_timeout=0;request_timeouts.cim_replenish_rq_timeout=0;nfc_card_status_changed_event_reaction_time=2;lov_volume.volume_set=;lov_volume.jack_off_volume=;lov_volume.jack_on_volume=;exclude_level3_banknotes=False;brm_sensors_monitoring_enabled=True;default_nominals=;manual_enable_ex_deposit_cu=True;tsk_encashment_take_rejected=;cassettes.001.denomination=10000;cassettes.001.currency=643;cassettes.002.denomination=50000;cassettes.002.currency=643;cassettes.003.denomination=100000;cassettes.003.currency=643;cassettes.004.denomination=500000;cassettes.004.currency=643;ReceiptPrintStatus=2;MaxErrorLoginCount=5;Rotate.Logs.Path=[\r\n  "C:\\\\Sberbank\\\\LogsDbs\\\\logs\\\\Archive\\\\",\r\n  "C:\\\\scs\\\\LOGS_Archive\\\\PRJ\\\\"\r\n];Rotate.Logs.File=[\r\n  "*.zip"\r\n];Rotate.Keep.Unit=Year;Rotate.Keep.Value=1;Rotate.StorageThreshold.Free.Unit=Gb;Rotate.StorageThreshold.Free.Value=20;Rotate.StorageThreshold.Keep.Unit=Month;Rotate.StorageThreshold.Keep.Value=6;ClearAtmVersion.Days=7;ClearAtmVersion.Hours=8;ClearAtmVersion.Minutes=0;wdl_uniform_max_amt=100000;wdl_uniform_limit_643_100=10;wdl_uniform_remain_limit_643_100=1100;wdl_uniform_limit_643_200=10;wdl_uniform_remain_limit_643_200=1100;wdl_uniform_limit_643_500=20;wdl_uniform_remain_limit_643_500=1100;wdl_uniform_limit_643_1000=40;wdl_uniform_remain_limit_643_1000=1100;wdl_uniform_limit_643_2000=40;wdl_uniform_remain_limit_643_2000=1100;wdl_uniform_remain_limit_643_5000=1100;nda_BreakdownAmount=10000;nda_MaxNumberBill=10;nda_NewAlgorithmEnabled=False;fpsu_connection_status_enabled=1;cartidge_diagnostic_enable=1;planning_deploy_date=2024-08-07 11:54:18;scheduler_start_time=05:15;scheduler_work_time=30;scheduler_reset_period=21;scheduler_enabled=1;cash_found_outside_deposit_enabled=0;minimal_allowed_count_of_banknotes_100=200;minimal_allowed_count_of_banknotes_200=200;minimal_allowed_count_of_banknotes_500=200;minimal_allowed_count_of_banknotes_2000=200;minimal_allowed_count_of_banknotes_1000=200;minimal_allowed_count_of_banknotes_5000=200;target_count_of_banknotes_100=1000;target_count_of_banknotes_200=1000;target_count_of_banknotes_500=1000;target_count_of_banknotes_2000=1000;target_count_of_banknotes_1000=1000;target_count_of_banknotes_5000=500;maximal_allowed_count_of_banknotes_100=2000;maximal_allowed_count_of_banknotes_200=2000;maximal_allowed_count_of_banknotes_500=2000;maximal_allowed_count_of_banknotes_1000=2000;maximal_allowed_count_of_banknotes_2000=2000;maximal_allowed_count_of_banknotes_5000=2000;logical_weight_in_algo=1;specil_min_max_coef_in_algo=2;mask_for_remote_change_denom=1;new_reset_retained_cards_count_enabled=0;check_sn_cass_open_od=0;inventory_epp_sn=true;EPP_ID=OA162941;Logging.LogLevel.Default=Information;Service.Control.Logger.LogLevel=Information;Service.Control.Logger.File=SPA.log;Service.Control.SPArcMonitoring.TimeoutAfterInit_seconds=60;Service.Control.SPArcMonitoring.HeartBeatTimeout_seconds=60;launch_wait_timeout=15;launch_force_wait_timeout=20;isUniformCashOutAlgorithm=False;congratulationNewYear.isShowOnPgeAndMenu=True;congratulationNewYear.isShowOnInsertCard=True;congratulationNewYear.showStartAt=20.12.2023;congratulationNewYear.isShowAnimation1=True;congratulationNewYear.isShowAnimation2=True;congratulationNewYear.isShowAnimation3=True;congratulationMarch8.isShow=True;congratulationMarch8.showStartAt=14.02.2024;congratulationMarch8.showEndAt=09.03.2024;digitalCustomerPath=True;otherBankInfoLevel=0;selfEncashmentOptionalPrint=True;isWorkRedirectUrlBanner=True;withRedirectUrlBanner.ads=pop-up;pop-up-qr;pop-up-info;modules.bio.state=' ,'current_version.version=(\w+)|;)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E95" t="b">
@@ -2818,21 +2818,21 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FATAL: terminating connection due to administrator command</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>INSERT INTO k808_rx_hdp.t_team_prfl_cdp.vma_t_4_25_buf SELECT      epk_id,     CAST(amount AS VARCHAR),     CAST(inn_organization AS VARCHAR),     payment_type_case,     '2023-12-31' FROM      rozn2_gp.s_grnplm_ld_rozn_electron_knlg_core.vma_t_4_25</t>
+          <t>select * from  k808_rx_hdp.t_team_sva_oarb."42_gulynin_1908_bio_template" order by ucp_id</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2843,21 +2843,21 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FATAL: terminating connection due to administrator command</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>INSERT INTO k808_rx_hdp.t_team_prfl_cdp.vma_temp_cx_lstdt SELECT      epk_id,     last_activity_dt,     first_active_product_dt,     '2022-11-30' FROM      rozn2_gp.s_grnplm_ld_rozn_electron_knlg_core.vma_temp_cx_lstdt</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oakb.uvsk_claim_report as  select 	*  from k808_rx_hdp.t_team_sva_oakb."03489677_uvsk_claim_report"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2868,21 +2868,21 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "17348432"</t>
+          <t>line 3:12: Catalog 'capgp2' does not exist</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>select b.* , a.* ,  q.task_answer , q.task_answer_full , q.req_answer , q.req_answer_full , q.task_text_sol  , q.task_owner , q.task_result From capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."40_kaluginvs_anofl_appeal_2024" a join  k808_rx_hdp.t_team_sva_oarb."42_Lazarev_B" b on cast (a.cust_epk_id as bigint  )  = cast (b.ucp_id as bigint  )  and cast (b.creation_date_dd as timestamp) &lt;= cast ( a.created as timestamp) limit 100</t>
+          <t>SELECT * FROM k808_rx_hdp.t_team_sva_oarb."40_mxs_20240906_2432" AS t1 INNER JOIN capgp2.s_grnplm_ld_audit_da_sandbox_oarb."40_mxs_20240906_2432_v2" AS t2     ON t1.id = t2.id LIMIT 10</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>MissingObjectError</t>
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2893,21 +2893,21 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Partition location does not exist: hdfs://hdfsgw/sklsdpk2hdfs__HD_ATM_HOST_MAIN_240821-NRT_ATMHOST_CAP-CLOSED_TICKETS/data/core/nrt/atmhost_cap/pa/snp/atmhost_envelopeevent/nrt_atmhost_cap.closed_tickets/timestampcolumn=2022-04-28</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.shvets_ekb</t>
+          <t>select * from k808_rx_hdp.prx_hd_atm_host_main_240821_nrt_atmhost_cap.closed_tickets  limit 100</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>MissingObjectError</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM (select b.epk_id, a.nsi_id from k808_rx_hdp.prx_custom_rozni_tag_custom_rozn_tag.ft_master_hshtg as a join k808_rx_hdp.t_team_sva_oarb."42_21608829_epk_bad_1610" as b on cast(a.epk_id as varchar) = b.epk_id ) dbvrcnt</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oakb.uvsk_claim_report as  select 	*  from k808_rx_hdp.t_team_sva_oakb."03489677_uvsk_claim_report"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Query text length (1149974) exceeds the maximum length (1000000)</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>insert into idlist values  (3991304550258,null), (3714704870790,null), (2847647877143,null), (2899143132044,null), (3940196359112,null), (4279521330446,null), (3707725340230,null), (2912508314316,null), (3749205993550,null), (3973637356064,null), (3322833304912,null), (2905575860086,null), (4114405835456,null), (3452423952960,null), (3974841956176,null), (4036071918508,null), (3260327240036,null), (2803376037254,null), (2889345030593,null), (4375003587556,null), (2668742899596,null), (3426310266848,null), (2740977504102,null), (3851856535852,null), (3337106788080,null), (2784630312637,null), (3692076786630,null), (2878943993404,null), (3225038170236,null), (2969029238160,null), (4833809592572,null), (2917184090847,null), (3722985190794,null), (3491104925362,null), (3776469701946,null), (3994655653526,null), (2837024799518,null), (4201204787000,null), (4134416301570,null), (2877783192395,null), (4186794384122,null), (2880289950351,null), (2768449371487,null), (3974906084192,null), (4261346264484,null), (3358542804200,null), (3305200609336,null), (2954265562911,null), (4315059357576,null), (3585602713882,null), (4344455009456,null), (2832651738189,null), (3663482853974,null), (2767563407785,null), (2844656527822,null), (3870137827000,null), (4086363855188,null), (4246495286820,null), (2847617205734,null), (2934434696761,null), (3074739799455,null), (2796214884991,null), (2461667993865,null), (2875310204954,null), (2505530750802,null), (3229674694852,null), (2900661022706,null), (3769573689938,null), (3701749954176,null), (3934099560704,null), (3182639313274,null), (3004957536789,null), (2530349224696,null), (3594778806696,null), (3500581482988,null), (3399911117554,null), (3765629510010,null), (2967602789730,null), (2495797014437,null), (2843706541495,null), (4250083482628,null), (4244966173154,null), (3135504012866,null), (3818383979216,null), (2666616881741,null), (2851587939545,null), (4240140682072,null), (3688216343736,null), (2648536217497,null), (3206027076194,null), (2511626989298,null), (3313373467150,null), (2881061958072,null), (3943002206842,null), (3958086261694,null), (4310135956628,null), (4611007030702,null), (4088566228598,null), (2873336630081,null), (3909870586894,null), (3508510334874,null), (2746000895113,null), (2779804102098,null), (3997125564542,null), (4201758046936,null), (3159438844168,null), (2859059368414,null), (2883981533997,null), (2997935603087,null), (3254554370450,null), (4113197597636,null), (4360146858162,null), (3772980704828,null), (2876951064376,null), (3317149661988,null), (3381727702954,null), (2831449490610,null), (3982443883038,null), (2927316050436,null), (2884721767281,null), (3918140068100,null), (4256581852902,null), (3853214988372,null), (3279614456664,null), (2860617433411,null), (3426323882672,null), (3875251122824,null), (3684828682824,null), (3179455703762,null), (4287289801866,null), (3929013754028,null), (4114423545378,null), (2986020500672,null), (2935235702407,null), (2674770803856,null), (4111979769700,null), (4249667082182,null), (4325811313698,null), (2916530289895,null), (3447885329900,null), (2759601417167,null), (2819209153637,null), (4282551002732,null), (2795685265298,null), (3371057899090,null), (3598788799916,null), (3429914325082,null), (2838574980730,null), (2855057519327,null), (2795763143659,null), (3626504472384,null), (3748249309940,null), (4186242211832,null), (2984137911365,null), (4277886205880,null), (3092665785760,null), (2901815853636,null), (4224127977282,null), (2791661140791,null), (2881165562924,null), (4261520275590,null), (3254342060362,null), (4098330244400,null), (3397430334838,null), (3142687825751,null), (2873553209821,null), (2947911324072,null), (4237686456938,null), (2927330301344,null), (2924726706374,null), (3372913966198,null), (3819371640834,null), (4297286526202,null), (3864745670970,null), (4437371856048,null), (4009702264904,null), (3082465464536,null), (2968391247154,null), (3714292070452,null), (3745643255062,null), (3697368946686,null), (3738611820324,null), (4273021012166,null), (2534702779959,null), (3658297201430,null), (3276346428338,null), (4288584128282,null), (4303311420266,null), (3750101534672,null), (4252624303298,null), (3474200624030,null), (4293990917550,null), (2531129135133,null), (4322842611122,null), (3982472098046,null), (3766960478384,null), (2922764136869,null), (2869831954374,null), (4313746365266,null), (3981490231980,null), (3781592546374,null), (3776922453458,null), (4285802126542,null), (3502502853700,null), (4132678431728,null), (2682229827120,null), (3691525512098,null), (3405001741938,null), (3756149409912,null), (3825921648924,null), (3699646064536,null), (3199697308682,null), (3374606368264,null), (4222084292438,null), (4452684439148,null), (2804738155971,null), (2999302515019,null), (4275051247854,null), (4227933376998,null), (3739826129036,null), (4065009215096,null), (4255220693360,null), (3917554946718,null), (3917266202548,null), (3040440932865,null), (3708145094452,null), (4116779089142,null), (4308996819470,null), (4241673610358,null), (4280508064224,null), (4240913767470,null), (3814073926754,null), (3627717830156,null), (2950047362721,null), (2814915969624,null), (3646794344948,null), (3900544659766,null), (3001670072206,null), (2763351389259,null), (2833226608160,null), (3678532461072,null), (3821138509040,null), (2915982439640,null), (3636668557354,null), (3830831980476,null), (3725912359890,null), (4211647082906,null), (2955470809224,null), (3628306761820,null), (2779506223621,null), (4271016393654,null), (3201779757066,null), (3274744463126,null), (4072287155304,null), (4322210519328,null), (4288687906566,null), (4238355335090,null), (2953294826378,null), (3370560284038,null), (3722695014818,null), (4211682471104,null), (4269782901732,null), (2871471044220,null), (2948991429473,null), (3977137041628,null), (3263100238182,null), (3073284102358,null), (3087621562156,null), (3138216606040,null), (3286897184918,null), (3864286700202,null), (2864370652379,null), (4130717465020,null), (4310787918216,null), (3935036243622,null), (3795090613458,null), (3080735900221,null), (2874248221188,null), (3632708506216,null), (4316517014900,null), (4323394629906,null), (3095635484803,null), (2986106828402,null), (3526130046790,null), (3488918651744,null), (4246117823376,null), (4315001028960,null), (3064253150208,null), (2925283537556,null), (3675452086340,null), (4247724264368,null), (2848240920393,null), (3116242094967,null), (2897699335049,null), (3711308751432,null), (4230587245746,null), (3473776674802,null), (4115796709844,null), (2868749870864,null), (3993132497040,null), (4664709675188,null), (4130899623776,null), (4328057807450,null), (3628279686170,null), (3989563365866,null), (4254520285270,null), (3496734049530,null), (3736642841508,null), (2877154018572,null), (2921843129219,null), (4298991191068,null), (4311756787454,null), (2848180420927,null), (3280546683644,null), (3348224796652,null), (4490845099704,null), (3949300736858,null), (4166285392616,null), (2950299312677,null), (4077270494932,null), (2930374985916,null), (3730494201650,null), (3951109246810,null), (3475697248932,null), (2983956293159,null), (3171669587192,null), (4235333988948,null), (4051437811850,null), (2928139259814,null), (2810602142560,null), (4313412447682,null), (3401850284026,null), (4321842785258,null), (4288208183038,null), (4198226398068,null), (3687265280864,null), (3684884893836,null), (4324202405734,null), (3151462504017,null), (3397103839314,null), (3037743570153,null), (3328748180918,null), (2964135581673,null), (4492046145582,null), (3692635644856,null), (4142797282316,null), (4227705706852,null), (4286214917060,null), (3259740418136,null), (3644094895020,null), (3663535654136,null), (3923695567184,null), (4224586219168,null), (3725682286762,null), (4214942859320,null), (4262732672144,null), (3888795949876,null), (3769832076606,null), (3987707840204,null), (3335653269590,null), (3325519475302,null), (2987786246412,null), (4192157639042,null), (3762444170312,null), (2861686095551,null), (3045618074853,null), (4260731127420,null), (3736469730882,null), (3718509913308,null), (3429928831370,null), (3202490420286,null), (4097817323064,null), (2938070041125,null), (3589036953010,null), (2877524667848,null), (3512850913474,null), (4277602232786,null), (4322404626084,null), (3943650025488,null), (4088575616784,null), (2721024464654,null), (3848584644246,null), (3990285006964,null), (3499956714228,null), (3340619052314,null), (4304958170078,null), (3758392931064,null), (3084514817870,null), (3716639724466,null), (4312282999098,null), (4013001997540,null), (4299621373710,null), (4458201805110,null), (4077256045006,null), (3309590539698,null), (2970762297512,null), (3344368742166,null), (4001809724594,null), (3787428455028,null), (2703611345253,null), (3780480807504,null), (3402474631344,null), (3772147659390,null), (2956491529628,null), (4108363061300,null), (4090754480164,null), (3911684774778,null), (3966408467596,null), (3953024433746,null), (4088531401528,null), (3063303027109,null), (2675979194412,null), (4318739771826,null), (3833392005958,null), (3807830082418,null), (4299807567110,null), (3046614956826,null), (3146079437068,null), (4011471782076,null), (2867985980286,null), (3753862139512,null), (3408199280418,null), (3944139716428,null), (3952099308464,null), (3504706103636,null), (3306780961020,null), (4258787781030,null), (4324258747364,null), (4013872788382,null), (2981520773861,null), (3112425210402,null), (3716534555284,null), (4039155531476,null), (3730685378812,null), (3338780967766,null), (3308614330434,null), (4252193581132,null), (2986460195167,null), (3643113747254,null), (4367900551224,null), (3961068444318,null), (2957273414745,null), (4086438104216,null), (4311895062440,null), (3323197829468,null), (3264225381430,null), (3962898503460,null), (3976979664996,null), (4029658090942,null), (4454180095258,null), (3768858527910,null), (2976070323887,null), (4664302814874,null), (4283200585744,null), (3769655855390,null), (4264974043438,null), (3852392826822,null), (3723761967792,null), (4274704851714,null), (2889213810649,null), (3207585020150,null), (2839032971244,null), (2988373515657,null), (4468372051458,null), (4202671534002,null), (3046394847789,null), (3958401364166,null), (3955995343492,null), (4003596323520,null), (3934756373638,null), (3758915188970,null), (4145891583970,null), (2743628911981,null), (2825894691274,null), (3486712015518,null), (3603953718164,null), (2918298303061,null), (3949102273266,null), (4277903829396,null), (4174743499190,null), (4027758437894,null), (3351400883772,null), (4051686914352,null), (4045202593246,null), (3542030257806,null), (2839458449318,null), (2958728999164,null), (3702700877122,null), (3993362589592,null), (3972921507042,null), (3941222170702,null), (3267116036826,null), (3391730848806,null), (3064370730616,null), (2969199199175,null), (3237457255710,null), (3032879735392,null), (3903408633162,null), (3164599447926,null), (3940826556244,null), (4417345697522,null), (2668964431636,null), (4233940890002,null), (4431948494340,null), (3991311825838,null), (3421306915810,null), (4010597910696,null), (3872184822000,null), (3642406657998,null), (3401082378646,null), (3949438609530,null), (3332468845766,null), (4027467756778,null), (3339126416230,null), (2913196595720,null), (3952052319612,null), (3706213160188,null), (4045212564498,null), (3252478810190,null), (4202180873486,null), (3783589904646,null), (3977002062008,null), (2845895622096,null), (4028478299474,null), (3791011856312,null), (3147185228670,null), (4298196328600,null), (3932285223990,null), (3387979900246,null), (4067762305186,null), (3154259996727,null), (3955769536806,null), (3220354845366,null), (2891384923432,null), (3764318091668,null), (4003417638256,null), (4373468223238,null), (3955641373500,null), (3292384114770,null), (3754419316710,null), (4178046292502,null), (4142270995998,null), (2922409284404,null), (3260149637828,null), (2974922952495,null), (4072624012814,null), (3601631564848,null), (4322178147478,null), (3145289308626,null), (2863854880252,null), (3478799266662,null), (4080768661682,null), (3872150082982,null), (4211258598790,null), (3483411544918,null), (3309402531134,null), (3777016870424,null), (4054257874414,null), (4307065893026,null), (2987533254545,null), (2951098778957,null), (3950785178192,null), (4059132563038,null), (3752554005404,null), (3287532361910,null), (3862266352114,null), (2815053472629,null), (4296460927028,null), (2821897572571,null), (4847904014600,null), (3926747721554,null), (3055487487716,null), (4353912827665,null), (4207213625830,null), (3066329481575,null), (3323731400250,null), (3682795138054,null), (3709923788212,null), (3985187790788,null), (3060209648692,null), (3910757771622,null), (2953217153276,null), (2843104187485,null), (4213230685678,null), (4319584670338,null), (3766443132438,null), (2508043485149,null), (3159242875266,null), (3140783998153,null), (3646721523020,null), (3973062829032,null), (2934606371454,null), (3640626475282,null), (2953500978778,null), (4400925702146,null), (3233530782204,null), (3636366686386,null), (4258714088280,null), (2917415699215,null), (3918412224748,null), (3280981643770,null), (2879651354395,null), (4204670287904,null), (3927086899146,null), (4488263150674,null), (2979571915494,null), (3146693988686,null), (3405153707250,null), (3749144487136,null), (3718154956142,null), (3685256627822,null), (2770120316219,null), (3763787419322,null), (3450875456938,null), (3449801707066,null), (4006716172642,null), (4318283000640,null), (3805466738500,null), (3181875666574,null), (3573235476782,null), (3943165180658,null), (3720246576248,null), (3554125786068,null), (3750762077366,null), (4065358849934,null), (3464701406086,null), (4129806770868,null), (4172121577572,null), (4278546187224,null), (4287099591388,null), (4507616527270,null), (4720023650984,null), (3489128363084,null), (3255405721284,null), (4088484498462,null), (2877096893537,null), (3876701330402,null), (3475611147496,null), (2851894931460,null), (3448111397700,null), (3890505531118,null), (4811882917796,null), (3144104485294,null), (2565883891758,null), (4306832123204,null), (4633775386332,null), (3813289598280,null), (3301738463396,null), (3718577401920,null), (2914787931591,null), (4096391791864,null), (3202796028450,null), (4207394509602,null), (3451859726634,null), (2521472942038,null), (4108331538882,null), (4598401664506,null), (2879681548900,null), (3686982702094,null), (2967570528929,null), (3979581678284,null), (3673432009368,null), (3975186593068,null), (4304768451954,null), (4106213389268,null), (4292297167508,null), (4772129039396,null), (2884394061850,null), (2442593315742,null), (3702105754614,null), (3977312030124,null), (3868414755652,null), (3170020193906,null), (3975042682100,null), (3866646233520,null), (2922480948072,null), (4112695414600,null), (4283623340668,null), (2948128065155,null), (3392138900940,null), (4246484271144,null), (3744019052250,null), (3659492506464,null), (3727905657112,null), (3714335901956,null), (3188663025140,null), (4090315427688,null), (3953243018112,null), (2778971636365,null), (3377452065150,null), (3981038664484,null), (2839038758818,null), (3046225738083,null), (4326187761278,null), (2805013086733,null), (2907865113550,null), (4102468766206,null), (4364073612672,null), (3902413041922,null), (4294419888560,null), (4204748939840,null), (4538922713608,null), (3530039822752,null), (2793937165232,null), (3424120649980,null), (3179180457232,null), (2912241076475,null), (2910447386412,null), (2840303605217,null), (3590447079410,null), (4174710854766,null), (4213234204782,null), (4317452900784,null), (4043289353528,null), (4127438353060,null), (4321931991206,null), (3154719866006,null), (2984611708604,null), (4048844796758,null), (3710104253530,null), (2949665516134,null), (2717127775283,null), (2719778733198,null), (4250135134556,null), (2873556120535,null), (3679027665346,null), (3884544589034,null), (4297486734394,null), (3934062219888,null), (3394350043822,null), (4300251934054,null), (4305616292778,null), (2881518051842,null), (2924874135480,null), (2698579506390,null), (2992310181026,null), (3150601562143,null), (3004339553214,null), (4266385215334,null), (3307037825706,null), (3874476747178,null), (4283904417070,null), (3492818669170,null), (2916459453271,null), (2798560975390,null), (2888954224183,null), (4862644297382,null), (3717033993776,null), (4525080680130,null), (2814091213369,null), (3400304214400,null), (3724829487022,null), (4221022072804,null), (3711207867580,null), (3686355897688,null), (3973203729750,null), (3181964978464,null), (2924494247920,null), (3324503982312,null), (2894150911578,null), (4170812679922,null), (3498999656690,null), (4286015527388,null), (3257290580094,null), (2340848245408,null), (3778764535250,null), (2468770269943,null), (2946539757567,null), (3929127558122,null), (4316731044912,null), (3717616977042,null), (2988887783829,null), (3594337985058,null), (4035435779794,null), (3621628578376,null), (3949286984260,null), (3106101522948,null), (4108704539720,null), (2755773484783,null), (4281239393008,null), (3040512196959,null), (4285971630250,null), (2827824027084,null), (3651493912630,null), (3296673874440,null), (3227788882680,null), (2923255541082,null), (3695086035500,null), (3640724986076,null), (3955290857014,null), (4326682353146,null), (4198277369434,null), (2922089557542,null), (3980020819656,null), (3018597469913,null), (2859134722629,null), (3986311487884,null), (3856899894472,null), (3931697809316,null), (3398642088742,null), (2921818789273,null), (4210069220256,null), (3633854818534,null), (2849554013728,null), (4116477905302,null), (3441210750724,null), (2539025902216,null), (3220378237456,null), (2980047119085,null), (3163146674596,null), (2874849448781,null), (2931252383953,null), (3707671904854,null), (4278777045912,null), (3140959360533,null), (3153535637693,null), (3986663698262,null), (4326016862488,null), (4284873860298,null), (4274041448126,null), (3778248261358,null), (2786434637801,null), (2990335663068,null), (3836590414128,null), (3949985770890,null), (2922835430401,null), (3097989641318,null), (3394342112990,null), (2981418891401,null), (3733341211868,null), (2939585458273,null), (4099809142902,null), (3622953514586,null), (3065679105244,null), (3683679207460,null), (3731302036692,null), (2780454877241,null), (2922203974552,null), (2530114095671,null), (4317325201988,null), (4341705109912,null), (4087846768084,null), (2919266719437,null), (3890951068184,null), (3982626509582,null), (2901154399731,null), (2923904309805,null), (4724066726960,null), (2890716777235,null), (3781274068492,null), (3629732535782,null), (3986659348366,null), (3512063393930,null), (4296494809296,null), (2930545001667,null), (3758908596188,null), (4199007521410,null), (2821226673891,null), (3213986246912,null), (2927095692489,null), (2799043254635,null), (3493844932650,null), (3182040424544,null), (3632692145086,null), (2837728781133,null), (3495706943282,null), (3753014877892,null), (2770148860232,null), (3475394120890,null), (3398415448244,null), (4284825222838,null), (3685122816384,null), (3207899661658,null), (3903466014770,null), (2849031570762,null), (4200413721786,null), (2922456371444,null), (4198310400454,null), (3932808258488,null), (4282180290656,null), (4268748969818,null), (3955219791300,null), (3111692693843,null), (2681124250269,null), (3769373892710,null), (2691336275196,null), (3321365224768,null), (3662394145438,null), (4203329569142,null), (2801346458185,null), (3738697777788,null), (4124923904746,null), (3434266346840,null), (4502622470882,null), (3321067699288,null), (4463130977802,null), (2872622872417,null), (3710307769520,null), (3659080749854,null), (3626406014416,null), (2793891434835,null), (3688719556000,null), (4291460027928,null), (3686681469022,null), (2923600455053,null), (3771862946294,null), (4278662046802,null), (2920002181089,null), (3716692165328,null), (2972260339408,null), (4261727781700,null), (4321670540864,null), (2819813402839,null), (4108588167634,null), (4294633198878,null), (3856559067878,null), (4152178867756,null), (3298944844804,null), (3563024929776,null), (3897147095534,null), (3341081102960,null), (2816362854091,null), (4431231392768,null), (4280815803690,null), (3588836788890,null), (4321952192592,null), (3267910641618,null), (3807310567224,null), (3730435345062,null), (4090250310070,null), (4080189786010,null), (3745706314936,null), (2885692395869,null), (3736381513524,null), (2821801611117,null), (3603080590436,null), (3323045470268,null), (2840839705509,null), (4150675754682,null), (3313575108636,null), (4243071263140,null), (4832465102648,null), (4232668997362,null), (2946772450863,null), (4122305120382,null), (4765169677042,null), (4006646949080,null), (3721178820870,null), (3886947362720,null), (3522683224874,null), (3458025231434,null), (3723785163518,null), (4151828422368,null), (4083677863464,null), (2803760445597,null), (3754235204788,null), (4210268060758,null), (3982651500982,null), (3052684620773,null), (2858386944473,null), (4291403019662,null), (3743908173452,null), (3736420744734,null), (3692639419038,null), (2842257343492,null), (2912220884354,null), (2980488105349,null), (3764696697018,null), (4263873104720,null), (3907254618162,null), (3630699905052,null), (2811273223135,null), (3318949314350,null), (4085545392722,null), (2917685946992,null), (3046254002039,null), (3649466178466,null), (3915853854350,null), (3396955544070,null), (3407700530680,null), (4116025092226,null), (3744689546756,null), (4289712159106,null), (3151095718908,null), (3991792809440,null), (3716107166042,null), (2826110490699,null), (3178644508802,null), (3811575160820,null), (3451693277378,null), (3693055959944,null), (4211047516206,null), (3160735241744,null), (3189811207216,null), (3509441684828,null), (2983074887678,null), (4291508823702,null), (4258744456910,null), (4093932186454,null), (4282615388348,null), (4287093717228,null), (4235818974502,null), (3461252656634,null), (2762332023537,null), (3886309809948,null), (3446831411042,null), (2845819936371,null), (3408463470276,null), (2970592950746,null), (3964106194406,null), (3020901700320,null), (4382471764762,null), (4011910355240,null), (3073979481272,null), (2958067826226,null), (3917198057612,null), (3087537897528,null), (2917286541349,null), (3338782080808,null), (2824487100121,null), (3910536399362,null), (4310934674400,null), (3271576289258,null), (3396935294088,null), (4300384456992,null), (3029753648408,null), (3434438667072,null), (3209195867956,null), (2822026008393,null), (4296077742578,null), (3706745418028,null), (3163589526834,null), (3148288529418,null), (4100043792088,null), (2845452720697,null), (3697268342194,null), (3989601682140,null), (3334392549826,null), (3740391709482,null), (3436914437738,null), (4322299780528,null), (3734229708946,null), (3756648822708,null), (2794763197456,null), (3772083931686,null), (3780591782644,null), (3270733319032,null), (4200470055112,null), (3774917590822,null), (3654569685870,null), (3778973364538,null), (3136460771452,null), (3772122670238,null), (3264690158134,null), (3210931343720,null), (4185431910596,null), (3955250970026,null), (3688518303254,null), (3741325837188,null), (3385091989620,null), (4011846177522,null), (3987138457134,null), (3661395828486,null), (3706542435272,null), (4114438608074,null), (3983019071668,null), (3991293126776,null), (3768218902050,null), (3143237585307,null), (4236615127878,null), (3740106968884,null), (2820316298613,null), (3109867114356,null), (3771853446768,null), (3205997098088,null), (2886502682912,null), (3994103785440,null), (2790005359274,null), (4085834248084,null), (4198342495422,null), (4252972831316,null), (3687705949582,null), (4232374719028,null), (2991445799865,null), (3396554498262,null), (4794503515886,null), (3786182904520,null), (2956463701571,null), (3877015641578,null), (3703762335694,null), (3286980126340,null), (3245458608988,null), (3414841972240,null), (3370908471814,null), (3400759394394,null), (3432856539600,null), (3371871655144,null), (3394771714050,null), (4253100643536,null), (3985450246232,null), (2956520616820,null), (2382071628835,null), (4207746174560,null), (4093276880242,null), (3767621993246,null), (4623192914694,null), (2809402927672,null), (3071973254523,null), (2795581281362,null), (3562803121810,null), (3686646260024,null), (4049713136024,null), (2805449400265,null), (3788972614760,null), (3446408649876,null), (3417995075654,null), (3005094146329,null), (3373723317952,null), (4637265073612,null), (4326711056498,null), (3743907383568,null), (3469833105920,null), (4023238955600,null), (3923475150528,null), (2776372625011,null), (2834134606210,null), (3332237266098,null), (3954115369724,null), (3419112544188,null), (3439747095158,null), (3789708120170,null), (4023344772126,null), (3663829245426,null), (3427176267404,null), (3425509201614,null), (3944485038606,null), (3255537849844,null), (4025394739430,null), (3269368270520,null), (4328198661324,null), (4161902885018,null), (3337565515060,null), (4172473696788,null), (3963393325956,null), (4531074128656,null), (3734562757578,null), (2743506402931,null), (3988951421362,null), (3685183365190,null), (3858935308854,null), (4228196830300,null), (4486744794906,null), (3737974393424,null), (3912957320090,null), (3463117949958,null), (3994672846848,null), (4078014297260,null), (3772029524528,null), (3956900056826,null), (3396545693640,null), (3725845491080,null), (4452451228900,null), (4258322514868,null), (2991462011142,null), (3932339488636,null), (4058836050996,null), (3321591067574,null), (3658696624310,null), (3449646421792,null), (4156306151770,null), (3721786233652,null), (3938411524314,null), (3830408265424,null), (4193953554668,null), (3666625556988,null), (2824995289514,null), (3622364919760,null), (4456327861170,null), (3312864437352,null), (4224240584714,null), (3842787595058,null), (3952269824054,null), (4017711455110,null), (4018893281104,null), (2850019288595,null), (2872518992549,null), (3685005045198,null), (3924157351666,null), (3996972458448,null), (3964224803672,null), (3649530441398,null), (3463052314192,null), (2872585091611,null), (3383517281274,null), (3779009499844,null), (3106500389788,null), (2912533064352,null), (2963896573026,null), (3636325686328,null), (3767804672810,null), (3950659005622,null), (4311643482302,null), (3335265989972,null), (4283463977258,null), (4201903866070,null), (4278471085288,null), (4045541094260,null), (3990388349632,null), (2448561501509,null), (3948905934944,null), (4299683328628,null), (3269674829118,null), (4525859753378,null), (3953010907670,null), (4496309524046,null), (3972894290374,null), (2392215968414,null), (3954251211548,null), (2703013280820,null), (3398459085874,null), (3970149318340,null), (2848594324617,null), (4298831310580,null), (3299292926118,null), (3053467683141,null), (4280385319846,null), (3451432669914,null), (3998720377522,null), (4493185424948,null), (3914473620606,null), (4284748349254,null), (4038533521320,null), (2825022262571,null), (2797120086285,null), (4398436567876,null), (2520071428002,null), (4049240464442,null), (4000050570876,null), (2737287647644,null), (3760923595512,null), (3941995572546,null), (2906146006045,null), (3898116212056,null), (2931659170602,null), (4375950618814,null), (4269024710554,null), (4354856430832,null), (4315727393056,null), (3688283511920,null), (4314580481212,null), (4317124587694,null), (3145588047209,null), (2854918960412,null), (4444616928574,null), (4265584313938,null), (3946904860670,null), (4045249381760,null), (3121326913495,null), (3768653199862,null), (3774225820970,null), (3348110238944,null), (3716858617860,null), (2992306991409,null), (4241155149334,null), (4063508829914,null), (4039239447066,null), (3985019689016,null), (2987894065731,null), (2973827360307,null), (3946549288278,null), (3863218957802,null), (3141010730501,null), (3410630233902,null), (3936064269088,null), (4037943658094,null), (4052520660926,null), (3586921008588,null), (4333391262790,null), (3414471950630,null), (3508664873590,null), (2968153112081,null), (3371562563062,null), (3984732020952,null), (3490282352178,null), (3795060582582,null), (3988046230128,null), (4297229096070,null), (4230343100994,null), (3323815551626,null), (3821410874164,null), (3116886444429,null), (2851602731602,null), (3888732653924,null), (4480206012050,null), (3975259466574,null), (3168218919180,null), (2801963867959,null), (3934176039976,null), (2698383204197,null), (4088687629682,null), (3159504607914,null), (3769199701050,null), (2357124613990,null), (3733996028002,null), (2800804281890,null), (2962398004808,null), (3730434392000,null), (2508783370633,null), (4045625276292,null), (3507364941946,null), (4300835553034,null), (4304482947300,null), (3421742165490,null), (4023016537508,null), (2956758843648,null), (3352479469196,null), (3524332053678,null), (3265130319938,null), (3726123704706,null), (3677416354290,null), (3006816051239,null), (3444749665572,null), (4074194765466,null), (2782974155165,null), (3659180933520,null), (4061971652242,null), (3897330928832,null), (3732471040626,null), (3831970484140,null), (4311776128610,null), (4089281013930,null), (4478346457894,null), (4296878822128,null), (3938290643480,null), (3780880474762,null), (2818080105861,null), (4652808343322,null), (4171181580164,null), (3988811936690,null), (3933116966006,null), (3579629000874,null), (3567192657452,null), (3867293194948,null), (3542961306778,null), (3435222402428,null), (2924987466784,null), (3156800582596,null), (4004111149866,null), (3971186130162,null), (2811555753361,null), (3708169890950,null), (2696399028883,null), (3986920198524,null), (3202200441714,null), (2973341497029,null), (3922432336386,null), (4165504264400,null), (2847168349090,null), (3434709845798,null), (3989883842032,null), (4054856773296,null), (3276529001828,null), (3872081441056,null), (3854195910688,null), (3316856388644,null), (4216165503350,null), (4311488121948,null), (4245611449690,null), (4318603140530,null), (3714863688832,null), (4022542881978,null), (4322573201726,null), (3969861672094,null), (4277230364286,null), (3437180674846,null), (3457966642472,null), (3343457639536,null), (4238157280270,null), (3890171477338,null), (3688165170208,null), (3934738907956,null), (4234827795970,null), (4051017828004,null), (4538662533230,null), (3796158589666,null), (2787153898200,null), (3951395193452,null), (3126567108235,null), (4277880839420,null), (3421839574836,null), (3002144363137,null), (4129717085326,null), (4053270331708,null), (4146351307162,null), (3835417336762,null), (3783397966260,null), (3738337672966,null), (4156819190760,null), (3088734294372,null), (3971404550102,null), (3407447998526,null), (4139234805928,null), (2916670070325,null), (3888757913242,null), (2887689442133,null), (3971659791548,null), (3255427686036,null), (3933827670234,null), (3496275803936,null), (4302185061734,null), (3147800661818,null), (3486353031264,null), (4316282874016,null), (4038511260562,null), (2781489164719,null), (4211755164590,null), (4227455673788,null), (4070098062074,null), (4227492010322,null), (3003460302357,null), (4006933547422,null), (4413080213824,null), (3950745884412,null), (4341147910728,null), (4224491686306,null), (3777010395046,null), (4287696311482,null), (4185889560562,null), (2917191318627,null), (2768430083316,null), (4154432092972,null), (3271022556262,null), (4299738656658,null), (4044441568042,null), (4262637150616,null), (3990098188672,null), (3945080075508,null), (4230890791766,null), (3424311045224,null), (4102355734970,null), (4307377293322,null), (2843825541250,null), (3110015541208,null), (4165979490128,null), (4256462846586,null), (3936415255504,null), (4163527958724,null), (3952344752696,null), (4289468696488,null), (3317354272418,null), (3485901254680,null), (4040502617494,null), (3500052630082,null), (3318777025134,null), (3400983496838,null), (4002837631474,null), (2749022361292,null), (3414913297942,null), (4330374602606,null), (4016415955678,null), (3649051207014,null), (3945042175724,null), (4066556349086,null), (2972100323703,null), (4829823499416,null), (3817176275322,null), (4235292830350,null), (3809813531570,null), (3911043792410,null), (3168290932568,null), (4079826685072,null), (3993878605580,null), (3398430401650,null), (4330041350148,null), (4224542217028,null), (4222245352620,null), (4388366073528,null), (3446646150622,null), (4046881514394,null), (3897009126318,null), (4299563089420,null), (4367703101156,null), (4149579363766,null), (4023745398222,null), (4093807082372,null), (4122008198716,null), (4069253867362,null), (4281068144198,null), (326</t>
+          <t>select * from t_cars_kap.k_workschedule_4</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>QueryTooLargeError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E101" t="b">
@@ -2968,17 +2968,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>line 1:1: mismatched input 'function'. Expecting: 'ALTER', 'ANALYZE', 'CALL', 'COMMENT', 'COMMIT', 'CREATE', 'DEALLOCATE', 'DELETE', 'DENY', 'DESC', 'DESCRIBE', 'DROP', 'EXECUTE', 'EXPLAIN', 'GRANT', 'INSERT', 'MERGE', 'PREPARE', 'REFRESH', 'RESET', 'REVOKE', 'ROLLBACK', 'SET', 'SHOW', 'START', 'TRUNCATE', 'UPDATE', 'USE', &lt;query&gt;</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>function t() begin select 'test'; end</t>
+          <t>select * from t_cars_kap.k_workschedule</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded distributed user memory limit of 27GB</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>---Ответы 2024 CREATE TABLE capgp2_gp.s_grnplm_ld_audit_da_sandbox_oaofr.sao_task_2024 AS (SELECT app_row_id, req_created, task_id, task_finished, task_num, task_answer, task_answer_full, task_text_sol, exp_queue, prev_queue, prev_queue_uber,     req_answer, req_answer_full FROM k808_rx_hdp.t_team_sva_audit_2."40_kaluginvs_appeal_anofl_task_2024")</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_not_cars_fio" as select distinct a.*, b.profile_sapid, b.profile_adid, b.tb, b.osb, b.vsp, epk.last_name, first_name, middle_name,  epk.birth_dt --e.emp_id from k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_no_cars" a left join k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_clerk2" b on a.external_id=b.external_id left join sfd_hdfsgw_hdp.prx_42_gulynin_epk5_custom_rb_epk.epk_client epk on epk.epk_id = cast(a.ucp_id as bigint) and row_actual_to='9999-12-31' --left join sfd_hdfsgw_hdp.prx_42_gulynin_sotr_1_custom_risk_employees.t_sbrf_employees e on upper(e.emp_full_name) = concat_ws (' ', coalesce (epk.last_name,''), coalesce (first_name,''), coalesce (middle_name,'')) --and cast(epk.birth_dt as date) = cast(e.birth_dt as date)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3018,21 +3018,21 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>line 2:2: Column '_col0' cannot be resolved</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.shvets_inv</t>
+          <t>select 	_col0 from (values('2024-09-19', '2024-09-19')) as a</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>MissingColumnError</t>
         </is>
       </c>
       <c r="E104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3043,21 +3043,21 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Failed to list directory: hdfs://hdfsgw/arnsdpxdata__zzvukk-DZO_OOOZVUK_RB-CLTV_USERS/data/core/dzo/ooozvuk_rb/pa/snp/cltv_users/ctl_loading=43229322</t>
+          <t>Value cannot be cast to timestamp: 20247364831273202513</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.prx_zzvukk_dzo_ooozvuk_rb.cltv_users</t>
+          <t>SELECT 	cast(concat_ws('',cast(TSK.body.systemparamsinfo.datecreateevent AS array&lt;varchar&gt;)) AS timestamp) 	--from_unixtime(concat_ws('',cast(TSK.body.systemparamsinfo.datecreateevent as array&lt;varchar&gt;)),'yyyyMMddHHmmssSSS') 	,cast(concat(cast(TSK.body.systemparamsinfo.datecreateevent[1] AS varchar) 			,'-' 			,cast(TSK.body.systemparamsinfo.datecreateevent[2] AS varchar) 			,'-' 			,cast(TSK.body.systemparamsinfo.datecreateevent[3] AS varchar) 			,' ' 			,cast(TSK.body.systemparamsinfo.datecreateevent[4] AS varchar) 			,':' 			,cast(TSK.body.systemparamsinfo.datecreateevent[5] AS varchar) 			,':' 			,cast(TSK.body.systemparamsinfo.datecreateevent[6] AS varchar) 			,'.' 			,cast(TSK.body.systemparamsinfo.datecreateevent[7] AS varchar) 			) AS timestamp) + interval '3' hour AS "EventDateTime" 	FROM sfd_hdfsgw_hdp.prx_parus_task_selfservice_parus_tasks.tasks_test_1 AS TSK</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TypeError</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3068,21 +3068,21 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Could not communicate with the remote task. The node may have crashed or be under too much load. This is probably a transient issue, so please retry your query in a few minutes. (pvlos-ldtrn0002.cloud.df.sbrf.ru:8443)</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>select cust.client_name, doc_serial, doc_number, client_birth_day, claim_number, claim_date_time, claim_type_name, product_type_name,product_type_name_full from k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.cust as cust  join  k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.agr as agr on cust.client_id = agr.client_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.appl as appl  on agr.product_id = appl.product_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.prod as prod on appl.product_type_id = prod.product_type_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.appltype as appltype  on appl.claim_type_id = appltype.claim_type_id</t>
+          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_siv_r_eps_9__internal_eps_ibs.z_bd_ps_bp</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3093,17 +3093,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>insert  	into 	capgp2_gp.s_grnplm_ld_audit_da_sandbox_oarb.s_gp_ivakhnovs_appeal_2024 select 	* from 	k808_rx_hdp.t_team_sva_oarb."40_ivakhnovs_appeal_full_2024"</t>
+          <t>select * from t_cars_kap.K_PERFORMANCE_OPERATIONS po</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E107" t="b">
@@ -3118,17 +3118,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>line 1:22: mismatched input 'date'. Expecting: ')', ','</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>select ('2024-11-19' date) as p1</t>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb.gulynin_epk_sms SELECT * FROM k808_rx_hdp.t_team_sva_oarb.epk_sms a</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E108" t="b">
@@ -3143,17 +3143,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Query exceeded distributed user memory limit of 27GB</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_hd_atm_host_oper_240208_nrt_atmhost_operations.atmhost_operations ORDER BY body_sesstartdt</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.bb_deti_dropi_cod13_fix as ( 	SELECT * FROM k808_rx_hdp.t_team_sva_oapso.bb_deti_dropi_cod13_fix )</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E109" t="b">
@@ -3168,17 +3168,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>line 3:1: mismatched input ','. Expecting: 'FROM'</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>select date_parse(trim(substring('abc_zakupkigovru_beginner_20240118_092653_001.json', strpos('abc_zakupkigovru_beginner_20240118_092653_001.json', 'beginner_') + 9), '.json'), '%Y%m%d_%H%i%s%a'  select strpos('abc_zakupkigovru_beginner_20240118_092653_001.json', 'beginner_') + 9</t>
+          <t>SELECT * FROM k808_rx_hdp.t_team_sva_oarb."13_net_mkk_2024_plus"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E110" t="b">
@@ -3193,17 +3193,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "07735561"</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr  select * from capgp2_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr</t>
+          <t>select * from capgp3_gp.prx_55_sai_grnplm_smd_s_grnplm_as_rozn_anofl_view_2a7."v_anofl_rep$_csi_tm_21957987_view"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E111" t="b">
@@ -3218,21 +3218,21 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>line 1:35: Column 'app_status' cannot be resolved</t>
+          <t>Query exceeded distributed user memory limit of 27GB</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>select request_id, count(distinct app_status) from k808_rx_hdp.t_team_sva_oarb."55_gsd_ts_result_main_temp_epk_dec_3" group by request_id</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb.FIO as select a.epk_id, a.fullname, b.birth_date from sfd_hdfsgw_hdp.prx_epk_dqepk_1_custom_rozn_dqepk.epk_client_name a join sfd_hdfsgw_hdp.prx_epk_dqepk_1_custom_rozn_dqepk.epk_client b on a.epk_id= b.epk_id</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>MissingColumnError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3243,17 +3243,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Partition location does not exist: hdfs://arnsdpsbx/user/team/team_curus_dm/datamart/pa/dm04_operations_history/timestampcolumn=2024-07-23</t>
+          <t>FATAL: terminating connection due to administrator command</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SELECT timestampcolumn, count(*) FROM k808_rx_hdp.t_team_curus_dm.dm04_operations_history  group by timestampcolumn</t>
+          <t>INSERT INTO k808_rx_hdp.t_team_prfl_cdp.vma_t_4_25_buf SELECT      epk_id,     CAST(amount AS VARCHAR),     CAST(inn_organization AS VARCHAR),     payment_type_case,     '2023-12-31' FROM      rozn2_gp.s_grnplm_ld_rozn_electron_knlg_core.vma_t_4_25</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>MissingObjectError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E113" t="b">
@@ -3268,21 +3268,21 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>line 1:8: mismatched input 'select'. Expecting: '*', 'ALL', 'DISTINCT', &lt;expression&gt;</t>
+          <t>FATAL: terminating connection due to administrator command</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>select select request_id, count(distinct app_status) from sfd_hdfsgw_hdp.prx_55_gse_risk_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.t_st_main  group by request_id</t>
+          <t>INSERT INTO k808_rx_hdp.t_team_prfl_cdp.vma_temp_cx_lstdt SELECT      epk_id,     last_activity_dt,     first_active_product_dt,     '2022-11-30' FROM      rozn2_gp.s_grnplm_ld_rozn_electron_knlg_core.vma_temp_cx_lstdt</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3293,17 +3293,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Tried to access metastore after transaction has been committed/aborted</t>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "17348432"</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+          <t>select b.* , a.* ,  q.task_answer , q.task_answer_full , q.req_answer , q.req_answer_full , q.task_text_sol  , q.task_owner , q.task_result From capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."40_kaluginvs_anofl_appeal_2024" a join  k808_rx_hdp.t_team_sva_oarb."42_Lazarev_B" b on cast (a.cust_epk_id as bigint  )  = cast (b.ucp_id as bigint  )  and cast (b.creation_date_dd as timestamp) &lt;= cast ( a.created as timestamp) limit 100</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TooManyConnectionsError</t>
         </is>
       </c>
       <c r="E115" t="b">
@@ -3318,21 +3318,21 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Tried to access metastore after transaction has been committed/aborted</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+          <t>CREATE TABLE k808_rx_hdp.t_team_sva_oarb."42_Lazarev_B_OBR1"   as select cast (b.ucp_id as bigint  ) as ucp_id ,  cast (b.creation_date_dd as date) as creation_date_dd, cast(a.id as varchar ) as id, cast(a.source_dm as varchar ) as source_dm, cast(a.cust_epk_id as varchar ) as cust_epk_id, cast(a.fio as varchar ) as fio, cast(a.birth_dt as varchar ) as birth_dt, cast(a.segment_general as varchar ) as segment_general, cast(a.created as varchar ) as created, cast(a.app_row_id as varchar ) as app_row_id, cast(a.app_created as varchar ) as app_created, cast(a.app_created_by as varchar ) as app_created_by, cast(a.app_client_end_date as varchar ) as app_client_end_date, cast(a.app_planned_end_date as varchar ) as app_planned_end_date, cast(a.app_num as varchar ) as app_num, cast(a.app_status_date as varchar ) as app_status_date, cast(a.app_party_id as varchar ) as app_party_id, cast(a.app_reg_channel_id as varchar ) as app_reg_channel_id, cast(a.app_status as varchar ) as app_status, cast(a.app_supply_form_id as varchar ) as app_supply_form_id, cast(a.app_finish_date as varchar ) as app_finish_date, cast(a.app_db_last_upd as varchar ) as app_db_last_upd, cast(a.req_row_id as varchar ) as req_row_id, cast(a.req_num as varchar ) as req_num, cast(a.req_created as varchar ) as req_created, cast(a.req_created_by as varchar ) as req_created_by, cast(a.req_double_flg as varchar ) as req_double_flg, cast(a.req_planned_end_date as varchar ) as req_planned_end_date, cast(a.req_reg_date as varchar ) as req_reg_date, cast(a.req_status_date as varchar ) as req_status_date, cast(a.req_urgency_flg as varchar ) as req_urgency_flg, cast(a.req_cons_res as varchar ) as req_cons_res, cast(a.req_cons_res_val as varchar ) as req_cons_res_val, cast(a.res_reason as varchar ) as res_reason, cast(a.req_operation_type as varchar ) as req_operation_type, cast(a.req_party_id as varchar ) as req_party_id, cast(a.req_reason_id as varchar ) as req_reason_id, cast(a.req_result_reason_id as varchar ) as req_result_reason_id, cast(a.req_status as varchar ) as req_status, cast(a.req_finish_date as varchar ) as req_finish_date, cast(a.req_vsp_name as varchar ) as req_vsp_name, cast(a.req_tb_name as varchar ) as req_tb_name, cast(a.req_relation_type as varchar ) as req_relation_type, cast(a.req_repeat_type as varchar ) as req_repeat_type, cast(a.req_emp_num as varchar ) as req_emp_num, cast(a.grp as varchar ) as grp, cast(a.prd as varchar ) as prd, cast(a.s_prd as varchar ) as s_prd, cast(a.chnl as varchar ) as chnl, cast(a.subj as varchar ) as subj, cast(a.s_subj as varchar ) as s_subj, cast(a.double_type as varchar ) as double_type, cast(a.kanal_reg as varchar ) as kanal_reg, cast(a.sposob_reg as varchar ) as sposob_reg, cast(a.toxic_flag as varchar ) as toxic_flag, cast(a.call_edu_id as varchar ) as call_edu_id, cast(a.call_created_dt as varchar ) as call_created_dt, cast(a.split_val as varchar ) as split_val, cast(a.reclass_type as varchar ) as reclass_type, cast(a.init_grp as varchar ) as init_grp, cast(a.init_prd as varchar ) as init_prd, cast(a.init_s_prd as varchar ) as init_s_prd, cast(a.init_chnl as varchar ) as init_chnl, cast(a.init_subj as varchar ) as init_subj, cast(a.init_s_subj as varchar ) as init_s_subj, cast(a.app_supply_source as varchar ) as app_supply_source, cast(a.app_resonance_flg as varchar ) as app_resonance_flg, cast(a.req_attrs as varchar ) as req_attrs, cast(a.req_comm_hist as varchar ) as req_comm_hist, cast(a.req_desc as varchar ) as req_desc, cast(a.req_vsp as varchar ) as req_vsp, cast(a.req_demand as varchar ) as req_demand, cast(a.app_gol_org_reg as varchar ) as app_gol_org_reg, cast(a.app_content as varchar ) as app_content, cast(a.app_div_reg as varchar ) as app_div_reg, cast(a.tb_erkc as varchar ) as tb_erkc, cast(a.uber as varchar ) as uber, cast(a.owner_sprv as varchar ) as owner_sprv, cast(a.req_last_upd as varchar ) as req_last_upd, cast(a.req_master_req_id as varchar ) as req_master_req_id, cast(a.app_emp_num as varchar ) as app_emp_num, cast(a.dzo as varchar ) as dzo, cast(a.type_operator_workplace as varchar ) as type_operator_workplace, cast(a.unit as varchar ) as unit, cast(a.tribe as varchar ) as tribe, cast(a.toxic_flag_rep as varchar ) as toxic_flag_rep, cast(a.flg_kpi as varchar ) as flg_kpi, cast(a.driver_sprv as varchar ) as driver_sprv, cast(a.req_org_type as varchar ) as req_org_type, cast(a.dpan as varchar ) as dpan, cast(a.devicesberdevices as varchar ) as devicesberdevices, cast(a.descriptionsolveproblem as varchar ) as descriptionsolveproblem, cast(a.reasondispute as varchar ) as reasondispute --, --cast(q.task_answer as varchar ) as  task_answer, --cast(q.task_answer_full as varchar ) as task_answer_full, --cast(q.req_answer as varchar ) as req_answer, --cast(q.req_answer_full as varchar ) as req_answer_full, --cast(q.task_text_sol as varchar ) as task_text_sol, --cast(q.task_owner as varchar ) as  task_owner, --cast(q.task_result as varchar ) as task_resultas From capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."40_kaluginvs_anofl_appeal_2024" a join  k808_rx_hdp.t_team_sva_oarb."42_Lazarev_B" b on cast (a.cust_epk_id as bigint  )  = cast (b.ucp_id as bigint  )   and cast (b.creation_date_dd as date) &lt;= cast ( a.created as date)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -3343,21 +3343,21 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Tried to access metastore after transaction has been committed/aborted</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+          <t>select * from t_cars_kap.shvets_ekb</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3368,21 +3368,21 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Tried to access metastore after transaction has been committed/aborted</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_op2</t>
+          <t>SELECT COUNT(*) FROM (select b.epk_id, a.nsi_id from k808_rx_hdp.prx_custom_rozni_tag_custom_rozn_tag.ft_master_hshtg as a join k808_rx_hdp.t_team_sva_oarb."42_21608829_epk_bad_1610" as b on cast(a.epk_id as varchar) = b.epk_id ) dbvrcnt</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -3393,17 +3393,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Query exceeded distributed user memory limit of 27GB</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>with cte_1 as ( select distinct a.* from t_team_sva_audit_2.t38_siv_19_11_24__1141__02__eps_pmt_for_november_2024__white_cluster a  ) select 'Уникальных строк', count(*) from cte_1</t>
+          <t>select dm.atm_id     	,dm.device_manufacturer -- Производитель         ,dm.device_model-- Модель         ,dm.device_type --- Тип УС         ,dm.institute_tb_code -- ТБ         ,dm.institute_osb -- ГОСБ ,row_number () over (partition by atm_id  order by timestampcolumn desc) as rn from k808_rx_hdp.prx_hd_parus_datamart_240521_custom_salesntwrk_curusds.dm15_parus dm</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E119" t="b">
@@ -3418,21 +3418,21 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Could not communicate with the remote task. The node may have crashed or be under too much load. This is probably a transient issue, so please retry your query in a few minutes. (pvlos-ldtrn0002.cloud.df.sbrf.ru:8443)</t>
+          <t>Query text length (1149974) exceeds the maximum length (1000000)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi_1_id_mega" as  select distinct a.epk_id, a.operation_ts_dat, CRD_OTF_TRNF_ORG_RUB_AMT, CRD_OTF_TRNF_PERS_RUB_AMT from k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi_1_id" a join sfd_hdfsgw_hdp.prx_42_gulynin_mega_1_custom_rozn_client_aggr.ft_client_aggr_mnth b on a.epk_id=b.epk_id and date(b.report_dt)=last_day_of_month(a.operation_ts_dat) and b.report_dt='2024-07-31'</t>
+          <t>insert into idlist values  (3991304550258,null), (3714704870790,null), (2847647877143,null), (2899143132044,null), (3940196359112,null), (4279521330446,null), (3707725340230,null), (2912508314316,null), (3749205993550,null), (3973637356064,null), (3322833304912,null), (2905575860086,null), (4114405835456,null), (3452423952960,null), (3974841956176,null), (4036071918508,null), (3260327240036,null), (2803376037254,null), (2889345030593,null), (4375003587556,null), (2668742899596,null), (3426310266848,null), (2740977504102,null), (3851856535852,null), (3337106788080,null), (2784630312637,null), (3692076786630,null), (2878943993404,null), (3225038170236,null), (2969029238160,null), (4833809592572,null), (2917184090847,null), (3722985190794,null), (3491104925362,null), (3776469701946,null), (3994655653526,null), (2837024799518,null), (4201204787000,null), (4134416301570,null), (2877783192395,null), (4186794384122,null), (2880289950351,null), (2768449371487,null), (3974906084192,null), (4261346264484,null), (3358542804200,null), (3305200609336,null), (2954265562911,null), (4315059357576,null), (3585602713882,null), (4344455009456,null), (2832651738189,null), (3663482853974,null), (2767563407785,null), (2844656527822,null), (3870137827000,null), (4086363855188,null), (4246495286820,null), (2847617205734,null), (2934434696761,null), (3074739799455,null), (2796214884991,null), (2461667993865,null), (2875310204954,null), (2505530750802,null), (3229674694852,null), (2900661022706,null), (3769573689938,null), (3701749954176,null), (3934099560704,null), (3182639313274,null), (3004957536789,null), (2530349224696,null), (3594778806696,null), (3500581482988,null), (3399911117554,null), (3765629510010,null), (2967602789730,null), (2495797014437,null), (2843706541495,null), (4250083482628,null), (4244966173154,null), (3135504012866,null), (3818383979216,null), (2666616881741,null), (2851587939545,null), (4240140682072,null), (3688216343736,null), (2648536217497,null), (3206027076194,null), (2511626989298,null), (3313373467150,null), (2881061958072,null), (3943002206842,null), (3958086261694,null), (4310135956628,null), (4611007030702,null), (4088566228598,null), (2873336630081,null), (3909870586894,null), (3508510334874,null), (2746000895113,null), (2779804102098,null), (3997125564542,null), (4201758046936,null), (3159438844168,null), (2859059368414,null), (2883981533997,null), (2997935603087,null), (3254554370450,null), (4113197597636,null), (4360146858162,null), (3772980704828,null), (2876951064376,null), (3317149661988,null), (3381727702954,null), (2831449490610,null), (3982443883038,null), (2927316050436,null), (2884721767281,null), (3918140068100,null), (4256581852902,null), (3853214988372,null), (3279614456664,null), (2860617433411,null), (3426323882672,null), (3875251122824,null), (3684828682824,null), (3179455703762,null), (4287289801866,null), (3929013754028,null), (4114423545378,null), (2986020500672,null), (2935235702407,null), (2674770803856,null), (4111979769700,null), (4249667082182,null), (4325811313698,null), (2916530289895,null), (3447885329900,null), (2759601417167,null), (2819209153637,null), (4282551002732,null), (2795685265298,null), (3371057899090,null), (3598788799916,null), (3429914325082,null), (2838574980730,null), (2855057519327,null), (2795763143659,null), (3626504472384,null), (3748249309940,null), (4186242211832,null), (2984137911365,null), (4277886205880,null), (3092665785760,null), (2901815853636,null), (4224127977282,null), (2791661140791,null), (2881165562924,null), (4261520275590,null), (3254342060362,null), (4098330244400,null), (3397430334838,null), (3142687825751,null), (2873553209821,null), (2947911324072,null), (4237686456938,null), (2927330301344,null), (2924726706374,null), (3372913966198,null), (3819371640834,null), (4297286526202,null), (3864745670970,null), (4437371856048,null), (4009702264904,null), (3082465464536,null), (2968391247154,null), (3714292070452,null), (3745643255062,null), (3697368946686,null), (3738611820324,null), (4273021012166,null), (2534702779959,null), (3658297201430,null), (3276346428338,null), (4288584128282,null), (4303311420266,null), (3750101534672,null), (4252624303298,null), (3474200624030,null), (4293990917550,null), (2531129135133,null), (4322842611122,null), (3982472098046,null), (3766960478384,null), (2922764136869,null), (2869831954374,null), (4313746365266,null), (3981490231980,null), (3781592546374,null), (3776922453458,null), (4285802126542,null), (3502502853700,null), (4132678431728,null), (2682229827120,null), (3691525512098,null), (3405001741938,null), (3756149409912,null), (3825921648924,null), (3699646064536,null), (3199697308682,null), (3374606368264,null), (4222084292438,null), (4452684439148,null), (2804738155971,null), (2999302515019,null), (4275051247854,null), (4227933376998,null), (3739826129036,null), (4065009215096,null), (4255220693360,null), (3917554946718,null), (3917266202548,null), (3040440932865,null), (3708145094452,null), (4116779089142,null), (4308996819470,null), (4241673610358,null), (4280508064224,null), (4240913767470,null), (3814073926754,null), (3627717830156,null), (2950047362721,null), (2814915969624,null), (3646794344948,null), (3900544659766,null), (3001670072206,null), (2763351389259,null), (2833226608160,null), (3678532461072,null), (3821138509040,null), (2915982439640,null), (3636668557354,null), (3830831980476,null), (3725912359890,null), (4211647082906,null), (2955470809224,null), (3628306761820,null), (2779506223621,null), (4271016393654,null), (3201779757066,null), (3274744463126,null), (4072287155304,null), (4322210519328,null), (4288687906566,null), (4238355335090,null), (2953294826378,null), (3370560284038,null), (3722695014818,null), (4211682471104,null), (4269782901732,null), (2871471044220,null), (2948991429473,null), (3977137041628,null), (3263100238182,null), (3073284102358,null), (3087621562156,null), (3138216606040,null), (3286897184918,null), (3864286700202,null), (2864370652379,null), (4130717465020,null), (4310787918216,null), (3935036243622,null), (3795090613458,null), (3080735900221,null), (2874248221188,null), (3632708506216,null), (4316517014900,null), (4323394629906,null), (3095635484803,null), (2986106828402,null), (3526130046790,null), (3488918651744,null), (4246117823376,null), (4315001028960,null), (3064253150208,null), (2925283537556,null), (3675452086340,null), (4247724264368,null), (2848240920393,null), (3116242094967,null), (2897699335049,null), (3711308751432,null), (4230587245746,null), (3473776674802,null), (4115796709844,null), (2868749870864,null), (3993132497040,null), (4664709675188,null), (4130899623776,null), (4328057807450,null), (3628279686170,null), (3989563365866,null), (4254520285270,null), (3496734049530,null), (3736642841508,null), (2877154018572,null), (2921843129219,null), (4298991191068,null), (4311756787454,null), (2848180420927,null), (3280546683644,null), (3348224796652,null), (4490845099704,null), (3949300736858,null), (4166285392616,null), (2950299312677,null), (4077270494932,null), (2930374985916,null), (3730494201650,null), (3951109246810,null), (3475697248932,null), (2983956293159,null), (3171669587192,null), (4235333988948,null), (4051437811850,null), (2928139259814,null), (2810602142560,null), (4313412447682,null), (3401850284026,null), (4321842785258,null), (4288208183038,null), (4198226398068,null), (3687265280864,null), (3684884893836,null), (4324202405734,null), (3151462504017,null), (3397103839314,null), (3037743570153,null), (3328748180918,null), (2964135581673,null), (4492046145582,null), (3692635644856,null), (4142797282316,null), (4227705706852,null), (4286214917060,null), (3259740418136,null), (3644094895020,null), (3663535654136,null), (3923695567184,null), (4224586219168,null), (3725682286762,null), (4214942859320,null), (4262732672144,null), (3888795949876,null), (3769832076606,null), (3987707840204,null), (3335653269590,null), (3325519475302,null), (2987786246412,null), (4192157639042,null), (3762444170312,null), (2861686095551,null), (3045618074853,null), (4260731127420,null), (3736469730882,null), (3718509913308,null), (3429928831370,null), (3202490420286,null), (4097817323064,null), (2938070041125,null), (3589036953010,null), (2877524667848,null), (3512850913474,null), (4277602232786,null), (4322404626084,null), (3943650025488,null), (4088575616784,null), (2721024464654,null), (3848584644246,null), (3990285006964,null), (3499956714228,null), (3340619052314,null), (4304958170078,null), (3758392931064,null), (3084514817870,null), (3716639724466,null), (4312282999098,null), (4013001997540,null), (4299621373710,null), (4458201805110,null), (4077256045006,null), (3309590539698,null), (2970762297512,null), (3344368742166,null), (4001809724594,null), (3787428455028,null), (2703611345253,null), (3780480807504,null), (3402474631344,null), (3772147659390,null), (2956491529628,null), (4108363061300,null), (4090754480164,null), (3911684774778,null), (3966408467596,null), (3953024433746,null), (4088531401528,null), (3063303027109,null), (2675979194412,null), (4318739771826,null), (3833392005958,null), (3807830082418,null), (4299807567110,null), (3046614956826,null), (3146079437068,null), (4011471782076,null), (2867985980286,null), (3753862139512,null), (3408199280418,null), (3944139716428,null), (3952099308464,null), (3504706103636,null), (3306780961020,null), (4258787781030,null), (4324258747364,null), (4013872788382,null), (2981520773861,null), (3112425210402,null), (3716534555284,null), (4039155531476,null), (3730685378812,null), (3338780967766,null), (3308614330434,null), (4252193581132,null), (2986460195167,null), (3643113747254,null), (4367900551224,null), (3961068444318,null), (2957273414745,null), (4086438104216,null), (4311895062440,null), (3323197829468,null), (3264225381430,null), (3962898503460,null), (3976979664996,null), (4029658090942,null), (4454180095258,null), (3768858527910,null), (2976070323887,null), (4664302814874,null), (4283200585744,null), (3769655855390,null), (4264974043438,null), (3852392826822,null), (3723761967792,null), (4274704851714,null), (2889213810649,null), (3207585020150,null), (2839032971244,null), (2988373515657,null), (4468372051458,null), (4202671534002,null), (3046394847789,null), (3958401364166,null), (3955995343492,null), (4003596323520,null), (3934756373638,null), (3758915188970,null), (4145891583970,null), (2743628911981,null), (2825894691274,null), (3486712015518,null), (3603953718164,null), (2918298303061,null), (3949102273266,null), (4277903829396,null), (4174743499190,null), (4027758437894,null), (3351400883772,null), (4051686914352,null), (4045202593246,null), (3542030257806,null), (2839458449318,null), (2958728999164,null), (3702700877122,null), (3993362589592,null), (3972921507042,null), (3941222170702,null), (3267116036826,null), (3391730848806,null), (3064370730616,null), (2969199199175,null), (3237457255710,null), (3032879735392,null), (3903408633162,null), (3164599447926,null), (3940826556244,null), (4417345697522,null), (2668964431636,null), (4233940890002,null), (4431948494340,null), (3991311825838,null), (3421306915810,null), (4010597910696,null), (3872184822000,null), (3642406657998,null), (3401082378646,null), (3949438609530,null), (3332468845766,null), (4027467756778,null), (3339126416230,null), (2913196595720,null), (3952052319612,null), (3706213160188,null), (4045212564498,null), (3252478810190,null), (4202180873486,null), (3783589904646,null), (3977002062008,null), (2845895622096,null), (4028478299474,null), (3791011856312,null), (3147185228670,null), (4298196328600,null), (3932285223990,null), (3387979900246,null), (4067762305186,null), (3154259996727,null), (3955769536806,null), (3220354845366,null), (2891384923432,null), (3764318091668,null), (4003417638256,null), (4373468223238,null), (3955641373500,null), (3292384114770,null), (3754419316710,null), (4178046292502,null), (4142270995998,null), (2922409284404,null), (3260149637828,null), (2974922952495,null), (4072624012814,null), (3601631564848,null), (4322178147478,null), (3145289308626,null), (2863854880252,null), (3478799266662,null), (4080768661682,null), (3872150082982,null), (4211258598790,null), (3483411544918,null), (3309402531134,null), (3777016870424,null), (4054257874414,null), (4307065893026,null), (2987533254545,null), (2951098778957,null), (3950785178192,null), (4059132563038,null), (3752554005404,null), (3287532361910,null), (3862266352114,null), (2815053472629,null), (4296460927028,null), (2821897572571,null), (4847904014600,null), (3926747721554,null), (3055487487716,null), (4353912827665,null), (4207213625830,null), (3066329481575,null), (3323731400250,null), (3682795138054,null), (3709923788212,null), (3985187790788,null), (3060209648692,null), (3910757771622,null), (2953217153276,null), (2843104187485,null), (4213230685678,null), (4319584670338,null), (3766443132438,null), (2508043485149,null), (3159242875266,null), (3140783998153,null), (3646721523020,null), (3973062829032,null), (2934606371454,null), (3640626475282,null), (2953500978778,null), (4400925702146,null), (3233530782204,null), (3636366686386,null), (4258714088280,null), (2917415699215,null), (3918412224748,null), (3280981643770,null), (2879651354395,null), (4204670287904,null), (3927086899146,null), (4488263150674,null), (2979571915494,null), (3146693988686,null), (3405153707250,null), (3749144487136,null), (3718154956142,null), (3685256627822,null), (2770120316219,null), (3763787419322,null), (3450875456938,null), (3449801707066,null), (4006716172642,null), (4318283000640,null), (3805466738500,null), (3181875666574,null), (3573235476782,null), (3943165180658,null), (3720246576248,null), (3554125786068,null), (3750762077366,null), (4065358849934,null), (3464701406086,null), (4129806770868,null), (4172121577572,null), (4278546187224,null), (4287099591388,null), (4507616527270,null), (4720023650984,null), (3489128363084,null), (3255405721284,null), (4088484498462,null), (2877096893537,null), (3876701330402,null), (3475611147496,null), (2851894931460,null), (3448111397700,null), (3890505531118,null), (4811882917796,null), (3144104485294,null), (2565883891758,null), (4306832123204,null), (4633775386332,null), (3813289598280,null), (3301738463396,null), (3718577401920,null), (2914787931591,null), (4096391791864,null), (3202796028450,null), (4207394509602,null), (3451859726634,null), (2521472942038,null), (4108331538882,null), (4598401664506,null), (2879681548900,null), (3686982702094,null), (2967570528929,null), (3979581678284,null), (3673432009368,null), (3975186593068,null), (4304768451954,null), (4106213389268,null), (4292297167508,null), (4772129039396,null), (2884394061850,null), (2442593315742,null), (3702105754614,null), (3977312030124,null), (3868414755652,null), (3170020193906,null), (3975042682100,null), (3866646233520,null), (2922480948072,null), (4112695414600,null), (4283623340668,null), (2948128065155,null), (3392138900940,null), (4246484271144,null), (3744019052250,null), (3659492506464,null), (3727905657112,null), (3714335901956,null), (3188663025140,null), (4090315427688,null), (3953243018112,null), (2778971636365,null), (3377452065150,null), (3981038664484,null), (2839038758818,null), (3046225738083,null), (4326187761278,null), (2805013086733,null), (2907865113550,null), (4102468766206,null), (4364073612672,null), (3902413041922,null), (4294419888560,null), (4204748939840,null), (4538922713608,null), (3530039822752,null), (2793937165232,null), (3424120649980,null), (3179180457232,null), (2912241076475,null), (2910447386412,null), (2840303605217,null), (3590447079410,null), (4174710854766,null), (4213234204782,null), (4317452900784,null), (4043289353528,null), (4127438353060,null), (4321931991206,null), (3154719866006,null), (2984611708604,null), (4048844796758,null), (3710104253530,null), (2949665516134,null), (2717127775283,null), (2719778733198,null), (4250135134556,null), (2873556120535,null), (3679027665346,null), (3884544589034,null), (4297486734394,null), (3934062219888,null), (3394350043822,null), (4300251934054,null), (4305616292778,null), (2881518051842,null), (2924874135480,null), (2698579506390,null), (2992310181026,null), (3150601562143,null), (3004339553214,null), (4266385215334,null), (3307037825706,null), (3874476747178,null), (4283904417070,null), (3492818669170,null), (2916459453271,null), (2798560975390,null), (2888954224183,null), (4862644297382,null), (3717033993776,null), (4525080680130,null), (2814091213369,null), (3400304214400,null), (3724829487022,null), (4221022072804,null), (3711207867580,null), (3686355897688,null), (3973203729750,null), (3181964978464,null), (2924494247920,null), (3324503982312,null), (2894150911578,null), (4170812679922,null), (3498999656690,null), (4286015527388,null), (3257290580094,null), (2340848245408,null), (3778764535250,null), (2468770269943,null), (2946539757567,null), (3929127558122,null), (4316731044912,null), (3717616977042,null), (2988887783829,null), (3594337985058,null), (4035435779794,null), (3621628578376,null), (3949286984260,null), (3106101522948,null), (4108704539720,null), (2755773484783,null), (4281239393008,null), (3040512196959,null), (4285971630250,null), (2827824027084,null), (3651493912630,null), (3296673874440,null), (3227788882680,null), (2923255541082,null), (3695086035500,null), (3640724986076,null), (3955290857014,null), (4326682353146,null), (4198277369434,null), (2922089557542,null), (3980020819656,null), (3018597469913,null), (2859134722629,null), (3986311487884,null), (3856899894472,null), (3931697809316,null), (3398642088742,null), (2921818789273,null), (4210069220256,null), (3633854818534,null), (2849554013728,null), (4116477905302,null), (3441210750724,null), (2539025902216,null), (3220378237456,null), (2980047119085,null), (3163146674596,null), (2874849448781,null), (2931252383953,null), (3707671904854,null), (4278777045912,null), (3140959360533,null), (3153535637693,null), (3986663698262,null), (4326016862488,null), (4284873860298,null), (4274041448126,null), (3778248261358,null), (2786434637801,null), (2990335663068,null), (3836590414128,null), (3949985770890,null), (2922835430401,null), (3097989641318,null), (3394342112990,null), (2981418891401,null), (3733341211868,null), (2939585458273,null), (4099809142902,null), (3622953514586,null), (3065679105244,null), (3683679207460,null), (3731302036692,null), (2780454877241,null), (2922203974552,null), (2530114095671,null), (4317325201988,null), (4341705109912,null), (4087846768084,null), (2919266719437,null), (3890951068184,null), (3982626509582,null), (2901154399731,null), (2923904309805,null), (4724066726960,null), (2890716777235,null), (3781274068492,null), (3629732535782,null), (3986659348366,null), (3512063393930,null), (4296494809296,null), (2930545001667,null), (3758908596188,null), (4199007521410,null), (2821226673891,null), (3213986246912,null), (2927095692489,null), (2799043254635,null), (3493844932650,null), (3182040424544,null), (3632692145086,null), (2837728781133,null), (3495706943282,null), (3753014877892,null), (2770148860232,null), (3475394120890,null), (3398415448244,null), (4284825222838,null), (3685122816384,null), (3207899661658,null), (3903466014770,null), (2849031570762,null), (4200413721786,null), (2922456371444,null), (4198310400454,null), (3932808258488,null), (4282180290656,null), (4268748969818,null), (3955219791300,null), (3111692693843,null), (2681124250269,null), (3769373892710,null), (2691336275196,null), (3321365224768,null), (3662394145438,null), (4203329569142,null), (2801346458185,null), (3738697777788,null), (4124923904746,null), (3434266346840,null), (4502622470882,null), (3321067699288,null), (4463130977802,null), (2872622872417,null), (3710307769520,null), (3659080749854,null), (3626406014416,null), (2793891434835,null), (3688719556000,null), (4291460027928,null), (3686681469022,null), (2923600455053,null), (3771862946294,null), (4278662046802,null), (2920002181089,null), (3716692165328,null), (2972260339408,null), (4261727781700,null), (4321670540864,null), (2819813402839,null), (4108588167634,null), (4294633198878,null), (3856559067878,null), (4152178867756,null), (3298944844804,null), (3563024929776,null), (3897147095534,null), (3341081102960,null), (2816362854091,null), (4431231392768,null), (4280815803690,null), (3588836788890,null), (4321952192592,null), (3267910641618,null), (3807310567224,null), (3730435345062,null), (4090250310070,null), (4080189786010,null), (3745706314936,null), (2885692395869,null), (3736381513524,null), (2821801611117,null), (3603080590436,null), (3323045470268,null), (2840839705509,null), (4150675754682,null), (3313575108636,null), (4243071263140,null), (4832465102648,null), (4232668997362,null), (2946772450863,null), (4122305120382,null), (4765169677042,null), (4006646949080,null), (3721178820870,null), (3886947362720,null), (3522683224874,null), (3458025231434,null), (3723785163518,null), (4151828422368,null), (4083677863464,null), (2803760445597,null), (3754235204788,null), (4210268060758,null), (3982651500982,null), (3052684620773,null), (2858386944473,null), (4291403019662,null), (3743908173452,null), (3736420744734,null), (3692639419038,null), (2842257343492,null), (2912220884354,null), (2980488105349,null), (3764696697018,null), (4263873104720,null), (3907254618162,null), (3630699905052,null), (2811273223135,null), (3318949314350,null), (4085545392722,null), (2917685946992,null), (3046254002039,null), (3649466178466,null), (3915853854350,null), (3396955544070,null), (3407700530680,null), (4116025092226,null), (3744689546756,null), (4289712159106,null), (3151095718908,null), (3991792809440,null), (3716107166042,null), (2826110490699,null), (3178644508802,null), (3811575160820,null), (3451693277378,null), (3693055959944,null), (4211047516206,null), (3160735241744,null), (3189811207216,null), (3509441684828,null), (2983074887678,null), (4291508823702,null), (4258744456910,null), (4093932186454,null), (4282615388348,null), (4287093717228,null), (4235818974502,null), (3461252656634,null), (2762332023537,null), (3886309809948,null), (3446831411042,null), (2845819936371,null), (3408463470276,null), (2970592950746,null), (3964106194406,null), (3020901700320,null), (4382471764762,null), (4011910355240,null), (3073979481272,null), (2958067826226,null), (3917198057612,null), (3087537897528,null), (2917286541349,null), (3338782080808,null), (2824487100121,null), (3910536399362,null), (4310934674400,null), (3271576289258,null), (3396935294088,null), (4300384456992,null), (3029753648408,null), (3434438667072,null), (3209195867956,null), (2822026008393,null), (4296077742578,null), (3706745418028,null), (3163589526834,null), (3148288529418,null), (4100043792088,null), (2845452720697,null), (3697268342194,null), (3989601682140,null), (3334392549826,null), (3740391709482,null), (3436914437738,null), (4322299780528,null), (3734229708946,null), (3756648822708,null), (2794763197456,null), (3772083931686,null), (3780591782644,null), (3270733319032,null), (4200470055112,null), (3774917590822,null), (3654569685870,null), (3778973364538,null), (3136460771452,null), (3772122670238,null), (3264690158134,null), (3210931343720,null), (4185431910596,null), (3955250970026,null), (3688518303254,null), (3741325837188,null), (3385091989620,null), (4011846177522,null), (3987138457134,null), (3661395828486,null), (3706542435272,null), (4114438608074,null), (3983019071668,null), (3991293126776,null), (3768218902050,null), (3143237585307,null), (4236615127878,null), (3740106968884,null), (2820316298613,null), (3109867114356,null), (3771853446768,null), (3205997098088,null), (2886502682912,null), (3994103785440,null), (2790005359274,null), (4085834248084,null), (4198342495422,null), (4252972831316,null), (3687705949582,null), (4232374719028,null), (2991445799865,null), (3396554498262,null), (4794503515886,null), (3786182904520,null), (2956463701571,null), (3877015641578,null), (3703762335694,null), (3286980126340,null), (3245458608988,null), (3414841972240,null), (3370908471814,null), (3400759394394,null), (3432856539600,null), (3371871655144,null), (3394771714050,null), (4253100643536,null), (3985450246232,null), (2956520616820,null), (2382071628835,null), (4207746174560,null), (4093276880242,null), (3767621993246,null), (4623192914694,null), (2809402927672,null), (3071973254523,null), (2795581281362,null), (3562803121810,null), (3686646260024,null), (4049713136024,null), (2805449400265,null), (3788972614760,null), (3446408649876,null), (3417995075654,null), (3005094146329,null), (3373723317952,null), (4637265073612,null), (4326711056498,null), (3743907383568,null), (3469833105920,null), (4023238955600,null), (3923475150528,null), (2776372625011,null), (2834134606210,null), (3332237266098,null), (3954115369724,null), (3419112544188,null), (3439747095158,null), (3789708120170,null), (4023344772126,null), (3663829245426,null), (3427176267404,null), (3425509201614,null), (3944485038606,null), (3255537849844,null), (4025394739430,null), (3269368270520,null), (4328198661324,null), (4161902885018,null), (3337565515060,null), (4172473696788,null), (3963393325956,null), (4531074128656,null), (3734562757578,null), (2743506402931,null), (3988951421362,null), (3685183365190,null), (3858935308854,null), (4228196830300,null), (4486744794906,null), (3737974393424,null), (3912957320090,null), (3463117949958,null), (3994672846848,null), (4078014297260,null), (3772029524528,null), (3956900056826,null), (3396545693640,null), (3725845491080,null), (4452451228900,null), (4258322514868,null), (2991462011142,null), (3932339488636,null), (4058836050996,null), (3321591067574,null), (3658696624310,null), (3449646421792,null), (4156306151770,null), (3721786233652,null), (3938411524314,null), (3830408265424,null), (4193953554668,null), (3666625556988,null), (2824995289514,null), (3622364919760,null), (4456327861170,null), (3312864437352,null), (4224240584714,null), (3842787595058,null), (3952269824054,null), (4017711455110,null), (4018893281104,null), (2850019288595,null), (2872518992549,null), (3685005045198,null), (3924157351666,null), (3996972458448,null), (3964224803672,null), (3649530441398,null), (3463052314192,null), (2872585091611,null), (3383517281274,null), (3779009499844,null), (3106500389788,null), (2912533064352,null), (2963896573026,null), (3636325686328,null), (3767804672810,null), (3950659005622,null), (4311643482302,null), (3335265989972,null), (4283463977258,null), (4201903866070,null), (4278471085288,null), (4045541094260,null), (3990388349632,null), (2448561501509,null), (3948905934944,null), (4299683328628,null), (3269674829118,null), (4525859753378,null), (3953010907670,null), (4496309524046,null), (3972894290374,null), (2392215968414,null), (3954251211548,null), (2703013280820,null), (3398459085874,null), (3970149318340,null), (2848594324617,null), (4298831310580,null), (3299292926118,null), (3053467683141,null), (4280385319846,null), (3451432669914,null), (3998720377522,null), (4493185424948,null), (3914473620606,null), (4284748349254,null), (4038533521320,null), (2825022262571,null), (2797120086285,null), (4398436567876,null), (2520071428002,null), (4049240464442,null), (4000050570876,null), (2737287647644,null), (3760923595512,null), (3941995572546,null), (2906146006045,null), (3898116212056,null), (2931659170602,null), (4375950618814,null), (4269024710554,null), (4354856430832,null), (4315727393056,null), (3688283511920,null), (4314580481212,null), (4317124587694,null), (3145588047209,null), (2854918960412,null), (4444616928574,null), (4265584313938,null), (3946904860670,null), (4045249381760,null), (3121326913495,null), (3768653199862,null), (3774225820970,null), (3348110238944,null), (3716858617860,null), (2992306991409,null), (4241155149334,null), (4063508829914,null), (4039239447066,null), (3985019689016,null), (2987894065731,null), (2973827360307,null), (3946549288278,null), (3863218957802,null), (3141010730501,null), (3410630233902,null), (3936064269088,null), (4037943658094,null), (4052520660926,null), (3586921008588,null), (4333391262790,null), (3414471950630,null), (3508664873590,null), (2968153112081,null), (3371562563062,null), (3984732020952,null), (3490282352178,null), (3795060582582,null), (3988046230128,null), (4297229096070,null), (4230343100994,null), (3323815551626,null), (3821410874164,null), (3116886444429,null), (2851602731602,null), (3888732653924,null), (4480206012050,null), (3975259466574,null), (3168218919180,null), (2801963867959,null), (3934176039976,null), (2698383204197,null), (4088687629682,null), (3159504607914,null), (3769199701050,null), (2357124613990,null), (3733996028002,null), (2800804281890,null), (2962398004808,null), (3730434392000,null), (2508783370633,null), (4045625276292,null), (3507364941946,null), (4300835553034,null), (4304482947300,null), (3421742165490,null), (4023016537508,null), (2956758843648,null), (3352479469196,null), (3524332053678,null), (3265130319938,null), (3726123704706,null), (3677416354290,null), (3006816051239,null), (3444749665572,null), (4074194765466,null), (2782974155165,null), (3659180933520,null), (4061971652242,null), (3897330928832,null), (3732471040626,null), (3831970484140,null), (4311776128610,null), (4089281013930,null), (4478346457894,null), (4296878822128,null), (3938290643480,null), (3780880474762,null), (2818080105861,null), (4652808343322,null), (4171181580164,null), (3988811936690,null), (3933116966006,null), (3579629000874,null), (3567192657452,null), (3867293194948,null), (3542961306778,null), (3435222402428,null), (2924987466784,null), (3156800582596,null), (4004111149866,null), (3971186130162,null), (2811555753361,null), (3708169890950,null), (2696399028883,null), (3986920198524,null), (3202200441714,null), (2973341497029,null), (3922432336386,null), (4165504264400,null), (2847168349090,null), (3434709845798,null), (3989883842032,null), (4054856773296,null), (3276529001828,null), (3872081441056,null), (3854195910688,null), (3316856388644,null), (4216165503350,null), (4311488121948,null), (4245611449690,null), (4318603140530,null), (3714863688832,null), (4022542881978,null), (4322573201726,null), (3969861672094,null), (4277230364286,null), (3437180674846,null), (3457966642472,null), (3343457639536,null), (4238157280270,null), (3890171477338,null), (3688165170208,null), (3934738907956,null), (4234827795970,null), (4051017828004,null), (4538662533230,null), (3796158589666,null), (2787153898200,null), (3951395193452,null), (3126567108235,null), (4277880839420,null), (3421839574836,null), (3002144363137,null), (4129717085326,null), (4053270331708,null), (4146351307162,null), (3835417336762,null), (3783397966260,null), (3738337672966,null), (4156819190760,null), (3088734294372,null), (3971404550102,null), (3407447998526,null), (4139234805928,null), (2916670070325,null), (3888757913242,null), (2887689442133,null), (3971659791548,null), (3255427686036,null), (3933827670234,null), (3496275803936,null), (4302185061734,null), (3147800661818,null), (3486353031264,null), (4316282874016,null), (4038511260562,null), (2781489164719,null), (4211755164590,null), (4227455673788,null), (4070098062074,null), (4227492010322,null), (3003460302357,null), (4006933547422,null), (4413080213824,null), (3950745884412,null), (4341147910728,null), (4224491686306,null), (3777010395046,null), (4287696311482,null), (4185889560562,null), (2917191318627,null), (2768430083316,null), (4154432092972,null), (3271022556262,null), (4299738656658,null), (4044441568042,null), (4262637150616,null), (3990098188672,null), (3945080075508,null), (4230890791766,null), (3424311045224,null), (4102355734970,null), (4307377293322,null), (2843825541250,null), (3110015541208,null), (4165979490128,null), (4256462846586,null), (3936415255504,null), (4163527958724,null), (3952344752696,null), (4289468696488,null), (3317354272418,null), (3485901254680,null), (4040502617494,null), (3500052630082,null), (3318777025134,null), (3400983496838,null), (4002837631474,null), (2749022361292,null), (3414913297942,null), (4330374602606,null), (4016415955678,null), (3649051207014,null), (3945042175724,null), (4066556349086,null), (2972100323703,null), (4829823499416,null), (3817176275322,null), (4235292830350,null), (3809813531570,null), (3911043792410,null), (3168290932568,null), (4079826685072,null), (3993878605580,null), (3398430401650,null), (4330041350148,null), (4224542217028,null), (4222245352620,null), (4388366073528,null), (3446646150622,null), (4046881514394,null), (3897009126318,null), (4299563089420,null), (4367703101156,null), (4149579363766,null), (4023745398222,null), (4093807082372,null), (4122008198716,null), (4069253867362,null), (4281068144198,null), (326</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>QueryTooLargeError</t>
         </is>
       </c>
       <c r="E120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3443,21 +3443,21 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Tried to access metastore after transaction has been committed/aborted</t>
+          <t>line 1:1: mismatched input 'function'. Expecting: 'ALTER', 'ANALYZE', 'CALL', 'COMMENT', 'COMMIT', 'CREATE', 'DEALLOCATE', 'DELETE', 'DENY', 'DESC', 'DESCRIBE', 'DROP', 'EXECUTE', 'EXPLAIN', 'GRANT', 'INSERT', 'MERGE', 'PREPARE', 'REFRESH', 'RESET', 'REVOKE', 'ROLLBACK', 'SET', 'SHOW', 'START', 'TRUNCATE', 'UPDATE', 'USE', &lt;query&gt;</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+          <t>function t() begin select 'test'; end</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -3468,17 +3468,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "19685940"</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>create table rozn2_gp.s_grnplm_ld_rozn_electron_hq_core.pa_pprb_pu_history_t as ( select *, cast('alpha' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_alpha_opf_management.private_service_package_history       union all       select *, cast('beta' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_beta_opf_management.private_service_package_history       union all       select *, cast('delta' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_delta_opf_management.private_service_package_history       union all       select *, cast('gamma' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_gamma_opf_management.private_service_package_history )</t>
+          <t>select *  from k808_rx_hdp.t_team_sberid.tab8</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E122" t="b">
@@ -3493,17 +3493,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_privatebanking_list_client_all_session_detail" as select 	* from k808_rx_hdp.t_team_sva_oarb."42_privatebanking_list_client_all_session_detail"</t>
+          <t>--create table k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi09_itog_proba2" as select  epk_id, operation_ts, pmt_amt, sum(pmt_amt) over(PARTITION BY epk_id order by epk_id,operation_ts) as numer from k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi09_itog"</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E123" t="b">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SELECT * from t_cars_kap.Tolyan_26112024_3</t>
+          <t>---Ответы 2024 CREATE TABLE capgp2_gp.s_grnplm_ld_audit_da_sandbox_oaofr.sao_task_2024 AS (SELECT app_row_id, req_created, task_id, task_finished, task_num, task_answer, task_answer_full, task_text_sol, exp_queue, prev_queue, prev_queue_uber,     req_answer, req_answer_full FROM k808_rx_hdp.t_team_sva_audit_2."40_kaluginvs_appeal_anofl_task_2024")</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3543,21 +3543,21 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Tried to access metastore after transaction has been committed/aborted</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+          <t>SELECT ods_validfrom, ods_opc, product_id, client_id, product_code, product_account, account_open_date, product_type_id, account_close_date, status_id, product_create_date, archive_name, file_name, ctl_pa_loading, ctl_action, ctl_validfrom, ctl_validto, ctl_loading FROM sfd_hdfsgw_hdp.prx_vau_selfservice_sfn_selfservice_ooosberfondynedvizhimosti_sfn.agr</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3568,21 +3568,21 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>line 1:12: Column 'date_end' cannot be resolved</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>select max(date_end) from k808_rx_hdp.prx_55_gev_crm_acq_internal_crm_rb2_siebel.cx_acq_srv_req</t>
+          <t>select * from t_cars_kap.shvets_inv</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>MissingColumnError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -3593,17 +3593,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.Tolyan_26112024_33</t>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_op</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E127" t="b">
@@ -3618,17 +3618,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>line 2:89: mismatched input 'ф'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_rrn_oarbvvb_1542_1777_crd_stream_dc_success_polis" ф</t>
+          <t>select * from t_cars_kap.global_request_2024_v5</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E128" t="b">
@@ -3643,17 +3643,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Query text length (1051638) exceeds the maximum length (1000000)</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>insert into idlist values (24284927820300,date'2023-11-03'), (3540617786182,date'2021-11-10'), (3710951187724,date'2022-02-15'), (10816370250,date'2022-02-15'), (3568401148548,date'2023-04-29'), (2815338303181,date'2022-04-07'), (2076044641381,date'2022-05-18'), (2881075686820,date'2022-02-16'), (4390041699050,date'2023-05-15'), (23037963295200,date'2023-07-27'), (1677625593167,date'2023-02-04'), (4647000523024,date'2023-05-15'), (2544742336610,date'2022-01-25'), (2364268651905,date'2023-04-22'), (12516096640,date'2023-04-22'), (3068488868561,date'2023-04-22'), (3564357179800,date'2023-04-22'), (1475551294291,date'2021-02-05'), (1020181820,date'2021-02-05'), (1446394650682,date'2021-02-05'), (1623441245975,date'2021-06-17'), (1509193737259,date'2021-07-14'), (613042550,date'2021-07-14'), (4164774812823,date'2021-08-11'), (3915128578122,date'2021-08-11'), (4183861410843,date'2021-08-12'), (1053273770,date'2021-08-15'), (1506499157188,date'2021-08-15'), (1544175893089,date'2021-08-26'), (1295840407722,date'2021-08-31'), (502741045,date'2021-08-31'), (2239806204654,date'2021-09-08'), (4569685063215,date'2021-09-20'), (514096348,date'2021-09-29'), (3248590436482,date'2021-09-29'), (4175521923363,date'2021-10-08'), (4174231888699,date'2021-10-14'), (1446410254077,date'2021-10-14'), (1544250503037,date'2021-10-14'), (2427079050,date'2021-11-08'), (2419342924848,date'2021-11-08'), (4569676678567,date'2021-10-31'), (4569691101895,date'2021-10-31'), (4569679565503,date'2021-10-31'), (30645474793,date'2021-03-26'), (37128675549,date'2021-03-26'), (4569235062406,date'2020-12-15'), (4249798913376,date'2020-10-31'), (4243257261543,date'2020-10-31'), (4780893960,date'2020-10-31'), (3031472102027,date'2023-03-17'), (,date'2023-03-17'), (69233176747832,date'2024-04-09'), (4003484653982,date'2024-01-27'), (874447599575,date'2020-12-21'), (1715661970266,date'2020-10-15'), (2602944651863,date'2020-10-15'), (416121296,date'2020-10-15'), (1544206179280,date'2020-11-27'), (1844054940,date'2020-11-27'), (3865509919209,date'2023-04-14'), (3685643598870,date'2022-06-10'), (4522713452990,date'2022-06-10'), (3271433678655,date'2022-11-15'), (3114113706529,date'2022-11-15'), (3109751635170,date'2022-11-15'), (3167919177038,date'2022-11-15'), (3114113706529,date'2022-11-15'), (3109751635170,date'2022-11-15'), (3167919177038,date'2022-11-15'), (19914369425100,date'2024-03-05'), (5269078322874,date'2024-01-18'), (41743416067500,date'2024-01-18'), (2867081933506,date'2024-01-18'), (4834237958596,date'2024-01-18'), (614512667,date'2024-01-18'), (5379429910,date'2024-01-29'), (2705398956451,date'2024-01-29'), (2671416575933,date'2024-03-06'), (4755179622748,date'2024-01-29'), (12358757420,date'2024-01-29'), (4670186275140,date'2024-01-29'), (4249796017704,date'2024-01-29'), (311572994500,date'2024-01-31'), (8803630750,date'2024-01-31'), (2399405273542,date'2024-03-06'), (1759855210,date'2024-03-06'), (3706383595966,date'2024-03-07'), (3077953782212,date'2024-03-05'), (2995853883509,date'2024-03-05'), (3320072801730,date'2022-02-13'), (3008217240071,date'2022-02-13'), (2627195066362,date'2022-02-13'), (485551157,date'2022-02-13'), (2953263192345,date'2024-02-06'), (13838450160,date'2024-02-06'), (3471698486416,date'2024-03-06'), (2601807556389,date'2024-03-05'), (9120511404375,date'2024-03-05'), (2000000010252500,date'2024-03-05'), (1962955979246,date'2024-03-05'), (2000000004720530,date'2024-03-07'), (1398475880774,date'2024-03-07'), (4269385519983,date'2024-03-07'), (4473687431504,date'2024-02-08'), (5029104750,date'2024-02-08'), (,date'2022-01-21'), (2482501040038,date'2022-01-21'), (,date'2022-01-21'), (14026758360,date'2022-01-21'), (3622041150286,date'2024-03-05'), (13040262290,date'2024-03-05'), (3001328617132,date'2024-03-06'), (3661728445374,date'2022-12-22'), (12740205030,date'2022-12-22'), (2831784590969,date'2022-12-22'), (3465658379090,date'2022-12-22'), (1000000000509930,date'2024-03-06'), (5002490040590,date'2024-03-06'), (5440929259734,date'2024-03-06'), (2831852734684,date'2021-11-15'), (9737553253600,date'2024-03-06'), (3991972520,date'2024-03-06'), (3856082204356,date'2024-03-06'), (13701320550,date'2024-03-05'), (2426728070,date'2024-03-05'), (4698873424178,date'2024-03-05'), (2498627085354,date'2024-01-19'), (387601881,date'2024-01-19'), (5306167318094,date'2024-03-07'), (2000000004243500,date'2024-03-07'), (5406097135186,date'2024-03-07'), (12856673420,date'2021-11-16'), (1563495798006,date'2021-11-16'), (3870179484908,date'2024-03-05'), (3796731904808,date'2024-02-05'), (5295264390720,date'2024-02-05'), (1000000007025330,date'2024-02-05'), (4888483758202,date'2024-02-05'), (4233287400,date'2024-03-05'), (2932080286651,date'2024-03-05'), (8992143469100,date'2024-03-05'), (4564068888294,date'2024-03-05'), (3712648493054,date'2024-03-05'), (1938635470,date'2024-03-05'), (2208320974148,date'2024-03-05'), (2913068810473,date'2021-11-11'), (5290490733990,date'2024-03-07'), (9507549634559,date'2024-03-07'), (4369892561964,date'2024-03-07'), (4055065509508,date'2024-03-07'), (2000000004806060,date'2024-03-07'), (2434287214066,date'2021-11-12'), (384943246,date'2021-11-12'), (4221651262120,date'2024-03-07'), (10629089320,date'2024-03-07'), (4542016740440,date'2024-03-07'), (3077151067217,date'2024-03-07'), (7096273345281,date'2021-11-19'), (7253176424246,date'2021-11-19'), (1446307232746,date'2021-11-19'), (2519848129329,date'2021-11-19'), (9164969040,date'2024-01-19'), (4718156461952,date'2024-01-19'), (4999726847294,date'2024-01-19'), (2006283343718,date'2021-11-10'), (439385776,date'2021-11-10'), (3472779018878,date'2024-03-07'), (2186377271375,date'2024-03-07'), (6945381180,date'2024-03-07'), (3806334988814,date'2024-03-07'), (4153869539910,date'2024-03-07'), (3950267651794,date'2024-03-07'), (2000000007106170,date'2024-03-06'), (4020585453186,date'2024-03-06'), (1742108965725,date'2024-03-06'), (4178838024312,date'2021-11-11'), (887429415022,date'2021-11-11'), (3311638782347,date'2021-11-11'), (626848037,date'2021-11-11'), (2510438051887,date'2024-03-06'), (5171723599428,date'2024-03-06'), (4428219982892,date'2024-03-06'), (16259957730,date'2024-03-06'), (3046443097810,date'2024-03-06'), (4620199767374,date'2024-02-01'), (3733303791612,date'2024-02-01'), (3766345147324,date'2024-02-01'), (3843649840430,date'2024-02-01'), (3642063528692,date'2024-02-01'), (3694525546614,date'2024-02-01'), (9996150690,date'2024-02-01'), (3506887911608,date'2024-02-01'), (4980515021508,date'2024-03-06'), (16730515430,date'2024-03-06'), (4806328410934,date'2024-03-06'), (1578560881301,date'2024-03-06'), (1578577768459,date'2024-03-06'), (1578564445905,date'2024-03-06'), (1736358120,date'2024-03-06'), (11813002987000,date'2024-02-06'), (1000000004799460,date'2024-02-06'), (7093875841700,date'2024-02-06'), (583602862,date'2024-01-29'), (3657299433436,date'2024-01-29'), (8421123950,date'2024-03-05'), (3092052788097,date'2024-03-05'), (3855263091812,date'2024-03-05'), (1431456450017,date'2021-11-18'), (1623381196916,date'2024-03-05'), (3032392929012,date'2024-03-05'), (4000000005291770,date'2024-03-05'), (4488388439072,date'2024-03-05'), (4683878157608,date'2024-03-05'), (620358788,date'2024-01-29'), (1623310078951,date'2024-01-29'), (4139960451634,date'2021-11-11'), (3378086476690,date'2021-11-11'), (12308114330,date'2021-11-11'), (3652213627316,date'2021-11-11'), (2984363870646,date'2023-11-13'), (5685707980,date'2023-11-13'), (4227594707881,date'2021-11-02'), (4227586416482,date'2021-11-02'), (46555855255800,date'2024-01-22'), (2000000009800610,date'2024-01-22'), (40180420795700,date'2024-01-22'), (2736427220017,date'2024-01-22'), (43528892014100,date'2024-01-22'), (48495117046631,date'2024-01-22'), (832974080092,date'2023-12-01'), (,date'2023-09-20'), (,date'2023-09-20'), (1577055091960,date'2023-09-20'), (615597603,date'2023-12-04'), (1623011302015,date'2023-12-04'), (,date'2023-12-04'), (,date'2023-12-04'), (8046668224217,date'2023-11-07'), (3490040633402,date'2023-11-07'), (2054509394950,date'2023-11-07'), (3783406080898,date'2023-11-07'), (14028490340,date'2023-11-07'), (3584197590330,date'2023-11-07'), (1779572598406,date'2023-05-10'), (1623450757109,date'2023-02-07'), (1996683113863,date'2020-07-15'), (233230212,date'2020-07-15'), (1623450757109,date'2023-02-07'), (4555183101890,date'2022-01-25'), (4154838010470,date'2023-01-24'), (4163487602194,date'2022-10-21'), (4161699440454,date'2022-10-21'), (3025387819794,date'2021-12-14'), (1605048578246,date'2021-10-19'), (2702159954415,date'2024-06-04'), (192274354,date'2021-12-28'), (2952581533850,date'2021-12-28'), (82052622101,date'2021-12-28'), (4670466082752,date'2023-04-14'), (3867612063966,date'2023-12-06'), (4304186118950,date'2023-11-10'), (4836966772078,date'2024-07-17'), (4466971195444,date'2024-07-17'), (4874557902090,date'2024-06-24'), (4452557553862,date'2024-02-12'), (7161180369100,date'2023-02-11'), (3681544655140,date'2024-07-08'), (10344134056600,date'2024-05-10'), (5339851997882,date'2024-05-13'), (1543924296240,date'2022-09-12'), (2345665281310,date'2024-05-13'), (3614904021228,date'2024-06-26'), (7603720509599,date'2024-10-08'), (7523040400951,date'2024-10-08'), (8173998370945,date'2024-10-08'), (39787704957,date'2023-05-18'), (3329840132273,date'2023-07-14'), (4189543269113,date'2023-07-14'), (4217593640232,date'2023-07-14'), (4113782574778,date'2023-07-14'), (4609894705542,date'2023-05-19'), (1446422427422,date'2021-11-10'), (1776176211275,date'2021-11-10'), (3271619880,date'2021-11-10'), (7450567630,date'2021-11-12'), (2968943591587,date'2021-11-12'), (1623447635524,date'2021-11-12'), (1751123800787,date'2021-11-12'), (2918494542775,date'2021-11-15'), (4160694850512,date'2021-11-15'), (4153859538388,date'2021-11-15'), (3000000006111706,date'2021-11-16'), (1515932853498,date'2021-11-16'), (1578638575185,date'2021-11-16'), (1515999962846,date'2021-11-16'), (8000000005441938,date'2021-11-16'), (1533501866890,date'2021-12-28'), (2674634854539,date'2021-11-16'), (4000000006787560,date'2021-11-16'), (1407579542444,date'2021-11-17'), (1655403880,date'2021-11-17'), (3010175482088,date'2021-11-15'), (1438223288279,date'2021-11-19'), (2620654990,date'2021-11-19'), (1623461822395,date'2021-11-19'), (3038003459795,date'2021-11-19'), (9867051260,date'2021-11-19'), (2981759329249,date'2021-11-19'), (2843024657456,date'2021-11-19'), (2832152946429,date'2021-11-22'), (3522537959168,date'2021-11-22'), (2843678296086,date'2021-11-22'), (7528238903653,date'2021-11-22'), (4000000007836372,date'2021-11-22'), (3104293487190,date'2021-11-22'), (6745908853372,date'2021-11-22'), (6617701410444,date'2021-11-22'), (313818769443,date'2021-11-22'), (3098666270,date'2021-11-22'), (2899291248971,date'2021-11-22'), (2396708204693,date'2021-11-23'), (1578328640614,date'2021-11-23'), (3451368130,date'2021-11-23'), (,date'2021-11-23'), (3073147013703,date'2021-11-23'), (2610102671258,date'2021-11-23'), (2462269382464,date'2021-11-24'), (334453815530,date'2021-11-24'), (,date'2021-11-24'), (,date'2021-11-24'), (1428546229294,date'2021-11-24'), (516097527,date'2021-11-24'), (,date'2021-11-24'), (305974651618,date'2021-11-24'), (44399657686,date'2021-11-24'), (2158266880619,date'2021-11-24'), (1087979390,date'2021-11-25'), (3039406397307,date'2021-11-25'), (2959125911135,date'2021-11-25'), (1544300741249,date'2021-11-25'), (2076273426380,date'2021-11-25'), (1677277855696,date'2021-11-25'), (12926646410,date'2021-11-26'), (2997112171767,date'2021-11-26'), (434197933,date'2021-11-26'), (1714484525396,date'2021-11-26'), (1905100197582,date'2021-11-26'), (2722577966350,date'2021-11-26'), (589347793,date'2021-11-26'), (7129835360302,date'2021-11-26'), (6000000001653717,date'2021-11-26'), (3999033206952,date'2021-11-26'), (2837957383801,date'2021-11-26'), (2996401203393,date'2021-11-29'), (979698340,date'2021-11-29'), (2799008926100,date'2021-11-29'), (1806215904645,date'2021-11-29'), (4218861635606,date'2021-11-29'), (105568821,date'2021-11-29'), (3929039746862,date'2021-11-29'), (2717026102402,date'2021-11-29'), (2811466076240,date'2021-11-29'), (3294226639228,date'2021-11-29'), (4112863539986,date'2021-11-30'), (3591783610,date'2021-11-30'), (3900638052832,date'2021-11-30'), (4569708686335,date'2021-12-01'), (4370733561434,date'2021-12-01'), (3787872448868,date'2021-12-01'), (4090755541026,date'2021-12-01'), (1769232392858,date'2021-12-01'), (13914961860,date'2021-12-01'), (,date'2021-12-02'), (3077240291318,date'2021-12-02'), (8158492360,date'2021-12-02'), (2615486925450,date'2021-12-02'), (10520449710,date'2021-12-02'), (2419189618343,date'2021-12-02'), (8000000006792541,date'2021-12-06'), (7325486072048,date'2021-12-06'), (6341143955552,date'2021-12-06'), (7182126176165,date'2021-12-06'), (7190880421732,date'2021-12-06'), (6897845815317,date'2021-12-06'), (7125574748899,date'2021-12-06'), (7255932405818,date'2021-12-06'), (8000000006632400,date'2021-12-06'), (290429451398,date'2021-12-06'), (2499783150329,date'2021-12-06'), (7000000005575743,date'2021-12-06'), (2352872216492,date'2021-12-06'), (2659014170914,date'2021-12-06'), (2952246084725,date'2021-12-06'), (2231066319211,date'2021-12-06'), (13160855020,date'2021-12-07'), (3000000006561651,date'2021-12-07'), (1568880692730,date'2021-12-07'), (1470003532209,date'2021-12-07'), (4569718048698,date'2021-12-07'), (1000000011218358,date'2021-12-07'), (4569707226485,date'2021-12-07'), (2598422044141,date'2021-12-07'), (1789341532300,date'2021-12-08'), (2000000011735969,date'2021-12-08'), (2492834523438,date'2021-12-08'), (4000000006834961,date'2021-12-08'), (2365513604460,date'2021-12-09'), (3292380290302,date'2021-12-09'), (8000000005658879,date'2021-12-09'), (2828971311489,date'2021-12-09'), (3144505780731,date'2021-12-10'), (6000000002738939,date'2021-12-10'), (1748017581828,date'2021-12-10'), (9326687400,date'2021-12-10'), (2861518320891,date'2021-12-10'), (3939351275086,date'2021-12-10'), (2854719248614,date'2021-12-13'), (2466613937398,date'2021-12-13'), (1578555080378,date'2021-12-14'), (8000000005686457,date'2021-12-14'), (2439666027747,date'2021-12-14'), (2416422192396,date'2021-12-15'), (2485430990048,date'2021-12-15'), (2686472881001,date'2021-12-15'), (4000000006620822,date'2021-12-15'), (459983032,date'2021-12-15'), (1751106667742,date'2021-12-15'), (1751109040624,date'2021-12-15'), (,date'2021-12-15'), (1677078959926,date'2021-12-15'), (2560267620,date'2021-12-15'), (2772607220,date'2021-12-15'), (2948972732324,date'2021-12-15'), (3067925046092,date'2021-12-15'), (197971476394,date'2021-12-15'), (2400603299563,date'2021-12-15'), (1544147983621,date'2021-12-15'), (,date'2021-12-15'), (6000000002837148,date'2021-12-15'), (,date'2021-12-15'), (7429797460,date'2021-12-15'), (2895233412494,date'2021-12-15'), (3131124114711,date'2021-12-15'), (2744556860258,date'2021-12-16'), (4180008810895,date'2021-12-16'), (8000000005618145,date'2021-12-16'), (1622853848584,date'2021-12-16'), (3951076612432,date'2021-12-17'), (3093335690847,date'2021-12-17'), (592540301,date'2021-12-17'), (331585239369,date'2021-12-17'), (1677134188720,date'2021-12-17'), (2768910609144,date'2021-12-17'), (3100598849525,date'2021-12-17'), (2849958848907,date'2021-12-17'), (1544042317271,date'2021-12-17'), (1622833391718,date'2021-12-20'), (,date'2021-12-20'), (1685428494822,date'2021-12-20'), (2635895959032,date'2021-12-20'), (2670371613508,date'2021-12-20'), (2479049268108,date'2021-12-20'), (11577145420,date'2021-12-20'), (1621758412819,date'2021-12-21'), (2230292369550,date'2021-12-22'), (,date'2021-12-22'), (919863610638,date'2021-12-23'), (1400757233343,date'2021-12-23'), (,date'2021-12-23'), (8000000005524348,date'2021-12-23'), (,date'2021-12-23'), (2150461666629,date'2021-12-23'), (,date'2021-12-23'), (,date'2021-12-24'), (,date'2021-12-24'), (2500045439265,date'2021-12-24'), (7429423695972,date'2021-12-24'), (1953343088310,date'2021-12-24'), (3000000006203152,date'2021-12-24'), (6910267306410,date'2021-12-24'), (7429422468710,date'2021-12-24'), (6979150725905,date'2021-12-24'), (2993192399592,date'2021-12-24'), (472887076,date'2021-12-24'), (,date'2021-12-24'), (,date'2021-12-24'), (1515993477633,date'2021-12-24'), (,date'2021-12-24'), (,date'2021-12-24'), (3312556822442,date'2021-12-24'), (6000000002868319,date'2021-12-24'), (5876201753415,date'2021-12-24'), (2549662130643,date'2021-12-24'), (4569703704391,date'2021-12-26'), (1543908399649,date'2021-12-26'), (1543908414433,date'2021-12-26'), (333769519501,date'2021-12-28'), (3000000007523263,date'2021-12-28'), (3969531337328,date'2021-12-28'), (3619443719612,date'2021-12-28'), (4301389212926,date'2021-12-28'), (2793231963947,date'2021-12-29'), (10752477410,date'2021-12-29'), (4106207480,date'2021-12-29'), (1814746560282,date'2021-12-29'), (2000000011782521,date'2021-12-29'), (2350017724856,date'2021-12-29'), (2817539716167,date'2021-12-29'), (6000000002748501,date'2021-12-29'), (2606500281866,date'2021-12-29'), (1000000011287281,date'2021-12-29'), (1991812320960,date'2021-12-29'), (1508790360762,date'2021-12-30'), (715467230,date'2021-12-30'), (2159736198094,date'2021-12-30'), (9934589940,date'2022-01-10'), (2692213806317,date'2022-01-10'), (,date'2022-01-10'), (,date'2022-01-10'), (3245884238816,date'2022-01-10'), (13575337870,date'2022-01-10'), (3003442933175,date'2022-01-10'), (3068794715799,date'2022-01-10'), (1736970289252,date'2022-01-10'), (2773129550,date'2022-01-10'), (3466662605468,date'2022-01-11'), (1494084652990,date'2022-01-11'), (2472611408941,date'2022-01-11'), (3020080391073,date'2022-01-28'), (2557229006637,date'2022-01-12'), (445777298,date'2022-01-12'), (2184482126529,date'2022-01-12'), (1111304011524,date'2022-01-12'), (329724609018,date'2022-01-12'), (2000000011727960,date'2022-01-12'), (9534161420,date'2022-01-12'), (2872495246216,date'2022-01-12'), (5000000002843901,date'2022-01-13'), (1422345330901,date'2022-01-13'), (156314829375,date'2022-01-14'), (528097914,date'2022-01-14'), (1623369954625,date'2022-01-14'), (1514518997358,date'2022-01-14'), (2783937594196,date'2022-01-17'), (3939786930638,date'2022-01-17'), (17747407590,date'2022-01-17'), (3859628651956,date'2022-01-17'), (3013467266135,date'2022-01-17'), (2863952763268,date'2022-01-18'), (,date'2022-01-18'), (8000000005521690,date'2022-01-18'), (6186172560,date'2022-01-19'), (3863457011608,date'2022-01-19'), (3170913767654,date'2022-01-19'), (3117034290298,date'2022-01-19'), (1579645204667,date'2022-01-19'), (,date'2022-01-20'), (,date'2022-01-20'), (,date'2022-01-20'), (,date'2022-01-20'), (2780307144366,date'2022-01-20'), (4190378406042,date'2022-01-21'), (8000000005478587,date'2022-01-21'), (898879172934,date'2022-01-21'), (4273399280682,date'2022-01-21'), (507337224,date'2022-01-21'), (3023464360613,date'2022-01-21'), (2624615076555,date'2022-01-21'), (4266375133712,date'2022-01-21'), (2341991183920,date'2022-01-21'), (2022812915940,date'2022-01-21'), (2444037076208,date'2022-01-21'), (1544144476610,date'2022-01-24'), (1441552358870,date'2022-01-24'), (1441552358870,date'2022-01-24'), (4784180890,date'2022-01-24'), (2069659643812,date'2022-01-24'), (3563120138498,date'2022-01-25'), (7153853740,date'2022-01-25'), (2153976808534,date'2022-01-25'), (1731442243112,date'2022-01-25'), (5109730329864,date'2022-01-25'), (1600448852698,date'2022-01-26'), (7000000005588277,date'2022-01-26'), (1694171371508,date'2022-01-26'), (2630936772105,date'2022-01-26'), (,date'2022-01-27'), (1578567154136,date'2022-01-27'), (4569259572286,date'2022-01-27'), (,date'2022-01-27'), (4569259508828,date'2022-01-27'), (2104601650799,date'2022-01-27'), (,date'2022-01-27'), (2734063171222,date'2022-01-27'), (2662817471183,date'2022-01-27'), (3101762441825,date'2022-01-28'), (3338722484712,date'2022-01-28'), (2195159380,date'2022-01-28'), (4980122337716,date'2022-01-28'), (1594487213515,date'2022-01-28'), (12555428080,date'2022-01-31'), (3871943616170,date'2022-01-31'), (3978803032538,date'2022-01-31'), (3886600865408,date'2022-01-31'), (4000000006496620,date'2022-01-31'), (1676861770296,date'2022-01-31'), (3796927327362,date'2022-01-31'), (3745409311662,date'2022-01-31'), (3142731325225,date'2022-01-31'), (3645307770148,date'2022-01-31'), (3847942933834,date'2022-01-31'), (2850202703503,date'2022-01-31'), (2716560918081,date'2022-01-31'), (1977282509375,date'2022-01-31'), (3098880835799,date'2022-02-01'), (170828330875,date'2022-02-01'), (1927596470682,date'2022-02-02'), (2508284588082,date'2022-02-02'), (10514238730,date'2022-02-02'), (209734358879,date'2022-02-02'), (3000000006100600,date'2022-02-02'), (2151575235789,date'2022-02-02'), (427630497,date'2022-02-03'), (1543925158836,date'2022-02-03'), (1812170631432,date'2022-02-03'), (1623306548242,date'2022-02-03'), (2000000011876938,date'2022-02-03'), (7253802450996,date'2022-02-03'), (7381756315623,date'2022-02-03'), (2973629888452,date'2022-02-03'), (7339928836839,date'2022-02-03'), (7319743010738,date'2022-02-03'), (15022168320,date'2022-02-03'), (3063371280188,date'2022-02-03'), (1657280098981,date'2022-02-03'), (2776670560987,date'2022-02-03'), (3224068447630,date'2022-02-03'), (4760199460,date'2022-02-03'), (2705062067150,date'2022-02-03'), (2113103305442,date'2022-02-03'), (199508422,date'2022-02-04'), (271357995945,date'2022-02-04'), (2656776671294,date'2022-02-04'), (4761894830,date'2022-02-04'), (2741410072548,date'2022-02-04'), (3776787953604,date'2022-02-04'), (1446325730113,date'2022-02-05'), (1446292181840,date'2022-02-05'), (8000000006462207,date'2022-02-05'), (1446307502370,date'2022-02-05'), (1446329175295,date'2022-02-05'), (1446311952129,date'2022-02-05'), (1446299180583,date'2022-02-05'), (1446402525466,date'2022-02-05'), (2828581355034,date'2022-02-07'), (11411711540,date'2022-02-07'), (1944485090,date'2022-02-07'), (1543929699422,date'2022-02-07'), (,date'2022-02-07'), (6336529655174,date'2022-02-07'), (6338769683263,date'2022-02-07'), (6381039332127,date'2022-02-07'), (4000000006681574,date'2022-02-07'), (,date'2022-02-07'), (2658948982978,date'2022-02-07'), (4333420898844,date'2022-02-07'), (4102474064050,date'2022-02-07'), (3766525231936,date'2022-02-07'), (4307997620,date'2022-02-07'), (1622711786638,date'2022-02-07'), (4000000006626232,date'2022-02-07'), (3104475911544,date'2022-02-07'), (2453907849411,date'2022-02-07'), (,date'2022-02-07'), (4569689331315,date'2022-02-07'), (4569685696805,date'2022-02-07'), (4307447867509,date'2022-02-07'), (4307431562241,date'2022-02-07'), (2780492260935,date'2022-02-08'), (3847718175166,date'2022-02-08'), (4431441626450,date'2022-02-08'), (4434927795686,date'2022-02-08'), (4118194420930,date'2022-02-08'), (3066721472623,date'2022-02-08'), (4432624555378,date'2022-02-08'), (5000000002851052,date'2022-02-08'), (3797232751682,date'2022-02-08'), (7407490121543,date'2022-02-08'), (2949269885826,date'2022-02-08'), (,date'2022-02-08'), (1544284691267,date'2022-02-08'), (2668000605852,date'2022-02-08'), (1466833770,date'2022-02-08'), (2987791183420,date'2022-02-09'), (2000000011723384,date'2022-02-09'), (2548397971794,date'2022-02-09'), (4073714070,date'2022-02-09'), (2685484818243,date'2022-02-10'), (13215655920,date'2022-02-10'), (4000000006736383,date'2022-02-10'), (7387451219496,date'2022-02-10'), (278114844263,date'2022-02-10'), (,date'2022-02-10'), (469759192,date'2022-02-10'), (4098512213302,date'2022-02-10'), (2926327510333,date'2022-02-10'), (4107307937250,date'2022-02-10'), (1528681149943,date'2022-02-10'), (4103642001154,date'2022-02-10'), (3997006910708,date'2022-02-10'), (6928766398812,date'2022-02-10'), (3018310428004,date'2022-02-10'), (1622959075399,date'2022-02-10'), (4129398715314,date'2022-02-10'), (6196381342079,date'2022-02-10'), (3294506223366,date'2022-02-10'), (3412410784424,date'2022-02-10'), (3506458154684,date'2022-02-10'), (6992987880,date'2022-02-10'), (4436354179566,date'2022-02-10'), (5000000002777523,date'2022-02-10'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (3431796811284,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (7000000005425805,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (4207524566858,date'2022-02-11'), (3343651485608,date'2022-02-11'), (4319193283908,date'2022-02-11'), (4455587522724,date'2022-02-11'), (4506717093674,date'2022-02-11'), (4495089724704,date'2022-02-11'), (1544297139603,date'2022-02-11'), (7465363930,date'2022-02-11'), (885024362378,date'2022-02-12'), (890886764615,date'2022-02-12'), (420303845,date'2022-02-12'), (197292582,date'2022-02-12'), (2681476345877,date'2022-02-12'), (4350849804320,date'2022-02-12'), (3820694534762,date'2022-02-12'), (2921306837373,date'2022-02-14'), (3048657952646,date'2022-02-14'), (2468496653920,date'2022-02-14'), (3147203636210,date'2022-02-14'), (2400831213231,date'2022-02-15'), (3296866298312,date'2022-02-16'), (3110001256513,date'2022-02-16'), (3214236644788,date'2022-02-16'), (1093529270,date'2022-02-16'), (3359783762422,date'2022-02-16'), (3489627107020,date'2022-02-16'), (4164990825674,date'2022-02-16'), (1000000000370935,date'2022-02-17'), (3037181046970,date'2022-02-17'), (4300484303968,date'2022-02-17'), (16079950300,date'2022-02-17'), (1623369954625,date'2022-02-17'), (3037839723622,date'2022-02-18'), (3145807563446,date'2022-02-18'), (614678234,date'2022-02-18'), (1431386595856,date'2022-02-18'), (2719877841589,date'2022-02-19'), (3535606652454,date'2022-02-19'), (2895718477592,date'2022-02-19'), (3712211992212,date'2022-02-19'), (,date'2022-02-19'), (1663087385367,date'2022-02-19'), (2635741204394,date'2022-02-19'), (2840278443452,date'2022-02-20'), (2903605337376,date'2022-02-20'), (6000000002886179,date'2022-02-20'), (2716807328609,date'2022-02-20'), (4336145957450,date'2022-02-20'), (4448760185062,date'2022-02-20'), (3301170953144,date'2022-02-20'), (1465322151551,date'2022-02-20'), (1492876698130,date'2022-02-20'), (3924443758166,date'2022-02-20'), (10733195500,date'2022-02-20'), (3000000006422539,date'2022-02-21'), (2928353479280,date'2022-02-21'), (2837984084492,date'2022-02-21'), (4255763714178,date'2022-02-21'), (2481338113743,date'2022-02-21'), (3105419235100,date'2022-02-22'), (1942649605871,date'2022-02-22'), (5289607102748,date'2022-02-22'), (3264635212230,date'2022-02-22'), (3023737609304,date'2022-02-22'), (11347340470,date'2022-02-22'), (3116791405093,date'2022-02-22'), (7184447492441,date'2022-02-24'), (3174826377024,date'2022-02-24'), (3343175048232,date'2022-02-24'), (1000000011210761,date'2022-02-24'), (8471115828023,date'2022-02-24'), (2907502586682,date'2022-02-24'), (3459476197978,date'2022-02-24'), (4000000006698463,date'2022-02-24'), (1571375368727,date'2022-02-24'), (616133521,date'2022-02-24'), (2827871071577,date'2022-02-24'), (2439187415280,date'2022-02-24'), (3850069614472,date'2022-02-24'), (3306184664928,date'2022-02-24'), (1959401664754,date'2022-02-24'), (1767085296685,date'2022-02-25'), (6074470720,date'2022-02-25'), (1477968420,date'2022-02-25'), (1766259827709,date'2022-02-25'), (2365586667780,date'2022-02-25'), (40737905907400,date'2022-02-25'), (2639371699973,date'2022-02-26'), (6779087100,date'2022-02-26'), (2596631299448,date'2022-02-26'), (8794232980,date'2022-02-26'), (4020981096952,date'2022-02-26'), (1016566700,date'2022-02-28'), (1476397080261,date'2022-02-28'), (1767085296685,date'2022-02-28'), (914738905853,date'2022-03-01'), (5000000002774093,date'2022-03-01'), (180661729351,date'2022-03-01'), (8000000005731773,date'2022-03-01'), (1971587994313,date'2022-03-01'), (1542502158135,date'2022-03-01'), (2670377065207,date'2022-03-30'), (6102989000,date'2022-03-01'), (2205212722237,date'2022-03-01'), (2479754672414,date'2022-03-01'), (4424288105734,date'2022-03-02'), (4378921423006,date'2022-03-02'), (2081646631908,date'2022-03-03'), (3310809410,date'2022-03-03'), (1631927436791,date'2022-03-03'), (2571608629956,date'2022-03-04'), (3610240306908,date'2022-03-04'), (4537457032192,date'2022-03-04'), (3105913130670,date'2022-03-04'), (7000000005946145,date'2022-03-04'), (311930773259,date'2022-03-04'), (13219858690,date'2022-03-05'), (2832948010865,date'2022-03-05'), (3267715907964,date'2022-03-05'), (1578511060150,date'2022-03-05'), (3955417656636,date'2022-03-05'), (2765334757454,date'2022-03-05'), (736350160,date'2022-03-05'), (2934323836529,date'2022-03-05'), (3015806912708,date'2022-03-05'), (4133751474730,date'2022-03-05'), (3945088215598,date'2022-03-05'), (3987404499992,date'2022-03-05'), (16215347250,date'2022-03-05'), (2435349045783,date'2022-03-06'), (278114844263,date'2022-03-07'), (7216865416278,date'2022-03-07'), (6842476206830,date'2022-03-07'), (1543924460,date'2022-03-07'), (6000000002810229,date'2022-03-09'), (2779384522649,date'2022-03-09'), (1911096055820,date'2022-03-10'), (211132836,date'2022-03-10'), (4221363759222,date'2022-03-10'), (1677203301346,date'2022-03-10'), (,date'2022-03-10'), (2582216783435,date'2022-03-10'), (1198328040,date'2022-03-10'), (4314969121946,date'2022-03-11'), (2779875472484,date'2022-03-11'), (2576724013347,date'2022-03-11'), (7276633619534,date'2022-03-14'), (15101472770,date'2022-03-14'), (2743349619819,date'2022-03-14'), (1825970501329,date'2022-03-14'), (1426864833741,date'2022-03-14'), (1476352208281,date'2022-03-14'), (4604655296256,date'2022-03-15'), (4603827663570,date'2022-03-15'), (891208260178,date'2022-03-15'), (299131428,date'2022-03-15'), (2974887100813,date'2022-03-15'), (1000000011202175,date'2022-03-15'), (6000000002756192,date'2022-03-15'), (5236310349046,date'2022-03-15'), (,date'2022-03-16'), (,date'2022-03-16'), (3683797723052,date'2022-03-16'), (1623218931019,date'2022-03-17'), (14682615560,date'2022-03-17'), (2974749622286,date'2022-03-17'), (3099723204335,date'2022-03-17'), (1720923231861,date'2022-03-17'), (7000000005859196,date'2022-03-17'), (1932387575213,date'2022-03-17'), (1515978382451,date'2022-03-17'), (1677044912548,date'2022-03-17'), (1705352135386,date'2022-03-17'), (5535969710,date'2022-03-17'), (3764011343046,date'2022-03-17'), (3716897461358,date'2022-03-17'), (3557110768768,date'2022-03-17'), (3913354977996,date'2022-03-17'), (3857041122032,date'2022-03-17'), (3817020410138,date'2022-03-17'), (2921188937323,date'2022-03-17'), (13561680210,date'2022-03-17'), (10174687000,date'2022-03-18'), (2325079169012,date'2022-03-18'), (1630717174545,date'2022-03-18'), (2486767840,date'2022-03-18'), (3118352106919,date'2022-03-21'), (4235702676578,date'2022-03-21'), (4137360592150,date'2022-03-21'), (1578475871254,date'2022-03-21'), (2855875104890,date'2022-03-21'), (2297544152161,date'2022-03-21'), (8000000005397317,date'2022-03-21'), (2178772142284,date'2022-03-21'), (11646844540,date'2022-03-21'), (3127448422668,date'2022-03-21'), (546460097,date'2022-03-21'), (2707158229601,date'2022-03-21'), (,date'2022-03-21'), (2806016147428,date'2022-03-21'), (267598241637,date'2022-03-21'), (,date'2022-03-21'), (3440000776820,date'2022-03-21'), (3648905601790,date'2022-03-21'), (3941983330794,date'2022-03-21'), (3581248431766,date'2022-03-21'), (1945312870,date'2022-03-21'), (1578341346033,date'2022-03-21'), (5000000003504152,date'2022-03-21'), (2834524625353,date'2022-03-21'), (2668082908253,date'2022-03-21'), (3911933089236,date'2022-03-24'), (4390431271828,date'2022-03-24'), (4436751091228,date'2022-03-24'), (4070764749040,date'2022-03-24'), (9326639310,date'2022-03-24'), (891018394699,date'2022-03-22'), (4138036402348,date'2022-03-22'), (4204837591526,date'2022-03-22'), (3047533649306,date'2022-03-22'), (4000000006675769,date'2022-03-22'), (3115012337393,date'2022-03-22'), (1594300130146,date'2022-03-22'), (3046664280420,date'2022-03-22'), (2617970946746,date'2022-03-22'), (13215211420,date'2022-03-22'), (2794015529634,date'2022-03-22'), (2368153486949,date'2022-03-22'), (,date'2022-03-22'), (2931086213199,date'2022-03-22'), (1622846545155,date'2022-03-22'), (4116406755858,date'2022-03-22'), (2135020992406,date'2022-03-23'), (2049236096348,date'2022-03-23'), (2225606458226,date'2022-03-23'), (161858202,date'2022-03-23'), (3599767913556,date'2022-03-23'), (2703969577336,date'2022-03-24'), (3136317597836,date'2022-03-24'), (3000000006157345,date'2022-03-24'), (2466169779380,date'2022-03-24'), (5315964250,date'2022-03-24'), (1623186164241,date'2022-03-24'), (2629001201653,date'2022-03-24'), (5000000003083473,date'2022-03-24'), (,date'2022-03-24'), (,date'2022-03-25'), (3020960667144,date'2022-03-25'), (,date'2022-03-25'), (2958076886452,date'2022-03-25'), (1570467056884,date'2022-03-25'), (2845514292956,date'2022-03-25'), (4431012807614,date'2022-03-25'), (,date'2022-03-25'), (4000000006701356,date'2022-03-25'), (1578490253575,date'2022-03-26'), (1578512938041,date'2022-03-26'), (1578552551209,date'2022-03-26'), (8000000005539577,da</t>
+          <t>select * from t_cars_kap.global_request_2024_v4</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>QueryTooLargeError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E129" t="b">
@@ -3668,21 +3668,21 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>line 2:6: Schema 'arnsdpsbx_t_team_sva_oarb' does not exist</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>select* from k808_rx_hdp.arnsdpsbx_t_team_sva_oarb."40_pev_mkk_obr_191224_part_2" limit 10</t>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_op</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>MissingSchemaError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3693,17 +3693,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>line 1:33: mismatched input ')'. Expecting: 'AS'</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>select max(cast(creation_date_dd) as date) from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_efs_old"</t>
+          <t>select * from   em_pay_history_oper order by ac desc,id,c_date</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E131" t="b">
@@ -3718,21 +3718,21 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Failed to list directory: hdfs://hdfsgw/arnsdpxdata__zzvukk-DZO_OOOZVUK_RB-CLTV_USERS/data/core/dzo/ooozvuk_rb/pa/snp/cltv_users/ctl_loading=43229322</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM (select * from k808_rx_hdp.prx_55_sai_custom_rb_card_custom_rb_card."scd_card_union" ) dbvrcnt</t>
+          <t>SELECT * FROM k808_rx_hdp.prx_zzvukk_dzo_ooozvuk_rb.cltv_users</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3743,21 +3743,21 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>line 1:1: Destination table 'capgp3_gp.s_grnplm_ld_audit_da_emitent.42_pb1_divrstat_session_detail' already exists</t>
+          <t>Could not communicate with the remote task. The node may have crashed or be under too much load. This is probably a transient issue, so please retry your query in a few minutes. (pvlos-ldtrn0002.cloud.df.sbrf.ru:8443)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" as SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>select cust.client_name, doc_serial, doc_number, client_birth_day, claim_number, claim_date_time, claim_type_name, product_type_name,product_type_name_full from k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.cust as cust  join  k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.agr as agr on cust.client_id = agr.client_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.appl as appl  on agr.product_id = appl.product_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.prod as prod on appl.product_type_id = prod.product_type_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.appltype as appltype  on appl.claim_type_id = appltype.claim_type_id</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>ObjectAlreadyExistsError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3768,17 +3768,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" as SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>select cust.client_name, doc_serial, doc_number, client_birth_day, claim_number, claim_date_time, claim_type_name, product_type_name,product_type_name_full from k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.cust as cust  join  k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.agr as agr on cust.client_id = agr.client_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.appl as appl  on agr.product_id = appl.product_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.prod as prod on appl.product_type_id = prod.product_type_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.appltype as appltype  on appl.claim_type_id = appltype.claim_type_id</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E134" t="b">
@@ -3793,21 +3793,21 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Current transaction is aborted, commands ignored until end of transaction block</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.prx_kap_prime_dzo_epfb2c_sprm.subscription</t>
+          <t>select * from em_tmp3</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3818,17 +3818,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>insert  	into 	capgp2_gp.s_grnplm_ld_audit_da_sandbox_oarb.s_gp_ivakhnovs_appeal_2024 select 	* from 	k808_rx_hdp.t_team_sva_oarb."40_ivakhnovs_appeal_full_2024"</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E136" t="b">
@@ -3843,17 +3843,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb4_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>select *  from t_team_sva_audit_2.t38_siv_02_11_24__1095__25__adding_request_id_current_id_and_prev_from_rq_main_and_use_case_from_tsmr</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E137" t="b">
@@ -3868,17 +3868,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>line 3:196: mismatched input 'б'. Expecting: ',', 'EXCEPT', 'FETCH', 'FROM', 'GROUP', 'HAVING', 'INTERSECT', 'LIMIT', 'OFFSET', 'ORDER', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>select   try_cast(replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') as decimal(32,2)) sumaб n.sms_text from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2" n</t>
+          <t>SELECT * FROM t_team_sva_audit_2.t38_siv_02_11_24__1095__26__only_prod_parameters__on_current_id_2</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E138" t="b">
@@ -3893,12 +3893,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>line 1:40: mismatched input '&lt;EOF&gt;'. Expecting: ')'</t>
+          <t>line 1:22: mismatched input 'date'. Expecting: ')', ','</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>select position('(\d+)' in 'fhg4jfh125'</t>
+          <t>select ('2024-11-19' date) as p1</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3918,17 +3918,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>line 1:72: mismatched input '('. Expecting: 'IF', &lt;identifier&gt;</t>
+          <t>Query exceeded distributed user memory limit of 27GB</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>alter table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics add column( select video_origination_list  from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend )</t>
+          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_hd_atm_host_oper_240208_nrt_atmhost_operations.atmhost_operations ORDER BY body_sesstartdt</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E140" t="b">
@@ -3943,12 +3943,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>line 26:1: mismatched input ')'. Expecting: '%', '*', '+', ',', '-', '.', '/', 'AND', 'AT', 'EXCEPT', 'FETCH', 'INTERSECT', 'LIMIT', 'OFFSET', 'OR', 'ORDER', 'UNION', '[', '||', &lt;EOF&gt;, &lt;predicate&gt;</t>
+          <t>line 3:1: mismatched input ','. Expecting: 'FROM'</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>insert into clist values ('C22928284',date'2024-01-21'), ('C54828516',date'2024-01-12'), ('C132776421',date'2024-01-18'), ('C45653488',date'2024-01-18'), ('C129179074',date'2024-01-24'), ('C35104445',date'2024-01-24'), ('C91963364',date'2024-01-24'), ('C13092638',date'2024-04-16'), ('C90332826',date'2024-01-25'), ('C111755880',date'2024-01-09'), ('C109891736',date'2024-01-26'), ('C125106118',date'2024-01-29'), ('C83116463',date'2024-01-29'), ('C139020419',date'2024-01-29'), ('C33698274',date'2024-01-29'), ('C5364134',date'2024-01-29'), ('C141046547',date'2024-01-30'), ('C16270447',date'2024-01-30'), ('C55289243',date'2024-01-30'), ('C138519942',date'2024-01-30'), ('C105970003',date'2024-01-31'), ('C115592010',date'2024-01-31'), ('C125057534',date'2024-02-14'), ('C129801742',date'2024-01-31') )  select c.ceshka,c.dt,dmc.client_id,dma.account_id,dca.client_role_id from   clist                         l join   prx_kalita_otchetnaya_1_internal_kalita_report_kalita_gg.dm_client         dmc on dmc.client_ext_id=l.ceshka join   prx_kalita_otchetnaya_1_internal_kalita_report_kalita_gg.dm_client_account dca on dca.client_id=dmc.client_id and dca.client_role_id in (1,2)</t>
+          <t>select date_parse(trim(substring('abc_zakupkigovru_beginner_20240118_092653_001.json', strpos('abc_zakupkigovru_beginner_20240118_092653_001.json', 'beginner_') + 9), '.json'), '%Y%m%d_%H%i%s%a'  select strpos('abc_zakupkigovru_beginner_20240118_092653_001.json', 'beginner_') + 9</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3968,17 +3968,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb4_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr as  select * from capgp2_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E142" t="b">
@@ -3993,21 +3993,21 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>line 10:1: mismatched input 'from'. Expecting: '*', &lt;expression&gt;</t>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "07735561"</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>select first_value (c.tb) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS tb, first_value (c.osb) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS osb, first_value (c.vsp) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS vsp, c.docnumber, c.name, first_value (c.openingdate) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS openingdate, first_value (c.closingdate) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS closingdate,  from t_cars_kap.vklad_close</t>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr  select * from capgp2_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>TooManyConnectionsError</t>
         </is>
       </c>
       <c r="E143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -4018,17 +4018,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics  as select user_id, play_start_dttm, play_duration_sec, subscription_uid, serial_name, video_origination_list   from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend</t>
+          <t>select count(*) from sfd_gpgw_gp.prx_trino_testv2_kap818_epk_s_grnplm_as_t_didsd_069_vd__3cl.t_cust_org_idfn_19274933_view</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E144" t="b">
@@ -4043,21 +4043,21 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>line 1:35: Column 'app_status' cannot be resolved</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics  as select user_id, play_start_dttm, play_duration_sec, subscription_uid, serial_name, video_origination_list   from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend</t>
+          <t>select request_id, count(distinct app_status) from k808_rx_hdp.t_team_sva_oarb."55_gsd_ts_result_main_temp_epk_dec_3" group by request_id</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>MissingColumnError</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -4068,21 +4068,21 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
+          <t>Partition location does not exist: hdfs://arnsdpsbx/user/team/team_curus_dm/datamart/pa/dm04_operations_history/timestampcolumn=2024-07-23</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер%в сумме%' then split((split(sms_text,' в сумме')[1]),'на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
+          <t>SELECT timestampcolumn, count(*) FROM k808_rx_hdp.t_team_curus_dm.dm04_operations_history  group by timestampcolumn</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>TypeError</t>
+          <t>MissingObjectError</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -4093,17 +4093,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
+          <t>line 1:8: mismatched input 'select'. Expecting: '*', 'ALL', 'DISTINCT', &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер % в сумме%' then split((split(sms_text,' в сумме')[1]),'на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
+          <t>select select request_id, count(distinct app_status) from sfd_hdfsgw_hdp.prx_55_gse_risk_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.t_st_main  group by request_id</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>TypeError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E147" t="b">
@@ -4118,17 +4118,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер % в сумме%' then split((split(sms_text,' в сумме')[1]),'Автоплатёж на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
+          <t>select * from t_cars_kap.k_automaticoperations</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>TypeError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E148" t="b">
@@ -4143,21 +4143,21 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Tried to access metastore after transaction has been committed/aborted</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."p_vp_sb_pk_and_pt_pi_pr_pp" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp"</t>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -4168,21 +4168,21 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Value cannot be cast to date: 2023-10-28 16:23:37</t>
+          <t>Tried to access metastore after transaction has been committed/aborted</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>select c.sbercrm_alpha_id, c.offer_status, CAST(c.created_date AS date) AS created_date, date_parse(updated_date, '%Y-%m-%d %H:%i:%s') AS updated_date     from  k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer  c   limit 10</t>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>CastError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -4193,21 +4193,21 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Value cannot be cast to date: 2023-10-28 16:23:37</t>
+          <t>Tried to access metastore after transaction has been committed/aborted</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>select c.sbercrm_alpha_id, c.offer_status, CAST(c.created_date AS date) AS created_date, date_parse(updated_date, '%Y-%m-%d %H:%i:%s') AS updated_date     from  k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer  c   limit 10</t>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>CastError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -4218,21 +4218,21 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Tried to access metastore after transaction has been committed/aborted</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."p_vp_sb_pk_and_pt_pi_pr_pp" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp"</t>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_op2</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded distributed user memory limit of 27GB</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp_two_ac" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp_two_ac"</t>
+          <t>with cte_1 as ( select distinct a.* from t_team_sva_audit_2.t38_siv_19_11_24__1141__02__eps_pmt_for_november_2024__white_cluster a  ) select 'Уникальных строк', count(*) from cte_1</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4268,21 +4268,21 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Could not communicate with the remote task. The node may have crashed or be under too much load. This is probably a transient issue, so please retry your query in a few minutes. (pvlos-ldtrn0002.cloud.df.sbrf.ru:8443)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_cxdata.gptable_test3 as select * from sfd_gpgw_gp.prx_trino_sbb_test_v1_s_grnplm_vd_rozn_mpp_daas_h_6fu.ft_sbol_csa_token_ahd_view</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi_1_id_mega" as  select distinct a.epk_id, a.operation_ts_dat, CRD_OTF_TRNF_ORG_RUB_AMT, CRD_OTF_TRNF_PERS_RUB_AMT from k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi_1_id" a join sfd_hdfsgw_hdp.prx_42_gulynin_mega_1_custom_rozn_client_aggr.ft_client_aggr_mnth b on a.epk_id=b.epk_id and date(b.report_dt)=last_day_of_month(a.operation_ts_dat) and b.report_dt='2024-07-31'</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -4293,12 +4293,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Could not communicate with the remote task. The node may have crashed or be under too much load. This is probably a transient issue, so please retry your query in a few minutes. (pvlos-ldtrn0002.cloud.df.sbrf.ru:8443)</t>
+          <t>Tried to access metastore after transaction has been committed/aborted</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_agreement a 	inner join k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_tst t on (t.agreement_short_foreign_key=a.id) order by accountnumber limit 10</t>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4318,17 +4318,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>line 3:6: Table 'sfd_hdfsgw_hdp.prx_lazarev_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.scd_stoplist' does not exist</t>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "19685940"</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_lazarev_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.scd_stoplist limit 100</t>
+          <t>create table rozn2_gp.s_grnplm_ld_rozn_electron_hq_core.pa_pprb_pu_history_t as ( select *, cast('alpha' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_alpha_opf_management.private_service_package_history       union all       select *, cast('beta' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_beta_opf_management.private_service_package_history       union all       select *, cast('delta' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_delta_opf_management.private_service_package_history       union all       select *, cast('gamma' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_gamma_opf_management.private_service_package_history )</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>MissingObjectError</t>
+          <t>TooManyConnectionsError</t>
         </is>
       </c>
       <c r="E156" t="b">
@@ -4343,17 +4343,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_project_12."42_zay_kf_kk_" select  * from k808_rx_hdp.t_team_sva_oarb."01889660_1701_zay_tran_kk_rz_st"</t>
+          <t>create table rozn2_gp.s_grnplm_ld_rozn_electron_hq_core.pa_pprb_pu_history_t_beta as (       select *, cast('beta' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_beta_opf_management.private_service_package_history)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E157" t="b">
@@ -4368,17 +4368,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>line 2:33: mismatched input '.42'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb.42_rrn_oarbvvb_1542_1897_base limit 100</t>
+          <t>select * from capgp3_gp.s_grnplm_ld_audit_da_emitent."42_privatebanking_list_client_all_session"</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E158" t="b">
@@ -4393,17 +4393,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>line 23:1: mismatched input 'from'. Expecting: '*', &lt;expression&gt;</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>select udate_v, case 	 		when length(time_v)=6 then time_v 		when length(time_v)=5 then concat('0',time_v) 		when length(time_v)=4 then concat('00',time_v) 		when length(time_v)=3 then concat('000',time_v) 		when length(time_v)=2 then concat('0000',time_v) 		when length(time_v)=1 then concat('00000',time_v) 	end time_v, case 	 		when length(switch_date_v)=6 then switch_date_v 		when length(switch_date_v)=5 then concat('0',switch_date_v) end  switch_date_v, case 	 		when length(switch_time_v)=6 then switch_time_v 		when length(switch_time_v)=5 then concat('0',switch_time_v) 		when length(switch_time_v)=4 then concat('00',switch_time_v) 		when length(switch_time_v)=3 then concat('000',switch_time_v) 		when length(switch_time_v)=2 then concat('0000',switch_time_v) 		when length(switch_time_v)=1 then concat('00000',switch_time_v) 	end switch_time_v, from ( select  cast(cast(udateas bigint) as varchar) udate_v, cast(cast(time as bigint) as varchar) time_v, cast(cast(switch_date as bigint) as varchar) switch_date_v, cast(cast(switch_time as bigint) as varchar) switch_time_v from k808_rx_hdp.t_team_sva_oarb."42_lyubi_transport_resp_sv") sv</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_privatebanking_list_client_all_session_detail" as select 	* from k808_rx_hdp.t_team_sva_oarb."42_privatebanking_list_client_all_session_detail"</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E159" t="b">
@@ -4418,17 +4418,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb" as  select * from k808_rx_hdp.t_team_sva_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb"</t>
+          <t>select * from sfd_hdfsgw_hdp.prx_55_gsd_cod_km55_gsd_cod_km_custom_risk_cod_income.t_income</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E160" t="b">
@@ -4443,17 +4443,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "21608829"</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb" as  select * from k808_rx_hdp.t_team_sva_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb"</t>
+          <t>SELECT * from t_cars_kap.Tolyan_26112024_3</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E161" t="b">
@@ -4468,17 +4468,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Query exceeded per-node memory limit of 10GB [Allocated: 9.99GB, Delta: 9.33MB, Top Consumers: {HashAggregationOperator=9.94GB, ExchangeOperator=43.04MB, LazyOutputBuffer=10.79MB}]</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>select  	array_agg(covrd_risk_name),  	prod_module_name from k808_rx_hdp.prx_55_lys_ub_base_custom_fin_dmmidub.t_base_policy_insrbl_covrg_feat group by prod_module_name  limit 1</t>
+          <t>select *  		from sfd_hdfsgw_hdp.prx_hd_dm_curus_custom_salesntwrk_curusds.dm07_cassettes_history</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E162" t="b">
@@ -4493,21 +4493,21 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Tried to access metastore after transaction has been committed/aborted</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."55_grin_credit_decl_db" as ( 	SELECT * 	FROM k808_rx_hdp.t_team_sva_oarb."55_grin_credit_requests_full_new_cl" c 		left join k808_rx_hdp.t_team_sva_oarb."55_osa_z_decl_on_get_cred_for_liza" d 		on (c.app_number = d."z_decl_on_get_cred%c_num_decl" or c.app_number = d."z_decl_on_get_cred%c_tab_number") 	)</t>
+          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -4518,21 +4518,21 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>line 2:1: mismatched input 'FROM'. Expecting: 'ALTER', 'ANALYZE', 'CALL', 'COMMENT', 'COMMIT', 'CREATE', 'DEALLOCATE', 'DELETE', 'DENY', 'DESC', 'DESCRIBE', 'DROP', 'EXECUTE', 'EXPLAIN', 'GRANT', 'INSERT', 'MERGE', 'PREPARE', 'REFRESH', 'RESET', 'REVOKE', 'ROLLBACK', 'SET', 'SHOW', 'START', 'TRUNCATE', 'UPDATE', 'USE', &lt;query&gt;</t>
+          <t>line 1:12: Column 'date_end' cannot be resolved</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>FROM k808_rx_hdp.a</t>
+          <t>select max(date_end) from k808_rx_hdp.prx_55_gev_crm_acq_internal_crm_rb2_siebel.cx_acq_srv_req</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>MissingColumnError</t>
         </is>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -4543,21 +4543,21 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>line 2:7: Schema 'arnsdpsbx_t_team_compliance_prototype' does not exist</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>select *  from k808_rx_hdp.arnsdpsbx_t_team_compliance_prototype.t_tab</t>
+          <t>select * from t_cars_kap.Tolyan_26112024_33</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>MissingSchemaError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -4568,17 +4568,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Query exceeded the maximum execution time limit of 120.00s</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi_1_ito"</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E166" t="b">
@@ -4593,21 +4593,21 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>line 2:89: mismatched input 'ф'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>select * FROM sfd_hdfsgw_hdp.prx_pprb_platform_masspay_platform_masspay.com_sbt_salary_mp_entities_list_element_masspaymentrosterlistelement limit 100</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_rrn_oarbvvb_1542_1777_crd_stream_dc_success_polis" ф</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -4618,21 +4618,21 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Query text length (1051638) exceeds the maximum length (1000000)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_03406946_omega_sbrf_ru.v_is0929_raskovalov limit 10</t>
+          <t>insert into idlist values (24284927820300,date'2023-11-03'), (3540617786182,date'2021-11-10'), (3710951187724,date'2022-02-15'), (10816370250,date'2022-02-15'), (3568401148548,date'2023-04-29'), (2815338303181,date'2022-04-07'), (2076044641381,date'2022-05-18'), (2881075686820,date'2022-02-16'), (4390041699050,date'2023-05-15'), (23037963295200,date'2023-07-27'), (1677625593167,date'2023-02-04'), (4647000523024,date'2023-05-15'), (2544742336610,date'2022-01-25'), (2364268651905,date'2023-04-22'), (12516096640,date'2023-04-22'), (3068488868561,date'2023-04-22'), (3564357179800,date'2023-04-22'), (1475551294291,date'2021-02-05'), (1020181820,date'2021-02-05'), (1446394650682,date'2021-02-05'), (1623441245975,date'2021-06-17'), (1509193737259,date'2021-07-14'), (613042550,date'2021-07-14'), (4164774812823,date'2021-08-11'), (3915128578122,date'2021-08-11'), (4183861410843,date'2021-08-12'), (1053273770,date'2021-08-15'), (1506499157188,date'2021-08-15'), (1544175893089,date'2021-08-26'), (1295840407722,date'2021-08-31'), (502741045,date'2021-08-31'), (2239806204654,date'2021-09-08'), (4569685063215,date'2021-09-20'), (514096348,date'2021-09-29'), (3248590436482,date'2021-09-29'), (4175521923363,date'2021-10-08'), (4174231888699,date'2021-10-14'), (1446410254077,date'2021-10-14'), (1544250503037,date'2021-10-14'), (2427079050,date'2021-11-08'), (2419342924848,date'2021-11-08'), (4569676678567,date'2021-10-31'), (4569691101895,date'2021-10-31'), (4569679565503,date'2021-10-31'), (30645474793,date'2021-03-26'), (37128675549,date'2021-03-26'), (4569235062406,date'2020-12-15'), (4249798913376,date'2020-10-31'), (4243257261543,date'2020-10-31'), (4780893960,date'2020-10-31'), (3031472102027,date'2023-03-17'), (,date'2023-03-17'), (69233176747832,date'2024-04-09'), (4003484653982,date'2024-01-27'), (874447599575,date'2020-12-21'), (1715661970266,date'2020-10-15'), (2602944651863,date'2020-10-15'), (416121296,date'2020-10-15'), (1544206179280,date'2020-11-27'), (1844054940,date'2020-11-27'), (3865509919209,date'2023-04-14'), (3685643598870,date'2022-06-10'), (4522713452990,date'2022-06-10'), (3271433678655,date'2022-11-15'), (3114113706529,date'2022-11-15'), (3109751635170,date'2022-11-15'), (3167919177038,date'2022-11-15'), (3114113706529,date'2022-11-15'), (3109751635170,date'2022-11-15'), (3167919177038,date'2022-11-15'), (19914369425100,date'2024-03-05'), (5269078322874,date'2024-01-18'), (41743416067500,date'2024-01-18'), (2867081933506,date'2024-01-18'), (4834237958596,date'2024-01-18'), (614512667,date'2024-01-18'), (5379429910,date'2024-01-29'), (2705398956451,date'2024-01-29'), (2671416575933,date'2024-03-06'), (4755179622748,date'2024-01-29'), (12358757420,date'2024-01-29'), (4670186275140,date'2024-01-29'), (4249796017704,date'2024-01-29'), (311572994500,date'2024-01-31'), (8803630750,date'2024-01-31'), (2399405273542,date'2024-03-06'), (1759855210,date'2024-03-06'), (3706383595966,date'2024-03-07'), (3077953782212,date'2024-03-05'), (2995853883509,date'2024-03-05'), (3320072801730,date'2022-02-13'), (3008217240071,date'2022-02-13'), (2627195066362,date'2022-02-13'), (485551157,date'2022-02-13'), (2953263192345,date'2024-02-06'), (13838450160,date'2024-02-06'), (3471698486416,date'2024-03-06'), (2601807556389,date'2024-03-05'), (9120511404375,date'2024-03-05'), (2000000010252500,date'2024-03-05'), (1962955979246,date'2024-03-05'), (2000000004720530,date'2024-03-07'), (1398475880774,date'2024-03-07'), (4269385519983,date'2024-03-07'), (4473687431504,date'2024-02-08'), (5029104750,date'2024-02-08'), (,date'2022-01-21'), (2482501040038,date'2022-01-21'), (,date'2022-01-21'), (14026758360,date'2022-01-21'), (3622041150286,date'2024-03-05'), (13040262290,date'2024-03-05'), (3001328617132,date'2024-03-06'), (3661728445374,date'2022-12-22'), (12740205030,date'2022-12-22'), (2831784590969,date'2022-12-22'), (3465658379090,date'2022-12-22'), (1000000000509930,date'2024-03-06'), (5002490040590,date'2024-03-06'), (5440929259734,date'2024-03-06'), (2831852734684,date'2021-11-15'), (9737553253600,date'2024-03-06'), (3991972520,date'2024-03-06'), (3856082204356,date'2024-03-06'), (13701320550,date'2024-03-05'), (2426728070,date'2024-03-05'), (4698873424178,date'2024-03-05'), (2498627085354,date'2024-01-19'), (387601881,date'2024-01-19'), (5306167318094,date'2024-03-07'), (2000000004243500,date'2024-03-07'), (5406097135186,date'2024-03-07'), (12856673420,date'2021-11-16'), (1563495798006,date'2021-11-16'), (3870179484908,date'2024-03-05'), (3796731904808,date'2024-02-05'), (5295264390720,date'2024-02-05'), (1000000007025330,date'2024-02-05'), (4888483758202,date'2024-02-05'), (4233287400,date'2024-03-05'), (2932080286651,date'2024-03-05'), (8992143469100,date'2024-03-05'), (4564068888294,date'2024-03-05'), (3712648493054,date'2024-03-05'), (1938635470,date'2024-03-05'), (2208320974148,date'2024-03-05'), (2913068810473,date'2021-11-11'), (5290490733990,date'2024-03-07'), (9507549634559,date'2024-03-07'), (4369892561964,date'2024-03-07'), (4055065509508,date'2024-03-07'), (2000000004806060,date'2024-03-07'), (2434287214066,date'2021-11-12'), (384943246,date'2021-11-12'), (4221651262120,date'2024-03-07'), (10629089320,date'2024-03-07'), (4542016740440,date'2024-03-07'), (3077151067217,date'2024-03-07'), (7096273345281,date'2021-11-19'), (7253176424246,date'2021-11-19'), (1446307232746,date'2021-11-19'), (2519848129329,date'2021-11-19'), (9164969040,date'2024-01-19'), (4718156461952,date'2024-01-19'), (4999726847294,date'2024-01-19'), (2006283343718,date'2021-11-10'), (439385776,date'2021-11-10'), (3472779018878,date'2024-03-07'), (2186377271375,date'2024-03-07'), (6945381180,date'2024-03-07'), (3806334988814,date'2024-03-07'), (4153869539910,date'2024-03-07'), (3950267651794,date'2024-03-07'), (2000000007106170,date'2024-03-06'), (4020585453186,date'2024-03-06'), (1742108965725,date'2024-03-06'), (4178838024312,date'2021-11-11'), (887429415022,date'2021-11-11'), (3311638782347,date'2021-11-11'), (626848037,date'2021-11-11'), (2510438051887,date'2024-03-06'), (5171723599428,date'2024-03-06'), (4428219982892,date'2024-03-06'), (16259957730,date'2024-03-06'), (3046443097810,date'2024-03-06'), (4620199767374,date'2024-02-01'), (3733303791612,date'2024-02-01'), (3766345147324,date'2024-02-01'), (3843649840430,date'2024-02-01'), (3642063528692,date'2024-02-01'), (3694525546614,date'2024-02-01'), (9996150690,date'2024-02-01'), (3506887911608,date'2024-02-01'), (4980515021508,date'2024-03-06'), (16730515430,date'2024-03-06'), (4806328410934,date'2024-03-06'), (1578560881301,date'2024-03-06'), (1578577768459,date'2024-03-06'), (1578564445905,date'2024-03-06'), (1736358120,date'2024-03-06'), (11813002987000,date'2024-02-06'), (1000000004799460,date'2024-02-06'), (7093875841700,date'2024-02-06'), (583602862,date'2024-01-29'), (3657299433436,date'2024-01-29'), (8421123950,date'2024-03-05'), (3092052788097,date'2024-03-05'), (3855263091812,date'2024-03-05'), (1431456450017,date'2021-11-18'), (1623381196916,date'2024-03-05'), (3032392929012,date'2024-03-05'), (4000000005291770,date'2024-03-05'), (4488388439072,date'2024-03-05'), (4683878157608,date'2024-03-05'), (620358788,date'2024-01-29'), (1623310078951,date'2024-01-29'), (4139960451634,date'2021-11-11'), (3378086476690,date'2021-11-11'), (12308114330,date'2021-11-11'), (3652213627316,date'2021-11-11'), (2984363870646,date'2023-11-13'), (5685707980,date'2023-11-13'), (4227594707881,date'2021-11-02'), (4227586416482,date'2021-11-02'), (46555855255800,date'2024-01-22'), (2000000009800610,date'2024-01-22'), (40180420795700,date'2024-01-22'), (2736427220017,date'2024-01-22'), (43528892014100,date'2024-01-22'), (48495117046631,date'2024-01-22'), (832974080092,date'2023-12-01'), (,date'2023-09-20'), (,date'2023-09-20'), (1577055091960,date'2023-09-20'), (615597603,date'2023-12-04'), (1623011302015,date'2023-12-04'), (,date'2023-12-04'), (,date'2023-12-04'), (8046668224217,date'2023-11-07'), (3490040633402,date'2023-11-07'), (2054509394950,date'2023-11-07'), (3783406080898,date'2023-11-07'), (14028490340,date'2023-11-07'), (3584197590330,date'2023-11-07'), (1779572598406,date'2023-05-10'), (1623450757109,date'2023-02-07'), (1996683113863,date'2020-07-15'), (233230212,date'2020-07-15'), (1623450757109,date'2023-02-07'), (4555183101890,date'2022-01-25'), (4154838010470,date'2023-01-24'), (4163487602194,date'2022-10-21'), (4161699440454,date'2022-10-21'), (3025387819794,date'2021-12-14'), (1605048578246,date'2021-10-19'), (2702159954415,date'2024-06-04'), (192274354,date'2021-12-28'), (2952581533850,date'2021-12-28'), (82052622101,date'2021-12-28'), (4670466082752,date'2023-04-14'), (3867612063966,date'2023-12-06'), (4304186118950,date'2023-11-10'), (4836966772078,date'2024-07-17'), (4466971195444,date'2024-07-17'), (4874557902090,date'2024-06-24'), (4452557553862,date'2024-02-12'), (7161180369100,date'2023-02-11'), (3681544655140,date'2024-07-08'), (10344134056600,date'2024-05-10'), (5339851997882,date'2024-05-13'), (1543924296240,date'2022-09-12'), (2345665281310,date'2024-05-13'), (3614904021228,date'2024-06-26'), (7603720509599,date'2024-10-08'), (7523040400951,date'2024-10-08'), (8173998370945,date'2024-10-08'), (39787704957,date'2023-05-18'), (3329840132273,date'2023-07-14'), (4189543269113,date'2023-07-14'), (4217593640232,date'2023-07-14'), (4113782574778,date'2023-07-14'), (4609894705542,date'2023-05-19'), (1446422427422,date'2021-11-10'), (1776176211275,date'2021-11-10'), (3271619880,date'2021-11-10'), (7450567630,date'2021-11-12'), (2968943591587,date'2021-11-12'), (1623447635524,date'2021-11-12'), (1751123800787,date'2021-11-12'), (2918494542775,date'2021-11-15'), (4160694850512,date'2021-11-15'), (4153859538388,date'2021-11-15'), (3000000006111706,date'2021-11-16'), (1515932853498,date'2021-11-16'), (1578638575185,date'2021-11-16'), (1515999962846,date'2021-11-16'), (8000000005441938,date'2021-11-16'), (1533501866890,date'2021-12-28'), (2674634854539,date'2021-11-16'), (4000000006787560,date'2021-11-16'), (1407579542444,date'2021-11-17'), (1655403880,date'2021-11-17'), (3010175482088,date'2021-11-15'), (1438223288279,date'2021-11-19'), (2620654990,date'2021-11-19'), (1623461822395,date'2021-11-19'), (3038003459795,date'2021-11-19'), (9867051260,date'2021-11-19'), (2981759329249,date'2021-11-19'), (2843024657456,date'2021-11-19'), (2832152946429,date'2021-11-22'), (3522537959168,date'2021-11-22'), (2843678296086,date'2021-11-22'), (7528238903653,date'2021-11-22'), (4000000007836372,date'2021-11-22'), (3104293487190,date'2021-11-22'), (6745908853372,date'2021-11-22'), (6617701410444,date'2021-11-22'), (313818769443,date'2021-11-22'), (3098666270,date'2021-11-22'), (2899291248971,date'2021-11-22'), (2396708204693,date'2021-11-23'), (1578328640614,date'2021-11-23'), (3451368130,date'2021-11-23'), (,date'2021-11-23'), (3073147013703,date'2021-11-23'), (2610102671258,date'2021-11-23'), (2462269382464,date'2021-11-24'), (334453815530,date'2021-11-24'), (,date'2021-11-24'), (,date'2021-11-24'), (1428546229294,date'2021-11-24'), (516097527,date'2021-11-24'), (,date'2021-11-24'), (305974651618,date'2021-11-24'), (44399657686,date'2021-11-24'), (2158266880619,date'2021-11-24'), (1087979390,date'2021-11-25'), (3039406397307,date'2021-11-25'), (2959125911135,date'2021-11-25'), (1544300741249,date'2021-11-25'), (2076273426380,date'2021-11-25'), (1677277855696,date'2021-11-25'), (12926646410,date'2021-11-26'), (2997112171767,date'2021-11-26'), (434197933,date'2021-11-26'), (1714484525396,date'2021-11-26'), (1905100197582,date'2021-11-26'), (2722577966350,date'2021-11-26'), (589347793,date'2021-11-26'), (7129835360302,date'2021-11-26'), (6000000001653717,date'2021-11-26'), (3999033206952,date'2021-11-26'), (2837957383801,date'2021-11-26'), (2996401203393,date'2021-11-29'), (979698340,date'2021-11-29'), (2799008926100,date'2021-11-29'), (1806215904645,date'2021-11-29'), (4218861635606,date'2021-11-29'), (105568821,date'2021-11-29'), (3929039746862,date'2021-11-29'), (2717026102402,date'2021-11-29'), (2811466076240,date'2021-11-29'), (3294226639228,date'2021-11-29'), (4112863539986,date'2021-11-30'), (3591783610,date'2021-11-30'), (3900638052832,date'2021-11-30'), (4569708686335,date'2021-12-01'), (4370733561434,date'2021-12-01'), (3787872448868,date'2021-12-01'), (4090755541026,date'2021-12-01'), (1769232392858,date'2021-12-01'), (13914961860,date'2021-12-01'), (,date'2021-12-02'), (3077240291318,date'2021-12-02'), (8158492360,date'2021-12-02'), (2615486925450,date'2021-12-02'), (10520449710,date'2021-12-02'), (2419189618343,date'2021-12-02'), (8000000006792541,date'2021-12-06'), (7325486072048,date'2021-12-06'), (6341143955552,date'2021-12-06'), (7182126176165,date'2021-12-06'), (7190880421732,date'2021-12-06'), (6897845815317,date'2021-12-06'), (7125574748899,date'2021-12-06'), (7255932405818,date'2021-12-06'), (8000000006632400,date'2021-12-06'), (290429451398,date'2021-12-06'), (2499783150329,date'2021-12-06'), (7000000005575743,date'2021-12-06'), (2352872216492,date'2021-12-06'), (2659014170914,date'2021-12-06'), (2952246084725,date'2021-12-06'), (2231066319211,date'2021-12-06'), (13160855020,date'2021-12-07'), (3000000006561651,date'2021-12-07'), (1568880692730,date'2021-12-07'), (1470003532209,date'2021-12-07'), (4569718048698,date'2021-12-07'), (1000000011218358,date'2021-12-07'), (4569707226485,date'2021-12-07'), (2598422044141,date'2021-12-07'), (1789341532300,date'2021-12-08'), (2000000011735969,date'2021-12-08'), (2492834523438,date'2021-12-08'), (4000000006834961,date'2021-12-08'), (2365513604460,date'2021-12-09'), (3292380290302,date'2021-12-09'), (8000000005658879,date'2021-12-09'), (2828971311489,date'2021-12-09'), (3144505780731,date'2021-12-10'), (6000000002738939,date'2021-12-10'), (1748017581828,date'2021-12-10'), (9326687400,date'2021-12-10'), (2861518320891,date'2021-12-10'), (3939351275086,date'2021-12-10'), (2854719248614,date'2021-12-13'), (2466613937398,date'2021-12-13'), (1578555080378,date'2021-12-14'), (8000000005686457,date'2021-12-14'), (2439666027747,date'2021-12-14'), (2416422192396,date'2021-12-15'), (2485430990048,date'2021-12-15'), (2686472881001,date'2021-12-15'), (4000000006620822,date'2021-12-15'), (459983032,date'2021-12-15'), (1751106667742,date'2021-12-15'), (1751109040624,date'2021-12-15'), (,date'2021-12-15'), (1677078959926,date'2021-12-15'), (2560267620,date'2021-12-15'), (2772607220,date'2021-12-15'), (2948972732324,date'2021-12-15'), (3067925046092,date'2021-12-15'), (197971476394,date'2021-12-15'), (2400603299563,date'2021-12-15'), (1544147983621,date'2021-12-15'), (,date'2021-12-15'), (6000000002837148,date'2021-12-15'), (,date'2021-12-15'), (7429797460,date'2021-12-15'), (2895233412494,date'2021-12-15'), (3131124114711,date'2021-12-15'), (2744556860258,date'2021-12-16'), (4180008810895,date'2021-12-16'), (8000000005618145,date'2021-12-16'), (1622853848584,date'2021-12-16'), (3951076612432,date'2021-12-17'), (3093335690847,date'2021-12-17'), (592540301,date'2021-12-17'), (331585239369,date'2021-12-17'), (1677134188720,date'2021-12-17'), (2768910609144,date'2021-12-17'), (3100598849525,date'2021-12-17'), (2849958848907,date'2021-12-17'), (1544042317271,date'2021-12-17'), (1622833391718,date'2021-12-20'), (,date'2021-12-20'), (1685428494822,date'2021-12-20'), (2635895959032,date'2021-12-20'), (2670371613508,date'2021-12-20'), (2479049268108,date'2021-12-20'), (11577145420,date'2021-12-20'), (1621758412819,date'2021-12-21'), (2230292369550,date'2021-12-22'), (,date'2021-12-22'), (919863610638,date'2021-12-23'), (1400757233343,date'2021-12-23'), (,date'2021-12-23'), (8000000005524348,date'2021-12-23'), (,date'2021-12-23'), (2150461666629,date'2021-12-23'), (,date'2021-12-23'), (,date'2021-12-24'), (,date'2021-12-24'), (2500045439265,date'2021-12-24'), (7429423695972,date'2021-12-24'), (1953343088310,date'2021-12-24'), (3000000006203152,date'2021-12-24'), (6910267306410,date'2021-12-24'), (7429422468710,date'2021-12-24'), (6979150725905,date'2021-12-24'), (2993192399592,date'2021-12-24'), (472887076,date'2021-12-24'), (,date'2021-12-24'), (,date'2021-12-24'), (1515993477633,date'2021-12-24'), (,date'2021-12-24'), (,date'2021-12-24'), (3312556822442,date'2021-12-24'), (6000000002868319,date'2021-12-24'), (5876201753415,date'2021-12-24'), (2549662130643,date'2021-12-24'), (4569703704391,date'2021-12-26'), (1543908399649,date'2021-12-26'), (1543908414433,date'2021-12-26'), (333769519501,date'2021-12-28'), (3000000007523263,date'2021-12-28'), (3969531337328,date'2021-12-28'), (3619443719612,date'2021-12-28'), (4301389212926,date'2021-12-28'), (2793231963947,date'2021-12-29'), (10752477410,date'2021-12-29'), (4106207480,date'2021-12-29'), (1814746560282,date'2021-12-29'), (2000000011782521,date'2021-12-29'), (2350017724856,date'2021-12-29'), (2817539716167,date'2021-12-29'), (6000000002748501,date'2021-12-29'), (2606500281866,date'2021-12-29'), (1000000011287281,date'2021-12-29'), (1991812320960,date'2021-12-29'), (1508790360762,date'2021-12-30'), (715467230,date'2021-12-30'), (2159736198094,date'2021-12-30'), (9934589940,date'2022-01-10'), (2692213806317,date'2022-01-10'), (,date'2022-01-10'), (,date'2022-01-10'), (3245884238816,date'2022-01-10'), (13575337870,date'2022-01-10'), (3003442933175,date'2022-01-10'), (3068794715799,date'2022-01-10'), (1736970289252,date'2022-01-10'), (2773129550,date'2022-01-10'), (3466662605468,date'2022-01-11'), (1494084652990,date'2022-01-11'), (2472611408941,date'2022-01-11'), (3020080391073,date'2022-01-28'), (2557229006637,date'2022-01-12'), (445777298,date'2022-01-12'), (2184482126529,date'2022-01-12'), (1111304011524,date'2022-01-12'), (329724609018,date'2022-01-12'), (2000000011727960,date'2022-01-12'), (9534161420,date'2022-01-12'), (2872495246216,date'2022-01-12'), (5000000002843901,date'2022-01-13'), (1422345330901,date'2022-01-13'), (156314829375,date'2022-01-14'), (528097914,date'2022-01-14'), (1623369954625,date'2022-01-14'), (1514518997358,date'2022-01-14'), (2783937594196,date'2022-01-17'), (3939786930638,date'2022-01-17'), (17747407590,date'2022-01-17'), (3859628651956,date'2022-01-17'), (3013467266135,date'2022-01-17'), (2863952763268,date'2022-01-18'), (,date'2022-01-18'), (8000000005521690,date'2022-01-18'), (6186172560,date'2022-01-19'), (3863457011608,date'2022-01-19'), (3170913767654,date'2022-01-19'), (3117034290298,date'2022-01-19'), (1579645204667,date'2022-01-19'), (,date'2022-01-20'), (,date'2022-01-20'), (,date'2022-01-20'), (,date'2022-01-20'), (2780307144366,date'2022-01-20'), (4190378406042,date'2022-01-21'), (8000000005478587,date'2022-01-21'), (898879172934,date'2022-01-21'), (4273399280682,date'2022-01-21'), (507337224,date'2022-01-21'), (3023464360613,date'2022-01-21'), (2624615076555,date'2022-01-21'), (4266375133712,date'2022-01-21'), (2341991183920,date'2022-01-21'), (2022812915940,date'2022-01-21'), (2444037076208,date'2022-01-21'), (1544144476610,date'2022-01-24'), (1441552358870,date'2022-01-24'), (1441552358870,date'2022-01-24'), (4784180890,date'2022-01-24'), (2069659643812,date'2022-01-24'), (3563120138498,date'2022-01-25'), (7153853740,date'2022-01-25'), (2153976808534,date'2022-01-25'), (1731442243112,date'2022-01-25'), (5109730329864,date'2022-01-25'), (1600448852698,date'2022-01-26'), (7000000005588277,date'2022-01-26'), (1694171371508,date'2022-01-26'), (2630936772105,date'2022-01-26'), (,date'2022-01-27'), (1578567154136,date'2022-01-27'), (4569259572286,date'2022-01-27'), (,date'2022-01-27'), (4569259508828,date'2022-01-27'), (2104601650799,date'2022-01-27'), (,date'2022-01-27'), (2734063171222,date'2022-01-27'), (2662817471183,date'2022-01-27'), (3101762441825,date'2022-01-28'), (3338722484712,date'2022-01-28'), (2195159380,date'2022-01-28'), (4980122337716,date'2022-01-28'), (1594487213515,date'2022-01-28'), (12555428080,date'2022-01-31'), (3871943616170,date'2022-01-31'), (3978803032538,date'2022-01-31'), (3886600865408,date'2022-01-31'), (4000000006496620,date'2022-01-31'), (1676861770296,date'2022-01-31'), (3796927327362,date'2022-01-31'), (3745409311662,date'2022-01-31'), (3142731325225,date'2022-01-31'), (3645307770148,date'2022-01-31'), (3847942933834,date'2022-01-31'), (2850202703503,date'2022-01-31'), (2716560918081,date'2022-01-31'), (1977282509375,date'2022-01-31'), (3098880835799,date'2022-02-01'), (170828330875,date'2022-02-01'), (1927596470682,date'2022-02-02'), (2508284588082,date'2022-02-02'), (10514238730,date'2022-02-02'), (209734358879,date'2022-02-02'), (3000000006100600,date'2022-02-02'), (2151575235789,date'2022-02-02'), (427630497,date'2022-02-03'), (1543925158836,date'2022-02-03'), (1812170631432,date'2022-02-03'), (1623306548242,date'2022-02-03'), (2000000011876938,date'2022-02-03'), (7253802450996,date'2022-02-03'), (7381756315623,date'2022-02-03'), (2973629888452,date'2022-02-03'), (7339928836839,date'2022-02-03'), (7319743010738,date'2022-02-03'), (15022168320,date'2022-02-03'), (3063371280188,date'2022-02-03'), (1657280098981,date'2022-02-03'), (2776670560987,date'2022-02-03'), (3224068447630,date'2022-02-03'), (4760199460,date'2022-02-03'), (2705062067150,date'2022-02-03'), (2113103305442,date'2022-02-03'), (199508422,date'2022-02-04'), (271357995945,date'2022-02-04'), (2656776671294,date'2022-02-04'), (4761894830,date'2022-02-04'), (2741410072548,date'2022-02-04'), (3776787953604,date'2022-02-04'), (1446325730113,date'2022-02-05'), (1446292181840,date'2022-02-05'), (8000000006462207,date'2022-02-05'), (1446307502370,date'2022-02-05'), (1446329175295,date'2022-02-05'), (1446311952129,date'2022-02-05'), (1446299180583,date'2022-02-05'), (1446402525466,date'2022-02-05'), (2828581355034,date'2022-02-07'), (11411711540,date'2022-02-07'), (1944485090,date'2022-02-07'), (1543929699422,date'2022-02-07'), (,date'2022-02-07'), (6336529655174,date'2022-02-07'), (6338769683263,date'2022-02-07'), (6381039332127,date'2022-02-07'), (4000000006681574,date'2022-02-07'), (,date'2022-02-07'), (2658948982978,date'2022-02-07'), (4333420898844,date'2022-02-07'), (4102474064050,date'2022-02-07'), (3766525231936,date'2022-02-07'), (4307997620,date'2022-02-07'), (1622711786638,date'2022-02-07'), (4000000006626232,date'2022-02-07'), (3104475911544,date'2022-02-07'), (2453907849411,date'2022-02-07'), (,date'2022-02-07'), (4569689331315,date'2022-02-07'), (4569685696805,date'2022-02-07'), (4307447867509,date'2022-02-07'), (4307431562241,date'2022-02-07'), (2780492260935,date'2022-02-08'), (3847718175166,date'2022-02-08'), (4431441626450,date'2022-02-08'), (4434927795686,date'2022-02-08'), (4118194420930,date'2022-02-08'), (3066721472623,date'2022-02-08'), (4432624555378,date'2022-02-08'), (5000000002851052,date'2022-02-08'), (3797232751682,date'2022-02-08'), (7407490121543,date'2022-02-08'), (2949269885826,date'2022-02-08'), (,date'2022-02-08'), (1544284691267,date'2022-02-08'), (2668000605852,date'2022-02-08'), (1466833770,date'2022-02-08'), (2987791183420,date'2022-02-09'), (2000000011723384,date'2022-02-09'), (2548397971794,date'2022-02-09'), (4073714070,date'2022-02-09'), (2685484818243,date'2022-02-10'), (13215655920,date'2022-02-10'), (4000000006736383,date'2022-02-10'), (7387451219496,date'2022-02-10'), (278114844263,date'2022-02-10'), (,date'2022-02-10'), (469759192,date'2022-02-10'), (4098512213302,date'2022-02-10'), (2926327510333,date'2022-02-10'), (4107307937250,date'2022-02-10'), (1528681149943,date'2022-02-10'), (4103642001154,date'2022-02-10'), (3997006910708,date'2022-02-10'), (6928766398812,date'2022-02-10'), (3018310428004,date'2022-02-10'), (1622959075399,date'2022-02-10'), (4129398715314,date'2022-02-10'), (6196381342079,date'2022-02-10'), (3294506223366,date'2022-02-10'), (3412410784424,date'2022-02-10'), (3506458154684,date'2022-02-10'), (6992987880,date'2022-02-10'), (4436354179566,date'2022-02-10'), (5000000002777523,date'2022-02-10'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (3431796811284,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (7000000005425805,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (4207524566858,date'2022-02-11'), (3343651485608,date'2022-02-11'), (4319193283908,date'2022-02-11'), (4455587522724,date'2022-02-11'), (4506717093674,date'2022-02-11'), (4495089724704,date'2022-02-11'), (1544297139603,date'2022-02-11'), (7465363930,date'2022-02-11'), (885024362378,date'2022-02-12'), (890886764615,date'2022-02-12'), (420303845,date'2022-02-12'), (197292582,date'2022-02-12'), (2681476345877,date'2022-02-12'), (4350849804320,date'2022-02-12'), (3820694534762,date'2022-02-12'), (2921306837373,date'2022-02-14'), (3048657952646,date'2022-02-14'), (2468496653920,date'2022-02-14'), (3147203636210,date'2022-02-14'), (2400831213231,date'2022-02-15'), (3296866298312,date'2022-02-16'), (3110001256513,date'2022-02-16'), (3214236644788,date'2022-02-16'), (1093529270,date'2022-02-16'), (3359783762422,date'2022-02-16'), (3489627107020,date'2022-02-16'), (4164990825674,date'2022-02-16'), (1000000000370935,date'2022-02-17'), (3037181046970,date'2022-02-17'), (4300484303968,date'2022-02-17'), (16079950300,date'2022-02-17'), (1623369954625,date'2022-02-17'), (3037839723622,date'2022-02-18'), (3145807563446,date'2022-02-18'), (614678234,date'2022-02-18'), (1431386595856,date'2022-02-18'), (2719877841589,date'2022-02-19'), (3535606652454,date'2022-02-19'), (2895718477592,date'2022-02-19'), (3712211992212,date'2022-02-19'), (,date'2022-02-19'), (1663087385367,date'2022-02-19'), (2635741204394,date'2022-02-19'), (2840278443452,date'2022-02-20'), (2903605337376,date'2022-02-20'), (6000000002886179,date'2022-02-20'), (2716807328609,date'2022-02-20'), (4336145957450,date'2022-02-20'), (4448760185062,date'2022-02-20'), (3301170953144,date'2022-02-20'), (1465322151551,date'2022-02-20'), (1492876698130,date'2022-02-20'), (3924443758166,date'2022-02-20'), (10733195500,date'2022-02-20'), (3000000006422539,date'2022-02-21'), (2928353479280,date'2022-02-21'), (2837984084492,date'2022-02-21'), (4255763714178,date'2022-02-21'), (2481338113743,date'2022-02-21'), (3105419235100,date'2022-02-22'), (1942649605871,date'2022-02-22'), (5289607102748,date'2022-02-22'), (3264635212230,date'2022-02-22'), (3023737609304,date'2022-02-22'), (11347340470,date'2022-02-22'), (3116791405093,date'2022-02-22'), (7184447492441,date'2022-02-24'), (3174826377024,date'2022-02-24'), (3343175048232,date'2022-02-24'), (1000000011210761,date'2022-02-24'), (8471115828023,date'2022-02-24'), (2907502586682,date'2022-02-24'), (3459476197978,date'2022-02-24'), (4000000006698463,date'2022-02-24'), (1571375368727,date'2022-02-24'), (616133521,date'2022-02-24'), (2827871071577,date'2022-02-24'), (2439187415280,date'2022-02-24'), (3850069614472,date'2022-02-24'), (3306184664928,date'2022-02-24'), (1959401664754,date'2022-02-24'), (1767085296685,date'2022-02-25'), (6074470720,date'2022-02-25'), (1477968420,date'2022-02-25'), (1766259827709,date'2022-02-25'), (2365586667780,date'2022-02-25'), (40737905907400,date'2022-02-25'), (2639371699973,date'2022-02-26'), (6779087100,date'2022-02-26'), (2596631299448,date'2022-02-26'), (8794232980,date'2022-02-26'), (4020981096952,date'2022-02-26'), (1016566700,date'2022-02-28'), (1476397080261,date'2022-02-28'), (1767085296685,date'2022-02-28'), (914738905853,date'2022-03-01'), (5000000002774093,date'2022-03-01'), (180661729351,date'2022-03-01'), (8000000005731773,date'2022-03-01'), (1971587994313,date'2022-03-01'), (1542502158135,date'2022-03-01'), (2670377065207,date'2022-03-30'), (6102989000,date'2022-03-01'), (2205212722237,date'2022-03-01'), (2479754672414,date'2022-03-01'), (4424288105734,date'2022-03-02'), (4378921423006,date'2022-03-02'), (2081646631908,date'2022-03-03'), (3310809410,date'2022-03-03'), (1631927436791,date'2022-03-03'), (2571608629956,date'2022-03-04'), (3610240306908,date'2022-03-04'), (4537457032192,date'2022-03-04'), (3105913130670,date'2022-03-04'), (7000000005946145,date'2022-03-04'), (311930773259,date'2022-03-04'), (13219858690,date'2022-03-05'), (2832948010865,date'2022-03-05'), (3267715907964,date'2022-03-05'), (1578511060150,date'2022-03-05'), (3955417656636,date'2022-03-05'), (2765334757454,date'2022-03-05'), (736350160,date'2022-03-05'), (2934323836529,date'2022-03-05'), (3015806912708,date'2022-03-05'), (4133751474730,date'2022-03-05'), (3945088215598,date'2022-03-05'), (3987404499992,date'2022-03-05'), (16215347250,date'2022-03-05'), (2435349045783,date'2022-03-06'), (278114844263,date'2022-03-07'), (7216865416278,date'2022-03-07'), (6842476206830,date'2022-03-07'), (1543924460,date'2022-03-07'), (6000000002810229,date'2022-03-09'), (2779384522649,date'2022-03-09'), (1911096055820,date'2022-03-10'), (211132836,date'2022-03-10'), (4221363759222,date'2022-03-10'), (1677203301346,date'2022-03-10'), (,date'2022-03-10'), (2582216783435,date'2022-03-10'), (1198328040,date'2022-03-10'), (4314969121946,date'2022-03-11'), (2779875472484,date'2022-03-11'), (2576724013347,date'2022-03-11'), (7276633619534,date'2022-03-14'), (15101472770,date'2022-03-14'), (2743349619819,date'2022-03-14'), (1825970501329,date'2022-03-14'), (1426864833741,date'2022-03-14'), (1476352208281,date'2022-03-14'), (4604655296256,date'2022-03-15'), (4603827663570,date'2022-03-15'), (891208260178,date'2022-03-15'), (299131428,date'2022-03-15'), (2974887100813,date'2022-03-15'), (1000000011202175,date'2022-03-15'), (6000000002756192,date'2022-03-15'), (5236310349046,date'2022-03-15'), (,date'2022-03-16'), (,date'2022-03-16'), (3683797723052,date'2022-03-16'), (1623218931019,date'2022-03-17'), (14682615560,date'2022-03-17'), (2974749622286,date'2022-03-17'), (3099723204335,date'2022-03-17'), (1720923231861,date'2022-03-17'), (7000000005859196,date'2022-03-17'), (1932387575213,date'2022-03-17'), (1515978382451,date'2022-03-17'), (1677044912548,date'2022-03-17'), (1705352135386,date'2022-03-17'), (5535969710,date'2022-03-17'), (3764011343046,date'2022-03-17'), (3716897461358,date'2022-03-17'), (3557110768768,date'2022-03-17'), (3913354977996,date'2022-03-17'), (3857041122032,date'2022-03-17'), (3817020410138,date'2022-03-17'), (2921188937323,date'2022-03-17'), (13561680210,date'2022-03-17'), (10174687000,date'2022-03-18'), (2325079169012,date'2022-03-18'), (1630717174545,date'2022-03-18'), (2486767840,date'2022-03-18'), (3118352106919,date'2022-03-21'), (4235702676578,date'2022-03-21'), (4137360592150,date'2022-03-21'), (1578475871254,date'2022-03-21'), (2855875104890,date'2022-03-21'), (2297544152161,date'2022-03-21'), (8000000005397317,date'2022-03-21'), (2178772142284,date'2022-03-21'), (11646844540,date'2022-03-21'), (3127448422668,date'2022-03-21'), (546460097,date'2022-03-21'), (2707158229601,date'2022-03-21'), (,date'2022-03-21'), (2806016147428,date'2022-03-21'), (267598241637,date'2022-03-21'), (,date'2022-03-21'), (3440000776820,date'2022-03-21'), (3648905601790,date'2022-03-21'), (3941983330794,date'2022-03-21'), (3581248431766,date'2022-03-21'), (1945312870,date'2022-03-21'), (1578341346033,date'2022-03-21'), (5000000003504152,date'2022-03-21'), (2834524625353,date'2022-03-21'), (2668082908253,date'2022-03-21'), (3911933089236,date'2022-03-24'), (4390431271828,date'2022-03-24'), (4436751091228,date'2022-03-24'), (4070764749040,date'2022-03-24'), (9326639310,date'2022-03-24'), (891018394699,date'2022-03-22'), (4138036402348,date'2022-03-22'), (4204837591526,date'2022-03-22'), (3047533649306,date'2022-03-22'), (4000000006675769,date'2022-03-22'), (3115012337393,date'2022-03-22'), (1594300130146,date'2022-03-22'), (3046664280420,date'2022-03-22'), (2617970946746,date'2022-03-22'), (13215211420,date'2022-03-22'), (2794015529634,date'2022-03-22'), (2368153486949,date'2022-03-22'), (,date'2022-03-22'), (2931086213199,date'2022-03-22'), (1622846545155,date'2022-03-22'), (4116406755858,date'2022-03-22'), (2135020992406,date'2022-03-23'), (2049236096348,date'2022-03-23'), (2225606458226,date'2022-03-23'), (161858202,date'2022-03-23'), (3599767913556,date'2022-03-23'), (2703969577336,date'2022-03-24'), (3136317597836,date'2022-03-24'), (3000000006157345,date'2022-03-24'), (2466169779380,date'2022-03-24'), (5315964250,date'2022-03-24'), (1623186164241,date'2022-03-24'), (2629001201653,date'2022-03-24'), (5000000003083473,date'2022-03-24'), (,date'2022-03-24'), (,date'2022-03-25'), (3020960667144,date'2022-03-25'), (,date'2022-03-25'), (2958076886452,date'2022-03-25'), (1570467056884,date'2022-03-25'), (2845514292956,date'2022-03-25'), (4431012807614,date'2022-03-25'), (,date'2022-03-25'), (4000000006701356,date'2022-03-25'), (1578490253575,date'2022-03-26'), (1578512938041,date'2022-03-26'), (1578552551209,date'2022-03-26'), (8000000005539577,da</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>QueryTooLargeError</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -4643,17 +4643,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>line 2:6: Schema 'arnsdpsbx_t_team_sva_oarb' does not exist</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_1507_voskob_tb_zp_acc2" select a.*, t.opcode, t.opkind, t.externalkind, t.opno, t.opcash, t.balance, t.opday from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1507_voskob_tb_zp_acc" a join sfd_hdfsgw_hdp.prx_cod_deposit_data_opt_internal_cod52_deposit.depohist_opday t on a.b_id_mega=t.id_mega and a.id_major=t.deposit_major and a.id_minor=t.deposit_minor and t.opday_dd  between '2023-10-01' and '2023-10-31'  and t.opkind = 15 and t.opday between cast(a.d1 as date) and cast(a.d2 as date)</t>
+          <t>select* from k808_rx_hdp.arnsdpsbx_t_team_sva_oarb."40_pev_mkk_obr_191224_part_2" limit 10</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>MissingSchemaError</t>
         </is>
       </c>
       <c r="E169" t="b">
@@ -4668,21 +4668,21 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>select t.* ,k.* from capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."13_net_sp14_travel" t left join  k808_rx_hdp.prx_net_km_custom_fin_pi_kpi.t_pi_kpi k on cast(k.epk_id as varchar) =t.epk_id and k.dat_start=cast(substring(t.creation_date,1,10) as date)</t>
+          <t>select* from k808_rx_hdp.t_team_sva_oarb."40_pev_mkk_obr_191224_part_2"</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -4693,21 +4693,21 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_Lazarev_508_ALL_TB1"  limit 100</t>
+          <t>select * from t_cars_kap.vklad_close_v_01</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -4718,21 +4718,21 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>line 1:33: mismatched input ')'. Expecting: 'AS'</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>select * 	from sfd_hdfsgw_hdp.prx_hd_atm_host_main_240821_nrt_atmhost_cap.device_group   	limit 20</t>
+          <t>select max(cast(creation_date_dd) as date) from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_efs_old"</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -4743,21 +4743,21 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SELECT * FROM t_team_sva_audit_2.t38_siv_08_11_24__1121__10__sbol_sbp_aggregated__sum_full_over_15k__120_people_as_sen_and_receivers ORDER BY sender, receiver</t>
+          <t>SELECT COUNT(*) FROM (select * from k808_rx_hdp.prx_55_sai_custom_rb_card_custom_rb_card."scd_card_union" ) dbvrcnt</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -4768,21 +4768,21 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>select *  from  k808_rx_hdp.prx_zakup_seldon_1_external_seldon.tndrs limit 100</t>
+          <t>SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_pprbsurvey"</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -4793,21 +4793,21 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>select * from capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr</t>
+          <t>select * from k808_rx_hdp.prx_tdr_cars_dict_internal_cars_cars_dictionary.DEPARTMENT_ORG</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -4818,21 +4818,21 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2711_sbolpro_8636_114"</t>
+          <t>select cluster, source_type, object_date, object_hour, length (cluster) as len from sfd_hdfsgw_hdp.prx_statistika_dl_custom_t_dl.cluster_stat</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -4843,21 +4843,21 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>line 1:1: Destination table 'capgp3_gp.s_grnplm_ld_audit_da_emitent.42_pb1_divrstat_session_detail' already exists</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_mp_cmpn_ds."230016_ns_df" limit 10</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" as SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ObjectAlreadyExistsError</t>
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -4868,17 +4868,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2811_duble_oper_itog_epk_id_efs"</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" as SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TooManyConnectionsError</t>
         </is>
       </c>
       <c r="E178" t="b">
@@ -4893,21 +4893,21 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1743_paket_podkl_fio_prime" SELECT a.*, b.start_date start_date_prime, b.fact_end_date fact_end_date_prime, b.end_date end_date_prime, b.application_datetime application_datetime_prime, b.current_payment_date current_payment_date_prime, b.next_pay_date next_pay_date_prime, b.description description_prime, b.name name_prime, b.status status_prime, b.status_reason status_reason_prime FROM k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1743_paket_podkl_fio" a   join sfd_hdfsgw_hdp.prx_1_bxb1062_pakety_uslug_fl_internal_pprbpu_beta_opf_management.private_service_package b on a.owner_id = b.owner_id and  not(b.start_date &gt; coalesce(cast(a.fact_end_date as date), date(a.end_date), date('9999-12-31')) and b.end_date &lt; a.start_date)  and b.name like '%СберПрайм+%' and b.name like '%СберПрайм%'</t>
+          <t>select * from sfd_hdfsgw_hdp.prx_trn_arch_platform_trahv.ru_sbrf_transfers_archive_entity_transferoperator</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -4918,12 +4918,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Current transaction is aborted, commands ignored until end of transaction block</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.vklad_close_v_01 limit 1000</t>
+          <t>SELECT * FROM k808_rx_hdp.prx_kap_prime_dzo_epfb2c_sprm.subscription</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4943,17 +4943,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1746_paket_otkl_fio_prime" as SELECT a.*, b.start_date start_date_prime, b.fact_end_date fact_end_date_prime, b.end_date end_date_prime, b.application_datetime application_datetime_prime, b.current_payment_date current_payment_date_prime, b.next_pay_date next_pay_date_prime, b.description description_prime, b.name name_prime, b.status status_prime, b.status_reason status_reason_prime FROM k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1746_paket_otkl_fio" a   join sfd_hdfsgw_hdp.prx_1_bxb1062_pakety_uslug_fl_internal_pprbpu_alpha_opf_management.private_service_package b on a.owner_id = b.owner_id and  not (b.start_date &gt; coalesce(cast(a.fact_end_date as date), date(a.end_date), date('9999-12-31')) or coalesce(cast(b.fact_end_date as date), date(b.end_date), date('9999-12-31')) &lt; a.start_date)  and b.name like '%СберПрайм+%' and b.name like '%СберПрайм%'</t>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TooManyConnectionsError</t>
         </is>
       </c>
       <c r="E181" t="b">
@@ -4968,17 +4968,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2"</t>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb4_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TooManyConnectionsError</t>
         </is>
       </c>
       <c r="E182" t="b">
@@ -4993,21 +4993,21 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>line 3:196: mismatched input 'б'. Expecting: ',', 'EXCEPT', 'FETCH', 'FROM', 'GROUP', 'HAVING', 'INTERSECT', 'LIMIT', 'OFFSET', 'ORDER', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_efs_oct_2"  limit 100</t>
+          <t>select   try_cast(replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') as decimal(32,2)) sumaб n.sms_text from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2" n</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -5018,21 +5018,21 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>line 1:40: mismatched input '&lt;EOF&gt;'. Expecting: ')'</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_elf_credit_preparation_2025_internal_ekp_reports_ibs.z_overdraft_mbk LIMIT 10</t>
+          <t>select position('(\d+)' in 'fhg4jfh125'</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -5043,21 +5043,21 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>line 1:72: mismatched input '('. Expecting: 'IF', &lt;identifier&gt;</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>select * FROM sfd_hdfsgw_hdp.prx_55_sis_epk_pprb_platform_ucprb.com_sbt_bm_ucp_customerknowledge_model_marker limit 100</t>
+          <t>alter table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics add column( select video_origination_list  from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend )</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -5068,21 +5068,21 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>line 26:1: mismatched input ')'. Expecting: '%', '*', '+', ',', '-', '.', '/', 'AND', 'AT', 'EXCEPT', 'FETCH', 'INTERSECT', 'LIMIT', 'OFFSET', 'OR', 'ORDER', 'UNION', '[', '||', &lt;EOF&gt;, &lt;predicate&gt;</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_alert_sms_3"  select * from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_alert_sms_confirm_2"</t>
+          <t>insert into clist values ('C22928284',date'2024-01-21'), ('C54828516',date'2024-01-12'), ('C132776421',date'2024-01-18'), ('C45653488',date'2024-01-18'), ('C129179074',date'2024-01-24'), ('C35104445',date'2024-01-24'), ('C91963364',date'2024-01-24'), ('C13092638',date'2024-04-16'), ('C90332826',date'2024-01-25'), ('C111755880',date'2024-01-09'), ('C109891736',date'2024-01-26'), ('C125106118',date'2024-01-29'), ('C83116463',date'2024-01-29'), ('C139020419',date'2024-01-29'), ('C33698274',date'2024-01-29'), ('C5364134',date'2024-01-29'), ('C141046547',date'2024-01-30'), ('C16270447',date'2024-01-30'), ('C55289243',date'2024-01-30'), ('C138519942',date'2024-01-30'), ('C105970003',date'2024-01-31'), ('C115592010',date'2024-01-31'), ('C125057534',date'2024-02-14'), ('C129801742',date'2024-01-31') )  select c.ceshka,c.dt,dmc.client_id,dma.account_id,dca.client_role_id from   clist                         l join   prx_kalita_otchetnaya_1_internal_kalita_report_kalita_gg.dm_client         dmc on dmc.client_ext_id=l.ceshka join   prx_kalita_otchetnaya_1_internal_kalita_report_kalita_gg.dm_client_account dca on dca.client_id=dmc.client_id and dca.client_role_id in (1,2)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -5093,17 +5093,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.prx_55_gev_nrt_efs_chat_nrt_efs_chat.chat_history limit 5</t>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb4_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TooManyConnectionsError</t>
         </is>
       </c>
       <c r="E187" t="b">
@@ -5118,21 +5118,21 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>line 10:1: mismatched input 'from'. Expecting: '*', &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>select * from sfd_hdfsgw_hdp.prx_svd_rb_vd_sbol_erib_efs_1_custom_rb_sbol.ft_sbol_oper_union limit 100</t>
+          <t>select first_value (c.tb) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS tb, first_value (c.osb) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS osb, first_value (c.vsp) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS vsp, c.docnumber, c.name, first_value (c.openingdate) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS openingdate, first_value (c.closingdate) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS closingdate,  from t_cars_kap.vklad_close</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -5143,21 +5143,21 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>select * from	k808_rx_hdp.prx_kalitaprom_internal_kalita_kalita.dict_command</t>
+          <t>create table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics  as select user_id, play_start_dttm, play_duration_sec, subscription_uid, serial_name, video_origination_list   from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -5168,21 +5168,21 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>select  * FROM sfd_hdfsgw_hdp.prx_hd_atm_host_nrt_smsb2.atmhost_custatechangedevent_delta limit 100</t>
+          <t>create table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics  as select user_id, play_start_dttm, play_duration_sec, subscription_uid, serial_name, video_origination_list   from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -5193,21 +5193,21 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.ipoteka_temp</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_gsd_income_cv"</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -5218,21 +5218,21 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>select  * from sfd_hdfsgw_hdp.prx_koa_efs_edinaya_istoriy_operac_internal_efs_ufs_ophistory_1."UOH_OPERATIONS_HISTORY" limit 10</t>
+          <t>SELECT * FROM k808_rx_hdp.prx_esa_vitrina_cod_06_custom_rb_cod.dep_agrmnt_44</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -5243,21 +5243,21 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>select 		* from 		k808_rx_hdp.prx_44_ias_pulse_hr_internal_saphcm_pulse.hparprd09 limit 100</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер%в сумме%' then split((split(sms_text,' в сумме')[1]),'на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TypeError</t>
         </is>
       </c>
       <c r="E193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -5268,21 +5268,21 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>select 		* from 		k808_rx_hdp.prx_44_ias_pulse_hr_internal_saphcm_pulse_hist.hparprd09 limit 100</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер % в сумме%' then split((split(sms_text,' в сумме')[1]),'на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TypeError</t>
         </is>
       </c>
       <c r="E194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -5293,21 +5293,21 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>select p.* 	,n.* 	---,k.* 	from k808_rx_hdp.t_team_sva_oarb."13_nezn_for_premier"  p 	left join  k808_rx_hdp.t_team_sva_oarb."13_net_premier_900_1" n on cast(n.ucp_id as varchar) =p.owner_id 	and cast (n.esb_msg_in_created_on as date) between cast(p.fact_end_date as date) and cast(p.fact_end_date as date) + interval '7' day</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер % в сумме%' then split((split(sms_text,' в сумме')[1]),'Автоплатёж на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TypeError</t>
         </is>
       </c>
       <c r="E195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -5318,21 +5318,21 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."13_net_card_curier"</t>
+          <t>create table k808_rx_hdp.t_team_cxdata.gptable_test1 as select * from sfd_gpgw_gp.prx_trino_testv2_kap818_epk_s_grnplm_as_t_didsd_069_vd__3cl.t_cust_org_idfn_19274933_view</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -5343,21 +5343,21 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM (select * from k808_rx_hdp.t_team_sva_oarb."13_net_card_curier" ) dbvrcnt</t>
+          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."p_vp_sb_pk_and_pt_pi_pr_pp" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp"</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -5368,21 +5368,21 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Value cannot be cast to date: 2023-10-28 16:23:37</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>select  		* from  		k808_rx_hdp.prx_44_lva_all_nadbavki_vklad_platform_b2c_cod_bonus.ru_sber_fp_db_model_entity_clientepk limit 100</t>
+          <t>select c.sbercrm_alpha_id, c.offer_status, CAST(c.created_date AS date) AS created_date, date_parse(updated_date, '%Y-%m-%d %H:%i:%s') AS updated_date     from  k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer  c   limit 10</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CastError</t>
         </is>
       </c>
       <c r="E198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -5393,21 +5393,21 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Value cannot be cast to date: 2023-10-28 16:23:37</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>with tab as ( select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_alpha_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_beta_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_delta_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_gamma_opf_management.private_service_package ) select distinct description from tab</t>
+          <t>select c.sbercrm_alpha_id, c.offer_status, CAST(c.created_date AS date) AS created_date, date_parse(updated_date, '%Y-%m-%d %H:%i:%s') AS updated_date     from  k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer  c   limit 10</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CastError</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -5418,21 +5418,21 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>select * -----distinct clientsegment from sfd_hdfsgw_hdp.prx_42_slm_pla_uvsk_b2c_servi_call_platform_uvsk_b2c_service_call.ru_sbrf_cc_sbercrmb2c_proceed_jpa_client limit 100</t>
+          <t>create table k808_rx_hdp.t_team_cxdata.gptable_test1 as select * from sfd_gpgw_gp.prx_trino_testv2_kap818_epk_s_grnplm_as_t_didsd_069_vd__3cl.t_cust_org_idfn_19274933_view</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -5443,21 +5443,21 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>select * FROM prx_infpg_internal_cars_request_db_request.service limit 1</t>
+          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."p_vp_sb_pk_and_pt_pi_pr_pp" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp"</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -5468,21 +5468,21 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Использование SELECT * без указания столбцов</t>
+          <t>Query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>select * FROM prx_infpg_internal_cars_dictionary_db_dictionary_storages.floor limit 1</t>
+          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp_two_ac" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp_two_ac"</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -5493,20 +5493,1795 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>create table k808_rx_hdp.t_team_cxdata.gptable_test3 as select * from sfd_gpgw_gp.prx_trino_sbb_test_v1_s_grnplm_vd_rozn_mpp_daas_h_6fu.ft_sbol_csa_token_ahd_view</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E203" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb.tdr_szb_ekp_transact_bfo_client_2023_2024_v2</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E204" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>select 		min_date,  		count(nepkid) as count_min 	FROM 		( 		select distinct 						dtreportdate, 						nepkid, 						MIN(dtreportdate) over (PARTITION by nepkid) as min_date 		from k808_rx_hdp.t_01540664_omega_sbrf_ru.v_is0652_sal_4_25_m 		) 	group by min_date</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E205" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>select  esb_msg_in_guid, esb_msg_in_created_on, send_message_created_on, ucp_id, send_status, msisdn, msg_type_id, ctl_loading, short_push_text, sms_text, substring(coalesce(sms_text,short_push_text),1,8) card, case when cardinality(split(coalesce(sms_text,short_push_text),' '))&gt;3 then lower(split(coalesce(sms_text,short_push_text),' ')[3]) end oper, case 	   when regexp_extract(replace(replace(coalesce(sms_text,short_push_text),'?',''),',','.'), '\d+\.\d\dр ') is not null              then cast(replace(trim(regexp_extract(replace(replace(replace(replace(coalesce(sms_text,short_push_text),'?',''),' ',''),' ',''),',','.'), '\d+\.\d\dр')),'р','') as decimal(19,2))  	   when trim(regexp_extract(replace(replace(coalesce(sms_text,short_push_text),'?',''),',','.'), '\d+р ')) is not null 	   		then cast(replace(trim(regexp_extract(replace(replace(replace(coalesce(sms_text,short_push_text),'?',''),' ',''),' ',''), '\d+р')),'р','') as decimal(19,2)) --   else cast(replace(trim(regexp_extract(replace(replace(replace(sms_text,'?',''),' ',''),' ',''), '\d+р')),'р','') as decimal(19,2)) end amount, replace(replace(replace(replace(coalesce(sms_text,short_push_text),'?',''),' ',''),' ',''),',','.'), trim(regexp_extract(replace(replace(replace(coalesce(sms_text,short_push_text),'?',''),' ',''),' ',''), '\:\d+р')), trim(regexp_extract(replace(replace(replace(replace(coalesce(sms_text,short_push_text),'?',''),' ',''),' ',''),',','.'), '\:\d+\.\d\d')), case    when regexp_extract(replace(replace(replace(coalesce(sms_text,short_push_text),'?',''),',','.'),' ',''), '\:\d+\.\d\dр') is not null               then cast(replace(replace(trim(regexp_extract(replace(replace(replace(replace(coalesce(sms_text,short_push_text),'?',''),' ',''),' ',''),',','.'), '\:\d+\.\d\dр')),':',''),'р','') as decimal(19,2))     else              cast(replace(replace(trim(regexp_extract(replace(replace(replace(coalesce(sms_text,short_push_text),'?',''),' ',''),' ',''), '\:\d+р')),':',''),'р','') as decimal(19,2)) end balans from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1601_sms_vozvrat2"</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E206" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."13_net_p2_300724_launcher"</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Could not communicate with the remote task. The node may have crashed or be under too much load. This is probably a transient issue, so please retry your query in a few minutes. (pvlos-ldtrn0002.cloud.df.sbrf.ru:8443)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>SELECT * FROM k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_agreement a 	inner join k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_tst t on (t.agreement_short_foreign_key=a.id) order by accountnumber limit 10</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_upp_1_custom_cib_p4d_fns_egr.uchrulin</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E209" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_krd_cc_stg_1"</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E210" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>SELECT * FROM k808_rx_hdp.prx_ooozvuk_prom_dzo_ooozvuk_rb.cltv_listening</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E211" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>SELECT * FROM k808_rx_hdp.prx_ooozvuk_prom_dzo_ooozvuk_rb.cltv_subscriptions</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E212" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_krd_closed_cc"</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E213" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb.tdr_szb_df_united_paper_electron_pivot_new</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E214" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb.tdr_szb_df_united_paper_electron_pivot_new</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E215" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>select * ,row_number (*) over (partition by contract_number_hist order by status_dt_hist) as num_statusrest  ,count(*) over (partition by contract_number_hist) as col_status from k808_rx_hdp.t_team_sva_oarb."13_net_premier_pu78_all_step"</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E216" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>line 3:6: Table 'sfd_hdfsgw_hdp.prx_lazarev_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.scd_stoplist' does not exist</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_lazarev_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.scd_stoplist limit 100</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>MissingObjectError</t>
+        </is>
+      </c>
+      <c r="E217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_project_12."42_zay_kf_kk" as select * from k808_rx_hdp.t_team_sva_oarb."01889660_1701_zay_tran_kk_rz_st"</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E218" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_project_12."42_zay_kf_kk_" select  * from k808_rx_hdp.t_team_sva_oarb."01889660_1701_zay_tran_kk_rz_st"</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_gsd_potrebs"</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E220" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.prx_net_us_custom_salesntwrk_appus.event_flow_us</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E221" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_gsd_potrebs_result_client"</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E222" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>SELECT ctl_loading, ctl_validfrom, atm_id, serial_num, cu_type, denomination, cu_status, logical_pos, load_in_time, load_out_time, timestampcolumn FROM k808_rx_hdp.prx_hd_dm_curus_custom_salesntwrk_curusds.dm07_cassettes_history</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E223" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>line 2:33: mismatched input '.42'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb.42_rrn_oarbvvb_1542_1897_base limit 100</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E224" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>select cast(udate as varchar) udate_v, cast(cast(time as bigint) as varchar) time_v, time, cast(switch_date as varchar) switch_date_v, cast(switch_time as varchar) switch_time_v from k808_rx_hdp.t_team_sva_oarb."42_lyubi_transport_resp_sv"</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E225" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>line 23:1: mismatched input 'from'. Expecting: '*', &lt;expression&gt;</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>select udate_v, case 	 		when length(time_v)=6 then time_v 		when length(time_v)=5 then concat('0',time_v) 		when length(time_v)=4 then concat('00',time_v) 		when length(time_v)=3 then concat('000',time_v) 		when length(time_v)=2 then concat('0000',time_v) 		when length(time_v)=1 then concat('00000',time_v) 	end time_v, case 	 		when length(switch_date_v)=6 then switch_date_v 		when length(switch_date_v)=5 then concat('0',switch_date_v) end  switch_date_v, case 	 		when length(switch_time_v)=6 then switch_time_v 		when length(switch_time_v)=5 then concat('0',switch_time_v) 		when length(switch_time_v)=4 then concat('00',switch_time_v) 		when length(switch_time_v)=3 then concat('000',switch_time_v) 		when length(switch_time_v)=2 then concat('0000',switch_time_v) 		when length(switch_time_v)=1 then concat('00000',switch_time_v) 	end switch_time_v, from ( select  cast(cast(udateas bigint) as varchar) udate_v, cast(cast(time as bigint) as varchar) time_v, cast(cast(switch_date as bigint) as varchar) switch_date_v, cast(cast(switch_time as bigint) as varchar) switch_time_v from k808_rx_hdp.t_team_sva_oarb."42_lyubi_transport_resp_sv") sv</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E226" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb" as  select * from k808_rx_hdp.t_team_sva_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb"</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E227" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "21608829"</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb" as  select * from k808_rx_hdp.t_team_sva_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb"</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>TooManyConnectionsError</t>
+        </is>
+      </c>
+      <c r="E228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>select * from t_cars_kap.jt_DASH_9_2_PART23</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E229" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>select inn_num_ct_v, contract_id_oper, sum(amount) over (partition by inn_num_ct_v, contract_id_oper) summa from k808_rx_hdp.t_team_sva_oarb."40_pev_mkk_ip_oper_dr_peredelka"</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E230" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Query exceeded per-node memory limit of 10GB [Allocated: 9.99GB, Delta: 9.33MB, Top Consumers: {HashAggregationOperator=9.94GB, ExchangeOperator=43.04MB, LazyOutputBuffer=10.79MB}]</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>select  	array_agg(covrd_risk_name),  	prod_module_name from k808_rx_hdp.prx_55_lys_ub_base_custom_fin_dmmidub.t_base_policy_insrbl_covrg_feat group by prod_module_name  limit 1</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E231" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time limit of 30.00m</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."55_grin_credit_decl_db" as ( 	SELECT * 	FROM k808_rx_hdp.t_team_sva_oarb."55_grin_credit_requests_full_new_cl" c 		left join k808_rx_hdp.t_team_sva_oarb."55_osa_z_decl_on_get_cred_for_liza" d 		on (c.app_number = d."z_decl_on_get_cred%c_num_decl" or c.app_number = d."z_decl_on_get_cred%c_tab_number") 	)</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E232" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>line 2:1: mismatched input 'FROM'. Expecting: 'ALTER', 'ANALYZE', 'CALL', 'COMMENT', 'COMMIT', 'CREATE', 'DEALLOCATE', 'DELETE', 'DENY', 'DESC', 'DESCRIBE', 'DROP', 'EXECUTE', 'EXPLAIN', 'GRANT', 'INSERT', 'MERGE', 'PREPARE', 'REFRESH', 'RESET', 'REVOKE', 'ROLLBACK', 'SET', 'SHOW', 'START', 'TRUNCATE', 'UPDATE', 'USE', &lt;query&gt;</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>FROM k808_rx_hdp.a</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>SyntaxError</t>
+        </is>
+      </c>
+      <c r="E233" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_grin_tortuga_serv_points_full"</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E234" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>line 2:7: Schema 'arnsdpsbx_t_team_compliance_prototype' does not exist</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>select *  from k808_rx_hdp.arnsdpsbx_t_team_compliance_prototype.t_tab</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>MissingSchemaError</t>
+        </is>
+      </c>
+      <c r="E235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Query exceeded maximum time or memory limit</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_gsd_ddzp_cod_hist" order by owner_surname</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>CanceledError</t>
+        </is>
+      </c>
+      <c r="E236" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Query exceeded the maximum execution time limit of 120.00s</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>ResourceError</t>
+        </is>
+      </c>
+      <c r="E237" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
           <t>Использование SELECT * без указания столбцов</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>select * FROM sfd_hdfsgw_hdp.prx_pprb_platform_masspay_platform_masspay.com_sbt_salary_mp_entities_list_element_masspaymentrosterlistelement limit 100</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_03406946_omega_sbrf_ru.v_is0929_raskovalov limit 10</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_1507_voskob_tb_zp_acc2" select a.*, t.opcode, t.opkind, t.externalkind, t.opno, t.opcash, t.balance, t.opday from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1507_voskob_tb_zp_acc" a join sfd_hdfsgw_hdp.prx_cod_deposit_data_opt_internal_cod52_deposit.depohist_opday t on a.b_id_mega=t.id_mega and a.id_major=t.deposit_major and a.id_minor=t.deposit_minor and t.opday_dd  between '2023-10-01' and '2023-10-31'  and t.opkind = 15 and t.opday between cast(a.d1 as date) and cast(a.d2 as date)</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>select t.* ,k.* from capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."13_net_sp14_travel" t left join  k808_rx_hdp.prx_net_km_custom_fin_pi_kpi.t_pi_kpi k on cast(k.epk_id as varchar) =t.epk_id and k.dat_start=cast(substring(t.creation_date,1,10) as date)</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_Lazarev_508_ALL_TB1"  limit 100</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>select * 	from sfd_hdfsgw_hdp.prx_hd_atm_host_main_240821_nrt_atmhost_cap.device_group   	limit 20</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>SELECT * FROM t_team_sva_audit_2.t38_siv_08_11_24__1121__10__sbol_sbp_aggregated__sum_full_over_15k__120_people_as_sen_and_receivers ORDER BY sender, receiver</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>select *  from  k808_rx_hdp.prx_zakup_seldon_1_external_seldon.tndrs limit 100</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>select * from capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2711_sbolpro_8636_114"</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_mp_cmpn_ds."230016_ns_df" limit 10</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2811_duble_oper_itog_epk_id_efs"</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1743_paket_podkl_fio_prime" SELECT a.*, b.start_date start_date_prime, b.fact_end_date fact_end_date_prime, b.end_date end_date_prime, b.application_datetime application_datetime_prime, b.current_payment_date current_payment_date_prime, b.next_pay_date next_pay_date_prime, b.description description_prime, b.name name_prime, b.status status_prime, b.status_reason status_reason_prime FROM k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1743_paket_podkl_fio" a   join sfd_hdfsgw_hdp.prx_1_bxb1062_pakety_uslug_fl_internal_pprbpu_beta_opf_management.private_service_package b on a.owner_id = b.owner_id and  not(b.start_date &gt; coalesce(cast(a.fact_end_date as date), date(a.end_date), date('9999-12-31')) and b.end_date &lt; a.start_date)  and b.name like '%СберПрайм+%' and b.name like '%СберПрайм%'</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>select * from t_cars_kap.vklad_close_v_01 limit 1000</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1746_paket_otkl_fio_prime" as SELECT a.*, b.start_date start_date_prime, b.fact_end_date fact_end_date_prime, b.end_date end_date_prime, b.application_datetime application_datetime_prime, b.current_payment_date current_payment_date_prime, b.next_pay_date next_pay_date_prime, b.description description_prime, b.name name_prime, b.status status_prime, b.status_reason status_reason_prime FROM k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1746_paket_otkl_fio" a   join sfd_hdfsgw_hdp.prx_1_bxb1062_pakety_uslug_fl_internal_pprbpu_alpha_opf_management.private_service_package b on a.owner_id = b.owner_id and  not (b.start_date &gt; coalesce(cast(a.fact_end_date as date), date(a.end_date), date('9999-12-31')) or coalesce(cast(b.fact_end_date as date), date(b.end_date), date('9999-12-31')) &lt; a.start_date)  and b.name like '%СберПрайм+%' and b.name like '%СберПрайм%'</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2"</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_efs_oct_2"  limit 100</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_elf_credit_preparation_2025_internal_ekp_reports_ibs.z_overdraft_mbk LIMIT 10</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>select * FROM sfd_hdfsgw_hdp.prx_55_sis_epk_pprb_platform_ucprb.com_sbt_bm_ucp_customerknowledge_model_marker limit 100</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_alert_sms_3"  select * from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_alert_sms_confirm_2"</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E257" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.prx_55_gev_nrt_efs_chat_nrt_efs_chat.chat_history limit 5</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E258" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>select * from sfd_hdfsgw_hdp.prx_svd_rb_vd_sbol_erib_efs_1_custom_rb_sbol.ft_sbol_oper_union limit 100</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>select * from	k808_rx_hdp.prx_kalitaprom_internal_kalita_kalita.dict_command</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E260" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>select  * FROM sfd_hdfsgw_hdp.prx_hd_atm_host_nrt_smsb2.atmhost_custatechangedevent_delta limit 100</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E261" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>select * from t_cars_kap.ipoteka_temp</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E262" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>select  * from sfd_hdfsgw_hdp.prx_koa_efs_edinaya_istoriy_operac_internal_efs_ufs_ophistory_1."UOH_OPERATIONS_HISTORY" limit 10</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E263" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>select 		* from 		k808_rx_hdp.prx_44_ias_pulse_hr_internal_saphcm_pulse.hparprd09 limit 100</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E264" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>select 		* from 		k808_rx_hdp.prx_44_ias_pulse_hr_internal_saphcm_pulse_hist.hparprd09 limit 100</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E265" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>select p.* 	,n.* 	---,k.* 	from k808_rx_hdp.t_team_sva_oarb."13_nezn_for_premier"  p 	left join  k808_rx_hdp.t_team_sva_oarb."13_net_premier_900_1" n on cast(n.ucp_id as varchar) =p.owner_id 	and cast (n.esb_msg_in_created_on as date) between cast(p.fact_end_date as date) and cast(p.fact_end_date as date) + interval '7' day</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E266" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."13_net_card_curier"</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) FROM (select * from k808_rx_hdp.t_team_sva_oarb."13_net_card_curier" ) dbvrcnt</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>select  		* from  		k808_rx_hdp.prx_44_lva_all_nadbavki_vklad_platform_b2c_cod_bonus.ru_sber_fp_db_model_entity_clientepk limit 100</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E269" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>with tab as ( select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_alpha_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_beta_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_delta_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_gamma_opf_management.private_service_package ) select distinct description from tab</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>select * -----distinct clientsegment from sfd_hdfsgw_hdp.prx_42_slm_pla_uvsk_b2c_servi_call_platform_uvsk_b2c_service_call.ru_sbrf_cc_sbercrmb2c_proceed_jpa_client limit 100</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>select * FROM prx_infpg_internal_cars_request_db_request.service limit 1</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>select * FROM prx_infpg_internal_cars_dictionary_db_dictionary_storages.floor limit 1</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Использование SELECT * без указания столбцов</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
         <is>
           <t>select 		* from 		k808_rx_hdp.t_team_sva_oarb."44_ias_ck_kate_epk" 		--k808_rx_hdp.t_team_sva_oarb."44_ias_ck_suo_sbolpro" limit 100</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="D274" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E203" t="b">
+      <c r="E274" t="b">
         <v>0</v>
       </c>
     </row>

--- a/sql_dataset_real.xlsx
+++ b/sql_dataset_real.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E274"/>
+  <dimension ref="A1:E189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select table_cat from system.jdbc.catalogs order by table_cat</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select table_cat from system.jdbc.catalogs order by table_cat</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,   COLUMN_NAME, COLUMN_TYPE, DATA_TYPE, TYPE_NAME,   PRECISION, LENGTH, SCALE, RADIX,   NULLABLE, REMARKS, COLUMN_DEF, SQL_DATA_TYPE, SQL_DATETIME_SUB,   CHAR_OCTET_LENGTH, ORDINAL_POSITION, IS_NULLABLE, SPECIFIC_NAME FROM system.jdbc.procedure_columns ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME, COLUMN_NAME LIMIT 0</t>
+          <t>select procedure_cat, procedure_schem, procedure_name,   column_name, column_type, data_type, type_name,   precision, length, scale, radix,   nullable, remarks, column_def, sql_data_type, sql_datetime_sub,   char_octet_length, ordinal_position, is_nullable, specific_name from system.jdbc.procedure_columns order by procedure_cat, procedure_schem, procedure_name, specific_name, column_name limit 0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -538,7 +538,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select table_cat from system.jdbc.catalogs order by table_cat</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -563,7 +563,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select table_cat from system.jdbc.catalogs order by table_cat</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -613,7 +613,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -638,7 +638,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>INSERT INTO k808_rx_hdp.t_team_prfl_cdp.vma_temp_cx_lstdt SELECT      epk_id,     last_activity_dt,     first_active_product_dt,     '2022-08-31' FROM      rozn2_gp.s_grnplm_ld_rozn_electron_knlg_core.vma_temp_cx_lstdt</t>
+          <t>insert into k808_rx_hdp.t_team_prfl_cdp.vma_temp_cx_lstdt select      epk_id,     last_activity_dt,     first_active_product_dt,     '2022-08-31' from      rozn2_gp.s_grnplm_ld_rozn_electron_knlg_core.vma_temp_cx_lstdt</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -663,7 +663,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>INSERT INTO k808_rx_hdp.T_TEAM_PRFL_CDP.vma_dim_ecosys_dzo_client SELECT      epk_id,     ecosystem_activity_flag,     amount_ecosystem_products,     CAST(report_dt AS VARCHAR) FROM      rozn2_gp.S_GRNPLM_LD_ROZN_ELECTRON_KNLG_CORE.vma_dim_ecosys_dzo_client</t>
+          <t>insert into k808_rx_hdp.t_team_prfl_cdp.vma_dim_ecosys_dzo_client select      epk_id,     ecosystem_activity_flag,     amount_ecosystem_products,     cast(report_dt as varchar) from      rozn2_gp.s_grnplm_ld_rozn_electron_knlg_core.vma_dim_ecosys_dzo_client</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
+          <t>select procedure_cat, procedure_schem, procedure_name,    null, null, null, remarks, procedure_type, specific_name from system.jdbc.procedures order by procedure_cat, procedure_schem, procedure_name, specific_name limit 0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -738,7 +738,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -763,7 +763,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>--Вывести мин. и макс. даты популяционной таблицы SELECT  	min(p_report_dt) AS min_p_report_dt, 	max(p_report_dt) AS max_p_report_dt  FROM k808_rx_hdp.t_team_sberindexlab.t_temp_ppl_for_sampling  LIMIT 10</t>
+          <t>select procedure_cat, procedure_schem, procedure_name,   column_name, column_type, data_type, type_name,   precision, length, scale, radix,   nullable, remarks, column_def, sql_data_type, sql_datetime_sub,   char_octet_length, ordinal_position, is_nullable, specific_name from system.jdbc.procedure_columns order by procedure_cat, procedure_schem, procedure_name, specific_name, column_name limit 0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -788,7 +788,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,   COLUMN_NAME, COLUMN_TYPE, DATA_TYPE, TYPE_NAME,   PRECISION, LENGTH, SCALE, RADIX,   NULLABLE, REMARKS, COLUMN_DEF, SQL_DATA_TYPE, SQL_DATETIME_SUB,   CHAR_OCTET_LENGTH, ORDINAL_POSITION, IS_NULLABLE, SPECIFIC_NAME FROM system.jdbc.procedure_columns ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME, COLUMN_NAME LIMIT 0</t>
+          <t>select table_cat from system.jdbc.catalogs order by table_cat</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select count(*) counts from em_tmp2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>select count(*) counts from em_tmp2</t>
+          <t>select procedure_cat, procedure_schem, procedure_name,    null, null, null, remarks, procedure_type, specific_name from system.jdbc.procedures order by procedure_cat, procedure_schem, procedure_name, specific_name limit 0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -863,7 +863,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
+          <t>select procedure_cat, procedure_schem, procedure_name,    null, null, null, remarks, procedure_type, specific_name from system.jdbc.procedures order by procedure_cat, procedure_schem, procedure_name, specific_name limit 0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
+          <t>select 7500</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -913,7 +913,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>select 7500</t>
+          <t>select table_cat from system.jdbc.catalogs order by table_cat</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -938,7 +938,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select substring('2023.01.03 21:01:41.162', 1, 7)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>select substring('2023.01.03 21:01:41.162', 1, 7)</t>
+          <t>select substring(timestampcolumn, 1, 7), count(id) from k808_rx_hdp.t_team_sva_oarb."42_rodygin_oarbvvb_1675_chat_history" t group by substring(timestampcolumn, 1, 7) order by substring(timestampcolumn, 1, 7)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>select substring(timestampcolumn, 1, 7), count(id) from k808_rx_hdp.t_team_sva_oarb."42_rodygin_oarbvvb_1675_chat_history" t group by substring(timestampcolumn, 1, 7) order by substring(timestampcolumn, 1, 7)</t>
+          <t>select length('abc_zakupkigovru_beginner_20240118_092653_001.json')-9</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1013,7 +1013,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>select length('abc_zakupkigovru_beginner_20240118_092653_001.json')-9</t>
+          <t>select count (distinct chat_room_id) from k808_rx_hdp.t_team_sva_oarb.messages_filtered</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>select count (distinct chat_room_id) from k808_rx_hdp.t_team_sva_oarb.messages_filtered</t>
+          <t>select table_cat from system.jdbc.catalogs order by table_cat</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1063,7 +1063,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select month_created from t_cars_kap.dash_2_chanel_2024 group by month_created</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1088,7 +1088,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>select month_created from t_cars_kap.DASH_2_chanel_2024 group by month_created</t>
+          <t>select tb, gosb, p_printerid, pmh_polldate, pmh_pagecount, (pmh_pagecount - lag(pmh_pagecount) over (partition by tb, p_printerid order by pmh_polldate asc)) as diff from sfd_hdfsgw_hdp.prx_otpechatki_printerov_i_vsp_new_selfservice_mctp.selfservice_cuita_print limit 100</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>select tb, gosb, p_printerid, pmh_polldate, pmh_pagecount, (pmh_pagecount - LAG(pmh_pagecount) OVER (PARTITION BY tb, p_printerid ORDER BY pmh_polldate ASC)) AS diff FROM sfd_hdfsgw_hdp.prx_otpechatki_printerov_i_vsp_new_selfservice_mctp.SELFSERVICE_CUITA_PRINT limit 100</t>
+          <t>select 		count(*) from 		k808_rx_hdp.t_team_sva_oarb."44_ias_ck_intersections_oper_session_ss2" limit 100</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1138,7 +1138,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>select 		count(*) from 		k808_rx_hdp.t_team_sva_oarb."44_ias_ck_intersections_oper_session_ss2" limit 100</t>
+          <t>insert into k808_rx_hdp.team_digitcamp.ops_rgs_report (     num,     previous_working_day,     target,     target_time,     count_lot,     abk_difference,     insight_difference,     working_difference) values (     '6',</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1163,7 +1163,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>INSERT INTO k808_rx_hdp.team_digitcamp.ops_rgs_report (     num,     previous_working_day,     target,     target_time,     count_lot,     abk_difference,     insight_difference,     working_difference) VALUES (     '6',           -- varchar(3)     'За 3Q2024',   -- varchar(30)     '1',           -- varchar(30)     168,             -- bigint (можно оставить 0 если значение не может быть NULL)     558,          -- bigint     13.3,          -- double     1.439,          -- double     0.103          -- double    )</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."55_vos_pb_epk_sms_status" as select  device_id                   ,short_push_text             ,external_id                 ,cast(esb_msg_in_created_on as timestamp) as esb_msg_in_created_on ,cast(send_message_created_on as timestamp) as send_message_created_on ,client_id                   ,record_source               ,sms_text                    ,send_message_id             ,ucp_id                      ,esb_msg_in_guid             ,sending_counter             ,send_status                 ,msisdn                      ,msg_type_id                 ,epk                         ,bankir                      ,date_start                  ,date_end                    ,used_phone                  ,status_code                 ,error_msg                   ,sms_segment_delivered       ,cast(gate_msg_in_body_created_on as timestamp) as gate_msg_in_body_created_on ,sms_segment_undelivered     ,cast(created_on as timestamp) as created_on ,gate_msg_in_body_id         ,sms_segment_sent            ,sms_segment_total           ,cast(status_at as timestamp) as status_at ,sms_segment_unknown         ,cast(max_ as timestamp) as max_                        ,status_text                 ,error_discription            from capgp3_gp.s_grnplm_ld_audit_da_emitent.pb_55_epk_sms_status</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1188,7 +1188,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."55_vos_pb_epk_sms_status" as select  device_id                   ,short_push_text             ,external_id                 ,cast(esb_msg_in_created_on as timestamp) as esb_msg_in_created_on ,cast(send_message_created_on as timestamp) as send_message_created_on ,client_id                   ,record_source               ,sms_text                    ,send_message_id             ,ucp_id                      ,esb_msg_in_guid             ,sending_counter             ,send_status                 ,msisdn                      ,msg_type_id                 ,epk                         ,bankir                      ,date_start                  ,date_end                    ,used_phone                  ,status_code                 ,error_msg                   ,sms_segment_delivered       ,cast(gate_msg_in_body_created_on as timestamp) as gate_msg_in_body_created_on ,sms_segment_undelivered     ,cast(created_on as timestamp) as created_on ,gate_msg_in_body_id         ,sms_segment_sent            ,sms_segment_total           ,cast(status_at as timestamp) as status_at ,sms_segment_unknown         ,cast(max_ as timestamp) as max_                        ,status_text                 ,error_discription            from capgp3_gp.s_grnplm_ld_audit_da_emitent.pb_55_epk_sms_status</t>
+          <t>select id, contract_idt, record_date_from, record_date_to, acnt_status, card_status, contr_status, status_category, ext_data, ftkp_node, ctl_validfrom, ctl_action, ctl_loading, ctl_filename from sfd_hdfsgw_hdp.prx_42_air_4dmf9_internal_way4dm_dtpprbf9.dwa_f9_contr_ext_attr limit 100</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1213,7 +1213,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SELECT id, contract_idt, record_date_from, record_date_to, acnt_status, card_status, contr_status, status_category, ext_data, ftkp_node, ctl_validfrom, ctl_action, ctl_loading, ctl_filename FROM sfd_hdfsgw_hdp.prx_42_air_4dmf9_internal_way4dm_dtpprbf9.dwa_f9_contr_ext_attr limit 100</t>
+          <t>select procedure_cat, procedure_schem, procedure_name,    null, null, null, remarks, procedure_type, specific_name from system.jdbc.procedures order by procedure_cat, procedure_schem, procedure_name, specific_name limit 0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1238,7 +1238,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
+          <t>select procedure_cat, procedure_schem, procedure_name,    null, null, null, remarks, procedure_type, specific_name from system.jdbc.procedures order by procedure_cat, procedure_schem, procedure_name, specific_name limit 0</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1263,7 +1263,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,    null, null, null, REMARKS, PROCEDURE_TYPE, SPECIFIC_NAME FROM system.jdbc.procedures ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME LIMIT 0</t>
+          <t>insert into k808_rx_hdp.team_digitcamp.ops_rgs_report (     num,     previous_working_day,     target,     target_time,     count_lot,     abk_difference,     insight_difference,     working_difference) values (     '4',</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-- Список заявок для исключения из основной таблицы заявок select count(distinct entity_id)  from k808_rx_hdp.t_team_sva_oarb."55_elf_mc_03"</t>
+          <t>select partner_id, granularity, granularity_ru, date_start, scenario_name, connection, platform, scenario, partner_name, partner_inn, partner_aal, partner_type, oe_list, max(case when scenario_step = 'start' then sessions_cnt end) as start_, max(case when scenario_step = 'success' then sessions_cnt end) as success from k808_rx_hdp.t_team_sberid.metrics_conversion group by partner_id, granularity, granularity_ru, date_start, scenario_name, connection, platform, scenario, partner_name, partner_inn, partner_aal, partner_type, oe_list order by partner_id</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1313,7 +1313,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>INSERT INTO k808_rx_hdp.team_digitcamp.ops_rgs_report (     num,     previous_working_day,     target,     target_time,     count_lot,     abk_difference,     insight_difference,     working_difference) VALUES (     '4',           -- varchar(3)     'За 1Q2024',   -- varchar(30)     '1',           -- varchar(30)     0,             -- bigint (можно оставить 0 если значение не может быть NULL)     NULL,          -- bigint     NULL,          -- double     NULL,          -- double     NULL )</t>
+          <t>select procedure_cat, procedure_schem, procedure_name,   column_name, column_type, data_type, type_name,   precision, length, scale, radix,   nullable, remarks, column_def, sql_data_type, sql_datetime_sub,   char_octet_length, ordinal_position, is_nullable, specific_name from system.jdbc.procedure_columns order by procedure_cat, procedure_schem, procedure_name, specific_name, column_name limit 0</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1338,7 +1338,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SELECT partner_id, granularity, granularity_ru, date_start, scenario_name, connection, platform, scenario, partner_name, partner_inn, partner_aal, partner_type, oe_list, max(CASE WHEN scenario_step = 'start' THEN sessions_cnt END) AS start_, max(CASE WHEN scenario_step = 'success' THEN sessions_cnt END) AS success FROM k808_rx_hdp.t_team_sberid.metrics_conversion GROUP BY partner_id, granularity, granularity_ru, date_start, scenario_name, connection, platform, scenario, partner_name, partner_inn, partner_aal, partner_type, oe_list ORDER BY partner_id</t>
+          <t>insert into k808_rx_hdp.team_digitcamp.ops_rgs_report_sld (     previous_working_day,     all_count     ) values (     'за 1q2024',       null            )</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1363,7 +1363,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,   COLUMN_NAME, COLUMN_TYPE, DATA_TYPE, TYPE_NAME,   PRECISION, LENGTH, SCALE, RADIX,   NULLABLE, REMARKS, COLUMN_DEF, SQL_DATA_TYPE, SQL_DATETIME_SUB,   CHAR_OCTET_LENGTH, ORDINAL_POSITION, IS_NULLABLE, SPECIFIC_NAME FROM system.jdbc.procedure_columns ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME, COLUMN_NAME LIMIT 0</t>
+          <t>select table_cat from system.jdbc.catalogs order by table_cat</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,7 +1388,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>INSERT INTO k808_rx_hdp.team_digitcamp.ops_rgs_report_sld (     previous_working_day,     all_count     ) VALUES (     'За 1Q2024',       null            )</t>
+          <t>select count(distinct epk_id) ,substring(data_dt,6,2) from k808_rx_hdp.t_team_sva_oarb."13_net_p2_epk_otkl" group by substring(data_dt,6,2)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select table_cat from system.jdbc.catalogs order by table_cat</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1438,7 +1438,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>select count(distinct epk_id) ,substring(data_dt,6,2) from k808_rx_hdp.t_team_sva_oarb."13_net_p2_epk_otkl" group by substring(data_dt,6,2)</t>
+          <t>select count(distinct client_id) from k808_rx_hdp.t_team_sva_oarb."42_rrn_oarbvvb_1542_1777_crd_stream_no_suff_funds_no_success"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1463,7 +1463,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>--num	previous_working_day	target	difference_in_hours	sum_difference	target_time	count_entity_lot	count_lot	abk_difference	insight_difference	working_difference	result_difference	part_entity	part_lose       INSERT INTO k808_rx_hdp.team_digitcamp.ops_rgs_report (     num,     previous_working_day,     target,     target_time,     count_entity_lot,     abk_difference,     insight_difference,     working_difference,     part_entity,     part_lose) VALUES (     '6',           -- varchar(3) num     'За 3Q2024',   -- varchar(30) previous_working_day     '1',           -- varchar(30) target     168,             -- bigint target_time      558,         -- bigint count_entity_lot     13.3,          -- double     1.439,          -- double     0.103,          -- double     null,         -- part_entity     null          -- part_lose    )</t>
+          <t>select count(*) from t_cars_kap.document_removed_box_oad_1_4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1488,7 +1488,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select count(*) from t_cars_kap.document_removed_box_cars_2_2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1513,7 +1513,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>select count(distinct client_id) from k808_rx_hdp.t_team_sva_oarb."42_rrn_oarbvvb_1542_1777_crd_stream_no_suff_funds_no_success"</t>
+          <t>select  try_cast(replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') as decimal(32,2)) suma, n.sms_text, substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8), replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_3" n</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1538,7 +1538,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>select count(*) from t_cars_kap.document_removed_BOX_oad_1_4</t>
+          <t>select position('\d+ \d\dр' in lower(n.sms_text)), try_cast(replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') as decimal(32,2)) suma, n.sms_text, substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8), replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2" n</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1563,7 +1563,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>--923981 select count(distinct personnoepk) from k808_rx_hdp.t_team_sva_oarb."42_rrn_oarbvvb_1542_1777_crd_stream_no_suff_funds_no_success_dimcrdt"</t>
+          <t>select distinct(affected_item_name) from k808_rx_hdp.prx_55_gev_servmgr_internal_servmgr_smprimary.sbimtaskm1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>select count(*) from t_cars_kap.document_removed_BOX_cars_2_2</t>
+          <t>delete from em_pay_history_oper</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1613,7 +1613,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>select  try_cast(replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') as decimal(32,2)) suma, n.sms_text, substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8), replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_3" n</t>
+          <t>delete from em_pay_history_oper</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1638,7 +1638,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>select position('\d+ \d\dр' in lower(n.sms_text)), try_cast(replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') as decimal(32,2)) suma, n.sms_text, substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8), replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2" n</t>
+          <t>select  distinct offer_status from k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1663,7 +1663,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>select distinct(affected_item_name) from k808_rx_hdp.prx_55_gev_servmgr_internal_servmgr_smprimary.sbimtaskm1</t>
+          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_1712_6110_2381_spasibo" select distinct a.epk_id, a.evt_id, a.evt_posted_dttm, a.card_number, a.auth_code, a.ret_ref_number, a.mcc_code, a.trans_type, a.merchant_id, a.terminal_id, a.merchant_name, a.card_cat_cd, a.ipt_name, a.iso_crncy_cd, a.amt, a.acc_ccy_posted_amt, a.local_amt, a.evt_dttm, a.evt_dt, a.evt_posted_dt, a.trx_direction, a.day_part, a.source_system, a.evt_id6110, a.evt_posted_dttm6110, a.card_number6110, a.auth_code6110, a.ret_ref_number6110, a.mcc_code6110, a.trans_type6110, a.merchant_id6110, a.terminal_id6110, a.merchant_name6110, a.card_cat_cd6110, a.ipt_name6110, a.iso_crncy_cd6110, a.amt6110, a.acc_ccy_posted_amt6110, a.local_amt6110, b.paid_amount, b.bns_turn, b.bns_past, b.dtime, b.kop_wtime, b.origin_kop_id, b.skipped, b.mcc, b.ext_merch_id, b.merch_name, b.country, b.paysys, b.acqrr, b.pmacp, b.srctype, b.trantype, b.commentary, a.evt_dttm6110, a.evt_dt6110, a.evt_posted_dt6110, a.trx_direction6110, a.day_part6110, a.source_system6110 from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1712_6110_2381_1"  a join sfd_hdfsgw_hdp.prx_01889660_spasibo_custom_rb_spasibo.sb_sas_opers b on  a.epk_id = b.epk_id and cast(b.dtime as date) = cast(a.evt_dt6110 as date) and b.paid_amount = a.amt6110 * 100 and b.bns_turn &lt; 0 and b.day_part between '2024-03-01' and '2024-03-31'</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1688,7 +1688,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>delete from em_pay_history_oper</t>
+          <t>select t.merchantid, o.inn, t.pprbid, o.pprbid from k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_organization o 	inner join k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_tst t on (t.merchantid=o.inn) limit 10</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>delete from em_pay_history_oper</t>
+          <t>select table_cat from system.jdbc.catalogs order by table_cat</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1738,7 +1738,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SELECT  distinct offer_status FROM k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer --order by offer_start_date desc limit 111</t>
+          <t>select table_cat from system.jdbc.catalogs order by table_cat</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1763,7 +1763,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_1712_6110_2381_spasibo" select distinct a.epk_id, a.evt_id, a.evt_posted_dttm, a.card_number, a.auth_code, a.ret_ref_number, a.mcc_code, a.trans_type, a.merchant_id, a.terminal_id, a.merchant_name, a.card_cat_cd, a.ipt_name, a.iso_crncy_cd, a.amt, a.acc_ccy_posted_amt, a.local_amt, a.evt_dttm, a.evt_dt, a.evt_posted_dt, a.trx_direction, a.day_part, a.source_system, a.evt_id6110, a.evt_posted_dttm6110, a.card_number6110, a.auth_code6110, a.ret_ref_number6110, a.mcc_code6110, a.trans_type6110, a.merchant_id6110, a.terminal_id6110, a.merchant_name6110, a.card_cat_cd6110, a.ipt_name6110, a.iso_crncy_cd6110, a.amt6110, a.acc_ccy_posted_amt6110, a.local_amt6110, b.paid_amount, b.bns_turn, b.bns_past, b.dtime, b.kop_wtime, b.origin_kop_id, b.skipped, b.mcc, b.ext_merch_id, b.merch_name, b.country, b.paysys, b.acqrr, b.pmacp, b.srctype, b.trantype, b.commentary, a.evt_dttm6110, a.evt_dt6110, a.evt_posted_dt6110, a.trx_direction6110, a.day_part6110, a.source_system6110 from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1712_6110_2381_1"  a join sfd_hdfsgw_hdp.prx_01889660_spasibo_custom_rb_spasibo.sb_sas_opers b on  a.epk_id = b.epk_id and cast(b.dtime as date) = cast(a.evt_dt6110 as date) and b.paid_amount = a.amt6110 * 100 and b.bns_turn &lt; 0 and b.day_part between '2024-03-01' and '2024-03-31'</t>
+          <t>select table_type from system.jdbc.table_types order by table_type</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1788,7 +1788,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SELECT t.merchantid, o.inn, t.pprbid, o.pprbid FROM k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_organization o 	inner join k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_tst t on (t.merchantid=o.inn) limit 10</t>
+          <t>select procedure_cat, procedure_schem, procedure_name,   column_name, column_type, data_type, type_name,   precision, length, scale, radix,   nullable, remarks, column_def, sql_data_type, sql_datetime_sub,   char_octet_length, ordinal_position, is_nullable, specific_name from system.jdbc.procedure_columns order by procedure_cat, procedure_schem, procedure_name, specific_name, column_name limit 0</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1813,7 +1813,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select count(id), sum(c_summa_dog) from k808_rx_hdp.t_team_sva_oarb."55_sis_edu24_ekp" limit 100</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1838,7 +1838,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select table_cat from system.jdbc.catalogs order by table_cat</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1863,7 +1863,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SELECT TABLE_TYPE FROM system.jdbc.table_types ORDER BY TABLE_TYPE</t>
+          <t>select creation_date_dd, count(uoh_id) c_id from k808_rx_hdp.t_team_sva_oarb_11."42_pb1_efs_ufs_ophistory_nrt_new" group by creation_date_dd</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SELECT PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME,   COLUMN_NAME, COLUMN_TYPE, DATA_TYPE, TYPE_NAME,   PRECISION, LENGTH, SCALE, RADIX,   NULLABLE, REMARKS, COLUMN_DEF, SQL_DATA_TYPE, SQL_DATETIME_SUB,   CHAR_OCTET_LENGTH, ORDINAL_POSITION, IS_NULLABLE, SPECIFIC_NAME FROM system.jdbc.procedure_columns ORDER BY PROCEDURE_CAT, PROCEDURE_SCHEM, PROCEDURE_NAME, SPECIFIC_NAME, COLUMN_NAME LIMIT 0</t>
+          <t>select count (distinct z_pr_cred_c_num_dog) from k808_rx_hdp.t_team_sva_oarb."55_tdr_df_union_steps"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1913,7 +1913,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>select count(id), sum(C_SUMMA_DOG) from k808_rx_hdp.t_team_sva_oarb."55_sis_edu24_ekp" limit 100</t>
+          <t>delete from em_pay_history_cred</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1938,7 +1938,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select h.collection_id,h.c_change_date change_date,h.c_resume,h.c_date_beg resume from		plan_hist	h</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1963,7 +1963,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SELECT creation_date_dd, count(uoh_id) c_id from k808_rx_hdp.t_team_sva_oarb_11."42_pb1_efs_ufs_ophistory_nrt_new" group by creation_date_dd</t>
+          <t>select losscontrid, id, losscontrid_new, id_new, paydate, payout, payoutrub, currency, currency_id, updatedate, decisionid, archive_name, file_name, ctl_pa_loading, ctl_action, ctl_validfrom, ctl_validto, ctl_loading from sfd_hdfsgw_hdp.prx_02184579_sbszh_702_selfservice_sbszh.losspayout limit 100</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1988,7 +1988,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>select count (distinct z_pr_cred_c_num_dog) from k808_rx_hdp.t_team_sva_oarb."55_tdr_df_union_steps" --order by z_pr_cred_c_num_dog, date</t>
+          <t>select count(*) from (select epk_id, operation, created, device_info, min(created - logon_dt) as delta from k808_rx_hdp.t_team_sva_oarb."55_gev_sberprime_multi_logon_oper_1" group by 1, 2, 3, 4 ) dbvrcnt</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>succes</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>delete from em_pay_history_cred</t>
+          <t>select table_cat from system.jdbc.catalogs order by table_cat</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2038,22 +2038,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>select h.collection_id,h.c_change_date change_date,h.c_resume,h.c_date_beg resume from		plan_hist	h</t>
+          <t>select atm,</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E65" t="b">
@@ -2063,22 +2063,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>line 1:29: function 'coutn' not registered</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SELECT losscontrid, id, losscontrid_new, id_new, paydate, payout, payoutrub, currency, currency_id, updatedate, decisionid, archive_name, file_name, ctl_pa_loading, ctl_action, ctl_validfrom, ctl_validto, ctl_loading FROM sfd_hdfsgw_hdp.prx_02184579_sbszh_702_selfservice_sbszh.losspayout limit 100</t>
+          <t>select date(ctl_validfrom), coutn(*) from k808_rx_hdp.prx_rgs_torg_external_zakupkigovru.beginner group by date(ctl_validfrom) order by ctl_validfrom desc limit 11</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>FunctionError</t>
         </is>
       </c>
       <c r="E66" t="b">
@@ -2088,22 +2088,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-- EKP - кредиты -- 0.5мин insert into em_pay_history_cred(id,dt,inn,client,ref,ac) with kd_list as (   select cast(prod.id as bigint) id,l.dt   ,cast(cred.c_client as bigint)     ref1   ,cast(cred.c_list_plan_pay as bigint) ref12 -- collection_id of plan operation   ,cast(cred.c_list_pay as bigint)   ref13    -- collection_id of fact operation   ,cast(prod.c_com_status as bigint) ref14   ,cast(cred.c_list_prol as bigint)  ref17 -- collection_id of restruct   ,cast(cred.c_zalog as bigint)      ref18 -- collection_id of obesp   ,cast(prod.c_filial as bigint)     ref31   from   idlist l   join   k808_rx_hdp.prx_ekp_pcp1_internal_ekp_reports_ibs.z_product  prod on prod.id=l.id   join   k808_rx_hdp.prx_ekp_pcp1_internal_ekp_reports_ibs.z_pr_cred  cred on cred.id=prod.id )   select kd.id,kd.dt,null,clnt.c_name,kd.ref13,'ekp'   from   kd_list        kd   join   k808_rx_hdp.prx_ekp_pcp_2_internal_ekp_reports_ibs.z_client  clnt on clnt.id=kd.ref1</t>
+          <t>select atm, tb_code, osb_code, osb_name, model_hl, ticket, ticket_work_type_name, ticket_created_atm_human, ticket_completed_atm_human, repaired_modul, modul_replacement, cashin, cashout, tr_1, tr_5, rn from k808_rx_hdp.t_team_curus_ds.dscurus1431_res</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E67" t="b">
@@ -2113,22 +2113,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM (SELECT epk_id, operation, created, device_info, min(created - logon_dt) AS delta FROM k808_rx_hdp.t_team_sva_oarb."55_gev_sberprime_multi_logon_oper_1" GROUP BY 1, 2, 3, 4 ) dbvrcnt</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_golovkova_kr2_score_pm_2"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E68" t="b">
@@ -2138,22 +2138,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SUCCES</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>line 40:108: mismatched input 'left'. expecting: &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select uuid ,timestampcolumn as date ,opened_at ,atm_id ,incident_id  ,auto_initiated ,user_status  ,case when initiator_uuid = '798b18d6-fd6c-4ae7-a593-73bbeeaf68b1' 		then 'automatization' 		else 'сотрудник' 		end as initiator_uuid ,reason_type  ,reason  ,case when component_id is null  		then 'нет компоненты' 		else component_id 		end as component_id ,description  ,status  ,lmd ,case when status = 'closed' and lmd - opened_at &lt; 0 		then 0 		else lmd - opened_at  		end as recoveryperiod ,comments  ,case when resolution_code is null 		then 'нет кода закрытия'  		else resolution_code 		end as resolution_code ,scenario_step  ,scenario  ,case when updater_uuid = '798b18d6-fd6c-4ae7-a593-73bbeeaf68b1' then 'automatization'  		when updater_uuid is not null then 'неизвестно' else 'сотрудник' 		end as who_update ,businessprocess_id  ,current_stage  ,stage_attributes  ,event_object_timestamp  ,ld_group_id  ,case when (auto_initiated = 'true' and (businessprocess_id) is not null and (ld_group_id) is not null and left(replace(description, ' '), 31) = 'инцидентпообращениюизассбердруг') then 'сбердруг' end as source_incident from k808_rx_hdp.prx_hd_atm_host_main_231201_nrt_atmhost_cap.incident  atm limit 120</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E69" t="b">
@@ -2163,22 +2163,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time or memory limit</t>
+          <t>line 1:15: cannot cast integer to char(1)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SELECT atm,  --tb_code, osb_code, osb_name, "model",  ticket, ticket_work_type_name, ticket_work_name, ticket_created_atm_human, ticket_completed_atm_human, dt, hr, ticket_description, ticket_resolution, ticket_resolution_code, repaired_modul, modul_replacement FROM k808_rx_hdp.t_team_curus_ds.dscurus1431_tickets ORDER BY atm</t>
+          <t>select concat(cast(kind as char ),cast (subkind as char)) from k808_rx_hdp.prx_55_krd_cod_platform_cod.cod_deposit_deposit</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>CanceledError</t>
+          <t>TypeError</t>
         </is>
       </c>
       <c r="E70" t="b">
@@ -2188,22 +2188,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>line 1:29: Function 'coutn' not registered</t>
+          <t>line 3:10: mismatched input ':'. expecting: ',', '.', 'as', 'cross', 'except', 'fetch', 'for', 'full', 'group', 'having', 'inner', 'intersect', 'join', 'left', 'limit', 'match_recognize', 'natural', 'offset', 'order', 'right', 'tablesample', 'union', 'where', 'window', &lt;eof&gt;, &lt;identifier&gt;</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>select date(ctl_validfrom), coutn(*) from k808_rx_hdp.prx_rgs_torg_external_zakupkigovru.beginner group by date(ctl_validfrom) order by ctl_validfrom desc limit 11</t>
+          <t>select * from hdfs://hdfsgw/sklsdpsdlog__sdlogging_v1-sdlogging-hdfsevents/data/sdlogging/hdfsevents/loaded_date=2024-05-25/000010_0</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>FunctionError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E71" t="b">
@@ -2213,57 +2213,57 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Access Denied: Cannot access catalog system</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
+          <t>select * from capgp1_gp.s_grnplm_ld_salesntwrk_pcap_sn_dsa.ffd_dim_office</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PermissionError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/40_gradusov_epk_podpiska_sberprime_7_7t_inf_sberprime_v/part-00000-8c4626d8-c491-4a33-8e0b-bd0471ecfe5a-c000.snappy.parquet (offset=0, length=2640514): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6478339264_5439855311 file=/user/team/team_sva_oarb/hive/40_gradusov_epk_podpiska_sberprime_7_7t_inf_sberprime_v/part-00000-8c4626d8-c491-4a33-8e0b-bd0471ecfe5a-c000.snappy.parquet</t>
+          <t>line 1:68: mismatched input ':'. expecting: ',', '.', 'as', 'cross', 'except', 'fetch', 'for', 'full', 'group', 'having', 'inner', 'intersect', 'join', 'left', 'limit', 'match_recognize', 'natural', 'offset', 'order', 'right', 'tablesample', 'union', 'where', 'window', &lt;eof&gt;, &lt;identifier&gt;</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_team_sva_oarb."40_gradusov_epk_podpiska_sberprime_7_7t_inf_sberprime_v"</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_krd_zp_12_click_test":</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SELECT atm, tb_code, osb_code, osb_name, model_hl, ticket, ticket_work_type_name, ticket_created_atm_human, ticket_completed_atm_human, repaired_modul, modul_replacement, cashin, cashout, tr_1, tr_5, rn FROM k808_rx_hdp.t_team_curus_ds.dscurus1431_res</t>
+          <t>select * from rozn2_gp.s_grnplm_ld_rozn_electron_cbp_core.bmg_epks_flg limit 10</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2288,132 +2288,132 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/42_danilovich_zp10_m_ryzh/000047_0 (offset=33554432, length=33554432): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6465640656_5426886653 file=/user/team/team_sva_oarb/hive/42_danilovich_zp10_m_ryzh/000047_0</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CREATE TABLE  k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh_tarif_1" as SELECT a.*,  plan.id plan_id,  plan.indtariffagreementid,  plan.indtariffagreementnumber,              plan.restorationdate,                  plan.startdate,  plan.suspensiondate,        plan.tariffrates,  substring(plan.tariffrates,0,36) as  tariffrates2,               plan.tariffratesidvalue,  plan.usedyntariff, rate.additionalinfo,  rate.enrollmenttype,  rate.id as rate_id,  rate.isdyntariff,  rate.isenrollmentotherbank,  rate.tariffintervalidvalue,  rate.tariffintervalrates,  rate.tariffplan rate_tariffplan  FROM k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh"  as a  left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffplan as plan on plan.id=   substring(a.tariffplan,49,36) left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffrate  as rate  on rate.id= substring(plan.tariffrates,0,36)</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lazarev_1294_1_new" as  select a.* , data1 from sfd_hdfsgw_hdp.prx_lazarev_clickstream_sbolweb_24_custom_rb_sbol_clickstream.sbol_events a  join k808_rx_hdp.t_team_sva_oarb."42_lazarev_1294" b on a.epk_id  =  b.epk and a.timestampcolumn = b.data1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CREATE TABLE  k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh_tarif_1" as SELECT a.*,  plan.id plan_id,  plan.indtariffagreementid,  plan.indtariffagreementnumber,              plan.restorationdate,                  plan.startdate,  plan.suspensiondate,        plan.tariffrates,  substring(plan.tariffrates,0,36) as  tariffrates2,               plan.tariffratesidvalue,  plan.usedyntariff, rate.additionalinfo,  rate.enrollmenttype,  rate.id as rate_id,  rate.isdyntariff,  rate.isenrollmentotherbank,  rate.tariffintervalidvalue,  rate.tariffintervalrates,  rate.tariffplan rate_tariffplan  FROM k808_rx_hdp.t_team_sva_oarb."42_danilovich_ZP10_m_Ryzh"  as a  left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffplan as plan on plan.id=   substring(a.tariffplan,49,36) left join sfd_hdfsgw_hdp.prx_dan_platform_pprbzdfd_platform_pprbzdfd.com_sbt_salary_agreement_model_oracle_tariffrate  as rate  on rate.id= substring(plan.tariffrates,0,36)</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_gulynin_1408_login_ucp_id_pro" as select  a.*,  b.profile_sessionid, b.profile_deviceid, b.profile_partnerid, b.profile_appid, b.profile_sapid, b.profile_adid, b.profile_clientblock, b.data_eventcategory, b.data_eventaction, b.data_eventtype, b.data_value, b.data_timestamp, b.data_properties, b.meta_dt_msk, b.data_dt, b.data_dt_msk, b.epk_id, b.ctl_loading, b.timestampcolumn from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1408_login_ucp_id" a join sfd_hdfsgw_hdp.prx_42_gulynin_pro2_custom_rozn_sbolpro.sbolpro_events b on a.ucp_id=cast(b.epk_id as varchar) and b.timestampcolumn=a.dat and b.timestampcolumn in ('2024-01-18' ,'2024-01-23' ,'2024-01-24' ,'2024-01-25' ,'2024-01-26')</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Failed to list directory: hdfs://hdfsgw/sklsdpp1164si__SI_dannye_PKAP-CUSTOM_T_P1164SI-DWH_LUN_SERVER_RELATIONS_W/data/custom/t/p1164si/pa/dwh_lun_server_relations_w/cbap_validfrom=2023_48</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>select * from sfd_hdfsgw_hdp.prx_si_dannye_pkap_custom_t_p1164si.dwh_lun_server_relations_w limit 100</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."40_ape_zp18_nondetach_step1"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-4404588d-9d36-44a5-8927-db142981a352-c000.snappy.parquet (offset=0, length=4115): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6556385924_5519523244 file=/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-4404588d-9d36-44a5-8927-db142981a352-c000.snappy.parquet</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM (select  * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2706_print_pm_mega_70"  ) dbvrcnt</t>
+          <t>select "timestamp", atmid, json_extract_scalar(item, '$.id') as id, json_extract_scalar(item, '$.code') as code, json_extract_scalar(item, '$.name') as name, cast(json_extract_scalar(item, '$.priority') as integer) as priority, json_extract_scalar(item, '$.manageby') as manageby from k808_rx_hdp.prx_mv_nrt_smsb2_nrt_smsb2.srvsendtechstatus cross join unnest (cast(json_parse(businessstatuses) as array (json))) as t(item)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Error opening Hive split hdfs://arnsdpsbx/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-cfd86e3d-a39c-42d8-bdab-4023127ed322-c000.snappy.parquet (offset=0, length=1618): Could not obtain block: BP-767966005-10.114.37.133-1632798697538:blk_6556016331_5519149119 file=/user/team/team_sva_oarb/hive/42_gulynin_2706_print_pm_mega_70/part-00000-cfd86e3d-a39c-42d8-bdab-4023127ed322-c000.snappy.parquet</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>select  * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2706_print_pm_mega_70"</t>
+          <t>create table rozn2_gp.s_grnplm_ld_rozn_electron_cbp_core.pshk_yegor_refused_smm as select cast(cust_sid as bigint) as epk_id from k808_rx_hdp.t_team_cbpml.saa_bnpl_202408</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_golovkova_KR2_score_pm_2"</t>
+          <t>select * from  k808_rx_hdp.t_team_sva_oarb."42_gulynin_1908_bio_template" order by ucp_id</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2438,22 +2438,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>line 40:108: mismatched input 'left'. Expecting: &lt;expression&gt;</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>select uuid ,timestampcolumn as date ,opened_at ,atm_id ,incident_id  ,auto_initiated ,user_status  ,CASE WHEN initiator_uuid = '798b18d6-fd6c-4ae7-a593-73bbeeaf68b1' 		THEN 'Automatization' 		ELSE 'Сотрудник' 		END AS initiator_uuid ,reason_type  ,reason  ,CASE WHEN component_id is null  		THEN 'Нет компоненты' 		ELSE component_id 		END AS component_id ,description  ,status  ,lmd ,CASE WHEN status = 'CLOSED' and lmd - opened_at &lt; 0 		THEN 0 		ELSE lmd - opened_at  		END AS recoveryperiod ,comments  ,CASE WHEN resolution_code is null 		THEN 'Нет кода закрытия'  		ELSE resolution_code 		END AS resolution_code ,scenario_step  ,scenario  ,CASE WHEN updater_uuid = '798b18d6-fd6c-4ae7-a593-73bbeeaf68b1' THEN 'Automatization'  		WHEN updater_uuid is not null then 'Неизвестно' else 'Сотрудник' 		END AS who_update ,businessprocess_id  ,current_stage  ,stage_attributes  ,event_object_timestamp  ,ld_group_id  ,case when (auto_initiated = 'True' and (businessprocess_id) IS NOT NULL and (ld_group_id) IS NOT NULL and left(replace(description, ' '), 31) = 'ИнцидентпообращениюизАССбердруг') then 'Сбердруг' end as source_incident from k808_rx_hdp.prx_hd_atm_host_main_231201_nrt_atmhost_cap.incident  atm limit 120</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oakb.uvsk_claim_report as  select 	*  from k808_rx_hdp.t_team_sva_oakb."03489677_uvsk_claim_report"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E81" t="b">
@@ -2463,22 +2463,22 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>line 1:15: Cannot cast integer to char(1)</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>select concat(cast(kind as char ),cast (subkind as char)) from k808_rx_hdp.prx_55_krd_cod_platform_cod.cod_deposit_deposit</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oakb.uvsk_claim_report as  select 	*  from k808_rx_hdp.t_team_sva_oakb."03489677_uvsk_claim_report"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>TypeError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E82" t="b">
@@ -2488,72 +2488,72 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>line 5:82: Column 't.person_major' cannot be resolved</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_gulynin_2307_lider_epk" as select a.*, d.epkid from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2307_lider_" a join sfd_hdfsgw_hdp.prx_42_gul_cod_internal_cod13_client.person n on  n.id_major=t.person_major and n.id_minor = t.person_minor and n.id_mega=t.id_mega join sfd_hdfsgw_hdp.prx_42_gul_cod_internal_cod13_client.epkid d on d.untb=n.untb and d.id_mega=t.id_mega</t>
+          <t>select * from t_cars_kap.k_workschedule_4</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>MissingColumnError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: ERROR: role "22022198" does not exist</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>select * from sfd_gpgw_gp.s_grnplm_vd_rozn_soc_sal_sol_espd.t_4_25 limit 10</t>
+          <t>select * from t_cars_kap.k_workschedule</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>MissingObjectError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>line 3:10: mismatched input ':'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+          <t>query exceeded distributed user memory limit of 27gb</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>select * from hdfs://hdfsgw/sklsdpsdlog__sdlogging_v1-SDLOGGING-HDFSEVENTS/data/sdlogging/hdfsevents/loaded_date=2024-05-25/000010_0</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_not_cars_fio" as select distinct a.*, b.profile_sapid, b.profile_adid, b.tb, b.osb, b.vsp, epk.last_name, first_name, middle_name,  epk.birth_dt</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E85" t="b">
@@ -2563,22 +2563,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time or memory limit</t>
+          <t>value cannot be cast to timestamp: 20247364831273202513</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>select * from capgp1_gp.s_grnplm_ld_salesntwrk_pcap_sn_dsa.ffd_dim_office</t>
+          <t>select 	cast(concat_ws('',cast(tsk.body.systemparamsinfo.datecreateevent as array&lt;varchar&gt;)) as timestamp)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>CanceledError</t>
+          <t>TypeError</t>
         </is>
       </c>
       <c r="E86" t="b">
@@ -2588,22 +2588,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>line 1:68: mismatched input ':'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_krd_zp_12_click_test":</t>
+          <t>select * from sfd_hdfsgw_hdp.prx_siv_r_eps_9__internal_eps_ibs.z_bd_ps_bp</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E87" t="b">
@@ -2613,7 +2613,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>select * from rozn2_gp.s_grnplm_ld_rozn_electron_cbp_core.bmg_epks_flg limit 10</t>
+          <t>select * from t_cars_kap.k_performance_operations po</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2638,17 +2638,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_Lazarev_1294_1_NEW" as  SELECT a.* , Data1 FROM sfd_hdfsgw_hdp.prx_lazarev_clickstream_sbolweb_24_custom_rb_sbol_clickstream.sbol_events a  join k808_rx_hdp.t_team_sva_oarb."42_Lazarev_1294" b on a.epk_id  =  b.EPK and a.timestampcolumn = b.Data1</t>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb.gulynin_epk_sms select * from k808_rx_hdp.t_team_sva_oarb.epk_sms a</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2663,7 +2663,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_gulynin_1408_login_ucp_id_pro" as select  a.*,  b.profile_sessionid, b.profile_deviceid, b.profile_partnerid, b.profile_appid, b.profile_sapid, b.profile_adid, b.profile_clientblock, b.data_eventcategory, b.data_eventaction, b.data_eventtype, b.data_value, b.data_timestamp, b.data_properties, b.meta_dt_msk, b.data_dt, b.data_dt_msk, b.epk_id, b.ctl_loading, b.timestampcolumn from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1408_login_ucp_id" a join sfd_hdfsgw_hdp.prx_42_gulynin_pro2_custom_rozn_sbolpro.sbolpro_events b on a.ucp_id=cast(b.epk_id as varchar) and b.timestampcolumn=a.dat and b.timestampcolumn in ('2024-01-18' ,'2024-01-23' ,'2024-01-24' ,'2024-01-25' ,'2024-01-26')</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.bb_deti_dropi_cod13_fix as ( 	select * from k808_rx_hdp.t_team_sva_oapso.bb_deti_dropi_cod13_fix )</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2688,7 +2688,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."40_ape_zp18_nondetach_step1"</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."13_net_mkk_2024_plus"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2713,47 +2713,47 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>target of repeat operator is not specified</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>select regexp_extract('Description=Microsoft Windows 10 Enterprise 2016 LTSB;', '(\W+)({6}.)')</t>
+          <t>select * from capgp3_gp.prx_55_sai_grnplm_smd_s_grnplm_as_rozn_anofl_view_2a7."v_anofl_rep$_csi_tm_21957987_view"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time or memory limit</t>
+          <t>query exceeded distributed user memory limit of 27gb</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>select "timestamp", atmid, json_extract_scalar(item, '$.id') as id, json_extract_scalar(item, '$.code') as code, json_extract_scalar(item, '$.name') as name, cast(json_extract_scalar(item, '$.priority') as INTEGER) as priority, json_extract_scalar(item, '$.manageBy') as manageBy FROM k808_rx_hdp.prx_mv_nrt_smsb2_nrt_smsb2.srvsendtechstatus cross join unnest (cast(json_parse(businessstatuses) AS array (json))) as t(item)</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb.fio as select a.epk_id, a.fullname, b.birth_date from sfd_hdfsgw_hdp.prx_epk_dqepk_1_custom_rozn_dqepk.epk_client_name a join sfd_hdfsgw_hdp.prx_epk_dqepk_1_custom_rozn_dqepk.epk_client b on a.epk_id= b.epk_id</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>CanceledError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E93" t="b">
@@ -2763,7 +2763,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>create table rozn2_gp.s_grnplm_ld_rozn_electron_cbp_core.pshk_yegor_refused_smm as select cast(cust_sid as bigint) as epk_id from k808_rx_hdp.t_team_cbpml.saa_bnpl_202408</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lazarev_b_obr1"   as select cast (b.ucp_id as bigint  ) as ucp_id ,  cast (b.creation_date_dd as date) as creation_date_dd, cast(a.id as varchar ) as id, cast(a.source_dm as varchar ) as source_dm, cast(a.cust_epk_id as varchar ) as cust_epk_id, cast(a.fio as varchar ) as fio, cast(a.birth_dt as varchar ) as birth_dt, cast(a.segment_general as varchar ) as segment_general, cast(a.created as varchar ) as created, cast(a.app_row_id as varchar ) as app_row_id, cast(a.app_created as varchar ) as app_created, cast(a.app_created_by as varchar ) as app_created_by, cast(a.app_client_end_date as varchar ) as app_client_end_date, cast(a.app_planned_end_date as varchar ) as app_planned_end_date, cast(a.app_num as varchar ) as app_num, cast(a.app_status_date as varchar ) as app_status_date, cast(a.app_party_id as varchar ) as app_party_id, cast(a.app_reg_channel_id as varchar ) as app_reg_channel_id, cast(a.app_status as varchar ) as app_status, cast(a.app_supply_form_id as varchar ) as app_supply_form_id, cast(a.app_finish_date as varchar ) as app_finish_date, cast(a.app_db_last_upd as varchar ) as app_db_last_upd, cast(a.req_row_id as varchar ) as req_row_id, cast(a.req_num as varchar ) as req_num, cast(a.req_created as varchar ) as req_created, cast(a.req_created_by as varchar ) as req_created_by, cast(a.req_double_flg as varchar ) as req_double_flg, cast(a.req_planned_end_date as varchar ) as req_planned_end_date, cast(a.req_reg_date as varchar ) as req_reg_date, cast(a.req_status_date as varchar ) as req_status_date, cast(a.req_urgency_flg as varchar ) as req_urgency_flg, cast(a.req_cons_res as varchar ) as req_cons_res, cast(a.req_cons_res_val as varchar ) as req_cons_res_val, cast(a.res_reason as varchar ) as res_reason, cast(a.req_operation_type as varchar ) as req_operation_type, cast(a.req_party_id as varchar ) as req_party_id, cast(a.req_reason_id as varchar ) as req_reason_id, cast(a.req_result_reason_id as varchar ) as req_result_reason_id, cast(a.req_status as varchar ) as req_status, cast(a.req_finish_date as varchar ) as req_finish_date, cast(a.req_vsp_name as varchar ) as req_vsp_name, cast(a.req_tb_name as varchar ) as req_tb_name, cast(a.req_relation_type as varchar ) as req_relation_type, cast(a.req_repeat_type as varchar ) as req_repeat_type, cast(a.req_emp_num as varchar ) as req_emp_num, cast(a.grp as varchar ) as grp, cast(a.prd as varchar ) as prd, cast(a.s_prd as varchar ) as s_prd, cast(a.chnl as varchar ) as chnl, cast(a.subj as varchar ) as subj, cast(a.s_subj as varchar ) as s_subj, cast(a.double_type as varchar ) as double_type, cast(a.kanal_reg as varchar ) as kanal_reg, cast(a.sposob_reg as varchar ) as sposob_reg, cast(a.toxic_flag as varchar ) as toxic_flag, cast(a.call_edu_id as varchar ) as call_edu_id, cast(a.call_created_dt as varchar ) as call_created_dt, cast(a.split_val as varchar ) as split_val, cast(a.reclass_type as varchar ) as reclass_type, cast(a.init_grp as varchar ) as init_grp, cast(a.init_prd as varchar ) as init_prd, cast(a.init_s_prd as varchar ) as init_s_prd, cast(a.init_chnl as varchar ) as init_chnl, cast(a.init_subj as varchar ) as init_subj, cast(a.init_s_subj as varchar ) as init_s_subj, cast(a.app_supply_source as varchar ) as app_supply_source, cast(a.app_resonance_flg as varchar ) as app_resonance_flg, cast(a.req_attrs as varchar ) as req_attrs, cast(a.req_comm_hist as varchar ) as req_comm_hist, cast(a.req_desc as varchar ) as req_desc, cast(a.req_vsp as varchar ) as req_vsp, cast(a.req_demand as varchar ) as req_demand, cast(a.app_gol_org_reg as varchar ) as app_gol_org_reg, cast(a.app_content as varchar ) as app_content, cast(a.app_div_reg as varchar ) as app_div_reg, cast(a.tb_erkc as varchar ) as tb_erkc, cast(a.uber as varchar ) as uber, cast(a.owner_sprv as varchar ) as owner_sprv, cast(a.req_last_upd as varchar ) as req_last_upd, cast(a.req_master_req_id as varchar ) as req_master_req_id, cast(a.app_emp_num as varchar ) as app_emp_num, cast(a.dzo as varchar ) as dzo, cast(a.type_operator_workplace as varchar ) as type_operator_workplace, cast(a.unit as varchar ) as unit, cast(a.tribe as varchar ) as tribe, cast(a.toxic_flag_rep as varchar ) as toxic_flag_rep, cast(a.flg_kpi as varchar ) as flg_kpi, cast(a.driver_sprv as varchar ) as driver_sprv, cast(a.req_org_type as varchar ) as req_org_type, cast(a.dpan as varchar ) as dpan, cast(a.devicesberdevices as varchar ) as devicesberdevices, cast(a.descriptionsolveproblem as varchar ) as descriptionsolveproblem, cast(a.reasondispute as varchar ) as reasondispute</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2788,22 +2788,22 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>line 3:2: mismatched input '''. Expecting: &lt;expression&gt;</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>select --regexp_replace( regexp_extract('SwitchAllowVersion=1.56.0.1027;1.54.3.1003;1.54.0.935;Model=NH8600S;cim_model=BRM56;TID=60032377;bank_name=ПАО СБЕРБАНК;vsp_name=IШахта Угольная;address=ул Угольная  1;tel_tech_number=900;keysForStatusBar=456;keysForSupervisor=;wait_screen_url=https://localhost:9443/_BUILD_/bootstrap.html;lang=ru-RU;RemoteNominalChange=0;params_loading_required=1;AtmType=auto;wait_screen_refresh_every=1000;temp_directory=C:/Sberbank/LogsDbs;product_name=ATMoSphere;current_version.version=1.61.0.1142;current_version.date_planned=01.11.2019 0:00:00;current_version.date_actual=16.07.2024 2:11:22;device_type=RATM;vendor=Nautilus;os=win7;hardware_architecture=x86;state_machine_path=C:\\scs\\atm_h;InitialCountFileName=391;waitForStatusBar=5000;sop_url=http://localhost:5000/;status_url=http://localhost:5000?Mode=DevicesState;AddSpornoRetract=1;is_topmost=True;fullscr=False;xoffset=0;yoffset=0;xscreen=800;yscreen=600;preloader_timeout=2000;start_url=;notify_need_wait_screen_refresh=True;log_level=Trace;webplayer_mode=ATMS;js_plugins_directory=.;host=localhost;port=1313;start_page=TCR_Startup;left_start_page=TCR_Startup;right_start_page=TCR_Startup;left_start_url=;right_start_url=;!mainbus_pipename=\\\\.\\pipe\\TCR_webplayer;mainbus_connection_timeout=2000;vendor_diag_util=C:\\Hyosung\\Nextware\\EXE\\NHVDM\\NHVDM.exe;use_event_driven_view=True;has_title=False;has_frame=True;is_scrolled=False;need_block_new_window=True;has_frame_3d=True;is_keyboard_event=False;is_check_parent=False;need_to_reload=False;need_hide=True;need_blank=False;need_notify_on_load=True;need_notify_on_error=True;need_to_check_by_id=False;need_to_silent_dlg=True;need_clear_hist=False;is_enable_msg_box=False;is_fix_update=False;is_hide_cursor=True;window_keyboard=0;priority_flags=0;log_mask=31;key_map=;domains_filter=;_MainHWND=0;_MainProc=0;NdcConfigChannel_AfterDisconnectDelay=2000;NdcConfigChannel_ChannelType=4;NdcConfigChannel_ConnectTimeout=30000;NdcConfigChannel_KeepAlive=0;LocalAddress=;NdcConfigChannel_LocalPort=0;NdcConfigChannel_LogPolling=0;NdcConfigChannel_LogPreProcessing=1;NdcConfigChannel_LogTraffic=0;NdcConfigChannel_PingHostTimeout=31000;NdcConfigChannel_PingTimeout=900000;NdcConfigChannel_ReconnectTimeout=60000;NdcConfigChannel_RecvPacketTryCount=5;NdcConfigChannel_RecvTimeout=40000;NdcConfigChannel_SendTimeout=40000;NdcConfigChannel_LogTrafficPath=NDC\\RMS;HostAddress=10.103.99.79;HostPort=30654;Custom_Option4=1;Custom_Option9=1;Custom_Option24=1;NdcConfig_ActiveOperDaysMask=11;NdcConfig_BackgroundODopen=0;NdcConfig_BcrSendBarcodeType=0;NdcConfig_BioDLL=quorum_bio.dll;NdcConfig_BioidentificationMode=0;NdcConfig_BioverificationMode=0;NdcConfig_BnaRemoveMode=0;NdcConfig_BnaUseVirtualNotes=0;NdcConfig_Card_Type_masked=0;NdcConfig_CardlessAcceptType=231;NdcConfig_ConfigChangedEvent=Global\\NDCConfigChangedEvent;NdcConfig_ConfigPath=ConfigNDC;NdcConfig_ConnectionName=NDC;NdcConfig_CorrectCdmCounters=0;NdcConfig_CustomExitExtState=Z;NdcConfig_CustomExitState=f;NdcConfig_CustomPPD=0;NdcConfig_DISPLAY_TYPE=2;NdcConfig_DefLanguage=rus;NdcConfig_DefaultODnum=0;NdcConfig_DieboldMode=0;NdcConfig_DisAsyncDevStatMask=0;NdcConfig_DisablePtrOD=0;NdcConfig_DisableZeroFdk=1;NdcConfig_EdmDispenseMode=0;NdcConfig_EdmExists=0;NdcConfig_EmvPostProcessingMode=0;NdcConfig_ExchByNdc=0;NdcConfig_ExtAuth_ConfirmNdcTran=1;NdcConfig_ExtAuth_ForceSendCdmCounters=0;NdcConfig_ExtAuth_OldFormat=1;NdcConfig_ExtCardNumberDll=CustCard.dll;NdcConfig_ExternalBnaParams=4;NdcConfig_ExternalDepErrorState=255;NdcConfig_ExternalOperState=000;NdcConfig_FatalErrorScreenPath=;NdcConfig_FdkA=16;NdcConfig_FdkB=32;NdcConfig_FdkC=64;NdcConfig_FdkD=128;NdcConfig_FdkF=8;NdcConfig_FdkG=4;NdcConfig_FdkH=2;NdcConfig_FdkI=1;NdcConfig_ForceResetTimeout=0;NdcConfig_FraudMonitoring=1;NdcConfig_FrontDll=multi_front.dll;NdcConfig_FrontEnabled=1;NdcConfig_IccEmvClessConfig=DataNDC\\nfc_emv_NDC.cfg;NdcConfig_IccEmvClessDLL=NFCVivoKiosk2.dll;NdcConfig_IccEmvClessKernelType=0;NdcConfig_IccEmvClessMode=1;NdcConfig_IccEmvClessTerminalType=20;NdcConfig_IccEmvConfig=DataNDC\\emv_ndc.cfg;NdcConfig_IccEmvCustomConf=DataNDC\\emv_NDC_cust.cfg;NdcConfig_IccEmvCustomCvmTag=57169;NdcConfig_IccEmvDLL=scs_emv;NdcConfig_IccEmvMode=1;NdcConfig_IccEmvTerminalType=20;NdcConfig_IgnoreLastNonAsciiSymbols=0;NdcConfig_KeyIndexA=266;NdcConfig_KeyIndexB=267;NdcConfig_KeyIndexComm=523;NdcConfig_KeyIndexMac=522;NdcConfig_KeyIndexRsaEpp=17;NdcConfig_KeyIndexRsaHsm=18;NdcConfig_KeyIndexRsaRootHsm=19;NdcConfig_KeyIndexRsaSgn=16;NdcConfig_LastTSN=0000;NdcConfig_LeftFdk=0;NdcConfig_LockTimeout=7000;NdcConfig_LogInHexFormat=0;NdcConfig_MaxLogHistory=45;NdcConfig_MinLogFiles=10;NdcConfig_MsMandForOtherSys=0;NdcConfig_NdcEmvSimVersion=10;NdcConfig_NdcSimVersion=30;NdcConfig_NfcState=000;NdcConfig_NoPIN=0;NdcConfig_OpenSesionCashUnitViewMode=1;NdcConfig_PRR.DeviceStatus=0;NdcConfig_PinAutoCompletion=1;NdcConfig_PrintOnPrjMode=0;NdcConfig_PrintOnPrrMode=0;NdcConfig_SaveConfig=1;NdcConfig_SendUnsolStatus=1;NdcConfig_SetAcceptedBnaCounters=0;NdcConfig_SetHostTime=0;NdcConfig_SprayCdmOptions=0;NdcConfig_StJ_RecBeforeCard=0;NdcConfig_SupervisorUrl=http:/localhost:5000/;NdcConfig_Timer_77=90000;NdcConfig_Timer_BnaRemove=70000;NdcConfig_Timer_IccMinShowWait=2000;NdcConfig_Track1=;NdcConfig_Track2=;NdcConfig_Track3=;NdcConfig_UseCoinTI=1;NdcConfig_WaitAsyncOnAcceptTimeout=5000;NdcConfig_XmlTraceMode=2;NdcConfig_ZkMode=0;NdcConfig_receipt_title_02=;NdcConfig_receipt_title_03=УЛИЦА;NdcConfig_receipt_title_04=НОМЕР ТЕЛЕФОНА;NdcConfig_ParamSourceFormat=0;NdcConfig_zrs_mode=1;NdcConfig_FullBufferX=0;NdcConfig_IccEmvTracePath=NDC\\EMV;NdcConfig_LogPath=NDC\\NDC;NdcConfig_ReconnectOnTrReply=1;NdcConfig_FrontData_ParamName=FrontInfo_SessNumber;NdcConfig_SuspendTimeout=300000;NdcConfig_UnsolRecvTimeout=10000;NdcConfig_ReconnectDelay=5000;NdcConfig_UseCheckChannel=1;NdcConfig_RetrySendResp=1;NdcConfig_RecvTryCountOnTrReply=3;NdcConfig_EjLCP=0;NdcConfig_EjLCC=0;NdcConfig_EjTryCount=0;NdcConfig_EjLastDataSize=0;NdcConfig_EjCheckTimeout=10000;NdcConfig_StartUpOptions=0;NdcConfig_TraceRoot=c:\\scs\\logs;NdcConfig_HostPrintData_Enabled=0;NdcConfig_RemapNdc2Dev_COIN=0;NdcConfig_HostScreenData_Enabled=0;NdcConfig_DisableDepByOD=0;NdcConfig_KeyUsageB=0;NdcConfig_IsShutterEnabled=1;NdcConfig_IsTransitEnabled=1;NdcConfig_IsTSKDepositEnabled=0;NdcConfig_Timer_CashCount=2400000;NdcConfig_ExternalProtocolParams=16904;BacklightPinPad=4;NdcConfig_State_041_CheckPocketCaps=1;NdcConfig_NewIncasMenu=0;NdcConfig_ConfiguredDevices=3;NdcConfig_LUNO=377;NdcConfig_MaxMCN=63;NdcConfig_UseReadyB=17;NdcConfig_FromSupervisorToPrev=0;NdcConfig_UseTI=1;NdcConfig_UseSpecificReject=1;NdcConfig_UseReleaseID=1;NdcConfig_AmountLen=12;NdcConfig_SendTrStatus=1;NdcConfig_SendEdmStatus=0;NdcConfig_SendBnaCounters=335;NdcConfig_LastFitNumber=1312;NdcConfig_UseExtCdmHoppers=0;NdcConfig_UseExtCoinHoppers=0;NdcConfig_BcrConfig=0;NdcConfig_RollWidth=40;NdcConfig_LeftColumn=1;NdcConfig_EjMaxDataSize=200;NdcConfig_EjMaxTryCount=0;NdcConfig_Timer_00=150000;NdcConfig_Timer_01=90000;NdcConfig_Timer_02=2000;NdcConfig_Timer_03=60000;NdcConfig_Timer_04=30000;NdcConfig_Timer_05=20000;NdcConfig_Timer_07=1000;NdcConfig_Timer_60=255000;NdcConfig_Timer_61=60000;NdcConfig_Timer_78=90000;NdcConfig_Timer_94=30000;NdcConfig_Timer_50=30000;NdcConfig_Option_41=1;NdcConfig_Option_69=15;NdcConfig_Option_71=255;NdcConfig_Option_76=0;NdcConfig_SecurityFlags=1100000000;NdcConfig_MacTrRequest=1000100101110000000000000000000000000000000000100000;NdcConfig_MacTrReply=1001011100000000000000000000000000001;NdcConfig_MacSolStatus=00000000000;NdcConfig_MacOther=1101;NdcConfig_MacTrack1=000000;NdcConfig_MacTrack2=110000;NdcConfig_MacTrack3=00000000000;NdcConfig_MacEMV=11111;NdcConfig_CardlessState=Z53;NdcConfig_ConfigID=187;NdcConfig_UnsolDPAN=1;NdcConfig_TrxCounter=20919;NdcConfig_TerminalMode=4;ResetConfiguration_LoadFinishedTimeoutSec=180;ResetConfiguration_ResetTryCount=5;ResetConfiguration_RejectTryCount=5;ResetConfiguration_ReloadFunctionEnabled=1;ResetConfiguration_ResetMessageDelay=5;SparcParams_TurnOnSparcInitResultCheck=0;SparcParams_SparcInitTimeoutSec=20;SparcParams_SparcRebootTryCount=5;cim_update_presented_count_by_dispensed=False;cim_cashin_refuse_retract_area=RC;cdm_update_presented_count_by_dispensed=False;cdm_dispense_error_reset_area=RJ;hardware_list.CIM.logical_name=CashAcceptor;hardware_list.CIM.version_min.major=3;hardware_list.CIM.version_min.minor=10;hardware_list.CIM.version_max.major=255;hardware_list.CIM.version_max.minor=255;hardware_list.CIM.open_timeout=150;hardware_list.CIM.is_update_master_status_on_status_request=False;hardware_list.CIM.max_reset_count=3;hardware_list.CIM.interlive_reset_interval=300;hardware_list.CDM.logical_name=CashDispenser;hardware_list.CDM.version_min.major=3;hardware_list.CDM.version_min.minor=0;hardware_list.CDM.version_max.major=255;hardware_list.CDM.version_max.minor=255;hardware_list.CDM.open_timeout=150;hardware_list.CDM.is_update_master_status_on_status_request=False;hardware_list.CDM.max_reset_count=3;hardware_list.CDM.interlive_reset_interval=300;hardware_list.IDC.logical_name=CardReader;hardware_list.IDC.version_min.major=3;hardware_list.IDC.version_min.minor=0;hardware_list.IDC.version_max.major=255;hardware_list.IDC.version_max.minor=255;hardware_list.IDC.open_timeout=150;hardware_list.IDC.is_update_master_status_on_status_request=True;hardware_list.IDC.max_reset_count=3;hardware_list.IDC.interlive_reset_interval=300;hardware_list.PRR.logical_name=ReceiptPrinter;hardware_list.PRR.version_min.major=3;hardware_list.PRR.version_min.minor=0;hardware_list.PRR.version_max.major=255;hardware_list.PRR.version_max.minor=255;hardware_list.PRR.open_timeout=150;hardware_list.PRR.is_update_master_status_on_status_request=False;hardware_list.PRR.max_reset_count=3;hardware_list.PRR.interlive_reset_interval=300;retract_withdrawall_mode=1;disputed_notes_logic_version=0;request_timeouts.default_inf_rq_timeout=0;request_timeouts.default_exe_rq_timeout=0;request_timeouts.cim_replenish_rq_timeout=0;nfc_card_status_changed_event_reaction_time=2;lov_volume.volume_set=;lov_volume.jack_off_volume=;lov_volume.jack_on_volume=;exclude_level3_banknotes=False;brm_sensors_monitoring_enabled=True;default_nominals=;manual_enable_ex_deposit_cu=True;tsk_encashment_take_rejected=;cassettes.001.denomination=10000;cassettes.001.currency=643;cassettes.002.denomination=50000;cassettes.002.currency=643;cassettes.003.denomination=100000;cassettes.003.currency=643;cassettes.004.denomination=500000;cassettes.004.currency=643;ReceiptPrintStatus=2;MaxErrorLoginCount=5;Rotate.Logs.Path=[\r\n  "C:\\\\Sberbank\\\\LogsDbs\\\\logs\\\\Archive\\\\",\r\n  "C:\\\\scs\\\\LOGS_Archive\\\\PRJ\\\\"\r\n];Rotate.Logs.File=[\r\n  "*.zip"\r\n];Rotate.Keep.Unit=Year;Rotate.Keep.Value=1;Rotate.StorageThreshold.Free.Unit=Gb;Rotate.StorageThreshold.Free.Value=20;Rotate.StorageThreshold.Keep.Unit=Month;Rotate.StorageThreshold.Keep.Value=6;ClearAtmVersion.Days=7;ClearAtmVersion.Hours=8;ClearAtmVersion.Minutes=0;wdl_uniform_max_amt=100000;wdl_uniform_limit_643_100=10;wdl_uniform_remain_limit_643_100=1100;wdl_uniform_limit_643_200=10;wdl_uniform_remain_limit_643_200=1100;wdl_uniform_limit_643_500=20;wdl_uniform_remain_limit_643_500=1100;wdl_uniform_limit_643_1000=40;wdl_uniform_remain_limit_643_1000=1100;wdl_uniform_limit_643_2000=40;wdl_uniform_remain_limit_643_2000=1100;wdl_uniform_remain_limit_643_5000=1100;nda_BreakdownAmount=10000;nda_MaxNumberBill=10;nda_NewAlgorithmEnabled=False;fpsu_connection_status_enabled=1;cartidge_diagnostic_enable=1;planning_deploy_date=2024-08-07 11:54:18;scheduler_start_time=05:15;scheduler_work_time=30;scheduler_reset_period=21;scheduler_enabled=1;cash_found_outside_deposit_enabled=0;minimal_allowed_count_of_banknotes_100=200;minimal_allowed_count_of_banknotes_200=200;minimal_allowed_count_of_banknotes_500=200;minimal_allowed_count_of_banknotes_2000=200;minimal_allowed_count_of_banknotes_1000=200;minimal_allowed_count_of_banknotes_5000=200;target_count_of_banknotes_100=1000;target_count_of_banknotes_200=1000;target_count_of_banknotes_500=1000;target_count_of_banknotes_2000=1000;target_count_of_banknotes_1000=1000;target_count_of_banknotes_5000=500;maximal_allowed_count_of_banknotes_100=2000;maximal_allowed_count_of_banknotes_200=2000;maximal_allowed_count_of_banknotes_500=2000;maximal_allowed_count_of_banknotes_1000=2000;maximal_allowed_count_of_banknotes_2000=2000;maximal_allowed_count_of_banknotes_5000=2000;logical_weight_in_algo=1;specil_min_max_coef_in_algo=2;mask_for_remote_change_denom=1;new_reset_retained_cards_count_enabled=0;check_sn_cass_open_od=0;inventory_epp_sn=true;EPP_ID=OA162941;Logging.LogLevel.Default=Information;Service.Control.Logger.LogLevel=Information;Service.Control.Logger.File=SPA.log;Service.Control.SPArcMonitoring.TimeoutAfterInit_seconds=60;Service.Control.SPArcMonitoring.HeartBeatTimeout_seconds=60;launch_wait_timeout=15;launch_force_wait_timeout=20;isUniformCashOutAlgorithm=False;congratulationNewYear.isShowOnPgeAndMenu=True;congratulationNewYear.isShowOnInsertCard=True;congratulationNewYear.showStartAt=20.12.2023;congratulationNewYear.isShowAnimation1=True;congratulationNewYear.isShowAnimation2=True;congratulationNewYear.isShowAnimation3=True;congratulationMarch8.isShow=True;congratulationMarch8.showStartAt=14.02.2024;congratulationMarch8.showEndAt=09.03.2024;digitalCustomerPath=True;otherBankInfoLevel=0;selfEncashmentOptionalPrint=True;isWorkRedirectUrlBanner=True;withRedirectUrlBanner.ads=pop-up;pop-up-qr;pop-up-info;modules.bio.state=' ,'current_version.version=(\w+)|;)</t>
+          <t>select * from t_cars_kap.shvets_ekb</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E95" t="b">
@@ -2813,22 +2813,22 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time or memory limit</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>select * from  k808_rx_hdp.t_team_sva_oarb."42_gulynin_1908_bio_template" order by ucp_id</t>
+          <t>select count(*) from (select b.epk_id, a.nsi_id from k808_rx_hdp.prx_custom_rozni_tag_custom_rozn_tag.ft_master_hshtg as a join k808_rx_hdp.t_team_sva_oarb."42_21608829_epk_bad_1610" as b on cast(a.epk_id as varchar) = b.epk_id ) dbvrcnt</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>CanceledError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E96" t="b">
@@ -2838,22 +2838,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oakb.uvsk_claim_report as  select 	*  from k808_rx_hdp.t_team_sva_oakb."03489677_uvsk_claim_report"</t>
+          <t>select dm.atm_id     	,dm.device_manufacturer</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E97" t="b">
@@ -2863,72 +2863,72 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>line 3:12: Catalog 'capgp2' does not exist</t>
+          <t>query text length (1149974) exceeds the maximum length (1000000)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_team_sva_oarb."40_mxs_20240906_2432" AS t1 INNER JOIN capgp2.s_grnplm_ld_audit_da_sandbox_oarb."40_mxs_20240906_2432_v2" AS t2     ON t1.id = t2.id LIMIT 10</t>
+          <t>insert into idlist values  (3991304550258,null), (3714704870790,null), (2847647877143,null), (2899143132044,null), (3940196359112,null), (4279521330446,null), (3707725340230,null), (2912508314316,null), (3749205993550,null), (3973637356064,null), (3322833304912,null), (2905575860086,null), (4114405835456,null), (3452423952960,null), (3974841956176,null), (4036071918508,null), (3260327240036,null), (2803376037254,null), (2889345030593,null), (4375003587556,null), (2668742899596,null), (3426310266848,null), (2740977504102,null), (3851856535852,null), (3337106788080,null), (2784630312637,null), (3692076786630,null), (2878943993404,null), (3225038170236,null), (2969029238160,null), (4833809592572,null), (2917184090847,null), (3722985190794,null), (3491104925362,null), (3776469701946,null), (3994655653526,null), (2837024799518,null), (4201204787000,null), (4134416301570,null), (2877783192395,null), (4186794384122,null), (2880289950351,null), (2768449371487,null), (3974906084192,null), (4261346264484,null), (3358542804200,null), (3305200609336,null), (2954265562911,null), (4315059357576,null), (3585602713882,null), (4344455009456,null), (2832651738189,null), (3663482853974,null), (2767563407785,null), (2844656527822,null), (3870137827000,null), (4086363855188,null), (4246495286820,null), (2847617205734,null), (2934434696761,null), (3074739799455,null), (2796214884991,null), (2461667993865,null), (2875310204954,null), (2505530750802,null), (3229674694852,null), (2900661022706,null), (3769573689938,null), (3701749954176,null), (3934099560704,null), (3182639313274,null), (3004957536789,null), (2530349224696,null), (3594778806696,null), (3500581482988,null), (3399911117554,null), (3765629510010,null), (2967602789730,null), (2495797014437,null), (2843706541495,null), (4250083482628,null), (4244966173154,null), (3135504012866,null), (3818383979216,null), (2666616881741,null), (2851587939545,null), (4240140682072,null), (3688216343736,null), (2648536217497,null), (3206027076194,null), (2511626989298,null), (3313373467150,null), (2881061958072,null), (3943002206842,null), (3958086261694,null), (4310135956628,null), (4611007030702,null), (4088566228598,null), (2873336630081,null), (3909870586894,null), (3508510334874,null), (2746000895113,null), (2779804102098,null), (3997125564542,null), (4201758046936,null), (3159438844168,null), (2859059368414,null), (2883981533997,null), (2997935603087,null), (3254554370450,null), (4113197597636,null), (4360146858162,null), (3772980704828,null), (2876951064376,null), (3317149661988,null), (3381727702954,null), (2831449490610,null), (3982443883038,null), (2927316050436,null), (2884721767281,null), (3918140068100,null), (4256581852902,null), (3853214988372,null), (3279614456664,null), (2860617433411,null), (3426323882672,null), (3875251122824,null), (3684828682824,null), (3179455703762,null), (4287289801866,null), (3929013754028,null), (4114423545378,null), (2986020500672,null), (2935235702407,null), (2674770803856,null), (4111979769700,null), (4249667082182,null), (4325811313698,null), (2916530289895,null), (3447885329900,null), (2759601417167,null), (2819209153637,null), (4282551002732,null), (2795685265298,null), (3371057899090,null), (3598788799916,null), (3429914325082,null), (2838574980730,null), (2855057519327,null), (2795763143659,null), (3626504472384,null), (3748249309940,null), (4186242211832,null), (2984137911365,null), (4277886205880,null), (3092665785760,null), (2901815853636,null), (4224127977282,null), (2791661140791,null), (2881165562924,null), (4261520275590,null), (3254342060362,null), (4098330244400,null), (3397430334838,null), (3142687825751,null), (2873553209821,null), (2947911324072,null), (4237686456938,null), (2927330301344,null), (2924726706374,null), (3372913966198,null), (3819371640834,null), (4297286526202,null), (3864745670970,null), (4437371856048,null), (4009702264904,null), (3082465464536,null), (2968391247154,null), (3714292070452,null), (3745643255062,null), (3697368946686,null), (3738611820324,null), (4273021012166,null), (2534702779959,null), (3658297201430,null), (3276346428338,null), (4288584128282,null), (4303311420266,null), (3750101534672,null), (4252624303298,null), (3474200624030,null), (4293990917550,null), (2531129135133,null), (4322842611122,null), (3982472098046,null), (3766960478384,null), (2922764136869,null), (2869831954374,null), (4313746365266,null), (3981490231980,null), (3781592546374,null), (3776922453458,null), (4285802126542,null), (3502502853700,null), (4132678431728,null), (2682229827120,null), (3691525512098,null), (3405001741938,null), (3756149409912,null), (3825921648924,null), (3699646064536,null), (3199697308682,null), (3374606368264,null), (4222084292438,null), (4452684439148,null), (2804738155971,null), (2999302515019,null), (4275051247854,null), (4227933376998,null), (3739826129036,null), (4065009215096,null), (4255220693360,null), (3917554946718,null), (3917266202548,null), (3040440932865,null), (3708145094452,null), (4116779089142,null), (4308996819470,null), (4241673610358,null), (4280508064224,null), (4240913767470,null), (3814073926754,null), (3627717830156,null), (2950047362721,null), (2814915969624,null), (3646794344948,null), (3900544659766,null), (3001670072206,null), (2763351389259,null), (2833226608160,null), (3678532461072,null), (3821138509040,null), (2915982439640,null), (3636668557354,null), (3830831980476,null), (3725912359890,null), (4211647082906,null), (2955470809224,null), (3628306761820,null), (2779506223621,null), (4271016393654,null), (3201779757066,null), (3274744463126,null), (4072287155304,null), (4322210519328,null), (4288687906566,null), (4238355335090,null), (2953294826378,null), (3370560284038,null), (3722695014818,null), (4211682471104,null), (4269782901732,null), (2871471044220,null), (2948991429473,null), (3977137041628,null), (3263100238182,null), (3073284102358,null), (3087621562156,null), (3138216606040,null), (3286897184918,null), (3864286700202,null), (2864370652379,null), (4130717465020,null), (4310787918216,null), (3935036243622,null), (3795090613458,null), (3080735900221,null), (2874248221188,null), (3632708506216,null), (4316517014900,null), (4323394629906,null), (3095635484803,null), (2986106828402,null), (3526130046790,null), (3488918651744,null), (4246117823376,null), (4315001028960,null), (3064253150208,null), (2925283537556,null), (3675452086340,null), (4247724264368,null), (2848240920393,null), (3116242094967,null), (2897699335049,null), (3711308751432,null), (4230587245746,null), (3473776674802,null), (4115796709844,null), (2868749870864,null), (3993132497040,null), (4664709675188,null), (4130899623776,null), (4328057807450,null), (3628279686170,null), (3989563365866,null), (4254520285270,null), (3496734049530,null), (3736642841508,null), (2877154018572,null), (2921843129219,null), (4298991191068,null), (4311756787454,null), (2848180420927,null), (3280546683644,null), (3348224796652,null), (4490845099704,null), (3949300736858,null), (4166285392616,null), (2950299312677,null), (4077270494932,null), (2930374985916,null), (3730494201650,null), (3951109246810,null), (3475697248932,null), (2983956293159,null), (3171669587192,null), (4235333988948,null), (4051437811850,null), (2928139259814,null), (2810602142560,null), (4313412447682,null), (3401850284026,null), (4321842785258,null), (4288208183038,null), (4198226398068,null), (3687265280864,null), (3684884893836,null), (4324202405734,null), (3151462504017,null), (3397103839314,null), (3037743570153,null), (3328748180918,null), (2964135581673,null), (4492046145582,null), (3692635644856,null), (4142797282316,null), (4227705706852,null), (4286214917060,null), (3259740418136,null), (3644094895020,null), (3663535654136,null), (3923695567184,null), (4224586219168,null), (3725682286762,null), (4214942859320,null), (4262732672144,null), (3888795949876,null), (3769832076606,null), (3987707840204,null), (3335653269590,null), (3325519475302,null), (2987786246412,null), (4192157639042,null), (3762444170312,null), (2861686095551,null), (3045618074853,null), (4260731127420,null), (3736469730882,null), (3718509913308,null), (3429928831370,null), (3202490420286,null), (4097817323064,null), (2938070041125,null), (3589036953010,null), (2877524667848,null), (3512850913474,null), (4277602232786,null), (4322404626084,null), (3943650025488,null), (4088575616784,null), (2721024464654,null), (3848584644246,null), (3990285006964,null), (3499956714228,null), (3340619052314,null), (4304958170078,null), (3758392931064,null), (3084514817870,null), (3716639724466,null), (4312282999098,null), (4013001997540,null), (4299621373710,null), (4458201805110,null), (4077256045006,null), (3309590539698,null), (2970762297512,null), (3344368742166,null), (4001809724594,null), (3787428455028,null), (2703611345253,null), (3780480807504,null), (3402474631344,null), (3772147659390,null), (2956491529628,null), (4108363061300,null), (4090754480164,null), (3911684774778,null), (3966408467596,null), (3953024433746,null), (4088531401528,null), (3063303027109,null), (2675979194412,null), (4318739771826,null), (3833392005958,null), (3807830082418,null), (4299807567110,null), (3046614956826,null), (3146079437068,null), (4011471782076,null), (2867985980286,null), (3753862139512,null), (3408199280418,null), (3944139716428,null), (3952099308464,null), (3504706103636,null), (3306780961020,null), (4258787781030,null), (4324258747364,null), (4013872788382,null), (2981520773861,null), (3112425210402,null), (3716534555284,null), (4039155531476,null), (3730685378812,null), (3338780967766,null), (3308614330434,null), (4252193581132,null), (2986460195167,null), (3643113747254,null), (4367900551224,null), (3961068444318,null), (2957273414745,null), (4086438104216,null), (4311895062440,null), (3323197829468,null), (3264225381430,null), (3962898503460,null), (3976979664996,null), (4029658090942,null), (4454180095258,null), (3768858527910,null), (2976070323887,null), (4664302814874,null), (4283200585744,null), (3769655855390,null), (4264974043438,null), (3852392826822,null), (3723761967792,null), (4274704851714,null), (2889213810649,null), (3207585020150,null), (2839032971244,null), (2988373515657,null), (4468372051458,null), (4202671534002,null), (3046394847789,null), (3958401364166,null), (3955995343492,null), (4003596323520,null), (3934756373638,null), (3758915188970,null), (4145891583970,null), (2743628911981,null), (2825894691274,null), (3486712015518,null), (3603953718164,null), (2918298303061,null), (3949102273266,null), (4277903829396,null), (4174743499190,null), (4027758437894,null), (3351400883772,null), (4051686914352,null), (4045202593246,null), (3542030257806,null), (2839458449318,null), (2958728999164,null), (3702700877122,null), (3993362589592,null), (3972921507042,null), (3941222170702,null), (3267116036826,null), (3391730848806,null), (3064370730616,null), (2969199199175,null), (3237457255710,null), (3032879735392,null), (3903408633162,null), (3164599447926,null), (3940826556244,null), (4417345697522,null), (2668964431636,null), (4233940890002,null), (4431948494340,null), (3991311825838,null), (3421306915810,null), (4010597910696,null), (3872184822000,null), (3642406657998,null), (3401082378646,null), (3949438609530,null), (3332468845766,null), (4027467756778,null), (3339126416230,null), (2913196595720,null), (3952052319612,null), (3706213160188,null), (4045212564498,null), (3252478810190,null), (4202180873486,null), (3783589904646,null), (3977002062008,null), (2845895622096,null), (4028478299474,null), (3791011856312,null), (3147185228670,null), (4298196328600,null), (3932285223990,null), (3387979900246,null), (4067762305186,null), (3154259996727,null), (3955769536806,null), (3220354845366,null), (2891384923432,null), (3764318091668,null), (4003417638256,null), (4373468223238,null), (3955641373500,null), (3292384114770,null), (3754419316710,null), (4178046292502,null), (4142270995998,null), (2922409284404,null), (3260149637828,null), (2974922952495,null), (4072624012814,null), (3601631564848,null), (4322178147478,null), (3145289308626,null), (2863854880252,null), (3478799266662,null), (4080768661682,null), (3872150082982,null), (4211258598790,null), (3483411544918,null), (3309402531134,null), (3777016870424,null), (4054257874414,null), (4307065893026,null), (2987533254545,null), (2951098778957,null), (3950785178192,null), (4059132563038,null), (3752554005404,null), (3287532361910,null), (3862266352114,null), (2815053472629,null), (4296460927028,null), (2821897572571,null), (4847904014600,null), (3926747721554,null), (3055487487716,null), (4353912827665,null), (4207213625830,null), (3066329481575,null), (3323731400250,null), (3682795138054,null), (3709923788212,null), (3985187790788,null), (3060209648692,null), (3910757771622,null), (2953217153276,null), (2843104187485,null), (4213230685678,null), (4319584670338,null), (3766443132438,null), (2508043485149,null), (3159242875266,null), (3140783998153,null), (3646721523020,null), (3973062829032,null), (2934606371454,null), (3640626475282,null), (2953500978778,null), (4400925702146,null), (3233530782204,null), (3636366686386,null), (4258714088280,null), (2917415699215,null), (3918412224748,null), (3280981643770,null), (2879651354395,null), (4204670287904,null), (3927086899146,null), (4488263150674,null), (2979571915494,null), (3146693988686,null), (3405153707250,null), (3749144487136,null), (3718154956142,null), (3685256627822,null), (2770120316219,null), (3763787419322,null), (3450875456938,null), (3449801707066,null), (4006716172642,null), (4318283000640,null), (3805466738500,null), (3181875666574,null), (3573235476782,null), (3943165180658,null), (3720246576248,null), (3554125786068,null), (3750762077366,null), (4065358849934,null), (3464701406086,null), (4129806770868,null), (4172121577572,null), (4278546187224,null), (4287099591388,null), (4507616527270,null), (4720023650984,null), (3489128363084,null), (3255405721284,null), (4088484498462,null), (2877096893537,null), (3876701330402,null), (3475611147496,null), (2851894931460,null), (3448111397700,null), (3890505531118,null), (4811882917796,null), (3144104485294,null), (2565883891758,null), (4306832123204,null), (4633775386332,null), (3813289598280,null), (3301738463396,null), (3718577401920,null), (2914787931591,null), (4096391791864,null), (3202796028450,null), (4207394509602,null), (3451859726634,null), (2521472942038,null), (4108331538882,null), (4598401664506,null), (2879681548900,null), (3686982702094,null), (2967570528929,null), (3979581678284,null), (3673432009368,null), (3975186593068,null), (4304768451954,null), (4106213389268,null), (4292297167508,null), (4772129039396,null), (2884394061850,null), (2442593315742,null), (3702105754614,null), (3977312030124,null), (3868414755652,null), (3170020193906,null), (3975042682100,null), (3866646233520,null), (2922480948072,null), (4112695414600,null), (4283623340668,null), (2948128065155,null), (3392138900940,null), (4246484271144,null), (3744019052250,null), (3659492506464,null), (3727905657112,null), (3714335901956,null), (3188663025140,null), (4090315427688,null), (3953243018112,null), (2778971636365,null), (3377452065150,null), (3981038664484,null), (2839038758818,null), (3046225738083,null), (4326187761278,null), (2805013086733,null), (2907865113550,null), (4102468766206,null), (4364073612672,null), (3902413041922,null), (4294419888560,null), (4204748939840,null), (4538922713608,null), (3530039822752,null), (2793937165232,null), (3424120649980,null), (3179180457232,null), (2912241076475,null), (2910447386412,null), (2840303605217,null), (3590447079410,null), (4174710854766,null), (4213234204782,null), (4317452900784,null), (4043289353528,null), (4127438353060,null), (4321931991206,null), (3154719866006,null), (2984611708604,null), (4048844796758,null), (3710104253530,null), (2949665516134,null), (2717127775283,null), (2719778733198,null), (4250135134556,null), (2873556120535,null), (3679027665346,null), (3884544589034,null), (4297486734394,null), (3934062219888,null), (3394350043822,null), (4300251934054,null), (4305616292778,null), (2881518051842,null), (2924874135480,null), (2698579506390,null), (2992310181026,null), (3150601562143,null), (3004339553214,null), (4266385215334,null), (3307037825706,null), (3874476747178,null), (4283904417070,null), (3492818669170,null), (2916459453271,null), (2798560975390,null), (2888954224183,null), (4862644297382,null), (3717033993776,null), (4525080680130,null), (2814091213369,null), (3400304214400,null), (3724829487022,null), (4221022072804,null), (3711207867580,null), (3686355897688,null), (3973203729750,null), (3181964978464,null), (2924494247920,null), (3324503982312,null), (2894150911578,null), (4170812679922,null), (3498999656690,null), (4286015527388,null), (3257290580094,null), (2340848245408,null), (3778764535250,null), (2468770269943,null), (2946539757567,null), (3929127558122,null), (4316731044912,null), (3717616977042,null), (2988887783829,null), (3594337985058,null), (4035435779794,null), (3621628578376,null), (3949286984260,null), (3106101522948,null), (4108704539720,null), (2755773484783,null), (4281239393008,null), (3040512196959,null), (4285971630250,null), (2827824027084,null), (3651493912630,null), (3296673874440,null), (3227788882680,null), (2923255541082,null), (3695086035500,null), (3640724986076,null), (3955290857014,null), (4326682353146,null), (4198277369434,null), (2922089557542,null), (3980020819656,null), (3018597469913,null), (2859134722629,null), (3986311487884,null), (3856899894472,null), (3931697809316,null), (3398642088742,null), (2921818789273,null), (4210069220256,null), (3633854818534,null), (2849554013728,null), (4116477905302,null), (3441210750724,null), (2539025902216,null), (3220378237456,null), (2980047119085,null), (3163146674596,null), (2874849448781,null), (2931252383953,null), (3707671904854,null), (4278777045912,null), (3140959360533,null), (3153535637693,null), (3986663698262,null), (4326016862488,null), (4284873860298,null), (4274041448126,null), (3778248261358,null), (2786434637801,null), (2990335663068,null), (3836590414128,null), (3949985770890,null), (2922835430401,null), (3097989641318,null), (3394342112990,null), (2981418891401,null), (3733341211868,null), (2939585458273,null), (4099809142902,null), (3622953514586,null), (3065679105244,null), (3683679207460,null), (3731302036692,null), (2780454877241,null), (2922203974552,null), (2530114095671,null), (4317325201988,null), (4341705109912,null), (4087846768084,null), (2919266719437,null), (3890951068184,null), (3982626509582,null), (2901154399731,null), (2923904309805,null), (4724066726960,null), (2890716777235,null), (3781274068492,null), (3629732535782,null), (3986659348366,null), (3512063393930,null), (4296494809296,null), (2930545001667,null), (3758908596188,null), (4199007521410,null), (2821226673891,null), (3213986246912,null), (2927095692489,null), (2799043254635,null), (3493844932650,null), (3182040424544,null), (3632692145086,null), (2837728781133,null), (3495706943282,null), (3753014877892,null), (2770148860232,null), (3475394120890,null), (3398415448244,null), (4284825222838,null), (3685122816384,null), (3207899661658,null), (3903466014770,null), (2849031570762,null), (4200413721786,null), (2922456371444,null), (4198310400454,null), (3932808258488,null), (4282180290656,null), (4268748969818,null), (3955219791300,null), (3111692693843,null), (2681124250269,null), (3769373892710,null), (2691336275196,null), (3321365224768,null), (3662394145438,null), (4203329569142,null), (2801346458185,null), (3738697777788,null), (4124923904746,null), (3434266346840,null), (4502622470882,null), (3321067699288,null), (4463130977802,null), (2872622872417,null), (3710307769520,null), (3659080749854,null), (3626406014416,null), (2793891434835,null), (3688719556000,null), (4291460027928,null), (3686681469022,null), (2923600455053,null), (3771862946294,null), (4278662046802,null), (2920002181089,null), (3716692165328,null), (2972260339408,null), (4261727781700,null), (4321670540864,null), (2819813402839,null), (4108588167634,null), (4294633198878,null), (3856559067878,null), (4152178867756,null), (3298944844804,null), (3563024929776,null), (3897147095534,null), (3341081102960,null), (2816362854091,null), (4431231392768,null), (4280815803690,null), (3588836788890,null), (4321952192592,null), (3267910641618,null), (3807310567224,null), (3730435345062,null), (4090250310070,null), (4080189786010,null), (3745706314936,null), (2885692395869,null), (3736381513524,null), (2821801611117,null), (3603080590436,null), (3323045470268,null), (2840839705509,null), (4150675754682,null), (3313575108636,null), (4243071263140,null), (4832465102648,null), (4232668997362,null), (2946772450863,null), (4122305120382,null), (4765169677042,null), (4006646949080,null), (3721178820870,null), (3886947362720,null), (3522683224874,null), (3458025231434,null), (3723785163518,null), (4151828422368,null), (4083677863464,null), (2803760445597,null), (3754235204788,null), (4210268060758,null), (3982651500982,null), (3052684620773,null), (2858386944473,null), (4291403019662,null), (3743908173452,null), (3736420744734,null), (3692639419038,null), (2842257343492,null), (2912220884354,null), (2980488105349,null), (3764696697018,null), (4263873104720,null), (3907254618162,null), (3630699905052,null), (2811273223135,null), (3318949314350,null), (4085545392722,null), (2917685946992,null), (3046254002039,null), (3649466178466,null), (3915853854350,null), (3396955544070,null), (3407700530680,null), (4116025092226,null), (3744689546756,null), (4289712159106,null), (3151095718908,null), (3991792809440,null), (3716107166042,null), (2826110490699,null), (3178644508802,null), (3811575160820,null), (3451693277378,null), (3693055959944,null), (4211047516206,null), (3160735241744,null), (3189811207216,null), (3509441684828,null), (2983074887678,null), (4291508823702,null), (4258744456910,null), (4093932186454,null), (4282615388348,null), (4287093717228,null), (4235818974502,null), (3461252656634,null), (2762332023537,null), (3886309809948,null), (3446831411042,null), (2845819936371,null), (3408463470276,null), (2970592950746,null), (3964106194406,null), (3020901700320,null), (4382471764762,null), (4011910355240,null), (3073979481272,null), (2958067826226,null), (3917198057612,null), (3087537897528,null), (2917286541349,null), (3338782080808,null), (2824487100121,null), (3910536399362,null), (4310934674400,null), (3271576289258,null), (3396935294088,null), (4300384456992,null), (3029753648408,null), (3434438667072,null), (3209195867956,null), (2822026008393,null), (4296077742578,null), (3706745418028,null), (3163589526834,null), (3148288529418,null), (4100043792088,null), (2845452720697,null), (3697268342194,null), (3989601682140,null), (3334392549826,null), (3740391709482,null), (3436914437738,null), (4322299780528,null), (3734229708946,null), (3756648822708,null), (2794763197456,null), (3772083931686,null), (3780591782644,null), (3270733319032,null), (4200470055112,null), (3774917590822,null), (3654569685870,null), (3778973364538,null), (3136460771452,null), (3772122670238,null), (3264690158134,null), (3210931343720,null), (4185431910596,null), (3955250970026,null), (3688518303254,null), (3741325837188,null), (3385091989620,null), (4011846177522,null), (3987138457134,null), (3661395828486,null), (3706542435272,null), (4114438608074,null), (3983019071668,null), (3991293126776,null), (3768218902050,null), (3143237585307,null), (4236615127878,null), (3740106968884,null), (2820316298613,null), (3109867114356,null), (3771853446768,null), (3205997098088,null), (2886502682912,null), (3994103785440,null), (2790005359274,null), (4085834248084,null), (4198342495422,null), (4252972831316,null), (3687705949582,null), (4232374719028,null), (2991445799865,null), (3396554498262,null), (4794503515886,null), (3786182904520,null), (2956463701571,null), (3877015641578,null), (3703762335694,null), (3286980126340,null), (3245458608988,null), (3414841972240,null), (3370908471814,null), (3400759394394,null), (3432856539600,null), (3371871655144,null), (3394771714050,null), (4253100643536,null), (3985450246232,null), (2956520616820,null), (2382071628835,null), (4207746174560,null), (4093276880242,null), (3767621993246,null), (4623192914694,null), (2809402927672,null), (3071973254523,null), (2795581281362,null), (3562803121810,null), (3686646260024,null), (4049713136024,null), (2805449400265,null), (3788972614760,null), (3446408649876,null), (3417995075654,null), (3005094146329,null), (3373723317952,null), (4637265073612,null), (4326711056498,null), (3743907383568,null), (3469833105920,null), (4023238955600,null), (3923475150528,null), (2776372625011,null), (2834134606210,null), (3332237266098,null), (3954115369724,null), (3419112544188,null), (3439747095158,null), (3789708120170,null), (4023344772126,null), (3663829245426,null), (3427176267404,null), (3425509201614,null), (3944485038606,null), (3255537849844,null), (4025394739430,null), (3269368270520,null), (4328198661324,null), (4161902885018,null), (3337565515060,null), (4172473696788,null), (3963393325956,null), (4531074128656,null), (3734562757578,null), (2743506402931,null), (3988951421362,null), (3685183365190,null), (3858935308854,null), (4228196830300,null), (4486744794906,null), (3737974393424,null), (3912957320090,null), (3463117949958,null), (3994672846848,null), (4078014297260,null), (3772029524528,null), (3956900056826,null), (3396545693640,null), (3725845491080,null), (4452451228900,null), (4258322514868,null), (2991462011142,null), (3932339488636,null), (4058836050996,null), (3321591067574,null), (3658696624310,null), (3449646421792,null), (4156306151770,null), (3721786233652,null), (3938411524314,null), (3830408265424,null), (4193953554668,null), (3666625556988,null), (2824995289514,null), (3622364919760,null), (4456327861170,null), (3312864437352,null), (4224240584714,null), (3842787595058,null), (3952269824054,null), (4017711455110,null), (4018893281104,null), (2850019288595,null), (2872518992549,null), (3685005045198,null), (3924157351666,null), (3996972458448,null), (3964224803672,null), (3649530441398,null), (3463052314192,null), (2872585091611,null), (3383517281274,null), (3779009499844,null), (3106500389788,null), (2912533064352,null), (2963896573026,null), (3636325686328,null), (3767804672810,null), (3950659005622,null), (4311643482302,null), (3335265989972,null), (4283463977258,null), (4201903866070,null), (4278471085288,null), (4045541094260,null), (3990388349632,null), (2448561501509,null), (3948905934944,null), (4299683328628,null), (3269674829118,null), (4525859753378,null), (3953010907670,null), (4496309524046,null), (3972894290374,null), (2392215968414,null), (3954251211548,null), (2703013280820,null), (3398459085874,null), (3970149318340,null), (2848594324617,null), (4298831310580,null), (3299292926118,null), (3053467683141,null), (4280385319846,null), (3451432669914,null), (3998720377522,null), (4493185424948,null), (3914473620606,null), (4284748349254,null), (4038533521320,null), (2825022262571,null), (2797120086285,null), (4398436567876,null), (2520071428002,null), (4049240464442,null), (4000050570876,null), (2737287647644,null), (3760923595512,null), (3941995572546,null), (2906146006045,null), (3898116212056,null), (2931659170602,null), (4375950618814,null), (4269024710554,null), (4354856430832,null), (4315727393056,null), (3688283511920,null), (4314580481212,null), (4317124587694,null), (3145588047209,null), (2854918960412,null), (4444616928574,null), (4265584313938,null), (3946904860670,null), (4045249381760,null), (3121326913495,null), (3768653199862,null), (3774225820970,null), (3348110238944,null), (3716858617860,null), (2992306991409,null), (4241155149334,null), (4063508829914,null), (4039239447066,null), (3985019689016,null), (2987894065731,null), (2973827360307,null), (3946549288278,null), (3863218957802,null), (3141010730501,null), (3410630233902,null), (3936064269088,null), (4037943658094,null), (4052520660926,null), (3586921008588,null), (4333391262790,null), (3414471950630,null), (3508664873590,null), (2968153112081,null), (3371562563062,null), (3984732020952,null), (3490282352178,null), (3795060582582,null), (3988046230128,null), (4297229096070,null), (4230343100994,null), (3323815551626,null), (3821410874164,null), (3116886444429,null), (2851602731602,null), (3888732653924,null), (4480206012050,null), (3975259466574,null), (3168218919180,null), (2801963867959,null), (3934176039976,null), (2698383204197,null), (4088687629682,null), (3159504607914,null), (3769199701050,null), (2357124613990,null), (3733996028002,null), (2800804281890,null), (2962398004808,null), (3730434392000,null), (2508783370633,null), (4045625276292,null), (3507364941946,null), (4300835553034,null), (4304482947300,null), (3421742165490,null), (4023016537508,null), (2956758843648,null), (3352479469196,null), (3524332053678,null), (3265130319938,null), (3726123704706,null), (3677416354290,null), (3006816051239,null), (3444749665572,null), (4074194765466,null), (2782974155165,null), (3659180933520,null), (4061971652242,null), (3897330928832,null), (3732471040626,null), (3831970484140,null), (4311776128610,null), (4089281013930,null), (4478346457894,null), (4296878822128,null), (3938290643480,null), (3780880474762,null), (2818080105861,null), (4652808343322,null), (4171181580164,null), (3988811936690,null), (3933116966006,null), (3579629000874,null), (3567192657452,null), (3867293194948,null), (3542961306778,null), (3435222402428,null), (2924987466784,null), (3156800582596,null), (4004111149866,null), (3971186130162,null), (2811555753361,null), (3708169890950,null), (2696399028883,null), (3986920198524,null), (3202200441714,null), (2973341497029,null), (3922432336386,null), (4165504264400,null), (2847168349090,null), (3434709845798,null), (3989883842032,null), (4054856773296,null), (3276529001828,null), (3872081441056,null), (3854195910688,null), (3316856388644,null), (4216165503350,null), (4311488121948,null), (4245611449690,null), (4318603140530,null), (3714863688832,null), (4022542881978,null), (4322573201726,null), (3969861672094,null), (4277230364286,null), (3437180674846,null), (3457966642472,null), (3343457639536,null), (4238157280270,null), (3890171477338,null), (3688165170208,null), (3934738907956,null), (4234827795970,null), (4051017828004,null), (4538662533230,null), (3796158589666,null), (2787153898200,null), (3951395193452,null), (3126567108235,null), (4277880839420,null), (3421839574836,null), (3002144363137,null), (4129717085326,null), (4053270331708,null), (4146351307162,null), (3835417336762,null), (3783397966260,null), (3738337672966,null), (4156819190760,null), (3088734294372,null), (3971404550102,null), (3407447998526,null), (4139234805928,null), (2916670070325,null), (3888757913242,null), (2887689442133,null), (3971659791548,null), (3255427686036,null), (3933827670234,null), (3496275803936,null), (4302185061734,null), (3147800661818,null), (3486353031264,null), (4316282874016,null), (4038511260562,null), (2781489164719,null), (4211755164590,null), (4227455673788,null), (4070098062074,null), (4227492010322,null), (3003460302357,null), (4006933547422,null), (4413080213824,null), (3950745884412,null), (4341147910728,null), (4224491686306,null), (3777010395046,null), (4287696311482,null), (4185889560562,null), (2917191318627,null), (2768430083316,null), (4154432092972,null), (3271022556262,null), (4299738656658,null), (4044441568042,null), (4262637150616,null), (3990098188672,null), (3945080075508,null), (4230890791766,null), (3424311045224,null), (4102355734970,null), (4307377293322,null), (2843825541250,null), (3110015541208,null), (4165979490128,null), (4256462846586,null), (3936415255504,null), (4163527958724,null), (3952344752696,null), (4289468696488,null), (3317354272418,null), (3485901254680,null), (4040502617494,null), (3500052630082,null), (3318777025134,null), (3400983496838,null), (4002837631474,null), (2749022361292,null), (3414913297942,null), (4330374602606,null), (4016415955678,null), (3649051207014,null), (3945042175724,null), (4066556349086,null), (2972100323703,null), (4829823499416,null), (3817176275322,null), (4235292830350,null), (3809813531570,null), (3911043792410,null), (3168290932568,null), (4079826685072,null), (3993878605580,null), (3398430401650,null), (4330041350148,null), (4224542217028,null), (4222245352620,null), (4388366073528,null), (3446646150622,null), (4046881514394,null), (3897009126318,null), (4299563089420,null), (4367703101156,null), (4149579363766,null), (4023745398222,null), (4093807082372,null), (4122008198716,null), (4069253867362,null), (4281068144198,null), (326</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>MissingObjectError</t>
+          <t>QueryTooLargeError</t>
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Partition location does not exist: hdfs://hdfsgw/sklsdpk2hdfs__HD_ATM_HOST_MAIN_240821-NRT_ATMHOST_CAP-CLOSED_TICKETS/data/core/nrt/atmhost_cap/pa/snp/atmhost_envelopeevent/nrt_atmhost_cap.closed_tickets/timestampcolumn=2022-04-28</t>
+          <t>line 1:1: mismatched input 'function'. expecting: 'alter', 'analyze', 'call', 'comment', 'commit', 'create', 'deallocate', 'delete', 'deny', 'desc', 'describe', 'drop', 'execute', 'explain', 'grant', 'insert', 'merge', 'prepare', 'refresh', 'reset', 'revoke', 'rollback', 'set', 'show', 'start', 'truncate', 'update', 'use', &lt;query&gt;</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.prx_hd_atm_host_main_240821_nrt_atmhost_cap.closed_tickets  limit 100</t>
+          <t>function t() begin select 'test'; end</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>MissingObjectError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oakb.uvsk_claim_report as  select 	*  from k808_rx_hdp.t_team_sva_oakb."03489677_uvsk_claim_report"</t>
+          <t>select *  from k808_rx_hdp.t_team_sberid.tab8</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E100" t="b">
@@ -2938,7 +2938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.k_workschedule_4</t>
+          <t>select ods_validfrom, ods_opc, product_id, client_id, product_code, product_account, account_open_date, product_type_id, account_close_date, status_id, product_create_date, archive_name, file_name, ctl_pa_loading, ctl_action, ctl_validfrom, ctl_validto, ctl_loading from sfd_hdfsgw_hdp.prx_vau_selfservice_sfn_selfservice_ooosberfondynedvizhimosti_sfn.agr</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2963,22 +2963,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time or memory limit</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.k_workschedule</t>
+          <t>select * from t_cars_kap.shvets_inv</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CanceledError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -2988,22 +2988,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Query exceeded distributed user memory limit of 27GB</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_not_cars_fio" as select distinct a.*, b.profile_sapid, b.profile_adid, b.tb, b.osb, b.vsp, epk.last_name, first_name, middle_name,  epk.birth_dt --e.emp_id from k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_no_cars" a left join k808_rx_hdp.t_team_sva_oarb."40_svm_biometr_2024_agr_template_clerk2" b on a.external_id=b.external_id left join sfd_hdfsgw_hdp.prx_42_gulynin_epk5_custom_rb_epk.epk_client epk on epk.epk_id = cast(a.ucp_id as bigint) and row_actual_to='9999-12-31' --left join sfd_hdfsgw_hdp.prx_42_gulynin_sotr_1_custom_risk_employees.t_sbrf_employees e on upper(e.emp_full_name) = concat_ws (' ', coalesce (epk.last_name,''), coalesce (first_name,''), coalesce (middle_name,'')) --and cast(epk.birth_dt as date) = cast(e.birth_dt as date)</t>
+          <t>select * from k808_rx_hdp.t_cars_kap.shvets_op</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E103" t="b">
@@ -3013,47 +3013,47 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>line 2:2: Column '_col0' cannot be resolved</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>select 	_col0 from (values('2024-09-19', '2024-09-19')) as a</t>
+          <t>select * from t_cars_kap.global_request_2024_v5</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>MissingColumnError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Value cannot be cast to timestamp: 20247364831273202513</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SELECT 	cast(concat_ws('',cast(TSK.body.systemparamsinfo.datecreateevent AS array&lt;varchar&gt;)) AS timestamp) 	--from_unixtime(concat_ws('',cast(TSK.body.systemparamsinfo.datecreateevent as array&lt;varchar&gt;)),'yyyyMMddHHmmssSSS') 	,cast(concat(cast(TSK.body.systemparamsinfo.datecreateevent[1] AS varchar) 			,'-' 			,cast(TSK.body.systemparamsinfo.datecreateevent[2] AS varchar) 			,'-' 			,cast(TSK.body.systemparamsinfo.datecreateevent[3] AS varchar) 			,' ' 			,cast(TSK.body.systemparamsinfo.datecreateevent[4] AS varchar) 			,':' 			,cast(TSK.body.systemparamsinfo.datecreateevent[5] AS varchar) 			,':' 			,cast(TSK.body.systemparamsinfo.datecreateevent[6] AS varchar) 			,'.' 			,cast(TSK.body.systemparamsinfo.datecreateevent[7] AS varchar) 			) AS timestamp) + interval '3' hour AS "EventDateTime" 	FROM sfd_hdfsgw_hdp.prx_parus_task_selfservice_parus_tasks.tasks_test_1 AS TSK</t>
+          <t>select * from t_cars_kap.global_request_2024_v4</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>TypeError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E105" t="b">
@@ -3063,7 +3063,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_siv_r_eps_9__internal_eps_ibs.z_bd_ps_bp</t>
+          <t>select * from k808_rx_hdp.t_cars_kap.shvets_op</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3088,7 +3088,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.K_PERFORMANCE_OPERATIONS po</t>
+          <t>select * from   em_pay_history_oper order by ac desc,id,c_date</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3113,22 +3113,22 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb.gulynin_epk_sms SELECT * FROM k808_rx_hdp.t_team_sva_oarb.epk_sms a</t>
+          <t>select cust.client_name, doc_serial, doc_number, client_birth_day, claim_number, claim_date_time, claim_type_name, product_type_name,product_type_name_full from k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.cust as cust  join  k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.agr as agr on cust.client_id = agr.client_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.appl as appl  on agr.product_id = appl.product_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.prod as prod on appl.product_type_id = prod.product_type_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.appltype as appltype  on appl.claim_type_id = appltype.claim_type_id</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E108" t="b">
@@ -3138,7 +3138,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.bb_deti_dropi_cod13_fix as ( 	SELECT * FROM k808_rx_hdp.t_team_sva_oapso.bb_deti_dropi_cod13_fix )</t>
+          <t>select * from em_tmp3</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3163,22 +3163,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time or memory limit</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_team_sva_oarb."13_net_mkk_2024_plus"</t>
+          <t>insert  	into 	capgp2_gp.s_grnplm_ld_audit_da_sandbox_oarb.s_gp_ivakhnovs_appeal_2024 select 	* from 	k808_rx_hdp.t_team_sva_oarb."40_ivakhnovs_appeal_full_2024"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>CanceledError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E110" t="b">
@@ -3188,7 +3188,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>select * from capgp3_gp.prx_55_sai_grnplm_smd_s_grnplm_as_rozn_anofl_view_2a7."v_anofl_rep$_csi_tm_21957987_view"</t>
+          <t>select *  from t_team_sva_audit_2.t38_siv_02_11_24__1095__25__adding_request_id_current_id_and_prev_from_rq_main_and_use_case_from_tsmr</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3213,22 +3213,22 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Query exceeded distributed user memory limit of 27GB</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb.FIO as select a.epk_id, a.fullname, b.birth_date from sfd_hdfsgw_hdp.prx_epk_dqepk_1_custom_rozn_dqepk.epk_client_name a join sfd_hdfsgw_hdp.prx_epk_dqepk_1_custom_rozn_dqepk.epk_client b on a.epk_id= b.epk_id</t>
+          <t>select * from t_team_sva_audit_2.t38_siv_02_11_24__1095__26__only_prod_parameters__on_current_id_2</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E112" t="b">
@@ -3238,82 +3238,82 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FATAL: terminating connection due to administrator command</t>
+          <t>line 1:22: mismatched input 'date'. expecting: ')', ','</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>INSERT INTO k808_rx_hdp.t_team_prfl_cdp.vma_t_4_25_buf SELECT      epk_id,     CAST(amount AS VARCHAR),     CAST(inn_organization AS VARCHAR),     payment_type_case,     '2023-12-31' FROM      rozn2_gp.s_grnplm_ld_rozn_electron_knlg_core.vma_t_4_25</t>
+          <t>select ('2024-11-19' date) as p1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FATAL: terminating connection due to administrator command</t>
+          <t>query exceeded distributed user memory limit of 27gb</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>INSERT INTO k808_rx_hdp.t_team_prfl_cdp.vma_temp_cx_lstdt SELECT      epk_id,     last_activity_dt,     first_active_product_dt,     '2022-11-30' FROM      rozn2_gp.s_grnplm_ld_rozn_electron_knlg_core.vma_temp_cx_lstdt</t>
+          <t>select * from sfd_hdfsgw_hdp.prx_hd_atm_host_oper_240208_nrt_atmhost_operations.atmhost_operations order by body_sesstartdt</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "17348432"</t>
+          <t>line 3:1: mismatched input ','. expecting: 'from'</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>select b.* , a.* ,  q.task_answer , q.task_answer_full , q.req_answer , q.req_answer_full , q.task_text_sol  , q.task_owner , q.task_result From capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."40_kaluginvs_anofl_appeal_2024" a join  k808_rx_hdp.t_team_sva_oarb."42_Lazarev_B" b on cast (a.cust_epk_id as bigint  )  = cast (b.ucp_id as bigint  )  and cast (b.creation_date_dd as timestamp) &lt;= cast ( a.created as timestamp) limit 100</t>
+          <t>select date_parse(trim(substring('abc_zakupkigovru_beginner_20240118_092653_001.json', strpos('abc_zakupkigovru_beginner_20240118_092653_001.json', 'beginner_') + 9), '.json'), '%y%m%d_%h%i%s%a'  select strpos('abc_zakupkigovru_beginner_20240118_092653_001.json', 'beginner_') + 9</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CREATE TABLE k808_rx_hdp.t_team_sva_oarb."42_Lazarev_B_OBR1"   as select cast (b.ucp_id as bigint  ) as ucp_id ,  cast (b.creation_date_dd as date) as creation_date_dd, cast(a.id as varchar ) as id, cast(a.source_dm as varchar ) as source_dm, cast(a.cust_epk_id as varchar ) as cust_epk_id, cast(a.fio as varchar ) as fio, cast(a.birth_dt as varchar ) as birth_dt, cast(a.segment_general as varchar ) as segment_general, cast(a.created as varchar ) as created, cast(a.app_row_id as varchar ) as app_row_id, cast(a.app_created as varchar ) as app_created, cast(a.app_created_by as varchar ) as app_created_by, cast(a.app_client_end_date as varchar ) as app_client_end_date, cast(a.app_planned_end_date as varchar ) as app_planned_end_date, cast(a.app_num as varchar ) as app_num, cast(a.app_status_date as varchar ) as app_status_date, cast(a.app_party_id as varchar ) as app_party_id, cast(a.app_reg_channel_id as varchar ) as app_reg_channel_id, cast(a.app_status as varchar ) as app_status, cast(a.app_supply_form_id as varchar ) as app_supply_form_id, cast(a.app_finish_date as varchar ) as app_finish_date, cast(a.app_db_last_upd as varchar ) as app_db_last_upd, cast(a.req_row_id as varchar ) as req_row_id, cast(a.req_num as varchar ) as req_num, cast(a.req_created as varchar ) as req_created, cast(a.req_created_by as varchar ) as req_created_by, cast(a.req_double_flg as varchar ) as req_double_flg, cast(a.req_planned_end_date as varchar ) as req_planned_end_date, cast(a.req_reg_date as varchar ) as req_reg_date, cast(a.req_status_date as varchar ) as req_status_date, cast(a.req_urgency_flg as varchar ) as req_urgency_flg, cast(a.req_cons_res as varchar ) as req_cons_res, cast(a.req_cons_res_val as varchar ) as req_cons_res_val, cast(a.res_reason as varchar ) as res_reason, cast(a.req_operation_type as varchar ) as req_operation_type, cast(a.req_party_id as varchar ) as req_party_id, cast(a.req_reason_id as varchar ) as req_reason_id, cast(a.req_result_reason_id as varchar ) as req_result_reason_id, cast(a.req_status as varchar ) as req_status, cast(a.req_finish_date as varchar ) as req_finish_date, cast(a.req_vsp_name as varchar ) as req_vsp_name, cast(a.req_tb_name as varchar ) as req_tb_name, cast(a.req_relation_type as varchar ) as req_relation_type, cast(a.req_repeat_type as varchar ) as req_repeat_type, cast(a.req_emp_num as varchar ) as req_emp_num, cast(a.grp as varchar ) as grp, cast(a.prd as varchar ) as prd, cast(a.s_prd as varchar ) as s_prd, cast(a.chnl as varchar ) as chnl, cast(a.subj as varchar ) as subj, cast(a.s_subj as varchar ) as s_subj, cast(a.double_type as varchar ) as double_type, cast(a.kanal_reg as varchar ) as kanal_reg, cast(a.sposob_reg as varchar ) as sposob_reg, cast(a.toxic_flag as varchar ) as toxic_flag, cast(a.call_edu_id as varchar ) as call_edu_id, cast(a.call_created_dt as varchar ) as call_created_dt, cast(a.split_val as varchar ) as split_val, cast(a.reclass_type as varchar ) as reclass_type, cast(a.init_grp as varchar ) as init_grp, cast(a.init_prd as varchar ) as init_prd, cast(a.init_s_prd as varchar ) as init_s_prd, cast(a.init_chnl as varchar ) as init_chnl, cast(a.init_subj as varchar ) as init_subj, cast(a.init_s_subj as varchar ) as init_s_subj, cast(a.app_supply_source as varchar ) as app_supply_source, cast(a.app_resonance_flg as varchar ) as app_resonance_flg, cast(a.req_attrs as varchar ) as req_attrs, cast(a.req_comm_hist as varchar ) as req_comm_hist, cast(a.req_desc as varchar ) as req_desc, cast(a.req_vsp as varchar ) as req_vsp, cast(a.req_demand as varchar ) as req_demand, cast(a.app_gol_org_reg as varchar ) as app_gol_org_reg, cast(a.app_content as varchar ) as app_content, cast(a.app_div_reg as varchar ) as app_div_reg, cast(a.tb_erkc as varchar ) as tb_erkc, cast(a.uber as varchar ) as uber, cast(a.owner_sprv as varchar ) as owner_sprv, cast(a.req_last_upd as varchar ) as req_last_upd, cast(a.req_master_req_id as varchar ) as req_master_req_id, cast(a.app_emp_num as varchar ) as app_emp_num, cast(a.dzo as varchar ) as dzo, cast(a.type_operator_workplace as varchar ) as type_operator_workplace, cast(a.unit as varchar ) as unit, cast(a.tribe as varchar ) as tribe, cast(a.toxic_flag_rep as varchar ) as toxic_flag_rep, cast(a.flg_kpi as varchar ) as flg_kpi, cast(a.driver_sprv as varchar ) as driver_sprv, cast(a.req_org_type as varchar ) as req_org_type, cast(a.dpan as varchar ) as dpan, cast(a.devicesberdevices as varchar ) as devicesberdevices, cast(a.descriptionsolveproblem as varchar ) as descriptionsolveproblem, cast(a.reasondispute as varchar ) as reasondispute --, --cast(q.task_answer as varchar ) as  task_answer, --cast(q.task_answer_full as varchar ) as task_answer_full, --cast(q.req_answer as varchar ) as req_answer, --cast(q.req_answer_full as varchar ) as req_answer_full, --cast(q.task_text_sol as varchar ) as task_text_sol, --cast(q.task_owner as varchar ) as  task_owner, --cast(q.task_result as varchar ) as task_resultas From capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."40_kaluginvs_anofl_appeal_2024" a join  k808_rx_hdp.t_team_sva_oarb."42_Lazarev_B" b on cast (a.cust_epk_id as bigint  )  = cast (b.ucp_id as bigint  )   and cast (b.creation_date_dd as date) &lt;= cast ( a.created as date)</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr as  select * from capgp2_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3338,22 +3338,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.shvets_ekb</t>
+          <t>select count(*) from sfd_gpgw_gp.prx_trino_testv2_kap818_epk_s_grnplm_as_t_didsd_069_vd__3cl.t_cust_org_idfn_19274933_view</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E117" t="b">
@@ -3363,22 +3363,22 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>line 1:8: mismatched input 'select'. expecting: '*', 'all', 'distinct', &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM (select b.epk_id, a.nsi_id from k808_rx_hdp.prx_custom_rozni_tag_custom_rozn_tag.ft_master_hshtg as a join k808_rx_hdp.t_team_sva_oarb."42_21608829_epk_bad_1610" as b on cast(a.epk_id as varchar) = b.epk_id ) dbvrcnt</t>
+          <t>select select request_id, count(distinct app_status) from sfd_hdfsgw_hdp.prx_55_gse_risk_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.t_st_main  group by request_id</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E118" t="b">
@@ -3388,7 +3388,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>select dm.atm_id     	,dm.device_manufacturer -- Производитель         ,dm.device_model-- Модель         ,dm.device_type --- Тип УС         ,dm.institute_tb_code -- ТБ         ,dm.institute_osb -- ГОСБ ,row_number () over (partition by atm_id  order by timestampcolumn desc) as rn from k808_rx_hdp.prx_hd_parus_datamart_240521_custom_salesntwrk_curusds.dm15_parus dm</t>
+          <t>select * from t_cars_kap.k_automaticoperations</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3413,22 +3413,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Query text length (1149974) exceeds the maximum length (1000000)</t>
+          <t>query exceeded distributed user memory limit of 27gb</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>insert into idlist values  (3991304550258,null), (3714704870790,null), (2847647877143,null), (2899143132044,null), (3940196359112,null), (4279521330446,null), (3707725340230,null), (2912508314316,null), (3749205993550,null), (3973637356064,null), (3322833304912,null), (2905575860086,null), (4114405835456,null), (3452423952960,null), (3974841956176,null), (4036071918508,null), (3260327240036,null), (2803376037254,null), (2889345030593,null), (4375003587556,null), (2668742899596,null), (3426310266848,null), (2740977504102,null), (3851856535852,null), (3337106788080,null), (2784630312637,null), (3692076786630,null), (2878943993404,null), (3225038170236,null), (2969029238160,null), (4833809592572,null), (2917184090847,null), (3722985190794,null), (3491104925362,null), (3776469701946,null), (3994655653526,null), (2837024799518,null), (4201204787000,null), (4134416301570,null), (2877783192395,null), (4186794384122,null), (2880289950351,null), (2768449371487,null), (3974906084192,null), (4261346264484,null), (3358542804200,null), (3305200609336,null), (2954265562911,null), (4315059357576,null), (3585602713882,null), (4344455009456,null), (2832651738189,null), (3663482853974,null), (2767563407785,null), (2844656527822,null), (3870137827000,null), (4086363855188,null), (4246495286820,null), (2847617205734,null), (2934434696761,null), (3074739799455,null), (2796214884991,null), (2461667993865,null), (2875310204954,null), (2505530750802,null), (3229674694852,null), (2900661022706,null), (3769573689938,null), (3701749954176,null), (3934099560704,null), (3182639313274,null), (3004957536789,null), (2530349224696,null), (3594778806696,null), (3500581482988,null), (3399911117554,null), (3765629510010,null), (2967602789730,null), (2495797014437,null), (2843706541495,null), (4250083482628,null), (4244966173154,null), (3135504012866,null), (3818383979216,null), (2666616881741,null), (2851587939545,null), (4240140682072,null), (3688216343736,null), (2648536217497,null), (3206027076194,null), (2511626989298,null), (3313373467150,null), (2881061958072,null), (3943002206842,null), (3958086261694,null), (4310135956628,null), (4611007030702,null), (4088566228598,null), (2873336630081,null), (3909870586894,null), (3508510334874,null), (2746000895113,null), (2779804102098,null), (3997125564542,null), (4201758046936,null), (3159438844168,null), (2859059368414,null), (2883981533997,null), (2997935603087,null), (3254554370450,null), (4113197597636,null), (4360146858162,null), (3772980704828,null), (2876951064376,null), (3317149661988,null), (3381727702954,null), (2831449490610,null), (3982443883038,null), (2927316050436,null), (2884721767281,null), (3918140068100,null), (4256581852902,null), (3853214988372,null), (3279614456664,null), (2860617433411,null), (3426323882672,null), (3875251122824,null), (3684828682824,null), (3179455703762,null), (4287289801866,null), (3929013754028,null), (4114423545378,null), (2986020500672,null), (2935235702407,null), (2674770803856,null), (4111979769700,null), (4249667082182,null), (4325811313698,null), (2916530289895,null), (3447885329900,null), (2759601417167,null), (2819209153637,null), (4282551002732,null), (2795685265298,null), (3371057899090,null), (3598788799916,null), (3429914325082,null), (2838574980730,null), (2855057519327,null), (2795763143659,null), (3626504472384,null), (3748249309940,null), (4186242211832,null), (2984137911365,null), (4277886205880,null), (3092665785760,null), (2901815853636,null), (4224127977282,null), (2791661140791,null), (2881165562924,null), (4261520275590,null), (3254342060362,null), (4098330244400,null), (3397430334838,null), (3142687825751,null), (2873553209821,null), (2947911324072,null), (4237686456938,null), (2927330301344,null), (2924726706374,null), (3372913966198,null), (3819371640834,null), (4297286526202,null), (3864745670970,null), (4437371856048,null), (4009702264904,null), (3082465464536,null), (2968391247154,null), (3714292070452,null), (3745643255062,null), (3697368946686,null), (3738611820324,null), (4273021012166,null), (2534702779959,null), (3658297201430,null), (3276346428338,null), (4288584128282,null), (4303311420266,null), (3750101534672,null), (4252624303298,null), (3474200624030,null), (4293990917550,null), (2531129135133,null), (4322842611122,null), (3982472098046,null), (3766960478384,null), (2922764136869,null), (2869831954374,null), (4313746365266,null), (3981490231980,null), (3781592546374,null), (3776922453458,null), (4285802126542,null), (3502502853700,null), (4132678431728,null), (2682229827120,null), (3691525512098,null), (3405001741938,null), (3756149409912,null), (3825921648924,null), (3699646064536,null), (3199697308682,null), (3374606368264,null), (4222084292438,null), (4452684439148,null), (2804738155971,null), (2999302515019,null), (4275051247854,null), (4227933376998,null), (3739826129036,null), (4065009215096,null), (4255220693360,null), (3917554946718,null), (3917266202548,null), (3040440932865,null), (3708145094452,null), (4116779089142,null), (4308996819470,null), (4241673610358,null), (4280508064224,null), (4240913767470,null), (3814073926754,null), (3627717830156,null), (2950047362721,null), (2814915969624,null), (3646794344948,null), (3900544659766,null), (3001670072206,null), (2763351389259,null), (2833226608160,null), (3678532461072,null), (3821138509040,null), (2915982439640,null), (3636668557354,null), (3830831980476,null), (3725912359890,null), (4211647082906,null), (2955470809224,null), (3628306761820,null), (2779506223621,null), (4271016393654,null), (3201779757066,null), (3274744463126,null), (4072287155304,null), (4322210519328,null), (4288687906566,null), (4238355335090,null), (2953294826378,null), (3370560284038,null), (3722695014818,null), (4211682471104,null), (4269782901732,null), (2871471044220,null), (2948991429473,null), (3977137041628,null), (3263100238182,null), (3073284102358,null), (3087621562156,null), (3138216606040,null), (3286897184918,null), (3864286700202,null), (2864370652379,null), (4130717465020,null), (4310787918216,null), (3935036243622,null), (3795090613458,null), (3080735900221,null), (2874248221188,null), (3632708506216,null), (4316517014900,null), (4323394629906,null), (3095635484803,null), (2986106828402,null), (3526130046790,null), (3488918651744,null), (4246117823376,null), (4315001028960,null), (3064253150208,null), (2925283537556,null), (3675452086340,null), (4247724264368,null), (2848240920393,null), (3116242094967,null), (2897699335049,null), (3711308751432,null), (4230587245746,null), (3473776674802,null), (4115796709844,null), (2868749870864,null), (3993132497040,null), (4664709675188,null), (4130899623776,null), (4328057807450,null), (3628279686170,null), (3989563365866,null), (4254520285270,null), (3496734049530,null), (3736642841508,null), (2877154018572,null), (2921843129219,null), (4298991191068,null), (4311756787454,null), (2848180420927,null), (3280546683644,null), (3348224796652,null), (4490845099704,null), (3949300736858,null), (4166285392616,null), (2950299312677,null), (4077270494932,null), (2930374985916,null), (3730494201650,null), (3951109246810,null), (3475697248932,null), (2983956293159,null), (3171669587192,null), (4235333988948,null), (4051437811850,null), (2928139259814,null), (2810602142560,null), (4313412447682,null), (3401850284026,null), (4321842785258,null), (4288208183038,null), (4198226398068,null), (3687265280864,null), (3684884893836,null), (4324202405734,null), (3151462504017,null), (3397103839314,null), (3037743570153,null), (3328748180918,null), (2964135581673,null), (4492046145582,null), (3692635644856,null), (4142797282316,null), (4227705706852,null), (4286214917060,null), (3259740418136,null), (3644094895020,null), (3663535654136,null), (3923695567184,null), (4224586219168,null), (3725682286762,null), (4214942859320,null), (4262732672144,null), (3888795949876,null), (3769832076606,null), (3987707840204,null), (3335653269590,null), (3325519475302,null), (2987786246412,null), (4192157639042,null), (3762444170312,null), (2861686095551,null), (3045618074853,null), (4260731127420,null), (3736469730882,null), (3718509913308,null), (3429928831370,null), (3202490420286,null), (4097817323064,null), (2938070041125,null), (3589036953010,null), (2877524667848,null), (3512850913474,null), (4277602232786,null), (4322404626084,null), (3943650025488,null), (4088575616784,null), (2721024464654,null), (3848584644246,null), (3990285006964,null), (3499956714228,null), (3340619052314,null), (4304958170078,null), (3758392931064,null), (3084514817870,null), (3716639724466,null), (4312282999098,null), (4013001997540,null), (4299621373710,null), (4458201805110,null), (4077256045006,null), (3309590539698,null), (2970762297512,null), (3344368742166,null), (4001809724594,null), (3787428455028,null), (2703611345253,null), (3780480807504,null), (3402474631344,null), (3772147659390,null), (2956491529628,null), (4108363061300,null), (4090754480164,null), (3911684774778,null), (3966408467596,null), (3953024433746,null), (4088531401528,null), (3063303027109,null), (2675979194412,null), (4318739771826,null), (3833392005958,null), (3807830082418,null), (4299807567110,null), (3046614956826,null), (3146079437068,null), (4011471782076,null), (2867985980286,null), (3753862139512,null), (3408199280418,null), (3944139716428,null), (3952099308464,null), (3504706103636,null), (3306780961020,null), (4258787781030,null), (4324258747364,null), (4013872788382,null), (2981520773861,null), (3112425210402,null), (3716534555284,null), (4039155531476,null), (3730685378812,null), (3338780967766,null), (3308614330434,null), (4252193581132,null), (2986460195167,null), (3643113747254,null), (4367900551224,null), (3961068444318,null), (2957273414745,null), (4086438104216,null), (4311895062440,null), (3323197829468,null), (3264225381430,null), (3962898503460,null), (3976979664996,null), (4029658090942,null), (4454180095258,null), (3768858527910,null), (2976070323887,null), (4664302814874,null), (4283200585744,null), (3769655855390,null), (4264974043438,null), (3852392826822,null), (3723761967792,null), (4274704851714,null), (2889213810649,null), (3207585020150,null), (2839032971244,null), (2988373515657,null), (4468372051458,null), (4202671534002,null), (3046394847789,null), (3958401364166,null), (3955995343492,null), (4003596323520,null), (3934756373638,null), (3758915188970,null), (4145891583970,null), (2743628911981,null), (2825894691274,null), (3486712015518,null), (3603953718164,null), (2918298303061,null), (3949102273266,null), (4277903829396,null), (4174743499190,null), (4027758437894,null), (3351400883772,null), (4051686914352,null), (4045202593246,null), (3542030257806,null), (2839458449318,null), (2958728999164,null), (3702700877122,null), (3993362589592,null), (3972921507042,null), (3941222170702,null), (3267116036826,null), (3391730848806,null), (3064370730616,null), (2969199199175,null), (3237457255710,null), (3032879735392,null), (3903408633162,null), (3164599447926,null), (3940826556244,null), (4417345697522,null), (2668964431636,null), (4233940890002,null), (4431948494340,null), (3991311825838,null), (3421306915810,null), (4010597910696,null), (3872184822000,null), (3642406657998,null), (3401082378646,null), (3949438609530,null), (3332468845766,null), (4027467756778,null), (3339126416230,null), (2913196595720,null), (3952052319612,null), (3706213160188,null), (4045212564498,null), (3252478810190,null), (4202180873486,null), (3783589904646,null), (3977002062008,null), (2845895622096,null), (4028478299474,null), (3791011856312,null), (3147185228670,null), (4298196328600,null), (3932285223990,null), (3387979900246,null), (4067762305186,null), (3154259996727,null), (3955769536806,null), (3220354845366,null), (2891384923432,null), (3764318091668,null), (4003417638256,null), (4373468223238,null), (3955641373500,null), (3292384114770,null), (3754419316710,null), (4178046292502,null), (4142270995998,null), (2922409284404,null), (3260149637828,null), (2974922952495,null), (4072624012814,null), (3601631564848,null), (4322178147478,null), (3145289308626,null), (2863854880252,null), (3478799266662,null), (4080768661682,null), (3872150082982,null), (4211258598790,null), (3483411544918,null), (3309402531134,null), (3777016870424,null), (4054257874414,null), (4307065893026,null), (2987533254545,null), (2951098778957,null), (3950785178192,null), (4059132563038,null), (3752554005404,null), (3287532361910,null), (3862266352114,null), (2815053472629,null), (4296460927028,null), (2821897572571,null), (4847904014600,null), (3926747721554,null), (3055487487716,null), (4353912827665,null), (4207213625830,null), (3066329481575,null), (3323731400250,null), (3682795138054,null), (3709923788212,null), (3985187790788,null), (3060209648692,null), (3910757771622,null), (2953217153276,null), (2843104187485,null), (4213230685678,null), (4319584670338,null), (3766443132438,null), (2508043485149,null), (3159242875266,null), (3140783998153,null), (3646721523020,null), (3973062829032,null), (2934606371454,null), (3640626475282,null), (2953500978778,null), (4400925702146,null), (3233530782204,null), (3636366686386,null), (4258714088280,null), (2917415699215,null), (3918412224748,null), (3280981643770,null), (2879651354395,null), (4204670287904,null), (3927086899146,null), (4488263150674,null), (2979571915494,null), (3146693988686,null), (3405153707250,null), (3749144487136,null), (3718154956142,null), (3685256627822,null), (2770120316219,null), (3763787419322,null), (3450875456938,null), (3449801707066,null), (4006716172642,null), (4318283000640,null), (3805466738500,null), (3181875666574,null), (3573235476782,null), (3943165180658,null), (3720246576248,null), (3554125786068,null), (3750762077366,null), (4065358849934,null), (3464701406086,null), (4129806770868,null), (4172121577572,null), (4278546187224,null), (4287099591388,null), (4507616527270,null), (4720023650984,null), (3489128363084,null), (3255405721284,null), (4088484498462,null), (2877096893537,null), (3876701330402,null), (3475611147496,null), (2851894931460,null), (3448111397700,null), (3890505531118,null), (4811882917796,null), (3144104485294,null), (2565883891758,null), (4306832123204,null), (4633775386332,null), (3813289598280,null), (3301738463396,null), (3718577401920,null), (2914787931591,null), (4096391791864,null), (3202796028450,null), (4207394509602,null), (3451859726634,null), (2521472942038,null), (4108331538882,null), (4598401664506,null), (2879681548900,null), (3686982702094,null), (2967570528929,null), (3979581678284,null), (3673432009368,null), (3975186593068,null), (4304768451954,null), (4106213389268,null), (4292297167508,null), (4772129039396,null), (2884394061850,null), (2442593315742,null), (3702105754614,null), (3977312030124,null), (3868414755652,null), (3170020193906,null), (3975042682100,null), (3866646233520,null), (2922480948072,null), (4112695414600,null), (4283623340668,null), (2948128065155,null), (3392138900940,null), (4246484271144,null), (3744019052250,null), (3659492506464,null), (3727905657112,null), (3714335901956,null), (3188663025140,null), (4090315427688,null), (3953243018112,null), (2778971636365,null), (3377452065150,null), (3981038664484,null), (2839038758818,null), (3046225738083,null), (4326187761278,null), (2805013086733,null), (2907865113550,null), (4102468766206,null), (4364073612672,null), (3902413041922,null), (4294419888560,null), (4204748939840,null), (4538922713608,null), (3530039822752,null), (2793937165232,null), (3424120649980,null), (3179180457232,null), (2912241076475,null), (2910447386412,null), (2840303605217,null), (3590447079410,null), (4174710854766,null), (4213234204782,null), (4317452900784,null), (4043289353528,null), (4127438353060,null), (4321931991206,null), (3154719866006,null), (2984611708604,null), (4048844796758,null), (3710104253530,null), (2949665516134,null), (2717127775283,null), (2719778733198,null), (4250135134556,null), (2873556120535,null), (3679027665346,null), (3884544589034,null), (4297486734394,null), (3934062219888,null), (3394350043822,null), (4300251934054,null), (4305616292778,null), (2881518051842,null), (2924874135480,null), (2698579506390,null), (2992310181026,null), (3150601562143,null), (3004339553214,null), (4266385215334,null), (3307037825706,null), (3874476747178,null), (4283904417070,null), (3492818669170,null), (2916459453271,null), (2798560975390,null), (2888954224183,null), (4862644297382,null), (3717033993776,null), (4525080680130,null), (2814091213369,null), (3400304214400,null), (3724829487022,null), (4221022072804,null), (3711207867580,null), (3686355897688,null), (3973203729750,null), (3181964978464,null), (2924494247920,null), (3324503982312,null), (2894150911578,null), (4170812679922,null), (3498999656690,null), (4286015527388,null), (3257290580094,null), (2340848245408,null), (3778764535250,null), (2468770269943,null), (2946539757567,null), (3929127558122,null), (4316731044912,null), (3717616977042,null), (2988887783829,null), (3594337985058,null), (4035435779794,null), (3621628578376,null), (3949286984260,null), (3106101522948,null), (4108704539720,null), (2755773484783,null), (4281239393008,null), (3040512196959,null), (4285971630250,null), (2827824027084,null), (3651493912630,null), (3296673874440,null), (3227788882680,null), (2923255541082,null), (3695086035500,null), (3640724986076,null), (3955290857014,null), (4326682353146,null), (4198277369434,null), (2922089557542,null), (3980020819656,null), (3018597469913,null), (2859134722629,null), (3986311487884,null), (3856899894472,null), (3931697809316,null), (3398642088742,null), (2921818789273,null), (4210069220256,null), (3633854818534,null), (2849554013728,null), (4116477905302,null), (3441210750724,null), (2539025902216,null), (3220378237456,null), (2980047119085,null), (3163146674596,null), (2874849448781,null), (2931252383953,null), (3707671904854,null), (4278777045912,null), (3140959360533,null), (3153535637693,null), (3986663698262,null), (4326016862488,null), (4284873860298,null), (4274041448126,null), (3778248261358,null), (2786434637801,null), (2990335663068,null), (3836590414128,null), (3949985770890,null), (2922835430401,null), (3097989641318,null), (3394342112990,null), (2981418891401,null), (3733341211868,null), (2939585458273,null), (4099809142902,null), (3622953514586,null), (3065679105244,null), (3683679207460,null), (3731302036692,null), (2780454877241,null), (2922203974552,null), (2530114095671,null), (4317325201988,null), (4341705109912,null), (4087846768084,null), (2919266719437,null), (3890951068184,null), (3982626509582,null), (2901154399731,null), (2923904309805,null), (4724066726960,null), (2890716777235,null), (3781274068492,null), (3629732535782,null), (3986659348366,null), (3512063393930,null), (4296494809296,null), (2930545001667,null), (3758908596188,null), (4199007521410,null), (2821226673891,null), (3213986246912,null), (2927095692489,null), (2799043254635,null), (3493844932650,null), (3182040424544,null), (3632692145086,null), (2837728781133,null), (3495706943282,null), (3753014877892,null), (2770148860232,null), (3475394120890,null), (3398415448244,null), (4284825222838,null), (3685122816384,null), (3207899661658,null), (3903466014770,null), (2849031570762,null), (4200413721786,null), (2922456371444,null), (4198310400454,null), (3932808258488,null), (4282180290656,null), (4268748969818,null), (3955219791300,null), (3111692693843,null), (2681124250269,null), (3769373892710,null), (2691336275196,null), (3321365224768,null), (3662394145438,null), (4203329569142,null), (2801346458185,null), (3738697777788,null), (4124923904746,null), (3434266346840,null), (4502622470882,null), (3321067699288,null), (4463130977802,null), (2872622872417,null), (3710307769520,null), (3659080749854,null), (3626406014416,null), (2793891434835,null), (3688719556000,null), (4291460027928,null), (3686681469022,null), (2923600455053,null), (3771862946294,null), (4278662046802,null), (2920002181089,null), (3716692165328,null), (2972260339408,null), (4261727781700,null), (4321670540864,null), (2819813402839,null), (4108588167634,null), (4294633198878,null), (3856559067878,null), (4152178867756,null), (3298944844804,null), (3563024929776,null), (3897147095534,null), (3341081102960,null), (2816362854091,null), (4431231392768,null), (4280815803690,null), (3588836788890,null), (4321952192592,null), (3267910641618,null), (3807310567224,null), (3730435345062,null), (4090250310070,null), (4080189786010,null), (3745706314936,null), (2885692395869,null), (3736381513524,null), (2821801611117,null), (3603080590436,null), (3323045470268,null), (2840839705509,null), (4150675754682,null), (3313575108636,null), (4243071263140,null), (4832465102648,null), (4232668997362,null), (2946772450863,null), (4122305120382,null), (4765169677042,null), (4006646949080,null), (3721178820870,null), (3886947362720,null), (3522683224874,null), (3458025231434,null), (3723785163518,null), (4151828422368,null), (4083677863464,null), (2803760445597,null), (3754235204788,null), (4210268060758,null), (3982651500982,null), (3052684620773,null), (2858386944473,null), (4291403019662,null), (3743908173452,null), (3736420744734,null), (3692639419038,null), (2842257343492,null), (2912220884354,null), (2980488105349,null), (3764696697018,null), (4263873104720,null), (3907254618162,null), (3630699905052,null), (2811273223135,null), (3318949314350,null), (4085545392722,null), (2917685946992,null), (3046254002039,null), (3649466178466,null), (3915853854350,null), (3396955544070,null), (3407700530680,null), (4116025092226,null), (3744689546756,null), (4289712159106,null), (3151095718908,null), (3991792809440,null), (3716107166042,null), (2826110490699,null), (3178644508802,null), (3811575160820,null), (3451693277378,null), (3693055959944,null), (4211047516206,null), (3160735241744,null), (3189811207216,null), (3509441684828,null), (2983074887678,null), (4291508823702,null), (4258744456910,null), (4093932186454,null), (4282615388348,null), (4287093717228,null), (4235818974502,null), (3461252656634,null), (2762332023537,null), (3886309809948,null), (3446831411042,null), (2845819936371,null), (3408463470276,null), (2970592950746,null), (3964106194406,null), (3020901700320,null), (4382471764762,null), (4011910355240,null), (3073979481272,null), (2958067826226,null), (3917198057612,null), (3087537897528,null), (2917286541349,null), (3338782080808,null), (2824487100121,null), (3910536399362,null), (4310934674400,null), (3271576289258,null), (3396935294088,null), (4300384456992,null), (3029753648408,null), (3434438667072,null), (3209195867956,null), (2822026008393,null), (4296077742578,null), (3706745418028,null), (3163589526834,null), (3148288529418,null), (4100043792088,null), (2845452720697,null), (3697268342194,null), (3989601682140,null), (3334392549826,null), (3740391709482,null), (3436914437738,null), (4322299780528,null), (3734229708946,null), (3756648822708,null), (2794763197456,null), (3772083931686,null), (3780591782644,null), (3270733319032,null), (4200470055112,null), (3774917590822,null), (3654569685870,null), (3778973364538,null), (3136460771452,null), (3772122670238,null), (3264690158134,null), (3210931343720,null), (4185431910596,null), (3955250970026,null), (3688518303254,null), (3741325837188,null), (3385091989620,null), (4011846177522,null), (3987138457134,null), (3661395828486,null), (3706542435272,null), (4114438608074,null), (3983019071668,null), (3991293126776,null), (3768218902050,null), (3143237585307,null), (4236615127878,null), (3740106968884,null), (2820316298613,null), (3109867114356,null), (3771853446768,null), (3205997098088,null), (2886502682912,null), (3994103785440,null), (2790005359274,null), (4085834248084,null), (4198342495422,null), (4252972831316,null), (3687705949582,null), (4232374719028,null), (2991445799865,null), (3396554498262,null), (4794503515886,null), (3786182904520,null), (2956463701571,null), (3877015641578,null), (3703762335694,null), (3286980126340,null), (3245458608988,null), (3414841972240,null), (3370908471814,null), (3400759394394,null), (3432856539600,null), (3371871655144,null), (3394771714050,null), (4253100643536,null), (3985450246232,null), (2956520616820,null), (2382071628835,null), (4207746174560,null), (4093276880242,null), (3767621993246,null), (4623192914694,null), (2809402927672,null), (3071973254523,null), (2795581281362,null), (3562803121810,null), (3686646260024,null), (4049713136024,null), (2805449400265,null), (3788972614760,null), (3446408649876,null), (3417995075654,null), (3005094146329,null), (3373723317952,null), (4637265073612,null), (4326711056498,null), (3743907383568,null), (3469833105920,null), (4023238955600,null), (3923475150528,null), (2776372625011,null), (2834134606210,null), (3332237266098,null), (3954115369724,null), (3419112544188,null), (3439747095158,null), (3789708120170,null), (4023344772126,null), (3663829245426,null), (3427176267404,null), (3425509201614,null), (3944485038606,null), (3255537849844,null), (4025394739430,null), (3269368270520,null), (4328198661324,null), (4161902885018,null), (3337565515060,null), (4172473696788,null), (3963393325956,null), (4531074128656,null), (3734562757578,null), (2743506402931,null), (3988951421362,null), (3685183365190,null), (3858935308854,null), (4228196830300,null), (4486744794906,null), (3737974393424,null), (3912957320090,null), (3463117949958,null), (3994672846848,null), (4078014297260,null), (3772029524528,null), (3956900056826,null), (3396545693640,null), (3725845491080,null), (4452451228900,null), (4258322514868,null), (2991462011142,null), (3932339488636,null), (4058836050996,null), (3321591067574,null), (3658696624310,null), (3449646421792,null), (4156306151770,null), (3721786233652,null), (3938411524314,null), (3830408265424,null), (4193953554668,null), (3666625556988,null), (2824995289514,null), (3622364919760,null), (4456327861170,null), (3312864437352,null), (4224240584714,null), (3842787595058,null), (3952269824054,null), (4017711455110,null), (4018893281104,null), (2850019288595,null), (2872518992549,null), (3685005045198,null), (3924157351666,null), (3996972458448,null), (3964224803672,null), (3649530441398,null), (3463052314192,null), (2872585091611,null), (3383517281274,null), (3779009499844,null), (3106500389788,null), (2912533064352,null), (2963896573026,null), (3636325686328,null), (3767804672810,null), (3950659005622,null), (4311643482302,null), (3335265989972,null), (4283463977258,null), (4201903866070,null), (4278471085288,null), (4045541094260,null), (3990388349632,null), (2448561501509,null), (3948905934944,null), (4299683328628,null), (3269674829118,null), (4525859753378,null), (3953010907670,null), (4496309524046,null), (3972894290374,null), (2392215968414,null), (3954251211548,null), (2703013280820,null), (3398459085874,null), (3970149318340,null), (2848594324617,null), (4298831310580,null), (3299292926118,null), (3053467683141,null), (4280385319846,null), (3451432669914,null), (3998720377522,null), (4493185424948,null), (3914473620606,null), (4284748349254,null), (4038533521320,null), (2825022262571,null), (2797120086285,null), (4398436567876,null), (2520071428002,null), (4049240464442,null), (4000050570876,null), (2737287647644,null), (3760923595512,null), (3941995572546,null), (2906146006045,null), (3898116212056,null), (2931659170602,null), (4375950618814,null), (4269024710554,null), (4354856430832,null), (4315727393056,null), (3688283511920,null), (4314580481212,null), (4317124587694,null), (3145588047209,null), (2854918960412,null), (4444616928574,null), (4265584313938,null), (3946904860670,null), (4045249381760,null), (3121326913495,null), (3768653199862,null), (3774225820970,null), (3348110238944,null), (3716858617860,null), (2992306991409,null), (4241155149334,null), (4063508829914,null), (4039239447066,null), (3985019689016,null), (2987894065731,null), (2973827360307,null), (3946549288278,null), (3863218957802,null), (3141010730501,null), (3410630233902,null), (3936064269088,null), (4037943658094,null), (4052520660926,null), (3586921008588,null), (4333391262790,null), (3414471950630,null), (3508664873590,null), (2968153112081,null), (3371562563062,null), (3984732020952,null), (3490282352178,null), (3795060582582,null), (3988046230128,null), (4297229096070,null), (4230343100994,null), (3323815551626,null), (3821410874164,null), (3116886444429,null), (2851602731602,null), (3888732653924,null), (4480206012050,null), (3975259466574,null), (3168218919180,null), (2801963867959,null), (3934176039976,null), (2698383204197,null), (4088687629682,null), (3159504607914,null), (3769199701050,null), (2357124613990,null), (3733996028002,null), (2800804281890,null), (2962398004808,null), (3730434392000,null), (2508783370633,null), (4045625276292,null), (3507364941946,null), (4300835553034,null), (4304482947300,null), (3421742165490,null), (4023016537508,null), (2956758843648,null), (3352479469196,null), (3524332053678,null), (3265130319938,null), (3726123704706,null), (3677416354290,null), (3006816051239,null), (3444749665572,null), (4074194765466,null), (2782974155165,null), (3659180933520,null), (4061971652242,null), (3897330928832,null), (3732471040626,null), (3831970484140,null), (4311776128610,null), (4089281013930,null), (4478346457894,null), (4296878822128,null), (3938290643480,null), (3780880474762,null), (2818080105861,null), (4652808343322,null), (4171181580164,null), (3988811936690,null), (3933116966006,null), (3579629000874,null), (3567192657452,null), (3867293194948,null), (3542961306778,null), (3435222402428,null), (2924987466784,null), (3156800582596,null), (4004111149866,null), (3971186130162,null), (2811555753361,null), (3708169890950,null), (2696399028883,null), (3986920198524,null), (3202200441714,null), (2973341497029,null), (3922432336386,null), (4165504264400,null), (2847168349090,null), (3434709845798,null), (3989883842032,null), (4054856773296,null), (3276529001828,null), (3872081441056,null), (3854195910688,null), (3316856388644,null), (4216165503350,null), (4311488121948,null), (4245611449690,null), (4318603140530,null), (3714863688832,null), (4022542881978,null), (4322573201726,null), (3969861672094,null), (4277230364286,null), (3437180674846,null), (3457966642472,null), (3343457639536,null), (4238157280270,null), (3890171477338,null), (3688165170208,null), (3934738907956,null), (4234827795970,null), (4051017828004,null), (4538662533230,null), (3796158589666,null), (2787153898200,null), (3951395193452,null), (3126567108235,null), (4277880839420,null), (3421839574836,null), (3002144363137,null), (4129717085326,null), (4053270331708,null), (4146351307162,null), (3835417336762,null), (3783397966260,null), (3738337672966,null), (4156819190760,null), (3088734294372,null), (3971404550102,null), (3407447998526,null), (4139234805928,null), (2916670070325,null), (3888757913242,null), (2887689442133,null), (3971659791548,null), (3255427686036,null), (3933827670234,null), (3496275803936,null), (4302185061734,null), (3147800661818,null), (3486353031264,null), (4316282874016,null), (4038511260562,null), (2781489164719,null), (4211755164590,null), (4227455673788,null), (4070098062074,null), (4227492010322,null), (3003460302357,null), (4006933547422,null), (4413080213824,null), (3950745884412,null), (4341147910728,null), (4224491686306,null), (3777010395046,null), (4287696311482,null), (4185889560562,null), (2917191318627,null), (2768430083316,null), (4154432092972,null), (3271022556262,null), (4299738656658,null), (4044441568042,null), (4262637150616,null), (3990098188672,null), (3945080075508,null), (4230890791766,null), (3424311045224,null), (4102355734970,null), (4307377293322,null), (2843825541250,null), (3110015541208,null), (4165979490128,null), (4256462846586,null), (3936415255504,null), (4163527958724,null), (3952344752696,null), (4289468696488,null), (3317354272418,null), (3485901254680,null), (4040502617494,null), (3500052630082,null), (3318777025134,null), (3400983496838,null), (4002837631474,null), (2749022361292,null), (3414913297942,null), (4330374602606,null), (4016415955678,null), (3649051207014,null), (3945042175724,null), (4066556349086,null), (2972100323703,null), (4829823499416,null), (3817176275322,null), (4235292830350,null), (3809813531570,null), (3911043792410,null), (3168290932568,null), (4079826685072,null), (3993878605580,null), (3398430401650,null), (4330041350148,null), (4224542217028,null), (4222245352620,null), (4388366073528,null), (3446646150622,null), (4046881514394,null), (3897009126318,null), (4299563089420,null), (4367703101156,null), (4149579363766,null), (4023745398222,null), (4093807082372,null), (4122008198716,null), (4069253867362,null), (4281068144198,null), (326</t>
+          <t>with cte_1 as ( select distinct a.* from t_team_sva_audit_2.t38_siv_19_11_24__1141__02__eps_pmt_for_november_2024__white_cluster a  ) select 'уникальных строк', count(*) from cte_1</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>QueryTooLargeError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E120" t="b">
@@ -3438,22 +3438,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>line 1:1: mismatched input 'function'. Expecting: 'ALTER', 'ANALYZE', 'CALL', 'COMMENT', 'COMMIT', 'CREATE', 'DEALLOCATE', 'DELETE', 'DENY', 'DESC', 'DESCRIBE', 'DROP', 'EXECUTE', 'EXPLAIN', 'GRANT', 'INSERT', 'MERGE', 'PREPARE', 'REFRESH', 'RESET', 'REVOKE', 'ROLLBACK', 'SET', 'SHOW', 'START', 'TRUNCATE', 'UPDATE', 'USE', &lt;query&gt;</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>function t() begin select 'test'; end</t>
+          <t>create table rozn2_gp.s_grnplm_ld_rozn_electron_hq_core.pa_pprb_pu_history_t_beta as (       select *, cast('beta' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_beta_opf_management.private_service_package_history)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E121" t="b">
@@ -3463,7 +3463,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>select *  from k808_rx_hdp.t_team_sberid.tab8</t>
+          <t>select * from capgp3_gp.s_grnplm_ld_audit_da_emitent."42_privatebanking_list_client_all_session"</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3488,22 +3488,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time or memory limit</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>--create table k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi09_itog_proba2" as select  epk_id, operation_ts, pmt_amt, sum(pmt_amt) over(PARTITION BY epk_id order by epk_id,operation_ts) as numer from k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi09_itog"</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_privatebanking_list_client_all_session_detail" as select 	* from k808_rx_hdp.t_team_sva_oarb."42_privatebanking_list_client_all_session_detail"</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>CanceledError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E123" t="b">
@@ -3513,22 +3513,22 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>---Ответы 2024 CREATE TABLE capgp2_gp.s_grnplm_ld_audit_da_sandbox_oaofr.sao_task_2024 AS (SELECT app_row_id, req_created, task_id, task_finished, task_num, task_answer, task_answer_full, task_text_sol, exp_queue, prev_queue, prev_queue_uber,     req_answer, req_answer_full FROM k808_rx_hdp.t_team_sva_audit_2."40_kaluginvs_appeal_anofl_task_2024")</t>
+          <t>select * from sfd_hdfsgw_hdp.prx_55_gsd_cod_km55_gsd_cod_km_custom_risk_cod_income.t_income</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E124" t="b">
@@ -3538,22 +3538,22 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time or memory limit</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SELECT ods_validfrom, ods_opc, product_id, client_id, product_code, product_account, account_open_date, product_type_id, account_close_date, status_id, product_create_date, archive_name, file_name, ctl_pa_loading, ctl_action, ctl_validfrom, ctl_validto, ctl_loading FROM sfd_hdfsgw_hdp.prx_vau_selfservice_sfn_selfservice_ooosberfondynedvizhimosti_sfn.agr</t>
+          <t>select * from t_cars_kap.tolyan_26112024_3</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>CanceledError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E125" t="b">
@@ -3563,22 +3563,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.shvets_inv</t>
+          <t>select *  		from sfd_hdfsgw_hdp.prx_hd_dm_curus_custom_salesntwrk_curusds.dm07_cassettes_history</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E126" t="b">
@@ -3588,22 +3588,22 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time or memory limit</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_op</t>
+          <t>select * from t_cars_kap.tolyan_26112024_33</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>CanceledError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E127" t="b">
@@ -3613,7 +3613,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.global_request_2024_v5</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi_1_ito"</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3638,22 +3638,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time or memory limit</t>
+          <t>line 2:89: mismatched input 'ф'. expecting: ',', '.', 'as', 'cross', 'except', 'fetch', 'for', 'full', 'group', 'having', 'inner', 'intersect', 'join', 'left', 'limit', 'match_recognize', 'natural', 'offset', 'order', 'right', 'tablesample', 'union', 'where', 'window', &lt;eof&gt;, &lt;identifier&gt;</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.global_request_2024_v4</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_rrn_oarbvvb_1542_1777_crd_stream_dc_success_polis" ф</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>CanceledError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E129" t="b">
@@ -3663,22 +3663,22 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time or memory limit</t>
+          <t>query text length (1051638) exceeds the maximum length (1000000)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_op</t>
+          <t>insert into idlist values (24284927820300,date'2023-11-03'), (3540617786182,date'2021-11-10'), (3710951187724,date'2022-02-15'), (10816370250,date'2022-02-15'), (3568401148548,date'2023-04-29'), (2815338303181,date'2022-04-07'), (2076044641381,date'2022-05-18'), (2881075686820,date'2022-02-16'), (4390041699050,date'2023-05-15'), (23037963295200,date'2023-07-27'), (1677625593167,date'2023-02-04'), (4647000523024,date'2023-05-15'), (2544742336610,date'2022-01-25'), (2364268651905,date'2023-04-22'), (12516096640,date'2023-04-22'), (3068488868561,date'2023-04-22'), (3564357179800,date'2023-04-22'), (1475551294291,date'2021-02-05'), (1020181820,date'2021-02-05'), (1446394650682,date'2021-02-05'), (1623441245975,date'2021-06-17'), (1509193737259,date'2021-07-14'), (613042550,date'2021-07-14'), (4164774812823,date'2021-08-11'), (3915128578122,date'2021-08-11'), (4183861410843,date'2021-08-12'), (1053273770,date'2021-08-15'), (1506499157188,date'2021-08-15'), (1544175893089,date'2021-08-26'), (1295840407722,date'2021-08-31'), (502741045,date'2021-08-31'), (2239806204654,date'2021-09-08'), (4569685063215,date'2021-09-20'), (514096348,date'2021-09-29'), (3248590436482,date'2021-09-29'), (4175521923363,date'2021-10-08'), (4174231888699,date'2021-10-14'), (1446410254077,date'2021-10-14'), (1544250503037,date'2021-10-14'), (2427079050,date'2021-11-08'), (2419342924848,date'2021-11-08'), (4569676678567,date'2021-10-31'), (4569691101895,date'2021-10-31'), (4569679565503,date'2021-10-31'), (30645474793,date'2021-03-26'), (37128675549,date'2021-03-26'), (4569235062406,date'2020-12-15'), (4249798913376,date'2020-10-31'), (4243257261543,date'2020-10-31'), (4780893960,date'2020-10-31'), (3031472102027,date'2023-03-17'), (,date'2023-03-17'), (69233176747832,date'2024-04-09'), (4003484653982,date'2024-01-27'), (874447599575,date'2020-12-21'), (1715661970266,date'2020-10-15'), (2602944651863,date'2020-10-15'), (416121296,date'2020-10-15'), (1544206179280,date'2020-11-27'), (1844054940,date'2020-11-27'), (3865509919209,date'2023-04-14'), (3685643598870,date'2022-06-10'), (4522713452990,date'2022-06-10'), (3271433678655,date'2022-11-15'), (3114113706529,date'2022-11-15'), (3109751635170,date'2022-11-15'), (3167919177038,date'2022-11-15'), (3114113706529,date'2022-11-15'), (3109751635170,date'2022-11-15'), (3167919177038,date'2022-11-15'), (19914369425100,date'2024-03-05'), (5269078322874,date'2024-01-18'), (41743416067500,date'2024-01-18'), (2867081933506,date'2024-01-18'), (4834237958596,date'2024-01-18'), (614512667,date'2024-01-18'), (5379429910,date'2024-01-29'), (2705398956451,date'2024-01-29'), (2671416575933,date'2024-03-06'), (4755179622748,date'2024-01-29'), (12358757420,date'2024-01-29'), (4670186275140,date'2024-01-29'), (4249796017704,date'2024-01-29'), (311572994500,date'2024-01-31'), (8803630750,date'2024-01-31'), (2399405273542,date'2024-03-06'), (1759855210,date'2024-03-06'), (3706383595966,date'2024-03-07'), (3077953782212,date'2024-03-05'), (2995853883509,date'2024-03-05'), (3320072801730,date'2022-02-13'), (3008217240071,date'2022-02-13'), (2627195066362,date'2022-02-13'), (485551157,date'2022-02-13'), (2953263192345,date'2024-02-06'), (13838450160,date'2024-02-06'), (3471698486416,date'2024-03-06'), (2601807556389,date'2024-03-05'), (9120511404375,date'2024-03-05'), (2000000010252500,date'2024-03-05'), (1962955979246,date'2024-03-05'), (2000000004720530,date'2024-03-07'), (1398475880774,date'2024-03-07'), (4269385519983,date'2024-03-07'), (4473687431504,date'2024-02-08'), (5029104750,date'2024-02-08'), (,date'2022-01-21'), (2482501040038,date'2022-01-21'), (,date'2022-01-21'), (14026758360,date'2022-01-21'), (3622041150286,date'2024-03-05'), (13040262290,date'2024-03-05'), (3001328617132,date'2024-03-06'), (3661728445374,date'2022-12-22'), (12740205030,date'2022-12-22'), (2831784590969,date'2022-12-22'), (3465658379090,date'2022-12-22'), (1000000000509930,date'2024-03-06'), (5002490040590,date'2024-03-06'), (5440929259734,date'2024-03-06'), (2831852734684,date'2021-11-15'), (9737553253600,date'2024-03-06'), (3991972520,date'2024-03-06'), (3856082204356,date'2024-03-06'), (13701320550,date'2024-03-05'), (2426728070,date'2024-03-05'), (4698873424178,date'2024-03-05'), (2498627085354,date'2024-01-19'), (387601881,date'2024-01-19'), (5306167318094,date'2024-03-07'), (2000000004243500,date'2024-03-07'), (5406097135186,date'2024-03-07'), (12856673420,date'2021-11-16'), (1563495798006,date'2021-11-16'), (3870179484908,date'2024-03-05'), (3796731904808,date'2024-02-05'), (5295264390720,date'2024-02-05'), (1000000007025330,date'2024-02-05'), (4888483758202,date'2024-02-05'), (4233287400,date'2024-03-05'), (2932080286651,date'2024-03-05'), (8992143469100,date'2024-03-05'), (4564068888294,date'2024-03-05'), (3712648493054,date'2024-03-05'), (1938635470,date'2024-03-05'), (2208320974148,date'2024-03-05'), (2913068810473,date'2021-11-11'), (5290490733990,date'2024-03-07'), (9507549634559,date'2024-03-07'), (4369892561964,date'2024-03-07'), (4055065509508,date'2024-03-07'), (2000000004806060,date'2024-03-07'), (2434287214066,date'2021-11-12'), (384943246,date'2021-11-12'), (4221651262120,date'2024-03-07'), (10629089320,date'2024-03-07'), (4542016740440,date'2024-03-07'), (3077151067217,date'2024-03-07'), (7096273345281,date'2021-11-19'), (7253176424246,date'2021-11-19'), (1446307232746,date'2021-11-19'), (2519848129329,date'2021-11-19'), (9164969040,date'2024-01-19'), (4718156461952,date'2024-01-19'), (4999726847294,date'2024-01-19'), (2006283343718,date'2021-11-10'), (439385776,date'2021-11-10'), (3472779018878,date'2024-03-07'), (2186377271375,date'2024-03-07'), (6945381180,date'2024-03-07'), (3806334988814,date'2024-03-07'), (4153869539910,date'2024-03-07'), (3950267651794,date'2024-03-07'), (2000000007106170,date'2024-03-06'), (4020585453186,date'2024-03-06'), (1742108965725,date'2024-03-06'), (4178838024312,date'2021-11-11'), (887429415022,date'2021-11-11'), (3311638782347,date'2021-11-11'), (626848037,date'2021-11-11'), (2510438051887,date'2024-03-06'), (5171723599428,date'2024-03-06'), (4428219982892,date'2024-03-06'), (16259957730,date'2024-03-06'), (3046443097810,date'2024-03-06'), (4620199767374,date'2024-02-01'), (3733303791612,date'2024-02-01'), (3766345147324,date'2024-02-01'), (3843649840430,date'2024-02-01'), (3642063528692,date'2024-02-01'), (3694525546614,date'2024-02-01'), (9996150690,date'2024-02-01'), (3506887911608,date'2024-02-01'), (4980515021508,date'2024-03-06'), (16730515430,date'2024-03-06'), (4806328410934,date'2024-03-06'), (1578560881301,date'2024-03-06'), (1578577768459,date'2024-03-06'), (1578564445905,date'2024-03-06'), (1736358120,date'2024-03-06'), (11813002987000,date'2024-02-06'), (1000000004799460,date'2024-02-06'), (7093875841700,date'2024-02-06'), (583602862,date'2024-01-29'), (3657299433436,date'2024-01-29'), (8421123950,date'2024-03-05'), (3092052788097,date'2024-03-05'), (3855263091812,date'2024-03-05'), (1431456450017,date'2021-11-18'), (1623381196916,date'2024-03-05'), (3032392929012,date'2024-03-05'), (4000000005291770,date'2024-03-05'), (4488388439072,date'2024-03-05'), (4683878157608,date'2024-03-05'), (620358788,date'2024-01-29'), (1623310078951,date'2024-01-29'), (4139960451634,date'2021-11-11'), (3378086476690,date'2021-11-11'), (12308114330,date'2021-11-11'), (3652213627316,date'2021-11-11'), (2984363870646,date'2023-11-13'), (5685707980,date'2023-11-13'), (4227594707881,date'2021-11-02'), (4227586416482,date'2021-11-02'), (46555855255800,date'2024-01-22'), (2000000009800610,date'2024-01-22'), (40180420795700,date'2024-01-22'), (2736427220017,date'2024-01-22'), (43528892014100,date'2024-01-22'), (48495117046631,date'2024-01-22'), (832974080092,date'2023-12-01'), (,date'2023-09-20'), (,date'2023-09-20'), (1577055091960,date'2023-09-20'), (615597603,date'2023-12-04'), (1623011302015,date'2023-12-04'), (,date'2023-12-04'), (,date'2023-12-04'), (8046668224217,date'2023-11-07'), (3490040633402,date'2023-11-07'), (2054509394950,date'2023-11-07'), (3783406080898,date'2023-11-07'), (14028490340,date'2023-11-07'), (3584197590330,date'2023-11-07'), (1779572598406,date'2023-05-10'), (1623450757109,date'2023-02-07'), (1996683113863,date'2020-07-15'), (233230212,date'2020-07-15'), (1623450757109,date'2023-02-07'), (4555183101890,date'2022-01-25'), (4154838010470,date'2023-01-24'), (4163487602194,date'2022-10-21'), (4161699440454,date'2022-10-21'), (3025387819794,date'2021-12-14'), (1605048578246,date'2021-10-19'), (2702159954415,date'2024-06-04'), (192274354,date'2021-12-28'), (2952581533850,date'2021-12-28'), (82052622101,date'2021-12-28'), (4670466082752,date'2023-04-14'), (3867612063966,date'2023-12-06'), (4304186118950,date'2023-11-10'), (4836966772078,date'2024-07-17'), (4466971195444,date'2024-07-17'), (4874557902090,date'2024-06-24'), (4452557553862,date'2024-02-12'), (7161180369100,date'2023-02-11'), (3681544655140,date'2024-07-08'), (10344134056600,date'2024-05-10'), (5339851997882,date'2024-05-13'), (1543924296240,date'2022-09-12'), (2345665281310,date'2024-05-13'), (3614904021228,date'2024-06-26'), (7603720509599,date'2024-10-08'), (7523040400951,date'2024-10-08'), (8173998370945,date'2024-10-08'), (39787704957,date'2023-05-18'), (3329840132273,date'2023-07-14'), (4189543269113,date'2023-07-14'), (4217593640232,date'2023-07-14'), (4113782574778,date'2023-07-14'), (4609894705542,date'2023-05-19'), (1446422427422,date'2021-11-10'), (1776176211275,date'2021-11-10'), (3271619880,date'2021-11-10'), (7450567630,date'2021-11-12'), (2968943591587,date'2021-11-12'), (1623447635524,date'2021-11-12'), (1751123800787,date'2021-11-12'), (2918494542775,date'2021-11-15'), (4160694850512,date'2021-11-15'), (4153859538388,date'2021-11-15'), (3000000006111706,date'2021-11-16'), (1515932853498,date'2021-11-16'), (1578638575185,date'2021-11-16'), (1515999962846,date'2021-11-16'), (8000000005441938,date'2021-11-16'), (1533501866890,date'2021-12-28'), (2674634854539,date'2021-11-16'), (4000000006787560,date'2021-11-16'), (1407579542444,date'2021-11-17'), (1655403880,date'2021-11-17'), (3010175482088,date'2021-11-15'), (1438223288279,date'2021-11-19'), (2620654990,date'2021-11-19'), (1623461822395,date'2021-11-19'), (3038003459795,date'2021-11-19'), (9867051260,date'2021-11-19'), (2981759329249,date'2021-11-19'), (2843024657456,date'2021-11-19'), (2832152946429,date'2021-11-22'), (3522537959168,date'2021-11-22'), (2843678296086,date'2021-11-22'), (7528238903653,date'2021-11-22'), (4000000007836372,date'2021-11-22'), (3104293487190,date'2021-11-22'), (6745908853372,date'2021-11-22'), (6617701410444,date'2021-11-22'), (313818769443,date'2021-11-22'), (3098666270,date'2021-11-22'), (2899291248971,date'2021-11-22'), (2396708204693,date'2021-11-23'), (1578328640614,date'2021-11-23'), (3451368130,date'2021-11-23'), (,date'2021-11-23'), (3073147013703,date'2021-11-23'), (2610102671258,date'2021-11-23'), (2462269382464,date'2021-11-24'), (334453815530,date'2021-11-24'), (,date'2021-11-24'), (,date'2021-11-24'), (1428546229294,date'2021-11-24'), (516097527,date'2021-11-24'), (,date'2021-11-24'), (305974651618,date'2021-11-24'), (44399657686,date'2021-11-24'), (2158266880619,date'2021-11-24'), (1087979390,date'2021-11-25'), (3039406397307,date'2021-11-25'), (2959125911135,date'2021-11-25'), (1544300741249,date'2021-11-25'), (2076273426380,date'2021-11-25'), (1677277855696,date'2021-11-25'), (12926646410,date'2021-11-26'), (2997112171767,date'2021-11-26'), (434197933,date'2021-11-26'), (1714484525396,date'2021-11-26'), (1905100197582,date'2021-11-26'), (2722577966350,date'2021-11-26'), (589347793,date'2021-11-26'), (7129835360302,date'2021-11-26'), (6000000001653717,date'2021-11-26'), (3999033206952,date'2021-11-26'), (2837957383801,date'2021-11-26'), (2996401203393,date'2021-11-29'), (979698340,date'2021-11-29'), (2799008926100,date'2021-11-29'), (1806215904645,date'2021-11-29'), (4218861635606,date'2021-11-29'), (105568821,date'2021-11-29'), (3929039746862,date'2021-11-29'), (2717026102402,date'2021-11-29'), (2811466076240,date'2021-11-29'), (3294226639228,date'2021-11-29'), (4112863539986,date'2021-11-30'), (3591783610,date'2021-11-30'), (3900638052832,date'2021-11-30'), (4569708686335,date'2021-12-01'), (4370733561434,date'2021-12-01'), (3787872448868,date'2021-12-01'), (4090755541026,date'2021-12-01'), (1769232392858,date'2021-12-01'), (13914961860,date'2021-12-01'), (,date'2021-12-02'), (3077240291318,date'2021-12-02'), (8158492360,date'2021-12-02'), (2615486925450,date'2021-12-02'), (10520449710,date'2021-12-02'), (2419189618343,date'2021-12-02'), (8000000006792541,date'2021-12-06'), (7325486072048,date'2021-12-06'), (6341143955552,date'2021-12-06'), (7182126176165,date'2021-12-06'), (7190880421732,date'2021-12-06'), (6897845815317,date'2021-12-06'), (7125574748899,date'2021-12-06'), (7255932405818,date'2021-12-06'), (8000000006632400,date'2021-12-06'), (290429451398,date'2021-12-06'), (2499783150329,date'2021-12-06'), (7000000005575743,date'2021-12-06'), (2352872216492,date'2021-12-06'), (2659014170914,date'2021-12-06'), (2952246084725,date'2021-12-06'), (2231066319211,date'2021-12-06'), (13160855020,date'2021-12-07'), (3000000006561651,date'2021-12-07'), (1568880692730,date'2021-12-07'), (1470003532209,date'2021-12-07'), (4569718048698,date'2021-12-07'), (1000000011218358,date'2021-12-07'), (4569707226485,date'2021-12-07'), (2598422044141,date'2021-12-07'), (1789341532300,date'2021-12-08'), (2000000011735969,date'2021-12-08'), (2492834523438,date'2021-12-08'), (4000000006834961,date'2021-12-08'), (2365513604460,date'2021-12-09'), (3292380290302,date'2021-12-09'), (8000000005658879,date'2021-12-09'), (2828971311489,date'2021-12-09'), (3144505780731,date'2021-12-10'), (6000000002738939,date'2021-12-10'), (1748017581828,date'2021-12-10'), (9326687400,date'2021-12-10'), (2861518320891,date'2021-12-10'), (3939351275086,date'2021-12-10'), (2854719248614,date'2021-12-13'), (2466613937398,date'2021-12-13'), (1578555080378,date'2021-12-14'), (8000000005686457,date'2021-12-14'), (2439666027747,date'2021-12-14'), (2416422192396,date'2021-12-15'), (2485430990048,date'2021-12-15'), (2686472881001,date'2021-12-15'), (4000000006620822,date'2021-12-15'), (459983032,date'2021-12-15'), (1751106667742,date'2021-12-15'), (1751109040624,date'2021-12-15'), (,date'2021-12-15'), (1677078959926,date'2021-12-15'), (2560267620,date'2021-12-15'), (2772607220,date'2021-12-15'), (2948972732324,date'2021-12-15'), (3067925046092,date'2021-12-15'), (197971476394,date'2021-12-15'), (2400603299563,date'2021-12-15'), (1544147983621,date'2021-12-15'), (,date'2021-12-15'), (6000000002837148,date'2021-12-15'), (,date'2021-12-15'), (7429797460,date'2021-12-15'), (2895233412494,date'2021-12-15'), (3131124114711,date'2021-12-15'), (2744556860258,date'2021-12-16'), (4180008810895,date'2021-12-16'), (8000000005618145,date'2021-12-16'), (1622853848584,date'2021-12-16'), (3951076612432,date'2021-12-17'), (3093335690847,date'2021-12-17'), (592540301,date'2021-12-17'), (331585239369,date'2021-12-17'), (1677134188720,date'2021-12-17'), (2768910609144,date'2021-12-17'), (3100598849525,date'2021-12-17'), (2849958848907,date'2021-12-17'), (1544042317271,date'2021-12-17'), (1622833391718,date'2021-12-20'), (,date'2021-12-20'), (1685428494822,date'2021-12-20'), (2635895959032,date'2021-12-20'), (2670371613508,date'2021-12-20'), (2479049268108,date'2021-12-20'), (11577145420,date'2021-12-20'), (1621758412819,date'2021-12-21'), (2230292369550,date'2021-12-22'), (,date'2021-12-22'), (919863610638,date'2021-12-23'), (1400757233343,date'2021-12-23'), (,date'2021-12-23'), (8000000005524348,date'2021-12-23'), (,date'2021-12-23'), (2150461666629,date'2021-12-23'), (,date'2021-12-23'), (,date'2021-12-24'), (,date'2021-12-24'), (2500045439265,date'2021-12-24'), (7429423695972,date'2021-12-24'), (1953343088310,date'2021-12-24'), (3000000006203152,date'2021-12-24'), (6910267306410,date'2021-12-24'), (7429422468710,date'2021-12-24'), (6979150725905,date'2021-12-24'), (2993192399592,date'2021-12-24'), (472887076,date'2021-12-24'), (,date'2021-12-24'), (,date'2021-12-24'), (1515993477633,date'2021-12-24'), (,date'2021-12-24'), (,date'2021-12-24'), (3312556822442,date'2021-12-24'), (6000000002868319,date'2021-12-24'), (5876201753415,date'2021-12-24'), (2549662130643,date'2021-12-24'), (4569703704391,date'2021-12-26'), (1543908399649,date'2021-12-26'), (1543908414433,date'2021-12-26'), (333769519501,date'2021-12-28'), (3000000007523263,date'2021-12-28'), (3969531337328,date'2021-12-28'), (3619443719612,date'2021-12-28'), (4301389212926,date'2021-12-28'), (2793231963947,date'2021-12-29'), (10752477410,date'2021-12-29'), (4106207480,date'2021-12-29'), (1814746560282,date'2021-12-29'), (2000000011782521,date'2021-12-29'), (2350017724856,date'2021-12-29'), (2817539716167,date'2021-12-29'), (6000000002748501,date'2021-12-29'), (2606500281866,date'2021-12-29'), (1000000011287281,date'2021-12-29'), (1991812320960,date'2021-12-29'), (1508790360762,date'2021-12-30'), (715467230,date'2021-12-30'), (2159736198094,date'2021-12-30'), (9934589940,date'2022-01-10'), (2692213806317,date'2022-01-10'), (,date'2022-01-10'), (,date'2022-01-10'), (3245884238816,date'2022-01-10'), (13575337870,date'2022-01-10'), (3003442933175,date'2022-01-10'), (3068794715799,date'2022-01-10'), (1736970289252,date'2022-01-10'), (2773129550,date'2022-01-10'), (3466662605468,date'2022-01-11'), (1494084652990,date'2022-01-11'), (2472611408941,date'2022-01-11'), (3020080391073,date'2022-01-28'), (2557229006637,date'2022-01-12'), (445777298,date'2022-01-12'), (2184482126529,date'2022-01-12'), (1111304011524,date'2022-01-12'), (329724609018,date'2022-01-12'), (2000000011727960,date'2022-01-12'), (9534161420,date'2022-01-12'), (2872495246216,date'2022-01-12'), (5000000002843901,date'2022-01-13'), (1422345330901,date'2022-01-13'), (156314829375,date'2022-01-14'), (528097914,date'2022-01-14'), (1623369954625,date'2022-01-14'), (1514518997358,date'2022-01-14'), (2783937594196,date'2022-01-17'), (3939786930638,date'2022-01-17'), (17747407590,date'2022-01-17'), (3859628651956,date'2022-01-17'), (3013467266135,date'2022-01-17'), (2863952763268,date'2022-01-18'), (,date'2022-01-18'), (8000000005521690,date'2022-01-18'), (6186172560,date'2022-01-19'), (3863457011608,date'2022-01-19'), (3170913767654,date'2022-01-19'), (3117034290298,date'2022-01-19'), (1579645204667,date'2022-01-19'), (,date'2022-01-20'), (,date'2022-01-20'), (,date'2022-01-20'), (,date'2022-01-20'), (2780307144366,date'2022-01-20'), (4190378406042,date'2022-01-21'), (8000000005478587,date'2022-01-21'), (898879172934,date'2022-01-21'), (4273399280682,date'2022-01-21'), (507337224,date'2022-01-21'), (3023464360613,date'2022-01-21'), (2624615076555,date'2022-01-21'), (4266375133712,date'2022-01-21'), (2341991183920,date'2022-01-21'), (2022812915940,date'2022-01-21'), (2444037076208,date'2022-01-21'), (1544144476610,date'2022-01-24'), (1441552358870,date'2022-01-24'), (1441552358870,date'2022-01-24'), (4784180890,date'2022-01-24'), (2069659643812,date'2022-01-24'), (3563120138498,date'2022-01-25'), (7153853740,date'2022-01-25'), (2153976808534,date'2022-01-25'), (1731442243112,date'2022-01-25'), (5109730329864,date'2022-01-25'), (1600448852698,date'2022-01-26'), (7000000005588277,date'2022-01-26'), (1694171371508,date'2022-01-26'), (2630936772105,date'2022-01-26'), (,date'2022-01-27'), (1578567154136,date'2022-01-27'), (4569259572286,date'2022-01-27'), (,date'2022-01-27'), (4569259508828,date'2022-01-27'), (2104601650799,date'2022-01-27'), (,date'2022-01-27'), (2734063171222,date'2022-01-27'), (2662817471183,date'2022-01-27'), (3101762441825,date'2022-01-28'), (3338722484712,date'2022-01-28'), (2195159380,date'2022-01-28'), (4980122337716,date'2022-01-28'), (1594487213515,date'2022-01-28'), (12555428080,date'2022-01-31'), (3871943616170,date'2022-01-31'), (3978803032538,date'2022-01-31'), (3886600865408,date'2022-01-31'), (4000000006496620,date'2022-01-31'), (1676861770296,date'2022-01-31'), (3796927327362,date'2022-01-31'), (3745409311662,date'2022-01-31'), (3142731325225,date'2022-01-31'), (3645307770148,date'2022-01-31'), (3847942933834,date'2022-01-31'), (2850202703503,date'2022-01-31'), (2716560918081,date'2022-01-31'), (1977282509375,date'2022-01-31'), (3098880835799,date'2022-02-01'), (170828330875,date'2022-02-01'), (1927596470682,date'2022-02-02'), (2508284588082,date'2022-02-02'), (10514238730,date'2022-02-02'), (209734358879,date'2022-02-02'), (3000000006100600,date'2022-02-02'), (2151575235789,date'2022-02-02'), (427630497,date'2022-02-03'), (1543925158836,date'2022-02-03'), (1812170631432,date'2022-02-03'), (1623306548242,date'2022-02-03'), (2000000011876938,date'2022-02-03'), (7253802450996,date'2022-02-03'), (7381756315623,date'2022-02-03'), (2973629888452,date'2022-02-03'), (7339928836839,date'2022-02-03'), (7319743010738,date'2022-02-03'), (15022168320,date'2022-02-03'), (3063371280188,date'2022-02-03'), (1657280098981,date'2022-02-03'), (2776670560987,date'2022-02-03'), (3224068447630,date'2022-02-03'), (4760199460,date'2022-02-03'), (2705062067150,date'2022-02-03'), (2113103305442,date'2022-02-03'), (199508422,date'2022-02-04'), (271357995945,date'2022-02-04'), (2656776671294,date'2022-02-04'), (4761894830,date'2022-02-04'), (2741410072548,date'2022-02-04'), (3776787953604,date'2022-02-04'), (1446325730113,date'2022-02-05'), (1446292181840,date'2022-02-05'), (8000000006462207,date'2022-02-05'), (1446307502370,date'2022-02-05'), (1446329175295,date'2022-02-05'), (1446311952129,date'2022-02-05'), (1446299180583,date'2022-02-05'), (1446402525466,date'2022-02-05'), (2828581355034,date'2022-02-07'), (11411711540,date'2022-02-07'), (1944485090,date'2022-02-07'), (1543929699422,date'2022-02-07'), (,date'2022-02-07'), (6336529655174,date'2022-02-07'), (6338769683263,date'2022-02-07'), (6381039332127,date'2022-02-07'), (4000000006681574,date'2022-02-07'), (,date'2022-02-07'), (2658948982978,date'2022-02-07'), (4333420898844,date'2022-02-07'), (4102474064050,date'2022-02-07'), (3766525231936,date'2022-02-07'), (4307997620,date'2022-02-07'), (1622711786638,date'2022-02-07'), (4000000006626232,date'2022-02-07'), (3104475911544,date'2022-02-07'), (2453907849411,date'2022-02-07'), (,date'2022-02-07'), (4569689331315,date'2022-02-07'), (4569685696805,date'2022-02-07'), (4307447867509,date'2022-02-07'), (4307431562241,date'2022-02-07'), (2780492260935,date'2022-02-08'), (3847718175166,date'2022-02-08'), (4431441626450,date'2022-02-08'), (4434927795686,date'2022-02-08'), (4118194420930,date'2022-02-08'), (3066721472623,date'2022-02-08'), (4432624555378,date'2022-02-08'), (5000000002851052,date'2022-02-08'), (3797232751682,date'2022-02-08'), (7407490121543,date'2022-02-08'), (2949269885826,date'2022-02-08'), (,date'2022-02-08'), (1544284691267,date'2022-02-08'), (2668000605852,date'2022-02-08'), (1466833770,date'2022-02-08'), (2987791183420,date'2022-02-09'), (2000000011723384,date'2022-02-09'), (2548397971794,date'2022-02-09'), (4073714070,date'2022-02-09'), (2685484818243,date'2022-02-10'), (13215655920,date'2022-02-10'), (4000000006736383,date'2022-02-10'), (7387451219496,date'2022-02-10'), (278114844263,date'2022-02-10'), (,date'2022-02-10'), (469759192,date'2022-02-10'), (4098512213302,date'2022-02-10'), (2926327510333,date'2022-02-10'), (4107307937250,date'2022-02-10'), (1528681149943,date'2022-02-10'), (4103642001154,date'2022-02-10'), (3997006910708,date'2022-02-10'), (6928766398812,date'2022-02-10'), (3018310428004,date'2022-02-10'), (1622959075399,date'2022-02-10'), (4129398715314,date'2022-02-10'), (6196381342079,date'2022-02-10'), (3294506223366,date'2022-02-10'), (3412410784424,date'2022-02-10'), (3506458154684,date'2022-02-10'), (6992987880,date'2022-02-10'), (4436354179566,date'2022-02-10'), (5000000002777523,date'2022-02-10'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (3431796811284,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (7000000005425805,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (4207524566858,date'2022-02-11'), (3343651485608,date'2022-02-11'), (4319193283908,date'2022-02-11'), (4455587522724,date'2022-02-11'), (4506717093674,date'2022-02-11'), (4495089724704,date'2022-02-11'), (1544297139603,date'2022-02-11'), (7465363930,date'2022-02-11'), (885024362378,date'2022-02-12'), (890886764615,date'2022-02-12'), (420303845,date'2022-02-12'), (197292582,date'2022-02-12'), (2681476345877,date'2022-02-12'), (4350849804320,date'2022-02-12'), (3820694534762,date'2022-02-12'), (2921306837373,date'2022-02-14'), (3048657952646,date'2022-02-14'), (2468496653920,date'2022-02-14'), (3147203636210,date'2022-02-14'), (2400831213231,date'2022-02-15'), (3296866298312,date'2022-02-16'), (3110001256513,date'2022-02-16'), (3214236644788,date'2022-02-16'), (1093529270,date'2022-02-16'), (3359783762422,date'2022-02-16'), (3489627107020,date'2022-02-16'), (4164990825674,date'2022-02-16'), (1000000000370935,date'2022-02-17'), (3037181046970,date'2022-02-17'), (4300484303968,date'2022-02-17'), (16079950300,date'2022-02-17'), (1623369954625,date'2022-02-17'), (3037839723622,date'2022-02-18'), (3145807563446,date'2022-02-18'), (614678234,date'2022-02-18'), (1431386595856,date'2022-02-18'), (2719877841589,date'2022-02-19'), (3535606652454,date'2022-02-19'), (2895718477592,date'2022-02-19'), (3712211992212,date'2022-02-19'), (,date'2022-02-19'), (1663087385367,date'2022-02-19'), (2635741204394,date'2022-02-19'), (2840278443452,date'2022-02-20'), (2903605337376,date'2022-02-20'), (6000000002886179,date'2022-02-20'), (2716807328609,date'2022-02-20'), (4336145957450,date'2022-02-20'), (4448760185062,date'2022-02-20'), (3301170953144,date'2022-02-20'), (1465322151551,date'2022-02-20'), (1492876698130,date'2022-02-20'), (3924443758166,date'2022-02-20'), (10733195500,date'2022-02-20'), (3000000006422539,date'2022-02-21'), (2928353479280,date'2022-02-21'), (2837984084492,date'2022-02-21'), (4255763714178,date'2022-02-21'), (2481338113743,date'2022-02-21'), (3105419235100,date'2022-02-22'), (1942649605871,date'2022-02-22'), (5289607102748,date'2022-02-22'), (3264635212230,date'2022-02-22'), (3023737609304,date'2022-02-22'), (11347340470,date'2022-02-22'), (3116791405093,date'2022-02-22'), (7184447492441,date'2022-02-24'), (3174826377024,date'2022-02-24'), (3343175048232,date'2022-02-24'), (1000000011210761,date'2022-02-24'), (8471115828023,date'2022-02-24'), (2907502586682,date'2022-02-24'), (3459476197978,date'2022-02-24'), (4000000006698463,date'2022-02-24'), (1571375368727,date'2022-02-24'), (616133521,date'2022-02-24'), (2827871071577,date'2022-02-24'), (2439187415280,date'2022-02-24'), (3850069614472,date'2022-02-24'), (3306184664928,date'2022-02-24'), (1959401664754,date'2022-02-24'), (1767085296685,date'2022-02-25'), (6074470720,date'2022-02-25'), (1477968420,date'2022-02-25'), (1766259827709,date'2022-02-25'), (2365586667780,date'2022-02-25'), (40737905907400,date'2022-02-25'), (2639371699973,date'2022-02-26'), (6779087100,date'2022-02-26'), (2596631299448,date'2022-02-26'), (8794232980,date'2022-02-26'), (4020981096952,date'2022-02-26'), (1016566700,date'2022-02-28'), (1476397080261,date'2022-02-28'), (1767085296685,date'2022-02-28'), (914738905853,date'2022-03-01'), (5000000002774093,date'2022-03-01'), (180661729351,date'2022-03-01'), (8000000005731773,date'2022-03-01'), (1971587994313,date'2022-03-01'), (1542502158135,date'2022-03-01'), (2670377065207,date'2022-03-30'), (6102989000,date'2022-03-01'), (2205212722237,date'2022-03-01'), (2479754672414,date'2022-03-01'), (4424288105734,date'2022-03-02'), (4378921423006,date'2022-03-02'), (2081646631908,date'2022-03-03'), (3310809410,date'2022-03-03'), (1631927436791,date'2022-03-03'), (2571608629956,date'2022-03-04'), (3610240306908,date'2022-03-04'), (4537457032192,date'2022-03-04'), (3105913130670,date'2022-03-04'), (7000000005946145,date'2022-03-04'), (311930773259,date'2022-03-04'), (13219858690,date'2022-03-05'), (2832948010865,date'2022-03-05'), (3267715907964,date'2022-03-05'), (1578511060150,date'2022-03-05'), (3955417656636,date'2022-03-05'), (2765334757454,date'2022-03-05'), (736350160,date'2022-03-05'), (2934323836529,date'2022-03-05'), (3015806912708,date'2022-03-05'), (4133751474730,date'2022-03-05'), (3945088215598,date'2022-03-05'), (3987404499992,date'2022-03-05'), (16215347250,date'2022-03-05'), (2435349045783,date'2022-03-06'), (278114844263,date'2022-03-07'), (7216865416278,date'2022-03-07'), (6842476206830,date'2022-03-07'), (1543924460,date'2022-03-07'), (6000000002810229,date'2022-03-09'), (2779384522649,date'2022-03-09'), (1911096055820,date'2022-03-10'), (211132836,date'2022-03-10'), (4221363759222,date'2022-03-10'), (1677203301346,date'2022-03-10'), (,date'2022-03-10'), (2582216783435,date'2022-03-10'), (1198328040,date'2022-03-10'), (4314969121946,date'2022-03-11'), (2779875472484,date'2022-03-11'), (2576724013347,date'2022-03-11'), (7276633619534,date'2022-03-14'), (15101472770,date'2022-03-14'), (2743349619819,date'2022-03-14'), (1825970501329,date'2022-03-14'), (1426864833741,date'2022-03-14'), (1476352208281,date'2022-03-14'), (4604655296256,date'2022-03-15'), (4603827663570,date'2022-03-15'), (891208260178,date'2022-03-15'), (299131428,date'2022-03-15'), (2974887100813,date'2022-03-15'), (1000000011202175,date'2022-03-15'), (6000000002756192,date'2022-03-15'), (5236310349046,date'2022-03-15'), (,date'2022-03-16'), (,date'2022-03-16'), (3683797723052,date'2022-03-16'), (1623218931019,date'2022-03-17'), (14682615560,date'2022-03-17'), (2974749622286,date'2022-03-17'), (3099723204335,date'2022-03-17'), (1720923231861,date'2022-03-17'), (7000000005859196,date'2022-03-17'), (1932387575213,date'2022-03-17'), (1515978382451,date'2022-03-17'), (1677044912548,date'2022-03-17'), (1705352135386,date'2022-03-17'), (5535969710,date'2022-03-17'), (3764011343046,date'2022-03-17'), (3716897461358,date'2022-03-17'), (3557110768768,date'2022-03-17'), (3913354977996,date'2022-03-17'), (3857041122032,date'2022-03-17'), (3817020410138,date'2022-03-17'), (2921188937323,date'2022-03-17'), (13561680210,date'2022-03-17'), (10174687000,date'2022-03-18'), (2325079169012,date'2022-03-18'), (1630717174545,date'2022-03-18'), (2486767840,date'2022-03-18'), (3118352106919,date'2022-03-21'), (4235702676578,date'2022-03-21'), (4137360592150,date'2022-03-21'), (1578475871254,date'2022-03-21'), (2855875104890,date'2022-03-21'), (2297544152161,date'2022-03-21'), (8000000005397317,date'2022-03-21'), (2178772142284,date'2022-03-21'), (11646844540,date'2022-03-21'), (3127448422668,date'2022-03-21'), (546460097,date'2022-03-21'), (2707158229601,date'2022-03-21'), (,date'2022-03-21'), (2806016147428,date'2022-03-21'), (267598241637,date'2022-03-21'), (,date'2022-03-21'), (3440000776820,date'2022-03-21'), (3648905601790,date'2022-03-21'), (3941983330794,date'2022-03-21'), (3581248431766,date'2022-03-21'), (1945312870,date'2022-03-21'), (1578341346033,date'2022-03-21'), (5000000003504152,date'2022-03-21'), (2834524625353,date'2022-03-21'), (2668082908253,date'2022-03-21'), (3911933089236,date'2022-03-24'), (4390431271828,date'2022-03-24'), (4436751091228,date'2022-03-24'), (4070764749040,date'2022-03-24'), (9326639310,date'2022-03-24'), (891018394699,date'2022-03-22'), (4138036402348,date'2022-03-22'), (4204837591526,date'2022-03-22'), (3047533649306,date'2022-03-22'), (4000000006675769,date'2022-03-22'), (3115012337393,date'2022-03-22'), (1594300130146,date'2022-03-22'), (3046664280420,date'2022-03-22'), (2617970946746,date'2022-03-22'), (13215211420,date'2022-03-22'), (2794015529634,date'2022-03-22'), (2368153486949,date'2022-03-22'), (,date'2022-03-22'), (2931086213199,date'2022-03-22'), (1622846545155,date'2022-03-22'), (4116406755858,date'2022-03-22'), (2135020992406,date'2022-03-23'), (2049236096348,date'2022-03-23'), (2225606458226,date'2022-03-23'), (161858202,date'2022-03-23'), (3599767913556,date'2022-03-23'), (2703969577336,date'2022-03-24'), (3136317597836,date'2022-03-24'), (3000000006157345,date'2022-03-24'), (2466169779380,date'2022-03-24'), (5315964250,date'2022-03-24'), (1623186164241,date'2022-03-24'), (2629001201653,date'2022-03-24'), (5000000003083473,date'2022-03-24'), (,date'2022-03-24'), (,date'2022-03-25'), (3020960667144,date'2022-03-25'), (,date'2022-03-25'), (2958076886452,date'2022-03-25'), (1570467056884,date'2022-03-25'), (2845514292956,date'2022-03-25'), (4431012807614,date'2022-03-25'), (,date'2022-03-25'), (4000000006701356,date'2022-03-25'), (1578490253575,date'2022-03-26'), (1578512938041,date'2022-03-26'), (1578552551209,date'2022-03-26'), (8000000005539577,da</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>CanceledError</t>
+          <t>QueryTooLargeError</t>
         </is>
       </c>
       <c r="E130" t="b">
@@ -3688,7 +3688,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>select * from   em_pay_history_oper order by ac desc,id,c_date</t>
+          <t>select* from k808_rx_hdp.t_team_sva_oarb."40_pev_mkk_obr_191224_part_2"</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3713,72 +3713,72 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Failed to list directory: hdfs://hdfsgw/arnsdpxdata__zzvukk-DZO_OOOZVUK_RB-CLTV_USERS/data/core/dzo/ooozvuk_rb/pa/snp/cltv_users/ctl_loading=43229322</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.prx_zzvukk_dzo_ooozvuk_rb.cltv_users</t>
+          <t>select * from t_cars_kap.vklad_close_v_01</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Could not communicate with the remote task. The node may have crashed or be under too much load. This is probably a transient issue, so please retry your query in a few minutes. (pvlos-ldtrn0002.cloud.df.sbrf.ru:8443)</t>
+          <t>line 1:33: mismatched input ')'. expecting: 'as'</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>select cust.client_name, doc_serial, doc_number, client_birth_day, claim_number, claim_date_time, claim_type_name, product_type_name,product_type_name_full from k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.cust as cust  join  k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.agr as agr on cust.client_id = agr.client_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.appl as appl  on agr.product_id = appl.product_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.prod as prod on appl.product_type_id = prod.product_type_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.appltype as appltype  on appl.claim_type_id = appltype.claim_type_id</t>
+          <t>select max(cast(creation_date_dd) as date) from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_efs_old"</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time or memory limit</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>select cust.client_name, doc_serial, doc_number, client_birth_day, claim_number, claim_date_time, claim_type_name, product_type_name,product_type_name_full from k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.cust as cust  join  k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.agr as agr on cust.client_id = agr.client_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.appl as appl  on agr.product_id = appl.product_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.prod as prod on appl.product_type_id = prod.product_type_id  join k808_rx_hdp.prx_pda_sfn_selfservice_ooosberfondynedvizhimosti_sfn.appltype as appltype  on appl.claim_type_id = appltype.claim_type_id</t>
+          <t>select count(*) from (select * from k808_rx_hdp.prx_55_sai_custom_rb_card_custom_rb_card."scd_card_union" ) dbvrcnt</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>CanceledError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E134" t="b">
@@ -3788,7 +3788,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>select * from em_tmp3</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_pb1_pprbsurvey"</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3813,22 +3813,22 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>insert  	into 	capgp2_gp.s_grnplm_ld_audit_da_sandbox_oarb.s_gp_ivakhnovs_appeal_2024 select 	* from 	k808_rx_hdp.t_team_sva_oarb."40_ivakhnovs_appeal_full_2024"</t>
+          <t>select * from k808_rx_hdp.prx_tdr_cars_dict_internal_cars_cars_dictionary.department_org</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E136" t="b">
@@ -3838,7 +3838,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>select *  from t_team_sva_audit_2.t38_siv_02_11_24__1095__25__adding_request_id_current_id_and_prev_from_rq_main_and_use_case_from_tsmr</t>
+          <t>select cluster, source_type, object_date, object_hour, length (cluster) as len from sfd_hdfsgw_hdp.prx_statistika_dl_custom_t_dl.cluster_stat</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3863,22 +3863,22 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time or memory limit</t>
+          <t>line 1:1: destination table 'capgp3_gp.s_grnplm_ld_audit_da_emitent.42_pb1_divrstat_session_detail' already exists</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SELECT * FROM t_team_sva_audit_2.t38_siv_02_11_24__1095__26__only_prod_parameters__on_current_id_2</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" as select * from k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>CanceledError</t>
+          <t>ObjectAlreadyExistsError</t>
         </is>
       </c>
       <c r="E138" t="b">
@@ -3888,22 +3888,22 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>line 1:22: mismatched input 'date'. Expecting: ')', ','</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>select ('2024-11-19' date) as p1</t>
+          <t>select * from sfd_hdfsgw_hdp.prx_trn_arch_platform_trahv.ru_sbrf_transfers_archive_entity_transferoperator</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E139" t="b">
@@ -3913,22 +3913,22 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Query exceeded distributed user memory limit of 27GB</t>
+          <t>line 3:196: mismatched input 'б'. expecting: ',', 'except', 'fetch', 'from', 'group', 'having', 'intersect', 'limit', 'offset', 'order', 'union', 'where', 'window', &lt;eof&gt;</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_hd_atm_host_oper_240208_nrt_atmhost_operations.atmhost_operations ORDER BY body_sesstartdt</t>
+          <t>select   try_cast(replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') as decimal(32,2)) sumaб n.sms_text from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2" n</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E140" t="b">
@@ -3938,17 +3938,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>line 3:1: mismatched input ','. Expecting: 'FROM'</t>
+          <t>line 1:40: mismatched input '&lt;eof&gt;'. expecting: ')'</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>select date_parse(trim(substring('abc_zakupkigovru_beginner_20240118_092653_001.json', strpos('abc_zakupkigovru_beginner_20240118_092653_001.json', 'beginner_') + 9), '.json'), '%Y%m%d_%H%i%s%a'  select strpos('abc_zakupkigovru_beginner_20240118_092653_001.json', 'beginner_') + 9</t>
+          <t>select position('(\d+)' in 'fhg4jfh125'</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3963,22 +3963,22 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time or memory limit</t>
+          <t>line 1:72: mismatched input '('. expecting: 'if', &lt;identifier&gt;</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr as  select * from capgp2_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr</t>
+          <t>alter table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics add column( select video_origination_list  from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend )</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>CanceledError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E142" t="b">
@@ -3988,47 +3988,47 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "07735561"</t>
+          <t>line 26:1: mismatched input ')'. expecting: '%', '*', '+', ',', '-', '.', '/', 'and', 'at', 'except', 'fetch', 'intersect', 'limit', 'offset', 'or', 'order', 'union', '[', '||', &lt;eof&gt;, &lt;predicate&gt;</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr  select * from capgp2_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr</t>
+          <t>insert into clist values ('c22928284',date'2024-01-21'), ('c54828516',date'2024-01-12'), ('c132776421',date'2024-01-18'), ('c45653488',date'2024-01-18'), ('c129179074',date'2024-01-24'), ('c35104445',date'2024-01-24'), ('c91963364',date'2024-01-24'), ('c13092638',date'2024-04-16'), ('c90332826',date'2024-01-25'), ('c111755880',date'2024-01-09'), ('c109891736',date'2024-01-26'), ('c125106118',date'2024-01-29'), ('c83116463',date'2024-01-29'), ('c139020419',date'2024-01-29'), ('c33698274',date'2024-01-29'), ('c5364134',date'2024-01-29'), ('c141046547',date'2024-01-30'), ('c16270447',date'2024-01-30'), ('c55289243',date'2024-01-30'), ('c138519942',date'2024-01-30'), ('c105970003',date'2024-01-31'), ('c115592010',date'2024-01-31'), ('c125057534',date'2024-02-14'), ('c129801742',date'2024-01-31') )  select c.ceshka,c.dt,dmc.client_id,dma.account_id,dca.client_role_id from   clist                         l join   prx_kalita_otchetnaya_1_internal_kalita_report_kalita_gg.dm_client         dmc on dmc.client_ext_id=l.ceshka join   prx_kalita_otchetnaya_1_internal_kalita_report_kalita_gg.dm_client_account dca on dca.client_id=dmc.client_id and dca.client_role_id in (1,2)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time or memory limit</t>
+          <t>line 10:1: mismatched input 'from'. expecting: '*', &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>select count(*) from sfd_gpgw_gp.prx_trino_testv2_kap818_epk_s_grnplm_as_t_didsd_069_vd__3cl.t_cust_org_idfn_19274933_view</t>
+          <t>select first_value (c.tb) over (partition by c.docnumber, upper(c.name) order by c.pid) as tb, first_value (c.osb) over (partition by c.docnumber, upper(c.name) order by c.pid) as osb, first_value (c.vsp) over (partition by c.docnumber, upper(c.name) order by c.pid) as vsp, c.docnumber, c.name, first_value (c.openingdate) over (partition by c.docnumber, upper(c.name) order by c.pid) as openingdate, first_value (c.closingdate) over (partition by c.docnumber, upper(c.name) order by c.pid) as closingdate,  from t_cars_kap.vklad_close</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>CanceledError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E144" t="b">
@@ -4038,72 +4038,72 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>line 1:35: Column 'app_status' cannot be resolved</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>select request_id, count(distinct app_status) from k808_rx_hdp.t_team_sva_oarb."55_gsd_ts_result_main_temp_epk_dec_3" group by request_id</t>
+          <t>create table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics  as select user_id, play_start_dttm, play_duration_sec, subscription_uid, serial_name, video_origination_list   from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>MissingColumnError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Partition location does not exist: hdfs://arnsdpsbx/user/team/team_curus_dm/datamart/pa/dm04_operations_history/timestampcolumn=2024-07-23</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SELECT timestampcolumn, count(*) FROM k808_rx_hdp.t_team_curus_dm.dm04_operations_history  group by timestampcolumn</t>
+          <t>create table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics  as select user_id, play_start_dttm, play_duration_sec, subscription_uid, serial_name, video_origination_list   from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>MissingObjectError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>line 1:8: mismatched input 'select'. Expecting: '*', 'ALL', 'DISTINCT', &lt;expression&gt;</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>select select request_id, count(distinct app_status) from sfd_hdfsgw_hdp.prx_55_gse_risk_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.t_st_main  group by request_id</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_gsd_income_cv"</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E147" t="b">
@@ -4113,7 +4113,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.k_automaticoperations</t>
+          <t>select * from k808_rx_hdp.prx_esa_vitrina_cod_06_custom_rb_cod.dep_agrmnt_44</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4138,117 +4138,117 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Tried to access metastore after transaction has been committed/aborted</t>
+          <t>array subscript must be less than or equal to array length: 2 &gt; 1</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% оплата%автоплатёж % баланс:%' then split((split(sms_text,' баланс:')[1]),'автоплатёж ')[2]     when sms_text like '%автоплатёж на номер%в сумме%' then split((split(sms_text,' в сумме')[1]),'на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TypeError</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tried to access metastore after transaction has been committed/aborted</t>
+          <t>array subscript must be less than or equal to array length: 2 &gt; 1</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% оплата%автоплатёж % баланс:%' then split((split(sms_text,' баланс:')[1]),'автоплатёж ')[2]     when sms_text like '%автоплатёж на номер % в сумме%' then split((split(sms_text,' в сумме')[1]),'на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TypeError</t>
         </is>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tried to access metastore after transaction has been committed/aborted</t>
+          <t>array subscript must be less than or equal to array length: 2 &gt; 1</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% оплата%автоплатёж % баланс:%' then split((split(sms_text,' баланс:')[1]),'автоплатёж ')[2]     when sms_text like '%автоплатёж на номер % в сумме%' then split((split(sms_text,' в сумме')[1]),'автоплатёж на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TypeError</t>
         </is>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tried to access metastore after transaction has been committed/aborted</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_op2</t>
+          <t>create table k808_rx_hdp.t_team_cxdata.gptable_test1 as select * from sfd_gpgw_gp.prx_trino_testv2_kap818_epk_s_grnplm_as_t_didsd_069_vd__3cl.t_cust_org_idfn_19274933_view</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Query exceeded distributed user memory limit of 27GB</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>with cte_1 as ( select distinct a.* from t_team_sva_audit_2.t38_siv_19_11_24__1141__02__eps_pmt_for_november_2024__white_cluster a  ) select 'Уникальных строк', count(*) from cte_1</t>
+          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."p_vp_sb_pk_and_pt_pi_pr_pp" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp"</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4263,97 +4263,97 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Could not communicate with the remote task. The node may have crashed or be under too much load. This is probably a transient issue, so please retry your query in a few minutes. (pvlos-ldtrn0002.cloud.df.sbrf.ru:8443)</t>
+          <t>value cannot be cast to date: 2023-10-28 16:23:37</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi_1_id_mega" as  select distinct a.epk_id, a.operation_ts_dat, CRD_OTF_TRNF_ORG_RUB_AMT, CRD_OTF_TRNF_PERS_RUB_AMT from k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi_1_id" a join sfd_hdfsgw_hdp.prx_42_gulynin_mega_1_custom_rozn_client_aggr.ft_client_aggr_mnth b on a.epk_id=b.epk_id and date(b.report_dt)=last_day_of_month(a.operation_ts_dat) and b.report_dt='2024-07-31'</t>
+          <t>select c.sbercrm_alpha_id, c.offer_status, cast(c.created_date as date) as created_date, date_parse(updated_date, '%y-%m-%d %h:%i:%s') as updated_date     from  k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer  c   limit 10</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CastError</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Tried to access metastore after transaction has been committed/aborted</t>
+          <t>value cannot be cast to date: 2023-10-28 16:23:37</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+          <t>select c.sbercrm_alpha_id, c.offer_status, cast(c.created_date as date) as created_date, date_parse(updated_date, '%y-%m-%d %h:%i:%s') as updated_date     from  k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer  c   limit 10</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CastError</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "19685940"</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>create table rozn2_gp.s_grnplm_ld_rozn_electron_hq_core.pa_pprb_pu_history_t as ( select *, cast('alpha' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_alpha_opf_management.private_service_package_history       union all       select *, cast('beta' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_beta_opf_management.private_service_package_history       union all       select *, cast('delta' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_delta_opf_management.private_service_package_history       union all       select *, cast('gamma' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_gamma_opf_management.private_service_package_history )</t>
+          <t>create table k808_rx_hdp.t_team_cxdata.gptable_test1 as select * from sfd_gpgw_gp.prx_trino_testv2_kap818_epk_s_grnplm_as_t_didsd_069_vd__3cl.t_cust_org_idfn_19274933_view</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time or memory limit</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>create table rozn2_gp.s_grnplm_ld_rozn_electron_hq_core.pa_pprb_pu_history_t_beta as (       select *, cast('beta' as varchar) as shard,             current_timestamp as update_dtm      from k808_rx_hdp.prx_pa_pprbpu_internal_pprbpu_beta_opf_management.private_service_package_history)</t>
+          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."p_vp_sb_pk_and_pt_pi_pr_pp" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp"</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>CanceledError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E157" t="b">
@@ -4363,22 +4363,22 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time or memory limit</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>select * from capgp3_gp.s_grnplm_ld_audit_da_emitent."42_privatebanking_list_client_all_session"</t>
+          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp_two_ac" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp_two_ac"</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>CanceledError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E158" t="b">
@@ -4388,17 +4388,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_privatebanking_list_client_all_session_detail" as select 	* from k808_rx_hdp.t_team_sva_oarb."42_privatebanking_list_client_all_session_detail"</t>
+          <t>create table k808_rx_hdp.t_team_cxdata.gptable_test3 as select * from sfd_gpgw_gp.prx_trino_sbb_test_v1_s_grnplm_vd_rozn_mpp_daas_h_6fu.ft_sbol_csa_token_ahd_view</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4413,7 +4413,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>select * from sfd_hdfsgw_hdp.prx_55_gsd_cod_km55_gsd_cod_km_custom_risk_cod_income.t_income</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb.tdr_szb_ekp_transact_bfo_client_2023_2024_v2</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4438,22 +4438,22 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SELECT * from t_cars_kap.Tolyan_26112024_3</t>
+          <t>select 		min_date,  		count(nepkid) as count_min 	from 		( 		select distinct 						dtreportdate, 						nepkid, 						min(dtreportdate) over (partition by nepkid) as min_date 		from k808_rx_hdp.t_01540664_omega_sbrf_ru.v_is0652_sal_4_25_m 		) 	group by min_date</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E161" t="b">
@@ -4463,7 +4463,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>select *  		from sfd_hdfsgw_hdp.prx_hd_dm_curus_custom_salesntwrk_curusds.dm07_cassettes_history</t>
+          <t>select  esb_msg_in_guid, esb_msg_in_created_on, send_message_created_on, ucp_id, send_status, msisdn, msg_type_id, ctl_loading, short_push_text, sms_text, substring(coalesce(sms_text,short_push_text),1,8) card, case when cardinality(split(coalesce(sms_text,short_push_text),' '))&gt;3 then lower(split(coalesce(sms_text,short_push_text),' ')[3]) end oper, case 	   when regexp_extract(replace(replace(coalesce(sms_text,short_push_text),'?',''),',','.'), '\d+\.\d\dр ') is not null              then cast(replace(trim(regexp_extract(replace(replace(replace(replace(coalesce(sms_text,short_push_text),'?',''),' ',''),' ',''),',','.'), '\d+\.\d\dр')),'р','') as decimal(19,2))  	   when trim(regexp_extract(replace(replace(coalesce(sms_text,short_push_text),'?',''),',','.'), '\d+р ')) is not null 	   		then cast(replace(trim(regexp_extract(replace(replace(replace(coalesce(sms_text,short_push_text),'?',''),' ',''),' ',''), '\d+р')),'р','') as decimal(19,2))</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4488,72 +4488,72 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Tried to access metastore after transaction has been committed/aborted</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_cars_kap.shvets_zd_nsk2</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."13_net_p2_300724_launcher"</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>line 1:12: Column 'date_end' cannot be resolved</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>select max(date_end) from k808_rx_hdp.prx_55_gev_crm_acq_internal_crm_rb2_siebel.cx_acq_srv_req</t>
+          <t>select * from sfd_hdfsgw_hdp.prx_upp_1_custom_cib_p4d_fns_egr.uchrulin</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>MissingColumnError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.Tolyan_26112024_33</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_krd_cc_stg_1"</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ResourceError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E165" t="b">
@@ -4563,7 +4563,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_lependin_plategi_1_ito"</t>
+          <t>select * from k808_rx_hdp.prx_ooozvuk_prom_dzo_ooozvuk_rb.cltv_listening</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4588,22 +4588,22 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>line 2:89: mismatched input 'ф'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_rrn_oarbvvb_1542_1777_crd_stream_dc_success_polis" ф</t>
+          <t>select * from k808_rx_hdp.prx_ooozvuk_prom_dzo_ooozvuk_rb.cltv_subscriptions</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E167" t="b">
@@ -4613,22 +4613,22 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Query text length (1051638) exceeds the maximum length (1000000)</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>insert into idlist values (24284927820300,date'2023-11-03'), (3540617786182,date'2021-11-10'), (3710951187724,date'2022-02-15'), (10816370250,date'2022-02-15'), (3568401148548,date'2023-04-29'), (2815338303181,date'2022-04-07'), (2076044641381,date'2022-05-18'), (2881075686820,date'2022-02-16'), (4390041699050,date'2023-05-15'), (23037963295200,date'2023-07-27'), (1677625593167,date'2023-02-04'), (4647000523024,date'2023-05-15'), (2544742336610,date'2022-01-25'), (2364268651905,date'2023-04-22'), (12516096640,date'2023-04-22'), (3068488868561,date'2023-04-22'), (3564357179800,date'2023-04-22'), (1475551294291,date'2021-02-05'), (1020181820,date'2021-02-05'), (1446394650682,date'2021-02-05'), (1623441245975,date'2021-06-17'), (1509193737259,date'2021-07-14'), (613042550,date'2021-07-14'), (4164774812823,date'2021-08-11'), (3915128578122,date'2021-08-11'), (4183861410843,date'2021-08-12'), (1053273770,date'2021-08-15'), (1506499157188,date'2021-08-15'), (1544175893089,date'2021-08-26'), (1295840407722,date'2021-08-31'), (502741045,date'2021-08-31'), (2239806204654,date'2021-09-08'), (4569685063215,date'2021-09-20'), (514096348,date'2021-09-29'), (3248590436482,date'2021-09-29'), (4175521923363,date'2021-10-08'), (4174231888699,date'2021-10-14'), (1446410254077,date'2021-10-14'), (1544250503037,date'2021-10-14'), (2427079050,date'2021-11-08'), (2419342924848,date'2021-11-08'), (4569676678567,date'2021-10-31'), (4569691101895,date'2021-10-31'), (4569679565503,date'2021-10-31'), (30645474793,date'2021-03-26'), (37128675549,date'2021-03-26'), (4569235062406,date'2020-12-15'), (4249798913376,date'2020-10-31'), (4243257261543,date'2020-10-31'), (4780893960,date'2020-10-31'), (3031472102027,date'2023-03-17'), (,date'2023-03-17'), (69233176747832,date'2024-04-09'), (4003484653982,date'2024-01-27'), (874447599575,date'2020-12-21'), (1715661970266,date'2020-10-15'), (2602944651863,date'2020-10-15'), (416121296,date'2020-10-15'), (1544206179280,date'2020-11-27'), (1844054940,date'2020-11-27'), (3865509919209,date'2023-04-14'), (3685643598870,date'2022-06-10'), (4522713452990,date'2022-06-10'), (3271433678655,date'2022-11-15'), (3114113706529,date'2022-11-15'), (3109751635170,date'2022-11-15'), (3167919177038,date'2022-11-15'), (3114113706529,date'2022-11-15'), (3109751635170,date'2022-11-15'), (3167919177038,date'2022-11-15'), (19914369425100,date'2024-03-05'), (5269078322874,date'2024-01-18'), (41743416067500,date'2024-01-18'), (2867081933506,date'2024-01-18'), (4834237958596,date'2024-01-18'), (614512667,date'2024-01-18'), (5379429910,date'2024-01-29'), (2705398956451,date'2024-01-29'), (2671416575933,date'2024-03-06'), (4755179622748,date'2024-01-29'), (12358757420,date'2024-01-29'), (4670186275140,date'2024-01-29'), (4249796017704,date'2024-01-29'), (311572994500,date'2024-01-31'), (8803630750,date'2024-01-31'), (2399405273542,date'2024-03-06'), (1759855210,date'2024-03-06'), (3706383595966,date'2024-03-07'), (3077953782212,date'2024-03-05'), (2995853883509,date'2024-03-05'), (3320072801730,date'2022-02-13'), (3008217240071,date'2022-02-13'), (2627195066362,date'2022-02-13'), (485551157,date'2022-02-13'), (2953263192345,date'2024-02-06'), (13838450160,date'2024-02-06'), (3471698486416,date'2024-03-06'), (2601807556389,date'2024-03-05'), (9120511404375,date'2024-03-05'), (2000000010252500,date'2024-03-05'), (1962955979246,date'2024-03-05'), (2000000004720530,date'2024-03-07'), (1398475880774,date'2024-03-07'), (4269385519983,date'2024-03-07'), (4473687431504,date'2024-02-08'), (5029104750,date'2024-02-08'), (,date'2022-01-21'), (2482501040038,date'2022-01-21'), (,date'2022-01-21'), (14026758360,date'2022-01-21'), (3622041150286,date'2024-03-05'), (13040262290,date'2024-03-05'), (3001328617132,date'2024-03-06'), (3661728445374,date'2022-12-22'), (12740205030,date'2022-12-22'), (2831784590969,date'2022-12-22'), (3465658379090,date'2022-12-22'), (1000000000509930,date'2024-03-06'), (5002490040590,date'2024-03-06'), (5440929259734,date'2024-03-06'), (2831852734684,date'2021-11-15'), (9737553253600,date'2024-03-06'), (3991972520,date'2024-03-06'), (3856082204356,date'2024-03-06'), (13701320550,date'2024-03-05'), (2426728070,date'2024-03-05'), (4698873424178,date'2024-03-05'), (2498627085354,date'2024-01-19'), (387601881,date'2024-01-19'), (5306167318094,date'2024-03-07'), (2000000004243500,date'2024-03-07'), (5406097135186,date'2024-03-07'), (12856673420,date'2021-11-16'), (1563495798006,date'2021-11-16'), (3870179484908,date'2024-03-05'), (3796731904808,date'2024-02-05'), (5295264390720,date'2024-02-05'), (1000000007025330,date'2024-02-05'), (4888483758202,date'2024-02-05'), (4233287400,date'2024-03-05'), (2932080286651,date'2024-03-05'), (8992143469100,date'2024-03-05'), (4564068888294,date'2024-03-05'), (3712648493054,date'2024-03-05'), (1938635470,date'2024-03-05'), (2208320974148,date'2024-03-05'), (2913068810473,date'2021-11-11'), (5290490733990,date'2024-03-07'), (9507549634559,date'2024-03-07'), (4369892561964,date'2024-03-07'), (4055065509508,date'2024-03-07'), (2000000004806060,date'2024-03-07'), (2434287214066,date'2021-11-12'), (384943246,date'2021-11-12'), (4221651262120,date'2024-03-07'), (10629089320,date'2024-03-07'), (4542016740440,date'2024-03-07'), (3077151067217,date'2024-03-07'), (7096273345281,date'2021-11-19'), (7253176424246,date'2021-11-19'), (1446307232746,date'2021-11-19'), (2519848129329,date'2021-11-19'), (9164969040,date'2024-01-19'), (4718156461952,date'2024-01-19'), (4999726847294,date'2024-01-19'), (2006283343718,date'2021-11-10'), (439385776,date'2021-11-10'), (3472779018878,date'2024-03-07'), (2186377271375,date'2024-03-07'), (6945381180,date'2024-03-07'), (3806334988814,date'2024-03-07'), (4153869539910,date'2024-03-07'), (3950267651794,date'2024-03-07'), (2000000007106170,date'2024-03-06'), (4020585453186,date'2024-03-06'), (1742108965725,date'2024-03-06'), (4178838024312,date'2021-11-11'), (887429415022,date'2021-11-11'), (3311638782347,date'2021-11-11'), (626848037,date'2021-11-11'), (2510438051887,date'2024-03-06'), (5171723599428,date'2024-03-06'), (4428219982892,date'2024-03-06'), (16259957730,date'2024-03-06'), (3046443097810,date'2024-03-06'), (4620199767374,date'2024-02-01'), (3733303791612,date'2024-02-01'), (3766345147324,date'2024-02-01'), (3843649840430,date'2024-02-01'), (3642063528692,date'2024-02-01'), (3694525546614,date'2024-02-01'), (9996150690,date'2024-02-01'), (3506887911608,date'2024-02-01'), (4980515021508,date'2024-03-06'), (16730515430,date'2024-03-06'), (4806328410934,date'2024-03-06'), (1578560881301,date'2024-03-06'), (1578577768459,date'2024-03-06'), (1578564445905,date'2024-03-06'), (1736358120,date'2024-03-06'), (11813002987000,date'2024-02-06'), (1000000004799460,date'2024-02-06'), (7093875841700,date'2024-02-06'), (583602862,date'2024-01-29'), (3657299433436,date'2024-01-29'), (8421123950,date'2024-03-05'), (3092052788097,date'2024-03-05'), (3855263091812,date'2024-03-05'), (1431456450017,date'2021-11-18'), (1623381196916,date'2024-03-05'), (3032392929012,date'2024-03-05'), (4000000005291770,date'2024-03-05'), (4488388439072,date'2024-03-05'), (4683878157608,date'2024-03-05'), (620358788,date'2024-01-29'), (1623310078951,date'2024-01-29'), (4139960451634,date'2021-11-11'), (3378086476690,date'2021-11-11'), (12308114330,date'2021-11-11'), (3652213627316,date'2021-11-11'), (2984363870646,date'2023-11-13'), (5685707980,date'2023-11-13'), (4227594707881,date'2021-11-02'), (4227586416482,date'2021-11-02'), (46555855255800,date'2024-01-22'), (2000000009800610,date'2024-01-22'), (40180420795700,date'2024-01-22'), (2736427220017,date'2024-01-22'), (43528892014100,date'2024-01-22'), (48495117046631,date'2024-01-22'), (832974080092,date'2023-12-01'), (,date'2023-09-20'), (,date'2023-09-20'), (1577055091960,date'2023-09-20'), (615597603,date'2023-12-04'), (1623011302015,date'2023-12-04'), (,date'2023-12-04'), (,date'2023-12-04'), (8046668224217,date'2023-11-07'), (3490040633402,date'2023-11-07'), (2054509394950,date'2023-11-07'), (3783406080898,date'2023-11-07'), (14028490340,date'2023-11-07'), (3584197590330,date'2023-11-07'), (1779572598406,date'2023-05-10'), (1623450757109,date'2023-02-07'), (1996683113863,date'2020-07-15'), (233230212,date'2020-07-15'), (1623450757109,date'2023-02-07'), (4555183101890,date'2022-01-25'), (4154838010470,date'2023-01-24'), (4163487602194,date'2022-10-21'), (4161699440454,date'2022-10-21'), (3025387819794,date'2021-12-14'), (1605048578246,date'2021-10-19'), (2702159954415,date'2024-06-04'), (192274354,date'2021-12-28'), (2952581533850,date'2021-12-28'), (82052622101,date'2021-12-28'), (4670466082752,date'2023-04-14'), (3867612063966,date'2023-12-06'), (4304186118950,date'2023-11-10'), (4836966772078,date'2024-07-17'), (4466971195444,date'2024-07-17'), (4874557902090,date'2024-06-24'), (4452557553862,date'2024-02-12'), (7161180369100,date'2023-02-11'), (3681544655140,date'2024-07-08'), (10344134056600,date'2024-05-10'), (5339851997882,date'2024-05-13'), (1543924296240,date'2022-09-12'), (2345665281310,date'2024-05-13'), (3614904021228,date'2024-06-26'), (7603720509599,date'2024-10-08'), (7523040400951,date'2024-10-08'), (8173998370945,date'2024-10-08'), (39787704957,date'2023-05-18'), (3329840132273,date'2023-07-14'), (4189543269113,date'2023-07-14'), (4217593640232,date'2023-07-14'), (4113782574778,date'2023-07-14'), (4609894705542,date'2023-05-19'), (1446422427422,date'2021-11-10'), (1776176211275,date'2021-11-10'), (3271619880,date'2021-11-10'), (7450567630,date'2021-11-12'), (2968943591587,date'2021-11-12'), (1623447635524,date'2021-11-12'), (1751123800787,date'2021-11-12'), (2918494542775,date'2021-11-15'), (4160694850512,date'2021-11-15'), (4153859538388,date'2021-11-15'), (3000000006111706,date'2021-11-16'), (1515932853498,date'2021-11-16'), (1578638575185,date'2021-11-16'), (1515999962846,date'2021-11-16'), (8000000005441938,date'2021-11-16'), (1533501866890,date'2021-12-28'), (2674634854539,date'2021-11-16'), (4000000006787560,date'2021-11-16'), (1407579542444,date'2021-11-17'), (1655403880,date'2021-11-17'), (3010175482088,date'2021-11-15'), (1438223288279,date'2021-11-19'), (2620654990,date'2021-11-19'), (1623461822395,date'2021-11-19'), (3038003459795,date'2021-11-19'), (9867051260,date'2021-11-19'), (2981759329249,date'2021-11-19'), (2843024657456,date'2021-11-19'), (2832152946429,date'2021-11-22'), (3522537959168,date'2021-11-22'), (2843678296086,date'2021-11-22'), (7528238903653,date'2021-11-22'), (4000000007836372,date'2021-11-22'), (3104293487190,date'2021-11-22'), (6745908853372,date'2021-11-22'), (6617701410444,date'2021-11-22'), (313818769443,date'2021-11-22'), (3098666270,date'2021-11-22'), (2899291248971,date'2021-11-22'), (2396708204693,date'2021-11-23'), (1578328640614,date'2021-11-23'), (3451368130,date'2021-11-23'), (,date'2021-11-23'), (3073147013703,date'2021-11-23'), (2610102671258,date'2021-11-23'), (2462269382464,date'2021-11-24'), (334453815530,date'2021-11-24'), (,date'2021-11-24'), (,date'2021-11-24'), (1428546229294,date'2021-11-24'), (516097527,date'2021-11-24'), (,date'2021-11-24'), (305974651618,date'2021-11-24'), (44399657686,date'2021-11-24'), (2158266880619,date'2021-11-24'), (1087979390,date'2021-11-25'), (3039406397307,date'2021-11-25'), (2959125911135,date'2021-11-25'), (1544300741249,date'2021-11-25'), (2076273426380,date'2021-11-25'), (1677277855696,date'2021-11-25'), (12926646410,date'2021-11-26'), (2997112171767,date'2021-11-26'), (434197933,date'2021-11-26'), (1714484525396,date'2021-11-26'), (1905100197582,date'2021-11-26'), (2722577966350,date'2021-11-26'), (589347793,date'2021-11-26'), (7129835360302,date'2021-11-26'), (6000000001653717,date'2021-11-26'), (3999033206952,date'2021-11-26'), (2837957383801,date'2021-11-26'), (2996401203393,date'2021-11-29'), (979698340,date'2021-11-29'), (2799008926100,date'2021-11-29'), (1806215904645,date'2021-11-29'), (4218861635606,date'2021-11-29'), (105568821,date'2021-11-29'), (3929039746862,date'2021-11-29'), (2717026102402,date'2021-11-29'), (2811466076240,date'2021-11-29'), (3294226639228,date'2021-11-29'), (4112863539986,date'2021-11-30'), (3591783610,date'2021-11-30'), (3900638052832,date'2021-11-30'), (4569708686335,date'2021-12-01'), (4370733561434,date'2021-12-01'), (3787872448868,date'2021-12-01'), (4090755541026,date'2021-12-01'), (1769232392858,date'2021-12-01'), (13914961860,date'2021-12-01'), (,date'2021-12-02'), (3077240291318,date'2021-12-02'), (8158492360,date'2021-12-02'), (2615486925450,date'2021-12-02'), (10520449710,date'2021-12-02'), (2419189618343,date'2021-12-02'), (8000000006792541,date'2021-12-06'), (7325486072048,date'2021-12-06'), (6341143955552,date'2021-12-06'), (7182126176165,date'2021-12-06'), (7190880421732,date'2021-12-06'), (6897845815317,date'2021-12-06'), (7125574748899,date'2021-12-06'), (7255932405818,date'2021-12-06'), (8000000006632400,date'2021-12-06'), (290429451398,date'2021-12-06'), (2499783150329,date'2021-12-06'), (7000000005575743,date'2021-12-06'), (2352872216492,date'2021-12-06'), (2659014170914,date'2021-12-06'), (2952246084725,date'2021-12-06'), (2231066319211,date'2021-12-06'), (13160855020,date'2021-12-07'), (3000000006561651,date'2021-12-07'), (1568880692730,date'2021-12-07'), (1470003532209,date'2021-12-07'), (4569718048698,date'2021-12-07'), (1000000011218358,date'2021-12-07'), (4569707226485,date'2021-12-07'), (2598422044141,date'2021-12-07'), (1789341532300,date'2021-12-08'), (2000000011735969,date'2021-12-08'), (2492834523438,date'2021-12-08'), (4000000006834961,date'2021-12-08'), (2365513604460,date'2021-12-09'), (3292380290302,date'2021-12-09'), (8000000005658879,date'2021-12-09'), (2828971311489,date'2021-12-09'), (3144505780731,date'2021-12-10'), (6000000002738939,date'2021-12-10'), (1748017581828,date'2021-12-10'), (9326687400,date'2021-12-10'), (2861518320891,date'2021-12-10'), (3939351275086,date'2021-12-10'), (2854719248614,date'2021-12-13'), (2466613937398,date'2021-12-13'), (1578555080378,date'2021-12-14'), (8000000005686457,date'2021-12-14'), (2439666027747,date'2021-12-14'), (2416422192396,date'2021-12-15'), (2485430990048,date'2021-12-15'), (2686472881001,date'2021-12-15'), (4000000006620822,date'2021-12-15'), (459983032,date'2021-12-15'), (1751106667742,date'2021-12-15'), (1751109040624,date'2021-12-15'), (,date'2021-12-15'), (1677078959926,date'2021-12-15'), (2560267620,date'2021-12-15'), (2772607220,date'2021-12-15'), (2948972732324,date'2021-12-15'), (3067925046092,date'2021-12-15'), (197971476394,date'2021-12-15'), (2400603299563,date'2021-12-15'), (1544147983621,date'2021-12-15'), (,date'2021-12-15'), (6000000002837148,date'2021-12-15'), (,date'2021-12-15'), (7429797460,date'2021-12-15'), (2895233412494,date'2021-12-15'), (3131124114711,date'2021-12-15'), (2744556860258,date'2021-12-16'), (4180008810895,date'2021-12-16'), (8000000005618145,date'2021-12-16'), (1622853848584,date'2021-12-16'), (3951076612432,date'2021-12-17'), (3093335690847,date'2021-12-17'), (592540301,date'2021-12-17'), (331585239369,date'2021-12-17'), (1677134188720,date'2021-12-17'), (2768910609144,date'2021-12-17'), (3100598849525,date'2021-12-17'), (2849958848907,date'2021-12-17'), (1544042317271,date'2021-12-17'), (1622833391718,date'2021-12-20'), (,date'2021-12-20'), (1685428494822,date'2021-12-20'), (2635895959032,date'2021-12-20'), (2670371613508,date'2021-12-20'), (2479049268108,date'2021-12-20'), (11577145420,date'2021-12-20'), (1621758412819,date'2021-12-21'), (2230292369550,date'2021-12-22'), (,date'2021-12-22'), (919863610638,date'2021-12-23'), (1400757233343,date'2021-12-23'), (,date'2021-12-23'), (8000000005524348,date'2021-12-23'), (,date'2021-12-23'), (2150461666629,date'2021-12-23'), (,date'2021-12-23'), (,date'2021-12-24'), (,date'2021-12-24'), (2500045439265,date'2021-12-24'), (7429423695972,date'2021-12-24'), (1953343088310,date'2021-12-24'), (3000000006203152,date'2021-12-24'), (6910267306410,date'2021-12-24'), (7429422468710,date'2021-12-24'), (6979150725905,date'2021-12-24'), (2993192399592,date'2021-12-24'), (472887076,date'2021-12-24'), (,date'2021-12-24'), (,date'2021-12-24'), (1515993477633,date'2021-12-24'), (,date'2021-12-24'), (,date'2021-12-24'), (3312556822442,date'2021-12-24'), (6000000002868319,date'2021-12-24'), (5876201753415,date'2021-12-24'), (2549662130643,date'2021-12-24'), (4569703704391,date'2021-12-26'), (1543908399649,date'2021-12-26'), (1543908414433,date'2021-12-26'), (333769519501,date'2021-12-28'), (3000000007523263,date'2021-12-28'), (3969531337328,date'2021-12-28'), (3619443719612,date'2021-12-28'), (4301389212926,date'2021-12-28'), (2793231963947,date'2021-12-29'), (10752477410,date'2021-12-29'), (4106207480,date'2021-12-29'), (1814746560282,date'2021-12-29'), (2000000011782521,date'2021-12-29'), (2350017724856,date'2021-12-29'), (2817539716167,date'2021-12-29'), (6000000002748501,date'2021-12-29'), (2606500281866,date'2021-12-29'), (1000000011287281,date'2021-12-29'), (1991812320960,date'2021-12-29'), (1508790360762,date'2021-12-30'), (715467230,date'2021-12-30'), (2159736198094,date'2021-12-30'), (9934589940,date'2022-01-10'), (2692213806317,date'2022-01-10'), (,date'2022-01-10'), (,date'2022-01-10'), (3245884238816,date'2022-01-10'), (13575337870,date'2022-01-10'), (3003442933175,date'2022-01-10'), (3068794715799,date'2022-01-10'), (1736970289252,date'2022-01-10'), (2773129550,date'2022-01-10'), (3466662605468,date'2022-01-11'), (1494084652990,date'2022-01-11'), (2472611408941,date'2022-01-11'), (3020080391073,date'2022-01-28'), (2557229006637,date'2022-01-12'), (445777298,date'2022-01-12'), (2184482126529,date'2022-01-12'), (1111304011524,date'2022-01-12'), (329724609018,date'2022-01-12'), (2000000011727960,date'2022-01-12'), (9534161420,date'2022-01-12'), (2872495246216,date'2022-01-12'), (5000000002843901,date'2022-01-13'), (1422345330901,date'2022-01-13'), (156314829375,date'2022-01-14'), (528097914,date'2022-01-14'), (1623369954625,date'2022-01-14'), (1514518997358,date'2022-01-14'), (2783937594196,date'2022-01-17'), (3939786930638,date'2022-01-17'), (17747407590,date'2022-01-17'), (3859628651956,date'2022-01-17'), (3013467266135,date'2022-01-17'), (2863952763268,date'2022-01-18'), (,date'2022-01-18'), (8000000005521690,date'2022-01-18'), (6186172560,date'2022-01-19'), (3863457011608,date'2022-01-19'), (3170913767654,date'2022-01-19'), (3117034290298,date'2022-01-19'), (1579645204667,date'2022-01-19'), (,date'2022-01-20'), (,date'2022-01-20'), (,date'2022-01-20'), (,date'2022-01-20'), (2780307144366,date'2022-01-20'), (4190378406042,date'2022-01-21'), (8000000005478587,date'2022-01-21'), (898879172934,date'2022-01-21'), (4273399280682,date'2022-01-21'), (507337224,date'2022-01-21'), (3023464360613,date'2022-01-21'), (2624615076555,date'2022-01-21'), (4266375133712,date'2022-01-21'), (2341991183920,date'2022-01-21'), (2022812915940,date'2022-01-21'), (2444037076208,date'2022-01-21'), (1544144476610,date'2022-01-24'), (1441552358870,date'2022-01-24'), (1441552358870,date'2022-01-24'), (4784180890,date'2022-01-24'), (2069659643812,date'2022-01-24'), (3563120138498,date'2022-01-25'), (7153853740,date'2022-01-25'), (2153976808534,date'2022-01-25'), (1731442243112,date'2022-01-25'), (5109730329864,date'2022-01-25'), (1600448852698,date'2022-01-26'), (7000000005588277,date'2022-01-26'), (1694171371508,date'2022-01-26'), (2630936772105,date'2022-01-26'), (,date'2022-01-27'), (1578567154136,date'2022-01-27'), (4569259572286,date'2022-01-27'), (,date'2022-01-27'), (4569259508828,date'2022-01-27'), (2104601650799,date'2022-01-27'), (,date'2022-01-27'), (2734063171222,date'2022-01-27'), (2662817471183,date'2022-01-27'), (3101762441825,date'2022-01-28'), (3338722484712,date'2022-01-28'), (2195159380,date'2022-01-28'), (4980122337716,date'2022-01-28'), (1594487213515,date'2022-01-28'), (12555428080,date'2022-01-31'), (3871943616170,date'2022-01-31'), (3978803032538,date'2022-01-31'), (3886600865408,date'2022-01-31'), (4000000006496620,date'2022-01-31'), (1676861770296,date'2022-01-31'), (3796927327362,date'2022-01-31'), (3745409311662,date'2022-01-31'), (3142731325225,date'2022-01-31'), (3645307770148,date'2022-01-31'), (3847942933834,date'2022-01-31'), (2850202703503,date'2022-01-31'), (2716560918081,date'2022-01-31'), (1977282509375,date'2022-01-31'), (3098880835799,date'2022-02-01'), (170828330875,date'2022-02-01'), (1927596470682,date'2022-02-02'), (2508284588082,date'2022-02-02'), (10514238730,date'2022-02-02'), (209734358879,date'2022-02-02'), (3000000006100600,date'2022-02-02'), (2151575235789,date'2022-02-02'), (427630497,date'2022-02-03'), (1543925158836,date'2022-02-03'), (1812170631432,date'2022-02-03'), (1623306548242,date'2022-02-03'), (2000000011876938,date'2022-02-03'), (7253802450996,date'2022-02-03'), (7381756315623,date'2022-02-03'), (2973629888452,date'2022-02-03'), (7339928836839,date'2022-02-03'), (7319743010738,date'2022-02-03'), (15022168320,date'2022-02-03'), (3063371280188,date'2022-02-03'), (1657280098981,date'2022-02-03'), (2776670560987,date'2022-02-03'), (3224068447630,date'2022-02-03'), (4760199460,date'2022-02-03'), (2705062067150,date'2022-02-03'), (2113103305442,date'2022-02-03'), (199508422,date'2022-02-04'), (271357995945,date'2022-02-04'), (2656776671294,date'2022-02-04'), (4761894830,date'2022-02-04'), (2741410072548,date'2022-02-04'), (3776787953604,date'2022-02-04'), (1446325730113,date'2022-02-05'), (1446292181840,date'2022-02-05'), (8000000006462207,date'2022-02-05'), (1446307502370,date'2022-02-05'), (1446329175295,date'2022-02-05'), (1446311952129,date'2022-02-05'), (1446299180583,date'2022-02-05'), (1446402525466,date'2022-02-05'), (2828581355034,date'2022-02-07'), (11411711540,date'2022-02-07'), (1944485090,date'2022-02-07'), (1543929699422,date'2022-02-07'), (,date'2022-02-07'), (6336529655174,date'2022-02-07'), (6338769683263,date'2022-02-07'), (6381039332127,date'2022-02-07'), (4000000006681574,date'2022-02-07'), (,date'2022-02-07'), (2658948982978,date'2022-02-07'), (4333420898844,date'2022-02-07'), (4102474064050,date'2022-02-07'), (3766525231936,date'2022-02-07'), (4307997620,date'2022-02-07'), (1622711786638,date'2022-02-07'), (4000000006626232,date'2022-02-07'), (3104475911544,date'2022-02-07'), (2453907849411,date'2022-02-07'), (,date'2022-02-07'), (4569689331315,date'2022-02-07'), (4569685696805,date'2022-02-07'), (4307447867509,date'2022-02-07'), (4307431562241,date'2022-02-07'), (2780492260935,date'2022-02-08'), (3847718175166,date'2022-02-08'), (4431441626450,date'2022-02-08'), (4434927795686,date'2022-02-08'), (4118194420930,date'2022-02-08'), (3066721472623,date'2022-02-08'), (4432624555378,date'2022-02-08'), (5000000002851052,date'2022-02-08'), (3797232751682,date'2022-02-08'), (7407490121543,date'2022-02-08'), (2949269885826,date'2022-02-08'), (,date'2022-02-08'), (1544284691267,date'2022-02-08'), (2668000605852,date'2022-02-08'), (1466833770,date'2022-02-08'), (2987791183420,date'2022-02-09'), (2000000011723384,date'2022-02-09'), (2548397971794,date'2022-02-09'), (4073714070,date'2022-02-09'), (2685484818243,date'2022-02-10'), (13215655920,date'2022-02-10'), (4000000006736383,date'2022-02-10'), (7387451219496,date'2022-02-10'), (278114844263,date'2022-02-10'), (,date'2022-02-10'), (469759192,date'2022-02-10'), (4098512213302,date'2022-02-10'), (2926327510333,date'2022-02-10'), (4107307937250,date'2022-02-10'), (1528681149943,date'2022-02-10'), (4103642001154,date'2022-02-10'), (3997006910708,date'2022-02-10'), (6928766398812,date'2022-02-10'), (3018310428004,date'2022-02-10'), (1622959075399,date'2022-02-10'), (4129398715314,date'2022-02-10'), (6196381342079,date'2022-02-10'), (3294506223366,date'2022-02-10'), (3412410784424,date'2022-02-10'), (3506458154684,date'2022-02-10'), (6992987880,date'2022-02-10'), (4436354179566,date'2022-02-10'), (5000000002777523,date'2022-02-10'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (3431796811284,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (7000000005425805,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (,date'2022-02-11'), (4207524566858,date'2022-02-11'), (3343651485608,date'2022-02-11'), (4319193283908,date'2022-02-11'), (4455587522724,date'2022-02-11'), (4506717093674,date'2022-02-11'), (4495089724704,date'2022-02-11'), (1544297139603,date'2022-02-11'), (7465363930,date'2022-02-11'), (885024362378,date'2022-02-12'), (890886764615,date'2022-02-12'), (420303845,date'2022-02-12'), (197292582,date'2022-02-12'), (2681476345877,date'2022-02-12'), (4350849804320,date'2022-02-12'), (3820694534762,date'2022-02-12'), (2921306837373,date'2022-02-14'), (3048657952646,date'2022-02-14'), (2468496653920,date'2022-02-14'), (3147203636210,date'2022-02-14'), (2400831213231,date'2022-02-15'), (3296866298312,date'2022-02-16'), (3110001256513,date'2022-02-16'), (3214236644788,date'2022-02-16'), (1093529270,date'2022-02-16'), (3359783762422,date'2022-02-16'), (3489627107020,date'2022-02-16'), (4164990825674,date'2022-02-16'), (1000000000370935,date'2022-02-17'), (3037181046970,date'2022-02-17'), (4300484303968,date'2022-02-17'), (16079950300,date'2022-02-17'), (1623369954625,date'2022-02-17'), (3037839723622,date'2022-02-18'), (3145807563446,date'2022-02-18'), (614678234,date'2022-02-18'), (1431386595856,date'2022-02-18'), (2719877841589,date'2022-02-19'), (3535606652454,date'2022-02-19'), (2895718477592,date'2022-02-19'), (3712211992212,date'2022-02-19'), (,date'2022-02-19'), (1663087385367,date'2022-02-19'), (2635741204394,date'2022-02-19'), (2840278443452,date'2022-02-20'), (2903605337376,date'2022-02-20'), (6000000002886179,date'2022-02-20'), (2716807328609,date'2022-02-20'), (4336145957450,date'2022-02-20'), (4448760185062,date'2022-02-20'), (3301170953144,date'2022-02-20'), (1465322151551,date'2022-02-20'), (1492876698130,date'2022-02-20'), (3924443758166,date'2022-02-20'), (10733195500,date'2022-02-20'), (3000000006422539,date'2022-02-21'), (2928353479280,date'2022-02-21'), (2837984084492,date'2022-02-21'), (4255763714178,date'2022-02-21'), (2481338113743,date'2022-02-21'), (3105419235100,date'2022-02-22'), (1942649605871,date'2022-02-22'), (5289607102748,date'2022-02-22'), (3264635212230,date'2022-02-22'), (3023737609304,date'2022-02-22'), (11347340470,date'2022-02-22'), (3116791405093,date'2022-02-22'), (7184447492441,date'2022-02-24'), (3174826377024,date'2022-02-24'), (3343175048232,date'2022-02-24'), (1000000011210761,date'2022-02-24'), (8471115828023,date'2022-02-24'), (2907502586682,date'2022-02-24'), (3459476197978,date'2022-02-24'), (4000000006698463,date'2022-02-24'), (1571375368727,date'2022-02-24'), (616133521,date'2022-02-24'), (2827871071577,date'2022-02-24'), (2439187415280,date'2022-02-24'), (3850069614472,date'2022-02-24'), (3306184664928,date'2022-02-24'), (1959401664754,date'2022-02-24'), (1767085296685,date'2022-02-25'), (6074470720,date'2022-02-25'), (1477968420,date'2022-02-25'), (1766259827709,date'2022-02-25'), (2365586667780,date'2022-02-25'), (40737905907400,date'2022-02-25'), (2639371699973,date'2022-02-26'), (6779087100,date'2022-02-26'), (2596631299448,date'2022-02-26'), (8794232980,date'2022-02-26'), (4020981096952,date'2022-02-26'), (1016566700,date'2022-02-28'), (1476397080261,date'2022-02-28'), (1767085296685,date'2022-02-28'), (914738905853,date'2022-03-01'), (5000000002774093,date'2022-03-01'), (180661729351,date'2022-03-01'), (8000000005731773,date'2022-03-01'), (1971587994313,date'2022-03-01'), (1542502158135,date'2022-03-01'), (2670377065207,date'2022-03-30'), (6102989000,date'2022-03-01'), (2205212722237,date'2022-03-01'), (2479754672414,date'2022-03-01'), (4424288105734,date'2022-03-02'), (4378921423006,date'2022-03-02'), (2081646631908,date'2022-03-03'), (3310809410,date'2022-03-03'), (1631927436791,date'2022-03-03'), (2571608629956,date'2022-03-04'), (3610240306908,date'2022-03-04'), (4537457032192,date'2022-03-04'), (3105913130670,date'2022-03-04'), (7000000005946145,date'2022-03-04'), (311930773259,date'2022-03-04'), (13219858690,date'2022-03-05'), (2832948010865,date'2022-03-05'), (3267715907964,date'2022-03-05'), (1578511060150,date'2022-03-05'), (3955417656636,date'2022-03-05'), (2765334757454,date'2022-03-05'), (736350160,date'2022-03-05'), (2934323836529,date'2022-03-05'), (3015806912708,date'2022-03-05'), (4133751474730,date'2022-03-05'), (3945088215598,date'2022-03-05'), (3987404499992,date'2022-03-05'), (16215347250,date'2022-03-05'), (2435349045783,date'2022-03-06'), (278114844263,date'2022-03-07'), (7216865416278,date'2022-03-07'), (6842476206830,date'2022-03-07'), (1543924460,date'2022-03-07'), (6000000002810229,date'2022-03-09'), (2779384522649,date'2022-03-09'), (1911096055820,date'2022-03-10'), (211132836,date'2022-03-10'), (4221363759222,date'2022-03-10'), (1677203301346,date'2022-03-10'), (,date'2022-03-10'), (2582216783435,date'2022-03-10'), (1198328040,date'2022-03-10'), (4314969121946,date'2022-03-11'), (2779875472484,date'2022-03-11'), (2576724013347,date'2022-03-11'), (7276633619534,date'2022-03-14'), (15101472770,date'2022-03-14'), (2743349619819,date'2022-03-14'), (1825970501329,date'2022-03-14'), (1426864833741,date'2022-03-14'), (1476352208281,date'2022-03-14'), (4604655296256,date'2022-03-15'), (4603827663570,date'2022-03-15'), (891208260178,date'2022-03-15'), (299131428,date'2022-03-15'), (2974887100813,date'2022-03-15'), (1000000011202175,date'2022-03-15'), (6000000002756192,date'2022-03-15'), (5236310349046,date'2022-03-15'), (,date'2022-03-16'), (,date'2022-03-16'), (3683797723052,date'2022-03-16'), (1623218931019,date'2022-03-17'), (14682615560,date'2022-03-17'), (2974749622286,date'2022-03-17'), (3099723204335,date'2022-03-17'), (1720923231861,date'2022-03-17'), (7000000005859196,date'2022-03-17'), (1932387575213,date'2022-03-17'), (1515978382451,date'2022-03-17'), (1677044912548,date'2022-03-17'), (1705352135386,date'2022-03-17'), (5535969710,date'2022-03-17'), (3764011343046,date'2022-03-17'), (3716897461358,date'2022-03-17'), (3557110768768,date'2022-03-17'), (3913354977996,date'2022-03-17'), (3857041122032,date'2022-03-17'), (3817020410138,date'2022-03-17'), (2921188937323,date'2022-03-17'), (13561680210,date'2022-03-17'), (10174687000,date'2022-03-18'), (2325079169012,date'2022-03-18'), (1630717174545,date'2022-03-18'), (2486767840,date'2022-03-18'), (3118352106919,date'2022-03-21'), (4235702676578,date'2022-03-21'), (4137360592150,date'2022-03-21'), (1578475871254,date'2022-03-21'), (2855875104890,date'2022-03-21'), (2297544152161,date'2022-03-21'), (8000000005397317,date'2022-03-21'), (2178772142284,date'2022-03-21'), (11646844540,date'2022-03-21'), (3127448422668,date'2022-03-21'), (546460097,date'2022-03-21'), (2707158229601,date'2022-03-21'), (,date'2022-03-21'), (2806016147428,date'2022-03-21'), (267598241637,date'2022-03-21'), (,date'2022-03-21'), (3440000776820,date'2022-03-21'), (3648905601790,date'2022-03-21'), (3941983330794,date'2022-03-21'), (3581248431766,date'2022-03-21'), (1945312870,date'2022-03-21'), (1578341346033,date'2022-03-21'), (5000000003504152,date'2022-03-21'), (2834524625353,date'2022-03-21'), (2668082908253,date'2022-03-21'), (3911933089236,date'2022-03-24'), (4390431271828,date'2022-03-24'), (4436751091228,date'2022-03-24'), (4070764749040,date'2022-03-24'), (9326639310,date'2022-03-24'), (891018394699,date'2022-03-22'), (4138036402348,date'2022-03-22'), (4204837591526,date'2022-03-22'), (3047533649306,date'2022-03-22'), (4000000006675769,date'2022-03-22'), (3115012337393,date'2022-03-22'), (1594300130146,date'2022-03-22'), (3046664280420,date'2022-03-22'), (2617970946746,date'2022-03-22'), (13215211420,date'2022-03-22'), (2794015529634,date'2022-03-22'), (2368153486949,date'2022-03-22'), (,date'2022-03-22'), (2931086213199,date'2022-03-22'), (1622846545155,date'2022-03-22'), (4116406755858,date'2022-03-22'), (2135020992406,date'2022-03-23'), (2049236096348,date'2022-03-23'), (2225606458226,date'2022-03-23'), (161858202,date'2022-03-23'), (3599767913556,date'2022-03-23'), (2703969577336,date'2022-03-24'), (3136317597836,date'2022-03-24'), (3000000006157345,date'2022-03-24'), (2466169779380,date'2022-03-24'), (5315964250,date'2022-03-24'), (1623186164241,date'2022-03-24'), (2629001201653,date'2022-03-24'), (5000000003083473,date'2022-03-24'), (,date'2022-03-24'), (,date'2022-03-25'), (3020960667144,date'2022-03-25'), (,date'2022-03-25'), (2958076886452,date'2022-03-25'), (1570467056884,date'2022-03-25'), (2845514292956,date'2022-03-25'), (4431012807614,date'2022-03-25'), (,date'2022-03-25'), (4000000006701356,date'2022-03-25'), (1578490253575,date'2022-03-26'), (1578512938041,date'2022-03-26'), (1578552551209,date'2022-03-26'), (8000000005539577,da</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_krd_closed_cc"</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>QueryTooLargeError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E168" t="b">
@@ -4638,32 +4638,32 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>line 2:6: Schema 'arnsdpsbx_t_team_sva_oarb' does not exist</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>select* from k808_rx_hdp.arnsdpsbx_t_team_sva_oarb."40_pev_mkk_obr_191224_part_2" limit 10</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb.tdr_szb_df_united_paper_electron_pivot_new</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>MissingSchemaError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>select* from k808_rx_hdp.t_team_sva_oarb."40_pev_mkk_obr_191224_part_2"</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb.tdr_szb_df_united_paper_electron_pivot_new</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4688,7 +4688,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>select * from t_cars_kap.vklad_close_v_01</t>
+          <t>select * ,row_number (*) over (partition by contract_number_hist order by status_dt_hist) as num_statusrest  ,count(*) over (partition by contract_number_hist) as col_status from k808_rx_hdp.t_team_sva_oarb."13_net_premier_pu78_all_step"</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4713,22 +4713,22 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>line 1:33: mismatched input ')'. Expecting: 'AS'</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>select max(cast(creation_date_dd) as date) from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_efs_old"</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_project_12."42_zay_kf_kk" as select * from k808_rx_hdp.t_team_sva_oarb."01889660_1701_zay_tran_kk_rz_st"</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E172" t="b">
@@ -4738,17 +4738,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM (select * from k808_rx_hdp.prx_55_sai_custom_rb_card_custom_rb_card."scd_card_union" ) dbvrcnt</t>
+          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_project_12."42_zay_kf_kk_" select  * from k808_rx_hdp.t_team_sva_oarb."01889660_1701_zay_tran_kk_rz_st"</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4763,7 +4763,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_pprbsurvey"</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_gsd_potrebs"</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4788,7 +4788,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>select * from k808_rx_hdp.prx_tdr_cars_dict_internal_cars_cars_dictionary.DEPARTMENT_ORG</t>
+          <t>select * from k808_rx_hdp.prx_net_us_custom_salesntwrk_appus.event_flow_us</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4813,7 +4813,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>select cluster, source_type, object_date, object_hour, length (cluster) as len from sfd_hdfsgw_hdp.prx_statistika_dl_custom_t_dl.cluster_stat</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_gsd_potrebs_result_client"</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4838,22 +4838,22 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>line 1:1: Destination table 'capgp3_gp.s_grnplm_ld_audit_da_emitent.42_pb1_divrstat_session_detail' already exists</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" as SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>select ctl_loading, ctl_validfrom, atm_id, serial_num, cu_type, denomination, cu_status, logical_pos, load_in_time, load_out_time, timestampcolumn from k808_rx_hdp.prx_hd_dm_curus_custom_salesntwrk_curusds.dm07_cassettes_history</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>ObjectAlreadyExistsError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E177" t="b">
@@ -4863,32 +4863,32 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+          <t>line 2:33: mismatched input '.42'. expecting: ',', '.', 'as', 'cross', 'except', 'fetch', 'for', 'full', 'group', 'having', 'inner', 'intersect', 'join', 'left', 'limit', 'match_recognize', 'natural', 'offset', 'order', 'right', 'tablesample', 'union', 'where', 'window', &lt;eof&gt;, &lt;identifier&gt;</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" as SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb.42_rrn_oarbvvb_1542_1897_base limit 100</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>select * from sfd_hdfsgw_hdp.prx_trn_arch_platform_trahv.ru_sbrf_transfers_archive_entity_transferoperator</t>
+          <t>select cast(udate as varchar) udate_v, cast(cast(time as bigint) as varchar) time_v, time, cast(switch_date as varchar) switch_date_v, cast(switch_time as varchar) switch_time_v from k808_rx_hdp.t_team_sva_oarb."42_lyubi_transport_resp_sv"</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4913,97 +4913,97 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Current transaction is aborted, commands ignored until end of transaction block</t>
+          <t>line 23:1: mismatched input 'from'. expecting: '*', &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SELECT * FROM k808_rx_hdp.prx_kap_prime_dzo_epfb2c_sprm.subscription</t>
+          <t>select udate_v, case 	 		when length(time_v)=6 then time_v 		when length(time_v)=5 then concat('0',time_v) 		when length(time_v)=4 then concat('00',time_v) 		when length(time_v)=3 then concat('000',time_v) 		when length(time_v)=2 then concat('0000',time_v) 		when length(time_v)=1 then concat('00000',time_v) 	end time_v, case 	 		when length(switch_date_v)=6 then switch_date_v 		when length(switch_date_v)=5 then concat('0',switch_date_v) end  switch_date_v, case 	 		when length(switch_time_v)=6 then switch_time_v 		when length(switch_time_v)=5 then concat('0',switch_time_v) 		when length(switch_time_v)=4 then concat('00',switch_time_v) 		when length(switch_time_v)=3 then concat('000',switch_time_v) 		when length(switch_time_v)=2 then concat('0000',switch_time_v) 		when length(switch_time_v)=1 then concat('00000',switch_time_v) 	end switch_time_v, from ( select  cast(cast(udateas bigint) as varchar) udate_v, cast(cast(time as bigint) as varchar) time_v, cast(cast(switch_date as bigint) as varchar) switch_date_v, cast(cast(switch_time as bigint) as varchar) switch_time_v from k808_rx_hdp.t_team_sva_oarb."42_lyubi_transport_resp_sv") sv</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>SyntaxError</t>
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb1_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb" as  select * from k808_rx_hdp.t_team_sva_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb"</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb4_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>select * from t_cars_kap.jt_dash_9_2_part23</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>line 3:196: mismatched input 'б'. Expecting: ',', 'EXCEPT', 'FETCH', 'FROM', 'GROUP', 'HAVING', 'INTERSECT', 'LIMIT', 'OFFSET', 'ORDER', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>select   try_cast(replace(substring(n.sms_text, position('покупки ' in lower(n.sms_text))+8, position('р ' in lower(n.sms_text))-position('покупки ' in lower(n.sms_text))-8),' ','') as decimal(32,2)) sumaб n.sms_text from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2" n</t>
+          <t>select inn_num_ct_v, contract_id_oper, sum(amount) over (partition by inn_num_ct_v, contract_id_oper) summa from k808_rx_hdp.t_team_sva_oarb."40_pev_mkk_ip_oper_dr_peredelka"</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E183" t="b">
@@ -5013,22 +5013,22 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>line 1:40: mismatched input '&lt;EOF&gt;'. Expecting: ')'</t>
+          <t>query exceeded per-node memory limit of 10gb [allocated: 9.99gb, delta: 9.33mb, top consumers: {hashaggregationoperator=9.94gb, exchangeoperator=43.04mb, lazyoutputbuffer=10.79mb}]</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>select position('(\d+)' in 'fhg4jfh125'</t>
+          <t>select  	array_agg(covrd_risk_name),  	prod_module_name from k808_rx_hdp.prx_55_lys_ub_base_custom_fin_dmmidub.t_base_policy_insrbl_covrg_feat group by prod_module_name  limit 1</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E184" t="b">
@@ -5038,22 +5038,22 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>line 1:72: mismatched input '('. Expecting: 'IF', &lt;identifier&gt;</t>
+          <t>query exceeded maximum time limit of 30.00m</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>alter table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics add column( select video_origination_list  from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend )</t>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."55_grin_credit_decl_db" as ( 	select * 	from k808_rx_hdp.t_team_sva_oarb."55_grin_credit_requests_full_new_cl" c 		left join k808_rx_hdp.t_team_sva_oarb."55_osa_z_decl_on_get_cred_for_liza" d 		on (c.app_number = d."z_decl_on_get_cred%c_num_decl" or c.app_number = d."z_decl_on_get_cred%c_tab_number") 	)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>ResourceError</t>
         </is>
       </c>
       <c r="E185" t="b">
@@ -5063,17 +5063,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>line 26:1: mismatched input ')'. Expecting: '%', '*', '+', ',', '-', '.', '/', 'AND', 'AT', 'EXCEPT', 'FETCH', 'INTERSECT', 'LIMIT', 'OFFSET', 'OR', 'ORDER', 'UNION', '[', '||', &lt;EOF&gt;, &lt;predicate&gt;</t>
+          <t>line 2:1: mismatched input 'from'. expecting: 'alter', 'analyze', 'call', 'comment', 'commit', 'create', 'deallocate', 'delete', 'deny', 'desc', 'describe', 'drop', 'execute', 'explain', 'grant', 'insert', 'merge', 'prepare', 'refresh', 'reset', 'revoke', 'rollback', 'set', 'show', 'start', 'truncate', 'update', 'use', &lt;query&gt;</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>insert into clist values ('C22928284',date'2024-01-21'), ('C54828516',date'2024-01-12'), ('C132776421',date'2024-01-18'), ('C45653488',date'2024-01-18'), ('C129179074',date'2024-01-24'), ('C35104445',date'2024-01-24'), ('C91963364',date'2024-01-24'), ('C13092638',date'2024-04-16'), ('C90332826',date'2024-01-25'), ('C111755880',date'2024-01-09'), ('C109891736',date'2024-01-26'), ('C125106118',date'2024-01-29'), ('C83116463',date'2024-01-29'), ('C139020419',date'2024-01-29'), ('C33698274',date'2024-01-29'), ('C5364134',date'2024-01-29'), ('C141046547',date'2024-01-30'), ('C16270447',date'2024-01-30'), ('C55289243',date'2024-01-30'), ('C138519942',date'2024-01-30'), ('C105970003',date'2024-01-31'), ('C115592010',date'2024-01-31'), ('C125057534',date'2024-02-14'), ('C129801742',date'2024-01-31') )  select c.ceshka,c.dt,dmc.client_id,dma.account_id,dca.client_role_id from   clist                         l join   prx_kalita_otchetnaya_1_internal_kalita_report_kalita_gg.dm_client         dmc on dmc.client_ext_id=l.ceshka join   prx_kalita_otchetnaya_1_internal_kalita_report_kalita_gg.dm_client_account dca on dca.client_id=dmc.client_id and dca.client_role_id in (1,2)</t>
+          <t>from k808_rx_hdp.a</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5088,47 +5088,47 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "02316839"</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_emitent."42_pb4_divrstat_session_detail" SELECT * FROM k808_rx_hdp.t_team_sva_oarb."42_pb1_divrstat_session_detail"</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_grin_tortuga_serv_points_full"</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>TooManyConnectionsError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>line 10:1: mismatched input 'from'. Expecting: '*', &lt;expression&gt;</t>
+          <t>Query exceeded maximum time or memory limit</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>select first_value (c.tb) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS tb, first_value (c.osb) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS osb, first_value (c.vsp) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS vsp, c.docnumber, c.name, first_value (c.openingdate) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS openingdate, first_value (c.closingdate) over (PARTITION by c.docnumber, upper(c.name) order by c.pid) AS closingdate,  from t_cars_kap.vklad_close</t>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_gsd_ddzp_cod_hist" order by owner_surname</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>SyntaxError</t>
+          <t>CanceledError</t>
         </is>
       </c>
       <c r="E188" t="b">
@@ -5138,17 +5138,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>fai</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
+          <t>query exceeded the maximum execution time limit of 120.00s</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>create table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics  as select user_id, play_start_dttm, play_duration_sec, subscription_uid, serial_name, video_origination_list   from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend</t>
+          <t>select table_cat from system.jdbc.catalogs order by table_cat</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5158,2131 +5158,6 @@
       </c>
       <c r="E189" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>create table k808_rx_hdp.t_team_drirb2c.okko_playback_metrics  as select user_id, play_start_dttm, play_duration_sec, subscription_uid, serial_name, video_origination_list   from k808_rx_hdp.prx_okko_all_dzo_ooookko_rb.playback_session_extend</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>ResourceError</t>
-        </is>
-      </c>
-      <c r="E190" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_gsd_income_cv"</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E191" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>SELECT * FROM k808_rx_hdp.prx_esa_vitrina_cod_06_custom_rb_cod.dep_agrmnt_44</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E192" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер%в сумме%' then split((split(sms_text,' в сумме')[1]),'на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>TypeError</t>
-        </is>
-      </c>
-      <c r="E193" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер % в сумме%' then split((split(sms_text,' в сумме')[1]),'на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>TypeError</t>
-        </is>
-      </c>
-      <c r="E194" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Array subscript must be less than or equal to array length: 2 &gt; 1</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms2" as select *, case  	when sms_text like '%«%»%исполнен%' then split((split(sms_text,'»')[1]),'«')[2]     when sms_text like '% Оплата%Автоплатёж % Баланс:%' then split((split(sms_text,' Баланс:')[1]),'Автоплатёж ')[2]     when sms_text like '%Автоплатёж на номер % в сумме%' then split((split(sms_text,' в сумме')[1]),'Автоплатёж на номер ')[2]     else null end name_autopayment, case 	when trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')) is not null then cast(replace(trim(regexp_extract(replace(replace(sms_text,' ',''),',','.'), '\d+\.\d\dр ')),'р','') as decimal(19,2)) 	else cast(replace(trim(regexp_extract(replace(sms_text,' ',''), '\d+р ')),'р','') as decimal(19,2)) end amount  from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_transact_sms"</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>TypeError</t>
-        </is>
-      </c>
-      <c r="E195" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>create table k808_rx_hdp.t_team_cxdata.gptable_test1 as select * from sfd_gpgw_gp.prx_trino_testv2_kap818_epk_s_grnplm_as_t_didsd_069_vd__3cl.t_cust_org_idfn_19274933_view</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E196" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."p_vp_sb_pk_and_pt_pi_pr_pp" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp"</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>ResourceError</t>
-        </is>
-      </c>
-      <c r="E197" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Value cannot be cast to date: 2023-10-28 16:23:37</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>select c.sbercrm_alpha_id, c.offer_status, CAST(c.created_date AS date) AS created_date, date_parse(updated_date, '%Y-%m-%d %H:%i:%s') AS updated_date     from  k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer  c   limit 10</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>CastError</t>
-        </is>
-      </c>
-      <c r="E198" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Value cannot be cast to date: 2023-10-28 16:23:37</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>select c.sbercrm_alpha_id, c.offer_status, CAST(c.created_date AS date) AS created_date, date_parse(updated_date, '%Y-%m-%d %H:%i:%s') AS updated_date     from  k808_rx_hdp.prx_cloud_1_dzo_acsbercrm_sales.product_offer  c   limit 10</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>CastError</t>
-        </is>
-      </c>
-      <c r="E199" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>create table k808_rx_hdp.t_team_cxdata.gptable_test1 as select * from sfd_gpgw_gp.prx_trino_testv2_kap818_epk_s_grnplm_as_t_didsd_069_vd__3cl.t_cust_org_idfn_19274933_view</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E200" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."p_vp_sb_pk_and_pt_pi_pr_pp" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp"</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>ResourceError</t>
-        </is>
-      </c>
-      <c r="E201" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>create table capgp2_gp.s_grnplm_ld_audit_da_project_15."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp_two_ac" as  select * from k808_rx_hdp.t_team_sva_oarb."55_sai_p_vp_sb_pk_and_pt_pi_pr_pp_two_ac"</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>ResourceError</t>
-        </is>
-      </c>
-      <c r="E202" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>create table k808_rx_hdp.t_team_cxdata.gptable_test3 as select * from sfd_gpgw_gp.prx_trino_sbb_test_v1_s_grnplm_vd_rozn_mpp_daas_h_6fu.ft_sbol_csa_token_ahd_view</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>ResourceError</t>
-        </is>
-      </c>
-      <c r="E203" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb.tdr_szb_ekp_transact_bfo_client_2023_2024_v2</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E204" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>select 		min_date,  		count(nepkid) as count_min 	FROM 		( 		select distinct 						dtreportdate, 						nepkid, 						MIN(dtreportdate) over (PARTITION by nepkid) as min_date 		from k808_rx_hdp.t_01540664_omega_sbrf_ru.v_is0652_sal_4_25_m 		) 	group by min_date</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E205" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>select  esb_msg_in_guid, esb_msg_in_created_on, send_message_created_on, ucp_id, send_status, msisdn, msg_type_id, ctl_loading, short_push_text, sms_text, substring(coalesce(sms_text,short_push_text),1,8) card, case when cardinality(split(coalesce(sms_text,short_push_text),' '))&gt;3 then lower(split(coalesce(sms_text,short_push_text),' ')[3]) end oper, case 	   when regexp_extract(replace(replace(coalesce(sms_text,short_push_text),'?',''),',','.'), '\d+\.\d\dр ') is not null              then cast(replace(trim(regexp_extract(replace(replace(replace(replace(coalesce(sms_text,short_push_text),'?',''),' ',''),' ',''),',','.'), '\d+\.\d\dр')),'р','') as decimal(19,2))  	   when trim(regexp_extract(replace(replace(coalesce(sms_text,short_push_text),'?',''),',','.'), '\d+р ')) is not null 	   		then cast(replace(trim(regexp_extract(replace(replace(replace(coalesce(sms_text,short_push_text),'?',''),' ',''),' ',''), '\d+р')),'р','') as decimal(19,2)) --   else cast(replace(trim(regexp_extract(replace(replace(replace(sms_text,'?',''),' ',''),' ',''), '\d+р')),'р','') as decimal(19,2)) end amount, replace(replace(replace(replace(coalesce(sms_text,short_push_text),'?',''),' ',''),' ',''),',','.'), trim(regexp_extract(replace(replace(replace(coalesce(sms_text,short_push_text),'?',''),' ',''),' ',''), '\:\d+р')), trim(regexp_extract(replace(replace(replace(replace(coalesce(sms_text,short_push_text),'?',''),' ',''),' ',''),',','.'), '\:\d+\.\d\d')), case    when regexp_extract(replace(replace(replace(coalesce(sms_text,short_push_text),'?',''),',','.'),' ',''), '\:\d+\.\d\dр') is not null               then cast(replace(replace(trim(regexp_extract(replace(replace(replace(replace(coalesce(sms_text,short_push_text),'?',''),' ',''),' ',''),',','.'), '\:\d+\.\d\dр')),':',''),'р','') as decimal(19,2))     else              cast(replace(replace(trim(regexp_extract(replace(replace(replace(coalesce(sms_text,short_push_text),'?',''),' ',''),' ',''), '\:\d+р')),':',''),'р','') as decimal(19,2)) end balans from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1601_sms_vozvrat2"</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E206" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."13_net_p2_300724_launcher"</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E207" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Could not communicate with the remote task. The node may have crashed or be under too much load. This is probably a transient issue, so please retry your query in a few minutes. (pvlos-ldtrn0002.cloud.df.sbrf.ru:8443)</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>SELECT * FROM k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_agreement a 	inner join k808_rx_hdp.prx_55_gev_platform_acqs_platform_acqs.ru_sbrf_pprb_acqs_db_entity_org_tst t on (t.agreement_short_foreign_key=a.id) order by accountnumber limit 10</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E208" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_upp_1_custom_cib_p4d_fns_egr.uchrulin</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E209" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_krd_cc_stg_1"</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E210" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>SELECT * FROM k808_rx_hdp.prx_ooozvuk_prom_dzo_ooozvuk_rb.cltv_listening</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E211" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>SELECT * FROM k808_rx_hdp.prx_ooozvuk_prom_dzo_ooozvuk_rb.cltv_subscriptions</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E212" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_krd_closed_cc"</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E213" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb.tdr_szb_df_united_paper_electron_pivot_new</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E214" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb.tdr_szb_df_united_paper_electron_pivot_new</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E215" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>select * ,row_number (*) over (partition by contract_number_hist order by status_dt_hist) as num_statusrest  ,count(*) over (partition by contract_number_hist) as col_status from k808_rx_hdp.t_team_sva_oarb."13_net_premier_pu78_all_step"</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E216" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>line 3:6: Table 'sfd_hdfsgw_hdp.prx_lazarev_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.scd_stoplist' does not exist</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_lazarev_parsed_rsk_reqst_custom_risk_parsed_rsk_reqst.scd_stoplist limit 100</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>MissingObjectError</t>
-        </is>
-      </c>
-      <c r="E217" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_project_12."42_zay_kf_kk" as select * from k808_rx_hdp.t_team_sva_oarb."01889660_1701_zay_tran_kk_rz_st"</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E218" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>insert into capgp3_gp.s_grnplm_ld_audit_da_project_12."42_zay_kf_kk_" select  * from k808_rx_hdp.t_team_sva_oarb."01889660_1701_zay_tran_kk_rz_st"</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>ResourceError</t>
-        </is>
-      </c>
-      <c r="E219" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_gsd_potrebs"</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E220" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.prx_net_us_custom_salesntwrk_appus.event_flow_us</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E221" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_gsd_potrebs_result_client"</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E222" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>SELECT ctl_loading, ctl_validfrom, atm_id, serial_num, cu_type, denomination, cu_status, logical_pos, load_in_time, load_out_time, timestampcolumn FROM k808_rx_hdp.prx_hd_dm_curus_custom_salesntwrk_curusds.dm07_cassettes_history</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E223" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>line 2:33: mismatched input '.42'. Expecting: ',', '.', 'AS', 'CROSS', 'EXCEPT', 'FETCH', 'FOR', 'FULL', 'GROUP', 'HAVING', 'INNER', 'INTERSECT', 'JOIN', 'LEFT', 'LIMIT', 'MATCH_RECOGNIZE', 'NATURAL', 'OFFSET', 'ORDER', 'RIGHT', 'TABLESAMPLE', 'UNION', 'WHERE', 'WINDOW', &lt;EOF&gt;, &lt;identifier&gt;</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb.42_rrn_oarbvvb_1542_1897_base limit 100</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>SyntaxError</t>
-        </is>
-      </c>
-      <c r="E224" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>select cast(udate as varchar) udate_v, cast(cast(time as bigint) as varchar) time_v, time, cast(switch_date as varchar) switch_date_v, cast(switch_time as varchar) switch_time_v from k808_rx_hdp.t_team_sva_oarb."42_lyubi_transport_resp_sv"</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E225" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>line 23:1: mismatched input 'from'. Expecting: '*', &lt;expression&gt;</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>select udate_v, case 	 		when length(time_v)=6 then time_v 		when length(time_v)=5 then concat('0',time_v) 		when length(time_v)=4 then concat('00',time_v) 		when length(time_v)=3 then concat('000',time_v) 		when length(time_v)=2 then concat('0000',time_v) 		when length(time_v)=1 then concat('00000',time_v) 	end time_v, case 	 		when length(switch_date_v)=6 then switch_date_v 		when length(switch_date_v)=5 then concat('0',switch_date_v) end  switch_date_v, case 	 		when length(switch_time_v)=6 then switch_time_v 		when length(switch_time_v)=5 then concat('0',switch_time_v) 		when length(switch_time_v)=4 then concat('00',switch_time_v) 		when length(switch_time_v)=3 then concat('000',switch_time_v) 		when length(switch_time_v)=2 then concat('0000',switch_time_v) 		when length(switch_time_v)=1 then concat('00000',switch_time_v) 	end switch_time_v, from ( select  cast(cast(udateas bigint) as varchar) udate_v, cast(cast(time as bigint) as varchar) time_v, cast(cast(switch_date as bigint) as varchar) switch_date_v, cast(cast(switch_time as bigint) as varchar) switch_time_v from k808_rx_hdp.t_team_sva_oarb."42_lyubi_transport_resp_sv") sv</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>SyntaxError</t>
-        </is>
-      </c>
-      <c r="E226" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb" as  select * from k808_rx_hdp.t_team_sva_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb"</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>ResourceError</t>
-        </is>
-      </c>
-      <c r="E227" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>org.postgresql.util.PSQLException: FATAL: too many connections for role "21608829"</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>create table capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb" as  select * from k808_rx_hdp.t_team_sva_oarb."42_ryz_kk_otkaz_vidacha_code6_final_tb"</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>TooManyConnectionsError</t>
-        </is>
-      </c>
-      <c r="E228" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>select * from t_cars_kap.jt_DASH_9_2_PART23</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E229" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>select inn_num_ct_v, contract_id_oper, sum(amount) over (partition by inn_num_ct_v, contract_id_oper) summa from k808_rx_hdp.t_team_sva_oarb."40_pev_mkk_ip_oper_dr_peredelka"</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E230" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Query exceeded per-node memory limit of 10GB [Allocated: 9.99GB, Delta: 9.33MB, Top Consumers: {HashAggregationOperator=9.94GB, ExchangeOperator=43.04MB, LazyOutputBuffer=10.79MB}]</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>select  	array_agg(covrd_risk_name),  	prod_module_name from k808_rx_hdp.prx_55_lys_ub_base_custom_fin_dmmidub.t_base_policy_insrbl_covrg_feat group by prod_module_name  limit 1</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>ResourceError</t>
-        </is>
-      </c>
-      <c r="E231" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time limit of 30.00m</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."55_grin_credit_decl_db" as ( 	SELECT * 	FROM k808_rx_hdp.t_team_sva_oarb."55_grin_credit_requests_full_new_cl" c 		left join k808_rx_hdp.t_team_sva_oarb."55_osa_z_decl_on_get_cred_for_liza" d 		on (c.app_number = d."z_decl_on_get_cred%c_num_decl" or c.app_number = d."z_decl_on_get_cred%c_tab_number") 	)</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>ResourceError</t>
-        </is>
-      </c>
-      <c r="E232" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>line 2:1: mismatched input 'FROM'. Expecting: 'ALTER', 'ANALYZE', 'CALL', 'COMMENT', 'COMMIT', 'CREATE', 'DEALLOCATE', 'DELETE', 'DENY', 'DESC', 'DESCRIBE', 'DROP', 'EXECUTE', 'EXPLAIN', 'GRANT', 'INSERT', 'MERGE', 'PREPARE', 'REFRESH', 'RESET', 'REVOKE', 'ROLLBACK', 'SET', 'SHOW', 'START', 'TRUNCATE', 'UPDATE', 'USE', &lt;query&gt;</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>FROM k808_rx_hdp.a</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>SyntaxError</t>
-        </is>
-      </c>
-      <c r="E233" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_grin_tortuga_serv_points_full"</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E234" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>line 2:7: Schema 'arnsdpsbx_t_team_compliance_prototype' does not exist</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>select *  from k808_rx_hdp.arnsdpsbx_t_team_compliance_prototype.t_tab</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>MissingSchemaError</t>
-        </is>
-      </c>
-      <c r="E235" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Query exceeded maximum time or memory limit</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."55_gsd_ddzp_cod_hist" order by owner_surname</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>CanceledError</t>
-        </is>
-      </c>
-      <c r="E236" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Query exceeded the maximum execution time limit of 120.00s</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>SELECT TABLE_CAT FROM system.jdbc.catalogs ORDER BY TABLE_CAT</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>ResourceError</t>
-        </is>
-      </c>
-      <c r="E237" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>select * FROM sfd_hdfsgw_hdp.prx_pprb_platform_masspay_platform_masspay.com_sbt_salary_mp_entities_list_element_masspaymentrosterlistelement limit 100</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E238" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_03406946_omega_sbrf_ru.v_is0929_raskovalov limit 10</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E239" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_1507_voskob_tb_zp_acc2" select a.*, t.opcode, t.opkind, t.externalkind, t.opno, t.opcash, t.balance, t.opday from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1507_voskob_tb_zp_acc" a join sfd_hdfsgw_hdp.prx_cod_deposit_data_opt_internal_cod52_deposit.depohist_opday t on a.b_id_mega=t.id_mega and a.id_major=t.deposit_major and a.id_minor=t.deposit_minor and t.opday_dd  between '2023-10-01' and '2023-10-31'  and t.opkind = 15 and t.opday between cast(a.d1 as date) and cast(a.d2 as date)</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E240" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>select t.* ,k.* from capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."13_net_sp14_travel" t left join  k808_rx_hdp.prx_net_km_custom_fin_pi_kpi.t_pi_kpi k on cast(k.epk_id as varchar) =t.epk_id and k.dat_start=cast(substring(t.creation_date,1,10) as date)</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E241" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_Lazarev_508_ALL_TB1"  limit 100</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E242" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>select * 	from sfd_hdfsgw_hdp.prx_hd_atm_host_main_240821_nrt_atmhost_cap.device_group   	limit 20</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E243" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>SELECT * FROM t_team_sva_audit_2.t38_siv_08_11_24__1121__10__sbol_sbp_aggregated__sum_full_over_15k__120_people_as_sen_and_receivers ORDER BY sender, receiver</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E244" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>select *  from  k808_rx_hdp.prx_zakup_seldon_1_external_seldon.tndrs limit 100</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E245" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>select * from capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E246" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2711_sbolpro_8636_114"</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E247" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_mp_cmpn_ds."230016_ns_df" limit 10</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E248" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2811_duble_oper_itog_epk_id_efs"</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E249" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1743_paket_podkl_fio_prime" SELECT a.*, b.start_date start_date_prime, b.fact_end_date fact_end_date_prime, b.end_date end_date_prime, b.application_datetime application_datetime_prime, b.current_payment_date current_payment_date_prime, b.next_pay_date next_pay_date_prime, b.description description_prime, b.name name_prime, b.status status_prime, b.status_reason status_reason_prime FROM k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1743_paket_podkl_fio" a   join sfd_hdfsgw_hdp.prx_1_bxb1062_pakety_uslug_fl_internal_pprbpu_beta_opf_management.private_service_package b on a.owner_id = b.owner_id and  not(b.start_date &gt; coalesce(cast(a.fact_end_date as date), date(a.end_date), date('9999-12-31')) and b.end_date &lt; a.start_date)  and b.name like '%СберПрайм+%' and b.name like '%СберПрайм%'</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E250" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>select * from t_cars_kap.vklad_close_v_01 limit 1000</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E251" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>create table k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1746_paket_otkl_fio_prime" as SELECT a.*, b.start_date start_date_prime, b.fact_end_date fact_end_date_prime, b.end_date end_date_prime, b.application_datetime application_datetime_prime, b.current_payment_date current_payment_date_prime, b.next_pay_date next_pay_date_prime, b.description description_prime, b.name name_prime, b.status status_prime, b.status_reason status_reason_prime FROM k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1746_paket_otkl_fio" a   join sfd_hdfsgw_hdp.prx_1_bxb1062_pakety_uslug_fl_internal_pprbpu_alpha_opf_management.private_service_package b on a.owner_id = b.owner_id and  not (b.start_date &gt; coalesce(cast(a.fact_end_date as date), date(a.end_date), date('9999-12-31')) or coalesce(cast(b.fact_end_date as date), date(b.end_date), date('9999-12-31')) &lt; a.start_date)  and b.name like '%СберПрайм+%' and b.name like '%СберПрайм%'</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E252" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2"</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E253" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_efs_oct_2"  limit 100</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E254" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>SELECT * FROM sfd_hdfsgw_hdp.prx_elf_credit_preparation_2025_internal_ekp_reports_ibs.z_overdraft_mbk LIMIT 10</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E255" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>select * FROM sfd_hdfsgw_hdp.prx_55_sis_epk_pprb_platform_ucprb.com_sbt_bm_ucp_customerknowledge_model_marker limit 100</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E256" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_alert_sms_3"  select * from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_alert_sms_confirm_2"</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E257" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.prx_55_gev_nrt_efs_chat_nrt_efs_chat.chat_history limit 5</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E258" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>select * from sfd_hdfsgw_hdp.prx_svd_rb_vd_sbol_erib_efs_1_custom_rb_sbol.ft_sbol_oper_union limit 100</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E259" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>select * from	k808_rx_hdp.prx_kalitaprom_internal_kalita_kalita.dict_command</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E260" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>select  * FROM sfd_hdfsgw_hdp.prx_hd_atm_host_nrt_smsb2.atmhost_custatechangedevent_delta limit 100</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E261" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>select * from t_cars_kap.ipoteka_temp</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E262" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>select  * from sfd_hdfsgw_hdp.prx_koa_efs_edinaya_istoriy_operac_internal_efs_ufs_ophistory_1."UOH_OPERATIONS_HISTORY" limit 10</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E263" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>select 		* from 		k808_rx_hdp.prx_44_ias_pulse_hr_internal_saphcm_pulse.hparprd09 limit 100</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E264" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>select 		* from 		k808_rx_hdp.prx_44_ias_pulse_hr_internal_saphcm_pulse_hist.hparprd09 limit 100</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E265" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>select p.* 	,n.* 	---,k.* 	from k808_rx_hdp.t_team_sva_oarb."13_nezn_for_premier"  p 	left join  k808_rx_hdp.t_team_sva_oarb."13_net_premier_900_1" n on cast(n.ucp_id as varchar) =p.owner_id 	and cast (n.esb_msg_in_created_on as date) between cast(p.fact_end_date as date) and cast(p.fact_end_date as date) + interval '7' day</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E266" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>select * from k808_rx_hdp.t_team_sva_oarb."13_net_card_curier"</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E267" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>SELECT COUNT(*) FROM (select * from k808_rx_hdp.t_team_sva_oarb."13_net_card_curier" ) dbvrcnt</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E268" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>select  		* from  		k808_rx_hdp.prx_44_lva_all_nadbavki_vklad_platform_b2c_cod_bonus.ru_sber_fp_db_model_entity_clientepk limit 100</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E269" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>with tab as ( select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_alpha_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_beta_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_delta_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_gamma_opf_management.private_service_package ) select distinct description from tab</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E270" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>select * -----distinct clientsegment from sfd_hdfsgw_hdp.prx_42_slm_pla_uvsk_b2c_servi_call_platform_uvsk_b2c_service_call.ru_sbrf_cc_sbercrmb2c_proceed_jpa_client limit 100</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E271" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>select * FROM prx_infpg_internal_cars_request_db_request.service limit 1</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E272" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>select * FROM prx_infpg_internal_cars_dictionary_db_dictionary_storages.floor limit 1</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E273" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>Использование SELECT * без указания столбцов</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>select 		* from 		k808_rx_hdp.t_team_sva_oarb."44_ias_ck_kate_epk" 		--k808_rx_hdp.t_team_sva_oarb."44_ias_ck_suo_sbolpro" limit 100</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E274" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sql_dataset_real.xlsx
+++ b/sql_dataset_real.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E189"/>
+  <dimension ref="A1:E225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5160,6 +5160,906 @@
         <v>1</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>select * from sfd_hdfsgw_hdp.prx_pprb_platform_masspay_platform_masspay.com_sbt_salary_mp_entities_list_element_masspaymentrosterlistelement limit 100</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_03406946_omega_sbrf_ru.v_is0929_raskovalov limit 10</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_1507_voskob_tb_zp_acc2" select a.*, t.opcode, t.opkind, t.externalkind, t.opno, t.opcash, t.balance, t.opday from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1507_voskob_tb_zp_acc" a join sfd_hdfsgw_hdp.prx_cod_deposit_data_opt_internal_cod52_deposit.depohist_opday t on a.b_id_mega=t.id_mega and a.id_major=t.deposit_major and a.id_minor=t.deposit_minor and t.opday_dd  between '2023-10-01' and '2023-10-31'  and t.opkind = 15 and t.opday between cast(a.d1 as date) and cast(a.d2 as date)</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>select t.* ,k.* from capgp3_gp.s_grnplm_ld_audit_da_sandbox_oarb."13_net_sp14_travel" t left join  k808_rx_hdp.prx_net_km_custom_fin_pi_kpi.t_pi_kpi k on cast(k.epk_id as varchar) =t.epk_id and k.dat_start=cast(substring(t.creation_date,1,10) as date)</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_lazarev_508_all_tb1"  limit 100</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>select * 	from sfd_hdfsgw_hdp.prx_hd_atm_host_main_240821_nrt_atmhost_cap.device_group   	limit 20</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>select * from t_team_sva_audit_2.t38_siv_08_11_24__1121__10__sbol_sbp_aggregated__sum_full_over_15k__120_people_as_sen_and_receivers order by sender, receiver</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>select *  from  k808_rx_hdp.prx_zakup_seldon_1_external_seldon.tndrs limit 100</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>select * from capgp3_gp.s_grnplm_ld_audit_da_sandbox_oapso.belovvg_perevod_bonus_sap_hr</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2711_sbolpro_8636_114"</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_mp_cmpn_ds."230016_ns_df" limit 10</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_2811_duble_oper_itog_epk_id_efs"</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1743_paket_podkl_fio_prime" select a.*, b.start_date start_date_prime, b.fact_end_date fact_end_date_prime, b.end_date end_date_prime, b.application_datetime application_datetime_prime, b.current_payment_date current_payment_date_prime, b.next_pay_date next_pay_date_prime, b.description description_prime, b.name name_prime, b.status status_prime, b.status_reason status_reason_prime from k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1743_paket_podkl_fio" a   join sfd_hdfsgw_hdp.prx_1_bxb1062_pakety_uslug_fl_internal_pprbpu_beta_opf_management.private_service_package b on a.owner_id = b.owner_id and  not(b.start_date &gt; coalesce(cast(a.fact_end_date as date), date(a.end_date), date('9999-12-31')) and b.end_date &lt; a.start_date)  and b.name like '%сберпрайм+%' and b.name like '%сберпрайм%'</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>select * from t_cars_kap.vklad_close_v_01 limit 1000</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>create table k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1746_paket_otkl_fio_prime" as select a.*, b.start_date start_date_prime, b.fact_end_date fact_end_date_prime, b.end_date end_date_prime, b.application_datetime application_datetime_prime, b.current_payment_date current_payment_date_prime, b.next_pay_date next_pay_date_prime, b.description description_prime, b.name name_prime, b.status status_prime, b.status_reason status_reason_prime from k808_rx_hdp.t_team_sva_oarb."42_gulynin_0912_1746_paket_otkl_fio" a   join sfd_hdfsgw_hdp.prx_1_bxb1062_pakety_uslug_fl_internal_pprbpu_alpha_opf_management.private_service_package b on a.owner_id = b.owner_id and  not (b.start_date &gt; coalesce(cast(a.fact_end_date as date), date(a.end_date), date('9999-12-31')) or coalesce(cast(b.fact_end_date as date), date(b.end_date), date('9999-12-31')) &lt; a.start_date)  and b.name like '%сберпрайм+%' and b.name like '%сберпрайм%'</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_gulynin_1812_close_card_sms_2"</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_efs_oct_2"  limit 100</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>select * from sfd_hdfsgw_hdp.prx_elf_credit_preparation_2025_internal_ekp_reports_ibs.z_overdraft_mbk limit 10</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>select * from sfd_hdfsgw_hdp.prx_55_sis_epk_pprb_platform_ucprb.com_sbt_bm_ucp_customerknowledge_model_marker limit 100</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>insert into k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_alert_sms_3"  select * from k808_rx_hdp.t_team_sva_oarb."42_lyubi_autopayment_alert_sms_confirm_2"</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.prx_55_gev_nrt_efs_chat_nrt_efs_chat.chat_history limit 5</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>select * from sfd_hdfsgw_hdp.prx_svd_rb_vd_sbol_erib_efs_1_custom_rb_sbol.ft_sbol_oper_union limit 100</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>select * from	k808_rx_hdp.prx_kalitaprom_internal_kalita_kalita.dict_command</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>select  * from sfd_hdfsgw_hdp.prx_hd_atm_host_nrt_smsb2.atmhost_custatechangedevent_delta limit 100</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>select * from t_cars_kap.ipoteka_temp</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>select  * from sfd_hdfsgw_hdp.prx_koa_efs_edinaya_istoriy_operac_internal_efs_ufs_ophistory_1."uoh_operations_history" limit 10</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>select 		* from 		k808_rx_hdp.prx_44_ias_pulse_hr_internal_saphcm_pulse.hparprd09 limit 100</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>select 		* from 		k808_rx_hdp.prx_44_ias_pulse_hr_internal_saphcm_pulse_hist.hparprd09 limit 100</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>select p.* 	,n.*</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>select * from k808_rx_hdp.t_team_sva_oarb."13_net_card_curier"</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>select count(*) from (select * from k808_rx_hdp.t_team_sva_oarb."13_net_card_curier" ) dbvrcnt</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>select  		* from  		k808_rx_hdp.prx_44_lva_all_nadbavki_vklad_platform_b2c_cod_bonus.ru_sber_fp_db_model_entity_clientepk limit 100</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>with tab as ( select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_alpha_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_beta_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_delta_opf_management.private_service_package union all select * from sfd_hdfsgw_hdp.prx_02184579_pu_702_internal_pprbpu_gamma_opf_management.private_service_package ) select distinct description from tab</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>select * from prx_infpg_internal_cars_request_db_request.service limit 1</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>select * from prx_infpg_internal_cars_dictionary_db_dictionary_storages.floor limit 1</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Use of SELECT * and non-specific columns</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>select 		* from 		k808_rx_hdp.t_team_sva_oarb."44_ias_ck_kate_epk"</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>SelectStarError</t>
+        </is>
+      </c>
+      <c r="E225" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
